--- a/Python/ExternalData/DailyReportTemplateWithLunar_B.xlsx
+++ b/Python/ExternalData/DailyReportTemplateWithLunar_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_EveryThing\_code\HuachunDailyReport2024\Python\ExternalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5256ED-1013-485A-8B57-965E65FEB416}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48300E76-286C-417C-9E5B-22C257094432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A6DB0C3-2965-4D6C-B04A-BB1132023D50}"/>
   </bookViews>
@@ -763,7 +763,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -908,7 +908,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="94">
+  <borders count="90">
     <border>
       <left/>
       <right/>
@@ -1406,17 +1406,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1543,17 +1532,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -1945,26 +1923,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="hair">
         <color indexed="64"/>
       </left>
@@ -1984,19 +1942,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -2097,11 +2042,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="265">
+  <cellXfs count="259">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2137,29 +2095,29 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2170,7 +2128,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2182,27 +2140,27 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2230,584 +2188,565 @@
     <xf numFmtId="176" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="8" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="79" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="86" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="89" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="90" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="91" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="92" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="87" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="93" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="78" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
@@ -2830,7 +2769,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2851,7 +2790,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2869,13 +2808,14 @@
     <xf numFmtId="177" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5483,13 +5423,13 @@
   </sheetPr>
   <dimension ref="A1:BR75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AC8" sqref="AC8:AC10"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:R2"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="15" width="5.125" style="5" customWidth="1"/>
@@ -5498,750 +5438,750 @@
     <col min="71" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="229" t="s">
+    <row r="1" spans="1:70" s="1" customFormat="1" ht="56.25" customHeight="1">
+      <c r="A1" s="228" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="230"/>
-      <c r="C1" s="230"/>
-      <c r="D1" s="230"/>
-      <c r="E1" s="230"/>
-      <c r="F1" s="230"/>
-      <c r="G1" s="230"/>
-      <c r="H1" s="230"/>
-      <c r="I1" s="230"/>
-      <c r="J1" s="230"/>
-      <c r="K1" s="230"/>
-      <c r="L1" s="230"/>
-      <c r="M1" s="230"/>
-      <c r="N1" s="230"/>
-      <c r="O1" s="230"/>
-      <c r="P1" s="230"/>
-      <c r="Q1" s="230"/>
-      <c r="R1" s="230"/>
-      <c r="S1" s="230"/>
-      <c r="T1" s="230"/>
-      <c r="U1" s="230"/>
-      <c r="V1" s="230"/>
-      <c r="W1" s="230"/>
-      <c r="X1" s="230"/>
-      <c r="Y1" s="230"/>
-      <c r="Z1" s="230"/>
-      <c r="AA1" s="230"/>
-      <c r="AB1" s="230"/>
-      <c r="AC1" s="230"/>
-      <c r="AD1" s="230"/>
-      <c r="AE1" s="230"/>
-      <c r="AF1" s="230"/>
-      <c r="AG1" s="230"/>
-      <c r="AH1" s="230"/>
-      <c r="AI1" s="230"/>
-      <c r="AJ1" s="230"/>
-      <c r="AK1" s="230"/>
-      <c r="AL1" s="231"/>
-      <c r="AM1" s="229" t="s">
+      <c r="B1" s="229"/>
+      <c r="C1" s="229"/>
+      <c r="D1" s="229"/>
+      <c r="E1" s="229"/>
+      <c r="F1" s="229"/>
+      <c r="G1" s="229"/>
+      <c r="H1" s="229"/>
+      <c r="I1" s="229"/>
+      <c r="J1" s="229"/>
+      <c r="K1" s="229"/>
+      <c r="L1" s="229"/>
+      <c r="M1" s="229"/>
+      <c r="N1" s="229"/>
+      <c r="O1" s="229"/>
+      <c r="P1" s="229"/>
+      <c r="Q1" s="229"/>
+      <c r="R1" s="229"/>
+      <c r="S1" s="229"/>
+      <c r="T1" s="229"/>
+      <c r="U1" s="229"/>
+      <c r="V1" s="229"/>
+      <c r="W1" s="229"/>
+      <c r="X1" s="229"/>
+      <c r="Y1" s="229"/>
+      <c r="Z1" s="229"/>
+      <c r="AA1" s="229"/>
+      <c r="AB1" s="229"/>
+      <c r="AC1" s="229"/>
+      <c r="AD1" s="229"/>
+      <c r="AE1" s="229"/>
+      <c r="AF1" s="229"/>
+      <c r="AG1" s="229"/>
+      <c r="AH1" s="229"/>
+      <c r="AI1" s="229"/>
+      <c r="AJ1" s="229"/>
+      <c r="AK1" s="229"/>
+      <c r="AL1" s="230"/>
+      <c r="AM1" s="228" t="s">
         <v>160</v>
       </c>
-      <c r="AN1" s="230"/>
-      <c r="AO1" s="230"/>
-      <c r="AP1" s="230"/>
-      <c r="AQ1" s="230"/>
-      <c r="AR1" s="230"/>
-      <c r="AS1" s="230"/>
-      <c r="AT1" s="230"/>
-      <c r="AU1" s="230"/>
-      <c r="AV1" s="230"/>
-      <c r="AW1" s="230"/>
-      <c r="AX1" s="230"/>
-      <c r="AY1" s="230"/>
-      <c r="AZ1" s="230"/>
-      <c r="BA1" s="230"/>
-      <c r="BB1" s="230"/>
-      <c r="BC1" s="230"/>
-      <c r="BD1" s="230"/>
-      <c r="BE1" s="230"/>
-      <c r="BF1" s="230"/>
-      <c r="BG1" s="230"/>
-      <c r="BH1" s="230"/>
-      <c r="BI1" s="230"/>
-      <c r="BJ1" s="230"/>
-      <c r="BK1" s="230"/>
-      <c r="BL1" s="230"/>
-      <c r="BM1" s="230"/>
-      <c r="BN1" s="230"/>
-      <c r="BO1" s="230"/>
-      <c r="BP1" s="230"/>
-      <c r="BQ1" s="230"/>
-      <c r="BR1" s="231"/>
+      <c r="AN1" s="229"/>
+      <c r="AO1" s="229"/>
+      <c r="AP1" s="229"/>
+      <c r="AQ1" s="229"/>
+      <c r="AR1" s="229"/>
+      <c r="AS1" s="229"/>
+      <c r="AT1" s="229"/>
+      <c r="AU1" s="229"/>
+      <c r="AV1" s="229"/>
+      <c r="AW1" s="229"/>
+      <c r="AX1" s="229"/>
+      <c r="AY1" s="229"/>
+      <c r="AZ1" s="229"/>
+      <c r="BA1" s="229"/>
+      <c r="BB1" s="229"/>
+      <c r="BC1" s="229"/>
+      <c r="BD1" s="229"/>
+      <c r="BE1" s="229"/>
+      <c r="BF1" s="229"/>
+      <c r="BG1" s="229"/>
+      <c r="BH1" s="229"/>
+      <c r="BI1" s="229"/>
+      <c r="BJ1" s="229"/>
+      <c r="BK1" s="229"/>
+      <c r="BL1" s="229"/>
+      <c r="BM1" s="229"/>
+      <c r="BN1" s="229"/>
+      <c r="BO1" s="229"/>
+      <c r="BP1" s="229"/>
+      <c r="BQ1" s="229"/>
+      <c r="BR1" s="230"/>
     </row>
-    <row r="2" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="163" t="s">
+    <row r="2" spans="1:70" ht="24.75" customHeight="1">
+      <c r="A2" s="165" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="164"/>
-      <c r="R2" s="164"/>
-      <c r="S2" s="164" t="s">
+      <c r="B2" s="166"/>
+      <c r="C2" s="166"/>
+      <c r="D2" s="166"/>
+      <c r="E2" s="166"/>
+      <c r="F2" s="166"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
+      <c r="P2" s="166"/>
+      <c r="Q2" s="166"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="164"/>
-      <c r="U2" s="164"/>
-      <c r="V2" s="164"/>
-      <c r="W2" s="164"/>
-      <c r="X2" s="164"/>
-      <c r="Y2" s="164"/>
-      <c r="Z2" s="164"/>
-      <c r="AA2" s="164"/>
-      <c r="AB2" s="164"/>
-      <c r="AC2" s="164" t="s">
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="166"/>
+      <c r="AA2" s="166"/>
+      <c r="AB2" s="166"/>
+      <c r="AC2" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="164"/>
-      <c r="AE2" s="164"/>
-      <c r="AF2" s="164"/>
-      <c r="AG2" s="164"/>
-      <c r="AH2" s="164"/>
-      <c r="AI2" s="164"/>
-      <c r="AJ2" s="164"/>
-      <c r="AK2" s="164"/>
-      <c r="AL2" s="165"/>
-      <c r="AM2" s="163" t="s">
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="166"/>
+      <c r="AG2" s="166"/>
+      <c r="AH2" s="166"/>
+      <c r="AI2" s="166"/>
+      <c r="AJ2" s="166"/>
+      <c r="AK2" s="166"/>
+      <c r="AL2" s="167"/>
+      <c r="AM2" s="165" t="s">
         <v>153</v>
       </c>
-      <c r="AN2" s="164"/>
-      <c r="AO2" s="164"/>
-      <c r="AP2" s="164"/>
-      <c r="AQ2" s="164"/>
-      <c r="AR2" s="164"/>
-      <c r="AS2" s="164"/>
-      <c r="AT2" s="164"/>
-      <c r="AU2" s="164"/>
-      <c r="AV2" s="164"/>
-      <c r="AW2" s="164"/>
-      <c r="AX2" s="164"/>
-      <c r="AY2" s="164"/>
-      <c r="AZ2" s="164"/>
-      <c r="BA2" s="164" t="s">
+      <c r="AN2" s="166"/>
+      <c r="AO2" s="166"/>
+      <c r="AP2" s="166"/>
+      <c r="AQ2" s="166"/>
+      <c r="AR2" s="166"/>
+      <c r="AS2" s="166"/>
+      <c r="AT2" s="166"/>
+      <c r="AU2" s="166"/>
+      <c r="AV2" s="166"/>
+      <c r="AW2" s="166"/>
+      <c r="AX2" s="166"/>
+      <c r="AY2" s="166"/>
+      <c r="AZ2" s="166"/>
+      <c r="BA2" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="BB2" s="164"/>
-      <c r="BC2" s="164"/>
-      <c r="BD2" s="164"/>
-      <c r="BE2" s="164"/>
-      <c r="BF2" s="164"/>
-      <c r="BG2" s="164"/>
-      <c r="BH2" s="164"/>
-      <c r="BI2" s="164"/>
-      <c r="BJ2" s="164" t="s">
+      <c r="BB2" s="166"/>
+      <c r="BC2" s="166"/>
+      <c r="BD2" s="166"/>
+      <c r="BE2" s="166"/>
+      <c r="BF2" s="166"/>
+      <c r="BG2" s="166"/>
+      <c r="BH2" s="166"/>
+      <c r="BI2" s="166"/>
+      <c r="BJ2" s="166" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" s="164"/>
-      <c r="BL2" s="164"/>
-      <c r="BM2" s="164"/>
-      <c r="BN2" s="164"/>
-      <c r="BO2" s="164"/>
-      <c r="BP2" s="164"/>
-      <c r="BQ2" s="164"/>
-      <c r="BR2" s="165"/>
+      <c r="BK2" s="166"/>
+      <c r="BL2" s="166"/>
+      <c r="BM2" s="166"/>
+      <c r="BN2" s="166"/>
+      <c r="BO2" s="166"/>
+      <c r="BP2" s="166"/>
+      <c r="BQ2" s="166"/>
+      <c r="BR2" s="167"/>
     </row>
-    <row r="3" spans="1:70" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="163" t="s">
+    <row r="3" spans="1:70" s="1" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A3" s="165" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="164"/>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
-      <c r="E3" s="164"/>
-      <c r="F3" s="164"/>
-      <c r="G3" s="164"/>
-      <c r="H3" s="164"/>
-      <c r="I3" s="164"/>
-      <c r="J3" s="164"/>
-      <c r="K3" s="164"/>
-      <c r="L3" s="164"/>
-      <c r="M3" s="164"/>
-      <c r="N3" s="164"/>
-      <c r="O3" s="164"/>
-      <c r="P3" s="164"/>
-      <c r="Q3" s="164"/>
-      <c r="R3" s="164"/>
-      <c r="S3" s="164" t="s">
+      <c r="B3" s="166"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="166"/>
+      <c r="L3" s="166"/>
+      <c r="M3" s="166"/>
+      <c r="N3" s="166"/>
+      <c r="O3" s="166"/>
+      <c r="P3" s="166"/>
+      <c r="Q3" s="166"/>
+      <c r="R3" s="166"/>
+      <c r="S3" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="164"/>
-      <c r="U3" s="164"/>
-      <c r="V3" s="164"/>
-      <c r="W3" s="164"/>
-      <c r="X3" s="164"/>
-      <c r="Y3" s="164"/>
-      <c r="Z3" s="164"/>
-      <c r="AA3" s="164"/>
-      <c r="AB3" s="164"/>
-      <c r="AC3" s="164" t="s">
+      <c r="T3" s="166"/>
+      <c r="U3" s="166"/>
+      <c r="V3" s="166"/>
+      <c r="W3" s="166"/>
+      <c r="X3" s="166"/>
+      <c r="Y3" s="166"/>
+      <c r="Z3" s="166"/>
+      <c r="AA3" s="166"/>
+      <c r="AB3" s="166"/>
+      <c r="AC3" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="164"/>
-      <c r="AE3" s="164"/>
-      <c r="AF3" s="164"/>
-      <c r="AG3" s="164"/>
-      <c r="AH3" s="164"/>
-      <c r="AI3" s="164"/>
-      <c r="AJ3" s="164"/>
-      <c r="AK3" s="164"/>
-      <c r="AL3" s="165"/>
-      <c r="AM3" s="163" t="s">
+      <c r="AD3" s="166"/>
+      <c r="AE3" s="166"/>
+      <c r="AF3" s="166"/>
+      <c r="AG3" s="166"/>
+      <c r="AH3" s="166"/>
+      <c r="AI3" s="166"/>
+      <c r="AJ3" s="166"/>
+      <c r="AK3" s="166"/>
+      <c r="AL3" s="167"/>
+      <c r="AM3" s="165" t="s">
         <v>161</v>
       </c>
-      <c r="AN3" s="164"/>
-      <c r="AO3" s="164"/>
-      <c r="AP3" s="164"/>
-      <c r="AQ3" s="164"/>
-      <c r="AR3" s="164"/>
-      <c r="AS3" s="164"/>
-      <c r="AT3" s="164"/>
-      <c r="AU3" s="164"/>
-      <c r="AV3" s="164"/>
-      <c r="AW3" s="164"/>
-      <c r="AX3" s="164"/>
-      <c r="AY3" s="164"/>
-      <c r="AZ3" s="164"/>
-      <c r="BA3" s="164" t="s">
+      <c r="AN3" s="166"/>
+      <c r="AO3" s="166"/>
+      <c r="AP3" s="166"/>
+      <c r="AQ3" s="166"/>
+      <c r="AR3" s="166"/>
+      <c r="AS3" s="166"/>
+      <c r="AT3" s="166"/>
+      <c r="AU3" s="166"/>
+      <c r="AV3" s="166"/>
+      <c r="AW3" s="166"/>
+      <c r="AX3" s="166"/>
+      <c r="AY3" s="166"/>
+      <c r="AZ3" s="166"/>
+      <c r="BA3" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="164"/>
-      <c r="BC3" s="164"/>
-      <c r="BD3" s="164"/>
-      <c r="BE3" s="164"/>
-      <c r="BF3" s="164"/>
-      <c r="BG3" s="164"/>
-      <c r="BH3" s="164"/>
-      <c r="BI3" s="164"/>
-      <c r="BJ3" s="164" t="s">
+      <c r="BB3" s="166"/>
+      <c r="BC3" s="166"/>
+      <c r="BD3" s="166"/>
+      <c r="BE3" s="166"/>
+      <c r="BF3" s="166"/>
+      <c r="BG3" s="166"/>
+      <c r="BH3" s="166"/>
+      <c r="BI3" s="166"/>
+      <c r="BJ3" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="BK3" s="164"/>
-      <c r="BL3" s="164"/>
-      <c r="BM3" s="164"/>
-      <c r="BN3" s="164"/>
-      <c r="BO3" s="164"/>
-      <c r="BP3" s="164"/>
-      <c r="BQ3" s="164"/>
-      <c r="BR3" s="165"/>
+      <c r="BK3" s="166"/>
+      <c r="BL3" s="166"/>
+      <c r="BM3" s="166"/>
+      <c r="BN3" s="166"/>
+      <c r="BO3" s="166"/>
+      <c r="BP3" s="166"/>
+      <c r="BQ3" s="166"/>
+      <c r="BR3" s="167"/>
     </row>
-    <row r="4" spans="1:70" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="92"/>
-      <c r="B4" s="191" t="s">
+    <row r="4" spans="1:70" ht="40.5" customHeight="1">
+      <c r="A4" s="257"/>
+      <c r="B4" s="256"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
+      <c r="F4" s="256"/>
+      <c r="G4" s="256"/>
+      <c r="H4" s="256"/>
+      <c r="I4" s="256"/>
+      <c r="J4" s="256"/>
+      <c r="K4" s="256"/>
+      <c r="L4" s="256"/>
+      <c r="M4" s="256"/>
+      <c r="N4" s="256"/>
+      <c r="O4" s="256"/>
+      <c r="P4" s="256"/>
+      <c r="Q4" s="256"/>
+      <c r="R4" s="256"/>
+      <c r="S4" s="256"/>
+      <c r="T4" s="256"/>
+      <c r="U4" s="256"/>
+      <c r="V4" s="256"/>
+      <c r="W4" s="256"/>
+      <c r="X4" s="256"/>
+      <c r="Y4" s="256"/>
+      <c r="Z4" s="256"/>
+      <c r="AA4" s="256"/>
+      <c r="AB4" s="256"/>
+      <c r="AC4" s="256"/>
+      <c r="AD4" s="256"/>
+      <c r="AE4" s="256"/>
+      <c r="AF4" s="256"/>
+      <c r="AG4" s="256"/>
+      <c r="AH4" s="256"/>
+      <c r="AI4" s="256"/>
+      <c r="AJ4" s="256"/>
+      <c r="AK4" s="256"/>
+      <c r="AL4" s="256"/>
+      <c r="AM4" s="150" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN4" s="231" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO4" s="232"/>
+      <c r="AP4" s="233"/>
+      <c r="AQ4" s="231" t="s">
+        <v>165</v>
+      </c>
+      <c r="AR4" s="232"/>
+      <c r="AS4" s="232"/>
+      <c r="AT4" s="232"/>
+      <c r="AU4" s="232"/>
+      <c r="AV4" s="232"/>
+      <c r="AW4" s="232"/>
+      <c r="AX4" s="232"/>
+      <c r="AY4" s="232"/>
+      <c r="AZ4" s="232"/>
+      <c r="BA4" s="232"/>
+      <c r="BB4" s="232"/>
+      <c r="BC4" s="232"/>
+      <c r="BD4" s="233"/>
+      <c r="BE4" s="231" t="s">
+        <v>166</v>
+      </c>
+      <c r="BF4" s="234"/>
+      <c r="BG4" s="232"/>
+      <c r="BH4" s="232"/>
+      <c r="BI4" s="232"/>
+      <c r="BJ4" s="232"/>
+      <c r="BK4" s="233"/>
+      <c r="BL4" s="231" t="s">
+        <v>4</v>
+      </c>
+      <c r="BM4" s="232"/>
+      <c r="BN4" s="232"/>
+      <c r="BO4" s="233"/>
+      <c r="BP4" s="231" t="s">
+        <v>5</v>
+      </c>
+      <c r="BQ4" s="232"/>
+      <c r="BR4" s="235"/>
+    </row>
+    <row r="5" spans="1:70" s="5" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A5" s="258"/>
+      <c r="B5" s="152" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="237"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="237"/>
-      <c r="F4" s="237"/>
-      <c r="G4" s="237"/>
-      <c r="H4" s="238"/>
-      <c r="I4" s="191" t="s">
+      <c r="C5" s="152"/>
+      <c r="D5" s="152"/>
+      <c r="E5" s="152"/>
+      <c r="F5" s="152"/>
+      <c r="G5" s="152"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="152" t="s">
         <v>155</v>
       </c>
-      <c r="J4" s="237"/>
-      <c r="K4" s="237"/>
-      <c r="L4" s="237"/>
-      <c r="M4" s="237"/>
-      <c r="N4" s="237"/>
-      <c r="O4" s="238"/>
-      <c r="P4" s="191" t="s">
+      <c r="J5" s="152"/>
+      <c r="K5" s="152"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="152"/>
+      <c r="N5" s="152"/>
+      <c r="O5" s="152"/>
+      <c r="P5" s="152" t="s">
         <v>156</v>
       </c>
-      <c r="Q4" s="237"/>
-      <c r="R4" s="237"/>
-      <c r="S4" s="237"/>
-      <c r="T4" s="237"/>
-      <c r="U4" s="237"/>
-      <c r="V4" s="238"/>
-      <c r="W4" s="191" t="s">
+      <c r="Q5" s="152"/>
+      <c r="R5" s="152"/>
+      <c r="S5" s="152"/>
+      <c r="T5" s="152"/>
+      <c r="U5" s="152"/>
+      <c r="V5" s="152"/>
+      <c r="W5" s="152" t="s">
         <v>157</v>
       </c>
-      <c r="X4" s="237"/>
-      <c r="Y4" s="237"/>
-      <c r="Z4" s="237"/>
-      <c r="AA4" s="237"/>
-      <c r="AB4" s="237"/>
-      <c r="AC4" s="238"/>
-      <c r="AD4" s="191" t="s">
+      <c r="X5" s="152"/>
+      <c r="Y5" s="152"/>
+      <c r="Z5" s="152"/>
+      <c r="AA5" s="152"/>
+      <c r="AB5" s="152"/>
+      <c r="AC5" s="152"/>
+      <c r="AD5" s="152" t="s">
         <v>158</v>
       </c>
-      <c r="AE4" s="237"/>
-      <c r="AF4" s="237"/>
-      <c r="AG4" s="237"/>
-      <c r="AH4" s="237"/>
-      <c r="AI4" s="237"/>
-      <c r="AJ4" s="238"/>
-      <c r="AK4" s="191" t="s">
+      <c r="AE5" s="152"/>
+      <c r="AF5" s="152"/>
+      <c r="AG5" s="152"/>
+      <c r="AH5" s="152"/>
+      <c r="AI5" s="152"/>
+      <c r="AJ5" s="152"/>
+      <c r="AK5" s="152" t="s">
         <v>159</v>
       </c>
-      <c r="AL4" s="192"/>
-      <c r="AM4" s="136" t="s">
-        <v>163</v>
-      </c>
-      <c r="AN4" s="232" t="s">
-        <v>164</v>
-      </c>
-      <c r="AO4" s="233"/>
-      <c r="AP4" s="234"/>
-      <c r="AQ4" s="232" t="s">
-        <v>165</v>
-      </c>
-      <c r="AR4" s="233"/>
-      <c r="AS4" s="233"/>
-      <c r="AT4" s="233"/>
-      <c r="AU4" s="233"/>
-      <c r="AV4" s="233"/>
-      <c r="AW4" s="233"/>
-      <c r="AX4" s="233"/>
-      <c r="AY4" s="233"/>
-      <c r="AZ4" s="233"/>
-      <c r="BA4" s="233"/>
-      <c r="BB4" s="233"/>
-      <c r="BC4" s="233"/>
-      <c r="BD4" s="234"/>
-      <c r="BE4" s="232" t="s">
-        <v>166</v>
-      </c>
-      <c r="BF4" s="235"/>
-      <c r="BG4" s="233"/>
-      <c r="BH4" s="233"/>
-      <c r="BI4" s="233"/>
-      <c r="BJ4" s="233"/>
-      <c r="BK4" s="234"/>
-      <c r="BL4" s="232" t="s">
-        <v>4</v>
-      </c>
-      <c r="BM4" s="233"/>
-      <c r="BN4" s="233"/>
-      <c r="BO4" s="234"/>
-      <c r="BP4" s="232" t="s">
-        <v>5</v>
-      </c>
-      <c r="BQ4" s="233"/>
-      <c r="BR4" s="236"/>
+      <c r="AL5" s="152"/>
+      <c r="AM5" s="151" t="s">
+        <v>6</v>
+      </c>
+      <c r="AN5" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="AO5" s="123" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP5" s="124" t="s">
+        <v>9</v>
+      </c>
+      <c r="AQ5" s="125" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR5" s="172" t="s">
+        <v>11</v>
+      </c>
+      <c r="AS5" s="173"/>
+      <c r="AT5" s="172" t="s">
+        <v>12</v>
+      </c>
+      <c r="AU5" s="173"/>
+      <c r="AV5" s="172" t="s">
+        <v>13</v>
+      </c>
+      <c r="AW5" s="173"/>
+      <c r="AX5" s="172" t="s">
+        <v>14</v>
+      </c>
+      <c r="AY5" s="173"/>
+      <c r="AZ5" s="172" t="s">
+        <v>15</v>
+      </c>
+      <c r="BA5" s="173"/>
+      <c r="BB5" s="172" t="s">
+        <v>16</v>
+      </c>
+      <c r="BC5" s="173"/>
+      <c r="BD5" s="124" t="s">
+        <v>17</v>
+      </c>
+      <c r="BE5" s="176" t="s">
+        <v>18</v>
+      </c>
+      <c r="BF5" s="173"/>
+      <c r="BG5" s="177" t="s">
+        <v>19</v>
+      </c>
+      <c r="BH5" s="178"/>
+      <c r="BI5" s="177" t="s">
+        <v>20</v>
+      </c>
+      <c r="BJ5" s="178"/>
+      <c r="BK5" s="126" t="s">
+        <v>21</v>
+      </c>
+      <c r="BL5" s="122" t="s">
+        <v>22</v>
+      </c>
+      <c r="BM5" s="127" t="s">
+        <v>23</v>
+      </c>
+      <c r="BN5" s="127" t="s">
+        <v>24</v>
+      </c>
+      <c r="BO5" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="BP5" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="BQ5" s="130" t="s">
+        <v>27</v>
+      </c>
+      <c r="BR5" s="134" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:70" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="91"/>
-      <c r="B5" s="193"/>
-      <c r="C5" s="239"/>
-      <c r="D5" s="239"/>
-      <c r="E5" s="239"/>
-      <c r="F5" s="239"/>
-      <c r="G5" s="239"/>
-      <c r="H5" s="240"/>
-      <c r="I5" s="193"/>
-      <c r="J5" s="239"/>
-      <c r="K5" s="239"/>
-      <c r="L5" s="239"/>
-      <c r="M5" s="239"/>
-      <c r="N5" s="239"/>
-      <c r="O5" s="240"/>
-      <c r="P5" s="193"/>
-      <c r="Q5" s="239"/>
-      <c r="R5" s="239"/>
-      <c r="S5" s="239"/>
-      <c r="T5" s="239"/>
-      <c r="U5" s="239"/>
-      <c r="V5" s="240"/>
-      <c r="W5" s="193"/>
-      <c r="X5" s="239"/>
-      <c r="Y5" s="239"/>
-      <c r="Z5" s="239"/>
-      <c r="AA5" s="239"/>
-      <c r="AB5" s="239"/>
-      <c r="AC5" s="240"/>
-      <c r="AD5" s="193"/>
-      <c r="AE5" s="239"/>
-      <c r="AF5" s="239"/>
-      <c r="AG5" s="239"/>
-      <c r="AH5" s="239"/>
-      <c r="AI5" s="239"/>
-      <c r="AJ5" s="240"/>
-      <c r="AK5" s="193"/>
-      <c r="AL5" s="194"/>
-      <c r="AM5" s="137" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN5" s="124" t="s">
-        <v>7</v>
-      </c>
-      <c r="AO5" s="125" t="s">
-        <v>8</v>
-      </c>
-      <c r="AP5" s="126" t="s">
-        <v>9</v>
-      </c>
-      <c r="AQ5" s="127" t="s">
-        <v>10</v>
-      </c>
-      <c r="AR5" s="170" t="s">
-        <v>11</v>
-      </c>
-      <c r="AS5" s="171"/>
-      <c r="AT5" s="170" t="s">
-        <v>12</v>
-      </c>
-      <c r="AU5" s="171"/>
-      <c r="AV5" s="170" t="s">
-        <v>13</v>
-      </c>
-      <c r="AW5" s="171"/>
-      <c r="AX5" s="170" t="s">
-        <v>14</v>
-      </c>
-      <c r="AY5" s="171"/>
-      <c r="AZ5" s="170" t="s">
-        <v>15</v>
-      </c>
-      <c r="BA5" s="171"/>
-      <c r="BB5" s="170" t="s">
-        <v>16</v>
-      </c>
-      <c r="BC5" s="171"/>
-      <c r="BD5" s="126" t="s">
-        <v>17</v>
-      </c>
-      <c r="BE5" s="174" t="s">
-        <v>18</v>
-      </c>
-      <c r="BF5" s="171"/>
-      <c r="BG5" s="175" t="s">
-        <v>19</v>
-      </c>
-      <c r="BH5" s="176"/>
-      <c r="BI5" s="175" t="s">
-        <v>20</v>
-      </c>
-      <c r="BJ5" s="176"/>
-      <c r="BK5" s="128" t="s">
-        <v>21</v>
-      </c>
-      <c r="BL5" s="124" t="s">
-        <v>22</v>
-      </c>
-      <c r="BM5" s="129" t="s">
-        <v>23</v>
-      </c>
-      <c r="BN5" s="129" t="s">
-        <v>24</v>
-      </c>
-      <c r="BO5" s="130" t="s">
-        <v>25</v>
-      </c>
-      <c r="BP5" s="131" t="s">
-        <v>26</v>
-      </c>
-      <c r="BQ5" s="132" t="s">
-        <v>27</v>
-      </c>
-      <c r="BR5" s="138" t="s">
-        <v>28</v>
+    <row r="6" spans="1:70" ht="78.75" customHeight="1">
+      <c r="A6" s="39"/>
+      <c r="B6" s="191" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="189" t="s">
+        <v>50</v>
+      </c>
+      <c r="E6" s="189" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="189" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="189" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" s="187" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="191" t="s">
+        <v>162</v>
+      </c>
+      <c r="J6" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="189" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="189" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="189" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="189" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="187" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="191" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q6" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="R6" s="189" t="s">
+        <v>50</v>
+      </c>
+      <c r="S6" s="189" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" s="189" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="189" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" s="187" t="s">
+        <v>54</v>
+      </c>
+      <c r="W6" s="191" t="s">
+        <v>162</v>
+      </c>
+      <c r="X6" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y6" s="189" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z6" s="189" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA6" s="189" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB6" s="189" t="s">
+        <v>53</v>
+      </c>
+      <c r="AC6" s="187" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD6" s="191" t="s">
+        <v>162</v>
+      </c>
+      <c r="AE6" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF6" s="189" t="s">
+        <v>50</v>
+      </c>
+      <c r="AG6" s="189" t="s">
+        <v>51</v>
+      </c>
+      <c r="AH6" s="189" t="s">
+        <v>52</v>
+      </c>
+      <c r="AI6" s="189" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ6" s="187" t="s">
+        <v>54</v>
+      </c>
+      <c r="AK6" s="191" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL6" s="185" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM6" s="238" t="s">
+        <v>167</v>
+      </c>
+      <c r="AN6" s="238" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO6" s="181" t="s">
+        <v>30</v>
+      </c>
+      <c r="AP6" s="183" t="s">
+        <v>32</v>
+      </c>
+      <c r="AQ6" s="236" t="s">
+        <v>33</v>
+      </c>
+      <c r="AR6" s="174" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS6" s="175"/>
+      <c r="AT6" s="174" t="s">
+        <v>35</v>
+      </c>
+      <c r="AU6" s="175"/>
+      <c r="AV6" s="174" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW6" s="175"/>
+      <c r="AX6" s="174" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY6" s="175"/>
+      <c r="AZ6" s="174" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA6" s="175"/>
+      <c r="BB6" s="174" t="s">
+        <v>31</v>
+      </c>
+      <c r="BC6" s="175"/>
+      <c r="BD6" s="246" t="s">
+        <v>32</v>
+      </c>
+      <c r="BE6" s="248" t="s">
+        <v>39</v>
+      </c>
+      <c r="BF6" s="249"/>
+      <c r="BG6" s="250" t="s">
+        <v>40</v>
+      </c>
+      <c r="BH6" s="251"/>
+      <c r="BI6" s="179" t="s">
+        <v>31</v>
+      </c>
+      <c r="BJ6" s="180"/>
+      <c r="BK6" s="252" t="s">
+        <v>32</v>
+      </c>
+      <c r="BL6" s="238" t="s">
+        <v>41</v>
+      </c>
+      <c r="BM6" s="181" t="s">
+        <v>32</v>
+      </c>
+      <c r="BN6" s="181" t="s">
+        <v>42</v>
+      </c>
+      <c r="BO6" s="183" t="s">
+        <v>43</v>
+      </c>
+      <c r="BP6" s="240" t="s">
+        <v>44</v>
+      </c>
+      <c r="BQ6" s="244" t="s">
+        <v>45</v>
+      </c>
+      <c r="BR6" s="242" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:70" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="39"/>
-      <c r="B6" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="187" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="187" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="187" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="187" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" s="187" t="s">
-        <v>53</v>
-      </c>
-      <c r="H6" s="185" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="J6" s="187" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="187" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="187" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="187" t="s">
-        <v>52</v>
-      </c>
-      <c r="N6" s="187" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" s="185" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q6" s="187" t="s">
-        <v>49</v>
-      </c>
-      <c r="R6" s="187" t="s">
-        <v>50</v>
-      </c>
-      <c r="S6" s="187" t="s">
-        <v>51</v>
-      </c>
-      <c r="T6" s="187" t="s">
-        <v>52</v>
-      </c>
-      <c r="U6" s="187" t="s">
-        <v>53</v>
-      </c>
-      <c r="V6" s="185" t="s">
-        <v>54</v>
-      </c>
-      <c r="W6" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="X6" s="187" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y6" s="187" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z6" s="187" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA6" s="187" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB6" s="187" t="s">
-        <v>53</v>
-      </c>
-      <c r="AC6" s="185" t="s">
-        <v>54</v>
-      </c>
-      <c r="AD6" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="AE6" s="187" t="s">
-        <v>49</v>
-      </c>
-      <c r="AF6" s="187" t="s">
-        <v>50</v>
-      </c>
-      <c r="AG6" s="187" t="s">
-        <v>51</v>
-      </c>
-      <c r="AH6" s="187" t="s">
-        <v>52</v>
-      </c>
-      <c r="AI6" s="187" t="s">
-        <v>53</v>
-      </c>
-      <c r="AJ6" s="185" t="s">
-        <v>54</v>
-      </c>
-      <c r="AK6" s="189" t="s">
-        <v>162</v>
-      </c>
-      <c r="AL6" s="183" t="s">
-        <v>49</v>
-      </c>
-      <c r="AM6" s="243" t="s">
-        <v>167</v>
-      </c>
-      <c r="AN6" s="243" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO6" s="179" t="s">
-        <v>30</v>
-      </c>
-      <c r="AP6" s="181" t="s">
-        <v>32</v>
-      </c>
-      <c r="AQ6" s="241" t="s">
-        <v>33</v>
-      </c>
-      <c r="AR6" s="172" t="s">
-        <v>34</v>
-      </c>
-      <c r="AS6" s="173"/>
-      <c r="AT6" s="172" t="s">
-        <v>35</v>
-      </c>
-      <c r="AU6" s="173"/>
-      <c r="AV6" s="172" t="s">
-        <v>36</v>
-      </c>
-      <c r="AW6" s="173"/>
-      <c r="AX6" s="172" t="s">
-        <v>37</v>
-      </c>
-      <c r="AY6" s="173"/>
-      <c r="AZ6" s="172" t="s">
-        <v>38</v>
-      </c>
-      <c r="BA6" s="173"/>
-      <c r="BB6" s="172" t="s">
-        <v>31</v>
-      </c>
-      <c r="BC6" s="173"/>
-      <c r="BD6" s="251" t="s">
-        <v>32</v>
-      </c>
-      <c r="BE6" s="253" t="s">
-        <v>39</v>
-      </c>
-      <c r="BF6" s="254"/>
-      <c r="BG6" s="255" t="s">
-        <v>40</v>
-      </c>
-      <c r="BH6" s="256"/>
-      <c r="BI6" s="177" t="s">
-        <v>31</v>
-      </c>
-      <c r="BJ6" s="178"/>
-      <c r="BK6" s="257" t="s">
-        <v>32</v>
-      </c>
-      <c r="BL6" s="243" t="s">
-        <v>41</v>
-      </c>
-      <c r="BM6" s="179" t="s">
-        <v>32</v>
-      </c>
-      <c r="BN6" s="179" t="s">
-        <v>42</v>
-      </c>
-      <c r="BO6" s="181" t="s">
-        <v>43</v>
-      </c>
-      <c r="BP6" s="245" t="s">
-        <v>44</v>
-      </c>
-      <c r="BQ6" s="249" t="s">
-        <v>45</v>
-      </c>
-      <c r="BR6" s="247" t="s">
-        <v>46</v>
-      </c>
+    <row r="7" spans="1:70" s="6" customFormat="1" ht="24.75" customHeight="1">
+      <c r="A7" s="100" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="192"/>
+      <c r="C7" s="190"/>
+      <c r="D7" s="190"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="190"/>
+      <c r="G7" s="190"/>
+      <c r="H7" s="188"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="190"/>
+      <c r="K7" s="190"/>
+      <c r="L7" s="190"/>
+      <c r="M7" s="190"/>
+      <c r="N7" s="190"/>
+      <c r="O7" s="188"/>
+      <c r="P7" s="192"/>
+      <c r="Q7" s="190"/>
+      <c r="R7" s="190"/>
+      <c r="S7" s="190"/>
+      <c r="T7" s="190"/>
+      <c r="U7" s="190"/>
+      <c r="V7" s="188"/>
+      <c r="W7" s="192"/>
+      <c r="X7" s="190"/>
+      <c r="Y7" s="190"/>
+      <c r="Z7" s="190"/>
+      <c r="AA7" s="190"/>
+      <c r="AB7" s="190"/>
+      <c r="AC7" s="188"/>
+      <c r="AD7" s="192"/>
+      <c r="AE7" s="190"/>
+      <c r="AF7" s="190"/>
+      <c r="AG7" s="190"/>
+      <c r="AH7" s="190"/>
+      <c r="AI7" s="190"/>
+      <c r="AJ7" s="188"/>
+      <c r="AK7" s="192"/>
+      <c r="AL7" s="186"/>
+      <c r="AM7" s="239"/>
+      <c r="AN7" s="239"/>
+      <c r="AO7" s="182"/>
+      <c r="AP7" s="184"/>
+      <c r="AQ7" s="237"/>
+      <c r="AR7" s="112"/>
+      <c r="AS7" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT7" s="112"/>
+      <c r="AU7" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV7" s="118"/>
+      <c r="AW7" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX7" s="119"/>
+      <c r="AY7" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ7" s="119"/>
+      <c r="BA7" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB7" s="119"/>
+      <c r="BC7" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD7" s="247"/>
+      <c r="BE7" s="113"/>
+      <c r="BF7" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="BG7" s="120"/>
+      <c r="BH7" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="BI7" s="121"/>
+      <c r="BJ7" s="118" t="s">
+        <v>48</v>
+      </c>
+      <c r="BK7" s="253"/>
+      <c r="BL7" s="239"/>
+      <c r="BM7" s="182"/>
+      <c r="BN7" s="182"/>
+      <c r="BO7" s="184"/>
+      <c r="BP7" s="241"/>
+      <c r="BQ7" s="245"/>
+      <c r="BR7" s="243"/>
     </row>
-    <row r="7" spans="1:70" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="102" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="190"/>
-      <c r="C7" s="188"/>
-      <c r="D7" s="188"/>
-      <c r="E7" s="188"/>
-      <c r="F7" s="188"/>
-      <c r="G7" s="188"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="190"/>
-      <c r="J7" s="188"/>
-      <c r="K7" s="188"/>
-      <c r="L7" s="188"/>
-      <c r="M7" s="188"/>
-      <c r="N7" s="188"/>
-      <c r="O7" s="186"/>
-      <c r="P7" s="190"/>
-      <c r="Q7" s="188"/>
-      <c r="R7" s="188"/>
-      <c r="S7" s="188"/>
-      <c r="T7" s="188"/>
-      <c r="U7" s="188"/>
-      <c r="V7" s="186"/>
-      <c r="W7" s="190"/>
-      <c r="X7" s="188"/>
-      <c r="Y7" s="188"/>
-      <c r="Z7" s="188"/>
-      <c r="AA7" s="188"/>
-      <c r="AB7" s="188"/>
-      <c r="AC7" s="186"/>
-      <c r="AD7" s="190"/>
-      <c r="AE7" s="188"/>
-      <c r="AF7" s="188"/>
-      <c r="AG7" s="188"/>
-      <c r="AH7" s="188"/>
-      <c r="AI7" s="188"/>
-      <c r="AJ7" s="186"/>
-      <c r="AK7" s="190"/>
-      <c r="AL7" s="184"/>
-      <c r="AM7" s="244"/>
-      <c r="AN7" s="244"/>
-      <c r="AO7" s="180"/>
-      <c r="AP7" s="182"/>
-      <c r="AQ7" s="242"/>
-      <c r="AR7" s="114"/>
-      <c r="AS7" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="AT7" s="114"/>
-      <c r="AU7" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV7" s="120"/>
-      <c r="AW7" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="AX7" s="121"/>
-      <c r="AY7" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ7" s="121"/>
-      <c r="BA7" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="BB7" s="121"/>
-      <c r="BC7" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="BD7" s="252"/>
-      <c r="BE7" s="115"/>
-      <c r="BF7" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="BG7" s="122"/>
-      <c r="BH7" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="BI7" s="123"/>
-      <c r="BJ7" s="120" t="s">
-        <v>48</v>
-      </c>
-      <c r="BK7" s="258"/>
-      <c r="BL7" s="244"/>
-      <c r="BM7" s="180"/>
-      <c r="BN7" s="180"/>
-      <c r="BO7" s="182"/>
-      <c r="BP7" s="246"/>
-      <c r="BQ7" s="250"/>
-      <c r="BR7" s="248"/>
-    </row>
-    <row r="8" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="196" t="s">
+    <row r="8" spans="1:70" ht="30" customHeight="1">
+      <c r="A8" s="194" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="54"/>
@@ -6281,82 +6221,82 @@
       <c r="AJ8" s="56"/>
       <c r="AK8" s="57"/>
       <c r="AL8" s="58"/>
-      <c r="AM8" s="139"/>
+      <c r="AM8" s="135"/>
       <c r="AN8" s="40"/>
       <c r="AO8" s="41"/>
-      <c r="AP8" s="133"/>
+      <c r="AP8" s="131"/>
       <c r="AQ8" s="44"/>
-      <c r="AR8" s="116"/>
-      <c r="AS8" s="116"/>
-      <c r="AT8" s="116"/>
-      <c r="AU8" s="116"/>
-      <c r="AV8" s="116"/>
-      <c r="AW8" s="117"/>
-      <c r="AX8" s="117"/>
-      <c r="AY8" s="117"/>
-      <c r="AZ8" s="117"/>
-      <c r="BA8" s="117"/>
-      <c r="BB8" s="117"/>
-      <c r="BC8" s="117"/>
-      <c r="BD8" s="118"/>
-      <c r="BE8" s="119"/>
-      <c r="BF8" s="117"/>
-      <c r="BG8" s="116"/>
-      <c r="BH8" s="116"/>
-      <c r="BI8" s="116"/>
-      <c r="BJ8" s="117"/>
-      <c r="BK8" s="118"/>
-      <c r="BL8" s="166"/>
-      <c r="BM8" s="117"/>
-      <c r="BN8" s="117"/>
-      <c r="BO8" s="259"/>
-      <c r="BP8" s="166"/>
-      <c r="BQ8" s="117"/>
-      <c r="BR8" s="168"/>
+      <c r="AR8" s="114"/>
+      <c r="AS8" s="114"/>
+      <c r="AT8" s="114"/>
+      <c r="AU8" s="114"/>
+      <c r="AV8" s="114"/>
+      <c r="AW8" s="115"/>
+      <c r="AX8" s="115"/>
+      <c r="AY8" s="115"/>
+      <c r="AZ8" s="115"/>
+      <c r="BA8" s="115"/>
+      <c r="BB8" s="115"/>
+      <c r="BC8" s="115"/>
+      <c r="BD8" s="116"/>
+      <c r="BE8" s="117"/>
+      <c r="BF8" s="115"/>
+      <c r="BG8" s="114"/>
+      <c r="BH8" s="114"/>
+      <c r="BI8" s="114"/>
+      <c r="BJ8" s="115"/>
+      <c r="BK8" s="116"/>
+      <c r="BL8" s="168"/>
+      <c r="BM8" s="115"/>
+      <c r="BN8" s="115"/>
+      <c r="BO8" s="254"/>
+      <c r="BP8" s="168"/>
+      <c r="BQ8" s="115"/>
+      <c r="BR8" s="170"/>
     </row>
-    <row r="9" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="196"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="104"/>
-      <c r="D9" s="104"/>
-      <c r="E9" s="104"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="104"/>
-      <c r="K9" s="104"/>
-      <c r="L9" s="104"/>
-      <c r="M9" s="104"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="105"/>
-      <c r="P9" s="103"/>
-      <c r="Q9" s="104"/>
-      <c r="R9" s="104"/>
-      <c r="S9" s="104"/>
-      <c r="T9" s="104"/>
-      <c r="U9" s="104"/>
-      <c r="V9" s="105"/>
-      <c r="W9" s="103"/>
-      <c r="X9" s="104"/>
-      <c r="Y9" s="104"/>
-      <c r="Z9" s="104"/>
-      <c r="AA9" s="104"/>
-      <c r="AB9" s="104"/>
-      <c r="AC9" s="105"/>
-      <c r="AD9" s="103"/>
-      <c r="AE9" s="104"/>
-      <c r="AF9" s="104"/>
-      <c r="AG9" s="104"/>
-      <c r="AH9" s="104"/>
-      <c r="AI9" s="104"/>
-      <c r="AJ9" s="105"/>
-      <c r="AK9" s="106"/>
-      <c r="AL9" s="107"/>
-      <c r="AM9" s="101"/>
+    <row r="9" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1">
+      <c r="A9" s="194"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
+      <c r="M9" s="102"/>
+      <c r="N9" s="102"/>
+      <c r="O9" s="103"/>
+      <c r="P9" s="101"/>
+      <c r="Q9" s="102"/>
+      <c r="R9" s="102"/>
+      <c r="S9" s="102"/>
+      <c r="T9" s="102"/>
+      <c r="U9" s="102"/>
+      <c r="V9" s="103"/>
+      <c r="W9" s="101"/>
+      <c r="X9" s="102"/>
+      <c r="Y9" s="102"/>
+      <c r="Z9" s="102"/>
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="102"/>
+      <c r="AC9" s="103"/>
+      <c r="AD9" s="101"/>
+      <c r="AE9" s="102"/>
+      <c r="AF9" s="102"/>
+      <c r="AG9" s="102"/>
+      <c r="AH9" s="102"/>
+      <c r="AI9" s="102"/>
+      <c r="AJ9" s="103"/>
+      <c r="AK9" s="104"/>
+      <c r="AL9" s="105"/>
+      <c r="AM9" s="99"/>
       <c r="AN9" s="48"/>
       <c r="AO9" s="49"/>
-      <c r="AP9" s="134"/>
+      <c r="AP9" s="132"/>
       <c r="AQ9" s="52"/>
       <c r="AR9" s="50"/>
       <c r="AS9" s="50"/>
@@ -6378,88 +6318,88 @@
       <c r="BI9" s="50"/>
       <c r="BJ9" s="50"/>
       <c r="BK9" s="51"/>
-      <c r="BL9" s="167"/>
+      <c r="BL9" s="169"/>
       <c r="BM9" s="50"/>
       <c r="BN9" s="50"/>
-      <c r="BO9" s="260"/>
-      <c r="BP9" s="167"/>
+      <c r="BO9" s="255"/>
+      <c r="BP9" s="169"/>
       <c r="BQ9" s="50"/>
-      <c r="BR9" s="169"/>
+      <c r="BR9" s="171"/>
     </row>
-    <row r="10" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="196"/>
-      <c r="B10" s="140"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="142"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="141"/>
-      <c r="K10" s="141"/>
-      <c r="L10" s="141"/>
-      <c r="M10" s="141"/>
-      <c r="N10" s="141"/>
-      <c r="O10" s="142"/>
-      <c r="P10" s="140"/>
-      <c r="Q10" s="141"/>
-      <c r="R10" s="141"/>
-      <c r="S10" s="141"/>
-      <c r="T10" s="141"/>
-      <c r="U10" s="141"/>
-      <c r="V10" s="142"/>
-      <c r="W10" s="140"/>
-      <c r="X10" s="141"/>
-      <c r="Y10" s="141"/>
-      <c r="Z10" s="141"/>
-      <c r="AA10" s="141"/>
-      <c r="AB10" s="141"/>
-      <c r="AC10" s="142"/>
-      <c r="AD10" s="140"/>
-      <c r="AE10" s="141"/>
-      <c r="AF10" s="141"/>
-      <c r="AG10" s="141"/>
-      <c r="AH10" s="141"/>
-      <c r="AI10" s="141"/>
-      <c r="AJ10" s="142"/>
-      <c r="AK10" s="143"/>
-      <c r="AL10" s="144"/>
-      <c r="AM10" s="155"/>
-      <c r="AN10" s="156"/>
-      <c r="AO10" s="156"/>
-      <c r="AP10" s="156"/>
-      <c r="AQ10" s="156"/>
-      <c r="AR10" s="156"/>
-      <c r="AS10" s="156"/>
-      <c r="AT10" s="156"/>
-      <c r="AU10" s="156"/>
-      <c r="AV10" s="156"/>
-      <c r="AW10" s="156"/>
-      <c r="AX10" s="156"/>
-      <c r="AY10" s="156"/>
-      <c r="AZ10" s="156"/>
-      <c r="BA10" s="156"/>
-      <c r="BB10" s="156"/>
-      <c r="BC10" s="156"/>
-      <c r="BD10" s="156"/>
-      <c r="BE10" s="156"/>
-      <c r="BF10" s="156"/>
-      <c r="BG10" s="156"/>
-      <c r="BH10" s="156"/>
-      <c r="BI10" s="156"/>
-      <c r="BJ10" s="156"/>
-      <c r="BK10" s="156"/>
-      <c r="BL10" s="156"/>
-      <c r="BM10" s="156"/>
-      <c r="BN10" s="156"/>
-      <c r="BO10" s="156"/>
-      <c r="BP10" s="156"/>
-      <c r="BQ10" s="156"/>
-      <c r="BR10" s="157"/>
+    <row r="10" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1">
+      <c r="A10" s="194"/>
+      <c r="B10" s="136"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="138"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="137"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="136"/>
+      <c r="Q10" s="137"/>
+      <c r="R10" s="137"/>
+      <c r="S10" s="137"/>
+      <c r="T10" s="137"/>
+      <c r="U10" s="137"/>
+      <c r="V10" s="138"/>
+      <c r="W10" s="136"/>
+      <c r="X10" s="137"/>
+      <c r="Y10" s="137"/>
+      <c r="Z10" s="137"/>
+      <c r="AA10" s="137"/>
+      <c r="AB10" s="137"/>
+      <c r="AC10" s="138"/>
+      <c r="AD10" s="136"/>
+      <c r="AE10" s="137"/>
+      <c r="AF10" s="137"/>
+      <c r="AG10" s="137"/>
+      <c r="AH10" s="137"/>
+      <c r="AI10" s="137"/>
+      <c r="AJ10" s="138"/>
+      <c r="AK10" s="139"/>
+      <c r="AL10" s="140"/>
+      <c r="AM10" s="157"/>
+      <c r="AN10" s="158"/>
+      <c r="AO10" s="158"/>
+      <c r="AP10" s="158"/>
+      <c r="AQ10" s="158"/>
+      <c r="AR10" s="158"/>
+      <c r="AS10" s="158"/>
+      <c r="AT10" s="158"/>
+      <c r="AU10" s="158"/>
+      <c r="AV10" s="158"/>
+      <c r="AW10" s="158"/>
+      <c r="AX10" s="158"/>
+      <c r="AY10" s="158"/>
+      <c r="AZ10" s="158"/>
+      <c r="BA10" s="158"/>
+      <c r="BB10" s="158"/>
+      <c r="BC10" s="158"/>
+      <c r="BD10" s="158"/>
+      <c r="BE10" s="158"/>
+      <c r="BF10" s="158"/>
+      <c r="BG10" s="158"/>
+      <c r="BH10" s="158"/>
+      <c r="BI10" s="158"/>
+      <c r="BJ10" s="158"/>
+      <c r="BK10" s="158"/>
+      <c r="BL10" s="158"/>
+      <c r="BM10" s="158"/>
+      <c r="BN10" s="158"/>
+      <c r="BO10" s="158"/>
+      <c r="BP10" s="158"/>
+      <c r="BQ10" s="158"/>
+      <c r="BR10" s="159"/>
     </row>
-    <row r="11" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="197"/>
+    <row r="11" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1">
+      <c r="A11" s="195"/>
       <c r="B11" s="74"/>
       <c r="C11" s="75"/>
       <c r="D11" s="75"/>
@@ -6497,41 +6437,41 @@
       <c r="AJ11" s="76"/>
       <c r="AK11" s="77"/>
       <c r="AL11" s="78"/>
-      <c r="AM11" s="158"/>
-      <c r="AN11" s="159"/>
-      <c r="AO11" s="159"/>
-      <c r="AP11" s="159"/>
-      <c r="AQ11" s="159"/>
-      <c r="AR11" s="159"/>
-      <c r="AS11" s="159"/>
-      <c r="AT11" s="159"/>
-      <c r="AU11" s="159"/>
-      <c r="AV11" s="159"/>
-      <c r="AW11" s="159"/>
-      <c r="AX11" s="159"/>
-      <c r="AY11" s="159"/>
-      <c r="AZ11" s="159"/>
-      <c r="BA11" s="159"/>
-      <c r="BB11" s="159"/>
-      <c r="BC11" s="159"/>
-      <c r="BD11" s="159"/>
-      <c r="BE11" s="159"/>
-      <c r="BF11" s="159"/>
-      <c r="BG11" s="159"/>
-      <c r="BH11" s="159"/>
-      <c r="BI11" s="159"/>
-      <c r="BJ11" s="159"/>
-      <c r="BK11" s="159"/>
-      <c r="BL11" s="159"/>
-      <c r="BM11" s="159"/>
-      <c r="BN11" s="159"/>
-      <c r="BO11" s="159"/>
-      <c r="BP11" s="159"/>
-      <c r="BQ11" s="159"/>
-      <c r="BR11" s="160"/>
+      <c r="AM11" s="160"/>
+      <c r="AN11" s="161"/>
+      <c r="AO11" s="161"/>
+      <c r="AP11" s="161"/>
+      <c r="AQ11" s="161"/>
+      <c r="AR11" s="161"/>
+      <c r="AS11" s="161"/>
+      <c r="AT11" s="161"/>
+      <c r="AU11" s="161"/>
+      <c r="AV11" s="161"/>
+      <c r="AW11" s="161"/>
+      <c r="AX11" s="161"/>
+      <c r="AY11" s="161"/>
+      <c r="AZ11" s="161"/>
+      <c r="BA11" s="161"/>
+      <c r="BB11" s="161"/>
+      <c r="BC11" s="161"/>
+      <c r="BD11" s="161"/>
+      <c r="BE11" s="161"/>
+      <c r="BF11" s="161"/>
+      <c r="BG11" s="161"/>
+      <c r="BH11" s="161"/>
+      <c r="BI11" s="161"/>
+      <c r="BJ11" s="161"/>
+      <c r="BK11" s="161"/>
+      <c r="BL11" s="161"/>
+      <c r="BM11" s="161"/>
+      <c r="BN11" s="161"/>
+      <c r="BO11" s="161"/>
+      <c r="BP11" s="161"/>
+      <c r="BQ11" s="161"/>
+      <c r="BR11" s="162"/>
     </row>
-    <row r="12" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="195" t="s">
+    <row r="12" spans="1:70" ht="30" customHeight="1">
+      <c r="A12" s="193" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="59"/>
@@ -6571,10 +6511,10 @@
       <c r="AJ12" s="61"/>
       <c r="AK12" s="62"/>
       <c r="AL12" s="63"/>
-      <c r="AM12" s="139"/>
+      <c r="AM12" s="135"/>
       <c r="AN12" s="40"/>
       <c r="AO12" s="41"/>
-      <c r="AP12" s="133"/>
+      <c r="AP12" s="131"/>
       <c r="AQ12" s="44"/>
       <c r="AR12" s="45"/>
       <c r="AS12" s="45"/>
@@ -6596,57 +6536,57 @@
       <c r="BI12" s="45"/>
       <c r="BJ12" s="42"/>
       <c r="BK12" s="43"/>
-      <c r="BL12" s="153"/>
+      <c r="BL12" s="155"/>
       <c r="BM12" s="42"/>
       <c r="BN12" s="42"/>
-      <c r="BO12" s="161"/>
-      <c r="BP12" s="153"/>
+      <c r="BO12" s="163"/>
+      <c r="BP12" s="155"/>
       <c r="BQ12" s="42"/>
-      <c r="BR12" s="151"/>
+      <c r="BR12" s="153"/>
     </row>
-    <row r="13" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="196"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="109"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="109"/>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109"/>
-      <c r="N13" s="109"/>
-      <c r="O13" s="110"/>
-      <c r="P13" s="108"/>
-      <c r="Q13" s="109"/>
-      <c r="R13" s="109"/>
-      <c r="S13" s="109"/>
-      <c r="T13" s="109"/>
-      <c r="U13" s="109"/>
-      <c r="V13" s="110"/>
-      <c r="W13" s="108"/>
-      <c r="X13" s="109"/>
-      <c r="Y13" s="109"/>
-      <c r="Z13" s="109"/>
-      <c r="AA13" s="109"/>
-      <c r="AB13" s="109"/>
-      <c r="AC13" s="110"/>
-      <c r="AD13" s="111"/>
-      <c r="AE13" s="109"/>
-      <c r="AF13" s="109"/>
-      <c r="AG13" s="109"/>
-      <c r="AH13" s="109"/>
-      <c r="AI13" s="109"/>
-      <c r="AJ13" s="110"/>
-      <c r="AK13" s="112"/>
-      <c r="AL13" s="113"/>
-      <c r="AM13" s="99"/>
+    <row r="13" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A13" s="194"/>
+      <c r="B13" s="106"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="108"/>
+      <c r="I13" s="106"/>
+      <c r="J13" s="107"/>
+      <c r="K13" s="107"/>
+      <c r="L13" s="107"/>
+      <c r="M13" s="107"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="108"/>
+      <c r="P13" s="106"/>
+      <c r="Q13" s="107"/>
+      <c r="R13" s="107"/>
+      <c r="S13" s="107"/>
+      <c r="T13" s="107"/>
+      <c r="U13" s="107"/>
+      <c r="V13" s="108"/>
+      <c r="W13" s="106"/>
+      <c r="X13" s="107"/>
+      <c r="Y13" s="107"/>
+      <c r="Z13" s="107"/>
+      <c r="AA13" s="107"/>
+      <c r="AB13" s="107"/>
+      <c r="AC13" s="108"/>
+      <c r="AD13" s="109"/>
+      <c r="AE13" s="107"/>
+      <c r="AF13" s="107"/>
+      <c r="AG13" s="107"/>
+      <c r="AH13" s="107"/>
+      <c r="AI13" s="107"/>
+      <c r="AJ13" s="108"/>
+      <c r="AK13" s="110"/>
+      <c r="AL13" s="111"/>
+      <c r="AM13" s="97"/>
       <c r="AN13" s="48"/>
       <c r="AO13" s="49"/>
-      <c r="AP13" s="134"/>
+      <c r="AP13" s="132"/>
       <c r="AQ13" s="52"/>
       <c r="AR13" s="50"/>
       <c r="AS13" s="50"/>
@@ -6668,88 +6608,88 @@
       <c r="BI13" s="50"/>
       <c r="BJ13" s="50"/>
       <c r="BK13" s="51"/>
-      <c r="BL13" s="154"/>
+      <c r="BL13" s="156"/>
       <c r="BM13" s="50"/>
       <c r="BN13" s="50"/>
-      <c r="BO13" s="162"/>
-      <c r="BP13" s="154"/>
+      <c r="BO13" s="164"/>
+      <c r="BP13" s="156"/>
       <c r="BQ13" s="50"/>
-      <c r="BR13" s="152"/>
+      <c r="BR13" s="154"/>
     </row>
-    <row r="14" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="196"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="110"/>
-      <c r="I14" s="108"/>
-      <c r="J14" s="109"/>
-      <c r="K14" s="109"/>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109"/>
-      <c r="N14" s="109"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="108"/>
-      <c r="Q14" s="109"/>
-      <c r="R14" s="109"/>
-      <c r="S14" s="109"/>
-      <c r="T14" s="109"/>
-      <c r="U14" s="109"/>
-      <c r="V14" s="110"/>
-      <c r="W14" s="108"/>
-      <c r="X14" s="109"/>
-      <c r="Y14" s="109"/>
-      <c r="Z14" s="109"/>
-      <c r="AA14" s="109"/>
-      <c r="AB14" s="109"/>
-      <c r="AC14" s="110"/>
-      <c r="AD14" s="111"/>
-      <c r="AE14" s="109"/>
-      <c r="AF14" s="109"/>
-      <c r="AG14" s="109"/>
-      <c r="AH14" s="109"/>
-      <c r="AI14" s="109"/>
-      <c r="AJ14" s="110"/>
-      <c r="AK14" s="112"/>
-      <c r="AL14" s="113"/>
-      <c r="AM14" s="155"/>
-      <c r="AN14" s="156"/>
-      <c r="AO14" s="156"/>
-      <c r="AP14" s="156"/>
-      <c r="AQ14" s="156"/>
-      <c r="AR14" s="156"/>
-      <c r="AS14" s="156"/>
-      <c r="AT14" s="156"/>
-      <c r="AU14" s="156"/>
-      <c r="AV14" s="156"/>
-      <c r="AW14" s="156"/>
-      <c r="AX14" s="156"/>
-      <c r="AY14" s="156"/>
-      <c r="AZ14" s="156"/>
-      <c r="BA14" s="156"/>
-      <c r="BB14" s="156"/>
-      <c r="BC14" s="156"/>
-      <c r="BD14" s="156"/>
-      <c r="BE14" s="156"/>
-      <c r="BF14" s="156"/>
-      <c r="BG14" s="156"/>
-      <c r="BH14" s="156"/>
-      <c r="BI14" s="156"/>
-      <c r="BJ14" s="156"/>
-      <c r="BK14" s="156"/>
-      <c r="BL14" s="156"/>
-      <c r="BM14" s="156"/>
-      <c r="BN14" s="156"/>
-      <c r="BO14" s="156"/>
-      <c r="BP14" s="156"/>
-      <c r="BQ14" s="156"/>
-      <c r="BR14" s="157"/>
+    <row r="14" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A14" s="194"/>
+      <c r="B14" s="106"/>
+      <c r="C14" s="107"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="107"/>
+      <c r="H14" s="108"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="107"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="107"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="108"/>
+      <c r="P14" s="106"/>
+      <c r="Q14" s="107"/>
+      <c r="R14" s="107"/>
+      <c r="S14" s="107"/>
+      <c r="T14" s="107"/>
+      <c r="U14" s="107"/>
+      <c r="V14" s="108"/>
+      <c r="W14" s="106"/>
+      <c r="X14" s="107"/>
+      <c r="Y14" s="107"/>
+      <c r="Z14" s="107"/>
+      <c r="AA14" s="107"/>
+      <c r="AB14" s="107"/>
+      <c r="AC14" s="108"/>
+      <c r="AD14" s="109"/>
+      <c r="AE14" s="107"/>
+      <c r="AF14" s="107"/>
+      <c r="AG14" s="107"/>
+      <c r="AH14" s="107"/>
+      <c r="AI14" s="107"/>
+      <c r="AJ14" s="108"/>
+      <c r="AK14" s="110"/>
+      <c r="AL14" s="111"/>
+      <c r="AM14" s="157"/>
+      <c r="AN14" s="158"/>
+      <c r="AO14" s="158"/>
+      <c r="AP14" s="158"/>
+      <c r="AQ14" s="158"/>
+      <c r="AR14" s="158"/>
+      <c r="AS14" s="158"/>
+      <c r="AT14" s="158"/>
+      <c r="AU14" s="158"/>
+      <c r="AV14" s="158"/>
+      <c r="AW14" s="158"/>
+      <c r="AX14" s="158"/>
+      <c r="AY14" s="158"/>
+      <c r="AZ14" s="158"/>
+      <c r="BA14" s="158"/>
+      <c r="BB14" s="158"/>
+      <c r="BC14" s="158"/>
+      <c r="BD14" s="158"/>
+      <c r="BE14" s="158"/>
+      <c r="BF14" s="158"/>
+      <c r="BG14" s="158"/>
+      <c r="BH14" s="158"/>
+      <c r="BI14" s="158"/>
+      <c r="BJ14" s="158"/>
+      <c r="BK14" s="158"/>
+      <c r="BL14" s="158"/>
+      <c r="BM14" s="158"/>
+      <c r="BN14" s="158"/>
+      <c r="BO14" s="158"/>
+      <c r="BP14" s="158"/>
+      <c r="BQ14" s="158"/>
+      <c r="BR14" s="159"/>
     </row>
-    <row r="15" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="196"/>
+    <row r="15" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A15" s="194"/>
       <c r="B15" s="79"/>
       <c r="C15" s="80"/>
       <c r="D15" s="80"/>
@@ -6787,41 +6727,41 @@
       <c r="AJ15" s="81"/>
       <c r="AK15" s="83"/>
       <c r="AL15" s="84"/>
-      <c r="AM15" s="158"/>
-      <c r="AN15" s="159"/>
-      <c r="AO15" s="159"/>
-      <c r="AP15" s="159"/>
-      <c r="AQ15" s="159"/>
-      <c r="AR15" s="159"/>
-      <c r="AS15" s="159"/>
-      <c r="AT15" s="159"/>
-      <c r="AU15" s="159"/>
-      <c r="AV15" s="159"/>
-      <c r="AW15" s="159"/>
-      <c r="AX15" s="159"/>
-      <c r="AY15" s="159"/>
-      <c r="AZ15" s="159"/>
-      <c r="BA15" s="159"/>
-      <c r="BB15" s="159"/>
-      <c r="BC15" s="159"/>
-      <c r="BD15" s="159"/>
-      <c r="BE15" s="159"/>
-      <c r="BF15" s="159"/>
-      <c r="BG15" s="159"/>
-      <c r="BH15" s="159"/>
-      <c r="BI15" s="159"/>
-      <c r="BJ15" s="159"/>
-      <c r="BK15" s="159"/>
-      <c r="BL15" s="159"/>
-      <c r="BM15" s="159"/>
-      <c r="BN15" s="159"/>
-      <c r="BO15" s="159"/>
-      <c r="BP15" s="159"/>
-      <c r="BQ15" s="159"/>
-      <c r="BR15" s="160"/>
+      <c r="AM15" s="160"/>
+      <c r="AN15" s="161"/>
+      <c r="AO15" s="161"/>
+      <c r="AP15" s="161"/>
+      <c r="AQ15" s="161"/>
+      <c r="AR15" s="161"/>
+      <c r="AS15" s="161"/>
+      <c r="AT15" s="161"/>
+      <c r="AU15" s="161"/>
+      <c r="AV15" s="161"/>
+      <c r="AW15" s="161"/>
+      <c r="AX15" s="161"/>
+      <c r="AY15" s="161"/>
+      <c r="AZ15" s="161"/>
+      <c r="BA15" s="161"/>
+      <c r="BB15" s="161"/>
+      <c r="BC15" s="161"/>
+      <c r="BD15" s="161"/>
+      <c r="BE15" s="161"/>
+      <c r="BF15" s="161"/>
+      <c r="BG15" s="161"/>
+      <c r="BH15" s="161"/>
+      <c r="BI15" s="161"/>
+      <c r="BJ15" s="161"/>
+      <c r="BK15" s="161"/>
+      <c r="BL15" s="161"/>
+      <c r="BM15" s="161"/>
+      <c r="BN15" s="161"/>
+      <c r="BO15" s="161"/>
+      <c r="BP15" s="161"/>
+      <c r="BQ15" s="161"/>
+      <c r="BR15" s="162"/>
     </row>
-    <row r="16" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="195" t="s">
+    <row r="16" spans="1:70" ht="30" customHeight="1">
+      <c r="A16" s="193" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="62"/>
@@ -6861,10 +6801,10 @@
       <c r="AJ16" s="61"/>
       <c r="AK16" s="62"/>
       <c r="AL16" s="63"/>
-      <c r="AM16" s="139"/>
+      <c r="AM16" s="135"/>
       <c r="AN16" s="40"/>
       <c r="AO16" s="41"/>
-      <c r="AP16" s="133"/>
+      <c r="AP16" s="131"/>
       <c r="AQ16" s="44"/>
       <c r="AR16" s="45"/>
       <c r="AS16" s="45"/>
@@ -6886,57 +6826,57 @@
       <c r="BI16" s="45"/>
       <c r="BJ16" s="42"/>
       <c r="BK16" s="43"/>
-      <c r="BL16" s="153"/>
+      <c r="BL16" s="155"/>
       <c r="BM16" s="42"/>
       <c r="BN16" s="42"/>
-      <c r="BO16" s="161"/>
-      <c r="BP16" s="153"/>
+      <c r="BO16" s="163"/>
+      <c r="BP16" s="155"/>
       <c r="BQ16" s="42"/>
-      <c r="BR16" s="151"/>
+      <c r="BR16" s="153"/>
     </row>
-    <row r="17" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="196"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="109"/>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="110"/>
-      <c r="I17" s="108"/>
-      <c r="J17" s="109"/>
-      <c r="K17" s="109"/>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109"/>
-      <c r="N17" s="109"/>
-      <c r="O17" s="110"/>
-      <c r="P17" s="108"/>
-      <c r="Q17" s="109"/>
-      <c r="R17" s="109"/>
-      <c r="S17" s="109"/>
-      <c r="T17" s="109"/>
-      <c r="U17" s="109"/>
-      <c r="V17" s="110"/>
-      <c r="W17" s="108"/>
-      <c r="X17" s="109"/>
-      <c r="Y17" s="109"/>
-      <c r="Z17" s="109"/>
-      <c r="AA17" s="109"/>
-      <c r="AB17" s="109"/>
-      <c r="AC17" s="110"/>
-      <c r="AD17" s="108"/>
-      <c r="AE17" s="109"/>
-      <c r="AF17" s="109"/>
-      <c r="AG17" s="109"/>
-      <c r="AH17" s="109"/>
-      <c r="AI17" s="109"/>
-      <c r="AJ17" s="110"/>
-      <c r="AK17" s="112"/>
-      <c r="AL17" s="113"/>
-      <c r="AM17" s="99"/>
+    <row r="17" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A17" s="194"/>
+      <c r="B17" s="106"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="108"/>
+      <c r="I17" s="106"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="107"/>
+      <c r="N17" s="107"/>
+      <c r="O17" s="108"/>
+      <c r="P17" s="106"/>
+      <c r="Q17" s="107"/>
+      <c r="R17" s="107"/>
+      <c r="S17" s="107"/>
+      <c r="T17" s="107"/>
+      <c r="U17" s="107"/>
+      <c r="V17" s="108"/>
+      <c r="W17" s="106"/>
+      <c r="X17" s="107"/>
+      <c r="Y17" s="107"/>
+      <c r="Z17" s="107"/>
+      <c r="AA17" s="107"/>
+      <c r="AB17" s="107"/>
+      <c r="AC17" s="108"/>
+      <c r="AD17" s="106"/>
+      <c r="AE17" s="107"/>
+      <c r="AF17" s="107"/>
+      <c r="AG17" s="107"/>
+      <c r="AH17" s="107"/>
+      <c r="AI17" s="107"/>
+      <c r="AJ17" s="108"/>
+      <c r="AK17" s="110"/>
+      <c r="AL17" s="111"/>
+      <c r="AM17" s="97"/>
       <c r="AN17" s="48"/>
       <c r="AO17" s="49"/>
-      <c r="AP17" s="134"/>
+      <c r="AP17" s="132"/>
       <c r="AQ17" s="52"/>
       <c r="AR17" s="50"/>
       <c r="AS17" s="50"/>
@@ -6958,88 +6898,88 @@
       <c r="BI17" s="50"/>
       <c r="BJ17" s="50"/>
       <c r="BK17" s="51"/>
-      <c r="BL17" s="154"/>
+      <c r="BL17" s="156"/>
       <c r="BM17" s="50"/>
       <c r="BN17" s="50"/>
-      <c r="BO17" s="162"/>
-      <c r="BP17" s="154"/>
+      <c r="BO17" s="164"/>
+      <c r="BP17" s="156"/>
       <c r="BQ17" s="50"/>
-      <c r="BR17" s="152"/>
+      <c r="BR17" s="154"/>
     </row>
-    <row r="18" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="196"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="110"/>
-      <c r="I18" s="108"/>
-      <c r="J18" s="109"/>
-      <c r="K18" s="109"/>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109"/>
-      <c r="N18" s="109"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="108"/>
-      <c r="Q18" s="109"/>
-      <c r="R18" s="109"/>
-      <c r="S18" s="109"/>
-      <c r="T18" s="109"/>
-      <c r="U18" s="109"/>
-      <c r="V18" s="110"/>
-      <c r="W18" s="108"/>
-      <c r="X18" s="109"/>
-      <c r="Y18" s="109"/>
-      <c r="Z18" s="109"/>
-      <c r="AA18" s="109"/>
-      <c r="AB18" s="109"/>
-      <c r="AC18" s="110"/>
-      <c r="AD18" s="108"/>
-      <c r="AE18" s="109"/>
-      <c r="AF18" s="109"/>
-      <c r="AG18" s="109"/>
-      <c r="AH18" s="109"/>
-      <c r="AI18" s="109"/>
-      <c r="AJ18" s="110"/>
-      <c r="AK18" s="112"/>
-      <c r="AL18" s="113"/>
-      <c r="AM18" s="155"/>
-      <c r="AN18" s="156"/>
-      <c r="AO18" s="156"/>
-      <c r="AP18" s="156"/>
-      <c r="AQ18" s="156"/>
-      <c r="AR18" s="156"/>
-      <c r="AS18" s="156"/>
-      <c r="AT18" s="156"/>
-      <c r="AU18" s="156"/>
-      <c r="AV18" s="156"/>
-      <c r="AW18" s="156"/>
-      <c r="AX18" s="156"/>
-      <c r="AY18" s="156"/>
-      <c r="AZ18" s="156"/>
-      <c r="BA18" s="156"/>
-      <c r="BB18" s="156"/>
-      <c r="BC18" s="156"/>
-      <c r="BD18" s="156"/>
-      <c r="BE18" s="156"/>
-      <c r="BF18" s="156"/>
-      <c r="BG18" s="156"/>
-      <c r="BH18" s="156"/>
-      <c r="BI18" s="156"/>
-      <c r="BJ18" s="156"/>
-      <c r="BK18" s="156"/>
-      <c r="BL18" s="156"/>
-      <c r="BM18" s="156"/>
-      <c r="BN18" s="156"/>
-      <c r="BO18" s="156"/>
-      <c r="BP18" s="156"/>
-      <c r="BQ18" s="156"/>
-      <c r="BR18" s="157"/>
+    <row r="18" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A18" s="194"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="107"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="107"/>
+      <c r="H18" s="108"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="107"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="107"/>
+      <c r="N18" s="107"/>
+      <c r="O18" s="108"/>
+      <c r="P18" s="106"/>
+      <c r="Q18" s="107"/>
+      <c r="R18" s="107"/>
+      <c r="S18" s="107"/>
+      <c r="T18" s="107"/>
+      <c r="U18" s="107"/>
+      <c r="V18" s="108"/>
+      <c r="W18" s="106"/>
+      <c r="X18" s="107"/>
+      <c r="Y18" s="107"/>
+      <c r="Z18" s="107"/>
+      <c r="AA18" s="107"/>
+      <c r="AB18" s="107"/>
+      <c r="AC18" s="108"/>
+      <c r="AD18" s="106"/>
+      <c r="AE18" s="107"/>
+      <c r="AF18" s="107"/>
+      <c r="AG18" s="107"/>
+      <c r="AH18" s="107"/>
+      <c r="AI18" s="107"/>
+      <c r="AJ18" s="108"/>
+      <c r="AK18" s="110"/>
+      <c r="AL18" s="111"/>
+      <c r="AM18" s="157"/>
+      <c r="AN18" s="158"/>
+      <c r="AO18" s="158"/>
+      <c r="AP18" s="158"/>
+      <c r="AQ18" s="158"/>
+      <c r="AR18" s="158"/>
+      <c r="AS18" s="158"/>
+      <c r="AT18" s="158"/>
+      <c r="AU18" s="158"/>
+      <c r="AV18" s="158"/>
+      <c r="AW18" s="158"/>
+      <c r="AX18" s="158"/>
+      <c r="AY18" s="158"/>
+      <c r="AZ18" s="158"/>
+      <c r="BA18" s="158"/>
+      <c r="BB18" s="158"/>
+      <c r="BC18" s="158"/>
+      <c r="BD18" s="158"/>
+      <c r="BE18" s="158"/>
+      <c r="BF18" s="158"/>
+      <c r="BG18" s="158"/>
+      <c r="BH18" s="158"/>
+      <c r="BI18" s="158"/>
+      <c r="BJ18" s="158"/>
+      <c r="BK18" s="158"/>
+      <c r="BL18" s="158"/>
+      <c r="BM18" s="158"/>
+      <c r="BN18" s="158"/>
+      <c r="BO18" s="158"/>
+      <c r="BP18" s="158"/>
+      <c r="BQ18" s="158"/>
+      <c r="BR18" s="159"/>
     </row>
-    <row r="19" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="197"/>
+    <row r="19" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A19" s="195"/>
       <c r="B19" s="85"/>
       <c r="C19" s="86"/>
       <c r="D19" s="86"/>
@@ -7077,41 +7017,41 @@
       <c r="AJ19" s="87"/>
       <c r="AK19" s="88"/>
       <c r="AL19" s="89"/>
-      <c r="AM19" s="158"/>
-      <c r="AN19" s="159"/>
-      <c r="AO19" s="159"/>
-      <c r="AP19" s="159"/>
-      <c r="AQ19" s="159"/>
-      <c r="AR19" s="159"/>
-      <c r="AS19" s="159"/>
-      <c r="AT19" s="159"/>
-      <c r="AU19" s="159"/>
-      <c r="AV19" s="159"/>
-      <c r="AW19" s="159"/>
-      <c r="AX19" s="159"/>
-      <c r="AY19" s="159"/>
-      <c r="AZ19" s="159"/>
-      <c r="BA19" s="159"/>
-      <c r="BB19" s="159"/>
-      <c r="BC19" s="159"/>
-      <c r="BD19" s="159"/>
-      <c r="BE19" s="159"/>
-      <c r="BF19" s="159"/>
-      <c r="BG19" s="159"/>
-      <c r="BH19" s="159"/>
-      <c r="BI19" s="159"/>
-      <c r="BJ19" s="159"/>
-      <c r="BK19" s="159"/>
-      <c r="BL19" s="159"/>
-      <c r="BM19" s="159"/>
-      <c r="BN19" s="159"/>
-      <c r="BO19" s="159"/>
-      <c r="BP19" s="159"/>
-      <c r="BQ19" s="159"/>
-      <c r="BR19" s="160"/>
+      <c r="AM19" s="160"/>
+      <c r="AN19" s="161"/>
+      <c r="AO19" s="161"/>
+      <c r="AP19" s="161"/>
+      <c r="AQ19" s="161"/>
+      <c r="AR19" s="161"/>
+      <c r="AS19" s="161"/>
+      <c r="AT19" s="161"/>
+      <c r="AU19" s="161"/>
+      <c r="AV19" s="161"/>
+      <c r="AW19" s="161"/>
+      <c r="AX19" s="161"/>
+      <c r="AY19" s="161"/>
+      <c r="AZ19" s="161"/>
+      <c r="BA19" s="161"/>
+      <c r="BB19" s="161"/>
+      <c r="BC19" s="161"/>
+      <c r="BD19" s="161"/>
+      <c r="BE19" s="161"/>
+      <c r="BF19" s="161"/>
+      <c r="BG19" s="161"/>
+      <c r="BH19" s="161"/>
+      <c r="BI19" s="161"/>
+      <c r="BJ19" s="161"/>
+      <c r="BK19" s="161"/>
+      <c r="BL19" s="161"/>
+      <c r="BM19" s="161"/>
+      <c r="BN19" s="161"/>
+      <c r="BO19" s="161"/>
+      <c r="BP19" s="161"/>
+      <c r="BQ19" s="161"/>
+      <c r="BR19" s="162"/>
     </row>
-    <row r="20" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="196" t="s">
+    <row r="20" spans="1:70" ht="30" customHeight="1">
+      <c r="A20" s="194" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="57"/>
@@ -7151,10 +7091,10 @@
       <c r="AJ20" s="56"/>
       <c r="AK20" s="57"/>
       <c r="AL20" s="58"/>
-      <c r="AM20" s="139"/>
+      <c r="AM20" s="135"/>
       <c r="AN20" s="40"/>
       <c r="AO20" s="41"/>
-      <c r="AP20" s="133"/>
+      <c r="AP20" s="131"/>
       <c r="AQ20" s="44"/>
       <c r="AR20" s="45"/>
       <c r="AS20" s="45"/>
@@ -7176,57 +7116,57 @@
       <c r="BI20" s="45"/>
       <c r="BJ20" s="42"/>
       <c r="BK20" s="43"/>
-      <c r="BL20" s="153"/>
+      <c r="BL20" s="155"/>
       <c r="BM20" s="42"/>
       <c r="BN20" s="42"/>
-      <c r="BO20" s="161"/>
+      <c r="BO20" s="163"/>
       <c r="BP20" s="44"/>
       <c r="BQ20" s="42"/>
-      <c r="BR20" s="151"/>
+      <c r="BR20" s="153"/>
     </row>
-    <row r="21" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="196"/>
-      <c r="B21" s="112"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="109"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="108"/>
-      <c r="J21" s="109"/>
-      <c r="K21" s="109"/>
-      <c r="L21" s="109"/>
-      <c r="M21" s="109"/>
-      <c r="N21" s="109"/>
-      <c r="O21" s="110"/>
-      <c r="P21" s="108"/>
-      <c r="Q21" s="109"/>
-      <c r="R21" s="109"/>
-      <c r="S21" s="109"/>
-      <c r="T21" s="109"/>
-      <c r="U21" s="109"/>
-      <c r="V21" s="110"/>
-      <c r="W21" s="108"/>
-      <c r="X21" s="109"/>
-      <c r="Y21" s="109"/>
-      <c r="Z21" s="109"/>
-      <c r="AA21" s="109"/>
-      <c r="AB21" s="109"/>
-      <c r="AC21" s="110"/>
-      <c r="AD21" s="108"/>
-      <c r="AE21" s="109"/>
-      <c r="AF21" s="109"/>
-      <c r="AG21" s="109"/>
-      <c r="AH21" s="109"/>
-      <c r="AI21" s="109"/>
-      <c r="AJ21" s="110"/>
-      <c r="AK21" s="112"/>
-      <c r="AL21" s="113"/>
-      <c r="AM21" s="100"/>
+    <row r="21" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A21" s="194"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="107"/>
+      <c r="D21" s="107"/>
+      <c r="E21" s="107"/>
+      <c r="F21" s="107"/>
+      <c r="G21" s="107"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="106"/>
+      <c r="J21" s="107"/>
+      <c r="K21" s="107"/>
+      <c r="L21" s="107"/>
+      <c r="M21" s="107"/>
+      <c r="N21" s="107"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="106"/>
+      <c r="Q21" s="107"/>
+      <c r="R21" s="107"/>
+      <c r="S21" s="107"/>
+      <c r="T21" s="107"/>
+      <c r="U21" s="107"/>
+      <c r="V21" s="108"/>
+      <c r="W21" s="106"/>
+      <c r="X21" s="107"/>
+      <c r="Y21" s="107"/>
+      <c r="Z21" s="107"/>
+      <c r="AA21" s="107"/>
+      <c r="AB21" s="107"/>
+      <c r="AC21" s="108"/>
+      <c r="AD21" s="106"/>
+      <c r="AE21" s="107"/>
+      <c r="AF21" s="107"/>
+      <c r="AG21" s="107"/>
+      <c r="AH21" s="107"/>
+      <c r="AI21" s="107"/>
+      <c r="AJ21" s="108"/>
+      <c r="AK21" s="110"/>
+      <c r="AL21" s="111"/>
+      <c r="AM21" s="98"/>
       <c r="AN21" s="46"/>
       <c r="AO21" s="47"/>
-      <c r="AP21" s="135"/>
+      <c r="AP21" s="133"/>
       <c r="AQ21" s="52"/>
       <c r="AR21" s="50"/>
       <c r="AS21" s="50"/>
@@ -7248,88 +7188,88 @@
       <c r="BI21" s="50"/>
       <c r="BJ21" s="50"/>
       <c r="BK21" s="51"/>
-      <c r="BL21" s="154"/>
+      <c r="BL21" s="156"/>
       <c r="BM21" s="50"/>
       <c r="BN21" s="50"/>
-      <c r="BO21" s="162"/>
+      <c r="BO21" s="164"/>
       <c r="BP21" s="52"/>
       <c r="BQ21" s="50"/>
-      <c r="BR21" s="152"/>
+      <c r="BR21" s="154"/>
     </row>
-    <row r="22" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="196"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="109"/>
-      <c r="H22" s="110"/>
-      <c r="I22" s="108"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="109"/>
-      <c r="L22" s="109"/>
-      <c r="M22" s="109"/>
-      <c r="N22" s="109"/>
-      <c r="O22" s="110"/>
-      <c r="P22" s="108"/>
-      <c r="Q22" s="109"/>
-      <c r="R22" s="109"/>
-      <c r="S22" s="109"/>
-      <c r="T22" s="109"/>
-      <c r="U22" s="109"/>
-      <c r="V22" s="110"/>
-      <c r="W22" s="108"/>
-      <c r="X22" s="109"/>
-      <c r="Y22" s="109"/>
-      <c r="Z22" s="109"/>
-      <c r="AA22" s="109"/>
-      <c r="AB22" s="109"/>
-      <c r="AC22" s="110"/>
-      <c r="AD22" s="108"/>
-      <c r="AE22" s="109"/>
-      <c r="AF22" s="109"/>
-      <c r="AG22" s="109"/>
-      <c r="AH22" s="109"/>
-      <c r="AI22" s="109"/>
-      <c r="AJ22" s="110"/>
-      <c r="AK22" s="112"/>
-      <c r="AL22" s="113"/>
-      <c r="AM22" s="155"/>
-      <c r="AN22" s="156"/>
-      <c r="AO22" s="156"/>
-      <c r="AP22" s="156"/>
-      <c r="AQ22" s="156"/>
-      <c r="AR22" s="156"/>
-      <c r="AS22" s="156"/>
-      <c r="AT22" s="156"/>
-      <c r="AU22" s="156"/>
-      <c r="AV22" s="156"/>
-      <c r="AW22" s="156"/>
-      <c r="AX22" s="156"/>
-      <c r="AY22" s="156"/>
-      <c r="AZ22" s="156"/>
-      <c r="BA22" s="156"/>
-      <c r="BB22" s="156"/>
-      <c r="BC22" s="156"/>
-      <c r="BD22" s="156"/>
-      <c r="BE22" s="156"/>
-      <c r="BF22" s="156"/>
-      <c r="BG22" s="156"/>
-      <c r="BH22" s="156"/>
-      <c r="BI22" s="156"/>
-      <c r="BJ22" s="156"/>
-      <c r="BK22" s="156"/>
-      <c r="BL22" s="156"/>
-      <c r="BM22" s="156"/>
-      <c r="BN22" s="156"/>
-      <c r="BO22" s="156"/>
-      <c r="BP22" s="156"/>
-      <c r="BQ22" s="156"/>
-      <c r="BR22" s="157"/>
+    <row r="22" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A22" s="194"/>
+      <c r="B22" s="106"/>
+      <c r="C22" s="107"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="107"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="107"/>
+      <c r="K22" s="107"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="107"/>
+      <c r="O22" s="108"/>
+      <c r="P22" s="106"/>
+      <c r="Q22" s="107"/>
+      <c r="R22" s="107"/>
+      <c r="S22" s="107"/>
+      <c r="T22" s="107"/>
+      <c r="U22" s="107"/>
+      <c r="V22" s="108"/>
+      <c r="W22" s="106"/>
+      <c r="X22" s="107"/>
+      <c r="Y22" s="107"/>
+      <c r="Z22" s="107"/>
+      <c r="AA22" s="107"/>
+      <c r="AB22" s="107"/>
+      <c r="AC22" s="108"/>
+      <c r="AD22" s="106"/>
+      <c r="AE22" s="107"/>
+      <c r="AF22" s="107"/>
+      <c r="AG22" s="107"/>
+      <c r="AH22" s="107"/>
+      <c r="AI22" s="107"/>
+      <c r="AJ22" s="108"/>
+      <c r="AK22" s="110"/>
+      <c r="AL22" s="111"/>
+      <c r="AM22" s="157"/>
+      <c r="AN22" s="158"/>
+      <c r="AO22" s="158"/>
+      <c r="AP22" s="158"/>
+      <c r="AQ22" s="158"/>
+      <c r="AR22" s="158"/>
+      <c r="AS22" s="158"/>
+      <c r="AT22" s="158"/>
+      <c r="AU22" s="158"/>
+      <c r="AV22" s="158"/>
+      <c r="AW22" s="158"/>
+      <c r="AX22" s="158"/>
+      <c r="AY22" s="158"/>
+      <c r="AZ22" s="158"/>
+      <c r="BA22" s="158"/>
+      <c r="BB22" s="158"/>
+      <c r="BC22" s="158"/>
+      <c r="BD22" s="158"/>
+      <c r="BE22" s="158"/>
+      <c r="BF22" s="158"/>
+      <c r="BG22" s="158"/>
+      <c r="BH22" s="158"/>
+      <c r="BI22" s="158"/>
+      <c r="BJ22" s="158"/>
+      <c r="BK22" s="158"/>
+      <c r="BL22" s="158"/>
+      <c r="BM22" s="158"/>
+      <c r="BN22" s="158"/>
+      <c r="BO22" s="158"/>
+      <c r="BP22" s="158"/>
+      <c r="BQ22" s="158"/>
+      <c r="BR22" s="159"/>
     </row>
-    <row r="23" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="197"/>
+    <row r="23" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A23" s="195"/>
       <c r="B23" s="83"/>
       <c r="C23" s="80"/>
       <c r="D23" s="80"/>
@@ -7367,41 +7307,41 @@
       <c r="AJ23" s="81"/>
       <c r="AK23" s="83"/>
       <c r="AL23" s="84"/>
-      <c r="AM23" s="158"/>
-      <c r="AN23" s="159"/>
-      <c r="AO23" s="159"/>
-      <c r="AP23" s="159"/>
-      <c r="AQ23" s="159"/>
-      <c r="AR23" s="159"/>
-      <c r="AS23" s="159"/>
-      <c r="AT23" s="159"/>
-      <c r="AU23" s="159"/>
-      <c r="AV23" s="159"/>
-      <c r="AW23" s="159"/>
-      <c r="AX23" s="159"/>
-      <c r="AY23" s="159"/>
-      <c r="AZ23" s="159"/>
-      <c r="BA23" s="159"/>
-      <c r="BB23" s="159"/>
-      <c r="BC23" s="159"/>
-      <c r="BD23" s="159"/>
-      <c r="BE23" s="159"/>
-      <c r="BF23" s="159"/>
-      <c r="BG23" s="159"/>
-      <c r="BH23" s="159"/>
-      <c r="BI23" s="159"/>
-      <c r="BJ23" s="159"/>
-      <c r="BK23" s="159"/>
-      <c r="BL23" s="159"/>
-      <c r="BM23" s="159"/>
-      <c r="BN23" s="159"/>
-      <c r="BO23" s="159"/>
-      <c r="BP23" s="159"/>
-      <c r="BQ23" s="159"/>
-      <c r="BR23" s="160"/>
+      <c r="AM23" s="160"/>
+      <c r="AN23" s="161"/>
+      <c r="AO23" s="161"/>
+      <c r="AP23" s="161"/>
+      <c r="AQ23" s="161"/>
+      <c r="AR23" s="161"/>
+      <c r="AS23" s="161"/>
+      <c r="AT23" s="161"/>
+      <c r="AU23" s="161"/>
+      <c r="AV23" s="161"/>
+      <c r="AW23" s="161"/>
+      <c r="AX23" s="161"/>
+      <c r="AY23" s="161"/>
+      <c r="AZ23" s="161"/>
+      <c r="BA23" s="161"/>
+      <c r="BB23" s="161"/>
+      <c r="BC23" s="161"/>
+      <c r="BD23" s="161"/>
+      <c r="BE23" s="161"/>
+      <c r="BF23" s="161"/>
+      <c r="BG23" s="161"/>
+      <c r="BH23" s="161"/>
+      <c r="BI23" s="161"/>
+      <c r="BJ23" s="161"/>
+      <c r="BK23" s="161"/>
+      <c r="BL23" s="161"/>
+      <c r="BM23" s="161"/>
+      <c r="BN23" s="161"/>
+      <c r="BO23" s="161"/>
+      <c r="BP23" s="161"/>
+      <c r="BQ23" s="161"/>
+      <c r="BR23" s="162"/>
     </row>
-    <row r="24" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="195" t="s">
+    <row r="24" spans="1:70" ht="30" customHeight="1">
+      <c r="A24" s="193" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="62"/>
@@ -7441,10 +7381,10 @@
       <c r="AJ24" s="61"/>
       <c r="AK24" s="62"/>
       <c r="AL24" s="63"/>
-      <c r="AM24" s="139"/>
+      <c r="AM24" s="135"/>
       <c r="AN24" s="40"/>
       <c r="AO24" s="41"/>
-      <c r="AP24" s="133"/>
+      <c r="AP24" s="131"/>
       <c r="AQ24" s="44"/>
       <c r="AR24" s="45"/>
       <c r="AS24" s="45"/>
@@ -7466,57 +7406,57 @@
       <c r="BI24" s="45"/>
       <c r="BJ24" s="42"/>
       <c r="BK24" s="43"/>
-      <c r="BL24" s="153"/>
+      <c r="BL24" s="155"/>
       <c r="BM24" s="42"/>
       <c r="BN24" s="42"/>
-      <c r="BO24" s="161"/>
+      <c r="BO24" s="163"/>
       <c r="BP24" s="44"/>
       <c r="BQ24" s="42"/>
-      <c r="BR24" s="151"/>
+      <c r="BR24" s="153"/>
     </row>
-    <row r="25" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="196"/>
-      <c r="B25" s="112"/>
-      <c r="C25" s="109"/>
-      <c r="D25" s="109"/>
-      <c r="E25" s="109"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="110"/>
-      <c r="I25" s="108"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="109"/>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109"/>
-      <c r="N25" s="109"/>
-      <c r="O25" s="110"/>
-      <c r="P25" s="108"/>
-      <c r="Q25" s="109"/>
-      <c r="R25" s="109"/>
-      <c r="S25" s="109"/>
-      <c r="T25" s="109"/>
-      <c r="U25" s="109"/>
-      <c r="V25" s="110"/>
-      <c r="W25" s="108"/>
-      <c r="X25" s="109"/>
-      <c r="Y25" s="109"/>
-      <c r="Z25" s="109"/>
-      <c r="AA25" s="109"/>
-      <c r="AB25" s="109"/>
-      <c r="AC25" s="110"/>
-      <c r="AD25" s="108"/>
-      <c r="AE25" s="109"/>
-      <c r="AF25" s="109"/>
-      <c r="AG25" s="109"/>
-      <c r="AH25" s="109"/>
-      <c r="AI25" s="109"/>
-      <c r="AJ25" s="110"/>
-      <c r="AK25" s="112"/>
-      <c r="AL25" s="113"/>
-      <c r="AM25" s="101"/>
+    <row r="25" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A25" s="194"/>
+      <c r="B25" s="110"/>
+      <c r="C25" s="107"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="107"/>
+      <c r="F25" s="107"/>
+      <c r="G25" s="107"/>
+      <c r="H25" s="108"/>
+      <c r="I25" s="106"/>
+      <c r="J25" s="107"/>
+      <c r="K25" s="107"/>
+      <c r="L25" s="107"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="107"/>
+      <c r="O25" s="108"/>
+      <c r="P25" s="106"/>
+      <c r="Q25" s="107"/>
+      <c r="R25" s="107"/>
+      <c r="S25" s="107"/>
+      <c r="T25" s="107"/>
+      <c r="U25" s="107"/>
+      <c r="V25" s="108"/>
+      <c r="W25" s="106"/>
+      <c r="X25" s="107"/>
+      <c r="Y25" s="107"/>
+      <c r="Z25" s="107"/>
+      <c r="AA25" s="107"/>
+      <c r="AB25" s="107"/>
+      <c r="AC25" s="108"/>
+      <c r="AD25" s="106"/>
+      <c r="AE25" s="107"/>
+      <c r="AF25" s="107"/>
+      <c r="AG25" s="107"/>
+      <c r="AH25" s="107"/>
+      <c r="AI25" s="107"/>
+      <c r="AJ25" s="108"/>
+      <c r="AK25" s="110"/>
+      <c r="AL25" s="111"/>
+      <c r="AM25" s="99"/>
       <c r="AN25" s="48"/>
       <c r="AO25" s="49"/>
-      <c r="AP25" s="134"/>
+      <c r="AP25" s="132"/>
       <c r="AQ25" s="52"/>
       <c r="AR25" s="50"/>
       <c r="AS25" s="50"/>
@@ -7538,88 +7478,88 @@
       <c r="BI25" s="50"/>
       <c r="BJ25" s="50"/>
       <c r="BK25" s="51"/>
-      <c r="BL25" s="154"/>
+      <c r="BL25" s="156"/>
       <c r="BM25" s="50"/>
       <c r="BN25" s="50"/>
-      <c r="BO25" s="162"/>
+      <c r="BO25" s="164"/>
       <c r="BP25" s="52"/>
       <c r="BQ25" s="50"/>
-      <c r="BR25" s="152"/>
+      <c r="BR25" s="154"/>
     </row>
-    <row r="26" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="196"/>
-      <c r="B26" s="108"/>
-      <c r="C26" s="109"/>
-      <c r="D26" s="109"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="108"/>
-      <c r="J26" s="109"/>
-      <c r="K26" s="109"/>
-      <c r="L26" s="109"/>
-      <c r="M26" s="109"/>
-      <c r="N26" s="109"/>
-      <c r="O26" s="110"/>
-      <c r="P26" s="108"/>
-      <c r="Q26" s="109"/>
-      <c r="R26" s="109"/>
-      <c r="S26" s="109"/>
-      <c r="T26" s="109"/>
-      <c r="U26" s="109"/>
-      <c r="V26" s="110"/>
-      <c r="W26" s="108"/>
-      <c r="X26" s="109"/>
-      <c r="Y26" s="109"/>
-      <c r="Z26" s="109"/>
-      <c r="AA26" s="109"/>
-      <c r="AB26" s="109"/>
-      <c r="AC26" s="110"/>
-      <c r="AD26" s="108"/>
-      <c r="AE26" s="109"/>
-      <c r="AF26" s="109"/>
-      <c r="AG26" s="109"/>
-      <c r="AH26" s="109"/>
-      <c r="AI26" s="109"/>
-      <c r="AJ26" s="110"/>
-      <c r="AK26" s="112"/>
-      <c r="AL26" s="113"/>
-      <c r="AM26" s="155"/>
-      <c r="AN26" s="156"/>
-      <c r="AO26" s="156"/>
-      <c r="AP26" s="156"/>
-      <c r="AQ26" s="156"/>
-      <c r="AR26" s="156"/>
-      <c r="AS26" s="156"/>
-      <c r="AT26" s="156"/>
-      <c r="AU26" s="156"/>
-      <c r="AV26" s="156"/>
-      <c r="AW26" s="156"/>
-      <c r="AX26" s="156"/>
-      <c r="AY26" s="156"/>
-      <c r="AZ26" s="156"/>
-      <c r="BA26" s="156"/>
-      <c r="BB26" s="156"/>
-      <c r="BC26" s="156"/>
-      <c r="BD26" s="156"/>
-      <c r="BE26" s="156"/>
-      <c r="BF26" s="156"/>
-      <c r="BG26" s="156"/>
-      <c r="BH26" s="156"/>
-      <c r="BI26" s="156"/>
-      <c r="BJ26" s="156"/>
-      <c r="BK26" s="156"/>
-      <c r="BL26" s="156"/>
-      <c r="BM26" s="156"/>
-      <c r="BN26" s="156"/>
-      <c r="BO26" s="156"/>
-      <c r="BP26" s="156"/>
-      <c r="BQ26" s="156"/>
-      <c r="BR26" s="157"/>
+    <row r="26" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A26" s="194"/>
+      <c r="B26" s="106"/>
+      <c r="C26" s="107"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="107"/>
+      <c r="G26" s="107"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="106"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="107"/>
+      <c r="N26" s="107"/>
+      <c r="O26" s="108"/>
+      <c r="P26" s="106"/>
+      <c r="Q26" s="107"/>
+      <c r="R26" s="107"/>
+      <c r="S26" s="107"/>
+      <c r="T26" s="107"/>
+      <c r="U26" s="107"/>
+      <c r="V26" s="108"/>
+      <c r="W26" s="106"/>
+      <c r="X26" s="107"/>
+      <c r="Y26" s="107"/>
+      <c r="Z26" s="107"/>
+      <c r="AA26" s="107"/>
+      <c r="AB26" s="107"/>
+      <c r="AC26" s="108"/>
+      <c r="AD26" s="106"/>
+      <c r="AE26" s="107"/>
+      <c r="AF26" s="107"/>
+      <c r="AG26" s="107"/>
+      <c r="AH26" s="107"/>
+      <c r="AI26" s="107"/>
+      <c r="AJ26" s="108"/>
+      <c r="AK26" s="110"/>
+      <c r="AL26" s="111"/>
+      <c r="AM26" s="157"/>
+      <c r="AN26" s="158"/>
+      <c r="AO26" s="158"/>
+      <c r="AP26" s="158"/>
+      <c r="AQ26" s="158"/>
+      <c r="AR26" s="158"/>
+      <c r="AS26" s="158"/>
+      <c r="AT26" s="158"/>
+      <c r="AU26" s="158"/>
+      <c r="AV26" s="158"/>
+      <c r="AW26" s="158"/>
+      <c r="AX26" s="158"/>
+      <c r="AY26" s="158"/>
+      <c r="AZ26" s="158"/>
+      <c r="BA26" s="158"/>
+      <c r="BB26" s="158"/>
+      <c r="BC26" s="158"/>
+      <c r="BD26" s="158"/>
+      <c r="BE26" s="158"/>
+      <c r="BF26" s="158"/>
+      <c r="BG26" s="158"/>
+      <c r="BH26" s="158"/>
+      <c r="BI26" s="158"/>
+      <c r="BJ26" s="158"/>
+      <c r="BK26" s="158"/>
+      <c r="BL26" s="158"/>
+      <c r="BM26" s="158"/>
+      <c r="BN26" s="158"/>
+      <c r="BO26" s="158"/>
+      <c r="BP26" s="158"/>
+      <c r="BQ26" s="158"/>
+      <c r="BR26" s="159"/>
     </row>
-    <row r="27" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="197"/>
+    <row r="27" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A27" s="195"/>
       <c r="B27" s="83"/>
       <c r="C27" s="80"/>
       <c r="D27" s="80"/>
@@ -7657,41 +7597,41 @@
       <c r="AJ27" s="81"/>
       <c r="AK27" s="83"/>
       <c r="AL27" s="84"/>
-      <c r="AM27" s="158"/>
-      <c r="AN27" s="159"/>
-      <c r="AO27" s="159"/>
-      <c r="AP27" s="159"/>
-      <c r="AQ27" s="159"/>
-      <c r="AR27" s="159"/>
-      <c r="AS27" s="159"/>
-      <c r="AT27" s="159"/>
-      <c r="AU27" s="159"/>
-      <c r="AV27" s="159"/>
-      <c r="AW27" s="159"/>
-      <c r="AX27" s="159"/>
-      <c r="AY27" s="159"/>
-      <c r="AZ27" s="159"/>
-      <c r="BA27" s="159"/>
-      <c r="BB27" s="159"/>
-      <c r="BC27" s="159"/>
-      <c r="BD27" s="159"/>
-      <c r="BE27" s="159"/>
-      <c r="BF27" s="159"/>
-      <c r="BG27" s="159"/>
-      <c r="BH27" s="159"/>
-      <c r="BI27" s="159"/>
-      <c r="BJ27" s="159"/>
-      <c r="BK27" s="159"/>
-      <c r="BL27" s="159"/>
-      <c r="BM27" s="159"/>
-      <c r="BN27" s="159"/>
-      <c r="BO27" s="159"/>
-      <c r="BP27" s="159"/>
-      <c r="BQ27" s="159"/>
-      <c r="BR27" s="160"/>
+      <c r="AM27" s="160"/>
+      <c r="AN27" s="161"/>
+      <c r="AO27" s="161"/>
+      <c r="AP27" s="161"/>
+      <c r="AQ27" s="161"/>
+      <c r="AR27" s="161"/>
+      <c r="AS27" s="161"/>
+      <c r="AT27" s="161"/>
+      <c r="AU27" s="161"/>
+      <c r="AV27" s="161"/>
+      <c r="AW27" s="161"/>
+      <c r="AX27" s="161"/>
+      <c r="AY27" s="161"/>
+      <c r="AZ27" s="161"/>
+      <c r="BA27" s="161"/>
+      <c r="BB27" s="161"/>
+      <c r="BC27" s="161"/>
+      <c r="BD27" s="161"/>
+      <c r="BE27" s="161"/>
+      <c r="BF27" s="161"/>
+      <c r="BG27" s="161"/>
+      <c r="BH27" s="161"/>
+      <c r="BI27" s="161"/>
+      <c r="BJ27" s="161"/>
+      <c r="BK27" s="161"/>
+      <c r="BL27" s="161"/>
+      <c r="BM27" s="161"/>
+      <c r="BN27" s="161"/>
+      <c r="BO27" s="161"/>
+      <c r="BP27" s="161"/>
+      <c r="BQ27" s="161"/>
+      <c r="BR27" s="162"/>
     </row>
-    <row r="28" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="195" t="s">
+    <row r="28" spans="1:70" ht="30" customHeight="1">
+      <c r="A28" s="193" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="62"/>
@@ -7731,10 +7671,10 @@
       <c r="AJ28" s="61"/>
       <c r="AK28" s="62"/>
       <c r="AL28" s="63"/>
-      <c r="AM28" s="139"/>
+      <c r="AM28" s="135"/>
       <c r="AN28" s="40"/>
       <c r="AO28" s="41"/>
-      <c r="AP28" s="133"/>
+      <c r="AP28" s="131"/>
       <c r="AQ28" s="44"/>
       <c r="AR28" s="45"/>
       <c r="AS28" s="45"/>
@@ -7756,57 +7696,57 @@
       <c r="BI28" s="45"/>
       <c r="BJ28" s="42"/>
       <c r="BK28" s="43"/>
-      <c r="BL28" s="153"/>
+      <c r="BL28" s="155"/>
       <c r="BM28" s="42"/>
       <c r="BN28" s="42"/>
-      <c r="BO28" s="161"/>
+      <c r="BO28" s="163"/>
       <c r="BP28" s="44"/>
       <c r="BQ28" s="42"/>
-      <c r="BR28" s="151"/>
+      <c r="BR28" s="153"/>
     </row>
-    <row r="29" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="196"/>
-      <c r="B29" s="112"/>
-      <c r="C29" s="109"/>
-      <c r="D29" s="109"/>
-      <c r="E29" s="109"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="109"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="108"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="109"/>
-      <c r="L29" s="109"/>
-      <c r="M29" s="109"/>
-      <c r="N29" s="109"/>
-      <c r="O29" s="110"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="109"/>
-      <c r="S29" s="109"/>
-      <c r="T29" s="109"/>
-      <c r="U29" s="109"/>
-      <c r="V29" s="110"/>
-      <c r="W29" s="108"/>
-      <c r="X29" s="109"/>
-      <c r="Y29" s="109"/>
-      <c r="Z29" s="109"/>
-      <c r="AA29" s="109"/>
-      <c r="AB29" s="109"/>
-      <c r="AC29" s="110"/>
-      <c r="AD29" s="108"/>
-      <c r="AE29" s="109"/>
-      <c r="AF29" s="109"/>
-      <c r="AG29" s="109"/>
-      <c r="AH29" s="109"/>
-      <c r="AI29" s="109"/>
-      <c r="AJ29" s="110"/>
-      <c r="AK29" s="112"/>
-      <c r="AL29" s="113"/>
-      <c r="AM29" s="101"/>
+    <row r="29" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A29" s="194"/>
+      <c r="B29" s="110"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="108"/>
+      <c r="I29" s="106"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="107"/>
+      <c r="O29" s="108"/>
+      <c r="P29" s="101"/>
+      <c r="Q29" s="102"/>
+      <c r="R29" s="107"/>
+      <c r="S29" s="107"/>
+      <c r="T29" s="107"/>
+      <c r="U29" s="107"/>
+      <c r="V29" s="108"/>
+      <c r="W29" s="106"/>
+      <c r="X29" s="107"/>
+      <c r="Y29" s="107"/>
+      <c r="Z29" s="107"/>
+      <c r="AA29" s="107"/>
+      <c r="AB29" s="107"/>
+      <c r="AC29" s="108"/>
+      <c r="AD29" s="106"/>
+      <c r="AE29" s="107"/>
+      <c r="AF29" s="107"/>
+      <c r="AG29" s="107"/>
+      <c r="AH29" s="107"/>
+      <c r="AI29" s="107"/>
+      <c r="AJ29" s="108"/>
+      <c r="AK29" s="110"/>
+      <c r="AL29" s="111"/>
+      <c r="AM29" s="99"/>
       <c r="AN29" s="48"/>
       <c r="AO29" s="49"/>
-      <c r="AP29" s="134"/>
+      <c r="AP29" s="132"/>
       <c r="AQ29" s="52"/>
       <c r="AR29" s="50"/>
       <c r="AS29" s="50"/>
@@ -7828,88 +7768,88 @@
       <c r="BI29" s="50"/>
       <c r="BJ29" s="50"/>
       <c r="BK29" s="51"/>
-      <c r="BL29" s="154"/>
+      <c r="BL29" s="156"/>
       <c r="BM29" s="50"/>
       <c r="BN29" s="50"/>
-      <c r="BO29" s="162"/>
+      <c r="BO29" s="164"/>
       <c r="BP29" s="52"/>
       <c r="BQ29" s="50"/>
-      <c r="BR29" s="152"/>
+      <c r="BR29" s="154"/>
     </row>
-    <row r="30" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="196"/>
-      <c r="B30" s="108"/>
-      <c r="C30" s="109"/>
-      <c r="D30" s="109"/>
-      <c r="E30" s="109"/>
-      <c r="F30" s="109"/>
-      <c r="G30" s="109"/>
-      <c r="H30" s="110"/>
-      <c r="I30" s="108"/>
-      <c r="J30" s="109"/>
-      <c r="K30" s="109"/>
-      <c r="L30" s="109"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="110"/>
-      <c r="P30" s="103"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="109"/>
-      <c r="S30" s="109"/>
-      <c r="T30" s="109"/>
-      <c r="U30" s="109"/>
-      <c r="V30" s="110"/>
-      <c r="W30" s="108"/>
-      <c r="X30" s="109"/>
-      <c r="Y30" s="109"/>
-      <c r="Z30" s="109"/>
-      <c r="AA30" s="109"/>
-      <c r="AB30" s="109"/>
-      <c r="AC30" s="110"/>
-      <c r="AD30" s="108"/>
-      <c r="AE30" s="109"/>
-      <c r="AF30" s="109"/>
-      <c r="AG30" s="109"/>
-      <c r="AH30" s="109"/>
-      <c r="AI30" s="109"/>
-      <c r="AJ30" s="110"/>
-      <c r="AK30" s="112"/>
-      <c r="AL30" s="113"/>
-      <c r="AM30" s="155"/>
-      <c r="AN30" s="156"/>
-      <c r="AO30" s="156"/>
-      <c r="AP30" s="156"/>
-      <c r="AQ30" s="156"/>
-      <c r="AR30" s="156"/>
-      <c r="AS30" s="156"/>
-      <c r="AT30" s="156"/>
-      <c r="AU30" s="156"/>
-      <c r="AV30" s="156"/>
-      <c r="AW30" s="156"/>
-      <c r="AX30" s="156"/>
-      <c r="AY30" s="156"/>
-      <c r="AZ30" s="156"/>
-      <c r="BA30" s="156"/>
-      <c r="BB30" s="156"/>
-      <c r="BC30" s="156"/>
-      <c r="BD30" s="156"/>
-      <c r="BE30" s="156"/>
-      <c r="BF30" s="156"/>
-      <c r="BG30" s="156"/>
-      <c r="BH30" s="156"/>
-      <c r="BI30" s="156"/>
-      <c r="BJ30" s="156"/>
-      <c r="BK30" s="156"/>
-      <c r="BL30" s="156"/>
-      <c r="BM30" s="156"/>
-      <c r="BN30" s="156"/>
-      <c r="BO30" s="156"/>
-      <c r="BP30" s="156"/>
-      <c r="BQ30" s="156"/>
-      <c r="BR30" s="157"/>
+    <row r="30" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A30" s="194"/>
+      <c r="B30" s="106"/>
+      <c r="C30" s="107"/>
+      <c r="D30" s="107"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="107"/>
+      <c r="G30" s="107"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="106"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="107"/>
+      <c r="N30" s="107"/>
+      <c r="O30" s="108"/>
+      <c r="P30" s="101"/>
+      <c r="Q30" s="102"/>
+      <c r="R30" s="107"/>
+      <c r="S30" s="107"/>
+      <c r="T30" s="107"/>
+      <c r="U30" s="107"/>
+      <c r="V30" s="108"/>
+      <c r="W30" s="106"/>
+      <c r="X30" s="107"/>
+      <c r="Y30" s="107"/>
+      <c r="Z30" s="107"/>
+      <c r="AA30" s="107"/>
+      <c r="AB30" s="107"/>
+      <c r="AC30" s="108"/>
+      <c r="AD30" s="106"/>
+      <c r="AE30" s="107"/>
+      <c r="AF30" s="107"/>
+      <c r="AG30" s="107"/>
+      <c r="AH30" s="107"/>
+      <c r="AI30" s="107"/>
+      <c r="AJ30" s="108"/>
+      <c r="AK30" s="110"/>
+      <c r="AL30" s="111"/>
+      <c r="AM30" s="157"/>
+      <c r="AN30" s="158"/>
+      <c r="AO30" s="158"/>
+      <c r="AP30" s="158"/>
+      <c r="AQ30" s="158"/>
+      <c r="AR30" s="158"/>
+      <c r="AS30" s="158"/>
+      <c r="AT30" s="158"/>
+      <c r="AU30" s="158"/>
+      <c r="AV30" s="158"/>
+      <c r="AW30" s="158"/>
+      <c r="AX30" s="158"/>
+      <c r="AY30" s="158"/>
+      <c r="AZ30" s="158"/>
+      <c r="BA30" s="158"/>
+      <c r="BB30" s="158"/>
+      <c r="BC30" s="158"/>
+      <c r="BD30" s="158"/>
+      <c r="BE30" s="158"/>
+      <c r="BF30" s="158"/>
+      <c r="BG30" s="158"/>
+      <c r="BH30" s="158"/>
+      <c r="BI30" s="158"/>
+      <c r="BJ30" s="158"/>
+      <c r="BK30" s="158"/>
+      <c r="BL30" s="158"/>
+      <c r="BM30" s="158"/>
+      <c r="BN30" s="158"/>
+      <c r="BO30" s="158"/>
+      <c r="BP30" s="158"/>
+      <c r="BQ30" s="158"/>
+      <c r="BR30" s="159"/>
     </row>
-    <row r="31" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="197"/>
+    <row r="31" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A31" s="195"/>
       <c r="B31" s="88"/>
       <c r="C31" s="86"/>
       <c r="D31" s="86"/>
@@ -7947,41 +7887,41 @@
       <c r="AJ31" s="87"/>
       <c r="AK31" s="88"/>
       <c r="AL31" s="89"/>
-      <c r="AM31" s="158"/>
-      <c r="AN31" s="159"/>
-      <c r="AO31" s="159"/>
-      <c r="AP31" s="159"/>
-      <c r="AQ31" s="159"/>
-      <c r="AR31" s="159"/>
-      <c r="AS31" s="159"/>
-      <c r="AT31" s="159"/>
-      <c r="AU31" s="159"/>
-      <c r="AV31" s="159"/>
-      <c r="AW31" s="159"/>
-      <c r="AX31" s="159"/>
-      <c r="AY31" s="159"/>
-      <c r="AZ31" s="159"/>
-      <c r="BA31" s="159"/>
-      <c r="BB31" s="159"/>
-      <c r="BC31" s="159"/>
-      <c r="BD31" s="159"/>
-      <c r="BE31" s="159"/>
-      <c r="BF31" s="159"/>
-      <c r="BG31" s="159"/>
-      <c r="BH31" s="159"/>
-      <c r="BI31" s="159"/>
-      <c r="BJ31" s="159"/>
-      <c r="BK31" s="159"/>
-      <c r="BL31" s="159"/>
-      <c r="BM31" s="159"/>
-      <c r="BN31" s="159"/>
-      <c r="BO31" s="159"/>
-      <c r="BP31" s="159"/>
-      <c r="BQ31" s="159"/>
-      <c r="BR31" s="160"/>
+      <c r="AM31" s="160"/>
+      <c r="AN31" s="161"/>
+      <c r="AO31" s="161"/>
+      <c r="AP31" s="161"/>
+      <c r="AQ31" s="161"/>
+      <c r="AR31" s="161"/>
+      <c r="AS31" s="161"/>
+      <c r="AT31" s="161"/>
+      <c r="AU31" s="161"/>
+      <c r="AV31" s="161"/>
+      <c r="AW31" s="161"/>
+      <c r="AX31" s="161"/>
+      <c r="AY31" s="161"/>
+      <c r="AZ31" s="161"/>
+      <c r="BA31" s="161"/>
+      <c r="BB31" s="161"/>
+      <c r="BC31" s="161"/>
+      <c r="BD31" s="161"/>
+      <c r="BE31" s="161"/>
+      <c r="BF31" s="161"/>
+      <c r="BG31" s="161"/>
+      <c r="BH31" s="161"/>
+      <c r="BI31" s="161"/>
+      <c r="BJ31" s="161"/>
+      <c r="BK31" s="161"/>
+      <c r="BL31" s="161"/>
+      <c r="BM31" s="161"/>
+      <c r="BN31" s="161"/>
+      <c r="BO31" s="161"/>
+      <c r="BP31" s="161"/>
+      <c r="BQ31" s="161"/>
+      <c r="BR31" s="162"/>
     </row>
-    <row r="32" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="195" t="s">
+    <row r="32" spans="1:70" ht="30" customHeight="1">
+      <c r="A32" s="193" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="57"/>
@@ -8021,10 +7961,10 @@
       <c r="AJ32" s="56"/>
       <c r="AK32" s="57"/>
       <c r="AL32" s="58"/>
-      <c r="AM32" s="139"/>
+      <c r="AM32" s="135"/>
       <c r="AN32" s="40"/>
       <c r="AO32" s="41"/>
-      <c r="AP32" s="133"/>
+      <c r="AP32" s="131"/>
       <c r="AQ32" s="44"/>
       <c r="AR32" s="45"/>
       <c r="AS32" s="45"/>
@@ -8046,57 +7986,57 @@
       <c r="BI32" s="45"/>
       <c r="BJ32" s="42"/>
       <c r="BK32" s="43"/>
-      <c r="BL32" s="153"/>
+      <c r="BL32" s="155"/>
       <c r="BM32" s="42"/>
       <c r="BN32" s="42"/>
-      <c r="BO32" s="161"/>
+      <c r="BO32" s="163"/>
       <c r="BP32" s="44"/>
       <c r="BQ32" s="42"/>
-      <c r="BR32" s="151"/>
+      <c r="BR32" s="153"/>
     </row>
-    <row r="33" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="196"/>
-      <c r="B33" s="112"/>
-      <c r="C33" s="109"/>
-      <c r="D33" s="109"/>
-      <c r="E33" s="109"/>
-      <c r="F33" s="109"/>
-      <c r="G33" s="109"/>
-      <c r="H33" s="110"/>
-      <c r="I33" s="108"/>
-      <c r="J33" s="109"/>
-      <c r="K33" s="109"/>
-      <c r="L33" s="109"/>
-      <c r="M33" s="109"/>
-      <c r="N33" s="109"/>
-      <c r="O33" s="110"/>
-      <c r="P33" s="108"/>
-      <c r="Q33" s="109"/>
-      <c r="R33" s="109"/>
-      <c r="S33" s="109"/>
-      <c r="T33" s="109"/>
-      <c r="U33" s="109"/>
-      <c r="V33" s="110"/>
-      <c r="W33" s="108"/>
-      <c r="X33" s="109"/>
-      <c r="Y33" s="109"/>
-      <c r="Z33" s="109"/>
-      <c r="AA33" s="109"/>
-      <c r="AB33" s="109"/>
-      <c r="AC33" s="110"/>
-      <c r="AD33" s="108"/>
-      <c r="AE33" s="109"/>
-      <c r="AF33" s="109"/>
-      <c r="AG33" s="109"/>
-      <c r="AH33" s="109"/>
-      <c r="AI33" s="109"/>
-      <c r="AJ33" s="110"/>
-      <c r="AK33" s="112"/>
-      <c r="AL33" s="113"/>
-      <c r="AM33" s="101"/>
+    <row r="33" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A33" s="194"/>
+      <c r="B33" s="110"/>
+      <c r="C33" s="107"/>
+      <c r="D33" s="107"/>
+      <c r="E33" s="107"/>
+      <c r="F33" s="107"/>
+      <c r="G33" s="107"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="107"/>
+      <c r="K33" s="107"/>
+      <c r="L33" s="107"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="107"/>
+      <c r="O33" s="108"/>
+      <c r="P33" s="106"/>
+      <c r="Q33" s="107"/>
+      <c r="R33" s="107"/>
+      <c r="S33" s="107"/>
+      <c r="T33" s="107"/>
+      <c r="U33" s="107"/>
+      <c r="V33" s="108"/>
+      <c r="W33" s="106"/>
+      <c r="X33" s="107"/>
+      <c r="Y33" s="107"/>
+      <c r="Z33" s="107"/>
+      <c r="AA33" s="107"/>
+      <c r="AB33" s="107"/>
+      <c r="AC33" s="108"/>
+      <c r="AD33" s="106"/>
+      <c r="AE33" s="107"/>
+      <c r="AF33" s="107"/>
+      <c r="AG33" s="107"/>
+      <c r="AH33" s="107"/>
+      <c r="AI33" s="107"/>
+      <c r="AJ33" s="108"/>
+      <c r="AK33" s="110"/>
+      <c r="AL33" s="111"/>
+      <c r="AM33" s="99"/>
       <c r="AN33" s="48"/>
       <c r="AO33" s="49"/>
-      <c r="AP33" s="134"/>
+      <c r="AP33" s="132"/>
       <c r="AQ33" s="52"/>
       <c r="AR33" s="50"/>
       <c r="AS33" s="50"/>
@@ -8118,88 +8058,88 @@
       <c r="BI33" s="50"/>
       <c r="BJ33" s="50"/>
       <c r="BK33" s="51"/>
-      <c r="BL33" s="154"/>
+      <c r="BL33" s="156"/>
       <c r="BM33" s="50"/>
       <c r="BN33" s="50"/>
-      <c r="BO33" s="162"/>
+      <c r="BO33" s="164"/>
       <c r="BP33" s="52"/>
       <c r="BQ33" s="50"/>
-      <c r="BR33" s="152"/>
+      <c r="BR33" s="154"/>
     </row>
-    <row r="34" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="196"/>
-      <c r="B34" s="108"/>
-      <c r="C34" s="109"/>
-      <c r="D34" s="109"/>
-      <c r="E34" s="109"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="109"/>
-      <c r="H34" s="110"/>
-      <c r="I34" s="108"/>
-      <c r="J34" s="109"/>
-      <c r="K34" s="109"/>
-      <c r="L34" s="109"/>
-      <c r="M34" s="109"/>
-      <c r="N34" s="109"/>
-      <c r="O34" s="110"/>
-      <c r="P34" s="108"/>
-      <c r="Q34" s="109"/>
-      <c r="R34" s="109"/>
-      <c r="S34" s="109"/>
-      <c r="T34" s="109"/>
-      <c r="U34" s="109"/>
-      <c r="V34" s="110"/>
-      <c r="W34" s="108"/>
-      <c r="X34" s="109"/>
-      <c r="Y34" s="109"/>
-      <c r="Z34" s="109"/>
-      <c r="AA34" s="109"/>
-      <c r="AB34" s="109"/>
-      <c r="AC34" s="110"/>
-      <c r="AD34" s="108"/>
-      <c r="AE34" s="109"/>
-      <c r="AF34" s="109"/>
-      <c r="AG34" s="109"/>
-      <c r="AH34" s="109"/>
-      <c r="AI34" s="109"/>
-      <c r="AJ34" s="110"/>
-      <c r="AK34" s="112"/>
-      <c r="AL34" s="113"/>
-      <c r="AM34" s="155"/>
-      <c r="AN34" s="156"/>
-      <c r="AO34" s="156"/>
-      <c r="AP34" s="156"/>
-      <c r="AQ34" s="156"/>
-      <c r="AR34" s="156"/>
-      <c r="AS34" s="156"/>
-      <c r="AT34" s="156"/>
-      <c r="AU34" s="156"/>
-      <c r="AV34" s="156"/>
-      <c r="AW34" s="156"/>
-      <c r="AX34" s="156"/>
-      <c r="AY34" s="156"/>
-      <c r="AZ34" s="156"/>
-      <c r="BA34" s="156"/>
-      <c r="BB34" s="156"/>
-      <c r="BC34" s="156"/>
-      <c r="BD34" s="156"/>
-      <c r="BE34" s="156"/>
-      <c r="BF34" s="156"/>
-      <c r="BG34" s="156"/>
-      <c r="BH34" s="156"/>
-      <c r="BI34" s="156"/>
-      <c r="BJ34" s="156"/>
-      <c r="BK34" s="156"/>
-      <c r="BL34" s="156"/>
-      <c r="BM34" s="156"/>
-      <c r="BN34" s="156"/>
-      <c r="BO34" s="156"/>
-      <c r="BP34" s="156"/>
-      <c r="BQ34" s="156"/>
-      <c r="BR34" s="157"/>
+    <row r="34" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A34" s="194"/>
+      <c r="B34" s="106"/>
+      <c r="C34" s="107"/>
+      <c r="D34" s="107"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="107"/>
+      <c r="G34" s="107"/>
+      <c r="H34" s="108"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="107"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="107"/>
+      <c r="O34" s="108"/>
+      <c r="P34" s="106"/>
+      <c r="Q34" s="107"/>
+      <c r="R34" s="107"/>
+      <c r="S34" s="107"/>
+      <c r="T34" s="107"/>
+      <c r="U34" s="107"/>
+      <c r="V34" s="108"/>
+      <c r="W34" s="106"/>
+      <c r="X34" s="107"/>
+      <c r="Y34" s="107"/>
+      <c r="Z34" s="107"/>
+      <c r="AA34" s="107"/>
+      <c r="AB34" s="107"/>
+      <c r="AC34" s="108"/>
+      <c r="AD34" s="106"/>
+      <c r="AE34" s="107"/>
+      <c r="AF34" s="107"/>
+      <c r="AG34" s="107"/>
+      <c r="AH34" s="107"/>
+      <c r="AI34" s="107"/>
+      <c r="AJ34" s="108"/>
+      <c r="AK34" s="110"/>
+      <c r="AL34" s="111"/>
+      <c r="AM34" s="157"/>
+      <c r="AN34" s="158"/>
+      <c r="AO34" s="158"/>
+      <c r="AP34" s="158"/>
+      <c r="AQ34" s="158"/>
+      <c r="AR34" s="158"/>
+      <c r="AS34" s="158"/>
+      <c r="AT34" s="158"/>
+      <c r="AU34" s="158"/>
+      <c r="AV34" s="158"/>
+      <c r="AW34" s="158"/>
+      <c r="AX34" s="158"/>
+      <c r="AY34" s="158"/>
+      <c r="AZ34" s="158"/>
+      <c r="BA34" s="158"/>
+      <c r="BB34" s="158"/>
+      <c r="BC34" s="158"/>
+      <c r="BD34" s="158"/>
+      <c r="BE34" s="158"/>
+      <c r="BF34" s="158"/>
+      <c r="BG34" s="158"/>
+      <c r="BH34" s="158"/>
+      <c r="BI34" s="158"/>
+      <c r="BJ34" s="158"/>
+      <c r="BK34" s="158"/>
+      <c r="BL34" s="158"/>
+      <c r="BM34" s="158"/>
+      <c r="BN34" s="158"/>
+      <c r="BO34" s="158"/>
+      <c r="BP34" s="158"/>
+      <c r="BQ34" s="158"/>
+      <c r="BR34" s="159"/>
     </row>
-    <row r="35" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="197"/>
+    <row r="35" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A35" s="195"/>
       <c r="B35" s="83"/>
       <c r="C35" s="80"/>
       <c r="D35" s="80"/>
@@ -8237,41 +8177,41 @@
       <c r="AJ35" s="81"/>
       <c r="AK35" s="83"/>
       <c r="AL35" s="84"/>
-      <c r="AM35" s="158"/>
-      <c r="AN35" s="159"/>
-      <c r="AO35" s="159"/>
-      <c r="AP35" s="159"/>
-      <c r="AQ35" s="159"/>
-      <c r="AR35" s="159"/>
-      <c r="AS35" s="159"/>
-      <c r="AT35" s="159"/>
-      <c r="AU35" s="159"/>
-      <c r="AV35" s="159"/>
-      <c r="AW35" s="159"/>
-      <c r="AX35" s="159"/>
-      <c r="AY35" s="159"/>
-      <c r="AZ35" s="159"/>
-      <c r="BA35" s="159"/>
-      <c r="BB35" s="159"/>
-      <c r="BC35" s="159"/>
-      <c r="BD35" s="159"/>
-      <c r="BE35" s="159"/>
-      <c r="BF35" s="159"/>
-      <c r="BG35" s="159"/>
-      <c r="BH35" s="159"/>
-      <c r="BI35" s="159"/>
-      <c r="BJ35" s="159"/>
-      <c r="BK35" s="159"/>
-      <c r="BL35" s="159"/>
-      <c r="BM35" s="159"/>
-      <c r="BN35" s="159"/>
-      <c r="BO35" s="159"/>
-      <c r="BP35" s="159"/>
-      <c r="BQ35" s="159"/>
-      <c r="BR35" s="160"/>
+      <c r="AM35" s="160"/>
+      <c r="AN35" s="161"/>
+      <c r="AO35" s="161"/>
+      <c r="AP35" s="161"/>
+      <c r="AQ35" s="161"/>
+      <c r="AR35" s="161"/>
+      <c r="AS35" s="161"/>
+      <c r="AT35" s="161"/>
+      <c r="AU35" s="161"/>
+      <c r="AV35" s="161"/>
+      <c r="AW35" s="161"/>
+      <c r="AX35" s="161"/>
+      <c r="AY35" s="161"/>
+      <c r="AZ35" s="161"/>
+      <c r="BA35" s="161"/>
+      <c r="BB35" s="161"/>
+      <c r="BC35" s="161"/>
+      <c r="BD35" s="161"/>
+      <c r="BE35" s="161"/>
+      <c r="BF35" s="161"/>
+      <c r="BG35" s="161"/>
+      <c r="BH35" s="161"/>
+      <c r="BI35" s="161"/>
+      <c r="BJ35" s="161"/>
+      <c r="BK35" s="161"/>
+      <c r="BL35" s="161"/>
+      <c r="BM35" s="161"/>
+      <c r="BN35" s="161"/>
+      <c r="BO35" s="161"/>
+      <c r="BP35" s="161"/>
+      <c r="BQ35" s="161"/>
+      <c r="BR35" s="162"/>
     </row>
-    <row r="36" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="199" t="s">
+    <row r="36" spans="1:70" ht="30" customHeight="1">
+      <c r="A36" s="197" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="59"/>
@@ -8311,10 +8251,10 @@
       <c r="AJ36" s="61"/>
       <c r="AK36" s="62"/>
       <c r="AL36" s="63"/>
-      <c r="AM36" s="139"/>
+      <c r="AM36" s="135"/>
       <c r="AN36" s="40"/>
       <c r="AO36" s="41"/>
-      <c r="AP36" s="133"/>
+      <c r="AP36" s="131"/>
       <c r="AQ36" s="44"/>
       <c r="AR36" s="45"/>
       <c r="AS36" s="45"/>
@@ -8336,57 +8276,57 @@
       <c r="BI36" s="45"/>
       <c r="BJ36" s="42"/>
       <c r="BK36" s="43"/>
-      <c r="BL36" s="153"/>
+      <c r="BL36" s="155"/>
       <c r="BM36" s="42"/>
       <c r="BN36" s="42"/>
-      <c r="BO36" s="161"/>
+      <c r="BO36" s="163"/>
       <c r="BP36" s="44"/>
       <c r="BQ36" s="42"/>
-      <c r="BR36" s="151"/>
+      <c r="BR36" s="153"/>
     </row>
-    <row r="37" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="200"/>
-      <c r="B37" s="108"/>
-      <c r="C37" s="109"/>
-      <c r="D37" s="109"/>
-      <c r="E37" s="109"/>
-      <c r="F37" s="109"/>
-      <c r="G37" s="109"/>
-      <c r="H37" s="110"/>
-      <c r="I37" s="108"/>
-      <c r="J37" s="109"/>
-      <c r="K37" s="109"/>
-      <c r="L37" s="109"/>
-      <c r="M37" s="109"/>
-      <c r="N37" s="109"/>
-      <c r="O37" s="110"/>
-      <c r="P37" s="108"/>
-      <c r="Q37" s="109"/>
-      <c r="R37" s="109"/>
-      <c r="S37" s="109"/>
-      <c r="T37" s="109"/>
-      <c r="U37" s="109"/>
-      <c r="V37" s="110"/>
-      <c r="W37" s="108"/>
-      <c r="X37" s="109"/>
-      <c r="Y37" s="109"/>
-      <c r="Z37" s="109"/>
-      <c r="AA37" s="109"/>
-      <c r="AB37" s="109"/>
-      <c r="AC37" s="110"/>
-      <c r="AD37" s="108"/>
-      <c r="AE37" s="109"/>
-      <c r="AF37" s="109"/>
-      <c r="AG37" s="109"/>
-      <c r="AH37" s="109"/>
-      <c r="AI37" s="109"/>
-      <c r="AJ37" s="110"/>
-      <c r="AK37" s="112"/>
-      <c r="AL37" s="113"/>
-      <c r="AM37" s="101"/>
+    <row r="37" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A37" s="198"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="107"/>
+      <c r="G37" s="107"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="106"/>
+      <c r="J37" s="107"/>
+      <c r="K37" s="107"/>
+      <c r="L37" s="107"/>
+      <c r="M37" s="107"/>
+      <c r="N37" s="107"/>
+      <c r="O37" s="108"/>
+      <c r="P37" s="106"/>
+      <c r="Q37" s="107"/>
+      <c r="R37" s="107"/>
+      <c r="S37" s="107"/>
+      <c r="T37" s="107"/>
+      <c r="U37" s="107"/>
+      <c r="V37" s="108"/>
+      <c r="W37" s="106"/>
+      <c r="X37" s="107"/>
+      <c r="Y37" s="107"/>
+      <c r="Z37" s="107"/>
+      <c r="AA37" s="107"/>
+      <c r="AB37" s="107"/>
+      <c r="AC37" s="108"/>
+      <c r="AD37" s="106"/>
+      <c r="AE37" s="107"/>
+      <c r="AF37" s="107"/>
+      <c r="AG37" s="107"/>
+      <c r="AH37" s="107"/>
+      <c r="AI37" s="107"/>
+      <c r="AJ37" s="108"/>
+      <c r="AK37" s="110"/>
+      <c r="AL37" s="111"/>
+      <c r="AM37" s="99"/>
       <c r="AN37" s="48"/>
       <c r="AO37" s="49"/>
-      <c r="AP37" s="134"/>
+      <c r="AP37" s="132"/>
       <c r="AQ37" s="52"/>
       <c r="AR37" s="50"/>
       <c r="AS37" s="50"/>
@@ -8408,88 +8348,88 @@
       <c r="BI37" s="50"/>
       <c r="BJ37" s="50"/>
       <c r="BK37" s="51"/>
-      <c r="BL37" s="154"/>
+      <c r="BL37" s="156"/>
       <c r="BM37" s="50"/>
       <c r="BN37" s="50"/>
-      <c r="BO37" s="162"/>
+      <c r="BO37" s="164"/>
       <c r="BP37" s="52"/>
       <c r="BQ37" s="50"/>
-      <c r="BR37" s="152"/>
+      <c r="BR37" s="154"/>
     </row>
-    <row r="38" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="200"/>
-      <c r="B38" s="108"/>
-      <c r="C38" s="109"/>
-      <c r="D38" s="109"/>
-      <c r="E38" s="109"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="109"/>
-      <c r="H38" s="110"/>
-      <c r="I38" s="108"/>
-      <c r="J38" s="109"/>
-      <c r="K38" s="109"/>
-      <c r="L38" s="109"/>
-      <c r="M38" s="109"/>
-      <c r="N38" s="109"/>
-      <c r="O38" s="110"/>
-      <c r="P38" s="108"/>
-      <c r="Q38" s="109"/>
-      <c r="R38" s="109"/>
-      <c r="S38" s="109"/>
-      <c r="T38" s="109"/>
-      <c r="U38" s="109"/>
-      <c r="V38" s="110"/>
-      <c r="W38" s="108"/>
-      <c r="X38" s="109"/>
-      <c r="Y38" s="109"/>
-      <c r="Z38" s="109"/>
-      <c r="AA38" s="109"/>
-      <c r="AB38" s="109"/>
-      <c r="AC38" s="110"/>
-      <c r="AD38" s="108"/>
-      <c r="AE38" s="109"/>
-      <c r="AF38" s="109"/>
-      <c r="AG38" s="109"/>
-      <c r="AH38" s="109"/>
-      <c r="AI38" s="109"/>
-      <c r="AJ38" s="110"/>
-      <c r="AK38" s="112"/>
-      <c r="AL38" s="113"/>
-      <c r="AM38" s="155"/>
-      <c r="AN38" s="156"/>
-      <c r="AO38" s="156"/>
-      <c r="AP38" s="156"/>
-      <c r="AQ38" s="156"/>
-      <c r="AR38" s="156"/>
-      <c r="AS38" s="156"/>
-      <c r="AT38" s="156"/>
-      <c r="AU38" s="156"/>
-      <c r="AV38" s="156"/>
-      <c r="AW38" s="156"/>
-      <c r="AX38" s="156"/>
-      <c r="AY38" s="156"/>
-      <c r="AZ38" s="156"/>
-      <c r="BA38" s="156"/>
-      <c r="BB38" s="156"/>
-      <c r="BC38" s="156"/>
-      <c r="BD38" s="156"/>
-      <c r="BE38" s="156"/>
-      <c r="BF38" s="156"/>
-      <c r="BG38" s="156"/>
-      <c r="BH38" s="156"/>
-      <c r="BI38" s="156"/>
-      <c r="BJ38" s="156"/>
-      <c r="BK38" s="156"/>
-      <c r="BL38" s="156"/>
-      <c r="BM38" s="156"/>
-      <c r="BN38" s="156"/>
-      <c r="BO38" s="156"/>
-      <c r="BP38" s="156"/>
-      <c r="BQ38" s="156"/>
-      <c r="BR38" s="157"/>
+    <row r="38" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A38" s="198"/>
+      <c r="B38" s="106"/>
+      <c r="C38" s="107"/>
+      <c r="D38" s="107"/>
+      <c r="E38" s="107"/>
+      <c r="F38" s="107"/>
+      <c r="G38" s="107"/>
+      <c r="H38" s="108"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="107"/>
+      <c r="L38" s="107"/>
+      <c r="M38" s="107"/>
+      <c r="N38" s="107"/>
+      <c r="O38" s="108"/>
+      <c r="P38" s="106"/>
+      <c r="Q38" s="107"/>
+      <c r="R38" s="107"/>
+      <c r="S38" s="107"/>
+      <c r="T38" s="107"/>
+      <c r="U38" s="107"/>
+      <c r="V38" s="108"/>
+      <c r="W38" s="106"/>
+      <c r="X38" s="107"/>
+      <c r="Y38" s="107"/>
+      <c r="Z38" s="107"/>
+      <c r="AA38" s="107"/>
+      <c r="AB38" s="107"/>
+      <c r="AC38" s="108"/>
+      <c r="AD38" s="106"/>
+      <c r="AE38" s="107"/>
+      <c r="AF38" s="107"/>
+      <c r="AG38" s="107"/>
+      <c r="AH38" s="107"/>
+      <c r="AI38" s="107"/>
+      <c r="AJ38" s="108"/>
+      <c r="AK38" s="110"/>
+      <c r="AL38" s="111"/>
+      <c r="AM38" s="157"/>
+      <c r="AN38" s="158"/>
+      <c r="AO38" s="158"/>
+      <c r="AP38" s="158"/>
+      <c r="AQ38" s="158"/>
+      <c r="AR38" s="158"/>
+      <c r="AS38" s="158"/>
+      <c r="AT38" s="158"/>
+      <c r="AU38" s="158"/>
+      <c r="AV38" s="158"/>
+      <c r="AW38" s="158"/>
+      <c r="AX38" s="158"/>
+      <c r="AY38" s="158"/>
+      <c r="AZ38" s="158"/>
+      <c r="BA38" s="158"/>
+      <c r="BB38" s="158"/>
+      <c r="BC38" s="158"/>
+      <c r="BD38" s="158"/>
+      <c r="BE38" s="158"/>
+      <c r="BF38" s="158"/>
+      <c r="BG38" s="158"/>
+      <c r="BH38" s="158"/>
+      <c r="BI38" s="158"/>
+      <c r="BJ38" s="158"/>
+      <c r="BK38" s="158"/>
+      <c r="BL38" s="158"/>
+      <c r="BM38" s="158"/>
+      <c r="BN38" s="158"/>
+      <c r="BO38" s="158"/>
+      <c r="BP38" s="158"/>
+      <c r="BQ38" s="158"/>
+      <c r="BR38" s="159"/>
     </row>
-    <row r="39" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="201"/>
+    <row r="39" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A39" s="199"/>
       <c r="B39" s="85"/>
       <c r="C39" s="86"/>
       <c r="D39" s="86"/>
@@ -8527,41 +8467,41 @@
       <c r="AJ39" s="87"/>
       <c r="AK39" s="88"/>
       <c r="AL39" s="89"/>
-      <c r="AM39" s="158"/>
-      <c r="AN39" s="159"/>
-      <c r="AO39" s="159"/>
-      <c r="AP39" s="159"/>
-      <c r="AQ39" s="159"/>
-      <c r="AR39" s="159"/>
-      <c r="AS39" s="159"/>
-      <c r="AT39" s="159"/>
-      <c r="AU39" s="159"/>
-      <c r="AV39" s="159"/>
-      <c r="AW39" s="159"/>
-      <c r="AX39" s="159"/>
-      <c r="AY39" s="159"/>
-      <c r="AZ39" s="159"/>
-      <c r="BA39" s="159"/>
-      <c r="BB39" s="159"/>
-      <c r="BC39" s="159"/>
-      <c r="BD39" s="159"/>
-      <c r="BE39" s="159"/>
-      <c r="BF39" s="159"/>
-      <c r="BG39" s="159"/>
-      <c r="BH39" s="159"/>
-      <c r="BI39" s="159"/>
-      <c r="BJ39" s="159"/>
-      <c r="BK39" s="159"/>
-      <c r="BL39" s="159"/>
-      <c r="BM39" s="159"/>
-      <c r="BN39" s="159"/>
-      <c r="BO39" s="159"/>
-      <c r="BP39" s="159"/>
-      <c r="BQ39" s="159"/>
-      <c r="BR39" s="160"/>
+      <c r="AM39" s="160"/>
+      <c r="AN39" s="161"/>
+      <c r="AO39" s="161"/>
+      <c r="AP39" s="161"/>
+      <c r="AQ39" s="161"/>
+      <c r="AR39" s="161"/>
+      <c r="AS39" s="161"/>
+      <c r="AT39" s="161"/>
+      <c r="AU39" s="161"/>
+      <c r="AV39" s="161"/>
+      <c r="AW39" s="161"/>
+      <c r="AX39" s="161"/>
+      <c r="AY39" s="161"/>
+      <c r="AZ39" s="161"/>
+      <c r="BA39" s="161"/>
+      <c r="BB39" s="161"/>
+      <c r="BC39" s="161"/>
+      <c r="BD39" s="161"/>
+      <c r="BE39" s="161"/>
+      <c r="BF39" s="161"/>
+      <c r="BG39" s="161"/>
+      <c r="BH39" s="161"/>
+      <c r="BI39" s="161"/>
+      <c r="BJ39" s="161"/>
+      <c r="BK39" s="161"/>
+      <c r="BL39" s="161"/>
+      <c r="BM39" s="161"/>
+      <c r="BN39" s="161"/>
+      <c r="BO39" s="161"/>
+      <c r="BP39" s="161"/>
+      <c r="BQ39" s="161"/>
+      <c r="BR39" s="162"/>
     </row>
-    <row r="40" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="199" t="s">
+    <row r="40" spans="1:70" ht="30" customHeight="1">
+      <c r="A40" s="197" t="s">
         <v>57</v>
       </c>
       <c r="B40" s="57"/>
@@ -8601,10 +8541,10 @@
       <c r="AJ40" s="56"/>
       <c r="AK40" s="57"/>
       <c r="AL40" s="58"/>
-      <c r="AM40" s="139"/>
+      <c r="AM40" s="135"/>
       <c r="AN40" s="40"/>
       <c r="AO40" s="41"/>
-      <c r="AP40" s="133"/>
+      <c r="AP40" s="131"/>
       <c r="AQ40" s="44"/>
       <c r="AR40" s="45"/>
       <c r="AS40" s="45"/>
@@ -8626,57 +8566,57 @@
       <c r="BI40" s="45"/>
       <c r="BJ40" s="42"/>
       <c r="BK40" s="43"/>
-      <c r="BL40" s="153"/>
+      <c r="BL40" s="155"/>
       <c r="BM40" s="42"/>
       <c r="BN40" s="42"/>
-      <c r="BO40" s="161"/>
+      <c r="BO40" s="163"/>
       <c r="BP40" s="44"/>
       <c r="BQ40" s="42"/>
-      <c r="BR40" s="151"/>
+      <c r="BR40" s="153"/>
     </row>
-    <row r="41" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="200"/>
-      <c r="B41" s="112"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="109"/>
-      <c r="G41" s="109"/>
-      <c r="H41" s="110"/>
-      <c r="I41" s="108"/>
-      <c r="J41" s="109"/>
-      <c r="K41" s="109"/>
-      <c r="L41" s="109"/>
-      <c r="M41" s="109"/>
-      <c r="N41" s="109"/>
-      <c r="O41" s="110"/>
-      <c r="P41" s="108"/>
-      <c r="Q41" s="109"/>
-      <c r="R41" s="109"/>
-      <c r="S41" s="109"/>
-      <c r="T41" s="109"/>
-      <c r="U41" s="109"/>
-      <c r="V41" s="110"/>
-      <c r="W41" s="108"/>
-      <c r="X41" s="109"/>
-      <c r="Y41" s="109"/>
-      <c r="Z41" s="109"/>
-      <c r="AA41" s="109"/>
-      <c r="AB41" s="109"/>
-      <c r="AC41" s="110"/>
-      <c r="AD41" s="108"/>
-      <c r="AE41" s="109"/>
-      <c r="AF41" s="109"/>
-      <c r="AG41" s="109"/>
-      <c r="AH41" s="109"/>
-      <c r="AI41" s="109"/>
-      <c r="AJ41" s="110"/>
-      <c r="AK41" s="112"/>
-      <c r="AL41" s="113"/>
-      <c r="AM41" s="101"/>
+    <row r="41" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A41" s="198"/>
+      <c r="B41" s="110"/>
+      <c r="C41" s="107"/>
+      <c r="D41" s="107"/>
+      <c r="E41" s="107"/>
+      <c r="F41" s="107"/>
+      <c r="G41" s="107"/>
+      <c r="H41" s="108"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="107"/>
+      <c r="K41" s="107"/>
+      <c r="L41" s="107"/>
+      <c r="M41" s="107"/>
+      <c r="N41" s="107"/>
+      <c r="O41" s="108"/>
+      <c r="P41" s="106"/>
+      <c r="Q41" s="107"/>
+      <c r="R41" s="107"/>
+      <c r="S41" s="107"/>
+      <c r="T41" s="107"/>
+      <c r="U41" s="107"/>
+      <c r="V41" s="108"/>
+      <c r="W41" s="106"/>
+      <c r="X41" s="107"/>
+      <c r="Y41" s="107"/>
+      <c r="Z41" s="107"/>
+      <c r="AA41" s="107"/>
+      <c r="AB41" s="107"/>
+      <c r="AC41" s="108"/>
+      <c r="AD41" s="106"/>
+      <c r="AE41" s="107"/>
+      <c r="AF41" s="107"/>
+      <c r="AG41" s="107"/>
+      <c r="AH41" s="107"/>
+      <c r="AI41" s="107"/>
+      <c r="AJ41" s="108"/>
+      <c r="AK41" s="110"/>
+      <c r="AL41" s="111"/>
+      <c r="AM41" s="99"/>
       <c r="AN41" s="48"/>
       <c r="AO41" s="49"/>
-      <c r="AP41" s="134"/>
+      <c r="AP41" s="132"/>
       <c r="AQ41" s="52"/>
       <c r="AR41" s="50"/>
       <c r="AS41" s="50"/>
@@ -8698,88 +8638,88 @@
       <c r="BI41" s="50"/>
       <c r="BJ41" s="50"/>
       <c r="BK41" s="51"/>
-      <c r="BL41" s="154"/>
+      <c r="BL41" s="156"/>
       <c r="BM41" s="50"/>
       <c r="BN41" s="50"/>
-      <c r="BO41" s="162"/>
+      <c r="BO41" s="164"/>
       <c r="BP41" s="52"/>
       <c r="BQ41" s="50"/>
-      <c r="BR41" s="152"/>
+      <c r="BR41" s="154"/>
     </row>
-    <row r="42" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="200"/>
-      <c r="B42" s="108"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="109"/>
-      <c r="E42" s="109"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="109"/>
-      <c r="H42" s="110"/>
-      <c r="I42" s="108"/>
-      <c r="J42" s="109"/>
-      <c r="K42" s="109"/>
-      <c r="L42" s="109"/>
-      <c r="M42" s="109"/>
-      <c r="N42" s="109"/>
-      <c r="O42" s="110"/>
-      <c r="P42" s="108"/>
-      <c r="Q42" s="109"/>
-      <c r="R42" s="109"/>
-      <c r="S42" s="109"/>
-      <c r="T42" s="109"/>
-      <c r="U42" s="109"/>
-      <c r="V42" s="110"/>
-      <c r="W42" s="108"/>
-      <c r="X42" s="109"/>
-      <c r="Y42" s="109"/>
-      <c r="Z42" s="109"/>
-      <c r="AA42" s="109"/>
-      <c r="AB42" s="109"/>
-      <c r="AC42" s="110"/>
-      <c r="AD42" s="108"/>
-      <c r="AE42" s="109"/>
-      <c r="AF42" s="109"/>
-      <c r="AG42" s="109"/>
-      <c r="AH42" s="109"/>
-      <c r="AI42" s="109"/>
-      <c r="AJ42" s="110"/>
-      <c r="AK42" s="112"/>
-      <c r="AL42" s="113"/>
-      <c r="AM42" s="155"/>
-      <c r="AN42" s="156"/>
-      <c r="AO42" s="156"/>
-      <c r="AP42" s="156"/>
-      <c r="AQ42" s="156"/>
-      <c r="AR42" s="156"/>
-      <c r="AS42" s="156"/>
-      <c r="AT42" s="156"/>
-      <c r="AU42" s="156"/>
-      <c r="AV42" s="156"/>
-      <c r="AW42" s="156"/>
-      <c r="AX42" s="156"/>
-      <c r="AY42" s="156"/>
-      <c r="AZ42" s="156"/>
-      <c r="BA42" s="156"/>
-      <c r="BB42" s="156"/>
-      <c r="BC42" s="156"/>
-      <c r="BD42" s="156"/>
-      <c r="BE42" s="156"/>
-      <c r="BF42" s="156"/>
-      <c r="BG42" s="156"/>
-      <c r="BH42" s="156"/>
-      <c r="BI42" s="156"/>
-      <c r="BJ42" s="156"/>
-      <c r="BK42" s="156"/>
-      <c r="BL42" s="156"/>
-      <c r="BM42" s="156"/>
-      <c r="BN42" s="156"/>
-      <c r="BO42" s="156"/>
-      <c r="BP42" s="156"/>
-      <c r="BQ42" s="156"/>
-      <c r="BR42" s="157"/>
+    <row r="42" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A42" s="198"/>
+      <c r="B42" s="106"/>
+      <c r="C42" s="107"/>
+      <c r="D42" s="107"/>
+      <c r="E42" s="107"/>
+      <c r="F42" s="107"/>
+      <c r="G42" s="107"/>
+      <c r="H42" s="108"/>
+      <c r="I42" s="106"/>
+      <c r="J42" s="107"/>
+      <c r="K42" s="107"/>
+      <c r="L42" s="107"/>
+      <c r="M42" s="107"/>
+      <c r="N42" s="107"/>
+      <c r="O42" s="108"/>
+      <c r="P42" s="106"/>
+      <c r="Q42" s="107"/>
+      <c r="R42" s="107"/>
+      <c r="S42" s="107"/>
+      <c r="T42" s="107"/>
+      <c r="U42" s="107"/>
+      <c r="V42" s="108"/>
+      <c r="W42" s="106"/>
+      <c r="X42" s="107"/>
+      <c r="Y42" s="107"/>
+      <c r="Z42" s="107"/>
+      <c r="AA42" s="107"/>
+      <c r="AB42" s="107"/>
+      <c r="AC42" s="108"/>
+      <c r="AD42" s="106"/>
+      <c r="AE42" s="107"/>
+      <c r="AF42" s="107"/>
+      <c r="AG42" s="107"/>
+      <c r="AH42" s="107"/>
+      <c r="AI42" s="107"/>
+      <c r="AJ42" s="108"/>
+      <c r="AK42" s="110"/>
+      <c r="AL42" s="111"/>
+      <c r="AM42" s="157"/>
+      <c r="AN42" s="158"/>
+      <c r="AO42" s="158"/>
+      <c r="AP42" s="158"/>
+      <c r="AQ42" s="158"/>
+      <c r="AR42" s="158"/>
+      <c r="AS42" s="158"/>
+      <c r="AT42" s="158"/>
+      <c r="AU42" s="158"/>
+      <c r="AV42" s="158"/>
+      <c r="AW42" s="158"/>
+      <c r="AX42" s="158"/>
+      <c r="AY42" s="158"/>
+      <c r="AZ42" s="158"/>
+      <c r="BA42" s="158"/>
+      <c r="BB42" s="158"/>
+      <c r="BC42" s="158"/>
+      <c r="BD42" s="158"/>
+      <c r="BE42" s="158"/>
+      <c r="BF42" s="158"/>
+      <c r="BG42" s="158"/>
+      <c r="BH42" s="158"/>
+      <c r="BI42" s="158"/>
+      <c r="BJ42" s="158"/>
+      <c r="BK42" s="158"/>
+      <c r="BL42" s="158"/>
+      <c r="BM42" s="158"/>
+      <c r="BN42" s="158"/>
+      <c r="BO42" s="158"/>
+      <c r="BP42" s="158"/>
+      <c r="BQ42" s="158"/>
+      <c r="BR42" s="159"/>
     </row>
-    <row r="43" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="201"/>
+    <row r="43" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A43" s="199"/>
       <c r="B43" s="83"/>
       <c r="C43" s="80"/>
       <c r="D43" s="80"/>
@@ -8817,41 +8757,41 @@
       <c r="AJ43" s="81"/>
       <c r="AK43" s="83"/>
       <c r="AL43" s="84"/>
-      <c r="AM43" s="158"/>
-      <c r="AN43" s="159"/>
-      <c r="AO43" s="159"/>
-      <c r="AP43" s="159"/>
-      <c r="AQ43" s="159"/>
-      <c r="AR43" s="159"/>
-      <c r="AS43" s="159"/>
-      <c r="AT43" s="159"/>
-      <c r="AU43" s="159"/>
-      <c r="AV43" s="159"/>
-      <c r="AW43" s="159"/>
-      <c r="AX43" s="159"/>
-      <c r="AY43" s="159"/>
-      <c r="AZ43" s="159"/>
-      <c r="BA43" s="159"/>
-      <c r="BB43" s="159"/>
-      <c r="BC43" s="159"/>
-      <c r="BD43" s="159"/>
-      <c r="BE43" s="159"/>
-      <c r="BF43" s="159"/>
-      <c r="BG43" s="159"/>
-      <c r="BH43" s="159"/>
-      <c r="BI43" s="159"/>
-      <c r="BJ43" s="159"/>
-      <c r="BK43" s="159"/>
-      <c r="BL43" s="159"/>
-      <c r="BM43" s="159"/>
-      <c r="BN43" s="159"/>
-      <c r="BO43" s="159"/>
-      <c r="BP43" s="159"/>
-      <c r="BQ43" s="159"/>
-      <c r="BR43" s="160"/>
+      <c r="AM43" s="160"/>
+      <c r="AN43" s="161"/>
+      <c r="AO43" s="161"/>
+      <c r="AP43" s="161"/>
+      <c r="AQ43" s="161"/>
+      <c r="AR43" s="161"/>
+      <c r="AS43" s="161"/>
+      <c r="AT43" s="161"/>
+      <c r="AU43" s="161"/>
+      <c r="AV43" s="161"/>
+      <c r="AW43" s="161"/>
+      <c r="AX43" s="161"/>
+      <c r="AY43" s="161"/>
+      <c r="AZ43" s="161"/>
+      <c r="BA43" s="161"/>
+      <c r="BB43" s="161"/>
+      <c r="BC43" s="161"/>
+      <c r="BD43" s="161"/>
+      <c r="BE43" s="161"/>
+      <c r="BF43" s="161"/>
+      <c r="BG43" s="161"/>
+      <c r="BH43" s="161"/>
+      <c r="BI43" s="161"/>
+      <c r="BJ43" s="161"/>
+      <c r="BK43" s="161"/>
+      <c r="BL43" s="161"/>
+      <c r="BM43" s="161"/>
+      <c r="BN43" s="161"/>
+      <c r="BO43" s="161"/>
+      <c r="BP43" s="161"/>
+      <c r="BQ43" s="161"/>
+      <c r="BR43" s="162"/>
     </row>
-    <row r="44" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="195" t="s">
+    <row r="44" spans="1:70" ht="30" customHeight="1">
+      <c r="A44" s="193" t="s">
         <v>58</v>
       </c>
       <c r="B44" s="64"/>
@@ -8891,10 +8831,10 @@
       <c r="AJ44" s="66"/>
       <c r="AK44" s="64"/>
       <c r="AL44" s="68"/>
-      <c r="AM44" s="139"/>
+      <c r="AM44" s="135"/>
       <c r="AN44" s="40"/>
       <c r="AO44" s="41"/>
-      <c r="AP44" s="133"/>
+      <c r="AP44" s="131"/>
       <c r="AQ44" s="44"/>
       <c r="AR44" s="45"/>
       <c r="AS44" s="45"/>
@@ -8916,57 +8856,57 @@
       <c r="BI44" s="45"/>
       <c r="BJ44" s="42"/>
       <c r="BK44" s="43"/>
-      <c r="BL44" s="153"/>
+      <c r="BL44" s="155"/>
       <c r="BM44" s="42"/>
       <c r="BN44" s="42"/>
-      <c r="BO44" s="161"/>
+      <c r="BO44" s="163"/>
       <c r="BP44" s="44"/>
       <c r="BQ44" s="42"/>
-      <c r="BR44" s="151"/>
+      <c r="BR44" s="153"/>
     </row>
-    <row r="45" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="196"/>
-      <c r="B45" s="112"/>
-      <c r="C45" s="109"/>
-      <c r="D45" s="109"/>
-      <c r="E45" s="109"/>
-      <c r="F45" s="109"/>
-      <c r="G45" s="109"/>
-      <c r="H45" s="110"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="109"/>
-      <c r="K45" s="109"/>
-      <c r="L45" s="109"/>
-      <c r="M45" s="109"/>
-      <c r="N45" s="109"/>
-      <c r="O45" s="110"/>
-      <c r="P45" s="108"/>
-      <c r="Q45" s="109"/>
-      <c r="R45" s="109"/>
-      <c r="S45" s="109"/>
-      <c r="T45" s="109"/>
-      <c r="U45" s="109"/>
-      <c r="V45" s="110"/>
-      <c r="W45" s="108"/>
-      <c r="X45" s="109"/>
-      <c r="Y45" s="109"/>
-      <c r="Z45" s="109"/>
-      <c r="AA45" s="109"/>
-      <c r="AB45" s="109"/>
-      <c r="AC45" s="110"/>
-      <c r="AD45" s="108"/>
-      <c r="AE45" s="109"/>
-      <c r="AF45" s="109"/>
-      <c r="AG45" s="109"/>
-      <c r="AH45" s="109"/>
-      <c r="AI45" s="109"/>
-      <c r="AJ45" s="110"/>
-      <c r="AK45" s="112"/>
-      <c r="AL45" s="113"/>
-      <c r="AM45" s="101"/>
+    <row r="45" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A45" s="194"/>
+      <c r="B45" s="110"/>
+      <c r="C45" s="107"/>
+      <c r="D45" s="107"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="107"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="106"/>
+      <c r="J45" s="107"/>
+      <c r="K45" s="107"/>
+      <c r="L45" s="107"/>
+      <c r="M45" s="107"/>
+      <c r="N45" s="107"/>
+      <c r="O45" s="108"/>
+      <c r="P45" s="106"/>
+      <c r="Q45" s="107"/>
+      <c r="R45" s="107"/>
+      <c r="S45" s="107"/>
+      <c r="T45" s="107"/>
+      <c r="U45" s="107"/>
+      <c r="V45" s="108"/>
+      <c r="W45" s="106"/>
+      <c r="X45" s="107"/>
+      <c r="Y45" s="107"/>
+      <c r="Z45" s="107"/>
+      <c r="AA45" s="107"/>
+      <c r="AB45" s="107"/>
+      <c r="AC45" s="108"/>
+      <c r="AD45" s="106"/>
+      <c r="AE45" s="107"/>
+      <c r="AF45" s="107"/>
+      <c r="AG45" s="107"/>
+      <c r="AH45" s="107"/>
+      <c r="AI45" s="107"/>
+      <c r="AJ45" s="108"/>
+      <c r="AK45" s="110"/>
+      <c r="AL45" s="111"/>
+      <c r="AM45" s="99"/>
       <c r="AN45" s="48"/>
       <c r="AO45" s="49"/>
-      <c r="AP45" s="134"/>
+      <c r="AP45" s="132"/>
       <c r="AQ45" s="52"/>
       <c r="AR45" s="50"/>
       <c r="AS45" s="50"/>
@@ -8988,88 +8928,88 @@
       <c r="BI45" s="50"/>
       <c r="BJ45" s="50"/>
       <c r="BK45" s="51"/>
-      <c r="BL45" s="154"/>
+      <c r="BL45" s="156"/>
       <c r="BM45" s="50"/>
       <c r="BN45" s="50"/>
-      <c r="BO45" s="162"/>
+      <c r="BO45" s="164"/>
       <c r="BP45" s="52"/>
       <c r="BQ45" s="50"/>
-      <c r="BR45" s="152"/>
+      <c r="BR45" s="154"/>
     </row>
-    <row r="46" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="196"/>
-      <c r="B46" s="108"/>
-      <c r="C46" s="109"/>
-      <c r="D46" s="109"/>
-      <c r="E46" s="109"/>
-      <c r="F46" s="109"/>
-      <c r="G46" s="109"/>
-      <c r="H46" s="110"/>
-      <c r="I46" s="108"/>
-      <c r="J46" s="109"/>
-      <c r="K46" s="109"/>
-      <c r="L46" s="109"/>
-      <c r="M46" s="109"/>
-      <c r="N46" s="109"/>
-      <c r="O46" s="110"/>
-      <c r="P46" s="108"/>
-      <c r="Q46" s="109"/>
-      <c r="R46" s="109"/>
-      <c r="S46" s="109"/>
-      <c r="T46" s="109"/>
-      <c r="U46" s="109"/>
-      <c r="V46" s="110"/>
-      <c r="W46" s="108"/>
-      <c r="X46" s="109"/>
-      <c r="Y46" s="109"/>
-      <c r="Z46" s="109"/>
-      <c r="AA46" s="109"/>
-      <c r="AB46" s="109"/>
-      <c r="AC46" s="110"/>
-      <c r="AD46" s="108"/>
-      <c r="AE46" s="109"/>
-      <c r="AF46" s="109"/>
-      <c r="AG46" s="109"/>
-      <c r="AH46" s="109"/>
-      <c r="AI46" s="109"/>
-      <c r="AJ46" s="110"/>
-      <c r="AK46" s="112"/>
-      <c r="AL46" s="113"/>
-      <c r="AM46" s="155"/>
-      <c r="AN46" s="156"/>
-      <c r="AO46" s="156"/>
-      <c r="AP46" s="156"/>
-      <c r="AQ46" s="156"/>
-      <c r="AR46" s="156"/>
-      <c r="AS46" s="156"/>
-      <c r="AT46" s="156"/>
-      <c r="AU46" s="156"/>
-      <c r="AV46" s="156"/>
-      <c r="AW46" s="156"/>
-      <c r="AX46" s="156"/>
-      <c r="AY46" s="156"/>
-      <c r="AZ46" s="156"/>
-      <c r="BA46" s="156"/>
-      <c r="BB46" s="156"/>
-      <c r="BC46" s="156"/>
-      <c r="BD46" s="156"/>
-      <c r="BE46" s="156"/>
-      <c r="BF46" s="156"/>
-      <c r="BG46" s="156"/>
-      <c r="BH46" s="156"/>
-      <c r="BI46" s="156"/>
-      <c r="BJ46" s="156"/>
-      <c r="BK46" s="156"/>
-      <c r="BL46" s="156"/>
-      <c r="BM46" s="156"/>
-      <c r="BN46" s="156"/>
-      <c r="BO46" s="156"/>
-      <c r="BP46" s="156"/>
-      <c r="BQ46" s="156"/>
-      <c r="BR46" s="157"/>
+    <row r="46" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A46" s="194"/>
+      <c r="B46" s="106"/>
+      <c r="C46" s="107"/>
+      <c r="D46" s="107"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="106"/>
+      <c r="J46" s="107"/>
+      <c r="K46" s="107"/>
+      <c r="L46" s="107"/>
+      <c r="M46" s="107"/>
+      <c r="N46" s="107"/>
+      <c r="O46" s="108"/>
+      <c r="P46" s="106"/>
+      <c r="Q46" s="107"/>
+      <c r="R46" s="107"/>
+      <c r="S46" s="107"/>
+      <c r="T46" s="107"/>
+      <c r="U46" s="107"/>
+      <c r="V46" s="108"/>
+      <c r="W46" s="106"/>
+      <c r="X46" s="107"/>
+      <c r="Y46" s="107"/>
+      <c r="Z46" s="107"/>
+      <c r="AA46" s="107"/>
+      <c r="AB46" s="107"/>
+      <c r="AC46" s="108"/>
+      <c r="AD46" s="106"/>
+      <c r="AE46" s="107"/>
+      <c r="AF46" s="107"/>
+      <c r="AG46" s="107"/>
+      <c r="AH46" s="107"/>
+      <c r="AI46" s="107"/>
+      <c r="AJ46" s="108"/>
+      <c r="AK46" s="110"/>
+      <c r="AL46" s="111"/>
+      <c r="AM46" s="157"/>
+      <c r="AN46" s="158"/>
+      <c r="AO46" s="158"/>
+      <c r="AP46" s="158"/>
+      <c r="AQ46" s="158"/>
+      <c r="AR46" s="158"/>
+      <c r="AS46" s="158"/>
+      <c r="AT46" s="158"/>
+      <c r="AU46" s="158"/>
+      <c r="AV46" s="158"/>
+      <c r="AW46" s="158"/>
+      <c r="AX46" s="158"/>
+      <c r="AY46" s="158"/>
+      <c r="AZ46" s="158"/>
+      <c r="BA46" s="158"/>
+      <c r="BB46" s="158"/>
+      <c r="BC46" s="158"/>
+      <c r="BD46" s="158"/>
+      <c r="BE46" s="158"/>
+      <c r="BF46" s="158"/>
+      <c r="BG46" s="158"/>
+      <c r="BH46" s="158"/>
+      <c r="BI46" s="158"/>
+      <c r="BJ46" s="158"/>
+      <c r="BK46" s="158"/>
+      <c r="BL46" s="158"/>
+      <c r="BM46" s="158"/>
+      <c r="BN46" s="158"/>
+      <c r="BO46" s="158"/>
+      <c r="BP46" s="158"/>
+      <c r="BQ46" s="158"/>
+      <c r="BR46" s="159"/>
     </row>
-    <row r="47" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="197"/>
+    <row r="47" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A47" s="195"/>
       <c r="B47" s="88"/>
       <c r="C47" s="86"/>
       <c r="D47" s="86"/>
@@ -9107,41 +9047,41 @@
       <c r="AJ47" s="87"/>
       <c r="AK47" s="88"/>
       <c r="AL47" s="89"/>
-      <c r="AM47" s="158"/>
-      <c r="AN47" s="159"/>
-      <c r="AO47" s="159"/>
-      <c r="AP47" s="159"/>
-      <c r="AQ47" s="159"/>
-      <c r="AR47" s="159"/>
-      <c r="AS47" s="159"/>
-      <c r="AT47" s="159"/>
-      <c r="AU47" s="159"/>
-      <c r="AV47" s="159"/>
-      <c r="AW47" s="159"/>
-      <c r="AX47" s="159"/>
-      <c r="AY47" s="159"/>
-      <c r="AZ47" s="159"/>
-      <c r="BA47" s="159"/>
-      <c r="BB47" s="159"/>
-      <c r="BC47" s="159"/>
-      <c r="BD47" s="159"/>
-      <c r="BE47" s="159"/>
-      <c r="BF47" s="159"/>
-      <c r="BG47" s="159"/>
-      <c r="BH47" s="159"/>
-      <c r="BI47" s="159"/>
-      <c r="BJ47" s="159"/>
-      <c r="BK47" s="159"/>
-      <c r="BL47" s="159"/>
-      <c r="BM47" s="159"/>
-      <c r="BN47" s="159"/>
-      <c r="BO47" s="159"/>
-      <c r="BP47" s="159"/>
-      <c r="BQ47" s="159"/>
-      <c r="BR47" s="160"/>
+      <c r="AM47" s="160"/>
+      <c r="AN47" s="161"/>
+      <c r="AO47" s="161"/>
+      <c r="AP47" s="161"/>
+      <c r="AQ47" s="161"/>
+      <c r="AR47" s="161"/>
+      <c r="AS47" s="161"/>
+      <c r="AT47" s="161"/>
+      <c r="AU47" s="161"/>
+      <c r="AV47" s="161"/>
+      <c r="AW47" s="161"/>
+      <c r="AX47" s="161"/>
+      <c r="AY47" s="161"/>
+      <c r="AZ47" s="161"/>
+      <c r="BA47" s="161"/>
+      <c r="BB47" s="161"/>
+      <c r="BC47" s="161"/>
+      <c r="BD47" s="161"/>
+      <c r="BE47" s="161"/>
+      <c r="BF47" s="161"/>
+      <c r="BG47" s="161"/>
+      <c r="BH47" s="161"/>
+      <c r="BI47" s="161"/>
+      <c r="BJ47" s="161"/>
+      <c r="BK47" s="161"/>
+      <c r="BL47" s="161"/>
+      <c r="BM47" s="161"/>
+      <c r="BN47" s="161"/>
+      <c r="BO47" s="161"/>
+      <c r="BP47" s="161"/>
+      <c r="BQ47" s="161"/>
+      <c r="BR47" s="162"/>
     </row>
-    <row r="48" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="195" t="s">
+    <row r="48" spans="1:70" ht="30" customHeight="1">
+      <c r="A48" s="193" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="69"/>
@@ -9181,10 +9121,10 @@
       <c r="AJ48" s="71"/>
       <c r="AK48" s="69"/>
       <c r="AL48" s="73"/>
-      <c r="AM48" s="139"/>
+      <c r="AM48" s="135"/>
       <c r="AN48" s="40"/>
       <c r="AO48" s="41"/>
-      <c r="AP48" s="133"/>
+      <c r="AP48" s="131"/>
       <c r="AQ48" s="44"/>
       <c r="AR48" s="45"/>
       <c r="AS48" s="45"/>
@@ -9206,57 +9146,57 @@
       <c r="BI48" s="45"/>
       <c r="BJ48" s="42"/>
       <c r="BK48" s="43"/>
-      <c r="BL48" s="153"/>
+      <c r="BL48" s="155"/>
       <c r="BM48" s="42"/>
       <c r="BN48" s="42"/>
-      <c r="BO48" s="161"/>
+      <c r="BO48" s="163"/>
       <c r="BP48" s="44"/>
       <c r="BQ48" s="42"/>
-      <c r="BR48" s="151"/>
+      <c r="BR48" s="153"/>
     </row>
-    <row r="49" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="196"/>
-      <c r="B49" s="112"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="109"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
-      <c r="H49" s="110"/>
-      <c r="I49" s="108"/>
-      <c r="J49" s="109"/>
-      <c r="K49" s="109"/>
-      <c r="L49" s="109"/>
-      <c r="M49" s="109"/>
-      <c r="N49" s="109"/>
-      <c r="O49" s="110"/>
-      <c r="P49" s="108"/>
-      <c r="Q49" s="109"/>
-      <c r="R49" s="109"/>
-      <c r="S49" s="109"/>
-      <c r="T49" s="109"/>
-      <c r="U49" s="109"/>
-      <c r="V49" s="110"/>
-      <c r="W49" s="108"/>
-      <c r="X49" s="109"/>
-      <c r="Y49" s="109"/>
-      <c r="Z49" s="109"/>
-      <c r="AA49" s="109"/>
-      <c r="AB49" s="109"/>
-      <c r="AC49" s="110"/>
-      <c r="AD49" s="108"/>
-      <c r="AE49" s="109"/>
-      <c r="AF49" s="109"/>
-      <c r="AG49" s="109"/>
-      <c r="AH49" s="109"/>
-      <c r="AI49" s="109"/>
-      <c r="AJ49" s="110"/>
-      <c r="AK49" s="112"/>
-      <c r="AL49" s="113"/>
-      <c r="AM49" s="99"/>
+    <row r="49" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A49" s="194"/>
+      <c r="B49" s="110"/>
+      <c r="C49" s="107"/>
+      <c r="D49" s="107"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="106"/>
+      <c r="J49" s="107"/>
+      <c r="K49" s="107"/>
+      <c r="L49" s="107"/>
+      <c r="M49" s="107"/>
+      <c r="N49" s="107"/>
+      <c r="O49" s="108"/>
+      <c r="P49" s="106"/>
+      <c r="Q49" s="107"/>
+      <c r="R49" s="107"/>
+      <c r="S49" s="107"/>
+      <c r="T49" s="107"/>
+      <c r="U49" s="107"/>
+      <c r="V49" s="108"/>
+      <c r="W49" s="106"/>
+      <c r="X49" s="107"/>
+      <c r="Y49" s="107"/>
+      <c r="Z49" s="107"/>
+      <c r="AA49" s="107"/>
+      <c r="AB49" s="107"/>
+      <c r="AC49" s="108"/>
+      <c r="AD49" s="106"/>
+      <c r="AE49" s="107"/>
+      <c r="AF49" s="107"/>
+      <c r="AG49" s="107"/>
+      <c r="AH49" s="107"/>
+      <c r="AI49" s="107"/>
+      <c r="AJ49" s="108"/>
+      <c r="AK49" s="110"/>
+      <c r="AL49" s="111"/>
+      <c r="AM49" s="97"/>
       <c r="AN49" s="48"/>
       <c r="AO49" s="49"/>
-      <c r="AP49" s="134"/>
+      <c r="AP49" s="132"/>
       <c r="AQ49" s="52"/>
       <c r="AR49" s="50"/>
       <c r="AS49" s="50"/>
@@ -9278,88 +9218,88 @@
       <c r="BI49" s="50"/>
       <c r="BJ49" s="50"/>
       <c r="BK49" s="51"/>
-      <c r="BL49" s="154"/>
+      <c r="BL49" s="156"/>
       <c r="BM49" s="50"/>
       <c r="BN49" s="50"/>
-      <c r="BO49" s="162"/>
+      <c r="BO49" s="164"/>
       <c r="BP49" s="52"/>
       <c r="BQ49" s="50"/>
-      <c r="BR49" s="152"/>
+      <c r="BR49" s="154"/>
     </row>
-    <row r="50" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="196"/>
-      <c r="B50" s="108"/>
-      <c r="C50" s="109"/>
-      <c r="D50" s="109"/>
-      <c r="E50" s="109"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="110"/>
-      <c r="I50" s="108"/>
-      <c r="J50" s="109"/>
-      <c r="K50" s="109"/>
-      <c r="L50" s="109"/>
-      <c r="M50" s="109"/>
-      <c r="N50" s="109"/>
-      <c r="O50" s="110"/>
-      <c r="P50" s="108"/>
-      <c r="Q50" s="109"/>
-      <c r="R50" s="109"/>
-      <c r="S50" s="109"/>
-      <c r="T50" s="109"/>
-      <c r="U50" s="109"/>
-      <c r="V50" s="110"/>
-      <c r="W50" s="108"/>
-      <c r="X50" s="109"/>
-      <c r="Y50" s="109"/>
-      <c r="Z50" s="109"/>
-      <c r="AA50" s="109"/>
-      <c r="AB50" s="109"/>
-      <c r="AC50" s="110"/>
-      <c r="AD50" s="108"/>
-      <c r="AE50" s="109"/>
-      <c r="AF50" s="109"/>
-      <c r="AG50" s="109"/>
-      <c r="AH50" s="109"/>
-      <c r="AI50" s="109"/>
-      <c r="AJ50" s="110"/>
-      <c r="AK50" s="112"/>
-      <c r="AL50" s="113"/>
-      <c r="AM50" s="155"/>
-      <c r="AN50" s="156"/>
-      <c r="AO50" s="156"/>
-      <c r="AP50" s="156"/>
-      <c r="AQ50" s="156"/>
-      <c r="AR50" s="156"/>
-      <c r="AS50" s="156"/>
-      <c r="AT50" s="156"/>
-      <c r="AU50" s="156"/>
-      <c r="AV50" s="156"/>
-      <c r="AW50" s="156"/>
-      <c r="AX50" s="156"/>
-      <c r="AY50" s="156"/>
-      <c r="AZ50" s="156"/>
-      <c r="BA50" s="156"/>
-      <c r="BB50" s="156"/>
-      <c r="BC50" s="156"/>
-      <c r="BD50" s="156"/>
-      <c r="BE50" s="156"/>
-      <c r="BF50" s="156"/>
-      <c r="BG50" s="156"/>
-      <c r="BH50" s="156"/>
-      <c r="BI50" s="156"/>
-      <c r="BJ50" s="156"/>
-      <c r="BK50" s="156"/>
-      <c r="BL50" s="156"/>
-      <c r="BM50" s="156"/>
-      <c r="BN50" s="156"/>
-      <c r="BO50" s="156"/>
-      <c r="BP50" s="156"/>
-      <c r="BQ50" s="156"/>
-      <c r="BR50" s="157"/>
+    <row r="50" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A50" s="194"/>
+      <c r="B50" s="106"/>
+      <c r="C50" s="107"/>
+      <c r="D50" s="107"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="107"/>
+      <c r="H50" s="108"/>
+      <c r="I50" s="106"/>
+      <c r="J50" s="107"/>
+      <c r="K50" s="107"/>
+      <c r="L50" s="107"/>
+      <c r="M50" s="107"/>
+      <c r="N50" s="107"/>
+      <c r="O50" s="108"/>
+      <c r="P50" s="106"/>
+      <c r="Q50" s="107"/>
+      <c r="R50" s="107"/>
+      <c r="S50" s="107"/>
+      <c r="T50" s="107"/>
+      <c r="U50" s="107"/>
+      <c r="V50" s="108"/>
+      <c r="W50" s="106"/>
+      <c r="X50" s="107"/>
+      <c r="Y50" s="107"/>
+      <c r="Z50" s="107"/>
+      <c r="AA50" s="107"/>
+      <c r="AB50" s="107"/>
+      <c r="AC50" s="108"/>
+      <c r="AD50" s="106"/>
+      <c r="AE50" s="107"/>
+      <c r="AF50" s="107"/>
+      <c r="AG50" s="107"/>
+      <c r="AH50" s="107"/>
+      <c r="AI50" s="107"/>
+      <c r="AJ50" s="108"/>
+      <c r="AK50" s="110"/>
+      <c r="AL50" s="111"/>
+      <c r="AM50" s="157"/>
+      <c r="AN50" s="158"/>
+      <c r="AO50" s="158"/>
+      <c r="AP50" s="158"/>
+      <c r="AQ50" s="158"/>
+      <c r="AR50" s="158"/>
+      <c r="AS50" s="158"/>
+      <c r="AT50" s="158"/>
+      <c r="AU50" s="158"/>
+      <c r="AV50" s="158"/>
+      <c r="AW50" s="158"/>
+      <c r="AX50" s="158"/>
+      <c r="AY50" s="158"/>
+      <c r="AZ50" s="158"/>
+      <c r="BA50" s="158"/>
+      <c r="BB50" s="158"/>
+      <c r="BC50" s="158"/>
+      <c r="BD50" s="158"/>
+      <c r="BE50" s="158"/>
+      <c r="BF50" s="158"/>
+      <c r="BG50" s="158"/>
+      <c r="BH50" s="158"/>
+      <c r="BI50" s="158"/>
+      <c r="BJ50" s="158"/>
+      <c r="BK50" s="158"/>
+      <c r="BL50" s="158"/>
+      <c r="BM50" s="158"/>
+      <c r="BN50" s="158"/>
+      <c r="BO50" s="158"/>
+      <c r="BP50" s="158"/>
+      <c r="BQ50" s="158"/>
+      <c r="BR50" s="159"/>
     </row>
-    <row r="51" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="197"/>
+    <row r="51" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A51" s="195"/>
       <c r="B51" s="83"/>
       <c r="C51" s="80"/>
       <c r="D51" s="80"/>
@@ -9397,41 +9337,41 @@
       <c r="AJ51" s="81"/>
       <c r="AK51" s="83"/>
       <c r="AL51" s="84"/>
-      <c r="AM51" s="158"/>
-      <c r="AN51" s="159"/>
-      <c r="AO51" s="159"/>
-      <c r="AP51" s="159"/>
-      <c r="AQ51" s="159"/>
-      <c r="AR51" s="159"/>
-      <c r="AS51" s="159"/>
-      <c r="AT51" s="159"/>
-      <c r="AU51" s="159"/>
-      <c r="AV51" s="159"/>
-      <c r="AW51" s="159"/>
-      <c r="AX51" s="159"/>
-      <c r="AY51" s="159"/>
-      <c r="AZ51" s="159"/>
-      <c r="BA51" s="159"/>
-      <c r="BB51" s="159"/>
-      <c r="BC51" s="159"/>
-      <c r="BD51" s="159"/>
-      <c r="BE51" s="159"/>
-      <c r="BF51" s="159"/>
-      <c r="BG51" s="159"/>
-      <c r="BH51" s="159"/>
-      <c r="BI51" s="159"/>
-      <c r="BJ51" s="159"/>
-      <c r="BK51" s="159"/>
-      <c r="BL51" s="159"/>
-      <c r="BM51" s="159"/>
-      <c r="BN51" s="159"/>
-      <c r="BO51" s="159"/>
-      <c r="BP51" s="159"/>
-      <c r="BQ51" s="159"/>
-      <c r="BR51" s="160"/>
+      <c r="AM51" s="160"/>
+      <c r="AN51" s="161"/>
+      <c r="AO51" s="161"/>
+      <c r="AP51" s="161"/>
+      <c r="AQ51" s="161"/>
+      <c r="AR51" s="161"/>
+      <c r="AS51" s="161"/>
+      <c r="AT51" s="161"/>
+      <c r="AU51" s="161"/>
+      <c r="AV51" s="161"/>
+      <c r="AW51" s="161"/>
+      <c r="AX51" s="161"/>
+      <c r="AY51" s="161"/>
+      <c r="AZ51" s="161"/>
+      <c r="BA51" s="161"/>
+      <c r="BB51" s="161"/>
+      <c r="BC51" s="161"/>
+      <c r="BD51" s="161"/>
+      <c r="BE51" s="161"/>
+      <c r="BF51" s="161"/>
+      <c r="BG51" s="161"/>
+      <c r="BH51" s="161"/>
+      <c r="BI51" s="161"/>
+      <c r="BJ51" s="161"/>
+      <c r="BK51" s="161"/>
+      <c r="BL51" s="161"/>
+      <c r="BM51" s="161"/>
+      <c r="BN51" s="161"/>
+      <c r="BO51" s="161"/>
+      <c r="BP51" s="161"/>
+      <c r="BQ51" s="161"/>
+      <c r="BR51" s="162"/>
     </row>
-    <row r="52" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="195" t="s">
+    <row r="52" spans="1:70" ht="30" customHeight="1">
+      <c r="A52" s="193" t="s">
         <v>60</v>
       </c>
       <c r="B52" s="62"/>
@@ -9471,10 +9411,10 @@
       <c r="AJ52" s="61"/>
       <c r="AK52" s="62"/>
       <c r="AL52" s="63"/>
-      <c r="AM52" s="139"/>
+      <c r="AM52" s="135"/>
       <c r="AN52" s="40"/>
       <c r="AO52" s="41"/>
-      <c r="AP52" s="133"/>
+      <c r="AP52" s="131"/>
       <c r="AQ52" s="44"/>
       <c r="AR52" s="45"/>
       <c r="AS52" s="45"/>
@@ -9496,57 +9436,57 @@
       <c r="BI52" s="45"/>
       <c r="BJ52" s="42"/>
       <c r="BK52" s="43"/>
-      <c r="BL52" s="153"/>
+      <c r="BL52" s="155"/>
       <c r="BM52" s="42"/>
       <c r="BN52" s="42"/>
-      <c r="BO52" s="161"/>
+      <c r="BO52" s="163"/>
       <c r="BP52" s="44"/>
       <c r="BQ52" s="42"/>
-      <c r="BR52" s="151"/>
+      <c r="BR52" s="153"/>
     </row>
-    <row r="53" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="196"/>
-      <c r="B53" s="112"/>
-      <c r="C53" s="109"/>
-      <c r="D53" s="109"/>
-      <c r="E53" s="109"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="110"/>
-      <c r="I53" s="108"/>
-      <c r="J53" s="109"/>
-      <c r="K53" s="109"/>
-      <c r="L53" s="109"/>
-      <c r="M53" s="109"/>
-      <c r="N53" s="109"/>
-      <c r="O53" s="110"/>
-      <c r="P53" s="108"/>
-      <c r="Q53" s="109"/>
-      <c r="R53" s="109"/>
-      <c r="S53" s="109"/>
-      <c r="T53" s="109"/>
-      <c r="U53" s="109"/>
-      <c r="V53" s="110"/>
-      <c r="W53" s="108"/>
-      <c r="X53" s="109"/>
-      <c r="Y53" s="109"/>
-      <c r="Z53" s="109"/>
-      <c r="AA53" s="109"/>
-      <c r="AB53" s="109"/>
-      <c r="AC53" s="110"/>
-      <c r="AD53" s="108"/>
-      <c r="AE53" s="109"/>
-      <c r="AF53" s="109"/>
-      <c r="AG53" s="109"/>
-      <c r="AH53" s="109"/>
-      <c r="AI53" s="109"/>
-      <c r="AJ53" s="110"/>
-      <c r="AK53" s="112"/>
-      <c r="AL53" s="113"/>
-      <c r="AM53" s="101"/>
+    <row r="53" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A53" s="194"/>
+      <c r="B53" s="110"/>
+      <c r="C53" s="107"/>
+      <c r="D53" s="107"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="108"/>
+      <c r="I53" s="106"/>
+      <c r="J53" s="107"/>
+      <c r="K53" s="107"/>
+      <c r="L53" s="107"/>
+      <c r="M53" s="107"/>
+      <c r="N53" s="107"/>
+      <c r="O53" s="108"/>
+      <c r="P53" s="106"/>
+      <c r="Q53" s="107"/>
+      <c r="R53" s="107"/>
+      <c r="S53" s="107"/>
+      <c r="T53" s="107"/>
+      <c r="U53" s="107"/>
+      <c r="V53" s="108"/>
+      <c r="W53" s="106"/>
+      <c r="X53" s="107"/>
+      <c r="Y53" s="107"/>
+      <c r="Z53" s="107"/>
+      <c r="AA53" s="107"/>
+      <c r="AB53" s="107"/>
+      <c r="AC53" s="108"/>
+      <c r="AD53" s="106"/>
+      <c r="AE53" s="107"/>
+      <c r="AF53" s="107"/>
+      <c r="AG53" s="107"/>
+      <c r="AH53" s="107"/>
+      <c r="AI53" s="107"/>
+      <c r="AJ53" s="108"/>
+      <c r="AK53" s="110"/>
+      <c r="AL53" s="111"/>
+      <c r="AM53" s="99"/>
       <c r="AN53" s="48"/>
       <c r="AO53" s="49"/>
-      <c r="AP53" s="134"/>
+      <c r="AP53" s="132"/>
       <c r="AQ53" s="52"/>
       <c r="AR53" s="50"/>
       <c r="AS53" s="50"/>
@@ -9568,163 +9508,163 @@
       <c r="BI53" s="50"/>
       <c r="BJ53" s="50"/>
       <c r="BK53" s="51"/>
-      <c r="BL53" s="154"/>
+      <c r="BL53" s="156"/>
       <c r="BM53" s="50"/>
       <c r="BN53" s="50"/>
-      <c r="BO53" s="162"/>
+      <c r="BO53" s="164"/>
       <c r="BP53" s="52"/>
       <c r="BQ53" s="50"/>
-      <c r="BR53" s="152"/>
+      <c r="BR53" s="154"/>
     </row>
-    <row r="54" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="196"/>
-      <c r="B54" s="145"/>
-      <c r="C54" s="146"/>
-      <c r="D54" s="146"/>
-      <c r="E54" s="146"/>
-      <c r="F54" s="146"/>
-      <c r="G54" s="146"/>
-      <c r="H54" s="147"/>
-      <c r="I54" s="148"/>
-      <c r="J54" s="146"/>
-      <c r="K54" s="146"/>
-      <c r="L54" s="146"/>
-      <c r="M54" s="146"/>
-      <c r="N54" s="146"/>
-      <c r="O54" s="147"/>
-      <c r="P54" s="148"/>
-      <c r="Q54" s="146"/>
-      <c r="R54" s="146"/>
-      <c r="S54" s="146"/>
-      <c r="T54" s="146"/>
-      <c r="U54" s="146"/>
-      <c r="V54" s="147"/>
-      <c r="W54" s="148"/>
-      <c r="X54" s="146"/>
-      <c r="Y54" s="146"/>
-      <c r="Z54" s="146"/>
-      <c r="AA54" s="146"/>
-      <c r="AB54" s="146"/>
-      <c r="AC54" s="147"/>
-      <c r="AD54" s="148"/>
-      <c r="AE54" s="146"/>
-      <c r="AF54" s="146"/>
-      <c r="AG54" s="146"/>
-      <c r="AH54" s="146"/>
-      <c r="AI54" s="146"/>
-      <c r="AJ54" s="110"/>
-      <c r="AK54" s="112"/>
-      <c r="AL54" s="150"/>
-      <c r="AM54" s="155"/>
-      <c r="AN54" s="156"/>
-      <c r="AO54" s="156"/>
-      <c r="AP54" s="156"/>
-      <c r="AQ54" s="156"/>
-      <c r="AR54" s="156"/>
-      <c r="AS54" s="156"/>
-      <c r="AT54" s="156"/>
-      <c r="AU54" s="156"/>
-      <c r="AV54" s="156"/>
-      <c r="AW54" s="156"/>
-      <c r="AX54" s="156"/>
-      <c r="AY54" s="156"/>
-      <c r="AZ54" s="156"/>
-      <c r="BA54" s="156"/>
-      <c r="BB54" s="156"/>
-      <c r="BC54" s="156"/>
-      <c r="BD54" s="156"/>
-      <c r="BE54" s="156"/>
-      <c r="BF54" s="156"/>
-      <c r="BG54" s="156"/>
-      <c r="BH54" s="156"/>
-      <c r="BI54" s="156"/>
-      <c r="BJ54" s="156"/>
-      <c r="BK54" s="156"/>
-      <c r="BL54" s="156"/>
-      <c r="BM54" s="156"/>
-      <c r="BN54" s="156"/>
-      <c r="BO54" s="156"/>
-      <c r="BP54" s="156"/>
-      <c r="BQ54" s="156"/>
-      <c r="BR54" s="157"/>
+    <row r="54" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
+      <c r="A54" s="194"/>
+      <c r="B54" s="141"/>
+      <c r="C54" s="142"/>
+      <c r="D54" s="142"/>
+      <c r="E54" s="142"/>
+      <c r="F54" s="142"/>
+      <c r="G54" s="142"/>
+      <c r="H54" s="143"/>
+      <c r="I54" s="144"/>
+      <c r="J54" s="142"/>
+      <c r="K54" s="142"/>
+      <c r="L54" s="142"/>
+      <c r="M54" s="142"/>
+      <c r="N54" s="142"/>
+      <c r="O54" s="143"/>
+      <c r="P54" s="144"/>
+      <c r="Q54" s="142"/>
+      <c r="R54" s="142"/>
+      <c r="S54" s="142"/>
+      <c r="T54" s="142"/>
+      <c r="U54" s="142"/>
+      <c r="V54" s="143"/>
+      <c r="W54" s="144"/>
+      <c r="X54" s="142"/>
+      <c r="Y54" s="142"/>
+      <c r="Z54" s="142"/>
+      <c r="AA54" s="142"/>
+      <c r="AB54" s="142"/>
+      <c r="AC54" s="143"/>
+      <c r="AD54" s="144"/>
+      <c r="AE54" s="142"/>
+      <c r="AF54" s="142"/>
+      <c r="AG54" s="142"/>
+      <c r="AH54" s="142"/>
+      <c r="AI54" s="142"/>
+      <c r="AJ54" s="108"/>
+      <c r="AK54" s="110"/>
+      <c r="AL54" s="146"/>
+      <c r="AM54" s="157"/>
+      <c r="AN54" s="158"/>
+      <c r="AO54" s="158"/>
+      <c r="AP54" s="158"/>
+      <c r="AQ54" s="158"/>
+      <c r="AR54" s="158"/>
+      <c r="AS54" s="158"/>
+      <c r="AT54" s="158"/>
+      <c r="AU54" s="158"/>
+      <c r="AV54" s="158"/>
+      <c r="AW54" s="158"/>
+      <c r="AX54" s="158"/>
+      <c r="AY54" s="158"/>
+      <c r="AZ54" s="158"/>
+      <c r="BA54" s="158"/>
+      <c r="BB54" s="158"/>
+      <c r="BC54" s="158"/>
+      <c r="BD54" s="158"/>
+      <c r="BE54" s="158"/>
+      <c r="BF54" s="158"/>
+      <c r="BG54" s="158"/>
+      <c r="BH54" s="158"/>
+      <c r="BI54" s="158"/>
+      <c r="BJ54" s="158"/>
+      <c r="BK54" s="158"/>
+      <c r="BL54" s="158"/>
+      <c r="BM54" s="158"/>
+      <c r="BN54" s="158"/>
+      <c r="BO54" s="158"/>
+      <c r="BP54" s="158"/>
+      <c r="BQ54" s="158"/>
+      <c r="BR54" s="159"/>
     </row>
-    <row r="55" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="198"/>
-      <c r="B55" s="94"/>
-      <c r="C55" s="95"/>
-      <c r="D55" s="95"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="96"/>
-      <c r="I55" s="94"/>
-      <c r="J55" s="95"/>
-      <c r="K55" s="95"/>
-      <c r="L55" s="95"/>
-      <c r="M55" s="95"/>
-      <c r="N55" s="95"/>
-      <c r="O55" s="96"/>
-      <c r="P55" s="94"/>
-      <c r="Q55" s="95"/>
-      <c r="R55" s="95"/>
-      <c r="S55" s="95"/>
-      <c r="T55" s="95"/>
-      <c r="U55" s="95"/>
-      <c r="V55" s="96"/>
-      <c r="W55" s="94"/>
-      <c r="X55" s="95"/>
-      <c r="Y55" s="95"/>
-      <c r="Z55" s="95"/>
-      <c r="AA55" s="95"/>
-      <c r="AB55" s="95"/>
-      <c r="AC55" s="96"/>
-      <c r="AD55" s="94"/>
-      <c r="AE55" s="95"/>
-      <c r="AF55" s="95"/>
-      <c r="AG55" s="95"/>
-      <c r="AH55" s="95"/>
-      <c r="AI55" s="95"/>
-      <c r="AJ55" s="97"/>
-      <c r="AK55" s="149"/>
-      <c r="AL55" s="98"/>
-      <c r="AM55" s="158"/>
-      <c r="AN55" s="159"/>
-      <c r="AO55" s="159"/>
-      <c r="AP55" s="159"/>
-      <c r="AQ55" s="159"/>
-      <c r="AR55" s="159"/>
-      <c r="AS55" s="159"/>
-      <c r="AT55" s="159"/>
-      <c r="AU55" s="159"/>
-      <c r="AV55" s="159"/>
-      <c r="AW55" s="159"/>
-      <c r="AX55" s="159"/>
-      <c r="AY55" s="159"/>
-      <c r="AZ55" s="159"/>
-      <c r="BA55" s="159"/>
-      <c r="BB55" s="159"/>
-      <c r="BC55" s="159"/>
-      <c r="BD55" s="159"/>
-      <c r="BE55" s="159"/>
-      <c r="BF55" s="159"/>
-      <c r="BG55" s="159"/>
-      <c r="BH55" s="159"/>
-      <c r="BI55" s="159"/>
-      <c r="BJ55" s="159"/>
-      <c r="BK55" s="159"/>
-      <c r="BL55" s="159"/>
-      <c r="BM55" s="159"/>
-      <c r="BN55" s="159"/>
-      <c r="BO55" s="159"/>
-      <c r="BP55" s="159"/>
-      <c r="BQ55" s="159"/>
-      <c r="BR55" s="160"/>
+    <row r="55" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1">
+      <c r="A55" s="196"/>
+      <c r="B55" s="92"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="93"/>
+      <c r="G55" s="93"/>
+      <c r="H55" s="94"/>
+      <c r="I55" s="92"/>
+      <c r="J55" s="93"/>
+      <c r="K55" s="93"/>
+      <c r="L55" s="93"/>
+      <c r="M55" s="93"/>
+      <c r="N55" s="93"/>
+      <c r="O55" s="94"/>
+      <c r="P55" s="92"/>
+      <c r="Q55" s="93"/>
+      <c r="R55" s="93"/>
+      <c r="S55" s="93"/>
+      <c r="T55" s="93"/>
+      <c r="U55" s="93"/>
+      <c r="V55" s="94"/>
+      <c r="W55" s="92"/>
+      <c r="X55" s="93"/>
+      <c r="Y55" s="93"/>
+      <c r="Z55" s="93"/>
+      <c r="AA55" s="93"/>
+      <c r="AB55" s="93"/>
+      <c r="AC55" s="94"/>
+      <c r="AD55" s="92"/>
+      <c r="AE55" s="93"/>
+      <c r="AF55" s="93"/>
+      <c r="AG55" s="93"/>
+      <c r="AH55" s="93"/>
+      <c r="AI55" s="93"/>
+      <c r="AJ55" s="95"/>
+      <c r="AK55" s="145"/>
+      <c r="AL55" s="96"/>
+      <c r="AM55" s="160"/>
+      <c r="AN55" s="161"/>
+      <c r="AO55" s="161"/>
+      <c r="AP55" s="161"/>
+      <c r="AQ55" s="161"/>
+      <c r="AR55" s="161"/>
+      <c r="AS55" s="161"/>
+      <c r="AT55" s="161"/>
+      <c r="AU55" s="161"/>
+      <c r="AV55" s="161"/>
+      <c r="AW55" s="161"/>
+      <c r="AX55" s="161"/>
+      <c r="AY55" s="161"/>
+      <c r="AZ55" s="161"/>
+      <c r="BA55" s="161"/>
+      <c r="BB55" s="161"/>
+      <c r="BC55" s="161"/>
+      <c r="BD55" s="161"/>
+      <c r="BE55" s="161"/>
+      <c r="BF55" s="161"/>
+      <c r="BG55" s="161"/>
+      <c r="BH55" s="161"/>
+      <c r="BI55" s="161"/>
+      <c r="BJ55" s="161"/>
+      <c r="BK55" s="161"/>
+      <c r="BL55" s="161"/>
+      <c r="BM55" s="161"/>
+      <c r="BN55" s="161"/>
+      <c r="BO55" s="161"/>
+      <c r="BP55" s="161"/>
+      <c r="BQ55" s="161"/>
+      <c r="BR55" s="162"/>
     </row>
-    <row r="56" spans="1:70" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="224" t="s">
+    <row r="56" spans="1:70" ht="24.75" customHeight="1" thickBot="1">
+      <c r="A56" s="223" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="225"/>
+      <c r="B56" s="224"/>
       <c r="C56" s="3" t="s">
         <v>62</v>
       </c>
@@ -9759,12 +9699,12 @@
       <c r="AF56" s="10"/>
       <c r="AG56" s="10"/>
       <c r="AH56" s="10"/>
-      <c r="AI56" s="93"/>
-      <c r="AJ56" s="226" t="s">
+      <c r="AI56" s="91"/>
+      <c r="AJ56" s="225" t="s">
         <v>63</v>
       </c>
-      <c r="AK56" s="227"/>
-      <c r="AL56" s="228"/>
+      <c r="AK56" s="226"/>
+      <c r="AL56" s="227"/>
       <c r="AM56" s="32"/>
       <c r="AN56" s="33"/>
       <c r="AO56" s="34"/>
@@ -9798,7 +9738,7 @@
       <c r="BQ56" s="35"/>
       <c r="BR56" s="38"/>
     </row>
-    <row r="57" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:70" ht="24.75" customHeight="1">
       <c r="A57" s="9"/>
       <c r="B57" s="3"/>
       <c r="C57" s="10"/>
@@ -9868,9 +9808,9 @@
       <c r="BO57" s="13"/>
       <c r="BP57" s="13"/>
       <c r="BQ57" s="13"/>
-      <c r="BR57" s="264"/>
+      <c r="BR57" s="149"/>
     </row>
-    <row r="58" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:70" ht="24.75" customHeight="1">
       <c r="A58" s="14"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -9888,427 +9828,427 @@
       <c r="O58" s="2"/>
       <c r="V58" s="10"/>
       <c r="W58" s="10"/>
-      <c r="BR58" s="262"/>
+      <c r="BR58" s="148"/>
     </row>
-    <row r="59" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="221" t="s">
+    <row r="59" spans="1:70" ht="27.75" customHeight="1">
+      <c r="A59" s="220" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="221"/>
-      <c r="C59" s="221"/>
-      <c r="D59" s="213" t="s">
+      <c r="B59" s="220"/>
+      <c r="C59" s="220"/>
+      <c r="D59" s="212" t="s">
         <v>65</v>
       </c>
-      <c r="E59" s="214"/>
-      <c r="F59" s="214"/>
+      <c r="E59" s="213"/>
+      <c r="F59" s="213"/>
       <c r="G59" s="15"/>
-      <c r="H59" s="213" t="s">
+      <c r="H59" s="212" t="s">
         <v>66</v>
       </c>
-      <c r="I59" s="214"/>
-      <c r="J59" s="214"/>
+      <c r="I59" s="213"/>
+      <c r="J59" s="213"/>
       <c r="K59" s="15"/>
-      <c r="L59" s="213" t="s">
+      <c r="L59" s="212" t="s">
         <v>67</v>
       </c>
-      <c r="M59" s="214"/>
-      <c r="N59" s="214"/>
+      <c r="M59" s="213"/>
+      <c r="N59" s="213"/>
       <c r="O59" s="15"/>
-      <c r="P59" s="213" t="s">
+      <c r="P59" s="212" t="s">
         <v>68</v>
       </c>
-      <c r="Q59" s="214"/>
-      <c r="R59" s="214"/>
+      <c r="Q59" s="213"/>
+      <c r="R59" s="213"/>
       <c r="S59" s="15"/>
-      <c r="T59" s="213" t="s">
+      <c r="T59" s="212" t="s">
         <v>69</v>
       </c>
-      <c r="U59" s="214"/>
-      <c r="V59" s="214"/>
+      <c r="U59" s="213"/>
+      <c r="V59" s="213"/>
       <c r="W59" s="15"/>
-      <c r="X59" s="213" t="s">
+      <c r="X59" s="212" t="s">
         <v>70</v>
       </c>
-      <c r="Y59" s="214"/>
-      <c r="Z59" s="214"/>
+      <c r="Y59" s="213"/>
+      <c r="Z59" s="213"/>
       <c r="AA59" s="15"/>
-      <c r="AM59" s="219" t="s">
+      <c r="AM59" s="218" t="s">
         <v>71</v>
       </c>
-      <c r="AN59" s="219"/>
-      <c r="AO59" s="219"/>
-      <c r="AP59" s="222"/>
-      <c r="AQ59" s="222"/>
-      <c r="AR59" s="222"/>
-      <c r="AS59" s="222"/>
-      <c r="AT59" s="222"/>
-      <c r="AU59" s="222"/>
-      <c r="AV59" s="222"/>
-      <c r="AW59" s="223"/>
+      <c r="AN59" s="218"/>
+      <c r="AO59" s="218"/>
+      <c r="AP59" s="221"/>
+      <c r="AQ59" s="221"/>
+      <c r="AR59" s="221"/>
+      <c r="AS59" s="221"/>
+      <c r="AT59" s="221"/>
+      <c r="AU59" s="221"/>
+      <c r="AV59" s="221"/>
+      <c r="AW59" s="222"/>
       <c r="AX59" s="11"/>
       <c r="AY59" s="11"/>
       <c r="AZ59" s="11"/>
-      <c r="BC59" s="207" t="s">
+      <c r="BC59" s="205" t="s">
         <v>72</v>
       </c>
-      <c r="BD59" s="207"/>
-      <c r="BE59" s="207"/>
-      <c r="BF59" s="207"/>
-      <c r="BG59" s="207"/>
-      <c r="BH59" s="207"/>
-      <c r="BI59" s="207"/>
-      <c r="BJ59" s="207"/>
-      <c r="BK59" s="208"/>
-      <c r="BL59" s="209"/>
-      <c r="BM59" s="209"/>
-      <c r="BN59" s="209"/>
-      <c r="BO59" s="209"/>
-      <c r="BP59" s="209"/>
-      <c r="BQ59" s="209"/>
-      <c r="BR59" s="263"/>
+      <c r="BD59" s="205"/>
+      <c r="BE59" s="205"/>
+      <c r="BF59" s="205"/>
+      <c r="BG59" s="205"/>
+      <c r="BH59" s="205"/>
+      <c r="BI59" s="205"/>
+      <c r="BJ59" s="205"/>
+      <c r="BK59" s="206"/>
+      <c r="BL59" s="207"/>
+      <c r="BM59" s="207"/>
+      <c r="BN59" s="207"/>
+      <c r="BO59" s="207"/>
+      <c r="BP59" s="207"/>
+      <c r="BQ59" s="207"/>
+      <c r="BR59" s="208"/>
     </row>
-    <row r="60" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="221" t="s">
+    <row r="60" spans="1:70" ht="27.75" customHeight="1">
+      <c r="A60" s="220" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="221"/>
-      <c r="C60" s="221"/>
-      <c r="D60" s="213" t="s">
+      <c r="B60" s="220"/>
+      <c r="C60" s="220"/>
+      <c r="D60" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="E60" s="214"/>
-      <c r="F60" s="214"/>
+      <c r="E60" s="213"/>
+      <c r="F60" s="213"/>
       <c r="G60" s="15"/>
-      <c r="H60" s="213" t="s">
+      <c r="H60" s="212" t="s">
         <v>75</v>
       </c>
-      <c r="I60" s="214"/>
-      <c r="J60" s="214"/>
+      <c r="I60" s="213"/>
+      <c r="J60" s="213"/>
       <c r="K60" s="15"/>
-      <c r="L60" s="213" t="s">
+      <c r="L60" s="212" t="s">
         <v>76</v>
       </c>
-      <c r="M60" s="214"/>
-      <c r="N60" s="214"/>
+      <c r="M60" s="213"/>
+      <c r="N60" s="213"/>
       <c r="O60" s="15"/>
-      <c r="P60" s="213"/>
-      <c r="Q60" s="214"/>
-      <c r="R60" s="214"/>
+      <c r="P60" s="212"/>
+      <c r="Q60" s="213"/>
+      <c r="R60" s="213"/>
       <c r="S60" s="15"/>
-      <c r="T60" s="213"/>
-      <c r="U60" s="214"/>
-      <c r="V60" s="214"/>
+      <c r="T60" s="212"/>
+      <c r="U60" s="213"/>
+      <c r="V60" s="213"/>
       <c r="W60" s="15"/>
-      <c r="X60" s="213"/>
-      <c r="Y60" s="214"/>
-      <c r="Z60" s="214"/>
+      <c r="X60" s="212"/>
+      <c r="Y60" s="213"/>
+      <c r="Z60" s="213"/>
       <c r="AA60" s="15"/>
       <c r="AB60" s="1"/>
-      <c r="AM60" s="219" t="s">
+      <c r="AM60" s="218" t="s">
         <v>77</v>
       </c>
-      <c r="AN60" s="219"/>
-      <c r="AO60" s="219"/>
-      <c r="AP60" s="220"/>
-      <c r="AQ60" s="220"/>
-      <c r="AR60" s="220"/>
-      <c r="AS60" s="220"/>
-      <c r="AT60" s="220"/>
-      <c r="AU60" s="220"/>
-      <c r="AV60" s="220"/>
-      <c r="AW60" s="220"/>
+      <c r="AN60" s="218"/>
+      <c r="AO60" s="218"/>
+      <c r="AP60" s="219"/>
+      <c r="AQ60" s="219"/>
+      <c r="AR60" s="219"/>
+      <c r="AS60" s="219"/>
+      <c r="AT60" s="219"/>
+      <c r="AU60" s="219"/>
+      <c r="AV60" s="219"/>
+      <c r="AW60" s="219"/>
       <c r="AX60" s="11"/>
       <c r="AY60" s="11"/>
       <c r="AZ60" s="11"/>
-      <c r="BC60" s="207" t="s">
+      <c r="BC60" s="205" t="s">
         <v>78</v>
       </c>
-      <c r="BD60" s="207"/>
-      <c r="BE60" s="207"/>
-      <c r="BF60" s="207"/>
-      <c r="BG60" s="207"/>
-      <c r="BH60" s="207"/>
-      <c r="BI60" s="207"/>
-      <c r="BJ60" s="207"/>
-      <c r="BK60" s="208"/>
-      <c r="BL60" s="209"/>
-      <c r="BM60" s="209"/>
-      <c r="BN60" s="209"/>
-      <c r="BO60" s="209"/>
-      <c r="BP60" s="209"/>
-      <c r="BQ60" s="209"/>
-      <c r="BR60" s="263"/>
+      <c r="BD60" s="205"/>
+      <c r="BE60" s="205"/>
+      <c r="BF60" s="205"/>
+      <c r="BG60" s="205"/>
+      <c r="BH60" s="205"/>
+      <c r="BI60" s="205"/>
+      <c r="BJ60" s="205"/>
+      <c r="BK60" s="206"/>
+      <c r="BL60" s="207"/>
+      <c r="BM60" s="207"/>
+      <c r="BN60" s="207"/>
+      <c r="BO60" s="207"/>
+      <c r="BP60" s="207"/>
+      <c r="BQ60" s="207"/>
+      <c r="BR60" s="208"/>
     </row>
-    <row r="61" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="221" t="s">
+    <row r="61" spans="1:70" ht="27.75" customHeight="1">
+      <c r="A61" s="220" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="221"/>
-      <c r="C61" s="221"/>
-      <c r="D61" s="213" t="s">
+      <c r="B61" s="220"/>
+      <c r="C61" s="220"/>
+      <c r="D61" s="212" t="s">
         <v>80</v>
       </c>
-      <c r="E61" s="214"/>
-      <c r="F61" s="214"/>
+      <c r="E61" s="213"/>
+      <c r="F61" s="213"/>
       <c r="G61" s="15"/>
-      <c r="H61" s="213" t="s">
+      <c r="H61" s="212" t="s">
         <v>81</v>
       </c>
-      <c r="I61" s="214"/>
-      <c r="J61" s="214"/>
+      <c r="I61" s="213"/>
+      <c r="J61" s="213"/>
       <c r="K61" s="15"/>
-      <c r="L61" s="213" t="s">
+      <c r="L61" s="212" t="s">
         <v>82</v>
       </c>
-      <c r="M61" s="214"/>
-      <c r="N61" s="214"/>
+      <c r="M61" s="213"/>
+      <c r="N61" s="213"/>
       <c r="O61" s="15"/>
-      <c r="P61" s="213" t="s">
+      <c r="P61" s="212" t="s">
         <v>83</v>
       </c>
-      <c r="Q61" s="214"/>
-      <c r="R61" s="214"/>
+      <c r="Q61" s="213"/>
+      <c r="R61" s="213"/>
       <c r="S61" s="15"/>
-      <c r="T61" s="213" t="s">
+      <c r="T61" s="212" t="s">
         <v>84</v>
       </c>
-      <c r="U61" s="214"/>
-      <c r="V61" s="214"/>
+      <c r="U61" s="213"/>
+      <c r="V61" s="213"/>
       <c r="W61" s="15"/>
-      <c r="X61" s="213" t="s">
+      <c r="X61" s="212" t="s">
         <v>85</v>
       </c>
-      <c r="Y61" s="214"/>
-      <c r="Z61" s="214"/>
+      <c r="Y61" s="213"/>
+      <c r="Z61" s="213"/>
       <c r="AA61" s="15"/>
       <c r="AJ61" s="4"/>
-      <c r="AM61" s="219" t="s">
+      <c r="AM61" s="218" t="s">
         <v>86</v>
       </c>
-      <c r="AN61" s="219"/>
-      <c r="AO61" s="219"/>
-      <c r="AP61" s="220"/>
-      <c r="AQ61" s="220"/>
-      <c r="AR61" s="220"/>
-      <c r="AS61" s="220"/>
-      <c r="AT61" s="220"/>
-      <c r="AU61" s="220"/>
-      <c r="AV61" s="220"/>
-      <c r="AW61" s="220"/>
+      <c r="AN61" s="218"/>
+      <c r="AO61" s="218"/>
+      <c r="AP61" s="219"/>
+      <c r="AQ61" s="219"/>
+      <c r="AR61" s="219"/>
+      <c r="AS61" s="219"/>
+      <c r="AT61" s="219"/>
+      <c r="AU61" s="219"/>
+      <c r="AV61" s="219"/>
+      <c r="AW61" s="219"/>
       <c r="AX61" s="11"/>
       <c r="AY61" s="11"/>
       <c r="AZ61" s="11"/>
-      <c r="BC61" s="207" t="s">
+      <c r="BC61" s="205" t="s">
         <v>87</v>
       </c>
-      <c r="BD61" s="207"/>
-      <c r="BE61" s="207"/>
-      <c r="BF61" s="207"/>
-      <c r="BG61" s="207"/>
-      <c r="BH61" s="207"/>
-      <c r="BI61" s="207"/>
-      <c r="BJ61" s="207"/>
-      <c r="BK61" s="208"/>
-      <c r="BL61" s="209"/>
-      <c r="BM61" s="209"/>
-      <c r="BN61" s="209"/>
-      <c r="BO61" s="209"/>
-      <c r="BP61" s="209"/>
-      <c r="BQ61" s="209"/>
-      <c r="BR61" s="263"/>
+      <c r="BD61" s="205"/>
+      <c r="BE61" s="205"/>
+      <c r="BF61" s="205"/>
+      <c r="BG61" s="205"/>
+      <c r="BH61" s="205"/>
+      <c r="BI61" s="205"/>
+      <c r="BJ61" s="205"/>
+      <c r="BK61" s="206"/>
+      <c r="BL61" s="207"/>
+      <c r="BM61" s="207"/>
+      <c r="BN61" s="207"/>
+      <c r="BO61" s="207"/>
+      <c r="BP61" s="207"/>
+      <c r="BQ61" s="207"/>
+      <c r="BR61" s="208"/>
     </row>
-    <row r="62" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="221"/>
-      <c r="B62" s="221"/>
-      <c r="C62" s="221"/>
-      <c r="D62" s="213" t="s">
+    <row r="62" spans="1:70" ht="27.75" customHeight="1">
+      <c r="A62" s="220"/>
+      <c r="B62" s="220"/>
+      <c r="C62" s="220"/>
+      <c r="D62" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="E62" s="214"/>
-      <c r="F62" s="214"/>
+      <c r="E62" s="213"/>
+      <c r="F62" s="213"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="213" t="s">
+      <c r="H62" s="212" t="s">
         <v>89</v>
       </c>
-      <c r="I62" s="214"/>
-      <c r="J62" s="214"/>
+      <c r="I62" s="213"/>
+      <c r="J62" s="213"/>
       <c r="K62" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="L62" s="213" t="s">
+      <c r="L62" s="212" t="s">
         <v>91</v>
       </c>
-      <c r="M62" s="214"/>
-      <c r="N62" s="214"/>
+      <c r="M62" s="213"/>
+      <c r="N62" s="213"/>
       <c r="O62" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="P62" s="213"/>
-      <c r="Q62" s="214"/>
-      <c r="R62" s="214"/>
+      <c r="P62" s="212"/>
+      <c r="Q62" s="213"/>
+      <c r="R62" s="213"/>
       <c r="S62" s="15"/>
-      <c r="T62" s="213"/>
-      <c r="U62" s="214"/>
-      <c r="V62" s="214"/>
+      <c r="T62" s="212"/>
+      <c r="U62" s="213"/>
+      <c r="V62" s="213"/>
       <c r="W62" s="15"/>
-      <c r="X62" s="213"/>
-      <c r="Y62" s="214"/>
-      <c r="Z62" s="214"/>
+      <c r="X62" s="212"/>
+      <c r="Y62" s="213"/>
+      <c r="Z62" s="213"/>
       <c r="AA62" s="15"/>
       <c r="AB62" s="1"/>
-      <c r="AM62" s="219" t="s">
+      <c r="AM62" s="218" t="s">
         <v>93</v>
       </c>
-      <c r="AN62" s="219"/>
-      <c r="AO62" s="219"/>
-      <c r="AP62" s="220"/>
-      <c r="AQ62" s="220"/>
-      <c r="AR62" s="220"/>
-      <c r="AS62" s="220"/>
-      <c r="AT62" s="220"/>
-      <c r="AU62" s="220"/>
-      <c r="AV62" s="220"/>
-      <c r="AW62" s="220"/>
+      <c r="AN62" s="218"/>
+      <c r="AO62" s="218"/>
+      <c r="AP62" s="219"/>
+      <c r="AQ62" s="219"/>
+      <c r="AR62" s="219"/>
+      <c r="AS62" s="219"/>
+      <c r="AT62" s="219"/>
+      <c r="AU62" s="219"/>
+      <c r="AV62" s="219"/>
+      <c r="AW62" s="219"/>
       <c r="AX62" s="11"/>
       <c r="AY62" s="11"/>
       <c r="AZ62" s="11"/>
-      <c r="BC62" s="207" t="s">
+      <c r="BC62" s="205" t="s">
         <v>94</v>
       </c>
-      <c r="BD62" s="207"/>
-      <c r="BE62" s="207"/>
-      <c r="BF62" s="207"/>
-      <c r="BG62" s="207"/>
-      <c r="BH62" s="207"/>
-      <c r="BI62" s="207"/>
-      <c r="BJ62" s="207"/>
-      <c r="BK62" s="208"/>
-      <c r="BL62" s="209"/>
-      <c r="BM62" s="209"/>
-      <c r="BN62" s="209"/>
-      <c r="BO62" s="209"/>
-      <c r="BP62" s="209"/>
-      <c r="BQ62" s="209"/>
-      <c r="BR62" s="263"/>
+      <c r="BD62" s="205"/>
+      <c r="BE62" s="205"/>
+      <c r="BF62" s="205"/>
+      <c r="BG62" s="205"/>
+      <c r="BH62" s="205"/>
+      <c r="BI62" s="205"/>
+      <c r="BJ62" s="205"/>
+      <c r="BK62" s="206"/>
+      <c r="BL62" s="207"/>
+      <c r="BM62" s="207"/>
+      <c r="BN62" s="207"/>
+      <c r="BO62" s="207"/>
+      <c r="BP62" s="207"/>
+      <c r="BQ62" s="207"/>
+      <c r="BR62" s="208"/>
     </row>
-    <row r="63" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="210" t="s">
+    <row r="63" spans="1:70" ht="27.75" customHeight="1">
+      <c r="A63" s="209" t="s">
         <v>95</v>
       </c>
-      <c r="B63" s="211"/>
-      <c r="C63" s="212"/>
-      <c r="D63" s="213" t="s">
+      <c r="B63" s="210"/>
+      <c r="C63" s="211"/>
+      <c r="D63" s="212" t="s">
         <v>96</v>
       </c>
-      <c r="E63" s="214"/>
-      <c r="F63" s="214"/>
+      <c r="E63" s="213"/>
+      <c r="F63" s="213"/>
       <c r="G63" s="15"/>
-      <c r="H63" s="213" t="s">
+      <c r="H63" s="212" t="s">
         <v>97</v>
       </c>
-      <c r="I63" s="214"/>
-      <c r="J63" s="214"/>
+      <c r="I63" s="213"/>
+      <c r="J63" s="213"/>
       <c r="K63" s="15"/>
-      <c r="L63" s="213" t="s">
+      <c r="L63" s="212" t="s">
         <v>98</v>
       </c>
-      <c r="M63" s="214"/>
-      <c r="N63" s="214"/>
+      <c r="M63" s="213"/>
+      <c r="N63" s="213"/>
       <c r="O63" s="15"/>
-      <c r="P63" s="213"/>
-      <c r="Q63" s="214"/>
-      <c r="R63" s="214"/>
+      <c r="P63" s="212"/>
+      <c r="Q63" s="213"/>
+      <c r="R63" s="213"/>
       <c r="S63" s="15"/>
-      <c r="T63" s="213"/>
-      <c r="U63" s="214"/>
-      <c r="V63" s="214"/>
+      <c r="T63" s="212"/>
+      <c r="U63" s="213"/>
+      <c r="V63" s="213"/>
       <c r="W63" s="15"/>
-      <c r="X63" s="213"/>
-      <c r="Y63" s="214"/>
-      <c r="Z63" s="214"/>
+      <c r="X63" s="212"/>
+      <c r="Y63" s="213"/>
+      <c r="Z63" s="213"/>
       <c r="AA63" s="15"/>
       <c r="AB63" s="1"/>
-      <c r="AM63" s="219"/>
-      <c r="AN63" s="219"/>
-      <c r="AO63" s="219"/>
-      <c r="AP63" s="220"/>
-      <c r="AQ63" s="220"/>
-      <c r="AR63" s="220"/>
-      <c r="AS63" s="220"/>
-      <c r="AT63" s="220"/>
-      <c r="AU63" s="220"/>
-      <c r="AV63" s="220"/>
-      <c r="AW63" s="220"/>
+      <c r="AM63" s="218"/>
+      <c r="AN63" s="218"/>
+      <c r="AO63" s="218"/>
+      <c r="AP63" s="219"/>
+      <c r="AQ63" s="219"/>
+      <c r="AR63" s="219"/>
+      <c r="AS63" s="219"/>
+      <c r="AT63" s="219"/>
+      <c r="AU63" s="219"/>
+      <c r="AV63" s="219"/>
+      <c r="AW63" s="219"/>
       <c r="AX63" s="11"/>
       <c r="AY63" s="11"/>
       <c r="AZ63" s="11"/>
-      <c r="BC63" s="207" t="s">
+      <c r="BC63" s="205" t="s">
         <v>99</v>
       </c>
-      <c r="BD63" s="207"/>
-      <c r="BE63" s="207"/>
-      <c r="BF63" s="207"/>
-      <c r="BG63" s="207"/>
-      <c r="BH63" s="207"/>
-      <c r="BI63" s="207"/>
-      <c r="BJ63" s="207"/>
-      <c r="BK63" s="208"/>
-      <c r="BL63" s="209"/>
-      <c r="BM63" s="209"/>
-      <c r="BN63" s="209"/>
-      <c r="BO63" s="209"/>
-      <c r="BP63" s="209"/>
-      <c r="BQ63" s="209"/>
-      <c r="BR63" s="263"/>
+      <c r="BD63" s="205"/>
+      <c r="BE63" s="205"/>
+      <c r="BF63" s="205"/>
+      <c r="BG63" s="205"/>
+      <c r="BH63" s="205"/>
+      <c r="BI63" s="205"/>
+      <c r="BJ63" s="205"/>
+      <c r="BK63" s="206"/>
+      <c r="BL63" s="207"/>
+      <c r="BM63" s="207"/>
+      <c r="BN63" s="207"/>
+      <c r="BO63" s="207"/>
+      <c r="BP63" s="207"/>
+      <c r="BQ63" s="207"/>
+      <c r="BR63" s="208"/>
     </row>
-    <row r="64" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="210" t="s">
+    <row r="64" spans="1:70" ht="27.75" customHeight="1">
+      <c r="A64" s="209" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="211"/>
-      <c r="C64" s="212"/>
-      <c r="D64" s="213" t="s">
+      <c r="B64" s="210"/>
+      <c r="C64" s="211"/>
+      <c r="D64" s="212" t="s">
         <v>101</v>
       </c>
-      <c r="E64" s="214"/>
-      <c r="F64" s="214"/>
+      <c r="E64" s="213"/>
+      <c r="F64" s="213"/>
       <c r="G64" s="15"/>
-      <c r="H64" s="213" t="s">
+      <c r="H64" s="212" t="s">
         <v>102</v>
       </c>
-      <c r="I64" s="214"/>
-      <c r="J64" s="214"/>
+      <c r="I64" s="213"/>
+      <c r="J64" s="213"/>
       <c r="K64" s="15"/>
-      <c r="L64" s="213" t="s">
+      <c r="L64" s="212" t="s">
         <v>103</v>
       </c>
-      <c r="M64" s="214"/>
-      <c r="N64" s="214"/>
+      <c r="M64" s="213"/>
+      <c r="N64" s="213"/>
       <c r="O64" s="15"/>
-      <c r="P64" s="213" t="s">
+      <c r="P64" s="212" t="s">
         <v>104</v>
       </c>
-      <c r="Q64" s="214"/>
-      <c r="R64" s="214"/>
+      <c r="Q64" s="213"/>
+      <c r="R64" s="213"/>
       <c r="S64" s="15"/>
-      <c r="T64" s="213" t="s">
+      <c r="T64" s="212" t="s">
         <v>105</v>
       </c>
-      <c r="U64" s="214"/>
-      <c r="V64" s="214"/>
+      <c r="U64" s="213"/>
+      <c r="V64" s="213"/>
       <c r="W64" s="15"/>
-      <c r="X64" s="213" t="s">
+      <c r="X64" s="212" t="s">
         <v>106</v>
       </c>
-      <c r="Y64" s="214"/>
-      <c r="Z64" s="214"/>
+      <c r="Y64" s="213"/>
+      <c r="Z64" s="213"/>
       <c r="AA64" s="15"/>
-      <c r="AI64" s="215"/>
-      <c r="AJ64" s="215"/>
+      <c r="AI64" s="214"/>
+      <c r="AJ64" s="214"/>
       <c r="AK64" s="4"/>
-      <c r="BR64" s="261"/>
+      <c r="BR64" s="147"/>
     </row>
-    <row r="65" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:70" ht="27.75" customHeight="1">
       <c r="A65" s="18"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -10378,9 +10318,9 @@
       <c r="BO65" s="22"/>
       <c r="BP65" s="22"/>
       <c r="BQ65" s="22"/>
-      <c r="BR65" s="262"/>
+      <c r="BR65" s="148"/>
     </row>
-    <row r="66" spans="1:70" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:70" ht="19.5" customHeight="1">
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
@@ -10409,366 +10349,366 @@
       <c r="AI66" s="25"/>
       <c r="AJ66" s="25"/>
     </row>
-    <row r="67" spans="1:70" ht="18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:70" ht="18">
       <c r="A67" s="26" t="s">
         <v>107</v>
       </c>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
     </row>
-    <row r="68" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
       <c r="A68" s="28">
         <v>1</v>
       </c>
-      <c r="B68" s="202" t="s">
+      <c r="B68" s="200" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="202"/>
-      <c r="D68" s="202"/>
-      <c r="E68" s="203" t="s">
+      <c r="C68" s="200"/>
+      <c r="D68" s="200"/>
+      <c r="E68" s="201" t="s">
         <v>109</v>
       </c>
-      <c r="F68" s="203"/>
-      <c r="G68" s="203"/>
-      <c r="H68" s="203"/>
-      <c r="I68" s="203"/>
-      <c r="J68" s="203"/>
-      <c r="K68" s="203"/>
+      <c r="F68" s="201"/>
+      <c r="G68" s="201"/>
+      <c r="H68" s="201"/>
+      <c r="I68" s="201"/>
+      <c r="J68" s="201"/>
+      <c r="K68" s="201"/>
       <c r="N68" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="O68" s="204" t="s">
+      <c r="O68" s="202" t="s">
         <v>111</v>
       </c>
-      <c r="P68" s="205"/>
-      <c r="Q68" s="206"/>
-      <c r="R68" s="203" t="s">
+      <c r="P68" s="203"/>
+      <c r="Q68" s="204"/>
+      <c r="R68" s="201" t="s">
         <v>112</v>
       </c>
-      <c r="S68" s="203"/>
-      <c r="T68" s="203"/>
-      <c r="U68" s="203"/>
-      <c r="V68" s="203"/>
-      <c r="W68" s="203"/>
-      <c r="X68" s="203"/>
+      <c r="S68" s="201"/>
+      <c r="T68" s="201"/>
+      <c r="U68" s="201"/>
+      <c r="V68" s="201"/>
+      <c r="W68" s="201"/>
+      <c r="X68" s="201"/>
       <c r="AA68" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="AB68" s="216" t="s">
+      <c r="AB68" s="215" t="s">
         <v>114</v>
       </c>
-      <c r="AC68" s="217"/>
-      <c r="AD68" s="217"/>
-      <c r="AE68" s="217"/>
-      <c r="AF68" s="217"/>
-      <c r="AG68" s="217"/>
-      <c r="AH68" s="217"/>
-      <c r="AI68" s="217"/>
-      <c r="AJ68" s="217"/>
-      <c r="AK68" s="217"/>
-      <c r="AL68" s="217"/>
-      <c r="AM68" s="218"/>
+      <c r="AC68" s="216"/>
+      <c r="AD68" s="216"/>
+      <c r="AE68" s="216"/>
+      <c r="AF68" s="216"/>
+      <c r="AG68" s="216"/>
+      <c r="AH68" s="216"/>
+      <c r="AI68" s="216"/>
+      <c r="AJ68" s="216"/>
+      <c r="AK68" s="216"/>
+      <c r="AL68" s="216"/>
+      <c r="AM68" s="217"/>
     </row>
-    <row r="69" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
       <c r="A69" s="28">
         <v>2</v>
       </c>
-      <c r="B69" s="202" t="s">
+      <c r="B69" s="200" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="202"/>
-      <c r="D69" s="202"/>
-      <c r="E69" s="203" t="s">
+      <c r="C69" s="200"/>
+      <c r="D69" s="200"/>
+      <c r="E69" s="201" t="s">
         <v>116</v>
       </c>
-      <c r="F69" s="203"/>
-      <c r="G69" s="203"/>
-      <c r="H69" s="203"/>
-      <c r="I69" s="203"/>
-      <c r="J69" s="203"/>
-      <c r="K69" s="203"/>
+      <c r="F69" s="201"/>
+      <c r="G69" s="201"/>
+      <c r="H69" s="201"/>
+      <c r="I69" s="201"/>
+      <c r="J69" s="201"/>
+      <c r="K69" s="201"/>
       <c r="N69" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="O69" s="204" t="s">
+      <c r="O69" s="202" t="s">
         <v>118</v>
       </c>
-      <c r="P69" s="205"/>
-      <c r="Q69" s="206"/>
-      <c r="R69" s="203" t="s">
+      <c r="P69" s="203"/>
+      <c r="Q69" s="204"/>
+      <c r="R69" s="201" t="s">
         <v>119</v>
       </c>
-      <c r="S69" s="203"/>
-      <c r="T69" s="203"/>
-      <c r="U69" s="203"/>
-      <c r="V69" s="203"/>
-      <c r="W69" s="203"/>
-      <c r="X69" s="203"/>
+      <c r="S69" s="201"/>
+      <c r="T69" s="201"/>
+      <c r="U69" s="201"/>
+      <c r="V69" s="201"/>
+      <c r="W69" s="201"/>
+      <c r="X69" s="201"/>
       <c r="AA69" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="AB69" s="202" t="s">
+      <c r="AB69" s="200" t="s">
         <v>118</v>
       </c>
-      <c r="AC69" s="202"/>
-      <c r="AD69" s="202"/>
-      <c r="AE69" s="203" t="s">
+      <c r="AC69" s="200"/>
+      <c r="AD69" s="200"/>
+      <c r="AE69" s="201" t="s">
         <v>121</v>
       </c>
-      <c r="AF69" s="203"/>
-      <c r="AG69" s="203"/>
-      <c r="AH69" s="203"/>
-      <c r="AI69" s="203"/>
-      <c r="AJ69" s="203"/>
-      <c r="AK69" s="203"/>
-      <c r="AL69" s="203"/>
-      <c r="AM69" s="203"/>
+      <c r="AF69" s="201"/>
+      <c r="AG69" s="201"/>
+      <c r="AH69" s="201"/>
+      <c r="AI69" s="201"/>
+      <c r="AJ69" s="201"/>
+      <c r="AK69" s="201"/>
+      <c r="AL69" s="201"/>
+      <c r="AM69" s="201"/>
     </row>
-    <row r="70" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
       <c r="A70" s="28">
         <v>3</v>
       </c>
-      <c r="B70" s="202" t="s">
+      <c r="B70" s="200" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="202"/>
-      <c r="D70" s="202"/>
-      <c r="E70" s="203" t="s">
+      <c r="C70" s="200"/>
+      <c r="D70" s="200"/>
+      <c r="E70" s="201" t="s">
         <v>123</v>
       </c>
-      <c r="F70" s="203"/>
-      <c r="G70" s="203"/>
-      <c r="H70" s="203"/>
-      <c r="I70" s="203"/>
-      <c r="J70" s="203"/>
-      <c r="K70" s="203"/>
+      <c r="F70" s="201"/>
+      <c r="G70" s="201"/>
+      <c r="H70" s="201"/>
+      <c r="I70" s="201"/>
+      <c r="J70" s="201"/>
+      <c r="K70" s="201"/>
       <c r="N70" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="O70" s="204" t="s">
+      <c r="O70" s="202" t="s">
         <v>125</v>
       </c>
-      <c r="P70" s="205"/>
-      <c r="Q70" s="206"/>
-      <c r="R70" s="203" t="s">
+      <c r="P70" s="203"/>
+      <c r="Q70" s="204"/>
+      <c r="R70" s="201" t="s">
         <v>126</v>
       </c>
-      <c r="S70" s="203"/>
-      <c r="T70" s="203"/>
-      <c r="U70" s="203"/>
-      <c r="V70" s="203"/>
-      <c r="W70" s="203"/>
-      <c r="X70" s="203"/>
+      <c r="S70" s="201"/>
+      <c r="T70" s="201"/>
+      <c r="U70" s="201"/>
+      <c r="V70" s="201"/>
+      <c r="W70" s="201"/>
+      <c r="X70" s="201"/>
       <c r="AA70" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="AB70" s="202" t="s">
+      <c r="AB70" s="200" t="s">
         <v>125</v>
       </c>
-      <c r="AC70" s="202"/>
-      <c r="AD70" s="202"/>
-      <c r="AE70" s="203" t="s">
+      <c r="AC70" s="200"/>
+      <c r="AD70" s="200"/>
+      <c r="AE70" s="201" t="s">
         <v>128</v>
       </c>
-      <c r="AF70" s="203"/>
-      <c r="AG70" s="203"/>
-      <c r="AH70" s="203"/>
-      <c r="AI70" s="203"/>
-      <c r="AJ70" s="203"/>
-      <c r="AK70" s="203"/>
-      <c r="AL70" s="203"/>
-      <c r="AM70" s="203"/>
+      <c r="AF70" s="201"/>
+      <c r="AG70" s="201"/>
+      <c r="AH70" s="201"/>
+      <c r="AI70" s="201"/>
+      <c r="AJ70" s="201"/>
+      <c r="AK70" s="201"/>
+      <c r="AL70" s="201"/>
+      <c r="AM70" s="201"/>
       <c r="AN70" s="30"/>
     </row>
-    <row r="71" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
       <c r="A71" s="28">
         <v>4</v>
       </c>
-      <c r="B71" s="202" t="s">
+      <c r="B71" s="200" t="s">
         <v>129</v>
       </c>
-      <c r="C71" s="202"/>
-      <c r="D71" s="202"/>
-      <c r="E71" s="203" t="s">
+      <c r="C71" s="200"/>
+      <c r="D71" s="200"/>
+      <c r="E71" s="201" t="s">
         <v>130</v>
       </c>
-      <c r="F71" s="203"/>
-      <c r="G71" s="203"/>
-      <c r="H71" s="203"/>
-      <c r="I71" s="203"/>
-      <c r="J71" s="203"/>
-      <c r="K71" s="203"/>
+      <c r="F71" s="201"/>
+      <c r="G71" s="201"/>
+      <c r="H71" s="201"/>
+      <c r="I71" s="201"/>
+      <c r="J71" s="201"/>
+      <c r="K71" s="201"/>
       <c r="N71" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="O71" s="204" t="s">
+      <c r="O71" s="202" t="s">
         <v>132</v>
       </c>
-      <c r="P71" s="205"/>
-      <c r="Q71" s="206"/>
-      <c r="R71" s="203" t="s">
+      <c r="P71" s="203"/>
+      <c r="Q71" s="204"/>
+      <c r="R71" s="201" t="s">
         <v>133</v>
       </c>
-      <c r="S71" s="203"/>
-      <c r="T71" s="203"/>
-      <c r="U71" s="203"/>
-      <c r="V71" s="203"/>
-      <c r="W71" s="203"/>
-      <c r="X71" s="203"/>
+      <c r="S71" s="201"/>
+      <c r="T71" s="201"/>
+      <c r="U71" s="201"/>
+      <c r="V71" s="201"/>
+      <c r="W71" s="201"/>
+      <c r="X71" s="201"/>
       <c r="AA71" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="AB71" s="202" t="s">
+      <c r="AB71" s="200" t="s">
         <v>132</v>
       </c>
-      <c r="AC71" s="202"/>
-      <c r="AD71" s="202"/>
-      <c r="AE71" s="203" t="s">
+      <c r="AC71" s="200"/>
+      <c r="AD71" s="200"/>
+      <c r="AE71" s="201" t="s">
         <v>135</v>
       </c>
-      <c r="AF71" s="203"/>
-      <c r="AG71" s="203"/>
-      <c r="AH71" s="203"/>
-      <c r="AI71" s="203"/>
-      <c r="AJ71" s="203"/>
-      <c r="AK71" s="203"/>
-      <c r="AL71" s="203"/>
-      <c r="AM71" s="203"/>
+      <c r="AF71" s="201"/>
+      <c r="AG71" s="201"/>
+      <c r="AH71" s="201"/>
+      <c r="AI71" s="201"/>
+      <c r="AJ71" s="201"/>
+      <c r="AK71" s="201"/>
+      <c r="AL71" s="201"/>
+      <c r="AM71" s="201"/>
       <c r="AN71" s="30"/>
     </row>
-    <row r="72" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
       <c r="A72" s="28">
         <v>5</v>
       </c>
-      <c r="B72" s="202" t="s">
+      <c r="B72" s="200" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="202"/>
-      <c r="D72" s="202"/>
-      <c r="E72" s="203" t="s">
+      <c r="C72" s="200"/>
+      <c r="D72" s="200"/>
+      <c r="E72" s="201" t="s">
         <v>137</v>
       </c>
-      <c r="F72" s="203"/>
-      <c r="G72" s="203"/>
-      <c r="H72" s="203"/>
-      <c r="I72" s="203"/>
-      <c r="J72" s="203"/>
-      <c r="K72" s="203"/>
+      <c r="F72" s="201"/>
+      <c r="G72" s="201"/>
+      <c r="H72" s="201"/>
+      <c r="I72" s="201"/>
+      <c r="J72" s="201"/>
+      <c r="K72" s="201"/>
       <c r="N72" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="O72" s="204" t="s">
+      <c r="O72" s="202" t="s">
         <v>139</v>
       </c>
-      <c r="P72" s="205"/>
-      <c r="Q72" s="206"/>
-      <c r="R72" s="203" t="s">
+      <c r="P72" s="203"/>
+      <c r="Q72" s="204"/>
+      <c r="R72" s="201" t="s">
         <v>140</v>
       </c>
-      <c r="S72" s="203"/>
-      <c r="T72" s="203"/>
-      <c r="U72" s="203"/>
-      <c r="V72" s="203"/>
-      <c r="W72" s="203"/>
-      <c r="X72" s="203"/>
+      <c r="S72" s="201"/>
+      <c r="T72" s="201"/>
+      <c r="U72" s="201"/>
+      <c r="V72" s="201"/>
+      <c r="W72" s="201"/>
+      <c r="X72" s="201"/>
       <c r="AA72" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="AB72" s="202" t="s">
+      <c r="AB72" s="200" t="s">
         <v>139</v>
       </c>
-      <c r="AC72" s="202"/>
-      <c r="AD72" s="202"/>
-      <c r="AE72" s="203" t="s">
+      <c r="AC72" s="200"/>
+      <c r="AD72" s="200"/>
+      <c r="AE72" s="201" t="s">
         <v>142</v>
       </c>
-      <c r="AF72" s="203"/>
-      <c r="AG72" s="203"/>
-      <c r="AH72" s="203"/>
-      <c r="AI72" s="203"/>
-      <c r="AJ72" s="203"/>
-      <c r="AK72" s="203"/>
-      <c r="AL72" s="203"/>
-      <c r="AM72" s="203"/>
+      <c r="AF72" s="201"/>
+      <c r="AG72" s="201"/>
+      <c r="AH72" s="201"/>
+      <c r="AI72" s="201"/>
+      <c r="AJ72" s="201"/>
+      <c r="AK72" s="201"/>
+      <c r="AL72" s="201"/>
+      <c r="AM72" s="201"/>
       <c r="AN72" s="30"/>
     </row>
-    <row r="73" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
       <c r="A73" s="28">
         <v>6</v>
       </c>
-      <c r="B73" s="202" t="s">
+      <c r="B73" s="200" t="s">
         <v>143</v>
       </c>
-      <c r="C73" s="202"/>
-      <c r="D73" s="202"/>
-      <c r="E73" s="203" t="s">
+      <c r="C73" s="200"/>
+      <c r="D73" s="200"/>
+      <c r="E73" s="201" t="s">
         <v>144</v>
       </c>
-      <c r="F73" s="203"/>
-      <c r="G73" s="203"/>
-      <c r="H73" s="203"/>
-      <c r="I73" s="203"/>
-      <c r="J73" s="203"/>
-      <c r="K73" s="203"/>
+      <c r="F73" s="201"/>
+      <c r="G73" s="201"/>
+      <c r="H73" s="201"/>
+      <c r="I73" s="201"/>
+      <c r="J73" s="201"/>
+      <c r="K73" s="201"/>
       <c r="N73" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="O73" s="204" t="s">
+      <c r="O73" s="202" t="s">
         <v>146</v>
       </c>
-      <c r="P73" s="205"/>
-      <c r="Q73" s="206"/>
-      <c r="R73" s="203" t="s">
+      <c r="P73" s="203"/>
+      <c r="Q73" s="204"/>
+      <c r="R73" s="201" t="s">
         <v>147</v>
       </c>
-      <c r="S73" s="203"/>
-      <c r="T73" s="203"/>
-      <c r="U73" s="203"/>
-      <c r="V73" s="203"/>
-      <c r="W73" s="203"/>
-      <c r="X73" s="203"/>
+      <c r="S73" s="201"/>
+      <c r="T73" s="201"/>
+      <c r="U73" s="201"/>
+      <c r="V73" s="201"/>
+      <c r="W73" s="201"/>
+      <c r="X73" s="201"/>
       <c r="AA73" s="28"/>
-      <c r="AB73" s="202" t="s">
+      <c r="AB73" s="200" t="s">
         <v>148</v>
       </c>
-      <c r="AC73" s="202"/>
-      <c r="AD73" s="202"/>
-      <c r="AE73" s="203" t="s">
+      <c r="AC73" s="200"/>
+      <c r="AD73" s="200"/>
+      <c r="AE73" s="201" t="s">
         <v>149</v>
       </c>
-      <c r="AF73" s="203"/>
-      <c r="AG73" s="203"/>
-      <c r="AH73" s="203"/>
-      <c r="AI73" s="203"/>
-      <c r="AJ73" s="203"/>
-      <c r="AK73" s="203"/>
-      <c r="AL73" s="203"/>
-      <c r="AM73" s="203"/>
+      <c r="AF73" s="201"/>
+      <c r="AG73" s="201"/>
+      <c r="AH73" s="201"/>
+      <c r="AI73" s="201"/>
+      <c r="AJ73" s="201"/>
+      <c r="AK73" s="201"/>
+      <c r="AL73" s="201"/>
+      <c r="AM73" s="201"/>
     </row>
-    <row r="74" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
       <c r="A74" s="28">
         <v>7</v>
       </c>
-      <c r="B74" s="202" t="s">
+      <c r="B74" s="200" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="202"/>
-      <c r="D74" s="202"/>
-      <c r="E74" s="203" t="s">
+      <c r="C74" s="200"/>
+      <c r="D74" s="200"/>
+      <c r="E74" s="201" t="s">
         <v>151</v>
       </c>
-      <c r="F74" s="203"/>
-      <c r="G74" s="203"/>
-      <c r="H74" s="203"/>
-      <c r="I74" s="203"/>
-      <c r="J74" s="203"/>
-      <c r="K74" s="203"/>
+      <c r="F74" s="201"/>
+      <c r="G74" s="201"/>
+      <c r="H74" s="201"/>
+      <c r="I74" s="201"/>
+      <c r="J74" s="201"/>
+      <c r="K74" s="201"/>
     </row>
-    <row r="75" spans="1:70" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:70" ht="16.5">
       <c r="N75" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="270">
+  <mergeCells count="272">
     <mergeCell ref="AM54:BR55"/>
     <mergeCell ref="AQ6:AQ7"/>
     <mergeCell ref="AM6:AM7"/>
@@ -10812,11 +10752,7 @@
     <mergeCell ref="S3:U3"/>
     <mergeCell ref="AC2:AE2"/>
     <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="B4:H5"/>
-    <mergeCell ref="I4:O5"/>
-    <mergeCell ref="P4:V5"/>
-    <mergeCell ref="W4:AC5"/>
-    <mergeCell ref="AD4:AJ5"/>
+    <mergeCell ref="A4:A5"/>
     <mergeCell ref="AP59:AW59"/>
     <mergeCell ref="BC59:BJ59"/>
     <mergeCell ref="BK59:BR59"/>
@@ -10918,8 +10854,6 @@
     <mergeCell ref="R72:X72"/>
     <mergeCell ref="AB72:AD72"/>
     <mergeCell ref="AE72:AM72"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="W6:W7"/>
@@ -10942,8 +10876,6 @@
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="F6:F7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="P6:P7"/>
     <mergeCell ref="O6:O7"/>
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="M6:M7"/>
@@ -10951,6 +10883,15 @@
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="I6:I7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AX5:AY5"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AZ5:BA5"/>
+    <mergeCell ref="AZ6:BA6"/>
     <mergeCell ref="H6:H7"/>
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="V6:V7"/>
@@ -10966,17 +10907,8 @@
     <mergeCell ref="AH6:AH7"/>
     <mergeCell ref="AI6:AI7"/>
     <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AX5:AY5"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AZ5:BA5"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="AK4:AL5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="P6:P7"/>
     <mergeCell ref="BO48:BO49"/>
     <mergeCell ref="AM2:AO2"/>
     <mergeCell ref="AM3:AO3"/>
@@ -11001,22 +10933,6 @@
     <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="BM6:BM7"/>
     <mergeCell ref="BN6:BN7"/>
-    <mergeCell ref="BL24:BL25"/>
-    <mergeCell ref="BL28:BL29"/>
-    <mergeCell ref="BL32:BL33"/>
-    <mergeCell ref="BL36:BL37"/>
-    <mergeCell ref="BL40:BL41"/>
-    <mergeCell ref="BL44:BL45"/>
-    <mergeCell ref="BO16:BO17"/>
-    <mergeCell ref="BO20:BO21"/>
-    <mergeCell ref="BO24:BO25"/>
-    <mergeCell ref="BO28:BO29"/>
-    <mergeCell ref="BO32:BO33"/>
-    <mergeCell ref="BO36:BO37"/>
-    <mergeCell ref="BO40:BO41"/>
-    <mergeCell ref="BO44:BO45"/>
-    <mergeCell ref="BR40:BR41"/>
-    <mergeCell ref="BR44:BR45"/>
     <mergeCell ref="BR48:BR49"/>
     <mergeCell ref="BR52:BR53"/>
     <mergeCell ref="BP12:BP13"/>
@@ -11039,6 +10955,32 @@
     <mergeCell ref="BL12:BL13"/>
     <mergeCell ref="BL16:BL17"/>
     <mergeCell ref="BL20:BL21"/>
+    <mergeCell ref="BL24:BL25"/>
+    <mergeCell ref="BL28:BL29"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="B4:AL4"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="BR40:BR41"/>
+    <mergeCell ref="BR44:BR45"/>
+    <mergeCell ref="BL32:BL33"/>
+    <mergeCell ref="BL36:BL37"/>
+    <mergeCell ref="BL40:BL41"/>
+    <mergeCell ref="BL44:BL45"/>
+    <mergeCell ref="BO16:BO17"/>
+    <mergeCell ref="BO20:BO21"/>
+    <mergeCell ref="BO24:BO25"/>
+    <mergeCell ref="BO28:BO29"/>
+    <mergeCell ref="BO32:BO33"/>
+    <mergeCell ref="BO36:BO37"/>
+    <mergeCell ref="BO40:BO41"/>
+    <mergeCell ref="BO44:BO45"/>
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AR5:AS5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Python/ExternalData/DailyReportTemplateWithLunar_B.xlsx
+++ b/Python/ExternalData/DailyReportTemplateWithLunar_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_EveryThing\_code\HuachunDailyReport2024\Python\ExternalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48300E76-286C-417C-9E5B-22C257094432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFDDC8A-64D3-487D-89D6-6554D3AD10AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A6DB0C3-2965-4D6C-B04A-BB1132023D50}"/>
   </bookViews>
@@ -763,7 +763,7 @@
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
     <numFmt numFmtId="177" formatCode="0.0_);[Red]\(0.0\)"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="新細明體"/>
@@ -2059,7 +2059,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="267">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2353,15 +2353,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2496,104 +2487,320 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2601,221 +2808,38 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5426,10 +5450,10 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AC8" sqref="AC8:AC10"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4:A5"/>
+      <selection pane="bottomLeft" sqref="A1:AL1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.375" style="2" customWidth="1"/>
     <col min="2" max="15" width="5.125" style="5" customWidth="1"/>
@@ -5438,750 +5462,750 @@
     <col min="71" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="1" customFormat="1" ht="56.25" customHeight="1">
-      <c r="A1" s="228" t="s">
+    <row r="1" spans="1:70" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="185" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="229"/>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="229"/>
-      <c r="I1" s="229"/>
-      <c r="J1" s="229"/>
-      <c r="K1" s="229"/>
-      <c r="L1" s="229"/>
-      <c r="M1" s="229"/>
-      <c r="N1" s="229"/>
-      <c r="O1" s="229"/>
-      <c r="P1" s="229"/>
-      <c r="Q1" s="229"/>
-      <c r="R1" s="229"/>
-      <c r="S1" s="229"/>
-      <c r="T1" s="229"/>
-      <c r="U1" s="229"/>
-      <c r="V1" s="229"/>
-      <c r="W1" s="229"/>
-      <c r="X1" s="229"/>
-      <c r="Y1" s="229"/>
-      <c r="Z1" s="229"/>
-      <c r="AA1" s="229"/>
-      <c r="AB1" s="229"/>
-      <c r="AC1" s="229"/>
-      <c r="AD1" s="229"/>
-      <c r="AE1" s="229"/>
-      <c r="AF1" s="229"/>
-      <c r="AG1" s="229"/>
-      <c r="AH1" s="229"/>
-      <c r="AI1" s="229"/>
-      <c r="AJ1" s="229"/>
-      <c r="AK1" s="229"/>
-      <c r="AL1" s="230"/>
-      <c r="AM1" s="228" t="s">
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
+      <c r="I1" s="186"/>
+      <c r="J1" s="186"/>
+      <c r="K1" s="186"/>
+      <c r="L1" s="186"/>
+      <c r="M1" s="186"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="186"/>
+      <c r="P1" s="186"/>
+      <c r="Q1" s="186"/>
+      <c r="R1" s="186"/>
+      <c r="S1" s="186"/>
+      <c r="T1" s="186"/>
+      <c r="U1" s="186"/>
+      <c r="V1" s="186"/>
+      <c r="W1" s="186"/>
+      <c r="X1" s="186"/>
+      <c r="Y1" s="186"/>
+      <c r="Z1" s="186"/>
+      <c r="AA1" s="186"/>
+      <c r="AB1" s="186"/>
+      <c r="AC1" s="186"/>
+      <c r="AD1" s="186"/>
+      <c r="AE1" s="186"/>
+      <c r="AF1" s="186"/>
+      <c r="AG1" s="186"/>
+      <c r="AH1" s="186"/>
+      <c r="AI1" s="186"/>
+      <c r="AJ1" s="186"/>
+      <c r="AK1" s="186"/>
+      <c r="AL1" s="187"/>
+      <c r="AM1" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="AN1" s="229"/>
-      <c r="AO1" s="229"/>
-      <c r="AP1" s="229"/>
-      <c r="AQ1" s="229"/>
-      <c r="AR1" s="229"/>
-      <c r="AS1" s="229"/>
-      <c r="AT1" s="229"/>
-      <c r="AU1" s="229"/>
-      <c r="AV1" s="229"/>
-      <c r="AW1" s="229"/>
-      <c r="AX1" s="229"/>
-      <c r="AY1" s="229"/>
-      <c r="AZ1" s="229"/>
-      <c r="BA1" s="229"/>
-      <c r="BB1" s="229"/>
-      <c r="BC1" s="229"/>
-      <c r="BD1" s="229"/>
-      <c r="BE1" s="229"/>
-      <c r="BF1" s="229"/>
-      <c r="BG1" s="229"/>
-      <c r="BH1" s="229"/>
-      <c r="BI1" s="229"/>
-      <c r="BJ1" s="229"/>
-      <c r="BK1" s="229"/>
-      <c r="BL1" s="229"/>
-      <c r="BM1" s="229"/>
-      <c r="BN1" s="229"/>
-      <c r="BO1" s="229"/>
-      <c r="BP1" s="229"/>
-      <c r="BQ1" s="229"/>
-      <c r="BR1" s="230"/>
+      <c r="AN1" s="186"/>
+      <c r="AO1" s="186"/>
+      <c r="AP1" s="186"/>
+      <c r="AQ1" s="186"/>
+      <c r="AR1" s="186"/>
+      <c r="AS1" s="186"/>
+      <c r="AT1" s="186"/>
+      <c r="AU1" s="186"/>
+      <c r="AV1" s="186"/>
+      <c r="AW1" s="186"/>
+      <c r="AX1" s="186"/>
+      <c r="AY1" s="186"/>
+      <c r="AZ1" s="186"/>
+      <c r="BA1" s="186"/>
+      <c r="BB1" s="186"/>
+      <c r="BC1" s="186"/>
+      <c r="BD1" s="186"/>
+      <c r="BE1" s="186"/>
+      <c r="BF1" s="186"/>
+      <c r="BG1" s="186"/>
+      <c r="BH1" s="186"/>
+      <c r="BI1" s="186"/>
+      <c r="BJ1" s="186"/>
+      <c r="BK1" s="186"/>
+      <c r="BL1" s="186"/>
+      <c r="BM1" s="186"/>
+      <c r="BN1" s="186"/>
+      <c r="BO1" s="186"/>
+      <c r="BP1" s="186"/>
+      <c r="BQ1" s="186"/>
+      <c r="BR1" s="187"/>
     </row>
-    <row r="2" spans="1:70" ht="24.75" customHeight="1">
-      <c r="A2" s="165" t="s">
+    <row r="2" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="195" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="166"/>
-      <c r="E2" s="166"/>
-      <c r="F2" s="166"/>
-      <c r="G2" s="166"/>
-      <c r="H2" s="166"/>
-      <c r="I2" s="166"/>
-      <c r="J2" s="166"/>
-      <c r="K2" s="166"/>
-      <c r="L2" s="166"/>
-      <c r="M2" s="166"/>
-      <c r="N2" s="166"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166" t="s">
+      <c r="B2" s="193"/>
+      <c r="C2" s="193"/>
+      <c r="D2" s="193"/>
+      <c r="E2" s="193"/>
+      <c r="F2" s="193"/>
+      <c r="G2" s="193"/>
+      <c r="H2" s="193"/>
+      <c r="I2" s="193"/>
+      <c r="J2" s="193"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
+      <c r="M2" s="193"/>
+      <c r="N2" s="193"/>
+      <c r="O2" s="193"/>
+      <c r="P2" s="193"/>
+      <c r="Q2" s="193"/>
+      <c r="R2" s="193"/>
+      <c r="S2" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="166"/>
-      <c r="AA2" s="166"/>
-      <c r="AB2" s="166"/>
-      <c r="AC2" s="166" t="s">
+      <c r="T2" s="193"/>
+      <c r="U2" s="193"/>
+      <c r="V2" s="193"/>
+      <c r="W2" s="193"/>
+      <c r="X2" s="193"/>
+      <c r="Y2" s="193"/>
+      <c r="Z2" s="193"/>
+      <c r="AA2" s="193"/>
+      <c r="AB2" s="193"/>
+      <c r="AC2" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="166"/>
-      <c r="AG2" s="166"/>
-      <c r="AH2" s="166"/>
-      <c r="AI2" s="166"/>
-      <c r="AJ2" s="166"/>
-      <c r="AK2" s="166"/>
-      <c r="AL2" s="167"/>
-      <c r="AM2" s="165" t="s">
+      <c r="AD2" s="193"/>
+      <c r="AE2" s="193"/>
+      <c r="AF2" s="193"/>
+      <c r="AG2" s="193"/>
+      <c r="AH2" s="193"/>
+      <c r="AI2" s="193"/>
+      <c r="AJ2" s="193"/>
+      <c r="AK2" s="193"/>
+      <c r="AL2" s="194"/>
+      <c r="AM2" s="195" t="s">
         <v>153</v>
       </c>
-      <c r="AN2" s="166"/>
-      <c r="AO2" s="166"/>
-      <c r="AP2" s="166"/>
-      <c r="AQ2" s="166"/>
-      <c r="AR2" s="166"/>
-      <c r="AS2" s="166"/>
-      <c r="AT2" s="166"/>
-      <c r="AU2" s="166"/>
-      <c r="AV2" s="166"/>
-      <c r="AW2" s="166"/>
-      <c r="AX2" s="166"/>
-      <c r="AY2" s="166"/>
-      <c r="AZ2" s="166"/>
-      <c r="BA2" s="166" t="s">
+      <c r="AN2" s="193"/>
+      <c r="AO2" s="193"/>
+      <c r="AP2" s="193"/>
+      <c r="AQ2" s="193"/>
+      <c r="AR2" s="193"/>
+      <c r="AS2" s="193"/>
+      <c r="AT2" s="193"/>
+      <c r="AU2" s="193"/>
+      <c r="AV2" s="193"/>
+      <c r="AW2" s="193"/>
+      <c r="AX2" s="193"/>
+      <c r="AY2" s="193"/>
+      <c r="AZ2" s="193"/>
+      <c r="BA2" s="193" t="s">
         <v>0</v>
       </c>
-      <c r="BB2" s="166"/>
-      <c r="BC2" s="166"/>
-      <c r="BD2" s="166"/>
-      <c r="BE2" s="166"/>
-      <c r="BF2" s="166"/>
-      <c r="BG2" s="166"/>
-      <c r="BH2" s="166"/>
-      <c r="BI2" s="166"/>
-      <c r="BJ2" s="166" t="s">
+      <c r="BB2" s="193"/>
+      <c r="BC2" s="193"/>
+      <c r="BD2" s="193"/>
+      <c r="BE2" s="193"/>
+      <c r="BF2" s="193"/>
+      <c r="BG2" s="193"/>
+      <c r="BH2" s="193"/>
+      <c r="BI2" s="193"/>
+      <c r="BJ2" s="193" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" s="166"/>
-      <c r="BL2" s="166"/>
-      <c r="BM2" s="166"/>
-      <c r="BN2" s="166"/>
-      <c r="BO2" s="166"/>
-      <c r="BP2" s="166"/>
-      <c r="BQ2" s="166"/>
-      <c r="BR2" s="167"/>
+      <c r="BK2" s="193"/>
+      <c r="BL2" s="193"/>
+      <c r="BM2" s="193"/>
+      <c r="BN2" s="193"/>
+      <c r="BO2" s="193"/>
+      <c r="BP2" s="193"/>
+      <c r="BQ2" s="193"/>
+      <c r="BR2" s="194"/>
     </row>
-    <row r="3" spans="1:70" s="1" customFormat="1" ht="24.75" customHeight="1">
-      <c r="A3" s="165" t="s">
+    <row r="3" spans="1:70" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="195" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="166"/>
-      <c r="L3" s="166"/>
-      <c r="M3" s="166"/>
-      <c r="N3" s="166"/>
-      <c r="O3" s="166"/>
-      <c r="P3" s="166"/>
-      <c r="Q3" s="166"/>
-      <c r="R3" s="166"/>
-      <c r="S3" s="166" t="s">
+      <c r="B3" s="193"/>
+      <c r="C3" s="193"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
+      <c r="F3" s="193"/>
+      <c r="G3" s="193"/>
+      <c r="H3" s="193"/>
+      <c r="I3" s="193"/>
+      <c r="J3" s="193"/>
+      <c r="K3" s="193"/>
+      <c r="L3" s="193"/>
+      <c r="M3" s="193"/>
+      <c r="N3" s="193"/>
+      <c r="O3" s="193"/>
+      <c r="P3" s="193"/>
+      <c r="Q3" s="193"/>
+      <c r="R3" s="193"/>
+      <c r="S3" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="166"/>
-      <c r="U3" s="166"/>
-      <c r="V3" s="166"/>
-      <c r="W3" s="166"/>
-      <c r="X3" s="166"/>
-      <c r="Y3" s="166"/>
-      <c r="Z3" s="166"/>
-      <c r="AA3" s="166"/>
-      <c r="AB3" s="166"/>
-      <c r="AC3" s="166" t="s">
+      <c r="T3" s="193"/>
+      <c r="U3" s="193"/>
+      <c r="V3" s="193"/>
+      <c r="W3" s="193"/>
+      <c r="X3" s="193"/>
+      <c r="Y3" s="193"/>
+      <c r="Z3" s="193"/>
+      <c r="AA3" s="193"/>
+      <c r="AB3" s="193"/>
+      <c r="AC3" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="166"/>
-      <c r="AE3" s="166"/>
-      <c r="AF3" s="166"/>
-      <c r="AG3" s="166"/>
-      <c r="AH3" s="166"/>
-      <c r="AI3" s="166"/>
-      <c r="AJ3" s="166"/>
-      <c r="AK3" s="166"/>
-      <c r="AL3" s="167"/>
-      <c r="AM3" s="165" t="s">
+      <c r="AD3" s="193"/>
+      <c r="AE3" s="193"/>
+      <c r="AF3" s="193"/>
+      <c r="AG3" s="193"/>
+      <c r="AH3" s="193"/>
+      <c r="AI3" s="193"/>
+      <c r="AJ3" s="193"/>
+      <c r="AK3" s="193"/>
+      <c r="AL3" s="194"/>
+      <c r="AM3" s="195" t="s">
         <v>161</v>
       </c>
-      <c r="AN3" s="166"/>
-      <c r="AO3" s="166"/>
-      <c r="AP3" s="166"/>
-      <c r="AQ3" s="166"/>
-      <c r="AR3" s="166"/>
-      <c r="AS3" s="166"/>
-      <c r="AT3" s="166"/>
-      <c r="AU3" s="166"/>
-      <c r="AV3" s="166"/>
-      <c r="AW3" s="166"/>
-      <c r="AX3" s="166"/>
-      <c r="AY3" s="166"/>
-      <c r="AZ3" s="166"/>
-      <c r="BA3" s="166" t="s">
+      <c r="AN3" s="193"/>
+      <c r="AO3" s="193"/>
+      <c r="AP3" s="193"/>
+      <c r="AQ3" s="193"/>
+      <c r="AR3" s="193"/>
+      <c r="AS3" s="193"/>
+      <c r="AT3" s="193"/>
+      <c r="AU3" s="193"/>
+      <c r="AV3" s="193"/>
+      <c r="AW3" s="193"/>
+      <c r="AX3" s="193"/>
+      <c r="AY3" s="193"/>
+      <c r="AZ3" s="193"/>
+      <c r="BA3" s="193" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="166"/>
-      <c r="BC3" s="166"/>
-      <c r="BD3" s="166"/>
-      <c r="BE3" s="166"/>
-      <c r="BF3" s="166"/>
-      <c r="BG3" s="166"/>
-      <c r="BH3" s="166"/>
-      <c r="BI3" s="166"/>
-      <c r="BJ3" s="166" t="s">
+      <c r="BB3" s="193"/>
+      <c r="BC3" s="193"/>
+      <c r="BD3" s="193"/>
+      <c r="BE3" s="193"/>
+      <c r="BF3" s="193"/>
+      <c r="BG3" s="193"/>
+      <c r="BH3" s="193"/>
+      <c r="BI3" s="193"/>
+      <c r="BJ3" s="193" t="s">
         <v>3</v>
       </c>
-      <c r="BK3" s="166"/>
-      <c r="BL3" s="166"/>
-      <c r="BM3" s="166"/>
-      <c r="BN3" s="166"/>
-      <c r="BO3" s="166"/>
-      <c r="BP3" s="166"/>
-      <c r="BQ3" s="166"/>
-      <c r="BR3" s="167"/>
+      <c r="BK3" s="193"/>
+      <c r="BL3" s="193"/>
+      <c r="BM3" s="193"/>
+      <c r="BN3" s="193"/>
+      <c r="BO3" s="193"/>
+      <c r="BP3" s="193"/>
+      <c r="BQ3" s="193"/>
+      <c r="BR3" s="194"/>
     </row>
-    <row r="4" spans="1:70" ht="40.5" customHeight="1">
-      <c r="A4" s="257"/>
-      <c r="B4" s="256"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
-      <c r="F4" s="256"/>
-      <c r="G4" s="256"/>
-      <c r="H4" s="256"/>
-      <c r="I4" s="256"/>
-      <c r="J4" s="256"/>
-      <c r="K4" s="256"/>
-      <c r="L4" s="256"/>
-      <c r="M4" s="256"/>
-      <c r="N4" s="256"/>
-      <c r="O4" s="256"/>
-      <c r="P4" s="256"/>
-      <c r="Q4" s="256"/>
-      <c r="R4" s="256"/>
-      <c r="S4" s="256"/>
-      <c r="T4" s="256"/>
-      <c r="U4" s="256"/>
-      <c r="V4" s="256"/>
-      <c r="W4" s="256"/>
-      <c r="X4" s="256"/>
-      <c r="Y4" s="256"/>
-      <c r="Z4" s="256"/>
-      <c r="AA4" s="256"/>
-      <c r="AB4" s="256"/>
-      <c r="AC4" s="256"/>
-      <c r="AD4" s="256"/>
-      <c r="AE4" s="256"/>
-      <c r="AF4" s="256"/>
-      <c r="AG4" s="256"/>
-      <c r="AH4" s="256"/>
-      <c r="AI4" s="256"/>
-      <c r="AJ4" s="256"/>
-      <c r="AK4" s="256"/>
-      <c r="AL4" s="256"/>
-      <c r="AM4" s="150" t="s">
+    <row r="4" spans="1:70" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="196"/>
+      <c r="B4" s="253"/>
+      <c r="C4" s="253"/>
+      <c r="D4" s="253"/>
+      <c r="E4" s="253"/>
+      <c r="F4" s="253"/>
+      <c r="G4" s="253"/>
+      <c r="H4" s="253"/>
+      <c r="I4" s="253"/>
+      <c r="J4" s="253"/>
+      <c r="K4" s="253"/>
+      <c r="L4" s="253"/>
+      <c r="M4" s="253"/>
+      <c r="N4" s="253"/>
+      <c r="O4" s="253"/>
+      <c r="P4" s="253"/>
+      <c r="Q4" s="253"/>
+      <c r="R4" s="253"/>
+      <c r="S4" s="253"/>
+      <c r="T4" s="253"/>
+      <c r="U4" s="253"/>
+      <c r="V4" s="253"/>
+      <c r="W4" s="253"/>
+      <c r="X4" s="253"/>
+      <c r="Y4" s="253"/>
+      <c r="Z4" s="253"/>
+      <c r="AA4" s="253"/>
+      <c r="AB4" s="253"/>
+      <c r="AC4" s="253"/>
+      <c r="AD4" s="253"/>
+      <c r="AE4" s="253"/>
+      <c r="AF4" s="253"/>
+      <c r="AG4" s="253"/>
+      <c r="AH4" s="253"/>
+      <c r="AI4" s="253"/>
+      <c r="AJ4" s="253"/>
+      <c r="AK4" s="253"/>
+      <c r="AL4" s="253"/>
+      <c r="AM4" s="147" t="s">
         <v>163</v>
       </c>
-      <c r="AN4" s="231" t="s">
+      <c r="AN4" s="188" t="s">
         <v>164</v>
       </c>
-      <c r="AO4" s="232"/>
-      <c r="AP4" s="233"/>
-      <c r="AQ4" s="231" t="s">
+      <c r="AO4" s="189"/>
+      <c r="AP4" s="190"/>
+      <c r="AQ4" s="188" t="s">
         <v>165</v>
       </c>
-      <c r="AR4" s="232"/>
-      <c r="AS4" s="232"/>
-      <c r="AT4" s="232"/>
-      <c r="AU4" s="232"/>
-      <c r="AV4" s="232"/>
-      <c r="AW4" s="232"/>
-      <c r="AX4" s="232"/>
-      <c r="AY4" s="232"/>
-      <c r="AZ4" s="232"/>
-      <c r="BA4" s="232"/>
-      <c r="BB4" s="232"/>
-      <c r="BC4" s="232"/>
-      <c r="BD4" s="233"/>
-      <c r="BE4" s="231" t="s">
+      <c r="AR4" s="189"/>
+      <c r="AS4" s="189"/>
+      <c r="AT4" s="189"/>
+      <c r="AU4" s="189"/>
+      <c r="AV4" s="189"/>
+      <c r="AW4" s="189"/>
+      <c r="AX4" s="189"/>
+      <c r="AY4" s="189"/>
+      <c r="AZ4" s="189"/>
+      <c r="BA4" s="189"/>
+      <c r="BB4" s="189"/>
+      <c r="BC4" s="189"/>
+      <c r="BD4" s="190"/>
+      <c r="BE4" s="188" t="s">
         <v>166</v>
       </c>
-      <c r="BF4" s="234"/>
-      <c r="BG4" s="232"/>
-      <c r="BH4" s="232"/>
-      <c r="BI4" s="232"/>
-      <c r="BJ4" s="232"/>
-      <c r="BK4" s="233"/>
-      <c r="BL4" s="231" t="s">
+      <c r="BF4" s="191"/>
+      <c r="BG4" s="189"/>
+      <c r="BH4" s="189"/>
+      <c r="BI4" s="189"/>
+      <c r="BJ4" s="189"/>
+      <c r="BK4" s="190"/>
+      <c r="BL4" s="188" t="s">
         <v>4</v>
       </c>
-      <c r="BM4" s="232"/>
-      <c r="BN4" s="232"/>
-      <c r="BO4" s="233"/>
-      <c r="BP4" s="231" t="s">
+      <c r="BM4" s="189"/>
+      <c r="BN4" s="189"/>
+      <c r="BO4" s="190"/>
+      <c r="BP4" s="188" t="s">
         <v>5</v>
       </c>
-      <c r="BQ4" s="232"/>
-      <c r="BR4" s="235"/>
+      <c r="BQ4" s="189"/>
+      <c r="BR4" s="192"/>
     </row>
-    <row r="5" spans="1:70" s="5" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A5" s="258"/>
-      <c r="B5" s="152" t="s">
+    <row r="5" spans="1:70" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="197"/>
+      <c r="B5" s="252" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="152"/>
-      <c r="D5" s="152"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="152"/>
-      <c r="G5" s="152"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="152" t="s">
+      <c r="C5" s="252"/>
+      <c r="D5" s="252"/>
+      <c r="E5" s="252"/>
+      <c r="F5" s="252"/>
+      <c r="G5" s="252"/>
+      <c r="H5" s="252"/>
+      <c r="I5" s="252" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="152"/>
-      <c r="K5" s="152"/>
-      <c r="L5" s="152"/>
-      <c r="M5" s="152"/>
-      <c r="N5" s="152"/>
-      <c r="O5" s="152"/>
-      <c r="P5" s="152" t="s">
+      <c r="J5" s="252"/>
+      <c r="K5" s="252"/>
+      <c r="L5" s="252"/>
+      <c r="M5" s="252"/>
+      <c r="N5" s="252"/>
+      <c r="O5" s="252"/>
+      <c r="P5" s="252" t="s">
         <v>156</v>
       </c>
-      <c r="Q5" s="152"/>
-      <c r="R5" s="152"/>
-      <c r="S5" s="152"/>
-      <c r="T5" s="152"/>
-      <c r="U5" s="152"/>
-      <c r="V5" s="152"/>
-      <c r="W5" s="152" t="s">
+      <c r="Q5" s="252"/>
+      <c r="R5" s="252"/>
+      <c r="S5" s="252"/>
+      <c r="T5" s="252"/>
+      <c r="U5" s="252"/>
+      <c r="V5" s="252"/>
+      <c r="W5" s="252" t="s">
         <v>157</v>
       </c>
-      <c r="X5" s="152"/>
-      <c r="Y5" s="152"/>
-      <c r="Z5" s="152"/>
-      <c r="AA5" s="152"/>
-      <c r="AB5" s="152"/>
-      <c r="AC5" s="152"/>
-      <c r="AD5" s="152" t="s">
+      <c r="X5" s="252"/>
+      <c r="Y5" s="252"/>
+      <c r="Z5" s="252"/>
+      <c r="AA5" s="252"/>
+      <c r="AB5" s="252"/>
+      <c r="AC5" s="252"/>
+      <c r="AD5" s="252" t="s">
         <v>158</v>
       </c>
-      <c r="AE5" s="152"/>
-      <c r="AF5" s="152"/>
-      <c r="AG5" s="152"/>
-      <c r="AH5" s="152"/>
-      <c r="AI5" s="152"/>
-      <c r="AJ5" s="152"/>
-      <c r="AK5" s="152" t="s">
+      <c r="AE5" s="252"/>
+      <c r="AF5" s="252"/>
+      <c r="AG5" s="252"/>
+      <c r="AH5" s="252"/>
+      <c r="AI5" s="252"/>
+      <c r="AJ5" s="252"/>
+      <c r="AK5" s="252" t="s">
         <v>159</v>
       </c>
-      <c r="AL5" s="152"/>
-      <c r="AM5" s="151" t="s">
+      <c r="AL5" s="252"/>
+      <c r="AM5" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="AN5" s="122" t="s">
+      <c r="AN5" s="119" t="s">
         <v>7</v>
       </c>
-      <c r="AO5" s="123" t="s">
+      <c r="AO5" s="120" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="124" t="s">
+      <c r="AP5" s="121" t="s">
         <v>9</v>
       </c>
-      <c r="AQ5" s="125" t="s">
+      <c r="AQ5" s="122" t="s">
         <v>10</v>
       </c>
-      <c r="AR5" s="172" t="s">
+      <c r="AR5" s="239" t="s">
         <v>11</v>
       </c>
-      <c r="AS5" s="173"/>
-      <c r="AT5" s="172" t="s">
+      <c r="AS5" s="240"/>
+      <c r="AT5" s="239" t="s">
         <v>12</v>
       </c>
-      <c r="AU5" s="173"/>
-      <c r="AV5" s="172" t="s">
+      <c r="AU5" s="240"/>
+      <c r="AV5" s="239" t="s">
         <v>13</v>
       </c>
-      <c r="AW5" s="173"/>
-      <c r="AX5" s="172" t="s">
+      <c r="AW5" s="240"/>
+      <c r="AX5" s="239" t="s">
         <v>14</v>
       </c>
-      <c r="AY5" s="173"/>
-      <c r="AZ5" s="172" t="s">
+      <c r="AY5" s="240"/>
+      <c r="AZ5" s="239" t="s">
         <v>15</v>
       </c>
-      <c r="BA5" s="173"/>
-      <c r="BB5" s="172" t="s">
+      <c r="BA5" s="240"/>
+      <c r="BB5" s="239" t="s">
         <v>16</v>
       </c>
-      <c r="BC5" s="173"/>
-      <c r="BD5" s="124" t="s">
+      <c r="BC5" s="240"/>
+      <c r="BD5" s="121" t="s">
         <v>17</v>
       </c>
-      <c r="BE5" s="176" t="s">
+      <c r="BE5" s="245" t="s">
         <v>18</v>
       </c>
-      <c r="BF5" s="173"/>
-      <c r="BG5" s="177" t="s">
+      <c r="BF5" s="240"/>
+      <c r="BG5" s="246" t="s">
         <v>19</v>
       </c>
-      <c r="BH5" s="178"/>
-      <c r="BI5" s="177" t="s">
+      <c r="BH5" s="247"/>
+      <c r="BI5" s="246" t="s">
         <v>20</v>
       </c>
-      <c r="BJ5" s="178"/>
-      <c r="BK5" s="126" t="s">
+      <c r="BJ5" s="247"/>
+      <c r="BK5" s="123" t="s">
         <v>21</v>
       </c>
-      <c r="BL5" s="122" t="s">
+      <c r="BL5" s="119" t="s">
         <v>22</v>
       </c>
-      <c r="BM5" s="127" t="s">
+      <c r="BM5" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="BN5" s="127" t="s">
+      <c r="BN5" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="BO5" s="128" t="s">
+      <c r="BO5" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="BP5" s="129" t="s">
+      <c r="BP5" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="BQ5" s="130" t="s">
+      <c r="BQ5" s="127" t="s">
         <v>27</v>
       </c>
-      <c r="BR5" s="134" t="s">
+      <c r="BR5" s="131" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:70" ht="78.75" customHeight="1">
+    <row r="6" spans="1:70" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
-      <c r="B6" s="191" t="s">
+      <c r="B6" s="228" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="189" t="s">
+      <c r="C6" s="226" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="189" t="s">
+      <c r="D6" s="226" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="189" t="s">
+      <c r="E6" s="226" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="189" t="s">
+      <c r="F6" s="226" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="189" t="s">
+      <c r="G6" s="226" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="187" t="s">
+      <c r="H6" s="237" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="191" t="s">
+      <c r="I6" s="228" t="s">
         <v>162</v>
       </c>
-      <c r="J6" s="189" t="s">
+      <c r="J6" s="226" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="189" t="s">
+      <c r="K6" s="226" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="189" t="s">
+      <c r="L6" s="226" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="189" t="s">
+      <c r="M6" s="226" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="189" t="s">
+      <c r="N6" s="226" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="187" t="s">
+      <c r="O6" s="237" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="191" t="s">
+      <c r="P6" s="228" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="189" t="s">
+      <c r="Q6" s="226" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="189" t="s">
+      <c r="R6" s="226" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="189" t="s">
+      <c r="S6" s="226" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="189" t="s">
+      <c r="T6" s="226" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="189" t="s">
+      <c r="U6" s="226" t="s">
         <v>53</v>
       </c>
-      <c r="V6" s="187" t="s">
+      <c r="V6" s="237" t="s">
         <v>54</v>
       </c>
-      <c r="W6" s="191" t="s">
+      <c r="W6" s="228" t="s">
         <v>162</v>
       </c>
-      <c r="X6" s="189" t="s">
+      <c r="X6" s="226" t="s">
         <v>49</v>
       </c>
-      <c r="Y6" s="189" t="s">
+      <c r="Y6" s="226" t="s">
         <v>50</v>
       </c>
-      <c r="Z6" s="189" t="s">
+      <c r="Z6" s="226" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="189" t="s">
+      <c r="AA6" s="226" t="s">
         <v>52</v>
       </c>
-      <c r="AB6" s="189" t="s">
+      <c r="AB6" s="226" t="s">
         <v>53</v>
       </c>
-      <c r="AC6" s="187" t="s">
+      <c r="AC6" s="237" t="s">
         <v>54</v>
       </c>
-      <c r="AD6" s="191" t="s">
+      <c r="AD6" s="228" t="s">
         <v>162</v>
       </c>
-      <c r="AE6" s="189" t="s">
+      <c r="AE6" s="226" t="s">
         <v>49</v>
       </c>
-      <c r="AF6" s="189" t="s">
+      <c r="AF6" s="226" t="s">
         <v>50</v>
       </c>
-      <c r="AG6" s="189" t="s">
+      <c r="AG6" s="226" t="s">
         <v>51</v>
       </c>
-      <c r="AH6" s="189" t="s">
+      <c r="AH6" s="226" t="s">
         <v>52</v>
       </c>
-      <c r="AI6" s="189" t="s">
+      <c r="AI6" s="226" t="s">
         <v>53</v>
       </c>
-      <c r="AJ6" s="187" t="s">
+      <c r="AJ6" s="237" t="s">
         <v>54</v>
       </c>
-      <c r="AK6" s="191" t="s">
+      <c r="AK6" s="228" t="s">
         <v>162</v>
       </c>
-      <c r="AL6" s="185" t="s">
+      <c r="AL6" s="254" t="s">
         <v>49</v>
       </c>
-      <c r="AM6" s="238" t="s">
+      <c r="AM6" s="157" t="s">
         <v>167</v>
       </c>
-      <c r="AN6" s="238" t="s">
+      <c r="AN6" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="AO6" s="181" t="s">
+      <c r="AO6" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="AP6" s="183" t="s">
+      <c r="AP6" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="AQ6" s="236" t="s">
+      <c r="AQ6" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="AR6" s="174" t="s">
+      <c r="AR6" s="161" t="s">
         <v>34</v>
       </c>
-      <c r="AS6" s="175"/>
-      <c r="AT6" s="174" t="s">
+      <c r="AS6" s="162"/>
+      <c r="AT6" s="161" t="s">
         <v>35</v>
       </c>
-      <c r="AU6" s="175"/>
-      <c r="AV6" s="174" t="s">
+      <c r="AU6" s="162"/>
+      <c r="AV6" s="161" t="s">
         <v>36</v>
       </c>
-      <c r="AW6" s="175"/>
-      <c r="AX6" s="174" t="s">
+      <c r="AW6" s="162"/>
+      <c r="AX6" s="161" t="s">
         <v>37</v>
       </c>
-      <c r="AY6" s="175"/>
-      <c r="AZ6" s="174" t="s">
+      <c r="AY6" s="162"/>
+      <c r="AZ6" s="161" t="s">
         <v>38</v>
       </c>
-      <c r="BA6" s="175"/>
-      <c r="BB6" s="174" t="s">
+      <c r="BA6" s="162"/>
+      <c r="BB6" s="161" t="s">
         <v>31</v>
       </c>
-      <c r="BC6" s="175"/>
-      <c r="BD6" s="246" t="s">
+      <c r="BC6" s="162"/>
+      <c r="BD6" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="BE6" s="248" t="s">
+      <c r="BE6" s="173" t="s">
         <v>39</v>
       </c>
-      <c r="BF6" s="249"/>
-      <c r="BG6" s="250" t="s">
+      <c r="BF6" s="174"/>
+      <c r="BG6" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="BH6" s="251"/>
-      <c r="BI6" s="179" t="s">
+      <c r="BH6" s="176"/>
+      <c r="BI6" s="248" t="s">
         <v>31</v>
       </c>
-      <c r="BJ6" s="180"/>
-      <c r="BK6" s="252" t="s">
+      <c r="BJ6" s="249"/>
+      <c r="BK6" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="BL6" s="238" t="s">
+      <c r="BL6" s="157" t="s">
         <v>41</v>
       </c>
-      <c r="BM6" s="181" t="s">
+      <c r="BM6" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="BN6" s="181" t="s">
+      <c r="BN6" s="159" t="s">
         <v>42</v>
       </c>
-      <c r="BO6" s="183" t="s">
+      <c r="BO6" s="165" t="s">
         <v>43</v>
       </c>
-      <c r="BP6" s="240" t="s">
+      <c r="BP6" s="163" t="s">
         <v>44</v>
       </c>
-      <c r="BQ6" s="244" t="s">
+      <c r="BQ6" s="169" t="s">
         <v>45</v>
       </c>
-      <c r="BR6" s="242" t="s">
+      <c r="BR6" s="167" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:70" s="6" customFormat="1" ht="24.75" customHeight="1">
+    <row r="7" spans="1:70" s="6" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="192"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="190"/>
-      <c r="E7" s="190"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="190"/>
-      <c r="H7" s="188"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="190"/>
-      <c r="K7" s="190"/>
-      <c r="L7" s="190"/>
-      <c r="M7" s="190"/>
-      <c r="N7" s="190"/>
-      <c r="O7" s="188"/>
-      <c r="P7" s="192"/>
-      <c r="Q7" s="190"/>
-      <c r="R7" s="190"/>
-      <c r="S7" s="190"/>
-      <c r="T7" s="190"/>
-      <c r="U7" s="190"/>
-      <c r="V7" s="188"/>
-      <c r="W7" s="192"/>
-      <c r="X7" s="190"/>
-      <c r="Y7" s="190"/>
-      <c r="Z7" s="190"/>
-      <c r="AA7" s="190"/>
-      <c r="AB7" s="190"/>
-      <c r="AC7" s="188"/>
-      <c r="AD7" s="192"/>
-      <c r="AE7" s="190"/>
-      <c r="AF7" s="190"/>
-      <c r="AG7" s="190"/>
-      <c r="AH7" s="190"/>
-      <c r="AI7" s="190"/>
-      <c r="AJ7" s="188"/>
-      <c r="AK7" s="192"/>
-      <c r="AL7" s="186"/>
-      <c r="AM7" s="239"/>
-      <c r="AN7" s="239"/>
-      <c r="AO7" s="182"/>
-      <c r="AP7" s="184"/>
-      <c r="AQ7" s="237"/>
-      <c r="AR7" s="112"/>
-      <c r="AS7" s="118" t="s">
+      <c r="B7" s="229"/>
+      <c r="C7" s="227"/>
+      <c r="D7" s="227"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="227"/>
+      <c r="H7" s="238"/>
+      <c r="I7" s="229"/>
+      <c r="J7" s="227"/>
+      <c r="K7" s="227"/>
+      <c r="L7" s="227"/>
+      <c r="M7" s="227"/>
+      <c r="N7" s="227"/>
+      <c r="O7" s="238"/>
+      <c r="P7" s="229"/>
+      <c r="Q7" s="227"/>
+      <c r="R7" s="227"/>
+      <c r="S7" s="227"/>
+      <c r="T7" s="227"/>
+      <c r="U7" s="227"/>
+      <c r="V7" s="238"/>
+      <c r="W7" s="229"/>
+      <c r="X7" s="227"/>
+      <c r="Y7" s="227"/>
+      <c r="Z7" s="227"/>
+      <c r="AA7" s="227"/>
+      <c r="AB7" s="227"/>
+      <c r="AC7" s="238"/>
+      <c r="AD7" s="229"/>
+      <c r="AE7" s="227"/>
+      <c r="AF7" s="227"/>
+      <c r="AG7" s="227"/>
+      <c r="AH7" s="227"/>
+      <c r="AI7" s="227"/>
+      <c r="AJ7" s="238"/>
+      <c r="AK7" s="229"/>
+      <c r="AL7" s="255"/>
+      <c r="AM7" s="158"/>
+      <c r="AN7" s="158"/>
+      <c r="AO7" s="160"/>
+      <c r="AP7" s="166"/>
+      <c r="AQ7" s="156"/>
+      <c r="AR7" s="109"/>
+      <c r="AS7" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="AT7" s="112"/>
-      <c r="AU7" s="118" t="s">
+      <c r="AT7" s="109"/>
+      <c r="AU7" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="AV7" s="118"/>
-      <c r="AW7" s="118" t="s">
+      <c r="AV7" s="115"/>
+      <c r="AW7" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="AX7" s="119"/>
-      <c r="AY7" s="118" t="s">
+      <c r="AX7" s="116"/>
+      <c r="AY7" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="AZ7" s="119"/>
-      <c r="BA7" s="118" t="s">
+      <c r="AZ7" s="116"/>
+      <c r="BA7" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="BB7" s="119"/>
-      <c r="BC7" s="118" t="s">
+      <c r="BB7" s="116"/>
+      <c r="BC7" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="BD7" s="247"/>
-      <c r="BE7" s="113"/>
-      <c r="BF7" s="118" t="s">
+      <c r="BD7" s="172"/>
+      <c r="BE7" s="110"/>
+      <c r="BF7" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="BG7" s="120"/>
-      <c r="BH7" s="118" t="s">
+      <c r="BG7" s="117"/>
+      <c r="BH7" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="BI7" s="121"/>
-      <c r="BJ7" s="118" t="s">
+      <c r="BI7" s="118"/>
+      <c r="BJ7" s="115" t="s">
         <v>48</v>
       </c>
-      <c r="BK7" s="253"/>
-      <c r="BL7" s="239"/>
-      <c r="BM7" s="182"/>
-      <c r="BN7" s="182"/>
-      <c r="BO7" s="184"/>
-      <c r="BP7" s="241"/>
-      <c r="BQ7" s="245"/>
-      <c r="BR7" s="243"/>
+      <c r="BK7" s="178"/>
+      <c r="BL7" s="158"/>
+      <c r="BM7" s="160"/>
+      <c r="BN7" s="160"/>
+      <c r="BO7" s="166"/>
+      <c r="BP7" s="164"/>
+      <c r="BQ7" s="170"/>
+      <c r="BR7" s="168"/>
     </row>
-    <row r="8" spans="1:70" ht="30" customHeight="1">
-      <c r="A8" s="194" t="s">
+    <row r="8" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="231" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="54"/>
@@ -6221,82 +6245,82 @@
       <c r="AJ8" s="56"/>
       <c r="AK8" s="57"/>
       <c r="AL8" s="58"/>
-      <c r="AM8" s="135"/>
+      <c r="AM8" s="132"/>
       <c r="AN8" s="40"/>
       <c r="AO8" s="41"/>
-      <c r="AP8" s="131"/>
+      <c r="AP8" s="128"/>
       <c r="AQ8" s="44"/>
-      <c r="AR8" s="114"/>
-      <c r="AS8" s="114"/>
-      <c r="AT8" s="114"/>
-      <c r="AU8" s="114"/>
-      <c r="AV8" s="114"/>
-      <c r="AW8" s="115"/>
-      <c r="AX8" s="115"/>
-      <c r="AY8" s="115"/>
-      <c r="AZ8" s="115"/>
-      <c r="BA8" s="115"/>
-      <c r="BB8" s="115"/>
-      <c r="BC8" s="115"/>
-      <c r="BD8" s="116"/>
-      <c r="BE8" s="117"/>
-      <c r="BF8" s="115"/>
-      <c r="BG8" s="114"/>
-      <c r="BH8" s="114"/>
-      <c r="BI8" s="114"/>
-      <c r="BJ8" s="115"/>
-      <c r="BK8" s="116"/>
-      <c r="BL8" s="168"/>
-      <c r="BM8" s="115"/>
-      <c r="BN8" s="115"/>
-      <c r="BO8" s="254"/>
-      <c r="BP8" s="168"/>
-      <c r="BQ8" s="115"/>
-      <c r="BR8" s="170"/>
+      <c r="AR8" s="111"/>
+      <c r="AS8" s="111"/>
+      <c r="AT8" s="111"/>
+      <c r="AU8" s="111"/>
+      <c r="AV8" s="111"/>
+      <c r="AW8" s="112"/>
+      <c r="AX8" s="112"/>
+      <c r="AY8" s="112"/>
+      <c r="AZ8" s="112"/>
+      <c r="BA8" s="112"/>
+      <c r="BB8" s="112"/>
+      <c r="BC8" s="112"/>
+      <c r="BD8" s="113"/>
+      <c r="BE8" s="114"/>
+      <c r="BF8" s="112"/>
+      <c r="BG8" s="111"/>
+      <c r="BH8" s="111"/>
+      <c r="BI8" s="111"/>
+      <c r="BJ8" s="112"/>
+      <c r="BK8" s="113"/>
+      <c r="BL8" s="241"/>
+      <c r="BM8" s="112"/>
+      <c r="BN8" s="112"/>
+      <c r="BO8" s="181"/>
+      <c r="BP8" s="241"/>
+      <c r="BQ8" s="112"/>
+      <c r="BR8" s="243"/>
     </row>
-    <row r="9" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A9" s="194"/>
-      <c r="B9" s="101"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="102"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
-      <c r="M9" s="102"/>
-      <c r="N9" s="102"/>
-      <c r="O9" s="103"/>
-      <c r="P9" s="101"/>
-      <c r="Q9" s="102"/>
-      <c r="R9" s="102"/>
-      <c r="S9" s="102"/>
-      <c r="T9" s="102"/>
-      <c r="U9" s="102"/>
-      <c r="V9" s="103"/>
-      <c r="W9" s="101"/>
-      <c r="X9" s="102"/>
-      <c r="Y9" s="102"/>
-      <c r="Z9" s="102"/>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="102"/>
-      <c r="AC9" s="103"/>
-      <c r="AD9" s="101"/>
-      <c r="AE9" s="102"/>
-      <c r="AF9" s="102"/>
-      <c r="AG9" s="102"/>
-      <c r="AH9" s="102"/>
-      <c r="AI9" s="102"/>
-      <c r="AJ9" s="103"/>
-      <c r="AK9" s="104"/>
-      <c r="AL9" s="105"/>
+    <row r="9" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="231"/>
+      <c r="B9" s="256"/>
+      <c r="C9" s="257"/>
+      <c r="D9" s="257"/>
+      <c r="E9" s="257"/>
+      <c r="F9" s="257"/>
+      <c r="G9" s="257"/>
+      <c r="H9" s="258"/>
+      <c r="I9" s="256"/>
+      <c r="J9" s="257"/>
+      <c r="K9" s="257"/>
+      <c r="L9" s="257"/>
+      <c r="M9" s="257"/>
+      <c r="N9" s="257"/>
+      <c r="O9" s="258"/>
+      <c r="P9" s="256"/>
+      <c r="Q9" s="257"/>
+      <c r="R9" s="257"/>
+      <c r="S9" s="257"/>
+      <c r="T9" s="257"/>
+      <c r="U9" s="257"/>
+      <c r="V9" s="258"/>
+      <c r="W9" s="256"/>
+      <c r="X9" s="257"/>
+      <c r="Y9" s="257"/>
+      <c r="Z9" s="257"/>
+      <c r="AA9" s="257"/>
+      <c r="AB9" s="257"/>
+      <c r="AC9" s="258"/>
+      <c r="AD9" s="256"/>
+      <c r="AE9" s="257"/>
+      <c r="AF9" s="257"/>
+      <c r="AG9" s="257"/>
+      <c r="AH9" s="257"/>
+      <c r="AI9" s="257"/>
+      <c r="AJ9" s="258"/>
+      <c r="AK9" s="259"/>
+      <c r="AL9" s="260"/>
       <c r="AM9" s="99"/>
       <c r="AN9" s="48"/>
       <c r="AO9" s="49"/>
-      <c r="AP9" s="132"/>
+      <c r="AP9" s="129"/>
       <c r="AQ9" s="52"/>
       <c r="AR9" s="50"/>
       <c r="AS9" s="50"/>
@@ -6318,88 +6342,88 @@
       <c r="BI9" s="50"/>
       <c r="BJ9" s="50"/>
       <c r="BK9" s="51"/>
-      <c r="BL9" s="169"/>
+      <c r="BL9" s="242"/>
       <c r="BM9" s="50"/>
       <c r="BN9" s="50"/>
-      <c r="BO9" s="255"/>
-      <c r="BP9" s="169"/>
+      <c r="BO9" s="182"/>
+      <c r="BP9" s="242"/>
       <c r="BQ9" s="50"/>
-      <c r="BR9" s="171"/>
+      <c r="BR9" s="244"/>
     </row>
-    <row r="10" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A10" s="194"/>
-      <c r="B10" s="136"/>
-      <c r="C10" s="137"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="137"/>
-      <c r="F10" s="137"/>
-      <c r="G10" s="137"/>
-      <c r="H10" s="138"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="137"/>
-      <c r="L10" s="137"/>
-      <c r="M10" s="137"/>
-      <c r="N10" s="137"/>
-      <c r="O10" s="138"/>
-      <c r="P10" s="136"/>
-      <c r="Q10" s="137"/>
-      <c r="R10" s="137"/>
-      <c r="S10" s="137"/>
-      <c r="T10" s="137"/>
-      <c r="U10" s="137"/>
-      <c r="V10" s="138"/>
-      <c r="W10" s="136"/>
-      <c r="X10" s="137"/>
-      <c r="Y10" s="137"/>
-      <c r="Z10" s="137"/>
-      <c r="AA10" s="137"/>
-      <c r="AB10" s="137"/>
-      <c r="AC10" s="138"/>
-      <c r="AD10" s="136"/>
-      <c r="AE10" s="137"/>
-      <c r="AF10" s="137"/>
-      <c r="AG10" s="137"/>
-      <c r="AH10" s="137"/>
-      <c r="AI10" s="137"/>
-      <c r="AJ10" s="138"/>
-      <c r="AK10" s="139"/>
-      <c r="AL10" s="140"/>
-      <c r="AM10" s="157"/>
-      <c r="AN10" s="158"/>
-      <c r="AO10" s="158"/>
-      <c r="AP10" s="158"/>
-      <c r="AQ10" s="158"/>
-      <c r="AR10" s="158"/>
-      <c r="AS10" s="158"/>
-      <c r="AT10" s="158"/>
-      <c r="AU10" s="158"/>
-      <c r="AV10" s="158"/>
-      <c r="AW10" s="158"/>
-      <c r="AX10" s="158"/>
-      <c r="AY10" s="158"/>
-      <c r="AZ10" s="158"/>
-      <c r="BA10" s="158"/>
-      <c r="BB10" s="158"/>
-      <c r="BC10" s="158"/>
-      <c r="BD10" s="158"/>
-      <c r="BE10" s="158"/>
-      <c r="BF10" s="158"/>
-      <c r="BG10" s="158"/>
-      <c r="BH10" s="158"/>
-      <c r="BI10" s="158"/>
-      <c r="BJ10" s="158"/>
-      <c r="BK10" s="158"/>
-      <c r="BL10" s="158"/>
-      <c r="BM10" s="158"/>
-      <c r="BN10" s="158"/>
-      <c r="BO10" s="158"/>
-      <c r="BP10" s="158"/>
-      <c r="BQ10" s="158"/>
-      <c r="BR10" s="159"/>
+    <row r="10" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="231"/>
+      <c r="B10" s="133"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
+      <c r="O10" s="135"/>
+      <c r="P10" s="133"/>
+      <c r="Q10" s="134"/>
+      <c r="R10" s="134"/>
+      <c r="S10" s="134"/>
+      <c r="T10" s="134"/>
+      <c r="U10" s="134"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="133"/>
+      <c r="X10" s="134"/>
+      <c r="Y10" s="134"/>
+      <c r="Z10" s="134"/>
+      <c r="AA10" s="134"/>
+      <c r="AB10" s="134"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="133"/>
+      <c r="AE10" s="134"/>
+      <c r="AF10" s="134"/>
+      <c r="AG10" s="134"/>
+      <c r="AH10" s="134"/>
+      <c r="AI10" s="134"/>
+      <c r="AJ10" s="135"/>
+      <c r="AK10" s="136"/>
+      <c r="AL10" s="137"/>
+      <c r="AM10" s="149"/>
+      <c r="AN10" s="150"/>
+      <c r="AO10" s="150"/>
+      <c r="AP10" s="150"/>
+      <c r="AQ10" s="150"/>
+      <c r="AR10" s="150"/>
+      <c r="AS10" s="150"/>
+      <c r="AT10" s="150"/>
+      <c r="AU10" s="150"/>
+      <c r="AV10" s="150"/>
+      <c r="AW10" s="150"/>
+      <c r="AX10" s="150"/>
+      <c r="AY10" s="150"/>
+      <c r="AZ10" s="150"/>
+      <c r="BA10" s="150"/>
+      <c r="BB10" s="150"/>
+      <c r="BC10" s="150"/>
+      <c r="BD10" s="150"/>
+      <c r="BE10" s="150"/>
+      <c r="BF10" s="150"/>
+      <c r="BG10" s="150"/>
+      <c r="BH10" s="150"/>
+      <c r="BI10" s="150"/>
+      <c r="BJ10" s="150"/>
+      <c r="BK10" s="150"/>
+      <c r="BL10" s="150"/>
+      <c r="BM10" s="150"/>
+      <c r="BN10" s="150"/>
+      <c r="BO10" s="150"/>
+      <c r="BP10" s="150"/>
+      <c r="BQ10" s="150"/>
+      <c r="BR10" s="151"/>
     </row>
-    <row r="11" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1">
-      <c r="A11" s="195"/>
+    <row r="11" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="232"/>
       <c r="B11" s="74"/>
       <c r="C11" s="75"/>
       <c r="D11" s="75"/>
@@ -6437,41 +6461,41 @@
       <c r="AJ11" s="76"/>
       <c r="AK11" s="77"/>
       <c r="AL11" s="78"/>
-      <c r="AM11" s="160"/>
-      <c r="AN11" s="161"/>
-      <c r="AO11" s="161"/>
-      <c r="AP11" s="161"/>
-      <c r="AQ11" s="161"/>
-      <c r="AR11" s="161"/>
-      <c r="AS11" s="161"/>
-      <c r="AT11" s="161"/>
-      <c r="AU11" s="161"/>
-      <c r="AV11" s="161"/>
-      <c r="AW11" s="161"/>
-      <c r="AX11" s="161"/>
-      <c r="AY11" s="161"/>
-      <c r="AZ11" s="161"/>
-      <c r="BA11" s="161"/>
-      <c r="BB11" s="161"/>
-      <c r="BC11" s="161"/>
-      <c r="BD11" s="161"/>
-      <c r="BE11" s="161"/>
-      <c r="BF11" s="161"/>
-      <c r="BG11" s="161"/>
-      <c r="BH11" s="161"/>
-      <c r="BI11" s="161"/>
-      <c r="BJ11" s="161"/>
-      <c r="BK11" s="161"/>
-      <c r="BL11" s="161"/>
-      <c r="BM11" s="161"/>
-      <c r="BN11" s="161"/>
-      <c r="BO11" s="161"/>
-      <c r="BP11" s="161"/>
-      <c r="BQ11" s="161"/>
-      <c r="BR11" s="162"/>
+      <c r="AM11" s="152"/>
+      <c r="AN11" s="153"/>
+      <c r="AO11" s="153"/>
+      <c r="AP11" s="153"/>
+      <c r="AQ11" s="153"/>
+      <c r="AR11" s="153"/>
+      <c r="AS11" s="153"/>
+      <c r="AT11" s="153"/>
+      <c r="AU11" s="153"/>
+      <c r="AV11" s="153"/>
+      <c r="AW11" s="153"/>
+      <c r="AX11" s="153"/>
+      <c r="AY11" s="153"/>
+      <c r="AZ11" s="153"/>
+      <c r="BA11" s="153"/>
+      <c r="BB11" s="153"/>
+      <c r="BC11" s="153"/>
+      <c r="BD11" s="153"/>
+      <c r="BE11" s="153"/>
+      <c r="BF11" s="153"/>
+      <c r="BG11" s="153"/>
+      <c r="BH11" s="153"/>
+      <c r="BI11" s="153"/>
+      <c r="BJ11" s="153"/>
+      <c r="BK11" s="153"/>
+      <c r="BL11" s="153"/>
+      <c r="BM11" s="153"/>
+      <c r="BN11" s="153"/>
+      <c r="BO11" s="153"/>
+      <c r="BP11" s="153"/>
+      <c r="BQ11" s="153"/>
+      <c r="BR11" s="154"/>
     </row>
-    <row r="12" spans="1:70" ht="30" customHeight="1">
-      <c r="A12" s="193" t="s">
+    <row r="12" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="230" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="59"/>
@@ -6511,10 +6535,10 @@
       <c r="AJ12" s="61"/>
       <c r="AK12" s="62"/>
       <c r="AL12" s="63"/>
-      <c r="AM12" s="135"/>
+      <c r="AM12" s="132"/>
       <c r="AN12" s="40"/>
       <c r="AO12" s="41"/>
-      <c r="AP12" s="131"/>
+      <c r="AP12" s="128"/>
       <c r="AQ12" s="44"/>
       <c r="AR12" s="45"/>
       <c r="AS12" s="45"/>
@@ -6536,57 +6560,57 @@
       <c r="BI12" s="45"/>
       <c r="BJ12" s="42"/>
       <c r="BK12" s="43"/>
-      <c r="BL12" s="155"/>
+      <c r="BL12" s="179"/>
       <c r="BM12" s="42"/>
       <c r="BN12" s="42"/>
-      <c r="BO12" s="163"/>
-      <c r="BP12" s="155"/>
+      <c r="BO12" s="183"/>
+      <c r="BP12" s="179"/>
       <c r="BQ12" s="42"/>
-      <c r="BR12" s="153"/>
+      <c r="BR12" s="250"/>
     </row>
-    <row r="13" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="194"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="108"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="107"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="107"/>
-      <c r="N13" s="107"/>
-      <c r="O13" s="108"/>
-      <c r="P13" s="106"/>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="107"/>
-      <c r="S13" s="107"/>
-      <c r="T13" s="107"/>
-      <c r="U13" s="107"/>
-      <c r="V13" s="108"/>
-      <c r="W13" s="106"/>
-      <c r="X13" s="107"/>
-      <c r="Y13" s="107"/>
-      <c r="Z13" s="107"/>
-      <c r="AA13" s="107"/>
-      <c r="AB13" s="107"/>
-      <c r="AC13" s="108"/>
-      <c r="AD13" s="109"/>
-      <c r="AE13" s="107"/>
-      <c r="AF13" s="107"/>
-      <c r="AG13" s="107"/>
-      <c r="AH13" s="107"/>
-      <c r="AI13" s="107"/>
-      <c r="AJ13" s="108"/>
-      <c r="AK13" s="110"/>
-      <c r="AL13" s="111"/>
+    <row r="13" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="231"/>
+      <c r="B13" s="261"/>
+      <c r="C13" s="262"/>
+      <c r="D13" s="262"/>
+      <c r="E13" s="262"/>
+      <c r="F13" s="262"/>
+      <c r="G13" s="262"/>
+      <c r="H13" s="263"/>
+      <c r="I13" s="261"/>
+      <c r="J13" s="262"/>
+      <c r="K13" s="262"/>
+      <c r="L13" s="262"/>
+      <c r="M13" s="262"/>
+      <c r="N13" s="262"/>
+      <c r="O13" s="263"/>
+      <c r="P13" s="261"/>
+      <c r="Q13" s="262"/>
+      <c r="R13" s="262"/>
+      <c r="S13" s="262"/>
+      <c r="T13" s="262"/>
+      <c r="U13" s="262"/>
+      <c r="V13" s="263"/>
+      <c r="W13" s="261"/>
+      <c r="X13" s="262"/>
+      <c r="Y13" s="262"/>
+      <c r="Z13" s="262"/>
+      <c r="AA13" s="262"/>
+      <c r="AB13" s="262"/>
+      <c r="AC13" s="263"/>
+      <c r="AD13" s="264"/>
+      <c r="AE13" s="262"/>
+      <c r="AF13" s="262"/>
+      <c r="AG13" s="262"/>
+      <c r="AH13" s="262"/>
+      <c r="AI13" s="262"/>
+      <c r="AJ13" s="263"/>
+      <c r="AK13" s="265"/>
+      <c r="AL13" s="266"/>
       <c r="AM13" s="97"/>
       <c r="AN13" s="48"/>
       <c r="AO13" s="49"/>
-      <c r="AP13" s="132"/>
+      <c r="AP13" s="129"/>
       <c r="AQ13" s="52"/>
       <c r="AR13" s="50"/>
       <c r="AS13" s="50"/>
@@ -6608,88 +6632,88 @@
       <c r="BI13" s="50"/>
       <c r="BJ13" s="50"/>
       <c r="BK13" s="51"/>
-      <c r="BL13" s="156"/>
+      <c r="BL13" s="180"/>
       <c r="BM13" s="50"/>
       <c r="BN13" s="50"/>
-      <c r="BO13" s="164"/>
-      <c r="BP13" s="156"/>
+      <c r="BO13" s="184"/>
+      <c r="BP13" s="180"/>
       <c r="BQ13" s="50"/>
-      <c r="BR13" s="154"/>
+      <c r="BR13" s="251"/>
     </row>
-    <row r="14" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A14" s="194"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107"/>
-      <c r="D14" s="107"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="107"/>
-      <c r="G14" s="107"/>
-      <c r="H14" s="108"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="107"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="107"/>
-      <c r="N14" s="107"/>
-      <c r="O14" s="108"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="107"/>
-      <c r="R14" s="107"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="107"/>
-      <c r="U14" s="107"/>
-      <c r="V14" s="108"/>
-      <c r="W14" s="106"/>
-      <c r="X14" s="107"/>
-      <c r="Y14" s="107"/>
-      <c r="Z14" s="107"/>
-      <c r="AA14" s="107"/>
-      <c r="AB14" s="107"/>
-      <c r="AC14" s="108"/>
-      <c r="AD14" s="109"/>
-      <c r="AE14" s="107"/>
-      <c r="AF14" s="107"/>
-      <c r="AG14" s="107"/>
-      <c r="AH14" s="107"/>
-      <c r="AI14" s="107"/>
-      <c r="AJ14" s="108"/>
-      <c r="AK14" s="110"/>
-      <c r="AL14" s="111"/>
-      <c r="AM14" s="157"/>
-      <c r="AN14" s="158"/>
-      <c r="AO14" s="158"/>
-      <c r="AP14" s="158"/>
-      <c r="AQ14" s="158"/>
-      <c r="AR14" s="158"/>
-      <c r="AS14" s="158"/>
-      <c r="AT14" s="158"/>
-      <c r="AU14" s="158"/>
-      <c r="AV14" s="158"/>
-      <c r="AW14" s="158"/>
-      <c r="AX14" s="158"/>
-      <c r="AY14" s="158"/>
-      <c r="AZ14" s="158"/>
-      <c r="BA14" s="158"/>
-      <c r="BB14" s="158"/>
-      <c r="BC14" s="158"/>
-      <c r="BD14" s="158"/>
-      <c r="BE14" s="158"/>
-      <c r="BF14" s="158"/>
-      <c r="BG14" s="158"/>
-      <c r="BH14" s="158"/>
-      <c r="BI14" s="158"/>
-      <c r="BJ14" s="158"/>
-      <c r="BK14" s="158"/>
-      <c r="BL14" s="158"/>
-      <c r="BM14" s="158"/>
-      <c r="BN14" s="158"/>
-      <c r="BO14" s="158"/>
-      <c r="BP14" s="158"/>
-      <c r="BQ14" s="158"/>
-      <c r="BR14" s="159"/>
+    <row r="14" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="231"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="104"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="104"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="104"/>
+      <c r="M14" s="104"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="105"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="104"/>
+      <c r="U14" s="104"/>
+      <c r="V14" s="105"/>
+      <c r="W14" s="103"/>
+      <c r="X14" s="104"/>
+      <c r="Y14" s="104"/>
+      <c r="Z14" s="104"/>
+      <c r="AA14" s="104"/>
+      <c r="AB14" s="104"/>
+      <c r="AC14" s="105"/>
+      <c r="AD14" s="106"/>
+      <c r="AE14" s="104"/>
+      <c r="AF14" s="104"/>
+      <c r="AG14" s="104"/>
+      <c r="AH14" s="104"/>
+      <c r="AI14" s="104"/>
+      <c r="AJ14" s="105"/>
+      <c r="AK14" s="107"/>
+      <c r="AL14" s="108"/>
+      <c r="AM14" s="149"/>
+      <c r="AN14" s="150"/>
+      <c r="AO14" s="150"/>
+      <c r="AP14" s="150"/>
+      <c r="AQ14" s="150"/>
+      <c r="AR14" s="150"/>
+      <c r="AS14" s="150"/>
+      <c r="AT14" s="150"/>
+      <c r="AU14" s="150"/>
+      <c r="AV14" s="150"/>
+      <c r="AW14" s="150"/>
+      <c r="AX14" s="150"/>
+      <c r="AY14" s="150"/>
+      <c r="AZ14" s="150"/>
+      <c r="BA14" s="150"/>
+      <c r="BB14" s="150"/>
+      <c r="BC14" s="150"/>
+      <c r="BD14" s="150"/>
+      <c r="BE14" s="150"/>
+      <c r="BF14" s="150"/>
+      <c r="BG14" s="150"/>
+      <c r="BH14" s="150"/>
+      <c r="BI14" s="150"/>
+      <c r="BJ14" s="150"/>
+      <c r="BK14" s="150"/>
+      <c r="BL14" s="150"/>
+      <c r="BM14" s="150"/>
+      <c r="BN14" s="150"/>
+      <c r="BO14" s="150"/>
+      <c r="BP14" s="150"/>
+      <c r="BQ14" s="150"/>
+      <c r="BR14" s="151"/>
     </row>
-    <row r="15" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A15" s="194"/>
+    <row r="15" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="231"/>
       <c r="B15" s="79"/>
       <c r="C15" s="80"/>
       <c r="D15" s="80"/>
@@ -6727,41 +6751,41 @@
       <c r="AJ15" s="81"/>
       <c r="AK15" s="83"/>
       <c r="AL15" s="84"/>
-      <c r="AM15" s="160"/>
-      <c r="AN15" s="161"/>
-      <c r="AO15" s="161"/>
-      <c r="AP15" s="161"/>
-      <c r="AQ15" s="161"/>
-      <c r="AR15" s="161"/>
-      <c r="AS15" s="161"/>
-      <c r="AT15" s="161"/>
-      <c r="AU15" s="161"/>
-      <c r="AV15" s="161"/>
-      <c r="AW15" s="161"/>
-      <c r="AX15" s="161"/>
-      <c r="AY15" s="161"/>
-      <c r="AZ15" s="161"/>
-      <c r="BA15" s="161"/>
-      <c r="BB15" s="161"/>
-      <c r="BC15" s="161"/>
-      <c r="BD15" s="161"/>
-      <c r="BE15" s="161"/>
-      <c r="BF15" s="161"/>
-      <c r="BG15" s="161"/>
-      <c r="BH15" s="161"/>
-      <c r="BI15" s="161"/>
-      <c r="BJ15" s="161"/>
-      <c r="BK15" s="161"/>
-      <c r="BL15" s="161"/>
-      <c r="BM15" s="161"/>
-      <c r="BN15" s="161"/>
-      <c r="BO15" s="161"/>
-      <c r="BP15" s="161"/>
-      <c r="BQ15" s="161"/>
-      <c r="BR15" s="162"/>
+      <c r="AM15" s="152"/>
+      <c r="AN15" s="153"/>
+      <c r="AO15" s="153"/>
+      <c r="AP15" s="153"/>
+      <c r="AQ15" s="153"/>
+      <c r="AR15" s="153"/>
+      <c r="AS15" s="153"/>
+      <c r="AT15" s="153"/>
+      <c r="AU15" s="153"/>
+      <c r="AV15" s="153"/>
+      <c r="AW15" s="153"/>
+      <c r="AX15" s="153"/>
+      <c r="AY15" s="153"/>
+      <c r="AZ15" s="153"/>
+      <c r="BA15" s="153"/>
+      <c r="BB15" s="153"/>
+      <c r="BC15" s="153"/>
+      <c r="BD15" s="153"/>
+      <c r="BE15" s="153"/>
+      <c r="BF15" s="153"/>
+      <c r="BG15" s="153"/>
+      <c r="BH15" s="153"/>
+      <c r="BI15" s="153"/>
+      <c r="BJ15" s="153"/>
+      <c r="BK15" s="153"/>
+      <c r="BL15" s="153"/>
+      <c r="BM15" s="153"/>
+      <c r="BN15" s="153"/>
+      <c r="BO15" s="153"/>
+      <c r="BP15" s="153"/>
+      <c r="BQ15" s="153"/>
+      <c r="BR15" s="154"/>
     </row>
-    <row r="16" spans="1:70" ht="30" customHeight="1">
-      <c r="A16" s="193" t="s">
+    <row r="16" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="230" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="62"/>
@@ -6801,10 +6825,10 @@
       <c r="AJ16" s="61"/>
       <c r="AK16" s="62"/>
       <c r="AL16" s="63"/>
-      <c r="AM16" s="135"/>
+      <c r="AM16" s="132"/>
       <c r="AN16" s="40"/>
       <c r="AO16" s="41"/>
-      <c r="AP16" s="131"/>
+      <c r="AP16" s="128"/>
       <c r="AQ16" s="44"/>
       <c r="AR16" s="45"/>
       <c r="AS16" s="45"/>
@@ -6826,57 +6850,57 @@
       <c r="BI16" s="45"/>
       <c r="BJ16" s="42"/>
       <c r="BK16" s="43"/>
-      <c r="BL16" s="155"/>
+      <c r="BL16" s="179"/>
       <c r="BM16" s="42"/>
       <c r="BN16" s="42"/>
-      <c r="BO16" s="163"/>
-      <c r="BP16" s="155"/>
+      <c r="BO16" s="183"/>
+      <c r="BP16" s="179"/>
       <c r="BQ16" s="42"/>
-      <c r="BR16" s="153"/>
+      <c r="BR16" s="250"/>
     </row>
-    <row r="17" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A17" s="194"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="108"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="107"/>
-      <c r="N17" s="107"/>
-      <c r="O17" s="108"/>
-      <c r="P17" s="106"/>
-      <c r="Q17" s="107"/>
-      <c r="R17" s="107"/>
-      <c r="S17" s="107"/>
-      <c r="T17" s="107"/>
-      <c r="U17" s="107"/>
-      <c r="V17" s="108"/>
-      <c r="W17" s="106"/>
-      <c r="X17" s="107"/>
-      <c r="Y17" s="107"/>
-      <c r="Z17" s="107"/>
-      <c r="AA17" s="107"/>
-      <c r="AB17" s="107"/>
-      <c r="AC17" s="108"/>
-      <c r="AD17" s="106"/>
-      <c r="AE17" s="107"/>
-      <c r="AF17" s="107"/>
-      <c r="AG17" s="107"/>
-      <c r="AH17" s="107"/>
-      <c r="AI17" s="107"/>
-      <c r="AJ17" s="108"/>
-      <c r="AK17" s="110"/>
-      <c r="AL17" s="111"/>
+    <row r="17" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="231"/>
+      <c r="B17" s="261"/>
+      <c r="C17" s="262"/>
+      <c r="D17" s="262"/>
+      <c r="E17" s="262"/>
+      <c r="F17" s="262"/>
+      <c r="G17" s="262"/>
+      <c r="H17" s="263"/>
+      <c r="I17" s="261"/>
+      <c r="J17" s="262"/>
+      <c r="K17" s="262"/>
+      <c r="L17" s="262"/>
+      <c r="M17" s="262"/>
+      <c r="N17" s="262"/>
+      <c r="O17" s="263"/>
+      <c r="P17" s="261"/>
+      <c r="Q17" s="262"/>
+      <c r="R17" s="262"/>
+      <c r="S17" s="262"/>
+      <c r="T17" s="262"/>
+      <c r="U17" s="262"/>
+      <c r="V17" s="263"/>
+      <c r="W17" s="261"/>
+      <c r="X17" s="262"/>
+      <c r="Y17" s="262"/>
+      <c r="Z17" s="262"/>
+      <c r="AA17" s="262"/>
+      <c r="AB17" s="262"/>
+      <c r="AC17" s="263"/>
+      <c r="AD17" s="261"/>
+      <c r="AE17" s="262"/>
+      <c r="AF17" s="262"/>
+      <c r="AG17" s="262"/>
+      <c r="AH17" s="262"/>
+      <c r="AI17" s="262"/>
+      <c r="AJ17" s="263"/>
+      <c r="AK17" s="265"/>
+      <c r="AL17" s="266"/>
       <c r="AM17" s="97"/>
       <c r="AN17" s="48"/>
       <c r="AO17" s="49"/>
-      <c r="AP17" s="132"/>
+      <c r="AP17" s="129"/>
       <c r="AQ17" s="52"/>
       <c r="AR17" s="50"/>
       <c r="AS17" s="50"/>
@@ -6898,88 +6922,88 @@
       <c r="BI17" s="50"/>
       <c r="BJ17" s="50"/>
       <c r="BK17" s="51"/>
-      <c r="BL17" s="156"/>
+      <c r="BL17" s="180"/>
       <c r="BM17" s="50"/>
       <c r="BN17" s="50"/>
-      <c r="BO17" s="164"/>
-      <c r="BP17" s="156"/>
+      <c r="BO17" s="184"/>
+      <c r="BP17" s="180"/>
       <c r="BQ17" s="50"/>
-      <c r="BR17" s="154"/>
+      <c r="BR17" s="251"/>
     </row>
-    <row r="18" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A18" s="194"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="107"/>
-      <c r="D18" s="107"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="107"/>
-      <c r="G18" s="107"/>
-      <c r="H18" s="108"/>
-      <c r="I18" s="106"/>
-      <c r="J18" s="107"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="107"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="108"/>
-      <c r="P18" s="106"/>
-      <c r="Q18" s="107"/>
-      <c r="R18" s="107"/>
-      <c r="S18" s="107"/>
-      <c r="T18" s="107"/>
-      <c r="U18" s="107"/>
-      <c r="V18" s="108"/>
-      <c r="W18" s="106"/>
-      <c r="X18" s="107"/>
-      <c r="Y18" s="107"/>
-      <c r="Z18" s="107"/>
-      <c r="AA18" s="107"/>
-      <c r="AB18" s="107"/>
-      <c r="AC18" s="108"/>
-      <c r="AD18" s="106"/>
-      <c r="AE18" s="107"/>
-      <c r="AF18" s="107"/>
-      <c r="AG18" s="107"/>
-      <c r="AH18" s="107"/>
-      <c r="AI18" s="107"/>
-      <c r="AJ18" s="108"/>
-      <c r="AK18" s="110"/>
-      <c r="AL18" s="111"/>
-      <c r="AM18" s="157"/>
-      <c r="AN18" s="158"/>
-      <c r="AO18" s="158"/>
-      <c r="AP18" s="158"/>
-      <c r="AQ18" s="158"/>
-      <c r="AR18" s="158"/>
-      <c r="AS18" s="158"/>
-      <c r="AT18" s="158"/>
-      <c r="AU18" s="158"/>
-      <c r="AV18" s="158"/>
-      <c r="AW18" s="158"/>
-      <c r="AX18" s="158"/>
-      <c r="AY18" s="158"/>
-      <c r="AZ18" s="158"/>
-      <c r="BA18" s="158"/>
-      <c r="BB18" s="158"/>
-      <c r="BC18" s="158"/>
-      <c r="BD18" s="158"/>
-      <c r="BE18" s="158"/>
-      <c r="BF18" s="158"/>
-      <c r="BG18" s="158"/>
-      <c r="BH18" s="158"/>
-      <c r="BI18" s="158"/>
-      <c r="BJ18" s="158"/>
-      <c r="BK18" s="158"/>
-      <c r="BL18" s="158"/>
-      <c r="BM18" s="158"/>
-      <c r="BN18" s="158"/>
-      <c r="BO18" s="158"/>
-      <c r="BP18" s="158"/>
-      <c r="BQ18" s="158"/>
-      <c r="BR18" s="159"/>
+    <row r="18" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="231"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="104"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="103"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="104"/>
+      <c r="M18" s="104"/>
+      <c r="N18" s="104"/>
+      <c r="O18" s="105"/>
+      <c r="P18" s="103"/>
+      <c r="Q18" s="104"/>
+      <c r="R18" s="104"/>
+      <c r="S18" s="104"/>
+      <c r="T18" s="104"/>
+      <c r="U18" s="104"/>
+      <c r="V18" s="105"/>
+      <c r="W18" s="103"/>
+      <c r="X18" s="104"/>
+      <c r="Y18" s="104"/>
+      <c r="Z18" s="104"/>
+      <c r="AA18" s="104"/>
+      <c r="AB18" s="104"/>
+      <c r="AC18" s="105"/>
+      <c r="AD18" s="103"/>
+      <c r="AE18" s="104"/>
+      <c r="AF18" s="104"/>
+      <c r="AG18" s="104"/>
+      <c r="AH18" s="104"/>
+      <c r="AI18" s="104"/>
+      <c r="AJ18" s="105"/>
+      <c r="AK18" s="107"/>
+      <c r="AL18" s="108"/>
+      <c r="AM18" s="149"/>
+      <c r="AN18" s="150"/>
+      <c r="AO18" s="150"/>
+      <c r="AP18" s="150"/>
+      <c r="AQ18" s="150"/>
+      <c r="AR18" s="150"/>
+      <c r="AS18" s="150"/>
+      <c r="AT18" s="150"/>
+      <c r="AU18" s="150"/>
+      <c r="AV18" s="150"/>
+      <c r="AW18" s="150"/>
+      <c r="AX18" s="150"/>
+      <c r="AY18" s="150"/>
+      <c r="AZ18" s="150"/>
+      <c r="BA18" s="150"/>
+      <c r="BB18" s="150"/>
+      <c r="BC18" s="150"/>
+      <c r="BD18" s="150"/>
+      <c r="BE18" s="150"/>
+      <c r="BF18" s="150"/>
+      <c r="BG18" s="150"/>
+      <c r="BH18" s="150"/>
+      <c r="BI18" s="150"/>
+      <c r="BJ18" s="150"/>
+      <c r="BK18" s="150"/>
+      <c r="BL18" s="150"/>
+      <c r="BM18" s="150"/>
+      <c r="BN18" s="150"/>
+      <c r="BO18" s="150"/>
+      <c r="BP18" s="150"/>
+      <c r="BQ18" s="150"/>
+      <c r="BR18" s="151"/>
     </row>
-    <row r="19" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A19" s="195"/>
+    <row r="19" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="232"/>
       <c r="B19" s="85"/>
       <c r="C19" s="86"/>
       <c r="D19" s="86"/>
@@ -7017,41 +7041,41 @@
       <c r="AJ19" s="87"/>
       <c r="AK19" s="88"/>
       <c r="AL19" s="89"/>
-      <c r="AM19" s="160"/>
-      <c r="AN19" s="161"/>
-      <c r="AO19" s="161"/>
-      <c r="AP19" s="161"/>
-      <c r="AQ19" s="161"/>
-      <c r="AR19" s="161"/>
-      <c r="AS19" s="161"/>
-      <c r="AT19" s="161"/>
-      <c r="AU19" s="161"/>
-      <c r="AV19" s="161"/>
-      <c r="AW19" s="161"/>
-      <c r="AX19" s="161"/>
-      <c r="AY19" s="161"/>
-      <c r="AZ19" s="161"/>
-      <c r="BA19" s="161"/>
-      <c r="BB19" s="161"/>
-      <c r="BC19" s="161"/>
-      <c r="BD19" s="161"/>
-      <c r="BE19" s="161"/>
-      <c r="BF19" s="161"/>
-      <c r="BG19" s="161"/>
-      <c r="BH19" s="161"/>
-      <c r="BI19" s="161"/>
-      <c r="BJ19" s="161"/>
-      <c r="BK19" s="161"/>
-      <c r="BL19" s="161"/>
-      <c r="BM19" s="161"/>
-      <c r="BN19" s="161"/>
-      <c r="BO19" s="161"/>
-      <c r="BP19" s="161"/>
-      <c r="BQ19" s="161"/>
-      <c r="BR19" s="162"/>
+      <c r="AM19" s="152"/>
+      <c r="AN19" s="153"/>
+      <c r="AO19" s="153"/>
+      <c r="AP19" s="153"/>
+      <c r="AQ19" s="153"/>
+      <c r="AR19" s="153"/>
+      <c r="AS19" s="153"/>
+      <c r="AT19" s="153"/>
+      <c r="AU19" s="153"/>
+      <c r="AV19" s="153"/>
+      <c r="AW19" s="153"/>
+      <c r="AX19" s="153"/>
+      <c r="AY19" s="153"/>
+      <c r="AZ19" s="153"/>
+      <c r="BA19" s="153"/>
+      <c r="BB19" s="153"/>
+      <c r="BC19" s="153"/>
+      <c r="BD19" s="153"/>
+      <c r="BE19" s="153"/>
+      <c r="BF19" s="153"/>
+      <c r="BG19" s="153"/>
+      <c r="BH19" s="153"/>
+      <c r="BI19" s="153"/>
+      <c r="BJ19" s="153"/>
+      <c r="BK19" s="153"/>
+      <c r="BL19" s="153"/>
+      <c r="BM19" s="153"/>
+      <c r="BN19" s="153"/>
+      <c r="BO19" s="153"/>
+      <c r="BP19" s="153"/>
+      <c r="BQ19" s="153"/>
+      <c r="BR19" s="154"/>
     </row>
-    <row r="20" spans="1:70" ht="30" customHeight="1">
-      <c r="A20" s="194" t="s">
+    <row r="20" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="231" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="57"/>
@@ -7091,10 +7115,10 @@
       <c r="AJ20" s="56"/>
       <c r="AK20" s="57"/>
       <c r="AL20" s="58"/>
-      <c r="AM20" s="135"/>
+      <c r="AM20" s="132"/>
       <c r="AN20" s="40"/>
       <c r="AO20" s="41"/>
-      <c r="AP20" s="131"/>
+      <c r="AP20" s="128"/>
       <c r="AQ20" s="44"/>
       <c r="AR20" s="45"/>
       <c r="AS20" s="45"/>
@@ -7116,57 +7140,57 @@
       <c r="BI20" s="45"/>
       <c r="BJ20" s="42"/>
       <c r="BK20" s="43"/>
-      <c r="BL20" s="155"/>
+      <c r="BL20" s="179"/>
       <c r="BM20" s="42"/>
       <c r="BN20" s="42"/>
-      <c r="BO20" s="163"/>
+      <c r="BO20" s="183"/>
       <c r="BP20" s="44"/>
       <c r="BQ20" s="42"/>
-      <c r="BR20" s="153"/>
+      <c r="BR20" s="250"/>
     </row>
-    <row r="21" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A21" s="194"/>
-      <c r="B21" s="110"/>
-      <c r="C21" s="107"/>
-      <c r="D21" s="107"/>
-      <c r="E21" s="107"/>
-      <c r="F21" s="107"/>
-      <c r="G21" s="107"/>
-      <c r="H21" s="108"/>
-      <c r="I21" s="106"/>
-      <c r="J21" s="107"/>
-      <c r="K21" s="107"/>
-      <c r="L21" s="107"/>
-      <c r="M21" s="107"/>
-      <c r="N21" s="107"/>
-      <c r="O21" s="108"/>
-      <c r="P21" s="106"/>
-      <c r="Q21" s="107"/>
-      <c r="R21" s="107"/>
-      <c r="S21" s="107"/>
-      <c r="T21" s="107"/>
-      <c r="U21" s="107"/>
-      <c r="V21" s="108"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="107"/>
-      <c r="Y21" s="107"/>
-      <c r="Z21" s="107"/>
-      <c r="AA21" s="107"/>
-      <c r="AB21" s="107"/>
-      <c r="AC21" s="108"/>
-      <c r="AD21" s="106"/>
-      <c r="AE21" s="107"/>
-      <c r="AF21" s="107"/>
-      <c r="AG21" s="107"/>
-      <c r="AH21" s="107"/>
-      <c r="AI21" s="107"/>
-      <c r="AJ21" s="108"/>
-      <c r="AK21" s="110"/>
-      <c r="AL21" s="111"/>
+    <row r="21" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="231"/>
+      <c r="B21" s="265"/>
+      <c r="C21" s="262"/>
+      <c r="D21" s="262"/>
+      <c r="E21" s="262"/>
+      <c r="F21" s="262"/>
+      <c r="G21" s="262"/>
+      <c r="H21" s="263"/>
+      <c r="I21" s="261"/>
+      <c r="J21" s="262"/>
+      <c r="K21" s="262"/>
+      <c r="L21" s="262"/>
+      <c r="M21" s="262"/>
+      <c r="N21" s="262"/>
+      <c r="O21" s="263"/>
+      <c r="P21" s="261"/>
+      <c r="Q21" s="262"/>
+      <c r="R21" s="262"/>
+      <c r="S21" s="262"/>
+      <c r="T21" s="262"/>
+      <c r="U21" s="262"/>
+      <c r="V21" s="263"/>
+      <c r="W21" s="261"/>
+      <c r="X21" s="262"/>
+      <c r="Y21" s="262"/>
+      <c r="Z21" s="262"/>
+      <c r="AA21" s="262"/>
+      <c r="AB21" s="262"/>
+      <c r="AC21" s="263"/>
+      <c r="AD21" s="261"/>
+      <c r="AE21" s="262"/>
+      <c r="AF21" s="262"/>
+      <c r="AG21" s="262"/>
+      <c r="AH21" s="262"/>
+      <c r="AI21" s="262"/>
+      <c r="AJ21" s="263"/>
+      <c r="AK21" s="265"/>
+      <c r="AL21" s="266"/>
       <c r="AM21" s="98"/>
       <c r="AN21" s="46"/>
       <c r="AO21" s="47"/>
-      <c r="AP21" s="133"/>
+      <c r="AP21" s="130"/>
       <c r="AQ21" s="52"/>
       <c r="AR21" s="50"/>
       <c r="AS21" s="50"/>
@@ -7188,88 +7212,88 @@
       <c r="BI21" s="50"/>
       <c r="BJ21" s="50"/>
       <c r="BK21" s="51"/>
-      <c r="BL21" s="156"/>
+      <c r="BL21" s="180"/>
       <c r="BM21" s="50"/>
       <c r="BN21" s="50"/>
-      <c r="BO21" s="164"/>
+      <c r="BO21" s="184"/>
       <c r="BP21" s="52"/>
       <c r="BQ21" s="50"/>
-      <c r="BR21" s="154"/>
+      <c r="BR21" s="251"/>
     </row>
-    <row r="22" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A22" s="194"/>
-      <c r="B22" s="106"/>
-      <c r="C22" s="107"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="107"/>
-      <c r="G22" s="107"/>
-      <c r="H22" s="108"/>
-      <c r="I22" s="106"/>
-      <c r="J22" s="107"/>
-      <c r="K22" s="107"/>
-      <c r="L22" s="107"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="108"/>
-      <c r="P22" s="106"/>
-      <c r="Q22" s="107"/>
-      <c r="R22" s="107"/>
-      <c r="S22" s="107"/>
-      <c r="T22" s="107"/>
-      <c r="U22" s="107"/>
-      <c r="V22" s="108"/>
-      <c r="W22" s="106"/>
-      <c r="X22" s="107"/>
-      <c r="Y22" s="107"/>
-      <c r="Z22" s="107"/>
-      <c r="AA22" s="107"/>
-      <c r="AB22" s="107"/>
-      <c r="AC22" s="108"/>
-      <c r="AD22" s="106"/>
-      <c r="AE22" s="107"/>
-      <c r="AF22" s="107"/>
-      <c r="AG22" s="107"/>
-      <c r="AH22" s="107"/>
-      <c r="AI22" s="107"/>
-      <c r="AJ22" s="108"/>
-      <c r="AK22" s="110"/>
-      <c r="AL22" s="111"/>
-      <c r="AM22" s="157"/>
-      <c r="AN22" s="158"/>
-      <c r="AO22" s="158"/>
-      <c r="AP22" s="158"/>
-      <c r="AQ22" s="158"/>
-      <c r="AR22" s="158"/>
-      <c r="AS22" s="158"/>
-      <c r="AT22" s="158"/>
-      <c r="AU22" s="158"/>
-      <c r="AV22" s="158"/>
-      <c r="AW22" s="158"/>
-      <c r="AX22" s="158"/>
-      <c r="AY22" s="158"/>
-      <c r="AZ22" s="158"/>
-      <c r="BA22" s="158"/>
-      <c r="BB22" s="158"/>
-      <c r="BC22" s="158"/>
-      <c r="BD22" s="158"/>
-      <c r="BE22" s="158"/>
-      <c r="BF22" s="158"/>
-      <c r="BG22" s="158"/>
-      <c r="BH22" s="158"/>
-      <c r="BI22" s="158"/>
-      <c r="BJ22" s="158"/>
-      <c r="BK22" s="158"/>
-      <c r="BL22" s="158"/>
-      <c r="BM22" s="158"/>
-      <c r="BN22" s="158"/>
-      <c r="BO22" s="158"/>
-      <c r="BP22" s="158"/>
-      <c r="BQ22" s="158"/>
-      <c r="BR22" s="159"/>
+    <row r="22" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="231"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="104"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="103"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="105"/>
+      <c r="P22" s="103"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="104"/>
+      <c r="T22" s="104"/>
+      <c r="U22" s="104"/>
+      <c r="V22" s="105"/>
+      <c r="W22" s="103"/>
+      <c r="X22" s="104"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="104"/>
+      <c r="AA22" s="104"/>
+      <c r="AB22" s="104"/>
+      <c r="AC22" s="105"/>
+      <c r="AD22" s="103"/>
+      <c r="AE22" s="104"/>
+      <c r="AF22" s="104"/>
+      <c r="AG22" s="104"/>
+      <c r="AH22" s="104"/>
+      <c r="AI22" s="104"/>
+      <c r="AJ22" s="105"/>
+      <c r="AK22" s="107"/>
+      <c r="AL22" s="108"/>
+      <c r="AM22" s="149"/>
+      <c r="AN22" s="150"/>
+      <c r="AO22" s="150"/>
+      <c r="AP22" s="150"/>
+      <c r="AQ22" s="150"/>
+      <c r="AR22" s="150"/>
+      <c r="AS22" s="150"/>
+      <c r="AT22" s="150"/>
+      <c r="AU22" s="150"/>
+      <c r="AV22" s="150"/>
+      <c r="AW22" s="150"/>
+      <c r="AX22" s="150"/>
+      <c r="AY22" s="150"/>
+      <c r="AZ22" s="150"/>
+      <c r="BA22" s="150"/>
+      <c r="BB22" s="150"/>
+      <c r="BC22" s="150"/>
+      <c r="BD22" s="150"/>
+      <c r="BE22" s="150"/>
+      <c r="BF22" s="150"/>
+      <c r="BG22" s="150"/>
+      <c r="BH22" s="150"/>
+      <c r="BI22" s="150"/>
+      <c r="BJ22" s="150"/>
+      <c r="BK22" s="150"/>
+      <c r="BL22" s="150"/>
+      <c r="BM22" s="150"/>
+      <c r="BN22" s="150"/>
+      <c r="BO22" s="150"/>
+      <c r="BP22" s="150"/>
+      <c r="BQ22" s="150"/>
+      <c r="BR22" s="151"/>
     </row>
-    <row r="23" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A23" s="195"/>
+    <row r="23" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="232"/>
       <c r="B23" s="83"/>
       <c r="C23" s="80"/>
       <c r="D23" s="80"/>
@@ -7307,41 +7331,41 @@
       <c r="AJ23" s="81"/>
       <c r="AK23" s="83"/>
       <c r="AL23" s="84"/>
-      <c r="AM23" s="160"/>
-      <c r="AN23" s="161"/>
-      <c r="AO23" s="161"/>
-      <c r="AP23" s="161"/>
-      <c r="AQ23" s="161"/>
-      <c r="AR23" s="161"/>
-      <c r="AS23" s="161"/>
-      <c r="AT23" s="161"/>
-      <c r="AU23" s="161"/>
-      <c r="AV23" s="161"/>
-      <c r="AW23" s="161"/>
-      <c r="AX23" s="161"/>
-      <c r="AY23" s="161"/>
-      <c r="AZ23" s="161"/>
-      <c r="BA23" s="161"/>
-      <c r="BB23" s="161"/>
-      <c r="BC23" s="161"/>
-      <c r="BD23" s="161"/>
-      <c r="BE23" s="161"/>
-      <c r="BF23" s="161"/>
-      <c r="BG23" s="161"/>
-      <c r="BH23" s="161"/>
-      <c r="BI23" s="161"/>
-      <c r="BJ23" s="161"/>
-      <c r="BK23" s="161"/>
-      <c r="BL23" s="161"/>
-      <c r="BM23" s="161"/>
-      <c r="BN23" s="161"/>
-      <c r="BO23" s="161"/>
-      <c r="BP23" s="161"/>
-      <c r="BQ23" s="161"/>
-      <c r="BR23" s="162"/>
+      <c r="AM23" s="152"/>
+      <c r="AN23" s="153"/>
+      <c r="AO23" s="153"/>
+      <c r="AP23" s="153"/>
+      <c r="AQ23" s="153"/>
+      <c r="AR23" s="153"/>
+      <c r="AS23" s="153"/>
+      <c r="AT23" s="153"/>
+      <c r="AU23" s="153"/>
+      <c r="AV23" s="153"/>
+      <c r="AW23" s="153"/>
+      <c r="AX23" s="153"/>
+      <c r="AY23" s="153"/>
+      <c r="AZ23" s="153"/>
+      <c r="BA23" s="153"/>
+      <c r="BB23" s="153"/>
+      <c r="BC23" s="153"/>
+      <c r="BD23" s="153"/>
+      <c r="BE23" s="153"/>
+      <c r="BF23" s="153"/>
+      <c r="BG23" s="153"/>
+      <c r="BH23" s="153"/>
+      <c r="BI23" s="153"/>
+      <c r="BJ23" s="153"/>
+      <c r="BK23" s="153"/>
+      <c r="BL23" s="153"/>
+      <c r="BM23" s="153"/>
+      <c r="BN23" s="153"/>
+      <c r="BO23" s="153"/>
+      <c r="BP23" s="153"/>
+      <c r="BQ23" s="153"/>
+      <c r="BR23" s="154"/>
     </row>
-    <row r="24" spans="1:70" ht="30" customHeight="1">
-      <c r="A24" s="193" t="s">
+    <row r="24" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="230" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="62"/>
@@ -7381,10 +7405,10 @@
       <c r="AJ24" s="61"/>
       <c r="AK24" s="62"/>
       <c r="AL24" s="63"/>
-      <c r="AM24" s="135"/>
+      <c r="AM24" s="132"/>
       <c r="AN24" s="40"/>
       <c r="AO24" s="41"/>
-      <c r="AP24" s="131"/>
+      <c r="AP24" s="128"/>
       <c r="AQ24" s="44"/>
       <c r="AR24" s="45"/>
       <c r="AS24" s="45"/>
@@ -7406,57 +7430,57 @@
       <c r="BI24" s="45"/>
       <c r="BJ24" s="42"/>
       <c r="BK24" s="43"/>
-      <c r="BL24" s="155"/>
+      <c r="BL24" s="179"/>
       <c r="BM24" s="42"/>
       <c r="BN24" s="42"/>
-      <c r="BO24" s="163"/>
+      <c r="BO24" s="183"/>
       <c r="BP24" s="44"/>
       <c r="BQ24" s="42"/>
-      <c r="BR24" s="153"/>
+      <c r="BR24" s="250"/>
     </row>
-    <row r="25" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A25" s="194"/>
-      <c r="B25" s="110"/>
-      <c r="C25" s="107"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="107"/>
-      <c r="G25" s="107"/>
-      <c r="H25" s="108"/>
-      <c r="I25" s="106"/>
-      <c r="J25" s="107"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="108"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="107"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="107"/>
-      <c r="U25" s="107"/>
-      <c r="V25" s="108"/>
-      <c r="W25" s="106"/>
-      <c r="X25" s="107"/>
-      <c r="Y25" s="107"/>
-      <c r="Z25" s="107"/>
-      <c r="AA25" s="107"/>
-      <c r="AB25" s="107"/>
-      <c r="AC25" s="108"/>
-      <c r="AD25" s="106"/>
-      <c r="AE25" s="107"/>
-      <c r="AF25" s="107"/>
-      <c r="AG25" s="107"/>
-      <c r="AH25" s="107"/>
-      <c r="AI25" s="107"/>
-      <c r="AJ25" s="108"/>
-      <c r="AK25" s="110"/>
-      <c r="AL25" s="111"/>
+    <row r="25" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="231"/>
+      <c r="B25" s="265"/>
+      <c r="C25" s="262"/>
+      <c r="D25" s="262"/>
+      <c r="E25" s="262"/>
+      <c r="F25" s="262"/>
+      <c r="G25" s="262"/>
+      <c r="H25" s="263"/>
+      <c r="I25" s="261"/>
+      <c r="J25" s="262"/>
+      <c r="K25" s="262"/>
+      <c r="L25" s="262"/>
+      <c r="M25" s="262"/>
+      <c r="N25" s="262"/>
+      <c r="O25" s="263"/>
+      <c r="P25" s="261"/>
+      <c r="Q25" s="262"/>
+      <c r="R25" s="262"/>
+      <c r="S25" s="262"/>
+      <c r="T25" s="262"/>
+      <c r="U25" s="262"/>
+      <c r="V25" s="263"/>
+      <c r="W25" s="261"/>
+      <c r="X25" s="262"/>
+      <c r="Y25" s="262"/>
+      <c r="Z25" s="262"/>
+      <c r="AA25" s="262"/>
+      <c r="AB25" s="262"/>
+      <c r="AC25" s="263"/>
+      <c r="AD25" s="261"/>
+      <c r="AE25" s="262"/>
+      <c r="AF25" s="262"/>
+      <c r="AG25" s="262"/>
+      <c r="AH25" s="262"/>
+      <c r="AI25" s="262"/>
+      <c r="AJ25" s="263"/>
+      <c r="AK25" s="265"/>
+      <c r="AL25" s="266"/>
       <c r="AM25" s="99"/>
       <c r="AN25" s="48"/>
       <c r="AO25" s="49"/>
-      <c r="AP25" s="132"/>
+      <c r="AP25" s="129"/>
       <c r="AQ25" s="52"/>
       <c r="AR25" s="50"/>
       <c r="AS25" s="50"/>
@@ -7478,88 +7502,88 @@
       <c r="BI25" s="50"/>
       <c r="BJ25" s="50"/>
       <c r="BK25" s="51"/>
-      <c r="BL25" s="156"/>
+      <c r="BL25" s="180"/>
       <c r="BM25" s="50"/>
       <c r="BN25" s="50"/>
-      <c r="BO25" s="164"/>
+      <c r="BO25" s="184"/>
       <c r="BP25" s="52"/>
       <c r="BQ25" s="50"/>
-      <c r="BR25" s="154"/>
+      <c r="BR25" s="251"/>
     </row>
-    <row r="26" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A26" s="194"/>
-      <c r="B26" s="106"/>
-      <c r="C26" s="107"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="108"/>
-      <c r="I26" s="106"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-      <c r="N26" s="107"/>
-      <c r="O26" s="108"/>
-      <c r="P26" s="106"/>
-      <c r="Q26" s="107"/>
-      <c r="R26" s="107"/>
-      <c r="S26" s="107"/>
-      <c r="T26" s="107"/>
-      <c r="U26" s="107"/>
-      <c r="V26" s="108"/>
-      <c r="W26" s="106"/>
-      <c r="X26" s="107"/>
-      <c r="Y26" s="107"/>
-      <c r="Z26" s="107"/>
-      <c r="AA26" s="107"/>
-      <c r="AB26" s="107"/>
-      <c r="AC26" s="108"/>
-      <c r="AD26" s="106"/>
-      <c r="AE26" s="107"/>
-      <c r="AF26" s="107"/>
-      <c r="AG26" s="107"/>
-      <c r="AH26" s="107"/>
-      <c r="AI26" s="107"/>
-      <c r="AJ26" s="108"/>
-      <c r="AK26" s="110"/>
-      <c r="AL26" s="111"/>
-      <c r="AM26" s="157"/>
-      <c r="AN26" s="158"/>
-      <c r="AO26" s="158"/>
-      <c r="AP26" s="158"/>
-      <c r="AQ26" s="158"/>
-      <c r="AR26" s="158"/>
-      <c r="AS26" s="158"/>
-      <c r="AT26" s="158"/>
-      <c r="AU26" s="158"/>
-      <c r="AV26" s="158"/>
-      <c r="AW26" s="158"/>
-      <c r="AX26" s="158"/>
-      <c r="AY26" s="158"/>
-      <c r="AZ26" s="158"/>
-      <c r="BA26" s="158"/>
-      <c r="BB26" s="158"/>
-      <c r="BC26" s="158"/>
-      <c r="BD26" s="158"/>
-      <c r="BE26" s="158"/>
-      <c r="BF26" s="158"/>
-      <c r="BG26" s="158"/>
-      <c r="BH26" s="158"/>
-      <c r="BI26" s="158"/>
-      <c r="BJ26" s="158"/>
-      <c r="BK26" s="158"/>
-      <c r="BL26" s="158"/>
-      <c r="BM26" s="158"/>
-      <c r="BN26" s="158"/>
-      <c r="BO26" s="158"/>
-      <c r="BP26" s="158"/>
-      <c r="BQ26" s="158"/>
-      <c r="BR26" s="159"/>
+    <row r="26" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="231"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="104"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="104"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="104"/>
+      <c r="M26" s="104"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="105"/>
+      <c r="P26" s="103"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="105"/>
+      <c r="W26" s="103"/>
+      <c r="X26" s="104"/>
+      <c r="Y26" s="104"/>
+      <c r="Z26" s="104"/>
+      <c r="AA26" s="104"/>
+      <c r="AB26" s="104"/>
+      <c r="AC26" s="105"/>
+      <c r="AD26" s="103"/>
+      <c r="AE26" s="104"/>
+      <c r="AF26" s="104"/>
+      <c r="AG26" s="104"/>
+      <c r="AH26" s="104"/>
+      <c r="AI26" s="104"/>
+      <c r="AJ26" s="105"/>
+      <c r="AK26" s="107"/>
+      <c r="AL26" s="108"/>
+      <c r="AM26" s="149"/>
+      <c r="AN26" s="150"/>
+      <c r="AO26" s="150"/>
+      <c r="AP26" s="150"/>
+      <c r="AQ26" s="150"/>
+      <c r="AR26" s="150"/>
+      <c r="AS26" s="150"/>
+      <c r="AT26" s="150"/>
+      <c r="AU26" s="150"/>
+      <c r="AV26" s="150"/>
+      <c r="AW26" s="150"/>
+      <c r="AX26" s="150"/>
+      <c r="AY26" s="150"/>
+      <c r="AZ26" s="150"/>
+      <c r="BA26" s="150"/>
+      <c r="BB26" s="150"/>
+      <c r="BC26" s="150"/>
+      <c r="BD26" s="150"/>
+      <c r="BE26" s="150"/>
+      <c r="BF26" s="150"/>
+      <c r="BG26" s="150"/>
+      <c r="BH26" s="150"/>
+      <c r="BI26" s="150"/>
+      <c r="BJ26" s="150"/>
+      <c r="BK26" s="150"/>
+      <c r="BL26" s="150"/>
+      <c r="BM26" s="150"/>
+      <c r="BN26" s="150"/>
+      <c r="BO26" s="150"/>
+      <c r="BP26" s="150"/>
+      <c r="BQ26" s="150"/>
+      <c r="BR26" s="151"/>
     </row>
-    <row r="27" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A27" s="195"/>
+    <row r="27" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="232"/>
       <c r="B27" s="83"/>
       <c r="C27" s="80"/>
       <c r="D27" s="80"/>
@@ -7597,41 +7621,41 @@
       <c r="AJ27" s="81"/>
       <c r="AK27" s="83"/>
       <c r="AL27" s="84"/>
-      <c r="AM27" s="160"/>
-      <c r="AN27" s="161"/>
-      <c r="AO27" s="161"/>
-      <c r="AP27" s="161"/>
-      <c r="AQ27" s="161"/>
-      <c r="AR27" s="161"/>
-      <c r="AS27" s="161"/>
-      <c r="AT27" s="161"/>
-      <c r="AU27" s="161"/>
-      <c r="AV27" s="161"/>
-      <c r="AW27" s="161"/>
-      <c r="AX27" s="161"/>
-      <c r="AY27" s="161"/>
-      <c r="AZ27" s="161"/>
-      <c r="BA27" s="161"/>
-      <c r="BB27" s="161"/>
-      <c r="BC27" s="161"/>
-      <c r="BD27" s="161"/>
-      <c r="BE27" s="161"/>
-      <c r="BF27" s="161"/>
-      <c r="BG27" s="161"/>
-      <c r="BH27" s="161"/>
-      <c r="BI27" s="161"/>
-      <c r="BJ27" s="161"/>
-      <c r="BK27" s="161"/>
-      <c r="BL27" s="161"/>
-      <c r="BM27" s="161"/>
-      <c r="BN27" s="161"/>
-      <c r="BO27" s="161"/>
-      <c r="BP27" s="161"/>
-      <c r="BQ27" s="161"/>
-      <c r="BR27" s="162"/>
+      <c r="AM27" s="152"/>
+      <c r="AN27" s="153"/>
+      <c r="AO27" s="153"/>
+      <c r="AP27" s="153"/>
+      <c r="AQ27" s="153"/>
+      <c r="AR27" s="153"/>
+      <c r="AS27" s="153"/>
+      <c r="AT27" s="153"/>
+      <c r="AU27" s="153"/>
+      <c r="AV27" s="153"/>
+      <c r="AW27" s="153"/>
+      <c r="AX27" s="153"/>
+      <c r="AY27" s="153"/>
+      <c r="AZ27" s="153"/>
+      <c r="BA27" s="153"/>
+      <c r="BB27" s="153"/>
+      <c r="BC27" s="153"/>
+      <c r="BD27" s="153"/>
+      <c r="BE27" s="153"/>
+      <c r="BF27" s="153"/>
+      <c r="BG27" s="153"/>
+      <c r="BH27" s="153"/>
+      <c r="BI27" s="153"/>
+      <c r="BJ27" s="153"/>
+      <c r="BK27" s="153"/>
+      <c r="BL27" s="153"/>
+      <c r="BM27" s="153"/>
+      <c r="BN27" s="153"/>
+      <c r="BO27" s="153"/>
+      <c r="BP27" s="153"/>
+      <c r="BQ27" s="153"/>
+      <c r="BR27" s="154"/>
     </row>
-    <row r="28" spans="1:70" ht="30" customHeight="1">
-      <c r="A28" s="193" t="s">
+    <row r="28" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="230" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="62"/>
@@ -7671,10 +7695,10 @@
       <c r="AJ28" s="61"/>
       <c r="AK28" s="62"/>
       <c r="AL28" s="63"/>
-      <c r="AM28" s="135"/>
+      <c r="AM28" s="132"/>
       <c r="AN28" s="40"/>
       <c r="AO28" s="41"/>
-      <c r="AP28" s="131"/>
+      <c r="AP28" s="128"/>
       <c r="AQ28" s="44"/>
       <c r="AR28" s="45"/>
       <c r="AS28" s="45"/>
@@ -7696,57 +7720,57 @@
       <c r="BI28" s="45"/>
       <c r="BJ28" s="42"/>
       <c r="BK28" s="43"/>
-      <c r="BL28" s="155"/>
+      <c r="BL28" s="179"/>
       <c r="BM28" s="42"/>
       <c r="BN28" s="42"/>
-      <c r="BO28" s="163"/>
+      <c r="BO28" s="183"/>
       <c r="BP28" s="44"/>
       <c r="BQ28" s="42"/>
-      <c r="BR28" s="153"/>
+      <c r="BR28" s="250"/>
     </row>
-    <row r="29" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A29" s="194"/>
-      <c r="B29" s="110"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="108"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="108"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="107"/>
-      <c r="S29" s="107"/>
-      <c r="T29" s="107"/>
-      <c r="U29" s="107"/>
-      <c r="V29" s="108"/>
-      <c r="W29" s="106"/>
-      <c r="X29" s="107"/>
-      <c r="Y29" s="107"/>
-      <c r="Z29" s="107"/>
-      <c r="AA29" s="107"/>
-      <c r="AB29" s="107"/>
-      <c r="AC29" s="108"/>
-      <c r="AD29" s="106"/>
-      <c r="AE29" s="107"/>
-      <c r="AF29" s="107"/>
-      <c r="AG29" s="107"/>
-      <c r="AH29" s="107"/>
-      <c r="AI29" s="107"/>
-      <c r="AJ29" s="108"/>
-      <c r="AK29" s="110"/>
-      <c r="AL29" s="111"/>
+    <row r="29" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="231"/>
+      <c r="B29" s="265"/>
+      <c r="C29" s="262"/>
+      <c r="D29" s="262"/>
+      <c r="E29" s="262"/>
+      <c r="F29" s="262"/>
+      <c r="G29" s="262"/>
+      <c r="H29" s="263"/>
+      <c r="I29" s="261"/>
+      <c r="J29" s="262"/>
+      <c r="K29" s="262"/>
+      <c r="L29" s="262"/>
+      <c r="M29" s="262"/>
+      <c r="N29" s="262"/>
+      <c r="O29" s="263"/>
+      <c r="P29" s="256"/>
+      <c r="Q29" s="257"/>
+      <c r="R29" s="262"/>
+      <c r="S29" s="262"/>
+      <c r="T29" s="262"/>
+      <c r="U29" s="262"/>
+      <c r="V29" s="263"/>
+      <c r="W29" s="261"/>
+      <c r="X29" s="262"/>
+      <c r="Y29" s="262"/>
+      <c r="Z29" s="262"/>
+      <c r="AA29" s="262"/>
+      <c r="AB29" s="262"/>
+      <c r="AC29" s="263"/>
+      <c r="AD29" s="261"/>
+      <c r="AE29" s="262"/>
+      <c r="AF29" s="262"/>
+      <c r="AG29" s="262"/>
+      <c r="AH29" s="262"/>
+      <c r="AI29" s="262"/>
+      <c r="AJ29" s="263"/>
+      <c r="AK29" s="265"/>
+      <c r="AL29" s="266"/>
       <c r="AM29" s="99"/>
       <c r="AN29" s="48"/>
       <c r="AO29" s="49"/>
-      <c r="AP29" s="132"/>
+      <c r="AP29" s="129"/>
       <c r="AQ29" s="52"/>
       <c r="AR29" s="50"/>
       <c r="AS29" s="50"/>
@@ -7768,88 +7792,88 @@
       <c r="BI29" s="50"/>
       <c r="BJ29" s="50"/>
       <c r="BK29" s="51"/>
-      <c r="BL29" s="156"/>
+      <c r="BL29" s="180"/>
       <c r="BM29" s="50"/>
       <c r="BN29" s="50"/>
-      <c r="BO29" s="164"/>
+      <c r="BO29" s="184"/>
       <c r="BP29" s="52"/>
       <c r="BQ29" s="50"/>
-      <c r="BR29" s="154"/>
+      <c r="BR29" s="251"/>
     </row>
-    <row r="30" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A30" s="194"/>
-      <c r="B30" s="106"/>
-      <c r="C30" s="107"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="108"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="107"/>
-      <c r="O30" s="108"/>
+    <row r="30" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="231"/>
+      <c r="B30" s="103"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="104"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="103"/>
+      <c r="J30" s="104"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="104"/>
+      <c r="M30" s="104"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="105"/>
       <c r="P30" s="101"/>
       <c r="Q30" s="102"/>
-      <c r="R30" s="107"/>
-      <c r="S30" s="107"/>
-      <c r="T30" s="107"/>
-      <c r="U30" s="107"/>
-      <c r="V30" s="108"/>
-      <c r="W30" s="106"/>
-      <c r="X30" s="107"/>
-      <c r="Y30" s="107"/>
-      <c r="Z30" s="107"/>
-      <c r="AA30" s="107"/>
-      <c r="AB30" s="107"/>
-      <c r="AC30" s="108"/>
-      <c r="AD30" s="106"/>
-      <c r="AE30" s="107"/>
-      <c r="AF30" s="107"/>
-      <c r="AG30" s="107"/>
-      <c r="AH30" s="107"/>
-      <c r="AI30" s="107"/>
-      <c r="AJ30" s="108"/>
-      <c r="AK30" s="110"/>
-      <c r="AL30" s="111"/>
-      <c r="AM30" s="157"/>
-      <c r="AN30" s="158"/>
-      <c r="AO30" s="158"/>
-      <c r="AP30" s="158"/>
-      <c r="AQ30" s="158"/>
-      <c r="AR30" s="158"/>
-      <c r="AS30" s="158"/>
-      <c r="AT30" s="158"/>
-      <c r="AU30" s="158"/>
-      <c r="AV30" s="158"/>
-      <c r="AW30" s="158"/>
-      <c r="AX30" s="158"/>
-      <c r="AY30" s="158"/>
-      <c r="AZ30" s="158"/>
-      <c r="BA30" s="158"/>
-      <c r="BB30" s="158"/>
-      <c r="BC30" s="158"/>
-      <c r="BD30" s="158"/>
-      <c r="BE30" s="158"/>
-      <c r="BF30" s="158"/>
-      <c r="BG30" s="158"/>
-      <c r="BH30" s="158"/>
-      <c r="BI30" s="158"/>
-      <c r="BJ30" s="158"/>
-      <c r="BK30" s="158"/>
-      <c r="BL30" s="158"/>
-      <c r="BM30" s="158"/>
-      <c r="BN30" s="158"/>
-      <c r="BO30" s="158"/>
-      <c r="BP30" s="158"/>
-      <c r="BQ30" s="158"/>
-      <c r="BR30" s="159"/>
+      <c r="R30" s="104"/>
+      <c r="S30" s="104"/>
+      <c r="T30" s="104"/>
+      <c r="U30" s="104"/>
+      <c r="V30" s="105"/>
+      <c r="W30" s="103"/>
+      <c r="X30" s="104"/>
+      <c r="Y30" s="104"/>
+      <c r="Z30" s="104"/>
+      <c r="AA30" s="104"/>
+      <c r="AB30" s="104"/>
+      <c r="AC30" s="105"/>
+      <c r="AD30" s="103"/>
+      <c r="AE30" s="104"/>
+      <c r="AF30" s="104"/>
+      <c r="AG30" s="104"/>
+      <c r="AH30" s="104"/>
+      <c r="AI30" s="104"/>
+      <c r="AJ30" s="105"/>
+      <c r="AK30" s="107"/>
+      <c r="AL30" s="108"/>
+      <c r="AM30" s="149"/>
+      <c r="AN30" s="150"/>
+      <c r="AO30" s="150"/>
+      <c r="AP30" s="150"/>
+      <c r="AQ30" s="150"/>
+      <c r="AR30" s="150"/>
+      <c r="AS30" s="150"/>
+      <c r="AT30" s="150"/>
+      <c r="AU30" s="150"/>
+      <c r="AV30" s="150"/>
+      <c r="AW30" s="150"/>
+      <c r="AX30" s="150"/>
+      <c r="AY30" s="150"/>
+      <c r="AZ30" s="150"/>
+      <c r="BA30" s="150"/>
+      <c r="BB30" s="150"/>
+      <c r="BC30" s="150"/>
+      <c r="BD30" s="150"/>
+      <c r="BE30" s="150"/>
+      <c r="BF30" s="150"/>
+      <c r="BG30" s="150"/>
+      <c r="BH30" s="150"/>
+      <c r="BI30" s="150"/>
+      <c r="BJ30" s="150"/>
+      <c r="BK30" s="150"/>
+      <c r="BL30" s="150"/>
+      <c r="BM30" s="150"/>
+      <c r="BN30" s="150"/>
+      <c r="BO30" s="150"/>
+      <c r="BP30" s="150"/>
+      <c r="BQ30" s="150"/>
+      <c r="BR30" s="151"/>
     </row>
-    <row r="31" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A31" s="195"/>
+    <row r="31" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="232"/>
       <c r="B31" s="88"/>
       <c r="C31" s="86"/>
       <c r="D31" s="86"/>
@@ -7887,41 +7911,41 @@
       <c r="AJ31" s="87"/>
       <c r="AK31" s="88"/>
       <c r="AL31" s="89"/>
-      <c r="AM31" s="160"/>
-      <c r="AN31" s="161"/>
-      <c r="AO31" s="161"/>
-      <c r="AP31" s="161"/>
-      <c r="AQ31" s="161"/>
-      <c r="AR31" s="161"/>
-      <c r="AS31" s="161"/>
-      <c r="AT31" s="161"/>
-      <c r="AU31" s="161"/>
-      <c r="AV31" s="161"/>
-      <c r="AW31" s="161"/>
-      <c r="AX31" s="161"/>
-      <c r="AY31" s="161"/>
-      <c r="AZ31" s="161"/>
-      <c r="BA31" s="161"/>
-      <c r="BB31" s="161"/>
-      <c r="BC31" s="161"/>
-      <c r="BD31" s="161"/>
-      <c r="BE31" s="161"/>
-      <c r="BF31" s="161"/>
-      <c r="BG31" s="161"/>
-      <c r="BH31" s="161"/>
-      <c r="BI31" s="161"/>
-      <c r="BJ31" s="161"/>
-      <c r="BK31" s="161"/>
-      <c r="BL31" s="161"/>
-      <c r="BM31" s="161"/>
-      <c r="BN31" s="161"/>
-      <c r="BO31" s="161"/>
-      <c r="BP31" s="161"/>
-      <c r="BQ31" s="161"/>
-      <c r="BR31" s="162"/>
+      <c r="AM31" s="152"/>
+      <c r="AN31" s="153"/>
+      <c r="AO31" s="153"/>
+      <c r="AP31" s="153"/>
+      <c r="AQ31" s="153"/>
+      <c r="AR31" s="153"/>
+      <c r="AS31" s="153"/>
+      <c r="AT31" s="153"/>
+      <c r="AU31" s="153"/>
+      <c r="AV31" s="153"/>
+      <c r="AW31" s="153"/>
+      <c r="AX31" s="153"/>
+      <c r="AY31" s="153"/>
+      <c r="AZ31" s="153"/>
+      <c r="BA31" s="153"/>
+      <c r="BB31" s="153"/>
+      <c r="BC31" s="153"/>
+      <c r="BD31" s="153"/>
+      <c r="BE31" s="153"/>
+      <c r="BF31" s="153"/>
+      <c r="BG31" s="153"/>
+      <c r="BH31" s="153"/>
+      <c r="BI31" s="153"/>
+      <c r="BJ31" s="153"/>
+      <c r="BK31" s="153"/>
+      <c r="BL31" s="153"/>
+      <c r="BM31" s="153"/>
+      <c r="BN31" s="153"/>
+      <c r="BO31" s="153"/>
+      <c r="BP31" s="153"/>
+      <c r="BQ31" s="153"/>
+      <c r="BR31" s="154"/>
     </row>
-    <row r="32" spans="1:70" ht="30" customHeight="1">
-      <c r="A32" s="193" t="s">
+    <row r="32" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="230" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="57"/>
@@ -7961,10 +7985,10 @@
       <c r="AJ32" s="56"/>
       <c r="AK32" s="57"/>
       <c r="AL32" s="58"/>
-      <c r="AM32" s="135"/>
+      <c r="AM32" s="132"/>
       <c r="AN32" s="40"/>
       <c r="AO32" s="41"/>
-      <c r="AP32" s="131"/>
+      <c r="AP32" s="128"/>
       <c r="AQ32" s="44"/>
       <c r="AR32" s="45"/>
       <c r="AS32" s="45"/>
@@ -7986,57 +8010,57 @@
       <c r="BI32" s="45"/>
       <c r="BJ32" s="42"/>
       <c r="BK32" s="43"/>
-      <c r="BL32" s="155"/>
+      <c r="BL32" s="179"/>
       <c r="BM32" s="42"/>
       <c r="BN32" s="42"/>
-      <c r="BO32" s="163"/>
+      <c r="BO32" s="183"/>
       <c r="BP32" s="44"/>
       <c r="BQ32" s="42"/>
-      <c r="BR32" s="153"/>
+      <c r="BR32" s="250"/>
     </row>
-    <row r="33" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A33" s="194"/>
-      <c r="B33" s="110"/>
-      <c r="C33" s="107"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="108"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="107"/>
-      <c r="N33" s="107"/>
-      <c r="O33" s="108"/>
-      <c r="P33" s="106"/>
-      <c r="Q33" s="107"/>
-      <c r="R33" s="107"/>
-      <c r="S33" s="107"/>
-      <c r="T33" s="107"/>
-      <c r="U33" s="107"/>
-      <c r="V33" s="108"/>
-      <c r="W33" s="106"/>
-      <c r="X33" s="107"/>
-      <c r="Y33" s="107"/>
-      <c r="Z33" s="107"/>
-      <c r="AA33" s="107"/>
-      <c r="AB33" s="107"/>
-      <c r="AC33" s="108"/>
-      <c r="AD33" s="106"/>
-      <c r="AE33" s="107"/>
-      <c r="AF33" s="107"/>
-      <c r="AG33" s="107"/>
-      <c r="AH33" s="107"/>
-      <c r="AI33" s="107"/>
-      <c r="AJ33" s="108"/>
-      <c r="AK33" s="110"/>
-      <c r="AL33" s="111"/>
+    <row r="33" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="231"/>
+      <c r="B33" s="265"/>
+      <c r="C33" s="262"/>
+      <c r="D33" s="262"/>
+      <c r="E33" s="262"/>
+      <c r="F33" s="262"/>
+      <c r="G33" s="262"/>
+      <c r="H33" s="263"/>
+      <c r="I33" s="261"/>
+      <c r="J33" s="262"/>
+      <c r="K33" s="262"/>
+      <c r="L33" s="262"/>
+      <c r="M33" s="262"/>
+      <c r="N33" s="262"/>
+      <c r="O33" s="263"/>
+      <c r="P33" s="261"/>
+      <c r="Q33" s="262"/>
+      <c r="R33" s="262"/>
+      <c r="S33" s="262"/>
+      <c r="T33" s="262"/>
+      <c r="U33" s="262"/>
+      <c r="V33" s="263"/>
+      <c r="W33" s="261"/>
+      <c r="X33" s="262"/>
+      <c r="Y33" s="262"/>
+      <c r="Z33" s="262"/>
+      <c r="AA33" s="262"/>
+      <c r="AB33" s="262"/>
+      <c r="AC33" s="263"/>
+      <c r="AD33" s="261"/>
+      <c r="AE33" s="262"/>
+      <c r="AF33" s="262"/>
+      <c r="AG33" s="262"/>
+      <c r="AH33" s="262"/>
+      <c r="AI33" s="262"/>
+      <c r="AJ33" s="263"/>
+      <c r="AK33" s="265"/>
+      <c r="AL33" s="266"/>
       <c r="AM33" s="99"/>
       <c r="AN33" s="48"/>
       <c r="AO33" s="49"/>
-      <c r="AP33" s="132"/>
+      <c r="AP33" s="129"/>
       <c r="AQ33" s="52"/>
       <c r="AR33" s="50"/>
       <c r="AS33" s="50"/>
@@ -8058,88 +8082,88 @@
       <c r="BI33" s="50"/>
       <c r="BJ33" s="50"/>
       <c r="BK33" s="51"/>
-      <c r="BL33" s="156"/>
+      <c r="BL33" s="180"/>
       <c r="BM33" s="50"/>
       <c r="BN33" s="50"/>
-      <c r="BO33" s="164"/>
+      <c r="BO33" s="184"/>
       <c r="BP33" s="52"/>
       <c r="BQ33" s="50"/>
-      <c r="BR33" s="154"/>
+      <c r="BR33" s="251"/>
     </row>
-    <row r="34" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A34" s="194"/>
-      <c r="B34" s="106"/>
-      <c r="C34" s="107"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="108"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="107"/>
-      <c r="N34" s="107"/>
-      <c r="O34" s="108"/>
-      <c r="P34" s="106"/>
-      <c r="Q34" s="107"/>
-      <c r="R34" s="107"/>
-      <c r="S34" s="107"/>
-      <c r="T34" s="107"/>
-      <c r="U34" s="107"/>
-      <c r="V34" s="108"/>
-      <c r="W34" s="106"/>
-      <c r="X34" s="107"/>
-      <c r="Y34" s="107"/>
-      <c r="Z34" s="107"/>
-      <c r="AA34" s="107"/>
-      <c r="AB34" s="107"/>
-      <c r="AC34" s="108"/>
-      <c r="AD34" s="106"/>
-      <c r="AE34" s="107"/>
-      <c r="AF34" s="107"/>
-      <c r="AG34" s="107"/>
-      <c r="AH34" s="107"/>
-      <c r="AI34" s="107"/>
-      <c r="AJ34" s="108"/>
-      <c r="AK34" s="110"/>
-      <c r="AL34" s="111"/>
-      <c r="AM34" s="157"/>
-      <c r="AN34" s="158"/>
-      <c r="AO34" s="158"/>
-      <c r="AP34" s="158"/>
-      <c r="AQ34" s="158"/>
-      <c r="AR34" s="158"/>
-      <c r="AS34" s="158"/>
-      <c r="AT34" s="158"/>
-      <c r="AU34" s="158"/>
-      <c r="AV34" s="158"/>
-      <c r="AW34" s="158"/>
-      <c r="AX34" s="158"/>
-      <c r="AY34" s="158"/>
-      <c r="AZ34" s="158"/>
-      <c r="BA34" s="158"/>
-      <c r="BB34" s="158"/>
-      <c r="BC34" s="158"/>
-      <c r="BD34" s="158"/>
-      <c r="BE34" s="158"/>
-      <c r="BF34" s="158"/>
-      <c r="BG34" s="158"/>
-      <c r="BH34" s="158"/>
-      <c r="BI34" s="158"/>
-      <c r="BJ34" s="158"/>
-      <c r="BK34" s="158"/>
-      <c r="BL34" s="158"/>
-      <c r="BM34" s="158"/>
-      <c r="BN34" s="158"/>
-      <c r="BO34" s="158"/>
-      <c r="BP34" s="158"/>
-      <c r="BQ34" s="158"/>
-      <c r="BR34" s="159"/>
+    <row r="34" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="231"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="104"/>
+      <c r="D34" s="104"/>
+      <c r="E34" s="104"/>
+      <c r="F34" s="104"/>
+      <c r="G34" s="104"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="104"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="104"/>
+      <c r="M34" s="104"/>
+      <c r="N34" s="104"/>
+      <c r="O34" s="105"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="104"/>
+      <c r="R34" s="104"/>
+      <c r="S34" s="104"/>
+      <c r="T34" s="104"/>
+      <c r="U34" s="104"/>
+      <c r="V34" s="105"/>
+      <c r="W34" s="103"/>
+      <c r="X34" s="104"/>
+      <c r="Y34" s="104"/>
+      <c r="Z34" s="104"/>
+      <c r="AA34" s="104"/>
+      <c r="AB34" s="104"/>
+      <c r="AC34" s="105"/>
+      <c r="AD34" s="103"/>
+      <c r="AE34" s="104"/>
+      <c r="AF34" s="104"/>
+      <c r="AG34" s="104"/>
+      <c r="AH34" s="104"/>
+      <c r="AI34" s="104"/>
+      <c r="AJ34" s="105"/>
+      <c r="AK34" s="107"/>
+      <c r="AL34" s="108"/>
+      <c r="AM34" s="149"/>
+      <c r="AN34" s="150"/>
+      <c r="AO34" s="150"/>
+      <c r="AP34" s="150"/>
+      <c r="AQ34" s="150"/>
+      <c r="AR34" s="150"/>
+      <c r="AS34" s="150"/>
+      <c r="AT34" s="150"/>
+      <c r="AU34" s="150"/>
+      <c r="AV34" s="150"/>
+      <c r="AW34" s="150"/>
+      <c r="AX34" s="150"/>
+      <c r="AY34" s="150"/>
+      <c r="AZ34" s="150"/>
+      <c r="BA34" s="150"/>
+      <c r="BB34" s="150"/>
+      <c r="BC34" s="150"/>
+      <c r="BD34" s="150"/>
+      <c r="BE34" s="150"/>
+      <c r="BF34" s="150"/>
+      <c r="BG34" s="150"/>
+      <c r="BH34" s="150"/>
+      <c r="BI34" s="150"/>
+      <c r="BJ34" s="150"/>
+      <c r="BK34" s="150"/>
+      <c r="BL34" s="150"/>
+      <c r="BM34" s="150"/>
+      <c r="BN34" s="150"/>
+      <c r="BO34" s="150"/>
+      <c r="BP34" s="150"/>
+      <c r="BQ34" s="150"/>
+      <c r="BR34" s="151"/>
     </row>
-    <row r="35" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A35" s="195"/>
+    <row r="35" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="232"/>
       <c r="B35" s="83"/>
       <c r="C35" s="80"/>
       <c r="D35" s="80"/>
@@ -8177,41 +8201,41 @@
       <c r="AJ35" s="81"/>
       <c r="AK35" s="83"/>
       <c r="AL35" s="84"/>
-      <c r="AM35" s="160"/>
-      <c r="AN35" s="161"/>
-      <c r="AO35" s="161"/>
-      <c r="AP35" s="161"/>
-      <c r="AQ35" s="161"/>
-      <c r="AR35" s="161"/>
-      <c r="AS35" s="161"/>
-      <c r="AT35" s="161"/>
-      <c r="AU35" s="161"/>
-      <c r="AV35" s="161"/>
-      <c r="AW35" s="161"/>
-      <c r="AX35" s="161"/>
-      <c r="AY35" s="161"/>
-      <c r="AZ35" s="161"/>
-      <c r="BA35" s="161"/>
-      <c r="BB35" s="161"/>
-      <c r="BC35" s="161"/>
-      <c r="BD35" s="161"/>
-      <c r="BE35" s="161"/>
-      <c r="BF35" s="161"/>
-      <c r="BG35" s="161"/>
-      <c r="BH35" s="161"/>
-      <c r="BI35" s="161"/>
-      <c r="BJ35" s="161"/>
-      <c r="BK35" s="161"/>
-      <c r="BL35" s="161"/>
-      <c r="BM35" s="161"/>
-      <c r="BN35" s="161"/>
-      <c r="BO35" s="161"/>
-      <c r="BP35" s="161"/>
-      <c r="BQ35" s="161"/>
-      <c r="BR35" s="162"/>
+      <c r="AM35" s="152"/>
+      <c r="AN35" s="153"/>
+      <c r="AO35" s="153"/>
+      <c r="AP35" s="153"/>
+      <c r="AQ35" s="153"/>
+      <c r="AR35" s="153"/>
+      <c r="AS35" s="153"/>
+      <c r="AT35" s="153"/>
+      <c r="AU35" s="153"/>
+      <c r="AV35" s="153"/>
+      <c r="AW35" s="153"/>
+      <c r="AX35" s="153"/>
+      <c r="AY35" s="153"/>
+      <c r="AZ35" s="153"/>
+      <c r="BA35" s="153"/>
+      <c r="BB35" s="153"/>
+      <c r="BC35" s="153"/>
+      <c r="BD35" s="153"/>
+      <c r="BE35" s="153"/>
+      <c r="BF35" s="153"/>
+      <c r="BG35" s="153"/>
+      <c r="BH35" s="153"/>
+      <c r="BI35" s="153"/>
+      <c r="BJ35" s="153"/>
+      <c r="BK35" s="153"/>
+      <c r="BL35" s="153"/>
+      <c r="BM35" s="153"/>
+      <c r="BN35" s="153"/>
+      <c r="BO35" s="153"/>
+      <c r="BP35" s="153"/>
+      <c r="BQ35" s="153"/>
+      <c r="BR35" s="154"/>
     </row>
-    <row r="36" spans="1:70" ht="30" customHeight="1">
-      <c r="A36" s="197" t="s">
+    <row r="36" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="234" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="59"/>
@@ -8251,10 +8275,10 @@
       <c r="AJ36" s="61"/>
       <c r="AK36" s="62"/>
       <c r="AL36" s="63"/>
-      <c r="AM36" s="135"/>
+      <c r="AM36" s="132"/>
       <c r="AN36" s="40"/>
       <c r="AO36" s="41"/>
-      <c r="AP36" s="131"/>
+      <c r="AP36" s="128"/>
       <c r="AQ36" s="44"/>
       <c r="AR36" s="45"/>
       <c r="AS36" s="45"/>
@@ -8276,57 +8300,57 @@
       <c r="BI36" s="45"/>
       <c r="BJ36" s="42"/>
       <c r="BK36" s="43"/>
-      <c r="BL36" s="155"/>
+      <c r="BL36" s="179"/>
       <c r="BM36" s="42"/>
       <c r="BN36" s="42"/>
-      <c r="BO36" s="163"/>
+      <c r="BO36" s="183"/>
       <c r="BP36" s="44"/>
       <c r="BQ36" s="42"/>
-      <c r="BR36" s="153"/>
+      <c r="BR36" s="250"/>
     </row>
-    <row r="37" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A37" s="198"/>
-      <c r="B37" s="106"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="108"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="107"/>
-      <c r="M37" s="107"/>
-      <c r="N37" s="107"/>
-      <c r="O37" s="108"/>
-      <c r="P37" s="106"/>
-      <c r="Q37" s="107"/>
-      <c r="R37" s="107"/>
-      <c r="S37" s="107"/>
-      <c r="T37" s="107"/>
-      <c r="U37" s="107"/>
-      <c r="V37" s="108"/>
-      <c r="W37" s="106"/>
-      <c r="X37" s="107"/>
-      <c r="Y37" s="107"/>
-      <c r="Z37" s="107"/>
-      <c r="AA37" s="107"/>
-      <c r="AB37" s="107"/>
-      <c r="AC37" s="108"/>
-      <c r="AD37" s="106"/>
-      <c r="AE37" s="107"/>
-      <c r="AF37" s="107"/>
-      <c r="AG37" s="107"/>
-      <c r="AH37" s="107"/>
-      <c r="AI37" s="107"/>
-      <c r="AJ37" s="108"/>
-      <c r="AK37" s="110"/>
-      <c r="AL37" s="111"/>
+    <row r="37" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="235"/>
+      <c r="B37" s="261"/>
+      <c r="C37" s="262"/>
+      <c r="D37" s="262"/>
+      <c r="E37" s="262"/>
+      <c r="F37" s="262"/>
+      <c r="G37" s="262"/>
+      <c r="H37" s="263"/>
+      <c r="I37" s="261"/>
+      <c r="J37" s="262"/>
+      <c r="K37" s="262"/>
+      <c r="L37" s="262"/>
+      <c r="M37" s="262"/>
+      <c r="N37" s="262"/>
+      <c r="O37" s="263"/>
+      <c r="P37" s="261"/>
+      <c r="Q37" s="262"/>
+      <c r="R37" s="262"/>
+      <c r="S37" s="262"/>
+      <c r="T37" s="262"/>
+      <c r="U37" s="262"/>
+      <c r="V37" s="263"/>
+      <c r="W37" s="261"/>
+      <c r="X37" s="262"/>
+      <c r="Y37" s="262"/>
+      <c r="Z37" s="262"/>
+      <c r="AA37" s="262"/>
+      <c r="AB37" s="262"/>
+      <c r="AC37" s="263"/>
+      <c r="AD37" s="261"/>
+      <c r="AE37" s="262"/>
+      <c r="AF37" s="262"/>
+      <c r="AG37" s="262"/>
+      <c r="AH37" s="262"/>
+      <c r="AI37" s="262"/>
+      <c r="AJ37" s="263"/>
+      <c r="AK37" s="265"/>
+      <c r="AL37" s="266"/>
       <c r="AM37" s="99"/>
       <c r="AN37" s="48"/>
       <c r="AO37" s="49"/>
-      <c r="AP37" s="132"/>
+      <c r="AP37" s="129"/>
       <c r="AQ37" s="52"/>
       <c r="AR37" s="50"/>
       <c r="AS37" s="50"/>
@@ -8348,88 +8372,88 @@
       <c r="BI37" s="50"/>
       <c r="BJ37" s="50"/>
       <c r="BK37" s="51"/>
-      <c r="BL37" s="156"/>
+      <c r="BL37" s="180"/>
       <c r="BM37" s="50"/>
       <c r="BN37" s="50"/>
-      <c r="BO37" s="164"/>
+      <c r="BO37" s="184"/>
       <c r="BP37" s="52"/>
       <c r="BQ37" s="50"/>
-      <c r="BR37" s="154"/>
+      <c r="BR37" s="251"/>
     </row>
-    <row r="38" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A38" s="198"/>
-      <c r="B38" s="106"/>
-      <c r="C38" s="107"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="108"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="107"/>
-      <c r="L38" s="107"/>
-      <c r="M38" s="107"/>
-      <c r="N38" s="107"/>
-      <c r="O38" s="108"/>
-      <c r="P38" s="106"/>
-      <c r="Q38" s="107"/>
-      <c r="R38" s="107"/>
-      <c r="S38" s="107"/>
-      <c r="T38" s="107"/>
-      <c r="U38" s="107"/>
-      <c r="V38" s="108"/>
-      <c r="W38" s="106"/>
-      <c r="X38" s="107"/>
-      <c r="Y38" s="107"/>
-      <c r="Z38" s="107"/>
-      <c r="AA38" s="107"/>
-      <c r="AB38" s="107"/>
-      <c r="AC38" s="108"/>
-      <c r="AD38" s="106"/>
-      <c r="AE38" s="107"/>
-      <c r="AF38" s="107"/>
-      <c r="AG38" s="107"/>
-      <c r="AH38" s="107"/>
-      <c r="AI38" s="107"/>
-      <c r="AJ38" s="108"/>
-      <c r="AK38" s="110"/>
-      <c r="AL38" s="111"/>
-      <c r="AM38" s="157"/>
-      <c r="AN38" s="158"/>
-      <c r="AO38" s="158"/>
-      <c r="AP38" s="158"/>
-      <c r="AQ38" s="158"/>
-      <c r="AR38" s="158"/>
-      <c r="AS38" s="158"/>
-      <c r="AT38" s="158"/>
-      <c r="AU38" s="158"/>
-      <c r="AV38" s="158"/>
-      <c r="AW38" s="158"/>
-      <c r="AX38" s="158"/>
-      <c r="AY38" s="158"/>
-      <c r="AZ38" s="158"/>
-      <c r="BA38" s="158"/>
-      <c r="BB38" s="158"/>
-      <c r="BC38" s="158"/>
-      <c r="BD38" s="158"/>
-      <c r="BE38" s="158"/>
-      <c r="BF38" s="158"/>
-      <c r="BG38" s="158"/>
-      <c r="BH38" s="158"/>
-      <c r="BI38" s="158"/>
-      <c r="BJ38" s="158"/>
-      <c r="BK38" s="158"/>
-      <c r="BL38" s="158"/>
-      <c r="BM38" s="158"/>
-      <c r="BN38" s="158"/>
-      <c r="BO38" s="158"/>
-      <c r="BP38" s="158"/>
-      <c r="BQ38" s="158"/>
-      <c r="BR38" s="159"/>
+    <row r="38" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="235"/>
+      <c r="B38" s="103"/>
+      <c r="C38" s="104"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="104"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="104"/>
+      <c r="H38" s="105"/>
+      <c r="I38" s="103"/>
+      <c r="J38" s="104"/>
+      <c r="K38" s="104"/>
+      <c r="L38" s="104"/>
+      <c r="M38" s="104"/>
+      <c r="N38" s="104"/>
+      <c r="O38" s="105"/>
+      <c r="P38" s="103"/>
+      <c r="Q38" s="104"/>
+      <c r="R38" s="104"/>
+      <c r="S38" s="104"/>
+      <c r="T38" s="104"/>
+      <c r="U38" s="104"/>
+      <c r="V38" s="105"/>
+      <c r="W38" s="103"/>
+      <c r="X38" s="104"/>
+      <c r="Y38" s="104"/>
+      <c r="Z38" s="104"/>
+      <c r="AA38" s="104"/>
+      <c r="AB38" s="104"/>
+      <c r="AC38" s="105"/>
+      <c r="AD38" s="103"/>
+      <c r="AE38" s="104"/>
+      <c r="AF38" s="104"/>
+      <c r="AG38" s="104"/>
+      <c r="AH38" s="104"/>
+      <c r="AI38" s="104"/>
+      <c r="AJ38" s="105"/>
+      <c r="AK38" s="107"/>
+      <c r="AL38" s="108"/>
+      <c r="AM38" s="149"/>
+      <c r="AN38" s="150"/>
+      <c r="AO38" s="150"/>
+      <c r="AP38" s="150"/>
+      <c r="AQ38" s="150"/>
+      <c r="AR38" s="150"/>
+      <c r="AS38" s="150"/>
+      <c r="AT38" s="150"/>
+      <c r="AU38" s="150"/>
+      <c r="AV38" s="150"/>
+      <c r="AW38" s="150"/>
+      <c r="AX38" s="150"/>
+      <c r="AY38" s="150"/>
+      <c r="AZ38" s="150"/>
+      <c r="BA38" s="150"/>
+      <c r="BB38" s="150"/>
+      <c r="BC38" s="150"/>
+      <c r="BD38" s="150"/>
+      <c r="BE38" s="150"/>
+      <c r="BF38" s="150"/>
+      <c r="BG38" s="150"/>
+      <c r="BH38" s="150"/>
+      <c r="BI38" s="150"/>
+      <c r="BJ38" s="150"/>
+      <c r="BK38" s="150"/>
+      <c r="BL38" s="150"/>
+      <c r="BM38" s="150"/>
+      <c r="BN38" s="150"/>
+      <c r="BO38" s="150"/>
+      <c r="BP38" s="150"/>
+      <c r="BQ38" s="150"/>
+      <c r="BR38" s="151"/>
     </row>
-    <row r="39" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A39" s="199"/>
+    <row r="39" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="236"/>
       <c r="B39" s="85"/>
       <c r="C39" s="86"/>
       <c r="D39" s="86"/>
@@ -8467,41 +8491,41 @@
       <c r="AJ39" s="87"/>
       <c r="AK39" s="88"/>
       <c r="AL39" s="89"/>
-      <c r="AM39" s="160"/>
-      <c r="AN39" s="161"/>
-      <c r="AO39" s="161"/>
-      <c r="AP39" s="161"/>
-      <c r="AQ39" s="161"/>
-      <c r="AR39" s="161"/>
-      <c r="AS39" s="161"/>
-      <c r="AT39" s="161"/>
-      <c r="AU39" s="161"/>
-      <c r="AV39" s="161"/>
-      <c r="AW39" s="161"/>
-      <c r="AX39" s="161"/>
-      <c r="AY39" s="161"/>
-      <c r="AZ39" s="161"/>
-      <c r="BA39" s="161"/>
-      <c r="BB39" s="161"/>
-      <c r="BC39" s="161"/>
-      <c r="BD39" s="161"/>
-      <c r="BE39" s="161"/>
-      <c r="BF39" s="161"/>
-      <c r="BG39" s="161"/>
-      <c r="BH39" s="161"/>
-      <c r="BI39" s="161"/>
-      <c r="BJ39" s="161"/>
-      <c r="BK39" s="161"/>
-      <c r="BL39" s="161"/>
-      <c r="BM39" s="161"/>
-      <c r="BN39" s="161"/>
-      <c r="BO39" s="161"/>
-      <c r="BP39" s="161"/>
-      <c r="BQ39" s="161"/>
-      <c r="BR39" s="162"/>
+      <c r="AM39" s="152"/>
+      <c r="AN39" s="153"/>
+      <c r="AO39" s="153"/>
+      <c r="AP39" s="153"/>
+      <c r="AQ39" s="153"/>
+      <c r="AR39" s="153"/>
+      <c r="AS39" s="153"/>
+      <c r="AT39" s="153"/>
+      <c r="AU39" s="153"/>
+      <c r="AV39" s="153"/>
+      <c r="AW39" s="153"/>
+      <c r="AX39" s="153"/>
+      <c r="AY39" s="153"/>
+      <c r="AZ39" s="153"/>
+      <c r="BA39" s="153"/>
+      <c r="BB39" s="153"/>
+      <c r="BC39" s="153"/>
+      <c r="BD39" s="153"/>
+      <c r="BE39" s="153"/>
+      <c r="BF39" s="153"/>
+      <c r="BG39" s="153"/>
+      <c r="BH39" s="153"/>
+      <c r="BI39" s="153"/>
+      <c r="BJ39" s="153"/>
+      <c r="BK39" s="153"/>
+      <c r="BL39" s="153"/>
+      <c r="BM39" s="153"/>
+      <c r="BN39" s="153"/>
+      <c r="BO39" s="153"/>
+      <c r="BP39" s="153"/>
+      <c r="BQ39" s="153"/>
+      <c r="BR39" s="154"/>
     </row>
-    <row r="40" spans="1:70" ht="30" customHeight="1">
-      <c r="A40" s="197" t="s">
+    <row r="40" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="234" t="s">
         <v>57</v>
       </c>
       <c r="B40" s="57"/>
@@ -8541,10 +8565,10 @@
       <c r="AJ40" s="56"/>
       <c r="AK40" s="57"/>
       <c r="AL40" s="58"/>
-      <c r="AM40" s="135"/>
+      <c r="AM40" s="132"/>
       <c r="AN40" s="40"/>
       <c r="AO40" s="41"/>
-      <c r="AP40" s="131"/>
+      <c r="AP40" s="128"/>
       <c r="AQ40" s="44"/>
       <c r="AR40" s="45"/>
       <c r="AS40" s="45"/>
@@ -8566,57 +8590,57 @@
       <c r="BI40" s="45"/>
       <c r="BJ40" s="42"/>
       <c r="BK40" s="43"/>
-      <c r="BL40" s="155"/>
+      <c r="BL40" s="179"/>
       <c r="BM40" s="42"/>
       <c r="BN40" s="42"/>
-      <c r="BO40" s="163"/>
+      <c r="BO40" s="183"/>
       <c r="BP40" s="44"/>
       <c r="BQ40" s="42"/>
-      <c r="BR40" s="153"/>
+      <c r="BR40" s="250"/>
     </row>
-    <row r="41" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A41" s="198"/>
-      <c r="B41" s="110"/>
-      <c r="C41" s="107"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="108"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
-      <c r="L41" s="107"/>
-      <c r="M41" s="107"/>
-      <c r="N41" s="107"/>
-      <c r="O41" s="108"/>
-      <c r="P41" s="106"/>
-      <c r="Q41" s="107"/>
-      <c r="R41" s="107"/>
-      <c r="S41" s="107"/>
-      <c r="T41" s="107"/>
-      <c r="U41" s="107"/>
-      <c r="V41" s="108"/>
-      <c r="W41" s="106"/>
-      <c r="X41" s="107"/>
-      <c r="Y41" s="107"/>
-      <c r="Z41" s="107"/>
-      <c r="AA41" s="107"/>
-      <c r="AB41" s="107"/>
-      <c r="AC41" s="108"/>
-      <c r="AD41" s="106"/>
-      <c r="AE41" s="107"/>
-      <c r="AF41" s="107"/>
-      <c r="AG41" s="107"/>
-      <c r="AH41" s="107"/>
-      <c r="AI41" s="107"/>
-      <c r="AJ41" s="108"/>
-      <c r="AK41" s="110"/>
-      <c r="AL41" s="111"/>
+    <row r="41" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="235"/>
+      <c r="B41" s="265"/>
+      <c r="C41" s="262"/>
+      <c r="D41" s="262"/>
+      <c r="E41" s="262"/>
+      <c r="F41" s="262"/>
+      <c r="G41" s="262"/>
+      <c r="H41" s="263"/>
+      <c r="I41" s="261"/>
+      <c r="J41" s="262"/>
+      <c r="K41" s="262"/>
+      <c r="L41" s="262"/>
+      <c r="M41" s="262"/>
+      <c r="N41" s="262"/>
+      <c r="O41" s="263"/>
+      <c r="P41" s="261"/>
+      <c r="Q41" s="262"/>
+      <c r="R41" s="262"/>
+      <c r="S41" s="262"/>
+      <c r="T41" s="262"/>
+      <c r="U41" s="262"/>
+      <c r="V41" s="263"/>
+      <c r="W41" s="261"/>
+      <c r="X41" s="262"/>
+      <c r="Y41" s="262"/>
+      <c r="Z41" s="262"/>
+      <c r="AA41" s="262"/>
+      <c r="AB41" s="262"/>
+      <c r="AC41" s="263"/>
+      <c r="AD41" s="261"/>
+      <c r="AE41" s="262"/>
+      <c r="AF41" s="262"/>
+      <c r="AG41" s="262"/>
+      <c r="AH41" s="262"/>
+      <c r="AI41" s="262"/>
+      <c r="AJ41" s="263"/>
+      <c r="AK41" s="265"/>
+      <c r="AL41" s="266"/>
       <c r="AM41" s="99"/>
       <c r="AN41" s="48"/>
       <c r="AO41" s="49"/>
-      <c r="AP41" s="132"/>
+      <c r="AP41" s="129"/>
       <c r="AQ41" s="52"/>
       <c r="AR41" s="50"/>
       <c r="AS41" s="50"/>
@@ -8638,88 +8662,88 @@
       <c r="BI41" s="50"/>
       <c r="BJ41" s="50"/>
       <c r="BK41" s="51"/>
-      <c r="BL41" s="156"/>
+      <c r="BL41" s="180"/>
       <c r="BM41" s="50"/>
       <c r="BN41" s="50"/>
-      <c r="BO41" s="164"/>
+      <c r="BO41" s="184"/>
       <c r="BP41" s="52"/>
       <c r="BQ41" s="50"/>
-      <c r="BR41" s="154"/>
+      <c r="BR41" s="251"/>
     </row>
-    <row r="42" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A42" s="198"/>
-      <c r="B42" s="106"/>
-      <c r="C42" s="107"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="108"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="107"/>
-      <c r="L42" s="107"/>
-      <c r="M42" s="107"/>
-      <c r="N42" s="107"/>
-      <c r="O42" s="108"/>
-      <c r="P42" s="106"/>
-      <c r="Q42" s="107"/>
-      <c r="R42" s="107"/>
-      <c r="S42" s="107"/>
-      <c r="T42" s="107"/>
-      <c r="U42" s="107"/>
-      <c r="V42" s="108"/>
-      <c r="W42" s="106"/>
-      <c r="X42" s="107"/>
-      <c r="Y42" s="107"/>
-      <c r="Z42" s="107"/>
-      <c r="AA42" s="107"/>
-      <c r="AB42" s="107"/>
-      <c r="AC42" s="108"/>
-      <c r="AD42" s="106"/>
-      <c r="AE42" s="107"/>
-      <c r="AF42" s="107"/>
-      <c r="AG42" s="107"/>
-      <c r="AH42" s="107"/>
-      <c r="AI42" s="107"/>
-      <c r="AJ42" s="108"/>
-      <c r="AK42" s="110"/>
-      <c r="AL42" s="111"/>
-      <c r="AM42" s="157"/>
-      <c r="AN42" s="158"/>
-      <c r="AO42" s="158"/>
-      <c r="AP42" s="158"/>
-      <c r="AQ42" s="158"/>
-      <c r="AR42" s="158"/>
-      <c r="AS42" s="158"/>
-      <c r="AT42" s="158"/>
-      <c r="AU42" s="158"/>
-      <c r="AV42" s="158"/>
-      <c r="AW42" s="158"/>
-      <c r="AX42" s="158"/>
-      <c r="AY42" s="158"/>
-      <c r="AZ42" s="158"/>
-      <c r="BA42" s="158"/>
-      <c r="BB42" s="158"/>
-      <c r="BC42" s="158"/>
-      <c r="BD42" s="158"/>
-      <c r="BE42" s="158"/>
-      <c r="BF42" s="158"/>
-      <c r="BG42" s="158"/>
-      <c r="BH42" s="158"/>
-      <c r="BI42" s="158"/>
-      <c r="BJ42" s="158"/>
-      <c r="BK42" s="158"/>
-      <c r="BL42" s="158"/>
-      <c r="BM42" s="158"/>
-      <c r="BN42" s="158"/>
-      <c r="BO42" s="158"/>
-      <c r="BP42" s="158"/>
-      <c r="BQ42" s="158"/>
-      <c r="BR42" s="159"/>
+    <row r="42" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="235"/>
+      <c r="B42" s="103"/>
+      <c r="C42" s="104"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="104"/>
+      <c r="H42" s="105"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="104"/>
+      <c r="K42" s="104"/>
+      <c r="L42" s="104"/>
+      <c r="M42" s="104"/>
+      <c r="N42" s="104"/>
+      <c r="O42" s="105"/>
+      <c r="P42" s="103"/>
+      <c r="Q42" s="104"/>
+      <c r="R42" s="104"/>
+      <c r="S42" s="104"/>
+      <c r="T42" s="104"/>
+      <c r="U42" s="104"/>
+      <c r="V42" s="105"/>
+      <c r="W42" s="103"/>
+      <c r="X42" s="104"/>
+      <c r="Y42" s="104"/>
+      <c r="Z42" s="104"/>
+      <c r="AA42" s="104"/>
+      <c r="AB42" s="104"/>
+      <c r="AC42" s="105"/>
+      <c r="AD42" s="103"/>
+      <c r="AE42" s="104"/>
+      <c r="AF42" s="104"/>
+      <c r="AG42" s="104"/>
+      <c r="AH42" s="104"/>
+      <c r="AI42" s="104"/>
+      <c r="AJ42" s="105"/>
+      <c r="AK42" s="107"/>
+      <c r="AL42" s="108"/>
+      <c r="AM42" s="149"/>
+      <c r="AN42" s="150"/>
+      <c r="AO42" s="150"/>
+      <c r="AP42" s="150"/>
+      <c r="AQ42" s="150"/>
+      <c r="AR42" s="150"/>
+      <c r="AS42" s="150"/>
+      <c r="AT42" s="150"/>
+      <c r="AU42" s="150"/>
+      <c r="AV42" s="150"/>
+      <c r="AW42" s="150"/>
+      <c r="AX42" s="150"/>
+      <c r="AY42" s="150"/>
+      <c r="AZ42" s="150"/>
+      <c r="BA42" s="150"/>
+      <c r="BB42" s="150"/>
+      <c r="BC42" s="150"/>
+      <c r="BD42" s="150"/>
+      <c r="BE42" s="150"/>
+      <c r="BF42" s="150"/>
+      <c r="BG42" s="150"/>
+      <c r="BH42" s="150"/>
+      <c r="BI42" s="150"/>
+      <c r="BJ42" s="150"/>
+      <c r="BK42" s="150"/>
+      <c r="BL42" s="150"/>
+      <c r="BM42" s="150"/>
+      <c r="BN42" s="150"/>
+      <c r="BO42" s="150"/>
+      <c r="BP42" s="150"/>
+      <c r="BQ42" s="150"/>
+      <c r="BR42" s="151"/>
     </row>
-    <row r="43" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A43" s="199"/>
+    <row r="43" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="236"/>
       <c r="B43" s="83"/>
       <c r="C43" s="80"/>
       <c r="D43" s="80"/>
@@ -8757,41 +8781,41 @@
       <c r="AJ43" s="81"/>
       <c r="AK43" s="83"/>
       <c r="AL43" s="84"/>
-      <c r="AM43" s="160"/>
-      <c r="AN43" s="161"/>
-      <c r="AO43" s="161"/>
-      <c r="AP43" s="161"/>
-      <c r="AQ43" s="161"/>
-      <c r="AR43" s="161"/>
-      <c r="AS43" s="161"/>
-      <c r="AT43" s="161"/>
-      <c r="AU43" s="161"/>
-      <c r="AV43" s="161"/>
-      <c r="AW43" s="161"/>
-      <c r="AX43" s="161"/>
-      <c r="AY43" s="161"/>
-      <c r="AZ43" s="161"/>
-      <c r="BA43" s="161"/>
-      <c r="BB43" s="161"/>
-      <c r="BC43" s="161"/>
-      <c r="BD43" s="161"/>
-      <c r="BE43" s="161"/>
-      <c r="BF43" s="161"/>
-      <c r="BG43" s="161"/>
-      <c r="BH43" s="161"/>
-      <c r="BI43" s="161"/>
-      <c r="BJ43" s="161"/>
-      <c r="BK43" s="161"/>
-      <c r="BL43" s="161"/>
-      <c r="BM43" s="161"/>
-      <c r="BN43" s="161"/>
-      <c r="BO43" s="161"/>
-      <c r="BP43" s="161"/>
-      <c r="BQ43" s="161"/>
-      <c r="BR43" s="162"/>
+      <c r="AM43" s="152"/>
+      <c r="AN43" s="153"/>
+      <c r="AO43" s="153"/>
+      <c r="AP43" s="153"/>
+      <c r="AQ43" s="153"/>
+      <c r="AR43" s="153"/>
+      <c r="AS43" s="153"/>
+      <c r="AT43" s="153"/>
+      <c r="AU43" s="153"/>
+      <c r="AV43" s="153"/>
+      <c r="AW43" s="153"/>
+      <c r="AX43" s="153"/>
+      <c r="AY43" s="153"/>
+      <c r="AZ43" s="153"/>
+      <c r="BA43" s="153"/>
+      <c r="BB43" s="153"/>
+      <c r="BC43" s="153"/>
+      <c r="BD43" s="153"/>
+      <c r="BE43" s="153"/>
+      <c r="BF43" s="153"/>
+      <c r="BG43" s="153"/>
+      <c r="BH43" s="153"/>
+      <c r="BI43" s="153"/>
+      <c r="BJ43" s="153"/>
+      <c r="BK43" s="153"/>
+      <c r="BL43" s="153"/>
+      <c r="BM43" s="153"/>
+      <c r="BN43" s="153"/>
+      <c r="BO43" s="153"/>
+      <c r="BP43" s="153"/>
+      <c r="BQ43" s="153"/>
+      <c r="BR43" s="154"/>
     </row>
-    <row r="44" spans="1:70" ht="30" customHeight="1">
-      <c r="A44" s="193" t="s">
+    <row r="44" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="230" t="s">
         <v>58</v>
       </c>
       <c r="B44" s="64"/>
@@ -8831,10 +8855,10 @@
       <c r="AJ44" s="66"/>
       <c r="AK44" s="64"/>
       <c r="AL44" s="68"/>
-      <c r="AM44" s="135"/>
+      <c r="AM44" s="132"/>
       <c r="AN44" s="40"/>
       <c r="AO44" s="41"/>
-      <c r="AP44" s="131"/>
+      <c r="AP44" s="128"/>
       <c r="AQ44" s="44"/>
       <c r="AR44" s="45"/>
       <c r="AS44" s="45"/>
@@ -8856,57 +8880,57 @@
       <c r="BI44" s="45"/>
       <c r="BJ44" s="42"/>
       <c r="BK44" s="43"/>
-      <c r="BL44" s="155"/>
+      <c r="BL44" s="179"/>
       <c r="BM44" s="42"/>
       <c r="BN44" s="42"/>
-      <c r="BO44" s="163"/>
+      <c r="BO44" s="183"/>
       <c r="BP44" s="44"/>
       <c r="BQ44" s="42"/>
-      <c r="BR44" s="153"/>
+      <c r="BR44" s="250"/>
     </row>
-    <row r="45" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A45" s="194"/>
-      <c r="B45" s="110"/>
-      <c r="C45" s="107"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="108"/>
-      <c r="I45" s="106"/>
-      <c r="J45" s="107"/>
-      <c r="K45" s="107"/>
-      <c r="L45" s="107"/>
-      <c r="M45" s="107"/>
-      <c r="N45" s="107"/>
-      <c r="O45" s="108"/>
-      <c r="P45" s="106"/>
-      <c r="Q45" s="107"/>
-      <c r="R45" s="107"/>
-      <c r="S45" s="107"/>
-      <c r="T45" s="107"/>
-      <c r="U45" s="107"/>
-      <c r="V45" s="108"/>
-      <c r="W45" s="106"/>
-      <c r="X45" s="107"/>
-      <c r="Y45" s="107"/>
-      <c r="Z45" s="107"/>
-      <c r="AA45" s="107"/>
-      <c r="AB45" s="107"/>
-      <c r="AC45" s="108"/>
-      <c r="AD45" s="106"/>
-      <c r="AE45" s="107"/>
-      <c r="AF45" s="107"/>
-      <c r="AG45" s="107"/>
-      <c r="AH45" s="107"/>
-      <c r="AI45" s="107"/>
-      <c r="AJ45" s="108"/>
-      <c r="AK45" s="110"/>
-      <c r="AL45" s="111"/>
+    <row r="45" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="231"/>
+      <c r="B45" s="265"/>
+      <c r="C45" s="262"/>
+      <c r="D45" s="262"/>
+      <c r="E45" s="262"/>
+      <c r="F45" s="262"/>
+      <c r="G45" s="262"/>
+      <c r="H45" s="263"/>
+      <c r="I45" s="261"/>
+      <c r="J45" s="262"/>
+      <c r="K45" s="262"/>
+      <c r="L45" s="262"/>
+      <c r="M45" s="262"/>
+      <c r="N45" s="262"/>
+      <c r="O45" s="263"/>
+      <c r="P45" s="261"/>
+      <c r="Q45" s="262"/>
+      <c r="R45" s="262"/>
+      <c r="S45" s="262"/>
+      <c r="T45" s="262"/>
+      <c r="U45" s="262"/>
+      <c r="V45" s="263"/>
+      <c r="W45" s="261"/>
+      <c r="X45" s="262"/>
+      <c r="Y45" s="262"/>
+      <c r="Z45" s="262"/>
+      <c r="AA45" s="262"/>
+      <c r="AB45" s="262"/>
+      <c r="AC45" s="263"/>
+      <c r="AD45" s="261"/>
+      <c r="AE45" s="262"/>
+      <c r="AF45" s="262"/>
+      <c r="AG45" s="262"/>
+      <c r="AH45" s="262"/>
+      <c r="AI45" s="262"/>
+      <c r="AJ45" s="263"/>
+      <c r="AK45" s="265"/>
+      <c r="AL45" s="266"/>
       <c r="AM45" s="99"/>
       <c r="AN45" s="48"/>
       <c r="AO45" s="49"/>
-      <c r="AP45" s="132"/>
+      <c r="AP45" s="129"/>
       <c r="AQ45" s="52"/>
       <c r="AR45" s="50"/>
       <c r="AS45" s="50"/>
@@ -8928,88 +8952,88 @@
       <c r="BI45" s="50"/>
       <c r="BJ45" s="50"/>
       <c r="BK45" s="51"/>
-      <c r="BL45" s="156"/>
+      <c r="BL45" s="180"/>
       <c r="BM45" s="50"/>
       <c r="BN45" s="50"/>
-      <c r="BO45" s="164"/>
+      <c r="BO45" s="184"/>
       <c r="BP45" s="52"/>
       <c r="BQ45" s="50"/>
-      <c r="BR45" s="154"/>
+      <c r="BR45" s="251"/>
     </row>
-    <row r="46" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A46" s="194"/>
-      <c r="B46" s="106"/>
-      <c r="C46" s="107"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="106"/>
-      <c r="J46" s="107"/>
-      <c r="K46" s="107"/>
-      <c r="L46" s="107"/>
-      <c r="M46" s="107"/>
-      <c r="N46" s="107"/>
-      <c r="O46" s="108"/>
-      <c r="P46" s="106"/>
-      <c r="Q46" s="107"/>
-      <c r="R46" s="107"/>
-      <c r="S46" s="107"/>
-      <c r="T46" s="107"/>
-      <c r="U46" s="107"/>
-      <c r="V46" s="108"/>
-      <c r="W46" s="106"/>
-      <c r="X46" s="107"/>
-      <c r="Y46" s="107"/>
-      <c r="Z46" s="107"/>
-      <c r="AA46" s="107"/>
-      <c r="AB46" s="107"/>
-      <c r="AC46" s="108"/>
-      <c r="AD46" s="106"/>
-      <c r="AE46" s="107"/>
-      <c r="AF46" s="107"/>
-      <c r="AG46" s="107"/>
-      <c r="AH46" s="107"/>
-      <c r="AI46" s="107"/>
-      <c r="AJ46" s="108"/>
-      <c r="AK46" s="110"/>
-      <c r="AL46" s="111"/>
-      <c r="AM46" s="157"/>
-      <c r="AN46" s="158"/>
-      <c r="AO46" s="158"/>
-      <c r="AP46" s="158"/>
-      <c r="AQ46" s="158"/>
-      <c r="AR46" s="158"/>
-      <c r="AS46" s="158"/>
-      <c r="AT46" s="158"/>
-      <c r="AU46" s="158"/>
-      <c r="AV46" s="158"/>
-      <c r="AW46" s="158"/>
-      <c r="AX46" s="158"/>
-      <c r="AY46" s="158"/>
-      <c r="AZ46" s="158"/>
-      <c r="BA46" s="158"/>
-      <c r="BB46" s="158"/>
-      <c r="BC46" s="158"/>
-      <c r="BD46" s="158"/>
-      <c r="BE46" s="158"/>
-      <c r="BF46" s="158"/>
-      <c r="BG46" s="158"/>
-      <c r="BH46" s="158"/>
-      <c r="BI46" s="158"/>
-      <c r="BJ46" s="158"/>
-      <c r="BK46" s="158"/>
-      <c r="BL46" s="158"/>
-      <c r="BM46" s="158"/>
-      <c r="BN46" s="158"/>
-      <c r="BO46" s="158"/>
-      <c r="BP46" s="158"/>
-      <c r="BQ46" s="158"/>
-      <c r="BR46" s="159"/>
+    <row r="46" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="231"/>
+      <c r="B46" s="103"/>
+      <c r="C46" s="104"/>
+      <c r="D46" s="104"/>
+      <c r="E46" s="104"/>
+      <c r="F46" s="104"/>
+      <c r="G46" s="104"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="103"/>
+      <c r="J46" s="104"/>
+      <c r="K46" s="104"/>
+      <c r="L46" s="104"/>
+      <c r="M46" s="104"/>
+      <c r="N46" s="104"/>
+      <c r="O46" s="105"/>
+      <c r="P46" s="103"/>
+      <c r="Q46" s="104"/>
+      <c r="R46" s="104"/>
+      <c r="S46" s="104"/>
+      <c r="T46" s="104"/>
+      <c r="U46" s="104"/>
+      <c r="V46" s="105"/>
+      <c r="W46" s="103"/>
+      <c r="X46" s="104"/>
+      <c r="Y46" s="104"/>
+      <c r="Z46" s="104"/>
+      <c r="AA46" s="104"/>
+      <c r="AB46" s="104"/>
+      <c r="AC46" s="105"/>
+      <c r="AD46" s="103"/>
+      <c r="AE46" s="104"/>
+      <c r="AF46" s="104"/>
+      <c r="AG46" s="104"/>
+      <c r="AH46" s="104"/>
+      <c r="AI46" s="104"/>
+      <c r="AJ46" s="105"/>
+      <c r="AK46" s="107"/>
+      <c r="AL46" s="108"/>
+      <c r="AM46" s="149"/>
+      <c r="AN46" s="150"/>
+      <c r="AO46" s="150"/>
+      <c r="AP46" s="150"/>
+      <c r="AQ46" s="150"/>
+      <c r="AR46" s="150"/>
+      <c r="AS46" s="150"/>
+      <c r="AT46" s="150"/>
+      <c r="AU46" s="150"/>
+      <c r="AV46" s="150"/>
+      <c r="AW46" s="150"/>
+      <c r="AX46" s="150"/>
+      <c r="AY46" s="150"/>
+      <c r="AZ46" s="150"/>
+      <c r="BA46" s="150"/>
+      <c r="BB46" s="150"/>
+      <c r="BC46" s="150"/>
+      <c r="BD46" s="150"/>
+      <c r="BE46" s="150"/>
+      <c r="BF46" s="150"/>
+      <c r="BG46" s="150"/>
+      <c r="BH46" s="150"/>
+      <c r="BI46" s="150"/>
+      <c r="BJ46" s="150"/>
+      <c r="BK46" s="150"/>
+      <c r="BL46" s="150"/>
+      <c r="BM46" s="150"/>
+      <c r="BN46" s="150"/>
+      <c r="BO46" s="150"/>
+      <c r="BP46" s="150"/>
+      <c r="BQ46" s="150"/>
+      <c r="BR46" s="151"/>
     </row>
-    <row r="47" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A47" s="195"/>
+    <row r="47" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="232"/>
       <c r="B47" s="88"/>
       <c r="C47" s="86"/>
       <c r="D47" s="86"/>
@@ -9047,41 +9071,41 @@
       <c r="AJ47" s="87"/>
       <c r="AK47" s="88"/>
       <c r="AL47" s="89"/>
-      <c r="AM47" s="160"/>
-      <c r="AN47" s="161"/>
-      <c r="AO47" s="161"/>
-      <c r="AP47" s="161"/>
-      <c r="AQ47" s="161"/>
-      <c r="AR47" s="161"/>
-      <c r="AS47" s="161"/>
-      <c r="AT47" s="161"/>
-      <c r="AU47" s="161"/>
-      <c r="AV47" s="161"/>
-      <c r="AW47" s="161"/>
-      <c r="AX47" s="161"/>
-      <c r="AY47" s="161"/>
-      <c r="AZ47" s="161"/>
-      <c r="BA47" s="161"/>
-      <c r="BB47" s="161"/>
-      <c r="BC47" s="161"/>
-      <c r="BD47" s="161"/>
-      <c r="BE47" s="161"/>
-      <c r="BF47" s="161"/>
-      <c r="BG47" s="161"/>
-      <c r="BH47" s="161"/>
-      <c r="BI47" s="161"/>
-      <c r="BJ47" s="161"/>
-      <c r="BK47" s="161"/>
-      <c r="BL47" s="161"/>
-      <c r="BM47" s="161"/>
-      <c r="BN47" s="161"/>
-      <c r="BO47" s="161"/>
-      <c r="BP47" s="161"/>
-      <c r="BQ47" s="161"/>
-      <c r="BR47" s="162"/>
+      <c r="AM47" s="152"/>
+      <c r="AN47" s="153"/>
+      <c r="AO47" s="153"/>
+      <c r="AP47" s="153"/>
+      <c r="AQ47" s="153"/>
+      <c r="AR47" s="153"/>
+      <c r="AS47" s="153"/>
+      <c r="AT47" s="153"/>
+      <c r="AU47" s="153"/>
+      <c r="AV47" s="153"/>
+      <c r="AW47" s="153"/>
+      <c r="AX47" s="153"/>
+      <c r="AY47" s="153"/>
+      <c r="AZ47" s="153"/>
+      <c r="BA47" s="153"/>
+      <c r="BB47" s="153"/>
+      <c r="BC47" s="153"/>
+      <c r="BD47" s="153"/>
+      <c r="BE47" s="153"/>
+      <c r="BF47" s="153"/>
+      <c r="BG47" s="153"/>
+      <c r="BH47" s="153"/>
+      <c r="BI47" s="153"/>
+      <c r="BJ47" s="153"/>
+      <c r="BK47" s="153"/>
+      <c r="BL47" s="153"/>
+      <c r="BM47" s="153"/>
+      <c r="BN47" s="153"/>
+      <c r="BO47" s="153"/>
+      <c r="BP47" s="153"/>
+      <c r="BQ47" s="153"/>
+      <c r="BR47" s="154"/>
     </row>
-    <row r="48" spans="1:70" ht="30" customHeight="1">
-      <c r="A48" s="193" t="s">
+    <row r="48" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="230" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="69"/>
@@ -9121,10 +9145,10 @@
       <c r="AJ48" s="71"/>
       <c r="AK48" s="69"/>
       <c r="AL48" s="73"/>
-      <c r="AM48" s="135"/>
+      <c r="AM48" s="132"/>
       <c r="AN48" s="40"/>
       <c r="AO48" s="41"/>
-      <c r="AP48" s="131"/>
+      <c r="AP48" s="128"/>
       <c r="AQ48" s="44"/>
       <c r="AR48" s="45"/>
       <c r="AS48" s="45"/>
@@ -9146,57 +9170,57 @@
       <c r="BI48" s="45"/>
       <c r="BJ48" s="42"/>
       <c r="BK48" s="43"/>
-      <c r="BL48" s="155"/>
+      <c r="BL48" s="179"/>
       <c r="BM48" s="42"/>
       <c r="BN48" s="42"/>
-      <c r="BO48" s="163"/>
+      <c r="BO48" s="183"/>
       <c r="BP48" s="44"/>
       <c r="BQ48" s="42"/>
-      <c r="BR48" s="153"/>
+      <c r="BR48" s="250"/>
     </row>
-    <row r="49" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A49" s="194"/>
-      <c r="B49" s="110"/>
-      <c r="C49" s="107"/>
-      <c r="D49" s="107"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="107"/>
-      <c r="G49" s="107"/>
-      <c r="H49" s="108"/>
-      <c r="I49" s="106"/>
-      <c r="J49" s="107"/>
-      <c r="K49" s="107"/>
-      <c r="L49" s="107"/>
-      <c r="M49" s="107"/>
-      <c r="N49" s="107"/>
-      <c r="O49" s="108"/>
-      <c r="P49" s="106"/>
-      <c r="Q49" s="107"/>
-      <c r="R49" s="107"/>
-      <c r="S49" s="107"/>
-      <c r="T49" s="107"/>
-      <c r="U49" s="107"/>
-      <c r="V49" s="108"/>
-      <c r="W49" s="106"/>
-      <c r="X49" s="107"/>
-      <c r="Y49" s="107"/>
-      <c r="Z49" s="107"/>
-      <c r="AA49" s="107"/>
-      <c r="AB49" s="107"/>
-      <c r="AC49" s="108"/>
-      <c r="AD49" s="106"/>
-      <c r="AE49" s="107"/>
-      <c r="AF49" s="107"/>
-      <c r="AG49" s="107"/>
-      <c r="AH49" s="107"/>
-      <c r="AI49" s="107"/>
-      <c r="AJ49" s="108"/>
-      <c r="AK49" s="110"/>
-      <c r="AL49" s="111"/>
+    <row r="49" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="231"/>
+      <c r="B49" s="265"/>
+      <c r="C49" s="262"/>
+      <c r="D49" s="262"/>
+      <c r="E49" s="262"/>
+      <c r="F49" s="262"/>
+      <c r="G49" s="262"/>
+      <c r="H49" s="263"/>
+      <c r="I49" s="261"/>
+      <c r="J49" s="262"/>
+      <c r="K49" s="262"/>
+      <c r="L49" s="262"/>
+      <c r="M49" s="262"/>
+      <c r="N49" s="262"/>
+      <c r="O49" s="263"/>
+      <c r="P49" s="261"/>
+      <c r="Q49" s="262"/>
+      <c r="R49" s="262"/>
+      <c r="S49" s="262"/>
+      <c r="T49" s="262"/>
+      <c r="U49" s="262"/>
+      <c r="V49" s="263"/>
+      <c r="W49" s="261"/>
+      <c r="X49" s="262"/>
+      <c r="Y49" s="262"/>
+      <c r="Z49" s="262"/>
+      <c r="AA49" s="262"/>
+      <c r="AB49" s="262"/>
+      <c r="AC49" s="263"/>
+      <c r="AD49" s="261"/>
+      <c r="AE49" s="262"/>
+      <c r="AF49" s="262"/>
+      <c r="AG49" s="262"/>
+      <c r="AH49" s="262"/>
+      <c r="AI49" s="262"/>
+      <c r="AJ49" s="263"/>
+      <c r="AK49" s="265"/>
+      <c r="AL49" s="266"/>
       <c r="AM49" s="97"/>
       <c r="AN49" s="48"/>
       <c r="AO49" s="49"/>
-      <c r="AP49" s="132"/>
+      <c r="AP49" s="129"/>
       <c r="AQ49" s="52"/>
       <c r="AR49" s="50"/>
       <c r="AS49" s="50"/>
@@ -9218,88 +9242,88 @@
       <c r="BI49" s="50"/>
       <c r="BJ49" s="50"/>
       <c r="BK49" s="51"/>
-      <c r="BL49" s="156"/>
+      <c r="BL49" s="180"/>
       <c r="BM49" s="50"/>
       <c r="BN49" s="50"/>
-      <c r="BO49" s="164"/>
+      <c r="BO49" s="184"/>
       <c r="BP49" s="52"/>
       <c r="BQ49" s="50"/>
-      <c r="BR49" s="154"/>
+      <c r="BR49" s="251"/>
     </row>
-    <row r="50" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A50" s="194"/>
-      <c r="B50" s="106"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="107"/>
-      <c r="E50" s="107"/>
-      <c r="F50" s="107"/>
-      <c r="G50" s="107"/>
-      <c r="H50" s="108"/>
-      <c r="I50" s="106"/>
-      <c r="J50" s="107"/>
-      <c r="K50" s="107"/>
-      <c r="L50" s="107"/>
-      <c r="M50" s="107"/>
-      <c r="N50" s="107"/>
-      <c r="O50" s="108"/>
-      <c r="P50" s="106"/>
-      <c r="Q50" s="107"/>
-      <c r="R50" s="107"/>
-      <c r="S50" s="107"/>
-      <c r="T50" s="107"/>
-      <c r="U50" s="107"/>
-      <c r="V50" s="108"/>
-      <c r="W50" s="106"/>
-      <c r="X50" s="107"/>
-      <c r="Y50" s="107"/>
-      <c r="Z50" s="107"/>
-      <c r="AA50" s="107"/>
-      <c r="AB50" s="107"/>
-      <c r="AC50" s="108"/>
-      <c r="AD50" s="106"/>
-      <c r="AE50" s="107"/>
-      <c r="AF50" s="107"/>
-      <c r="AG50" s="107"/>
-      <c r="AH50" s="107"/>
-      <c r="AI50" s="107"/>
-      <c r="AJ50" s="108"/>
-      <c r="AK50" s="110"/>
-      <c r="AL50" s="111"/>
-      <c r="AM50" s="157"/>
-      <c r="AN50" s="158"/>
-      <c r="AO50" s="158"/>
-      <c r="AP50" s="158"/>
-      <c r="AQ50" s="158"/>
-      <c r="AR50" s="158"/>
-      <c r="AS50" s="158"/>
-      <c r="AT50" s="158"/>
-      <c r="AU50" s="158"/>
-      <c r="AV50" s="158"/>
-      <c r="AW50" s="158"/>
-      <c r="AX50" s="158"/>
-      <c r="AY50" s="158"/>
-      <c r="AZ50" s="158"/>
-      <c r="BA50" s="158"/>
-      <c r="BB50" s="158"/>
-      <c r="BC50" s="158"/>
-      <c r="BD50" s="158"/>
-      <c r="BE50" s="158"/>
-      <c r="BF50" s="158"/>
-      <c r="BG50" s="158"/>
-      <c r="BH50" s="158"/>
-      <c r="BI50" s="158"/>
-      <c r="BJ50" s="158"/>
-      <c r="BK50" s="158"/>
-      <c r="BL50" s="158"/>
-      <c r="BM50" s="158"/>
-      <c r="BN50" s="158"/>
-      <c r="BO50" s="158"/>
-      <c r="BP50" s="158"/>
-      <c r="BQ50" s="158"/>
-      <c r="BR50" s="159"/>
+    <row r="50" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="231"/>
+      <c r="B50" s="103"/>
+      <c r="C50" s="104"/>
+      <c r="D50" s="104"/>
+      <c r="E50" s="104"/>
+      <c r="F50" s="104"/>
+      <c r="G50" s="104"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="103"/>
+      <c r="J50" s="104"/>
+      <c r="K50" s="104"/>
+      <c r="L50" s="104"/>
+      <c r="M50" s="104"/>
+      <c r="N50" s="104"/>
+      <c r="O50" s="105"/>
+      <c r="P50" s="103"/>
+      <c r="Q50" s="104"/>
+      <c r="R50" s="104"/>
+      <c r="S50" s="104"/>
+      <c r="T50" s="104"/>
+      <c r="U50" s="104"/>
+      <c r="V50" s="105"/>
+      <c r="W50" s="103"/>
+      <c r="X50" s="104"/>
+      <c r="Y50" s="104"/>
+      <c r="Z50" s="104"/>
+      <c r="AA50" s="104"/>
+      <c r="AB50" s="104"/>
+      <c r="AC50" s="105"/>
+      <c r="AD50" s="103"/>
+      <c r="AE50" s="104"/>
+      <c r="AF50" s="104"/>
+      <c r="AG50" s="104"/>
+      <c r="AH50" s="104"/>
+      <c r="AI50" s="104"/>
+      <c r="AJ50" s="105"/>
+      <c r="AK50" s="107"/>
+      <c r="AL50" s="108"/>
+      <c r="AM50" s="149"/>
+      <c r="AN50" s="150"/>
+      <c r="AO50" s="150"/>
+      <c r="AP50" s="150"/>
+      <c r="AQ50" s="150"/>
+      <c r="AR50" s="150"/>
+      <c r="AS50" s="150"/>
+      <c r="AT50" s="150"/>
+      <c r="AU50" s="150"/>
+      <c r="AV50" s="150"/>
+      <c r="AW50" s="150"/>
+      <c r="AX50" s="150"/>
+      <c r="AY50" s="150"/>
+      <c r="AZ50" s="150"/>
+      <c r="BA50" s="150"/>
+      <c r="BB50" s="150"/>
+      <c r="BC50" s="150"/>
+      <c r="BD50" s="150"/>
+      <c r="BE50" s="150"/>
+      <c r="BF50" s="150"/>
+      <c r="BG50" s="150"/>
+      <c r="BH50" s="150"/>
+      <c r="BI50" s="150"/>
+      <c r="BJ50" s="150"/>
+      <c r="BK50" s="150"/>
+      <c r="BL50" s="150"/>
+      <c r="BM50" s="150"/>
+      <c r="BN50" s="150"/>
+      <c r="BO50" s="150"/>
+      <c r="BP50" s="150"/>
+      <c r="BQ50" s="150"/>
+      <c r="BR50" s="151"/>
     </row>
-    <row r="51" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A51" s="195"/>
+    <row r="51" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="232"/>
       <c r="B51" s="83"/>
       <c r="C51" s="80"/>
       <c r="D51" s="80"/>
@@ -9337,41 +9361,41 @@
       <c r="AJ51" s="81"/>
       <c r="AK51" s="83"/>
       <c r="AL51" s="84"/>
-      <c r="AM51" s="160"/>
-      <c r="AN51" s="161"/>
-      <c r="AO51" s="161"/>
-      <c r="AP51" s="161"/>
-      <c r="AQ51" s="161"/>
-      <c r="AR51" s="161"/>
-      <c r="AS51" s="161"/>
-      <c r="AT51" s="161"/>
-      <c r="AU51" s="161"/>
-      <c r="AV51" s="161"/>
-      <c r="AW51" s="161"/>
-      <c r="AX51" s="161"/>
-      <c r="AY51" s="161"/>
-      <c r="AZ51" s="161"/>
-      <c r="BA51" s="161"/>
-      <c r="BB51" s="161"/>
-      <c r="BC51" s="161"/>
-      <c r="BD51" s="161"/>
-      <c r="BE51" s="161"/>
-      <c r="BF51" s="161"/>
-      <c r="BG51" s="161"/>
-      <c r="BH51" s="161"/>
-      <c r="BI51" s="161"/>
-      <c r="BJ51" s="161"/>
-      <c r="BK51" s="161"/>
-      <c r="BL51" s="161"/>
-      <c r="BM51" s="161"/>
-      <c r="BN51" s="161"/>
-      <c r="BO51" s="161"/>
-      <c r="BP51" s="161"/>
-      <c r="BQ51" s="161"/>
-      <c r="BR51" s="162"/>
+      <c r="AM51" s="152"/>
+      <c r="AN51" s="153"/>
+      <c r="AO51" s="153"/>
+      <c r="AP51" s="153"/>
+      <c r="AQ51" s="153"/>
+      <c r="AR51" s="153"/>
+      <c r="AS51" s="153"/>
+      <c r="AT51" s="153"/>
+      <c r="AU51" s="153"/>
+      <c r="AV51" s="153"/>
+      <c r="AW51" s="153"/>
+      <c r="AX51" s="153"/>
+      <c r="AY51" s="153"/>
+      <c r="AZ51" s="153"/>
+      <c r="BA51" s="153"/>
+      <c r="BB51" s="153"/>
+      <c r="BC51" s="153"/>
+      <c r="BD51" s="153"/>
+      <c r="BE51" s="153"/>
+      <c r="BF51" s="153"/>
+      <c r="BG51" s="153"/>
+      <c r="BH51" s="153"/>
+      <c r="BI51" s="153"/>
+      <c r="BJ51" s="153"/>
+      <c r="BK51" s="153"/>
+      <c r="BL51" s="153"/>
+      <c r="BM51" s="153"/>
+      <c r="BN51" s="153"/>
+      <c r="BO51" s="153"/>
+      <c r="BP51" s="153"/>
+      <c r="BQ51" s="153"/>
+      <c r="BR51" s="154"/>
     </row>
-    <row r="52" spans="1:70" ht="30" customHeight="1">
-      <c r="A52" s="193" t="s">
+    <row r="52" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="230" t="s">
         <v>60</v>
       </c>
       <c r="B52" s="62"/>
@@ -9411,10 +9435,10 @@
       <c r="AJ52" s="61"/>
       <c r="AK52" s="62"/>
       <c r="AL52" s="63"/>
-      <c r="AM52" s="135"/>
+      <c r="AM52" s="132"/>
       <c r="AN52" s="40"/>
       <c r="AO52" s="41"/>
-      <c r="AP52" s="131"/>
+      <c r="AP52" s="128"/>
       <c r="AQ52" s="44"/>
       <c r="AR52" s="45"/>
       <c r="AS52" s="45"/>
@@ -9436,57 +9460,57 @@
       <c r="BI52" s="45"/>
       <c r="BJ52" s="42"/>
       <c r="BK52" s="43"/>
-      <c r="BL52" s="155"/>
+      <c r="BL52" s="179"/>
       <c r="BM52" s="42"/>
       <c r="BN52" s="42"/>
-      <c r="BO52" s="163"/>
+      <c r="BO52" s="183"/>
       <c r="BP52" s="44"/>
       <c r="BQ52" s="42"/>
-      <c r="BR52" s="153"/>
+      <c r="BR52" s="250"/>
     </row>
-    <row r="53" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A53" s="194"/>
-      <c r="B53" s="110"/>
-      <c r="C53" s="107"/>
-      <c r="D53" s="107"/>
-      <c r="E53" s="107"/>
-      <c r="F53" s="107"/>
-      <c r="G53" s="107"/>
-      <c r="H53" s="108"/>
-      <c r="I53" s="106"/>
-      <c r="J53" s="107"/>
-      <c r="K53" s="107"/>
-      <c r="L53" s="107"/>
-      <c r="M53" s="107"/>
-      <c r="N53" s="107"/>
-      <c r="O53" s="108"/>
-      <c r="P53" s="106"/>
-      <c r="Q53" s="107"/>
-      <c r="R53" s="107"/>
-      <c r="S53" s="107"/>
-      <c r="T53" s="107"/>
-      <c r="U53" s="107"/>
-      <c r="V53" s="108"/>
-      <c r="W53" s="106"/>
-      <c r="X53" s="107"/>
-      <c r="Y53" s="107"/>
-      <c r="Z53" s="107"/>
-      <c r="AA53" s="107"/>
-      <c r="AB53" s="107"/>
-      <c r="AC53" s="108"/>
-      <c r="AD53" s="106"/>
-      <c r="AE53" s="107"/>
-      <c r="AF53" s="107"/>
-      <c r="AG53" s="107"/>
-      <c r="AH53" s="107"/>
-      <c r="AI53" s="107"/>
-      <c r="AJ53" s="108"/>
-      <c r="AK53" s="110"/>
-      <c r="AL53" s="111"/>
+    <row r="53" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="231"/>
+      <c r="B53" s="265"/>
+      <c r="C53" s="262"/>
+      <c r="D53" s="262"/>
+      <c r="E53" s="262"/>
+      <c r="F53" s="262"/>
+      <c r="G53" s="262"/>
+      <c r="H53" s="263"/>
+      <c r="I53" s="261"/>
+      <c r="J53" s="262"/>
+      <c r="K53" s="262"/>
+      <c r="L53" s="262"/>
+      <c r="M53" s="262"/>
+      <c r="N53" s="262"/>
+      <c r="O53" s="263"/>
+      <c r="P53" s="261"/>
+      <c r="Q53" s="262"/>
+      <c r="R53" s="262"/>
+      <c r="S53" s="262"/>
+      <c r="T53" s="262"/>
+      <c r="U53" s="262"/>
+      <c r="V53" s="263"/>
+      <c r="W53" s="261"/>
+      <c r="X53" s="262"/>
+      <c r="Y53" s="262"/>
+      <c r="Z53" s="262"/>
+      <c r="AA53" s="262"/>
+      <c r="AB53" s="262"/>
+      <c r="AC53" s="263"/>
+      <c r="AD53" s="261"/>
+      <c r="AE53" s="262"/>
+      <c r="AF53" s="262"/>
+      <c r="AG53" s="262"/>
+      <c r="AH53" s="262"/>
+      <c r="AI53" s="262"/>
+      <c r="AJ53" s="263"/>
+      <c r="AK53" s="265"/>
+      <c r="AL53" s="266"/>
       <c r="AM53" s="99"/>
       <c r="AN53" s="48"/>
       <c r="AO53" s="49"/>
-      <c r="AP53" s="132"/>
+      <c r="AP53" s="129"/>
       <c r="AQ53" s="52"/>
       <c r="AR53" s="50"/>
       <c r="AS53" s="50"/>
@@ -9508,88 +9532,88 @@
       <c r="BI53" s="50"/>
       <c r="BJ53" s="50"/>
       <c r="BK53" s="51"/>
-      <c r="BL53" s="156"/>
+      <c r="BL53" s="180"/>
       <c r="BM53" s="50"/>
       <c r="BN53" s="50"/>
-      <c r="BO53" s="164"/>
+      <c r="BO53" s="184"/>
       <c r="BP53" s="52"/>
       <c r="BQ53" s="50"/>
-      <c r="BR53" s="154"/>
+      <c r="BR53" s="251"/>
     </row>
-    <row r="54" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1">
-      <c r="A54" s="194"/>
-      <c r="B54" s="141"/>
-      <c r="C54" s="142"/>
-      <c r="D54" s="142"/>
-      <c r="E54" s="142"/>
-      <c r="F54" s="142"/>
-      <c r="G54" s="142"/>
-      <c r="H54" s="143"/>
-      <c r="I54" s="144"/>
-      <c r="J54" s="142"/>
-      <c r="K54" s="142"/>
-      <c r="L54" s="142"/>
-      <c r="M54" s="142"/>
-      <c r="N54" s="142"/>
-      <c r="O54" s="143"/>
-      <c r="P54" s="144"/>
-      <c r="Q54" s="142"/>
-      <c r="R54" s="142"/>
-      <c r="S54" s="142"/>
-      <c r="T54" s="142"/>
-      <c r="U54" s="142"/>
-      <c r="V54" s="143"/>
-      <c r="W54" s="144"/>
-      <c r="X54" s="142"/>
-      <c r="Y54" s="142"/>
-      <c r="Z54" s="142"/>
-      <c r="AA54" s="142"/>
-      <c r="AB54" s="142"/>
-      <c r="AC54" s="143"/>
-      <c r="AD54" s="144"/>
-      <c r="AE54" s="142"/>
-      <c r="AF54" s="142"/>
-      <c r="AG54" s="142"/>
-      <c r="AH54" s="142"/>
-      <c r="AI54" s="142"/>
-      <c r="AJ54" s="108"/>
-      <c r="AK54" s="110"/>
-      <c r="AL54" s="146"/>
-      <c r="AM54" s="157"/>
-      <c r="AN54" s="158"/>
-      <c r="AO54" s="158"/>
-      <c r="AP54" s="158"/>
-      <c r="AQ54" s="158"/>
-      <c r="AR54" s="158"/>
-      <c r="AS54" s="158"/>
-      <c r="AT54" s="158"/>
-      <c r="AU54" s="158"/>
-      <c r="AV54" s="158"/>
-      <c r="AW54" s="158"/>
-      <c r="AX54" s="158"/>
-      <c r="AY54" s="158"/>
-      <c r="AZ54" s="158"/>
-      <c r="BA54" s="158"/>
-      <c r="BB54" s="158"/>
-      <c r="BC54" s="158"/>
-      <c r="BD54" s="158"/>
-      <c r="BE54" s="158"/>
-      <c r="BF54" s="158"/>
-      <c r="BG54" s="158"/>
-      <c r="BH54" s="158"/>
-      <c r="BI54" s="158"/>
-      <c r="BJ54" s="158"/>
-      <c r="BK54" s="158"/>
-      <c r="BL54" s="158"/>
-      <c r="BM54" s="158"/>
-      <c r="BN54" s="158"/>
-      <c r="BO54" s="158"/>
-      <c r="BP54" s="158"/>
-      <c r="BQ54" s="158"/>
-      <c r="BR54" s="159"/>
+    <row r="54" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="231"/>
+      <c r="B54" s="138"/>
+      <c r="C54" s="139"/>
+      <c r="D54" s="139"/>
+      <c r="E54" s="139"/>
+      <c r="F54" s="139"/>
+      <c r="G54" s="139"/>
+      <c r="H54" s="140"/>
+      <c r="I54" s="141"/>
+      <c r="J54" s="139"/>
+      <c r="K54" s="139"/>
+      <c r="L54" s="139"/>
+      <c r="M54" s="139"/>
+      <c r="N54" s="139"/>
+      <c r="O54" s="140"/>
+      <c r="P54" s="141"/>
+      <c r="Q54" s="139"/>
+      <c r="R54" s="139"/>
+      <c r="S54" s="139"/>
+      <c r="T54" s="139"/>
+      <c r="U54" s="139"/>
+      <c r="V54" s="140"/>
+      <c r="W54" s="141"/>
+      <c r="X54" s="139"/>
+      <c r="Y54" s="139"/>
+      <c r="Z54" s="139"/>
+      <c r="AA54" s="139"/>
+      <c r="AB54" s="139"/>
+      <c r="AC54" s="140"/>
+      <c r="AD54" s="141"/>
+      <c r="AE54" s="139"/>
+      <c r="AF54" s="139"/>
+      <c r="AG54" s="139"/>
+      <c r="AH54" s="139"/>
+      <c r="AI54" s="139"/>
+      <c r="AJ54" s="105"/>
+      <c r="AK54" s="107"/>
+      <c r="AL54" s="143"/>
+      <c r="AM54" s="149"/>
+      <c r="AN54" s="150"/>
+      <c r="AO54" s="150"/>
+      <c r="AP54" s="150"/>
+      <c r="AQ54" s="150"/>
+      <c r="AR54" s="150"/>
+      <c r="AS54" s="150"/>
+      <c r="AT54" s="150"/>
+      <c r="AU54" s="150"/>
+      <c r="AV54" s="150"/>
+      <c r="AW54" s="150"/>
+      <c r="AX54" s="150"/>
+      <c r="AY54" s="150"/>
+      <c r="AZ54" s="150"/>
+      <c r="BA54" s="150"/>
+      <c r="BB54" s="150"/>
+      <c r="BC54" s="150"/>
+      <c r="BD54" s="150"/>
+      <c r="BE54" s="150"/>
+      <c r="BF54" s="150"/>
+      <c r="BG54" s="150"/>
+      <c r="BH54" s="150"/>
+      <c r="BI54" s="150"/>
+      <c r="BJ54" s="150"/>
+      <c r="BK54" s="150"/>
+      <c r="BL54" s="150"/>
+      <c r="BM54" s="150"/>
+      <c r="BN54" s="150"/>
+      <c r="BO54" s="150"/>
+      <c r="BP54" s="150"/>
+      <c r="BQ54" s="150"/>
+      <c r="BR54" s="151"/>
     </row>
-    <row r="55" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1">
-      <c r="A55" s="196"/>
+    <row r="55" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="233"/>
       <c r="B55" s="92"/>
       <c r="C55" s="93"/>
       <c r="D55" s="93"/>
@@ -9625,46 +9649,46 @@
       <c r="AH55" s="93"/>
       <c r="AI55" s="93"/>
       <c r="AJ55" s="95"/>
-      <c r="AK55" s="145"/>
+      <c r="AK55" s="142"/>
       <c r="AL55" s="96"/>
-      <c r="AM55" s="160"/>
-      <c r="AN55" s="161"/>
-      <c r="AO55" s="161"/>
-      <c r="AP55" s="161"/>
-      <c r="AQ55" s="161"/>
-      <c r="AR55" s="161"/>
-      <c r="AS55" s="161"/>
-      <c r="AT55" s="161"/>
-      <c r="AU55" s="161"/>
-      <c r="AV55" s="161"/>
-      <c r="AW55" s="161"/>
-      <c r="AX55" s="161"/>
-      <c r="AY55" s="161"/>
-      <c r="AZ55" s="161"/>
-      <c r="BA55" s="161"/>
-      <c r="BB55" s="161"/>
-      <c r="BC55" s="161"/>
-      <c r="BD55" s="161"/>
-      <c r="BE55" s="161"/>
-      <c r="BF55" s="161"/>
-      <c r="BG55" s="161"/>
-      <c r="BH55" s="161"/>
-      <c r="BI55" s="161"/>
-      <c r="BJ55" s="161"/>
-      <c r="BK55" s="161"/>
-      <c r="BL55" s="161"/>
-      <c r="BM55" s="161"/>
-      <c r="BN55" s="161"/>
-      <c r="BO55" s="161"/>
-      <c r="BP55" s="161"/>
-      <c r="BQ55" s="161"/>
-      <c r="BR55" s="162"/>
+      <c r="AM55" s="152"/>
+      <c r="AN55" s="153"/>
+      <c r="AO55" s="153"/>
+      <c r="AP55" s="153"/>
+      <c r="AQ55" s="153"/>
+      <c r="AR55" s="153"/>
+      <c r="AS55" s="153"/>
+      <c r="AT55" s="153"/>
+      <c r="AU55" s="153"/>
+      <c r="AV55" s="153"/>
+      <c r="AW55" s="153"/>
+      <c r="AX55" s="153"/>
+      <c r="AY55" s="153"/>
+      <c r="AZ55" s="153"/>
+      <c r="BA55" s="153"/>
+      <c r="BB55" s="153"/>
+      <c r="BC55" s="153"/>
+      <c r="BD55" s="153"/>
+      <c r="BE55" s="153"/>
+      <c r="BF55" s="153"/>
+      <c r="BG55" s="153"/>
+      <c r="BH55" s="153"/>
+      <c r="BI55" s="153"/>
+      <c r="BJ55" s="153"/>
+      <c r="BK55" s="153"/>
+      <c r="BL55" s="153"/>
+      <c r="BM55" s="153"/>
+      <c r="BN55" s="153"/>
+      <c r="BO55" s="153"/>
+      <c r="BP55" s="153"/>
+      <c r="BQ55" s="153"/>
+      <c r="BR55" s="154"/>
     </row>
-    <row r="56" spans="1:70" ht="24.75" customHeight="1" thickBot="1">
-      <c r="A56" s="223" t="s">
+    <row r="56" spans="1:70" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="204" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="224"/>
+      <c r="B56" s="205"/>
       <c r="C56" s="3" t="s">
         <v>62</v>
       </c>
@@ -9700,11 +9724,11 @@
       <c r="AG56" s="10"/>
       <c r="AH56" s="10"/>
       <c r="AI56" s="91"/>
-      <c r="AJ56" s="225" t="s">
+      <c r="AJ56" s="206" t="s">
         <v>63</v>
       </c>
-      <c r="AK56" s="226"/>
-      <c r="AL56" s="227"/>
+      <c r="AK56" s="207"/>
+      <c r="AL56" s="208"/>
       <c r="AM56" s="32"/>
       <c r="AN56" s="33"/>
       <c r="AO56" s="34"/>
@@ -9738,7 +9762,7 @@
       <c r="BQ56" s="35"/>
       <c r="BR56" s="38"/>
     </row>
-    <row r="57" spans="1:70" ht="24.75" customHeight="1">
+    <row r="57" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="9"/>
       <c r="B57" s="3"/>
       <c r="C57" s="10"/>
@@ -9808,9 +9832,9 @@
       <c r="BO57" s="13"/>
       <c r="BP57" s="13"/>
       <c r="BQ57" s="13"/>
-      <c r="BR57" s="149"/>
+      <c r="BR57" s="146"/>
     </row>
-    <row r="58" spans="1:70" ht="24.75" customHeight="1">
+    <row r="58" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="14"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -9828,427 +9852,427 @@
       <c r="O58" s="2"/>
       <c r="V58" s="10"/>
       <c r="W58" s="10"/>
-      <c r="BR58" s="148"/>
+      <c r="BR58" s="145"/>
     </row>
-    <row r="59" spans="1:70" ht="27.75" customHeight="1">
-      <c r="A59" s="220" t="s">
+    <row r="59" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="209" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="220"/>
-      <c r="C59" s="220"/>
-      <c r="D59" s="212" t="s">
+      <c r="B59" s="209"/>
+      <c r="C59" s="209"/>
+      <c r="D59" s="210" t="s">
         <v>65</v>
       </c>
-      <c r="E59" s="213"/>
-      <c r="F59" s="213"/>
+      <c r="E59" s="211"/>
+      <c r="F59" s="211"/>
       <c r="G59" s="15"/>
-      <c r="H59" s="212" t="s">
+      <c r="H59" s="210" t="s">
         <v>66</v>
       </c>
-      <c r="I59" s="213"/>
-      <c r="J59" s="213"/>
+      <c r="I59" s="211"/>
+      <c r="J59" s="211"/>
       <c r="K59" s="15"/>
-      <c r="L59" s="212" t="s">
+      <c r="L59" s="210" t="s">
         <v>67</v>
       </c>
-      <c r="M59" s="213"/>
-      <c r="N59" s="213"/>
+      <c r="M59" s="211"/>
+      <c r="N59" s="211"/>
       <c r="O59" s="15"/>
-      <c r="P59" s="212" t="s">
+      <c r="P59" s="210" t="s">
         <v>68</v>
       </c>
-      <c r="Q59" s="213"/>
-      <c r="R59" s="213"/>
+      <c r="Q59" s="211"/>
+      <c r="R59" s="211"/>
       <c r="S59" s="15"/>
-      <c r="T59" s="212" t="s">
+      <c r="T59" s="210" t="s">
         <v>69</v>
       </c>
-      <c r="U59" s="213"/>
-      <c r="V59" s="213"/>
+      <c r="U59" s="211"/>
+      <c r="V59" s="211"/>
       <c r="W59" s="15"/>
-      <c r="X59" s="212" t="s">
+      <c r="X59" s="210" t="s">
         <v>70</v>
       </c>
-      <c r="Y59" s="213"/>
-      <c r="Z59" s="213"/>
+      <c r="Y59" s="211"/>
+      <c r="Z59" s="211"/>
       <c r="AA59" s="15"/>
-      <c r="AM59" s="218" t="s">
+      <c r="AM59" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="AN59" s="218"/>
-      <c r="AO59" s="218"/>
-      <c r="AP59" s="221"/>
-      <c r="AQ59" s="221"/>
-      <c r="AR59" s="221"/>
-      <c r="AS59" s="221"/>
-      <c r="AT59" s="221"/>
-      <c r="AU59" s="221"/>
-      <c r="AV59" s="221"/>
-      <c r="AW59" s="222"/>
+      <c r="AN59" s="212"/>
+      <c r="AO59" s="212"/>
+      <c r="AP59" s="198"/>
+      <c r="AQ59" s="198"/>
+      <c r="AR59" s="198"/>
+      <c r="AS59" s="198"/>
+      <c r="AT59" s="198"/>
+      <c r="AU59" s="198"/>
+      <c r="AV59" s="198"/>
+      <c r="AW59" s="199"/>
       <c r="AX59" s="11"/>
       <c r="AY59" s="11"/>
       <c r="AZ59" s="11"/>
-      <c r="BC59" s="205" t="s">
+      <c r="BC59" s="200" t="s">
         <v>72</v>
       </c>
-      <c r="BD59" s="205"/>
-      <c r="BE59" s="205"/>
-      <c r="BF59" s="205"/>
-      <c r="BG59" s="205"/>
-      <c r="BH59" s="205"/>
-      <c r="BI59" s="205"/>
-      <c r="BJ59" s="205"/>
-      <c r="BK59" s="206"/>
-      <c r="BL59" s="207"/>
-      <c r="BM59" s="207"/>
-      <c r="BN59" s="207"/>
-      <c r="BO59" s="207"/>
-      <c r="BP59" s="207"/>
-      <c r="BQ59" s="207"/>
-      <c r="BR59" s="208"/>
+      <c r="BD59" s="200"/>
+      <c r="BE59" s="200"/>
+      <c r="BF59" s="200"/>
+      <c r="BG59" s="200"/>
+      <c r="BH59" s="200"/>
+      <c r="BI59" s="200"/>
+      <c r="BJ59" s="200"/>
+      <c r="BK59" s="201"/>
+      <c r="BL59" s="202"/>
+      <c r="BM59" s="202"/>
+      <c r="BN59" s="202"/>
+      <c r="BO59" s="202"/>
+      <c r="BP59" s="202"/>
+      <c r="BQ59" s="202"/>
+      <c r="BR59" s="203"/>
     </row>
-    <row r="60" spans="1:70" ht="27.75" customHeight="1">
-      <c r="A60" s="220" t="s">
+    <row r="60" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="209" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="220"/>
-      <c r="C60" s="220"/>
-      <c r="D60" s="212" t="s">
+      <c r="B60" s="209"/>
+      <c r="C60" s="209"/>
+      <c r="D60" s="210" t="s">
         <v>74</v>
       </c>
-      <c r="E60" s="213"/>
-      <c r="F60" s="213"/>
+      <c r="E60" s="211"/>
+      <c r="F60" s="211"/>
       <c r="G60" s="15"/>
-      <c r="H60" s="212" t="s">
+      <c r="H60" s="210" t="s">
         <v>75</v>
       </c>
-      <c r="I60" s="213"/>
-      <c r="J60" s="213"/>
+      <c r="I60" s="211"/>
+      <c r="J60" s="211"/>
       <c r="K60" s="15"/>
-      <c r="L60" s="212" t="s">
+      <c r="L60" s="210" t="s">
         <v>76</v>
       </c>
-      <c r="M60" s="213"/>
-      <c r="N60" s="213"/>
+      <c r="M60" s="211"/>
+      <c r="N60" s="211"/>
       <c r="O60" s="15"/>
-      <c r="P60" s="212"/>
-      <c r="Q60" s="213"/>
-      <c r="R60" s="213"/>
+      <c r="P60" s="210"/>
+      <c r="Q60" s="211"/>
+      <c r="R60" s="211"/>
       <c r="S60" s="15"/>
-      <c r="T60" s="212"/>
-      <c r="U60" s="213"/>
-      <c r="V60" s="213"/>
+      <c r="T60" s="210"/>
+      <c r="U60" s="211"/>
+      <c r="V60" s="211"/>
       <c r="W60" s="15"/>
-      <c r="X60" s="212"/>
-      <c r="Y60" s="213"/>
-      <c r="Z60" s="213"/>
+      <c r="X60" s="210"/>
+      <c r="Y60" s="211"/>
+      <c r="Z60" s="211"/>
       <c r="AA60" s="15"/>
       <c r="AB60" s="1"/>
-      <c r="AM60" s="218" t="s">
+      <c r="AM60" s="212" t="s">
         <v>77</v>
       </c>
-      <c r="AN60" s="218"/>
-      <c r="AO60" s="218"/>
-      <c r="AP60" s="219"/>
-      <c r="AQ60" s="219"/>
-      <c r="AR60" s="219"/>
-      <c r="AS60" s="219"/>
-      <c r="AT60" s="219"/>
-      <c r="AU60" s="219"/>
-      <c r="AV60" s="219"/>
-      <c r="AW60" s="219"/>
+      <c r="AN60" s="212"/>
+      <c r="AO60" s="212"/>
+      <c r="AP60" s="213"/>
+      <c r="AQ60" s="213"/>
+      <c r="AR60" s="213"/>
+      <c r="AS60" s="213"/>
+      <c r="AT60" s="213"/>
+      <c r="AU60" s="213"/>
+      <c r="AV60" s="213"/>
+      <c r="AW60" s="213"/>
       <c r="AX60" s="11"/>
       <c r="AY60" s="11"/>
       <c r="AZ60" s="11"/>
-      <c r="BC60" s="205" t="s">
+      <c r="BC60" s="200" t="s">
         <v>78</v>
       </c>
-      <c r="BD60" s="205"/>
-      <c r="BE60" s="205"/>
-      <c r="BF60" s="205"/>
-      <c r="BG60" s="205"/>
-      <c r="BH60" s="205"/>
-      <c r="BI60" s="205"/>
-      <c r="BJ60" s="205"/>
-      <c r="BK60" s="206"/>
-      <c r="BL60" s="207"/>
-      <c r="BM60" s="207"/>
-      <c r="BN60" s="207"/>
-      <c r="BO60" s="207"/>
-      <c r="BP60" s="207"/>
-      <c r="BQ60" s="207"/>
-      <c r="BR60" s="208"/>
+      <c r="BD60" s="200"/>
+      <c r="BE60" s="200"/>
+      <c r="BF60" s="200"/>
+      <c r="BG60" s="200"/>
+      <c r="BH60" s="200"/>
+      <c r="BI60" s="200"/>
+      <c r="BJ60" s="200"/>
+      <c r="BK60" s="201"/>
+      <c r="BL60" s="202"/>
+      <c r="BM60" s="202"/>
+      <c r="BN60" s="202"/>
+      <c r="BO60" s="202"/>
+      <c r="BP60" s="202"/>
+      <c r="BQ60" s="202"/>
+      <c r="BR60" s="203"/>
     </row>
-    <row r="61" spans="1:70" ht="27.75" customHeight="1">
-      <c r="A61" s="220" t="s">
+    <row r="61" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="209" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="220"/>
-      <c r="C61" s="220"/>
-      <c r="D61" s="212" t="s">
+      <c r="B61" s="209"/>
+      <c r="C61" s="209"/>
+      <c r="D61" s="210" t="s">
         <v>80</v>
       </c>
-      <c r="E61" s="213"/>
-      <c r="F61" s="213"/>
+      <c r="E61" s="211"/>
+      <c r="F61" s="211"/>
       <c r="G61" s="15"/>
-      <c r="H61" s="212" t="s">
+      <c r="H61" s="210" t="s">
         <v>81</v>
       </c>
-      <c r="I61" s="213"/>
-      <c r="J61" s="213"/>
+      <c r="I61" s="211"/>
+      <c r="J61" s="211"/>
       <c r="K61" s="15"/>
-      <c r="L61" s="212" t="s">
+      <c r="L61" s="210" t="s">
         <v>82</v>
       </c>
-      <c r="M61" s="213"/>
-      <c r="N61" s="213"/>
+      <c r="M61" s="211"/>
+      <c r="N61" s="211"/>
       <c r="O61" s="15"/>
-      <c r="P61" s="212" t="s">
+      <c r="P61" s="210" t="s">
         <v>83</v>
       </c>
-      <c r="Q61" s="213"/>
-      <c r="R61" s="213"/>
+      <c r="Q61" s="211"/>
+      <c r="R61" s="211"/>
       <c r="S61" s="15"/>
-      <c r="T61" s="212" t="s">
+      <c r="T61" s="210" t="s">
         <v>84</v>
       </c>
-      <c r="U61" s="213"/>
-      <c r="V61" s="213"/>
+      <c r="U61" s="211"/>
+      <c r="V61" s="211"/>
       <c r="W61" s="15"/>
-      <c r="X61" s="212" t="s">
+      <c r="X61" s="210" t="s">
         <v>85</v>
       </c>
-      <c r="Y61" s="213"/>
-      <c r="Z61" s="213"/>
+      <c r="Y61" s="211"/>
+      <c r="Z61" s="211"/>
       <c r="AA61" s="15"/>
       <c r="AJ61" s="4"/>
-      <c r="AM61" s="218" t="s">
+      <c r="AM61" s="212" t="s">
         <v>86</v>
       </c>
-      <c r="AN61" s="218"/>
-      <c r="AO61" s="218"/>
-      <c r="AP61" s="219"/>
-      <c r="AQ61" s="219"/>
-      <c r="AR61" s="219"/>
-      <c r="AS61" s="219"/>
-      <c r="AT61" s="219"/>
-      <c r="AU61" s="219"/>
-      <c r="AV61" s="219"/>
-      <c r="AW61" s="219"/>
+      <c r="AN61" s="212"/>
+      <c r="AO61" s="212"/>
+      <c r="AP61" s="213"/>
+      <c r="AQ61" s="213"/>
+      <c r="AR61" s="213"/>
+      <c r="AS61" s="213"/>
+      <c r="AT61" s="213"/>
+      <c r="AU61" s="213"/>
+      <c r="AV61" s="213"/>
+      <c r="AW61" s="213"/>
       <c r="AX61" s="11"/>
       <c r="AY61" s="11"/>
       <c r="AZ61" s="11"/>
-      <c r="BC61" s="205" t="s">
+      <c r="BC61" s="200" t="s">
         <v>87</v>
       </c>
-      <c r="BD61" s="205"/>
-      <c r="BE61" s="205"/>
-      <c r="BF61" s="205"/>
-      <c r="BG61" s="205"/>
-      <c r="BH61" s="205"/>
-      <c r="BI61" s="205"/>
-      <c r="BJ61" s="205"/>
-      <c r="BK61" s="206"/>
-      <c r="BL61" s="207"/>
-      <c r="BM61" s="207"/>
-      <c r="BN61" s="207"/>
-      <c r="BO61" s="207"/>
-      <c r="BP61" s="207"/>
-      <c r="BQ61" s="207"/>
-      <c r="BR61" s="208"/>
+      <c r="BD61" s="200"/>
+      <c r="BE61" s="200"/>
+      <c r="BF61" s="200"/>
+      <c r="BG61" s="200"/>
+      <c r="BH61" s="200"/>
+      <c r="BI61" s="200"/>
+      <c r="BJ61" s="200"/>
+      <c r="BK61" s="201"/>
+      <c r="BL61" s="202"/>
+      <c r="BM61" s="202"/>
+      <c r="BN61" s="202"/>
+      <c r="BO61" s="202"/>
+      <c r="BP61" s="202"/>
+      <c r="BQ61" s="202"/>
+      <c r="BR61" s="203"/>
     </row>
-    <row r="62" spans="1:70" ht="27.75" customHeight="1">
-      <c r="A62" s="220"/>
-      <c r="B62" s="220"/>
-      <c r="C62" s="220"/>
-      <c r="D62" s="212" t="s">
+    <row r="62" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="209"/>
+      <c r="B62" s="209"/>
+      <c r="C62" s="209"/>
+      <c r="D62" s="210" t="s">
         <v>88</v>
       </c>
-      <c r="E62" s="213"/>
-      <c r="F62" s="213"/>
+      <c r="E62" s="211"/>
+      <c r="F62" s="211"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="212" t="s">
+      <c r="H62" s="210" t="s">
         <v>89</v>
       </c>
-      <c r="I62" s="213"/>
-      <c r="J62" s="213"/>
+      <c r="I62" s="211"/>
+      <c r="J62" s="211"/>
       <c r="K62" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="L62" s="212" t="s">
+      <c r="L62" s="210" t="s">
         <v>91</v>
       </c>
-      <c r="M62" s="213"/>
-      <c r="N62" s="213"/>
+      <c r="M62" s="211"/>
+      <c r="N62" s="211"/>
       <c r="O62" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="P62" s="212"/>
-      <c r="Q62" s="213"/>
-      <c r="R62" s="213"/>
+      <c r="P62" s="210"/>
+      <c r="Q62" s="211"/>
+      <c r="R62" s="211"/>
       <c r="S62" s="15"/>
-      <c r="T62" s="212"/>
-      <c r="U62" s="213"/>
-      <c r="V62" s="213"/>
+      <c r="T62" s="210"/>
+      <c r="U62" s="211"/>
+      <c r="V62" s="211"/>
       <c r="W62" s="15"/>
-      <c r="X62" s="212"/>
-      <c r="Y62" s="213"/>
-      <c r="Z62" s="213"/>
+      <c r="X62" s="210"/>
+      <c r="Y62" s="211"/>
+      <c r="Z62" s="211"/>
       <c r="AA62" s="15"/>
       <c r="AB62" s="1"/>
-      <c r="AM62" s="218" t="s">
+      <c r="AM62" s="212" t="s">
         <v>93</v>
       </c>
-      <c r="AN62" s="218"/>
-      <c r="AO62" s="218"/>
-      <c r="AP62" s="219"/>
-      <c r="AQ62" s="219"/>
-      <c r="AR62" s="219"/>
-      <c r="AS62" s="219"/>
-      <c r="AT62" s="219"/>
-      <c r="AU62" s="219"/>
-      <c r="AV62" s="219"/>
-      <c r="AW62" s="219"/>
+      <c r="AN62" s="212"/>
+      <c r="AO62" s="212"/>
+      <c r="AP62" s="213"/>
+      <c r="AQ62" s="213"/>
+      <c r="AR62" s="213"/>
+      <c r="AS62" s="213"/>
+      <c r="AT62" s="213"/>
+      <c r="AU62" s="213"/>
+      <c r="AV62" s="213"/>
+      <c r="AW62" s="213"/>
       <c r="AX62" s="11"/>
       <c r="AY62" s="11"/>
       <c r="AZ62" s="11"/>
-      <c r="BC62" s="205" t="s">
+      <c r="BC62" s="200" t="s">
         <v>94</v>
       </c>
-      <c r="BD62" s="205"/>
-      <c r="BE62" s="205"/>
-      <c r="BF62" s="205"/>
-      <c r="BG62" s="205"/>
-      <c r="BH62" s="205"/>
-      <c r="BI62" s="205"/>
-      <c r="BJ62" s="205"/>
-      <c r="BK62" s="206"/>
-      <c r="BL62" s="207"/>
-      <c r="BM62" s="207"/>
-      <c r="BN62" s="207"/>
-      <c r="BO62" s="207"/>
-      <c r="BP62" s="207"/>
-      <c r="BQ62" s="207"/>
-      <c r="BR62" s="208"/>
+      <c r="BD62" s="200"/>
+      <c r="BE62" s="200"/>
+      <c r="BF62" s="200"/>
+      <c r="BG62" s="200"/>
+      <c r="BH62" s="200"/>
+      <c r="BI62" s="200"/>
+      <c r="BJ62" s="200"/>
+      <c r="BK62" s="201"/>
+      <c r="BL62" s="202"/>
+      <c r="BM62" s="202"/>
+      <c r="BN62" s="202"/>
+      <c r="BO62" s="202"/>
+      <c r="BP62" s="202"/>
+      <c r="BQ62" s="202"/>
+      <c r="BR62" s="203"/>
     </row>
-    <row r="63" spans="1:70" ht="27.75" customHeight="1">
-      <c r="A63" s="209" t="s">
+    <row r="63" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="214" t="s">
         <v>95</v>
       </c>
-      <c r="B63" s="210"/>
-      <c r="C63" s="211"/>
-      <c r="D63" s="212" t="s">
+      <c r="B63" s="215"/>
+      <c r="C63" s="216"/>
+      <c r="D63" s="210" t="s">
         <v>96</v>
       </c>
-      <c r="E63" s="213"/>
-      <c r="F63" s="213"/>
+      <c r="E63" s="211"/>
+      <c r="F63" s="211"/>
       <c r="G63" s="15"/>
-      <c r="H63" s="212" t="s">
+      <c r="H63" s="210" t="s">
         <v>97</v>
       </c>
-      <c r="I63" s="213"/>
-      <c r="J63" s="213"/>
+      <c r="I63" s="211"/>
+      <c r="J63" s="211"/>
       <c r="K63" s="15"/>
-      <c r="L63" s="212" t="s">
+      <c r="L63" s="210" t="s">
         <v>98</v>
       </c>
-      <c r="M63" s="213"/>
-      <c r="N63" s="213"/>
+      <c r="M63" s="211"/>
+      <c r="N63" s="211"/>
       <c r="O63" s="15"/>
-      <c r="P63" s="212"/>
-      <c r="Q63" s="213"/>
-      <c r="R63" s="213"/>
+      <c r="P63" s="210"/>
+      <c r="Q63" s="211"/>
+      <c r="R63" s="211"/>
       <c r="S63" s="15"/>
-      <c r="T63" s="212"/>
-      <c r="U63" s="213"/>
-      <c r="V63" s="213"/>
+      <c r="T63" s="210"/>
+      <c r="U63" s="211"/>
+      <c r="V63" s="211"/>
       <c r="W63" s="15"/>
-      <c r="X63" s="212"/>
-      <c r="Y63" s="213"/>
-      <c r="Z63" s="213"/>
+      <c r="X63" s="210"/>
+      <c r="Y63" s="211"/>
+      <c r="Z63" s="211"/>
       <c r="AA63" s="15"/>
       <c r="AB63" s="1"/>
-      <c r="AM63" s="218"/>
-      <c r="AN63" s="218"/>
-      <c r="AO63" s="218"/>
-      <c r="AP63" s="219"/>
-      <c r="AQ63" s="219"/>
-      <c r="AR63" s="219"/>
-      <c r="AS63" s="219"/>
-      <c r="AT63" s="219"/>
-      <c r="AU63" s="219"/>
-      <c r="AV63" s="219"/>
-      <c r="AW63" s="219"/>
+      <c r="AM63" s="212"/>
+      <c r="AN63" s="212"/>
+      <c r="AO63" s="212"/>
+      <c r="AP63" s="213"/>
+      <c r="AQ63" s="213"/>
+      <c r="AR63" s="213"/>
+      <c r="AS63" s="213"/>
+      <c r="AT63" s="213"/>
+      <c r="AU63" s="213"/>
+      <c r="AV63" s="213"/>
+      <c r="AW63" s="213"/>
       <c r="AX63" s="11"/>
       <c r="AY63" s="11"/>
       <c r="AZ63" s="11"/>
-      <c r="BC63" s="205" t="s">
+      <c r="BC63" s="200" t="s">
         <v>99</v>
       </c>
-      <c r="BD63" s="205"/>
-      <c r="BE63" s="205"/>
-      <c r="BF63" s="205"/>
-      <c r="BG63" s="205"/>
-      <c r="BH63" s="205"/>
-      <c r="BI63" s="205"/>
-      <c r="BJ63" s="205"/>
-      <c r="BK63" s="206"/>
-      <c r="BL63" s="207"/>
-      <c r="BM63" s="207"/>
-      <c r="BN63" s="207"/>
-      <c r="BO63" s="207"/>
-      <c r="BP63" s="207"/>
-      <c r="BQ63" s="207"/>
-      <c r="BR63" s="208"/>
+      <c r="BD63" s="200"/>
+      <c r="BE63" s="200"/>
+      <c r="BF63" s="200"/>
+      <c r="BG63" s="200"/>
+      <c r="BH63" s="200"/>
+      <c r="BI63" s="200"/>
+      <c r="BJ63" s="200"/>
+      <c r="BK63" s="201"/>
+      <c r="BL63" s="202"/>
+      <c r="BM63" s="202"/>
+      <c r="BN63" s="202"/>
+      <c r="BO63" s="202"/>
+      <c r="BP63" s="202"/>
+      <c r="BQ63" s="202"/>
+      <c r="BR63" s="203"/>
     </row>
-    <row r="64" spans="1:70" ht="27.75" customHeight="1">
-      <c r="A64" s="209" t="s">
+    <row r="64" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="214" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="210"/>
-      <c r="C64" s="211"/>
-      <c r="D64" s="212" t="s">
+      <c r="B64" s="215"/>
+      <c r="C64" s="216"/>
+      <c r="D64" s="210" t="s">
         <v>101</v>
       </c>
-      <c r="E64" s="213"/>
-      <c r="F64" s="213"/>
+      <c r="E64" s="211"/>
+      <c r="F64" s="211"/>
       <c r="G64" s="15"/>
-      <c r="H64" s="212" t="s">
+      <c r="H64" s="210" t="s">
         <v>102</v>
       </c>
-      <c r="I64" s="213"/>
-      <c r="J64" s="213"/>
+      <c r="I64" s="211"/>
+      <c r="J64" s="211"/>
       <c r="K64" s="15"/>
-      <c r="L64" s="212" t="s">
+      <c r="L64" s="210" t="s">
         <v>103</v>
       </c>
-      <c r="M64" s="213"/>
-      <c r="N64" s="213"/>
+      <c r="M64" s="211"/>
+      <c r="N64" s="211"/>
       <c r="O64" s="15"/>
-      <c r="P64" s="212" t="s">
+      <c r="P64" s="210" t="s">
         <v>104</v>
       </c>
-      <c r="Q64" s="213"/>
-      <c r="R64" s="213"/>
+      <c r="Q64" s="211"/>
+      <c r="R64" s="211"/>
       <c r="S64" s="15"/>
-      <c r="T64" s="212" t="s">
+      <c r="T64" s="210" t="s">
         <v>105</v>
       </c>
-      <c r="U64" s="213"/>
-      <c r="V64" s="213"/>
+      <c r="U64" s="211"/>
+      <c r="V64" s="211"/>
       <c r="W64" s="15"/>
-      <c r="X64" s="212" t="s">
+      <c r="X64" s="210" t="s">
         <v>106</v>
       </c>
-      <c r="Y64" s="213"/>
-      <c r="Z64" s="213"/>
+      <c r="Y64" s="211"/>
+      <c r="Z64" s="211"/>
       <c r="AA64" s="15"/>
-      <c r="AI64" s="214"/>
-      <c r="AJ64" s="214"/>
+      <c r="AI64" s="222"/>
+      <c r="AJ64" s="222"/>
       <c r="AK64" s="4"/>
-      <c r="BR64" s="147"/>
+      <c r="BR64" s="144"/>
     </row>
-    <row r="65" spans="1:70" ht="27.75" customHeight="1">
+    <row r="65" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="18"/>
       <c r="B65" s="19"/>
       <c r="C65" s="19"/>
@@ -10318,9 +10342,9 @@
       <c r="BO65" s="22"/>
       <c r="BP65" s="22"/>
       <c r="BQ65" s="22"/>
-      <c r="BR65" s="148"/>
+      <c r="BR65" s="145"/>
     </row>
-    <row r="66" spans="1:70" ht="19.5" customHeight="1">
+    <row r="66" spans="1:70" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
@@ -10349,366 +10373,614 @@
       <c r="AI66" s="25"/>
       <c r="AJ66" s="25"/>
     </row>
-    <row r="67" spans="1:70" ht="18">
+    <row r="67" spans="1:70" ht="18" x14ac:dyDescent="0.25">
       <c r="A67" s="26" t="s">
         <v>107</v>
       </c>
       <c r="D67" s="27"/>
       <c r="E67" s="27"/>
     </row>
-    <row r="68" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
+    <row r="68" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="28">
         <v>1</v>
       </c>
-      <c r="B68" s="200" t="s">
+      <c r="B68" s="217" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="200"/>
-      <c r="D68" s="200"/>
-      <c r="E68" s="201" t="s">
+      <c r="C68" s="217"/>
+      <c r="D68" s="217"/>
+      <c r="E68" s="218" t="s">
         <v>109</v>
       </c>
-      <c r="F68" s="201"/>
-      <c r="G68" s="201"/>
-      <c r="H68" s="201"/>
-      <c r="I68" s="201"/>
-      <c r="J68" s="201"/>
-      <c r="K68" s="201"/>
+      <c r="F68" s="218"/>
+      <c r="G68" s="218"/>
+      <c r="H68" s="218"/>
+      <c r="I68" s="218"/>
+      <c r="J68" s="218"/>
+      <c r="K68" s="218"/>
       <c r="N68" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="O68" s="202" t="s">
+      <c r="O68" s="219" t="s">
         <v>111</v>
       </c>
-      <c r="P68" s="203"/>
-      <c r="Q68" s="204"/>
-      <c r="R68" s="201" t="s">
+      <c r="P68" s="220"/>
+      <c r="Q68" s="221"/>
+      <c r="R68" s="218" t="s">
         <v>112</v>
       </c>
-      <c r="S68" s="201"/>
-      <c r="T68" s="201"/>
-      <c r="U68" s="201"/>
-      <c r="V68" s="201"/>
-      <c r="W68" s="201"/>
-      <c r="X68" s="201"/>
+      <c r="S68" s="218"/>
+      <c r="T68" s="218"/>
+      <c r="U68" s="218"/>
+      <c r="V68" s="218"/>
+      <c r="W68" s="218"/>
+      <c r="X68" s="218"/>
       <c r="AA68" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="AB68" s="215" t="s">
+      <c r="AB68" s="223" t="s">
         <v>114</v>
       </c>
-      <c r="AC68" s="216"/>
-      <c r="AD68" s="216"/>
-      <c r="AE68" s="216"/>
-      <c r="AF68" s="216"/>
-      <c r="AG68" s="216"/>
-      <c r="AH68" s="216"/>
-      <c r="AI68" s="216"/>
-      <c r="AJ68" s="216"/>
-      <c r="AK68" s="216"/>
-      <c r="AL68" s="216"/>
-      <c r="AM68" s="217"/>
+      <c r="AC68" s="224"/>
+      <c r="AD68" s="224"/>
+      <c r="AE68" s="224"/>
+      <c r="AF68" s="224"/>
+      <c r="AG68" s="224"/>
+      <c r="AH68" s="224"/>
+      <c r="AI68" s="224"/>
+      <c r="AJ68" s="224"/>
+      <c r="AK68" s="224"/>
+      <c r="AL68" s="224"/>
+      <c r="AM68" s="225"/>
     </row>
-    <row r="69" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
+    <row r="69" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="28">
         <v>2</v>
       </c>
-      <c r="B69" s="200" t="s">
+      <c r="B69" s="217" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="200"/>
-      <c r="D69" s="200"/>
-      <c r="E69" s="201" t="s">
+      <c r="C69" s="217"/>
+      <c r="D69" s="217"/>
+      <c r="E69" s="218" t="s">
         <v>116</v>
       </c>
-      <c r="F69" s="201"/>
-      <c r="G69" s="201"/>
-      <c r="H69" s="201"/>
-      <c r="I69" s="201"/>
-      <c r="J69" s="201"/>
-      <c r="K69" s="201"/>
+      <c r="F69" s="218"/>
+      <c r="G69" s="218"/>
+      <c r="H69" s="218"/>
+      <c r="I69" s="218"/>
+      <c r="J69" s="218"/>
+      <c r="K69" s="218"/>
       <c r="N69" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="O69" s="202" t="s">
+      <c r="O69" s="219" t="s">
         <v>118</v>
       </c>
-      <c r="P69" s="203"/>
-      <c r="Q69" s="204"/>
-      <c r="R69" s="201" t="s">
+      <c r="P69" s="220"/>
+      <c r="Q69" s="221"/>
+      <c r="R69" s="218" t="s">
         <v>119</v>
       </c>
-      <c r="S69" s="201"/>
-      <c r="T69" s="201"/>
-      <c r="U69" s="201"/>
-      <c r="V69" s="201"/>
-      <c r="W69" s="201"/>
-      <c r="X69" s="201"/>
+      <c r="S69" s="218"/>
+      <c r="T69" s="218"/>
+      <c r="U69" s="218"/>
+      <c r="V69" s="218"/>
+      <c r="W69" s="218"/>
+      <c r="X69" s="218"/>
       <c r="AA69" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="AB69" s="200" t="s">
+      <c r="AB69" s="217" t="s">
         <v>118</v>
       </c>
-      <c r="AC69" s="200"/>
-      <c r="AD69" s="200"/>
-      <c r="AE69" s="201" t="s">
+      <c r="AC69" s="217"/>
+      <c r="AD69" s="217"/>
+      <c r="AE69" s="218" t="s">
         <v>121</v>
       </c>
-      <c r="AF69" s="201"/>
-      <c r="AG69" s="201"/>
-      <c r="AH69" s="201"/>
-      <c r="AI69" s="201"/>
-      <c r="AJ69" s="201"/>
-      <c r="AK69" s="201"/>
-      <c r="AL69" s="201"/>
-      <c r="AM69" s="201"/>
+      <c r="AF69" s="218"/>
+      <c r="AG69" s="218"/>
+      <c r="AH69" s="218"/>
+      <c r="AI69" s="218"/>
+      <c r="AJ69" s="218"/>
+      <c r="AK69" s="218"/>
+      <c r="AL69" s="218"/>
+      <c r="AM69" s="218"/>
     </row>
-    <row r="70" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
+    <row r="70" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="28">
         <v>3</v>
       </c>
-      <c r="B70" s="200" t="s">
+      <c r="B70" s="217" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="200"/>
-      <c r="D70" s="200"/>
-      <c r="E70" s="201" t="s">
+      <c r="C70" s="217"/>
+      <c r="D70" s="217"/>
+      <c r="E70" s="218" t="s">
         <v>123</v>
       </c>
-      <c r="F70" s="201"/>
-      <c r="G70" s="201"/>
-      <c r="H70" s="201"/>
-      <c r="I70" s="201"/>
-      <c r="J70" s="201"/>
-      <c r="K70" s="201"/>
+      <c r="F70" s="218"/>
+      <c r="G70" s="218"/>
+      <c r="H70" s="218"/>
+      <c r="I70" s="218"/>
+      <c r="J70" s="218"/>
+      <c r="K70" s="218"/>
       <c r="N70" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="O70" s="202" t="s">
+      <c r="O70" s="219" t="s">
         <v>125</v>
       </c>
-      <c r="P70" s="203"/>
-      <c r="Q70" s="204"/>
-      <c r="R70" s="201" t="s">
+      <c r="P70" s="220"/>
+      <c r="Q70" s="221"/>
+      <c r="R70" s="218" t="s">
         <v>126</v>
       </c>
-      <c r="S70" s="201"/>
-      <c r="T70" s="201"/>
-      <c r="U70" s="201"/>
-      <c r="V70" s="201"/>
-      <c r="W70" s="201"/>
-      <c r="X70" s="201"/>
+      <c r="S70" s="218"/>
+      <c r="T70" s="218"/>
+      <c r="U70" s="218"/>
+      <c r="V70" s="218"/>
+      <c r="W70" s="218"/>
+      <c r="X70" s="218"/>
       <c r="AA70" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="AB70" s="200" t="s">
+      <c r="AB70" s="217" t="s">
         <v>125</v>
       </c>
-      <c r="AC70" s="200"/>
-      <c r="AD70" s="200"/>
-      <c r="AE70" s="201" t="s">
+      <c r="AC70" s="217"/>
+      <c r="AD70" s="217"/>
+      <c r="AE70" s="218" t="s">
         <v>128</v>
       </c>
-      <c r="AF70" s="201"/>
-      <c r="AG70" s="201"/>
-      <c r="AH70" s="201"/>
-      <c r="AI70" s="201"/>
-      <c r="AJ70" s="201"/>
-      <c r="AK70" s="201"/>
-      <c r="AL70" s="201"/>
-      <c r="AM70" s="201"/>
+      <c r="AF70" s="218"/>
+      <c r="AG70" s="218"/>
+      <c r="AH70" s="218"/>
+      <c r="AI70" s="218"/>
+      <c r="AJ70" s="218"/>
+      <c r="AK70" s="218"/>
+      <c r="AL70" s="218"/>
+      <c r="AM70" s="218"/>
       <c r="AN70" s="30"/>
     </row>
-    <row r="71" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
+    <row r="71" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="28">
         <v>4</v>
       </c>
-      <c r="B71" s="200" t="s">
+      <c r="B71" s="217" t="s">
         <v>129</v>
       </c>
-      <c r="C71" s="200"/>
-      <c r="D71" s="200"/>
-      <c r="E71" s="201" t="s">
+      <c r="C71" s="217"/>
+      <c r="D71" s="217"/>
+      <c r="E71" s="218" t="s">
         <v>130</v>
       </c>
-      <c r="F71" s="201"/>
-      <c r="G71" s="201"/>
-      <c r="H71" s="201"/>
-      <c r="I71" s="201"/>
-      <c r="J71" s="201"/>
-      <c r="K71" s="201"/>
+      <c r="F71" s="218"/>
+      <c r="G71" s="218"/>
+      <c r="H71" s="218"/>
+      <c r="I71" s="218"/>
+      <c r="J71" s="218"/>
+      <c r="K71" s="218"/>
       <c r="N71" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="O71" s="202" t="s">
+      <c r="O71" s="219" t="s">
         <v>132</v>
       </c>
-      <c r="P71" s="203"/>
-      <c r="Q71" s="204"/>
-      <c r="R71" s="201" t="s">
+      <c r="P71" s="220"/>
+      <c r="Q71" s="221"/>
+      <c r="R71" s="218" t="s">
         <v>133</v>
       </c>
-      <c r="S71" s="201"/>
-      <c r="T71" s="201"/>
-      <c r="U71" s="201"/>
-      <c r="V71" s="201"/>
-      <c r="W71" s="201"/>
-      <c r="X71" s="201"/>
+      <c r="S71" s="218"/>
+      <c r="T71" s="218"/>
+      <c r="U71" s="218"/>
+      <c r="V71" s="218"/>
+      <c r="W71" s="218"/>
+      <c r="X71" s="218"/>
       <c r="AA71" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="AB71" s="200" t="s">
+      <c r="AB71" s="217" t="s">
         <v>132</v>
       </c>
-      <c r="AC71" s="200"/>
-      <c r="AD71" s="200"/>
-      <c r="AE71" s="201" t="s">
+      <c r="AC71" s="217"/>
+      <c r="AD71" s="217"/>
+      <c r="AE71" s="218" t="s">
         <v>135</v>
       </c>
-      <c r="AF71" s="201"/>
-      <c r="AG71" s="201"/>
-      <c r="AH71" s="201"/>
-      <c r="AI71" s="201"/>
-      <c r="AJ71" s="201"/>
-      <c r="AK71" s="201"/>
-      <c r="AL71" s="201"/>
-      <c r="AM71" s="201"/>
+      <c r="AF71" s="218"/>
+      <c r="AG71" s="218"/>
+      <c r="AH71" s="218"/>
+      <c r="AI71" s="218"/>
+      <c r="AJ71" s="218"/>
+      <c r="AK71" s="218"/>
+      <c r="AL71" s="218"/>
+      <c r="AM71" s="218"/>
       <c r="AN71" s="30"/>
     </row>
-    <row r="72" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
+    <row r="72" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
         <v>5</v>
       </c>
-      <c r="B72" s="200" t="s">
+      <c r="B72" s="217" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="200"/>
-      <c r="D72" s="200"/>
-      <c r="E72" s="201" t="s">
+      <c r="C72" s="217"/>
+      <c r="D72" s="217"/>
+      <c r="E72" s="218" t="s">
         <v>137</v>
       </c>
-      <c r="F72" s="201"/>
-      <c r="G72" s="201"/>
-      <c r="H72" s="201"/>
-      <c r="I72" s="201"/>
-      <c r="J72" s="201"/>
-      <c r="K72" s="201"/>
+      <c r="F72" s="218"/>
+      <c r="G72" s="218"/>
+      <c r="H72" s="218"/>
+      <c r="I72" s="218"/>
+      <c r="J72" s="218"/>
+      <c r="K72" s="218"/>
       <c r="N72" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="O72" s="202" t="s">
+      <c r="O72" s="219" t="s">
         <v>139</v>
       </c>
-      <c r="P72" s="203"/>
-      <c r="Q72" s="204"/>
-      <c r="R72" s="201" t="s">
+      <c r="P72" s="220"/>
+      <c r="Q72" s="221"/>
+      <c r="R72" s="218" t="s">
         <v>140</v>
       </c>
-      <c r="S72" s="201"/>
-      <c r="T72" s="201"/>
-      <c r="U72" s="201"/>
-      <c r="V72" s="201"/>
-      <c r="W72" s="201"/>
-      <c r="X72" s="201"/>
+      <c r="S72" s="218"/>
+      <c r="T72" s="218"/>
+      <c r="U72" s="218"/>
+      <c r="V72" s="218"/>
+      <c r="W72" s="218"/>
+      <c r="X72" s="218"/>
       <c r="AA72" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="AB72" s="200" t="s">
+      <c r="AB72" s="217" t="s">
         <v>139</v>
       </c>
-      <c r="AC72" s="200"/>
-      <c r="AD72" s="200"/>
-      <c r="AE72" s="201" t="s">
+      <c r="AC72" s="217"/>
+      <c r="AD72" s="217"/>
+      <c r="AE72" s="218" t="s">
         <v>142</v>
       </c>
-      <c r="AF72" s="201"/>
-      <c r="AG72" s="201"/>
-      <c r="AH72" s="201"/>
-      <c r="AI72" s="201"/>
-      <c r="AJ72" s="201"/>
-      <c r="AK72" s="201"/>
-      <c r="AL72" s="201"/>
-      <c r="AM72" s="201"/>
+      <c r="AF72" s="218"/>
+      <c r="AG72" s="218"/>
+      <c r="AH72" s="218"/>
+      <c r="AI72" s="218"/>
+      <c r="AJ72" s="218"/>
+      <c r="AK72" s="218"/>
+      <c r="AL72" s="218"/>
+      <c r="AM72" s="218"/>
       <c r="AN72" s="30"/>
     </row>
-    <row r="73" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
+    <row r="73" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>6</v>
       </c>
-      <c r="B73" s="200" t="s">
+      <c r="B73" s="217" t="s">
         <v>143</v>
       </c>
-      <c r="C73" s="200"/>
-      <c r="D73" s="200"/>
-      <c r="E73" s="201" t="s">
+      <c r="C73" s="217"/>
+      <c r="D73" s="217"/>
+      <c r="E73" s="218" t="s">
         <v>144</v>
       </c>
-      <c r="F73" s="201"/>
-      <c r="G73" s="201"/>
-      <c r="H73" s="201"/>
-      <c r="I73" s="201"/>
-      <c r="J73" s="201"/>
-      <c r="K73" s="201"/>
+      <c r="F73" s="218"/>
+      <c r="G73" s="218"/>
+      <c r="H73" s="218"/>
+      <c r="I73" s="218"/>
+      <c r="J73" s="218"/>
+      <c r="K73" s="218"/>
       <c r="N73" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="O73" s="202" t="s">
+      <c r="O73" s="219" t="s">
         <v>146</v>
       </c>
-      <c r="P73" s="203"/>
-      <c r="Q73" s="204"/>
-      <c r="R73" s="201" t="s">
+      <c r="P73" s="220"/>
+      <c r="Q73" s="221"/>
+      <c r="R73" s="218" t="s">
         <v>147</v>
       </c>
-      <c r="S73" s="201"/>
-      <c r="T73" s="201"/>
-      <c r="U73" s="201"/>
-      <c r="V73" s="201"/>
-      <c r="W73" s="201"/>
-      <c r="X73" s="201"/>
+      <c r="S73" s="218"/>
+      <c r="T73" s="218"/>
+      <c r="U73" s="218"/>
+      <c r="V73" s="218"/>
+      <c r="W73" s="218"/>
+      <c r="X73" s="218"/>
       <c r="AA73" s="28"/>
-      <c r="AB73" s="200" t="s">
+      <c r="AB73" s="217" t="s">
         <v>148</v>
       </c>
-      <c r="AC73" s="200"/>
-      <c r="AD73" s="200"/>
-      <c r="AE73" s="201" t="s">
+      <c r="AC73" s="217"/>
+      <c r="AD73" s="217"/>
+      <c r="AE73" s="218" t="s">
         <v>149</v>
       </c>
-      <c r="AF73" s="201"/>
-      <c r="AG73" s="201"/>
-      <c r="AH73" s="201"/>
-      <c r="AI73" s="201"/>
-      <c r="AJ73" s="201"/>
-      <c r="AK73" s="201"/>
-      <c r="AL73" s="201"/>
-      <c r="AM73" s="201"/>
+      <c r="AF73" s="218"/>
+      <c r="AG73" s="218"/>
+      <c r="AH73" s="218"/>
+      <c r="AI73" s="218"/>
+      <c r="AJ73" s="218"/>
+      <c r="AK73" s="218"/>
+      <c r="AL73" s="218"/>
+      <c r="AM73" s="218"/>
     </row>
-    <row r="74" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1">
+    <row r="74" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="28">
         <v>7</v>
       </c>
-      <c r="B74" s="200" t="s">
+      <c r="B74" s="217" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="200"/>
-      <c r="D74" s="200"/>
-      <c r="E74" s="201" t="s">
+      <c r="C74" s="217"/>
+      <c r="D74" s="217"/>
+      <c r="E74" s="218" t="s">
         <v>151</v>
       </c>
-      <c r="F74" s="201"/>
-      <c r="G74" s="201"/>
-      <c r="H74" s="201"/>
-      <c r="I74" s="201"/>
-      <c r="J74" s="201"/>
-      <c r="K74" s="201"/>
+      <c r="F74" s="218"/>
+      <c r="G74" s="218"/>
+      <c r="H74" s="218"/>
+      <c r="I74" s="218"/>
+      <c r="J74" s="218"/>
+      <c r="K74" s="218"/>
     </row>
-    <row r="75" spans="1:70" ht="16.5">
+    <row r="75" spans="1:70" ht="16.5" x14ac:dyDescent="0.25">
       <c r="N75" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="272">
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="BR40:BR41"/>
+    <mergeCell ref="BR44:BR45"/>
+    <mergeCell ref="BL32:BL33"/>
+    <mergeCell ref="BL36:BL37"/>
+    <mergeCell ref="BL40:BL41"/>
+    <mergeCell ref="BL44:BL45"/>
+    <mergeCell ref="BO16:BO17"/>
+    <mergeCell ref="BO20:BO21"/>
+    <mergeCell ref="BO24:BO25"/>
+    <mergeCell ref="BO28:BO29"/>
+    <mergeCell ref="BO32:BO33"/>
+    <mergeCell ref="BO36:BO37"/>
+    <mergeCell ref="BO40:BO41"/>
+    <mergeCell ref="BO44:BO45"/>
+    <mergeCell ref="BR48:BR49"/>
+    <mergeCell ref="BR52:BR53"/>
+    <mergeCell ref="BP12:BP13"/>
+    <mergeCell ref="BP16:BP17"/>
+    <mergeCell ref="BR12:BR13"/>
+    <mergeCell ref="BR16:BR17"/>
+    <mergeCell ref="BR20:BR21"/>
+    <mergeCell ref="BR24:BR25"/>
+    <mergeCell ref="BR28:BR29"/>
+    <mergeCell ref="BR32:BR33"/>
+    <mergeCell ref="BR36:BR37"/>
+    <mergeCell ref="AM26:BR27"/>
+    <mergeCell ref="AM30:BR31"/>
+    <mergeCell ref="AM34:BR35"/>
+    <mergeCell ref="AM38:BR39"/>
+    <mergeCell ref="AM42:BR43"/>
+    <mergeCell ref="AM46:BR47"/>
+    <mergeCell ref="AM50:BR51"/>
+    <mergeCell ref="BO52:BO53"/>
+    <mergeCell ref="BL12:BL13"/>
+    <mergeCell ref="BL16:BL17"/>
+    <mergeCell ref="BL20:BL21"/>
+    <mergeCell ref="BL24:BL25"/>
+    <mergeCell ref="BL28:BL29"/>
+    <mergeCell ref="BO48:BO49"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP2:AZ2"/>
+    <mergeCell ref="AP3:AZ3"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="BD3:BI3"/>
+    <mergeCell ref="BM2:BR2"/>
+    <mergeCell ref="BM3:BR3"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BB5:BC5"/>
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="BN6:BN7"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AZ5:BA5"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E74:K74"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:K73"/>
+    <mergeCell ref="O73:Q73"/>
+    <mergeCell ref="R73:X73"/>
+    <mergeCell ref="AB73:AD73"/>
+    <mergeCell ref="AE73:AM73"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:K72"/>
+    <mergeCell ref="O72:Q72"/>
+    <mergeCell ref="R72:X72"/>
+    <mergeCell ref="AB72:AD72"/>
+    <mergeCell ref="AE72:AM72"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:K71"/>
+    <mergeCell ref="O71:Q71"/>
+    <mergeCell ref="R71:X71"/>
+    <mergeCell ref="AB71:AD71"/>
+    <mergeCell ref="AE71:AM71"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="E70:K70"/>
+    <mergeCell ref="O70:Q70"/>
+    <mergeCell ref="R70:X70"/>
+    <mergeCell ref="AB70:AD70"/>
+    <mergeCell ref="AE70:AM70"/>
+    <mergeCell ref="BC63:BJ63"/>
+    <mergeCell ref="BK63:BR63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:K69"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="R69:X69"/>
+    <mergeCell ref="AB69:AD69"/>
+    <mergeCell ref="AE69:AM69"/>
+    <mergeCell ref="T64:V64"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:K68"/>
+    <mergeCell ref="O68:Q68"/>
+    <mergeCell ref="R68:X68"/>
+    <mergeCell ref="AB68:AM68"/>
+    <mergeCell ref="AM62:AO62"/>
+    <mergeCell ref="AP62:AW62"/>
+    <mergeCell ref="BC62:BJ62"/>
+    <mergeCell ref="BK62:BR62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="T62:V62"/>
+    <mergeCell ref="X62:Z62"/>
+    <mergeCell ref="A61:C62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="X63:Z63"/>
+    <mergeCell ref="AM63:AO63"/>
+    <mergeCell ref="AP63:AW63"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="X61:Z61"/>
+    <mergeCell ref="AM61:AO61"/>
+    <mergeCell ref="AP61:AW61"/>
+    <mergeCell ref="BC61:BJ61"/>
+    <mergeCell ref="BK61:BR61"/>
+    <mergeCell ref="X60:Z60"/>
+    <mergeCell ref="AM60:AO60"/>
+    <mergeCell ref="AP60:AW60"/>
+    <mergeCell ref="BC60:BJ60"/>
+    <mergeCell ref="BK60:BR60"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="T60:V60"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="X59:Z59"/>
+    <mergeCell ref="AM59:AO59"/>
+    <mergeCell ref="AP59:AW59"/>
+    <mergeCell ref="BC59:BJ59"/>
+    <mergeCell ref="BK59:BR59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="AJ56:AL56"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="AM1:BR1"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AQ4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="AF2:AL2"/>
+    <mergeCell ref="AF3:AL3"/>
+    <mergeCell ref="V2:AB2"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="D2:R2"/>
+    <mergeCell ref="D3:R3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="AX5:AY5"/>
+    <mergeCell ref="B4:AL4"/>
     <mergeCell ref="AM54:BR55"/>
     <mergeCell ref="AQ6:AQ7"/>
     <mergeCell ref="AM6:AM7"/>
@@ -10733,254 +11005,6 @@
     <mergeCell ref="BL52:BL53"/>
     <mergeCell ref="BO8:BO9"/>
     <mergeCell ref="BO12:BO13"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="AM1:BR1"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AQ4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="AF2:AL2"/>
-    <mergeCell ref="AF3:AL3"/>
-    <mergeCell ref="V2:AB2"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="D2:R2"/>
-    <mergeCell ref="D3:R3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="AP59:AW59"/>
-    <mergeCell ref="BC59:BJ59"/>
-    <mergeCell ref="BK59:BR59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="AJ56:AL56"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="T60:V60"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="X59:Z59"/>
-    <mergeCell ref="AM59:AO59"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="X61:Z61"/>
-    <mergeCell ref="AM61:AO61"/>
-    <mergeCell ref="AP61:AW61"/>
-    <mergeCell ref="BC61:BJ61"/>
-    <mergeCell ref="BK61:BR61"/>
-    <mergeCell ref="X60:Z60"/>
-    <mergeCell ref="AM60:AO60"/>
-    <mergeCell ref="AP60:AW60"/>
-    <mergeCell ref="BC60:BJ60"/>
-    <mergeCell ref="BK60:BR60"/>
-    <mergeCell ref="AM62:AO62"/>
-    <mergeCell ref="AP62:AW62"/>
-    <mergeCell ref="BC62:BJ62"/>
-    <mergeCell ref="BK62:BR62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="T62:V62"/>
-    <mergeCell ref="X62:Z62"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="X63:Z63"/>
-    <mergeCell ref="AM63:AO63"/>
-    <mergeCell ref="AP63:AW63"/>
-    <mergeCell ref="BC63:BJ63"/>
-    <mergeCell ref="BK63:BR63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="E69:K69"/>
-    <mergeCell ref="O69:Q69"/>
-    <mergeCell ref="R69:X69"/>
-    <mergeCell ref="AB69:AD69"/>
-    <mergeCell ref="AE69:AM69"/>
-    <mergeCell ref="T64:V64"/>
-    <mergeCell ref="X64:Z64"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="E68:K68"/>
-    <mergeCell ref="O68:Q68"/>
-    <mergeCell ref="R68:X68"/>
-    <mergeCell ref="AB68:AM68"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="E71:K71"/>
-    <mergeCell ref="O71:Q71"/>
-    <mergeCell ref="R71:X71"/>
-    <mergeCell ref="AB71:AD71"/>
-    <mergeCell ref="AE71:AM71"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="E70:K70"/>
-    <mergeCell ref="O70:Q70"/>
-    <mergeCell ref="R70:X70"/>
-    <mergeCell ref="AB70:AD70"/>
-    <mergeCell ref="AE70:AM70"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="E74:K74"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:K73"/>
-    <mergeCell ref="O73:Q73"/>
-    <mergeCell ref="R73:X73"/>
-    <mergeCell ref="AB73:AD73"/>
-    <mergeCell ref="AE73:AM73"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:K72"/>
-    <mergeCell ref="O72:Q72"/>
-    <mergeCell ref="R72:X72"/>
-    <mergeCell ref="AB72:AD72"/>
-    <mergeCell ref="AE72:AM72"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AX5:AY5"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AZ5:BA5"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="BO48:BO49"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP2:AZ2"/>
-    <mergeCell ref="AP3:AZ3"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="BD3:BI3"/>
-    <mergeCell ref="BM2:BR2"/>
-    <mergeCell ref="BM3:BR3"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BP8:BP9"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BB5:BC5"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BM6:BM7"/>
-    <mergeCell ref="BN6:BN7"/>
-    <mergeCell ref="BR48:BR49"/>
-    <mergeCell ref="BR52:BR53"/>
-    <mergeCell ref="BP12:BP13"/>
-    <mergeCell ref="BP16:BP17"/>
-    <mergeCell ref="BR12:BR13"/>
-    <mergeCell ref="BR16:BR17"/>
-    <mergeCell ref="BR20:BR21"/>
-    <mergeCell ref="BR24:BR25"/>
-    <mergeCell ref="BR28:BR29"/>
-    <mergeCell ref="BR32:BR33"/>
-    <mergeCell ref="BR36:BR37"/>
-    <mergeCell ref="AM26:BR27"/>
-    <mergeCell ref="AM30:BR31"/>
-    <mergeCell ref="AM34:BR35"/>
-    <mergeCell ref="AM38:BR39"/>
-    <mergeCell ref="AM42:BR43"/>
-    <mergeCell ref="AM46:BR47"/>
-    <mergeCell ref="AM50:BR51"/>
-    <mergeCell ref="BO52:BO53"/>
-    <mergeCell ref="BL12:BL13"/>
-    <mergeCell ref="BL16:BL17"/>
-    <mergeCell ref="BL20:BL21"/>
-    <mergeCell ref="BL24:BL25"/>
-    <mergeCell ref="BL28:BL29"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="B4:AL4"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="BR40:BR41"/>
-    <mergeCell ref="BR44:BR45"/>
-    <mergeCell ref="BL32:BL33"/>
-    <mergeCell ref="BL36:BL37"/>
-    <mergeCell ref="BL40:BL41"/>
-    <mergeCell ref="BL44:BL45"/>
-    <mergeCell ref="BO16:BO17"/>
-    <mergeCell ref="BO20:BO21"/>
-    <mergeCell ref="BO24:BO25"/>
-    <mergeCell ref="BO28:BO29"/>
-    <mergeCell ref="BO32:BO33"/>
-    <mergeCell ref="BO36:BO37"/>
-    <mergeCell ref="BO40:BO41"/>
-    <mergeCell ref="BO44:BO45"/>
-    <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AR5:AS5"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Python/ExternalData/DailyReportTemplateWithLunar_B.xlsx
+++ b/Python/ExternalData/DailyReportTemplateWithLunar_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_EveryThing\_code\HuachunDailyReport2024\Python\ExternalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015AF569-72AA-4945-8CD7-F2847FCF9093}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25106D20-79E1-4D49-89EA-2D73D3A1DD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A6DB0C3-2965-4D6C-B04A-BB1132023D50}"/>
   </bookViews>
@@ -2448,365 +2448,365 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="78" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="72" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="77" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5430,384 +5430,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="196" t="s">
+      <c r="A1" s="189" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="197"/>
-      <c r="C1" s="197"/>
-      <c r="D1" s="197"/>
-      <c r="E1" s="197"/>
-      <c r="F1" s="197"/>
-      <c r="G1" s="197"/>
-      <c r="H1" s="197"/>
-      <c r="I1" s="197"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="197"/>
-      <c r="N1" s="197"/>
-      <c r="O1" s="197"/>
-      <c r="P1" s="197"/>
-      <c r="Q1" s="197"/>
-      <c r="R1" s="197"/>
-      <c r="S1" s="197"/>
-      <c r="T1" s="197"/>
-      <c r="U1" s="197"/>
-      <c r="V1" s="197"/>
-      <c r="W1" s="197"/>
-      <c r="X1" s="197"/>
-      <c r="Y1" s="197"/>
-      <c r="Z1" s="197"/>
-      <c r="AA1" s="197"/>
-      <c r="AB1" s="197"/>
-      <c r="AC1" s="197"/>
-      <c r="AD1" s="197"/>
-      <c r="AE1" s="197"/>
-      <c r="AF1" s="197"/>
-      <c r="AG1" s="197"/>
-      <c r="AH1" s="197"/>
-      <c r="AI1" s="197"/>
-      <c r="AJ1" s="197"/>
-      <c r="AK1" s="197"/>
-      <c r="AL1" s="198"/>
-      <c r="AM1" s="196" t="s">
+      <c r="B1" s="190"/>
+      <c r="C1" s="190"/>
+      <c r="D1" s="190"/>
+      <c r="E1" s="190"/>
+      <c r="F1" s="190"/>
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="190"/>
+      <c r="J1" s="190"/>
+      <c r="K1" s="190"/>
+      <c r="L1" s="190"/>
+      <c r="M1" s="190"/>
+      <c r="N1" s="190"/>
+      <c r="O1" s="190"/>
+      <c r="P1" s="190"/>
+      <c r="Q1" s="190"/>
+      <c r="R1" s="190"/>
+      <c r="S1" s="190"/>
+      <c r="T1" s="190"/>
+      <c r="U1" s="190"/>
+      <c r="V1" s="190"/>
+      <c r="W1" s="190"/>
+      <c r="X1" s="190"/>
+      <c r="Y1" s="190"/>
+      <c r="Z1" s="190"/>
+      <c r="AA1" s="190"/>
+      <c r="AB1" s="190"/>
+      <c r="AC1" s="190"/>
+      <c r="AD1" s="190"/>
+      <c r="AE1" s="190"/>
+      <c r="AF1" s="190"/>
+      <c r="AG1" s="190"/>
+      <c r="AH1" s="190"/>
+      <c r="AI1" s="190"/>
+      <c r="AJ1" s="190"/>
+      <c r="AK1" s="190"/>
+      <c r="AL1" s="191"/>
+      <c r="AM1" s="189" t="s">
         <v>160</v>
       </c>
-      <c r="AN1" s="197"/>
-      <c r="AO1" s="197"/>
-      <c r="AP1" s="197"/>
-      <c r="AQ1" s="197"/>
-      <c r="AR1" s="197"/>
-      <c r="AS1" s="197"/>
-      <c r="AT1" s="197"/>
-      <c r="AU1" s="197"/>
-      <c r="AV1" s="197"/>
-      <c r="AW1" s="197"/>
-      <c r="AX1" s="197"/>
-      <c r="AY1" s="197"/>
-      <c r="AZ1" s="197"/>
-      <c r="BA1" s="197"/>
-      <c r="BB1" s="197"/>
-      <c r="BC1" s="197"/>
-      <c r="BD1" s="197"/>
-      <c r="BE1" s="197"/>
-      <c r="BF1" s="197"/>
-      <c r="BG1" s="197"/>
-      <c r="BH1" s="197"/>
-      <c r="BI1" s="197"/>
-      <c r="BJ1" s="197"/>
-      <c r="BK1" s="197"/>
-      <c r="BL1" s="197"/>
-      <c r="BM1" s="197"/>
-      <c r="BN1" s="197"/>
-      <c r="BO1" s="197"/>
-      <c r="BP1" s="197"/>
-      <c r="BQ1" s="197"/>
-      <c r="BR1" s="198"/>
+      <c r="AN1" s="190"/>
+      <c r="AO1" s="190"/>
+      <c r="AP1" s="190"/>
+      <c r="AQ1" s="190"/>
+      <c r="AR1" s="190"/>
+      <c r="AS1" s="190"/>
+      <c r="AT1" s="190"/>
+      <c r="AU1" s="190"/>
+      <c r="AV1" s="190"/>
+      <c r="AW1" s="190"/>
+      <c r="AX1" s="190"/>
+      <c r="AY1" s="190"/>
+      <c r="AZ1" s="190"/>
+      <c r="BA1" s="190"/>
+      <c r="BB1" s="190"/>
+      <c r="BC1" s="190"/>
+      <c r="BD1" s="190"/>
+      <c r="BE1" s="190"/>
+      <c r="BF1" s="190"/>
+      <c r="BG1" s="190"/>
+      <c r="BH1" s="190"/>
+      <c r="BI1" s="190"/>
+      <c r="BJ1" s="190"/>
+      <c r="BK1" s="190"/>
+      <c r="BL1" s="190"/>
+      <c r="BM1" s="190"/>
+      <c r="BN1" s="190"/>
+      <c r="BO1" s="190"/>
+      <c r="BP1" s="190"/>
+      <c r="BQ1" s="190"/>
+      <c r="BR1" s="191"/>
     </row>
     <row r="2" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="142" t="s">
+      <c r="A2" s="199" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
-      <c r="J2" s="143"/>
-      <c r="K2" s="143"/>
-      <c r="L2" s="143"/>
-      <c r="M2" s="143"/>
-      <c r="N2" s="143"/>
-      <c r="O2" s="143"/>
-      <c r="P2" s="143"/>
-      <c r="Q2" s="143"/>
-      <c r="R2" s="143"/>
-      <c r="S2" s="143" t="s">
+      <c r="B2" s="197"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
+      <c r="I2" s="197"/>
+      <c r="J2" s="197"/>
+      <c r="K2" s="197"/>
+      <c r="L2" s="197"/>
+      <c r="M2" s="197"/>
+      <c r="N2" s="197"/>
+      <c r="O2" s="197"/>
+      <c r="P2" s="197"/>
+      <c r="Q2" s="197"/>
+      <c r="R2" s="197"/>
+      <c r="S2" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="143"/>
-      <c r="U2" s="143"/>
-      <c r="V2" s="143"/>
-      <c r="W2" s="143"/>
-      <c r="X2" s="143"/>
-      <c r="Y2" s="143"/>
-      <c r="Z2" s="143"/>
-      <c r="AA2" s="143"/>
-      <c r="AB2" s="143"/>
-      <c r="AC2" s="143" t="s">
+      <c r="T2" s="197"/>
+      <c r="U2" s="197"/>
+      <c r="V2" s="197"/>
+      <c r="W2" s="197"/>
+      <c r="X2" s="197"/>
+      <c r="Y2" s="197"/>
+      <c r="Z2" s="197"/>
+      <c r="AA2" s="197"/>
+      <c r="AB2" s="197"/>
+      <c r="AC2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="143"/>
-      <c r="AE2" s="143"/>
-      <c r="AF2" s="143"/>
-      <c r="AG2" s="143"/>
-      <c r="AH2" s="143"/>
-      <c r="AI2" s="143"/>
-      <c r="AJ2" s="143"/>
-      <c r="AK2" s="143"/>
-      <c r="AL2" s="144"/>
-      <c r="AM2" s="142" t="s">
+      <c r="AD2" s="197"/>
+      <c r="AE2" s="197"/>
+      <c r="AF2" s="197"/>
+      <c r="AG2" s="197"/>
+      <c r="AH2" s="197"/>
+      <c r="AI2" s="197"/>
+      <c r="AJ2" s="197"/>
+      <c r="AK2" s="197"/>
+      <c r="AL2" s="198"/>
+      <c r="AM2" s="199" t="s">
         <v>153</v>
       </c>
-      <c r="AN2" s="143"/>
-      <c r="AO2" s="143"/>
-      <c r="AP2" s="143"/>
-      <c r="AQ2" s="143"/>
-      <c r="AR2" s="143"/>
-      <c r="AS2" s="143"/>
-      <c r="AT2" s="143"/>
-      <c r="AU2" s="143"/>
-      <c r="AV2" s="143"/>
-      <c r="AW2" s="143"/>
-      <c r="AX2" s="143"/>
-      <c r="AY2" s="143"/>
-      <c r="AZ2" s="143"/>
-      <c r="BA2" s="143" t="s">
+      <c r="AN2" s="197"/>
+      <c r="AO2" s="197"/>
+      <c r="AP2" s="197"/>
+      <c r="AQ2" s="197"/>
+      <c r="AR2" s="197"/>
+      <c r="AS2" s="197"/>
+      <c r="AT2" s="197"/>
+      <c r="AU2" s="197"/>
+      <c r="AV2" s="197"/>
+      <c r="AW2" s="197"/>
+      <c r="AX2" s="197"/>
+      <c r="AY2" s="197"/>
+      <c r="AZ2" s="197"/>
+      <c r="BA2" s="197" t="s">
         <v>0</v>
       </c>
-      <c r="BB2" s="143"/>
-      <c r="BC2" s="143"/>
-      <c r="BD2" s="143"/>
-      <c r="BE2" s="143"/>
-      <c r="BF2" s="143"/>
-      <c r="BG2" s="143"/>
-      <c r="BH2" s="143"/>
-      <c r="BI2" s="143"/>
-      <c r="BJ2" s="143" t="s">
+      <c r="BB2" s="197"/>
+      <c r="BC2" s="197"/>
+      <c r="BD2" s="197"/>
+      <c r="BE2" s="197"/>
+      <c r="BF2" s="197"/>
+      <c r="BG2" s="197"/>
+      <c r="BH2" s="197"/>
+      <c r="BI2" s="197"/>
+      <c r="BJ2" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" s="143"/>
-      <c r="BL2" s="143"/>
-      <c r="BM2" s="143"/>
-      <c r="BN2" s="143"/>
-      <c r="BO2" s="143"/>
-      <c r="BP2" s="143"/>
-      <c r="BQ2" s="143"/>
-      <c r="BR2" s="144"/>
+      <c r="BK2" s="197"/>
+      <c r="BL2" s="197"/>
+      <c r="BM2" s="197"/>
+      <c r="BN2" s="197"/>
+      <c r="BO2" s="197"/>
+      <c r="BP2" s="197"/>
+      <c r="BQ2" s="197"/>
+      <c r="BR2" s="198"/>
     </row>
     <row r="3" spans="1:70" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="142" t="s">
+      <c r="A3" s="199" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="143"/>
-      <c r="C3" s="143"/>
-      <c r="D3" s="143"/>
-      <c r="E3" s="143"/>
-      <c r="F3" s="143"/>
-      <c r="G3" s="143"/>
-      <c r="H3" s="143"/>
-      <c r="I3" s="143"/>
-      <c r="J3" s="143"/>
-      <c r="K3" s="143"/>
-      <c r="L3" s="143"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="143"/>
-      <c r="O3" s="143"/>
-      <c r="P3" s="143"/>
-      <c r="Q3" s="143"/>
-      <c r="R3" s="143"/>
-      <c r="S3" s="143" t="s">
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="197"/>
+      <c r="H3" s="197"/>
+      <c r="I3" s="197"/>
+      <c r="J3" s="197"/>
+      <c r="K3" s="197"/>
+      <c r="L3" s="197"/>
+      <c r="M3" s="197"/>
+      <c r="N3" s="197"/>
+      <c r="O3" s="197"/>
+      <c r="P3" s="197"/>
+      <c r="Q3" s="197"/>
+      <c r="R3" s="197"/>
+      <c r="S3" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="143"/>
-      <c r="U3" s="143"/>
-      <c r="V3" s="143"/>
-      <c r="W3" s="143"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="143"/>
-      <c r="Z3" s="143"/>
-      <c r="AA3" s="143"/>
-      <c r="AB3" s="143"/>
-      <c r="AC3" s="143" t="s">
+      <c r="T3" s="197"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="197"/>
+      <c r="AA3" s="197"/>
+      <c r="AB3" s="197"/>
+      <c r="AC3" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="143"/>
-      <c r="AE3" s="143"/>
-      <c r="AF3" s="143"/>
-      <c r="AG3" s="143"/>
-      <c r="AH3" s="143"/>
-      <c r="AI3" s="143"/>
-      <c r="AJ3" s="143"/>
-      <c r="AK3" s="143"/>
-      <c r="AL3" s="144"/>
-      <c r="AM3" s="142" t="s">
+      <c r="AD3" s="197"/>
+      <c r="AE3" s="197"/>
+      <c r="AF3" s="197"/>
+      <c r="AG3" s="197"/>
+      <c r="AH3" s="197"/>
+      <c r="AI3" s="197"/>
+      <c r="AJ3" s="197"/>
+      <c r="AK3" s="197"/>
+      <c r="AL3" s="198"/>
+      <c r="AM3" s="199" t="s">
         <v>161</v>
       </c>
-      <c r="AN3" s="143"/>
-      <c r="AO3" s="143"/>
-      <c r="AP3" s="143"/>
-      <c r="AQ3" s="143"/>
-      <c r="AR3" s="143"/>
-      <c r="AS3" s="143"/>
-      <c r="AT3" s="143"/>
-      <c r="AU3" s="143"/>
-      <c r="AV3" s="143"/>
-      <c r="AW3" s="143"/>
-      <c r="AX3" s="143"/>
-      <c r="AY3" s="143"/>
-      <c r="AZ3" s="143"/>
-      <c r="BA3" s="143" t="s">
+      <c r="AN3" s="197"/>
+      <c r="AO3" s="197"/>
+      <c r="AP3" s="197"/>
+      <c r="AQ3" s="197"/>
+      <c r="AR3" s="197"/>
+      <c r="AS3" s="197"/>
+      <c r="AT3" s="197"/>
+      <c r="AU3" s="197"/>
+      <c r="AV3" s="197"/>
+      <c r="AW3" s="197"/>
+      <c r="AX3" s="197"/>
+      <c r="AY3" s="197"/>
+      <c r="AZ3" s="197"/>
+      <c r="BA3" s="197" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="143"/>
-      <c r="BC3" s="143"/>
-      <c r="BD3" s="143"/>
-      <c r="BE3" s="143"/>
-      <c r="BF3" s="143"/>
-      <c r="BG3" s="143"/>
-      <c r="BH3" s="143"/>
-      <c r="BI3" s="143"/>
-      <c r="BJ3" s="143" t="s">
+      <c r="BB3" s="197"/>
+      <c r="BC3" s="197"/>
+      <c r="BD3" s="197"/>
+      <c r="BE3" s="197"/>
+      <c r="BF3" s="197"/>
+      <c r="BG3" s="197"/>
+      <c r="BH3" s="197"/>
+      <c r="BI3" s="197"/>
+      <c r="BJ3" s="197" t="s">
         <v>3</v>
       </c>
-      <c r="BK3" s="143"/>
-      <c r="BL3" s="143"/>
-      <c r="BM3" s="143"/>
-      <c r="BN3" s="143"/>
-      <c r="BO3" s="143"/>
-      <c r="BP3" s="143"/>
-      <c r="BQ3" s="143"/>
-      <c r="BR3" s="144"/>
+      <c r="BK3" s="197"/>
+      <c r="BL3" s="197"/>
+      <c r="BM3" s="197"/>
+      <c r="BN3" s="197"/>
+      <c r="BO3" s="197"/>
+      <c r="BP3" s="197"/>
+      <c r="BQ3" s="197"/>
+      <c r="BR3" s="198"/>
     </row>
     <row r="4" spans="1:70" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="204"/>
-      <c r="B4" s="206"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="206"/>
-      <c r="H4" s="206"/>
-      <c r="I4" s="206"/>
-      <c r="J4" s="206"/>
-      <c r="K4" s="206"/>
-      <c r="L4" s="206"/>
-      <c r="M4" s="206"/>
-      <c r="N4" s="206"/>
-      <c r="O4" s="206"/>
-      <c r="P4" s="206"/>
-      <c r="Q4" s="206"/>
-      <c r="R4" s="206"/>
-      <c r="S4" s="206"/>
-      <c r="T4" s="206"/>
-      <c r="U4" s="206"/>
-      <c r="V4" s="206"/>
-      <c r="W4" s="206"/>
-      <c r="X4" s="206"/>
-      <c r="Y4" s="206"/>
-      <c r="Z4" s="206"/>
-      <c r="AA4" s="206"/>
-      <c r="AB4" s="206"/>
-      <c r="AC4" s="206"/>
-      <c r="AD4" s="206"/>
-      <c r="AE4" s="206"/>
-      <c r="AF4" s="206"/>
-      <c r="AG4" s="206"/>
-      <c r="AH4" s="206"/>
-      <c r="AI4" s="206"/>
-      <c r="AJ4" s="206"/>
-      <c r="AK4" s="206"/>
-      <c r="AL4" s="206"/>
+      <c r="A4" s="200"/>
+      <c r="B4" s="204"/>
+      <c r="C4" s="204"/>
+      <c r="D4" s="204"/>
+      <c r="E4" s="204"/>
+      <c r="F4" s="204"/>
+      <c r="G4" s="204"/>
+      <c r="H4" s="204"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="204"/>
+      <c r="M4" s="204"/>
+      <c r="N4" s="204"/>
+      <c r="O4" s="204"/>
+      <c r="P4" s="204"/>
+      <c r="Q4" s="204"/>
+      <c r="R4" s="204"/>
+      <c r="S4" s="204"/>
+      <c r="T4" s="204"/>
+      <c r="U4" s="204"/>
+      <c r="V4" s="204"/>
+      <c r="W4" s="204"/>
+      <c r="X4" s="204"/>
+      <c r="Y4" s="204"/>
+      <c r="Z4" s="204"/>
+      <c r="AA4" s="204"/>
+      <c r="AB4" s="204"/>
+      <c r="AC4" s="204"/>
+      <c r="AD4" s="204"/>
+      <c r="AE4" s="204"/>
+      <c r="AF4" s="204"/>
+      <c r="AG4" s="204"/>
+      <c r="AH4" s="204"/>
+      <c r="AI4" s="204"/>
+      <c r="AJ4" s="204"/>
+      <c r="AK4" s="204"/>
+      <c r="AL4" s="204"/>
       <c r="AM4" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="AN4" s="199" t="s">
+      <c r="AN4" s="192" t="s">
         <v>164</v>
       </c>
-      <c r="AO4" s="200"/>
-      <c r="AP4" s="201"/>
-      <c r="AQ4" s="199" t="s">
+      <c r="AO4" s="193"/>
+      <c r="AP4" s="194"/>
+      <c r="AQ4" s="192" t="s">
         <v>165</v>
       </c>
-      <c r="AR4" s="200"/>
-      <c r="AS4" s="200"/>
-      <c r="AT4" s="200"/>
-      <c r="AU4" s="200"/>
-      <c r="AV4" s="200"/>
-      <c r="AW4" s="200"/>
-      <c r="AX4" s="200"/>
-      <c r="AY4" s="200"/>
-      <c r="AZ4" s="200"/>
-      <c r="BA4" s="200"/>
-      <c r="BB4" s="200"/>
-      <c r="BC4" s="200"/>
-      <c r="BD4" s="201"/>
-      <c r="BE4" s="199" t="s">
+      <c r="AR4" s="193"/>
+      <c r="AS4" s="193"/>
+      <c r="AT4" s="193"/>
+      <c r="AU4" s="193"/>
+      <c r="AV4" s="193"/>
+      <c r="AW4" s="193"/>
+      <c r="AX4" s="193"/>
+      <c r="AY4" s="193"/>
+      <c r="AZ4" s="193"/>
+      <c r="BA4" s="193"/>
+      <c r="BB4" s="193"/>
+      <c r="BC4" s="193"/>
+      <c r="BD4" s="194"/>
+      <c r="BE4" s="192" t="s">
         <v>166</v>
       </c>
-      <c r="BF4" s="202"/>
-      <c r="BG4" s="200"/>
-      <c r="BH4" s="200"/>
-      <c r="BI4" s="200"/>
-      <c r="BJ4" s="200"/>
-      <c r="BK4" s="201"/>
-      <c r="BL4" s="199" t="s">
+      <c r="BF4" s="195"/>
+      <c r="BG4" s="193"/>
+      <c r="BH4" s="193"/>
+      <c r="BI4" s="193"/>
+      <c r="BJ4" s="193"/>
+      <c r="BK4" s="194"/>
+      <c r="BL4" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="BM4" s="200"/>
-      <c r="BN4" s="200"/>
-      <c r="BO4" s="201"/>
-      <c r="BP4" s="199" t="s">
+      <c r="BM4" s="193"/>
+      <c r="BN4" s="193"/>
+      <c r="BO4" s="194"/>
+      <c r="BP4" s="192" t="s">
         <v>5</v>
       </c>
-      <c r="BQ4" s="200"/>
-      <c r="BR4" s="203"/>
+      <c r="BQ4" s="193"/>
+      <c r="BR4" s="196"/>
     </row>
     <row r="5" spans="1:70" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="205"/>
-      <c r="B5" s="160" t="s">
+      <c r="A5" s="201"/>
+      <c r="B5" s="233" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="160"/>
-      <c r="D5" s="160"/>
-      <c r="E5" s="160"/>
-      <c r="F5" s="160"/>
-      <c r="G5" s="160"/>
-      <c r="H5" s="160"/>
-      <c r="I5" s="160" t="s">
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="233"/>
+      <c r="G5" s="233"/>
+      <c r="H5" s="233"/>
+      <c r="I5" s="233" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="160"/>
-      <c r="K5" s="160"/>
-      <c r="L5" s="160"/>
-      <c r="M5" s="160"/>
-      <c r="N5" s="160"/>
-      <c r="O5" s="160"/>
-      <c r="P5" s="160" t="s">
+      <c r="J5" s="233"/>
+      <c r="K5" s="233"/>
+      <c r="L5" s="233"/>
+      <c r="M5" s="233"/>
+      <c r="N5" s="233"/>
+      <c r="O5" s="233"/>
+      <c r="P5" s="233" t="s">
         <v>156</v>
       </c>
-      <c r="Q5" s="160"/>
-      <c r="R5" s="160"/>
-      <c r="S5" s="160"/>
-      <c r="T5" s="160"/>
-      <c r="U5" s="160"/>
-      <c r="V5" s="160"/>
-      <c r="W5" s="160" t="s">
+      <c r="Q5" s="233"/>
+      <c r="R5" s="233"/>
+      <c r="S5" s="233"/>
+      <c r="T5" s="233"/>
+      <c r="U5" s="233"/>
+      <c r="V5" s="233"/>
+      <c r="W5" s="233" t="s">
         <v>157</v>
       </c>
-      <c r="X5" s="160"/>
-      <c r="Y5" s="160"/>
-      <c r="Z5" s="160"/>
-      <c r="AA5" s="160"/>
-      <c r="AB5" s="160"/>
-      <c r="AC5" s="160"/>
-      <c r="AD5" s="160" t="s">
+      <c r="X5" s="233"/>
+      <c r="Y5" s="233"/>
+      <c r="Z5" s="233"/>
+      <c r="AA5" s="233"/>
+      <c r="AB5" s="233"/>
+      <c r="AC5" s="233"/>
+      <c r="AD5" s="233" t="s">
         <v>158</v>
       </c>
-      <c r="AE5" s="160"/>
-      <c r="AF5" s="160"/>
-      <c r="AG5" s="160"/>
-      <c r="AH5" s="160"/>
-      <c r="AI5" s="160"/>
-      <c r="AJ5" s="160"/>
-      <c r="AK5" s="160" t="s">
+      <c r="AE5" s="233"/>
+      <c r="AF5" s="233"/>
+      <c r="AG5" s="233"/>
+      <c r="AH5" s="233"/>
+      <c r="AI5" s="233"/>
+      <c r="AJ5" s="233"/>
+      <c r="AK5" s="233" t="s">
         <v>159</v>
       </c>
-      <c r="AL5" s="160"/>
+      <c r="AL5" s="233"/>
       <c r="AM5" s="124" t="s">
         <v>6</v>
       </c>
@@ -5823,45 +5823,45 @@
       <c r="AQ5" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="AR5" s="140" t="s">
+      <c r="AR5" s="202" t="s">
         <v>11</v>
       </c>
-      <c r="AS5" s="141"/>
-      <c r="AT5" s="140" t="s">
+      <c r="AS5" s="203"/>
+      <c r="AT5" s="202" t="s">
         <v>12</v>
       </c>
-      <c r="AU5" s="141"/>
-      <c r="AV5" s="140" t="s">
+      <c r="AU5" s="203"/>
+      <c r="AV5" s="202" t="s">
         <v>13</v>
       </c>
-      <c r="AW5" s="141"/>
-      <c r="AX5" s="140" t="s">
+      <c r="AW5" s="203"/>
+      <c r="AX5" s="202" t="s">
         <v>14</v>
       </c>
-      <c r="AY5" s="141"/>
-      <c r="AZ5" s="140" t="s">
+      <c r="AY5" s="203"/>
+      <c r="AZ5" s="202" t="s">
         <v>15</v>
       </c>
-      <c r="BA5" s="141"/>
-      <c r="BB5" s="140" t="s">
+      <c r="BA5" s="203"/>
+      <c r="BB5" s="202" t="s">
         <v>16</v>
       </c>
-      <c r="BC5" s="141"/>
+      <c r="BC5" s="203"/>
       <c r="BD5" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="BE5" s="147" t="s">
+      <c r="BE5" s="249" t="s">
         <v>18</v>
       </c>
-      <c r="BF5" s="141"/>
-      <c r="BG5" s="148" t="s">
+      <c r="BF5" s="203"/>
+      <c r="BG5" s="250" t="s">
         <v>19</v>
       </c>
-      <c r="BH5" s="149"/>
-      <c r="BI5" s="148" t="s">
+      <c r="BH5" s="251"/>
+      <c r="BI5" s="250" t="s">
         <v>20</v>
       </c>
-      <c r="BJ5" s="149"/>
+      <c r="BJ5" s="251"/>
       <c r="BK5" s="103" t="s">
         <v>21</v>
       </c>
@@ -5889,193 +5889,193 @@
     </row>
     <row r="6" spans="1:70" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
-      <c r="B6" s="158" t="s">
+      <c r="B6" s="236" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="156" t="s">
+      <c r="C6" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="156" t="s">
+      <c r="D6" s="234" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="156" t="s">
+      <c r="E6" s="234" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="156" t="s">
+      <c r="F6" s="234" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="156" t="s">
+      <c r="G6" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="154" t="s">
+      <c r="H6" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="158" t="s">
+      <c r="I6" s="236" t="s">
         <v>162</v>
       </c>
-      <c r="J6" s="156" t="s">
+      <c r="J6" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="156" t="s">
+      <c r="K6" s="234" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="156" t="s">
+      <c r="L6" s="234" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="156" t="s">
+      <c r="M6" s="234" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="156" t="s">
+      <c r="N6" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="154" t="s">
+      <c r="O6" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="158" t="s">
+      <c r="P6" s="236" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="156" t="s">
+      <c r="Q6" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="156" t="s">
+      <c r="R6" s="234" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="156" t="s">
+      <c r="S6" s="234" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="156" t="s">
+      <c r="T6" s="234" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="156" t="s">
+      <c r="U6" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="V6" s="154" t="s">
+      <c r="V6" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="W6" s="158" t="s">
+      <c r="W6" s="236" t="s">
         <v>162</v>
       </c>
-      <c r="X6" s="156" t="s">
+      <c r="X6" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="Y6" s="156" t="s">
+      <c r="Y6" s="234" t="s">
         <v>50</v>
       </c>
-      <c r="Z6" s="156" t="s">
+      <c r="Z6" s="234" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="156" t="s">
+      <c r="AA6" s="234" t="s">
         <v>52</v>
       </c>
-      <c r="AB6" s="156" t="s">
+      <c r="AB6" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="AC6" s="154" t="s">
+      <c r="AC6" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="AD6" s="158" t="s">
+      <c r="AD6" s="236" t="s">
         <v>162</v>
       </c>
-      <c r="AE6" s="156" t="s">
+      <c r="AE6" s="234" t="s">
         <v>49</v>
       </c>
-      <c r="AF6" s="156" t="s">
+      <c r="AF6" s="234" t="s">
         <v>50</v>
       </c>
-      <c r="AG6" s="156" t="s">
+      <c r="AG6" s="234" t="s">
         <v>51</v>
       </c>
-      <c r="AH6" s="156" t="s">
+      <c r="AH6" s="234" t="s">
         <v>52</v>
       </c>
-      <c r="AI6" s="156" t="s">
+      <c r="AI6" s="234" t="s">
         <v>53</v>
       </c>
-      <c r="AJ6" s="154" t="s">
+      <c r="AJ6" s="245" t="s">
         <v>54</v>
       </c>
-      <c r="AK6" s="158" t="s">
+      <c r="AK6" s="236" t="s">
         <v>162</v>
       </c>
-      <c r="AL6" s="138" t="s">
+      <c r="AL6" s="254" t="s">
         <v>49</v>
       </c>
-      <c r="AM6" s="209" t="s">
+      <c r="AM6" s="163" t="s">
         <v>167</v>
       </c>
-      <c r="AN6" s="209" t="s">
+      <c r="AN6" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="AO6" s="152" t="s">
+      <c r="AO6" s="165" t="s">
         <v>30</v>
       </c>
-      <c r="AP6" s="136" t="s">
+      <c r="AP6" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="AQ6" s="207" t="s">
+      <c r="AQ6" s="161" t="s">
         <v>33</v>
       </c>
-      <c r="AR6" s="145" t="s">
+      <c r="AR6" s="167" t="s">
         <v>34</v>
       </c>
-      <c r="AS6" s="146"/>
-      <c r="AT6" s="145" t="s">
+      <c r="AS6" s="168"/>
+      <c r="AT6" s="167" t="s">
         <v>35</v>
       </c>
-      <c r="AU6" s="146"/>
-      <c r="AV6" s="145" t="s">
+      <c r="AU6" s="168"/>
+      <c r="AV6" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="AW6" s="146"/>
-      <c r="AX6" s="145" t="s">
+      <c r="AW6" s="168"/>
+      <c r="AX6" s="167" t="s">
         <v>37</v>
       </c>
-      <c r="AY6" s="146"/>
-      <c r="AZ6" s="145" t="s">
+      <c r="AY6" s="168"/>
+      <c r="AZ6" s="167" t="s">
         <v>38</v>
       </c>
-      <c r="BA6" s="146"/>
-      <c r="BB6" s="145" t="s">
+      <c r="BA6" s="168"/>
+      <c r="BB6" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="BC6" s="146"/>
-      <c r="BD6" s="217" t="s">
+      <c r="BC6" s="168"/>
+      <c r="BD6" s="177" t="s">
         <v>32</v>
       </c>
-      <c r="BE6" s="219" t="s">
+      <c r="BE6" s="179" t="s">
         <v>39</v>
       </c>
-      <c r="BF6" s="220"/>
-      <c r="BG6" s="221" t="s">
+      <c r="BF6" s="180"/>
+      <c r="BG6" s="181" t="s">
         <v>40</v>
       </c>
-      <c r="BH6" s="222"/>
-      <c r="BI6" s="150" t="s">
+      <c r="BH6" s="182"/>
+      <c r="BI6" s="252" t="s">
         <v>31</v>
       </c>
-      <c r="BJ6" s="151"/>
-      <c r="BK6" s="223" t="s">
+      <c r="BJ6" s="253"/>
+      <c r="BK6" s="183" t="s">
         <v>32</v>
       </c>
-      <c r="BL6" s="209" t="s">
+      <c r="BL6" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="BM6" s="152" t="s">
+      <c r="BM6" s="165" t="s">
         <v>32</v>
       </c>
-      <c r="BN6" s="152" t="s">
+      <c r="BN6" s="165" t="s">
         <v>42</v>
       </c>
-      <c r="BO6" s="136" t="s">
+      <c r="BO6" s="171" t="s">
         <v>43</v>
       </c>
-      <c r="BP6" s="211" t="s">
+      <c r="BP6" s="169" t="s">
         <v>44</v>
       </c>
-      <c r="BQ6" s="215" t="s">
+      <c r="BQ6" s="175" t="s">
         <v>45</v>
       </c>
-      <c r="BR6" s="213" t="s">
+      <c r="BR6" s="173" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6083,48 +6083,48 @@
       <c r="A7" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="159"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157"/>
-      <c r="E7" s="157"/>
-      <c r="F7" s="157"/>
-      <c r="G7" s="157"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="157"/>
-      <c r="K7" s="157"/>
-      <c r="L7" s="157"/>
-      <c r="M7" s="157"/>
-      <c r="N7" s="157"/>
-      <c r="O7" s="155"/>
-      <c r="P7" s="159"/>
-      <c r="Q7" s="157"/>
-      <c r="R7" s="157"/>
-      <c r="S7" s="157"/>
-      <c r="T7" s="157"/>
-      <c r="U7" s="157"/>
-      <c r="V7" s="155"/>
-      <c r="W7" s="159"/>
-      <c r="X7" s="157"/>
-      <c r="Y7" s="157"/>
-      <c r="Z7" s="157"/>
-      <c r="AA7" s="157"/>
-      <c r="AB7" s="157"/>
-      <c r="AC7" s="155"/>
-      <c r="AD7" s="159"/>
-      <c r="AE7" s="157"/>
-      <c r="AF7" s="157"/>
-      <c r="AG7" s="157"/>
-      <c r="AH7" s="157"/>
-      <c r="AI7" s="157"/>
-      <c r="AJ7" s="155"/>
-      <c r="AK7" s="159"/>
-      <c r="AL7" s="139"/>
-      <c r="AM7" s="210"/>
-      <c r="AN7" s="210"/>
-      <c r="AO7" s="153"/>
-      <c r="AP7" s="137"/>
-      <c r="AQ7" s="208"/>
+      <c r="B7" s="237"/>
+      <c r="C7" s="235"/>
+      <c r="D7" s="235"/>
+      <c r="E7" s="235"/>
+      <c r="F7" s="235"/>
+      <c r="G7" s="235"/>
+      <c r="H7" s="246"/>
+      <c r="I7" s="237"/>
+      <c r="J7" s="235"/>
+      <c r="K7" s="235"/>
+      <c r="L7" s="235"/>
+      <c r="M7" s="235"/>
+      <c r="N7" s="235"/>
+      <c r="O7" s="246"/>
+      <c r="P7" s="237"/>
+      <c r="Q7" s="235"/>
+      <c r="R7" s="235"/>
+      <c r="S7" s="235"/>
+      <c r="T7" s="235"/>
+      <c r="U7" s="235"/>
+      <c r="V7" s="246"/>
+      <c r="W7" s="237"/>
+      <c r="X7" s="235"/>
+      <c r="Y7" s="235"/>
+      <c r="Z7" s="235"/>
+      <c r="AA7" s="235"/>
+      <c r="AB7" s="235"/>
+      <c r="AC7" s="246"/>
+      <c r="AD7" s="237"/>
+      <c r="AE7" s="235"/>
+      <c r="AF7" s="235"/>
+      <c r="AG7" s="235"/>
+      <c r="AH7" s="235"/>
+      <c r="AI7" s="235"/>
+      <c r="AJ7" s="246"/>
+      <c r="AK7" s="237"/>
+      <c r="AL7" s="255"/>
+      <c r="AM7" s="164"/>
+      <c r="AN7" s="164"/>
+      <c r="AO7" s="166"/>
+      <c r="AP7" s="172"/>
+      <c r="AQ7" s="162"/>
       <c r="AR7" s="93"/>
       <c r="AS7" s="95" t="s">
         <v>48</v>
@@ -6149,7 +6149,7 @@
       <c r="BC7" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="BD7" s="218"/>
+      <c r="BD7" s="178"/>
       <c r="BE7" s="94"/>
       <c r="BF7" s="95" t="s">
         <v>48</v>
@@ -6162,17 +6162,17 @@
       <c r="BJ7" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="BK7" s="224"/>
-      <c r="BL7" s="210"/>
-      <c r="BM7" s="153"/>
-      <c r="BN7" s="153"/>
-      <c r="BO7" s="137"/>
-      <c r="BP7" s="212"/>
-      <c r="BQ7" s="216"/>
-      <c r="BR7" s="214"/>
+      <c r="BK7" s="184"/>
+      <c r="BL7" s="164"/>
+      <c r="BM7" s="166"/>
+      <c r="BN7" s="166"/>
+      <c r="BO7" s="172"/>
+      <c r="BP7" s="170"/>
+      <c r="BQ7" s="176"/>
+      <c r="BR7" s="174"/>
     </row>
     <row r="8" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="162" t="s">
+      <c r="A8" s="239" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="41"/>
@@ -6212,41 +6212,41 @@
       <c r="AJ8" s="43"/>
       <c r="AK8" s="44"/>
       <c r="AL8" s="45"/>
-      <c r="AM8" s="225"/>
-      <c r="AN8" s="226"/>
-      <c r="AO8" s="227"/>
-      <c r="AP8" s="228"/>
-      <c r="AQ8" s="229"/>
-      <c r="AR8" s="230"/>
-      <c r="AS8" s="230"/>
-      <c r="AT8" s="230"/>
-      <c r="AU8" s="230"/>
-      <c r="AV8" s="230"/>
-      <c r="AW8" s="230"/>
-      <c r="AX8" s="230"/>
-      <c r="AY8" s="230"/>
-      <c r="AZ8" s="230"/>
-      <c r="BA8" s="230"/>
-      <c r="BB8" s="230"/>
-      <c r="BC8" s="230"/>
-      <c r="BD8" s="231"/>
-      <c r="BE8" s="229"/>
-      <c r="BF8" s="230"/>
-      <c r="BG8" s="230"/>
-      <c r="BH8" s="230"/>
-      <c r="BI8" s="230"/>
-      <c r="BJ8" s="230"/>
-      <c r="BK8" s="231"/>
-      <c r="BL8" s="232"/>
-      <c r="BM8" s="230"/>
-      <c r="BN8" s="230"/>
-      <c r="BO8" s="233"/>
-      <c r="BP8" s="232"/>
-      <c r="BQ8" s="230"/>
-      <c r="BR8" s="234"/>
+      <c r="AM8" s="136"/>
+      <c r="AN8" s="137"/>
+      <c r="AO8" s="138"/>
+      <c r="AP8" s="139"/>
+      <c r="AQ8" s="140"/>
+      <c r="AR8" s="141"/>
+      <c r="AS8" s="141"/>
+      <c r="AT8" s="141"/>
+      <c r="AU8" s="141"/>
+      <c r="AV8" s="141"/>
+      <c r="AW8" s="141"/>
+      <c r="AX8" s="141"/>
+      <c r="AY8" s="141"/>
+      <c r="AZ8" s="141"/>
+      <c r="BA8" s="141"/>
+      <c r="BB8" s="141"/>
+      <c r="BC8" s="141"/>
+      <c r="BD8" s="142"/>
+      <c r="BE8" s="140"/>
+      <c r="BF8" s="141"/>
+      <c r="BG8" s="141"/>
+      <c r="BH8" s="141"/>
+      <c r="BI8" s="141"/>
+      <c r="BJ8" s="141"/>
+      <c r="BK8" s="142"/>
+      <c r="BL8" s="185"/>
+      <c r="BM8" s="141"/>
+      <c r="BN8" s="141"/>
+      <c r="BO8" s="187"/>
+      <c r="BP8" s="185"/>
+      <c r="BQ8" s="141"/>
+      <c r="BR8" s="247"/>
     </row>
     <row r="9" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="162"/>
+      <c r="A9" s="239"/>
       <c r="B9" s="125"/>
       <c r="C9" s="126"/>
       <c r="D9" s="126"/>
@@ -6284,41 +6284,41 @@
       <c r="AJ9" s="127"/>
       <c r="AK9" s="128"/>
       <c r="AL9" s="129"/>
-      <c r="AM9" s="235"/>
-      <c r="AN9" s="236"/>
-      <c r="AO9" s="237"/>
-      <c r="AP9" s="238"/>
-      <c r="AQ9" s="239"/>
-      <c r="AR9" s="240"/>
-      <c r="AS9" s="240"/>
-      <c r="AT9" s="240"/>
-      <c r="AU9" s="240"/>
-      <c r="AV9" s="240"/>
-      <c r="AW9" s="240"/>
-      <c r="AX9" s="240"/>
-      <c r="AY9" s="240"/>
-      <c r="AZ9" s="240"/>
-      <c r="BA9" s="240"/>
-      <c r="BB9" s="240"/>
-      <c r="BC9" s="240"/>
-      <c r="BD9" s="241"/>
-      <c r="BE9" s="239"/>
-      <c r="BF9" s="240"/>
-      <c r="BG9" s="240"/>
-      <c r="BH9" s="240"/>
-      <c r="BI9" s="240"/>
-      <c r="BJ9" s="240"/>
-      <c r="BK9" s="241"/>
-      <c r="BL9" s="242"/>
-      <c r="BM9" s="240"/>
-      <c r="BN9" s="240"/>
-      <c r="BO9" s="243"/>
-      <c r="BP9" s="242"/>
-      <c r="BQ9" s="240"/>
-      <c r="BR9" s="244"/>
+      <c r="AM9" s="143"/>
+      <c r="AN9" s="144"/>
+      <c r="AO9" s="145"/>
+      <c r="AP9" s="146"/>
+      <c r="AQ9" s="147"/>
+      <c r="AR9" s="148"/>
+      <c r="AS9" s="148"/>
+      <c r="AT9" s="148"/>
+      <c r="AU9" s="148"/>
+      <c r="AV9" s="148"/>
+      <c r="AW9" s="148"/>
+      <c r="AX9" s="148"/>
+      <c r="AY9" s="148"/>
+      <c r="AZ9" s="148"/>
+      <c r="BA9" s="148"/>
+      <c r="BB9" s="148"/>
+      <c r="BC9" s="148"/>
+      <c r="BD9" s="149"/>
+      <c r="BE9" s="147"/>
+      <c r="BF9" s="148"/>
+      <c r="BG9" s="148"/>
+      <c r="BH9" s="148"/>
+      <c r="BI9" s="148"/>
+      <c r="BJ9" s="148"/>
+      <c r="BK9" s="149"/>
+      <c r="BL9" s="186"/>
+      <c r="BM9" s="148"/>
+      <c r="BN9" s="148"/>
+      <c r="BO9" s="188"/>
+      <c r="BP9" s="186"/>
+      <c r="BQ9" s="148"/>
+      <c r="BR9" s="248"/>
     </row>
     <row r="10" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="162"/>
+      <c r="A10" s="239"/>
       <c r="B10" s="109"/>
       <c r="C10" s="110"/>
       <c r="D10" s="110"/>
@@ -6356,41 +6356,41 @@
       <c r="AJ10" s="111"/>
       <c r="AK10" s="112"/>
       <c r="AL10" s="113"/>
-      <c r="AM10" s="245"/>
-      <c r="AN10" s="246"/>
-      <c r="AO10" s="246"/>
-      <c r="AP10" s="246"/>
-      <c r="AQ10" s="246"/>
-      <c r="AR10" s="246"/>
-      <c r="AS10" s="246"/>
-      <c r="AT10" s="246"/>
-      <c r="AU10" s="246"/>
-      <c r="AV10" s="246"/>
-      <c r="AW10" s="246"/>
-      <c r="AX10" s="246"/>
-      <c r="AY10" s="246"/>
-      <c r="AZ10" s="246"/>
-      <c r="BA10" s="246"/>
-      <c r="BB10" s="246"/>
-      <c r="BC10" s="246"/>
-      <c r="BD10" s="246"/>
-      <c r="BE10" s="246"/>
-      <c r="BF10" s="246"/>
-      <c r="BG10" s="246"/>
-      <c r="BH10" s="246"/>
-      <c r="BI10" s="246"/>
-      <c r="BJ10" s="246"/>
-      <c r="BK10" s="246"/>
-      <c r="BL10" s="246"/>
-      <c r="BM10" s="246"/>
-      <c r="BN10" s="246"/>
-      <c r="BO10" s="246"/>
-      <c r="BP10" s="246"/>
-      <c r="BQ10" s="246"/>
-      <c r="BR10" s="247"/>
+      <c r="AM10" s="155"/>
+      <c r="AN10" s="156"/>
+      <c r="AO10" s="156"/>
+      <c r="AP10" s="156"/>
+      <c r="AQ10" s="156"/>
+      <c r="AR10" s="156"/>
+      <c r="AS10" s="156"/>
+      <c r="AT10" s="156"/>
+      <c r="AU10" s="156"/>
+      <c r="AV10" s="156"/>
+      <c r="AW10" s="156"/>
+      <c r="AX10" s="156"/>
+      <c r="AY10" s="156"/>
+      <c r="AZ10" s="156"/>
+      <c r="BA10" s="156"/>
+      <c r="BB10" s="156"/>
+      <c r="BC10" s="156"/>
+      <c r="BD10" s="156"/>
+      <c r="BE10" s="156"/>
+      <c r="BF10" s="156"/>
+      <c r="BG10" s="156"/>
+      <c r="BH10" s="156"/>
+      <c r="BI10" s="156"/>
+      <c r="BJ10" s="156"/>
+      <c r="BK10" s="156"/>
+      <c r="BL10" s="156"/>
+      <c r="BM10" s="156"/>
+      <c r="BN10" s="156"/>
+      <c r="BO10" s="156"/>
+      <c r="BP10" s="156"/>
+      <c r="BQ10" s="156"/>
+      <c r="BR10" s="157"/>
     </row>
     <row r="11" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="163"/>
+      <c r="A11" s="240"/>
       <c r="B11" s="61"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
@@ -6428,41 +6428,41 @@
       <c r="AJ11" s="63"/>
       <c r="AK11" s="64"/>
       <c r="AL11" s="65"/>
-      <c r="AM11" s="248"/>
-      <c r="AN11" s="249"/>
-      <c r="AO11" s="249"/>
-      <c r="AP11" s="249"/>
-      <c r="AQ11" s="249"/>
-      <c r="AR11" s="249"/>
-      <c r="AS11" s="249"/>
-      <c r="AT11" s="249"/>
-      <c r="AU11" s="249"/>
-      <c r="AV11" s="249"/>
-      <c r="AW11" s="249"/>
-      <c r="AX11" s="249"/>
-      <c r="AY11" s="249"/>
-      <c r="AZ11" s="249"/>
-      <c r="BA11" s="249"/>
-      <c r="BB11" s="249"/>
-      <c r="BC11" s="249"/>
-      <c r="BD11" s="249"/>
-      <c r="BE11" s="249"/>
-      <c r="BF11" s="249"/>
-      <c r="BG11" s="249"/>
-      <c r="BH11" s="249"/>
-      <c r="BI11" s="249"/>
-      <c r="BJ11" s="249"/>
-      <c r="BK11" s="249"/>
-      <c r="BL11" s="249"/>
-      <c r="BM11" s="249"/>
-      <c r="BN11" s="249"/>
-      <c r="BO11" s="249"/>
-      <c r="BP11" s="249"/>
-      <c r="BQ11" s="249"/>
-      <c r="BR11" s="250"/>
+      <c r="AM11" s="158"/>
+      <c r="AN11" s="159"/>
+      <c r="AO11" s="159"/>
+      <c r="AP11" s="159"/>
+      <c r="AQ11" s="159"/>
+      <c r="AR11" s="159"/>
+      <c r="AS11" s="159"/>
+      <c r="AT11" s="159"/>
+      <c r="AU11" s="159"/>
+      <c r="AV11" s="159"/>
+      <c r="AW11" s="159"/>
+      <c r="AX11" s="159"/>
+      <c r="AY11" s="159"/>
+      <c r="AZ11" s="159"/>
+      <c r="BA11" s="159"/>
+      <c r="BB11" s="159"/>
+      <c r="BC11" s="159"/>
+      <c r="BD11" s="159"/>
+      <c r="BE11" s="159"/>
+      <c r="BF11" s="159"/>
+      <c r="BG11" s="159"/>
+      <c r="BH11" s="159"/>
+      <c r="BI11" s="159"/>
+      <c r="BJ11" s="159"/>
+      <c r="BK11" s="159"/>
+      <c r="BL11" s="159"/>
+      <c r="BM11" s="159"/>
+      <c r="BN11" s="159"/>
+      <c r="BO11" s="159"/>
+      <c r="BP11" s="159"/>
+      <c r="BQ11" s="159"/>
+      <c r="BR11" s="160"/>
     </row>
     <row r="12" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="161" t="s">
+      <c r="A12" s="238" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="46"/>
@@ -6502,41 +6502,41 @@
       <c r="AJ12" s="48"/>
       <c r="AK12" s="49"/>
       <c r="AL12" s="50"/>
-      <c r="AM12" s="225"/>
-      <c r="AN12" s="226"/>
-      <c r="AO12" s="227"/>
-      <c r="AP12" s="228"/>
-      <c r="AQ12" s="229"/>
-      <c r="AR12" s="230"/>
-      <c r="AS12" s="230"/>
-      <c r="AT12" s="230"/>
-      <c r="AU12" s="230"/>
-      <c r="AV12" s="230"/>
-      <c r="AW12" s="230"/>
-      <c r="AX12" s="230"/>
-      <c r="AY12" s="230"/>
-      <c r="AZ12" s="230"/>
-      <c r="BA12" s="230"/>
-      <c r="BB12" s="230"/>
-      <c r="BC12" s="230"/>
-      <c r="BD12" s="231"/>
-      <c r="BE12" s="229"/>
-      <c r="BF12" s="230"/>
-      <c r="BG12" s="230"/>
-      <c r="BH12" s="230"/>
-      <c r="BI12" s="230"/>
-      <c r="BJ12" s="230"/>
-      <c r="BK12" s="231"/>
-      <c r="BL12" s="232"/>
-      <c r="BM12" s="230"/>
-      <c r="BN12" s="230"/>
-      <c r="BO12" s="233"/>
-      <c r="BP12" s="232"/>
-      <c r="BQ12" s="230"/>
-      <c r="BR12" s="234"/>
+      <c r="AM12" s="136"/>
+      <c r="AN12" s="137"/>
+      <c r="AO12" s="138"/>
+      <c r="AP12" s="139"/>
+      <c r="AQ12" s="140"/>
+      <c r="AR12" s="141"/>
+      <c r="AS12" s="141"/>
+      <c r="AT12" s="141"/>
+      <c r="AU12" s="141"/>
+      <c r="AV12" s="141"/>
+      <c r="AW12" s="141"/>
+      <c r="AX12" s="141"/>
+      <c r="AY12" s="141"/>
+      <c r="AZ12" s="141"/>
+      <c r="BA12" s="141"/>
+      <c r="BB12" s="141"/>
+      <c r="BC12" s="141"/>
+      <c r="BD12" s="142"/>
+      <c r="BE12" s="140"/>
+      <c r="BF12" s="141"/>
+      <c r="BG12" s="141"/>
+      <c r="BH12" s="141"/>
+      <c r="BI12" s="141"/>
+      <c r="BJ12" s="141"/>
+      <c r="BK12" s="142"/>
+      <c r="BL12" s="185"/>
+      <c r="BM12" s="141"/>
+      <c r="BN12" s="141"/>
+      <c r="BO12" s="187"/>
+      <c r="BP12" s="185"/>
+      <c r="BQ12" s="141"/>
+      <c r="BR12" s="247"/>
     </row>
     <row r="13" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="162"/>
+      <c r="A13" s="239"/>
       <c r="B13" s="130"/>
       <c r="C13" s="131"/>
       <c r="D13" s="131"/>
@@ -6574,41 +6574,41 @@
       <c r="AJ13" s="132"/>
       <c r="AK13" s="134"/>
       <c r="AL13" s="135"/>
-      <c r="AM13" s="251"/>
-      <c r="AN13" s="236"/>
-      <c r="AO13" s="237"/>
-      <c r="AP13" s="238"/>
-      <c r="AQ13" s="239"/>
-      <c r="AR13" s="240"/>
-      <c r="AS13" s="240"/>
-      <c r="AT13" s="240"/>
-      <c r="AU13" s="240"/>
-      <c r="AV13" s="240"/>
-      <c r="AW13" s="240"/>
-      <c r="AX13" s="240"/>
-      <c r="AY13" s="240"/>
-      <c r="AZ13" s="240"/>
-      <c r="BA13" s="240"/>
-      <c r="BB13" s="240"/>
-      <c r="BC13" s="240"/>
-      <c r="BD13" s="241"/>
-      <c r="BE13" s="239"/>
-      <c r="BF13" s="240"/>
-      <c r="BG13" s="240"/>
-      <c r="BH13" s="240"/>
-      <c r="BI13" s="240"/>
-      <c r="BJ13" s="240"/>
-      <c r="BK13" s="241"/>
-      <c r="BL13" s="242"/>
-      <c r="BM13" s="240"/>
-      <c r="BN13" s="240"/>
-      <c r="BO13" s="243"/>
-      <c r="BP13" s="242"/>
-      <c r="BQ13" s="240"/>
-      <c r="BR13" s="244"/>
+      <c r="AM13" s="150"/>
+      <c r="AN13" s="144"/>
+      <c r="AO13" s="145"/>
+      <c r="AP13" s="146"/>
+      <c r="AQ13" s="147"/>
+      <c r="AR13" s="148"/>
+      <c r="AS13" s="148"/>
+      <c r="AT13" s="148"/>
+      <c r="AU13" s="148"/>
+      <c r="AV13" s="148"/>
+      <c r="AW13" s="148"/>
+      <c r="AX13" s="148"/>
+      <c r="AY13" s="148"/>
+      <c r="AZ13" s="148"/>
+      <c r="BA13" s="148"/>
+      <c r="BB13" s="148"/>
+      <c r="BC13" s="148"/>
+      <c r="BD13" s="149"/>
+      <c r="BE13" s="147"/>
+      <c r="BF13" s="148"/>
+      <c r="BG13" s="148"/>
+      <c r="BH13" s="148"/>
+      <c r="BI13" s="148"/>
+      <c r="BJ13" s="148"/>
+      <c r="BK13" s="149"/>
+      <c r="BL13" s="186"/>
+      <c r="BM13" s="148"/>
+      <c r="BN13" s="148"/>
+      <c r="BO13" s="188"/>
+      <c r="BP13" s="186"/>
+      <c r="BQ13" s="148"/>
+      <c r="BR13" s="248"/>
     </row>
     <row r="14" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="162"/>
+      <c r="A14" s="239"/>
       <c r="B14" s="87"/>
       <c r="C14" s="88"/>
       <c r="D14" s="88"/>
@@ -6646,41 +6646,41 @@
       <c r="AJ14" s="89"/>
       <c r="AK14" s="91"/>
       <c r="AL14" s="92"/>
-      <c r="AM14" s="245"/>
-      <c r="AN14" s="246"/>
-      <c r="AO14" s="246"/>
-      <c r="AP14" s="246"/>
-      <c r="AQ14" s="246"/>
-      <c r="AR14" s="246"/>
-      <c r="AS14" s="246"/>
-      <c r="AT14" s="246"/>
-      <c r="AU14" s="246"/>
-      <c r="AV14" s="246"/>
-      <c r="AW14" s="246"/>
-      <c r="AX14" s="246"/>
-      <c r="AY14" s="246"/>
-      <c r="AZ14" s="246"/>
-      <c r="BA14" s="246"/>
-      <c r="BB14" s="246"/>
-      <c r="BC14" s="246"/>
-      <c r="BD14" s="246"/>
-      <c r="BE14" s="246"/>
-      <c r="BF14" s="246"/>
-      <c r="BG14" s="246"/>
-      <c r="BH14" s="246"/>
-      <c r="BI14" s="246"/>
-      <c r="BJ14" s="246"/>
-      <c r="BK14" s="246"/>
-      <c r="BL14" s="246"/>
-      <c r="BM14" s="246"/>
-      <c r="BN14" s="246"/>
-      <c r="BO14" s="246"/>
-      <c r="BP14" s="246"/>
-      <c r="BQ14" s="246"/>
-      <c r="BR14" s="247"/>
+      <c r="AM14" s="155"/>
+      <c r="AN14" s="156"/>
+      <c r="AO14" s="156"/>
+      <c r="AP14" s="156"/>
+      <c r="AQ14" s="156"/>
+      <c r="AR14" s="156"/>
+      <c r="AS14" s="156"/>
+      <c r="AT14" s="156"/>
+      <c r="AU14" s="156"/>
+      <c r="AV14" s="156"/>
+      <c r="AW14" s="156"/>
+      <c r="AX14" s="156"/>
+      <c r="AY14" s="156"/>
+      <c r="AZ14" s="156"/>
+      <c r="BA14" s="156"/>
+      <c r="BB14" s="156"/>
+      <c r="BC14" s="156"/>
+      <c r="BD14" s="156"/>
+      <c r="BE14" s="156"/>
+      <c r="BF14" s="156"/>
+      <c r="BG14" s="156"/>
+      <c r="BH14" s="156"/>
+      <c r="BI14" s="156"/>
+      <c r="BJ14" s="156"/>
+      <c r="BK14" s="156"/>
+      <c r="BL14" s="156"/>
+      <c r="BM14" s="156"/>
+      <c r="BN14" s="156"/>
+      <c r="BO14" s="156"/>
+      <c r="BP14" s="156"/>
+      <c r="BQ14" s="156"/>
+      <c r="BR14" s="157"/>
     </row>
     <row r="15" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="162"/>
+      <c r="A15" s="239"/>
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
       <c r="D15" s="67"/>
@@ -6718,41 +6718,41 @@
       <c r="AJ15" s="68"/>
       <c r="AK15" s="70"/>
       <c r="AL15" s="71"/>
-      <c r="AM15" s="248"/>
-      <c r="AN15" s="249"/>
-      <c r="AO15" s="249"/>
-      <c r="AP15" s="249"/>
-      <c r="AQ15" s="249"/>
-      <c r="AR15" s="249"/>
-      <c r="AS15" s="249"/>
-      <c r="AT15" s="249"/>
-      <c r="AU15" s="249"/>
-      <c r="AV15" s="249"/>
-      <c r="AW15" s="249"/>
-      <c r="AX15" s="249"/>
-      <c r="AY15" s="249"/>
-      <c r="AZ15" s="249"/>
-      <c r="BA15" s="249"/>
-      <c r="BB15" s="249"/>
-      <c r="BC15" s="249"/>
-      <c r="BD15" s="249"/>
-      <c r="BE15" s="249"/>
-      <c r="BF15" s="249"/>
-      <c r="BG15" s="249"/>
-      <c r="BH15" s="249"/>
-      <c r="BI15" s="249"/>
-      <c r="BJ15" s="249"/>
-      <c r="BK15" s="249"/>
-      <c r="BL15" s="249"/>
-      <c r="BM15" s="249"/>
-      <c r="BN15" s="249"/>
-      <c r="BO15" s="249"/>
-      <c r="BP15" s="249"/>
-      <c r="BQ15" s="249"/>
-      <c r="BR15" s="250"/>
+      <c r="AM15" s="158"/>
+      <c r="AN15" s="159"/>
+      <c r="AO15" s="159"/>
+      <c r="AP15" s="159"/>
+      <c r="AQ15" s="159"/>
+      <c r="AR15" s="159"/>
+      <c r="AS15" s="159"/>
+      <c r="AT15" s="159"/>
+      <c r="AU15" s="159"/>
+      <c r="AV15" s="159"/>
+      <c r="AW15" s="159"/>
+      <c r="AX15" s="159"/>
+      <c r="AY15" s="159"/>
+      <c r="AZ15" s="159"/>
+      <c r="BA15" s="159"/>
+      <c r="BB15" s="159"/>
+      <c r="BC15" s="159"/>
+      <c r="BD15" s="159"/>
+      <c r="BE15" s="159"/>
+      <c r="BF15" s="159"/>
+      <c r="BG15" s="159"/>
+      <c r="BH15" s="159"/>
+      <c r="BI15" s="159"/>
+      <c r="BJ15" s="159"/>
+      <c r="BK15" s="159"/>
+      <c r="BL15" s="159"/>
+      <c r="BM15" s="159"/>
+      <c r="BN15" s="159"/>
+      <c r="BO15" s="159"/>
+      <c r="BP15" s="159"/>
+      <c r="BQ15" s="159"/>
+      <c r="BR15" s="160"/>
     </row>
     <row r="16" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="161" t="s">
+      <c r="A16" s="238" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="49"/>
@@ -6792,41 +6792,41 @@
       <c r="AJ16" s="48"/>
       <c r="AK16" s="49"/>
       <c r="AL16" s="50"/>
-      <c r="AM16" s="225"/>
-      <c r="AN16" s="226"/>
-      <c r="AO16" s="227"/>
-      <c r="AP16" s="228"/>
-      <c r="AQ16" s="229"/>
-      <c r="AR16" s="230"/>
-      <c r="AS16" s="230"/>
-      <c r="AT16" s="230"/>
-      <c r="AU16" s="230"/>
-      <c r="AV16" s="230"/>
-      <c r="AW16" s="230"/>
-      <c r="AX16" s="230"/>
-      <c r="AY16" s="230"/>
-      <c r="AZ16" s="230"/>
-      <c r="BA16" s="230"/>
-      <c r="BB16" s="230"/>
-      <c r="BC16" s="230"/>
-      <c r="BD16" s="231"/>
-      <c r="BE16" s="229"/>
-      <c r="BF16" s="230"/>
-      <c r="BG16" s="230"/>
-      <c r="BH16" s="230"/>
-      <c r="BI16" s="230"/>
-      <c r="BJ16" s="230"/>
-      <c r="BK16" s="231"/>
-      <c r="BL16" s="232"/>
-      <c r="BM16" s="230"/>
-      <c r="BN16" s="230"/>
-      <c r="BO16" s="233"/>
-      <c r="BP16" s="232"/>
-      <c r="BQ16" s="230"/>
-      <c r="BR16" s="234"/>
+      <c r="AM16" s="136"/>
+      <c r="AN16" s="137"/>
+      <c r="AO16" s="138"/>
+      <c r="AP16" s="139"/>
+      <c r="AQ16" s="140"/>
+      <c r="AR16" s="141"/>
+      <c r="AS16" s="141"/>
+      <c r="AT16" s="141"/>
+      <c r="AU16" s="141"/>
+      <c r="AV16" s="141"/>
+      <c r="AW16" s="141"/>
+      <c r="AX16" s="141"/>
+      <c r="AY16" s="141"/>
+      <c r="AZ16" s="141"/>
+      <c r="BA16" s="141"/>
+      <c r="BB16" s="141"/>
+      <c r="BC16" s="141"/>
+      <c r="BD16" s="142"/>
+      <c r="BE16" s="140"/>
+      <c r="BF16" s="141"/>
+      <c r="BG16" s="141"/>
+      <c r="BH16" s="141"/>
+      <c r="BI16" s="141"/>
+      <c r="BJ16" s="141"/>
+      <c r="BK16" s="142"/>
+      <c r="BL16" s="185"/>
+      <c r="BM16" s="141"/>
+      <c r="BN16" s="141"/>
+      <c r="BO16" s="187"/>
+      <c r="BP16" s="185"/>
+      <c r="BQ16" s="141"/>
+      <c r="BR16" s="247"/>
     </row>
     <row r="17" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="162"/>
+      <c r="A17" s="239"/>
       <c r="B17" s="130"/>
       <c r="C17" s="131"/>
       <c r="D17" s="131"/>
@@ -6864,41 +6864,41 @@
       <c r="AJ17" s="132"/>
       <c r="AK17" s="134"/>
       <c r="AL17" s="135"/>
-      <c r="AM17" s="251"/>
-      <c r="AN17" s="236"/>
-      <c r="AO17" s="237"/>
-      <c r="AP17" s="238"/>
-      <c r="AQ17" s="239"/>
-      <c r="AR17" s="240"/>
-      <c r="AS17" s="240"/>
-      <c r="AT17" s="240"/>
-      <c r="AU17" s="240"/>
-      <c r="AV17" s="240"/>
-      <c r="AW17" s="240"/>
-      <c r="AX17" s="240"/>
-      <c r="AY17" s="240"/>
-      <c r="AZ17" s="240"/>
-      <c r="BA17" s="240"/>
-      <c r="BB17" s="240"/>
-      <c r="BC17" s="240"/>
-      <c r="BD17" s="241"/>
-      <c r="BE17" s="239"/>
-      <c r="BF17" s="240"/>
-      <c r="BG17" s="240"/>
-      <c r="BH17" s="240"/>
-      <c r="BI17" s="240"/>
-      <c r="BJ17" s="240"/>
-      <c r="BK17" s="241"/>
-      <c r="BL17" s="242"/>
-      <c r="BM17" s="240"/>
-      <c r="BN17" s="240"/>
-      <c r="BO17" s="243"/>
-      <c r="BP17" s="242"/>
-      <c r="BQ17" s="240"/>
-      <c r="BR17" s="244"/>
+      <c r="AM17" s="150"/>
+      <c r="AN17" s="144"/>
+      <c r="AO17" s="145"/>
+      <c r="AP17" s="146"/>
+      <c r="AQ17" s="147"/>
+      <c r="AR17" s="148"/>
+      <c r="AS17" s="148"/>
+      <c r="AT17" s="148"/>
+      <c r="AU17" s="148"/>
+      <c r="AV17" s="148"/>
+      <c r="AW17" s="148"/>
+      <c r="AX17" s="148"/>
+      <c r="AY17" s="148"/>
+      <c r="AZ17" s="148"/>
+      <c r="BA17" s="148"/>
+      <c r="BB17" s="148"/>
+      <c r="BC17" s="148"/>
+      <c r="BD17" s="149"/>
+      <c r="BE17" s="147"/>
+      <c r="BF17" s="148"/>
+      <c r="BG17" s="148"/>
+      <c r="BH17" s="148"/>
+      <c r="BI17" s="148"/>
+      <c r="BJ17" s="148"/>
+      <c r="BK17" s="149"/>
+      <c r="BL17" s="186"/>
+      <c r="BM17" s="148"/>
+      <c r="BN17" s="148"/>
+      <c r="BO17" s="188"/>
+      <c r="BP17" s="186"/>
+      <c r="BQ17" s="148"/>
+      <c r="BR17" s="248"/>
     </row>
     <row r="18" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="162"/>
+      <c r="A18" s="239"/>
       <c r="B18" s="87"/>
       <c r="C18" s="88"/>
       <c r="D18" s="88"/>
@@ -6936,41 +6936,41 @@
       <c r="AJ18" s="89"/>
       <c r="AK18" s="91"/>
       <c r="AL18" s="92"/>
-      <c r="AM18" s="245"/>
-      <c r="AN18" s="246"/>
-      <c r="AO18" s="246"/>
-      <c r="AP18" s="246"/>
-      <c r="AQ18" s="246"/>
-      <c r="AR18" s="246"/>
-      <c r="AS18" s="246"/>
-      <c r="AT18" s="246"/>
-      <c r="AU18" s="246"/>
-      <c r="AV18" s="246"/>
-      <c r="AW18" s="246"/>
-      <c r="AX18" s="246"/>
-      <c r="AY18" s="246"/>
-      <c r="AZ18" s="246"/>
-      <c r="BA18" s="246"/>
-      <c r="BB18" s="246"/>
-      <c r="BC18" s="246"/>
-      <c r="BD18" s="246"/>
-      <c r="BE18" s="246"/>
-      <c r="BF18" s="246"/>
-      <c r="BG18" s="246"/>
-      <c r="BH18" s="246"/>
-      <c r="BI18" s="246"/>
-      <c r="BJ18" s="246"/>
-      <c r="BK18" s="246"/>
-      <c r="BL18" s="246"/>
-      <c r="BM18" s="246"/>
-      <c r="BN18" s="246"/>
-      <c r="BO18" s="246"/>
-      <c r="BP18" s="246"/>
-      <c r="BQ18" s="246"/>
-      <c r="BR18" s="247"/>
+      <c r="AM18" s="155"/>
+      <c r="AN18" s="156"/>
+      <c r="AO18" s="156"/>
+      <c r="AP18" s="156"/>
+      <c r="AQ18" s="156"/>
+      <c r="AR18" s="156"/>
+      <c r="AS18" s="156"/>
+      <c r="AT18" s="156"/>
+      <c r="AU18" s="156"/>
+      <c r="AV18" s="156"/>
+      <c r="AW18" s="156"/>
+      <c r="AX18" s="156"/>
+      <c r="AY18" s="156"/>
+      <c r="AZ18" s="156"/>
+      <c r="BA18" s="156"/>
+      <c r="BB18" s="156"/>
+      <c r="BC18" s="156"/>
+      <c r="BD18" s="156"/>
+      <c r="BE18" s="156"/>
+      <c r="BF18" s="156"/>
+      <c r="BG18" s="156"/>
+      <c r="BH18" s="156"/>
+      <c r="BI18" s="156"/>
+      <c r="BJ18" s="156"/>
+      <c r="BK18" s="156"/>
+      <c r="BL18" s="156"/>
+      <c r="BM18" s="156"/>
+      <c r="BN18" s="156"/>
+      <c r="BO18" s="156"/>
+      <c r="BP18" s="156"/>
+      <c r="BQ18" s="156"/>
+      <c r="BR18" s="157"/>
     </row>
     <row r="19" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="163"/>
+      <c r="A19" s="240"/>
       <c r="B19" s="72"/>
       <c r="C19" s="73"/>
       <c r="D19" s="73"/>
@@ -7008,41 +7008,41 @@
       <c r="AJ19" s="74"/>
       <c r="AK19" s="75"/>
       <c r="AL19" s="76"/>
-      <c r="AM19" s="248"/>
-      <c r="AN19" s="249"/>
-      <c r="AO19" s="249"/>
-      <c r="AP19" s="249"/>
-      <c r="AQ19" s="249"/>
-      <c r="AR19" s="249"/>
-      <c r="AS19" s="249"/>
-      <c r="AT19" s="249"/>
-      <c r="AU19" s="249"/>
-      <c r="AV19" s="249"/>
-      <c r="AW19" s="249"/>
-      <c r="AX19" s="249"/>
-      <c r="AY19" s="249"/>
-      <c r="AZ19" s="249"/>
-      <c r="BA19" s="249"/>
-      <c r="BB19" s="249"/>
-      <c r="BC19" s="249"/>
-      <c r="BD19" s="249"/>
-      <c r="BE19" s="249"/>
-      <c r="BF19" s="249"/>
-      <c r="BG19" s="249"/>
-      <c r="BH19" s="249"/>
-      <c r="BI19" s="249"/>
-      <c r="BJ19" s="249"/>
-      <c r="BK19" s="249"/>
-      <c r="BL19" s="249"/>
-      <c r="BM19" s="249"/>
-      <c r="BN19" s="249"/>
-      <c r="BO19" s="249"/>
-      <c r="BP19" s="249"/>
-      <c r="BQ19" s="249"/>
-      <c r="BR19" s="250"/>
+      <c r="AM19" s="158"/>
+      <c r="AN19" s="159"/>
+      <c r="AO19" s="159"/>
+      <c r="AP19" s="159"/>
+      <c r="AQ19" s="159"/>
+      <c r="AR19" s="159"/>
+      <c r="AS19" s="159"/>
+      <c r="AT19" s="159"/>
+      <c r="AU19" s="159"/>
+      <c r="AV19" s="159"/>
+      <c r="AW19" s="159"/>
+      <c r="AX19" s="159"/>
+      <c r="AY19" s="159"/>
+      <c r="AZ19" s="159"/>
+      <c r="BA19" s="159"/>
+      <c r="BB19" s="159"/>
+      <c r="BC19" s="159"/>
+      <c r="BD19" s="159"/>
+      <c r="BE19" s="159"/>
+      <c r="BF19" s="159"/>
+      <c r="BG19" s="159"/>
+      <c r="BH19" s="159"/>
+      <c r="BI19" s="159"/>
+      <c r="BJ19" s="159"/>
+      <c r="BK19" s="159"/>
+      <c r="BL19" s="159"/>
+      <c r="BM19" s="159"/>
+      <c r="BN19" s="159"/>
+      <c r="BO19" s="159"/>
+      <c r="BP19" s="159"/>
+      <c r="BQ19" s="159"/>
+      <c r="BR19" s="160"/>
     </row>
     <row r="20" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="162" t="s">
+      <c r="A20" s="239" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="44"/>
@@ -7082,41 +7082,41 @@
       <c r="AJ20" s="43"/>
       <c r="AK20" s="44"/>
       <c r="AL20" s="45"/>
-      <c r="AM20" s="225"/>
-      <c r="AN20" s="226"/>
-      <c r="AO20" s="227"/>
-      <c r="AP20" s="228"/>
-      <c r="AQ20" s="229"/>
-      <c r="AR20" s="230"/>
-      <c r="AS20" s="230"/>
-      <c r="AT20" s="230"/>
-      <c r="AU20" s="230"/>
-      <c r="AV20" s="230"/>
-      <c r="AW20" s="230"/>
-      <c r="AX20" s="230"/>
-      <c r="AY20" s="230"/>
-      <c r="AZ20" s="230"/>
-      <c r="BA20" s="230"/>
-      <c r="BB20" s="230"/>
-      <c r="BC20" s="230"/>
-      <c r="BD20" s="231"/>
-      <c r="BE20" s="229"/>
-      <c r="BF20" s="230"/>
-      <c r="BG20" s="230"/>
-      <c r="BH20" s="230"/>
-      <c r="BI20" s="230"/>
-      <c r="BJ20" s="230"/>
-      <c r="BK20" s="231"/>
-      <c r="BL20" s="232"/>
-      <c r="BM20" s="230"/>
-      <c r="BN20" s="230"/>
-      <c r="BO20" s="233"/>
-      <c r="BP20" s="229"/>
-      <c r="BQ20" s="230"/>
-      <c r="BR20" s="234"/>
+      <c r="AM20" s="136"/>
+      <c r="AN20" s="137"/>
+      <c r="AO20" s="138"/>
+      <c r="AP20" s="139"/>
+      <c r="AQ20" s="140"/>
+      <c r="AR20" s="141"/>
+      <c r="AS20" s="141"/>
+      <c r="AT20" s="141"/>
+      <c r="AU20" s="141"/>
+      <c r="AV20" s="141"/>
+      <c r="AW20" s="141"/>
+      <c r="AX20" s="141"/>
+      <c r="AY20" s="141"/>
+      <c r="AZ20" s="141"/>
+      <c r="BA20" s="141"/>
+      <c r="BB20" s="141"/>
+      <c r="BC20" s="141"/>
+      <c r="BD20" s="142"/>
+      <c r="BE20" s="140"/>
+      <c r="BF20" s="141"/>
+      <c r="BG20" s="141"/>
+      <c r="BH20" s="141"/>
+      <c r="BI20" s="141"/>
+      <c r="BJ20" s="141"/>
+      <c r="BK20" s="142"/>
+      <c r="BL20" s="185"/>
+      <c r="BM20" s="141"/>
+      <c r="BN20" s="141"/>
+      <c r="BO20" s="187"/>
+      <c r="BP20" s="185"/>
+      <c r="BQ20" s="141"/>
+      <c r="BR20" s="247"/>
     </row>
     <row r="21" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="162"/>
+      <c r="A21" s="239"/>
       <c r="B21" s="134"/>
       <c r="C21" s="131"/>
       <c r="D21" s="131"/>
@@ -7154,41 +7154,41 @@
       <c r="AJ21" s="132"/>
       <c r="AK21" s="134"/>
       <c r="AL21" s="135"/>
-      <c r="AM21" s="252"/>
-      <c r="AN21" s="253"/>
-      <c r="AO21" s="254"/>
-      <c r="AP21" s="255"/>
-      <c r="AQ21" s="239"/>
-      <c r="AR21" s="240"/>
-      <c r="AS21" s="240"/>
-      <c r="AT21" s="240"/>
-      <c r="AU21" s="240"/>
-      <c r="AV21" s="240"/>
-      <c r="AW21" s="240"/>
-      <c r="AX21" s="240"/>
-      <c r="AY21" s="240"/>
-      <c r="AZ21" s="240"/>
-      <c r="BA21" s="240"/>
-      <c r="BB21" s="240"/>
-      <c r="BC21" s="240"/>
-      <c r="BD21" s="241"/>
-      <c r="BE21" s="239"/>
-      <c r="BF21" s="240"/>
-      <c r="BG21" s="240"/>
-      <c r="BH21" s="240"/>
-      <c r="BI21" s="240"/>
-      <c r="BJ21" s="240"/>
-      <c r="BK21" s="241"/>
-      <c r="BL21" s="242"/>
-      <c r="BM21" s="240"/>
-      <c r="BN21" s="240"/>
-      <c r="BO21" s="243"/>
-      <c r="BP21" s="239"/>
-      <c r="BQ21" s="240"/>
-      <c r="BR21" s="244"/>
+      <c r="AM21" s="151"/>
+      <c r="AN21" s="152"/>
+      <c r="AO21" s="153"/>
+      <c r="AP21" s="154"/>
+      <c r="AQ21" s="147"/>
+      <c r="AR21" s="148"/>
+      <c r="AS21" s="148"/>
+      <c r="AT21" s="148"/>
+      <c r="AU21" s="148"/>
+      <c r="AV21" s="148"/>
+      <c r="AW21" s="148"/>
+      <c r="AX21" s="148"/>
+      <c r="AY21" s="148"/>
+      <c r="AZ21" s="148"/>
+      <c r="BA21" s="148"/>
+      <c r="BB21" s="148"/>
+      <c r="BC21" s="148"/>
+      <c r="BD21" s="149"/>
+      <c r="BE21" s="147"/>
+      <c r="BF21" s="148"/>
+      <c r="BG21" s="148"/>
+      <c r="BH21" s="148"/>
+      <c r="BI21" s="148"/>
+      <c r="BJ21" s="148"/>
+      <c r="BK21" s="149"/>
+      <c r="BL21" s="186"/>
+      <c r="BM21" s="148"/>
+      <c r="BN21" s="148"/>
+      <c r="BO21" s="188"/>
+      <c r="BP21" s="186"/>
+      <c r="BQ21" s="148"/>
+      <c r="BR21" s="248"/>
     </row>
     <row r="22" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="162"/>
+      <c r="A22" s="239"/>
       <c r="B22" s="87"/>
       <c r="C22" s="88"/>
       <c r="D22" s="88"/>
@@ -7226,41 +7226,41 @@
       <c r="AJ22" s="89"/>
       <c r="AK22" s="91"/>
       <c r="AL22" s="92"/>
-      <c r="AM22" s="245"/>
-      <c r="AN22" s="246"/>
-      <c r="AO22" s="246"/>
-      <c r="AP22" s="246"/>
-      <c r="AQ22" s="246"/>
-      <c r="AR22" s="246"/>
-      <c r="AS22" s="246"/>
-      <c r="AT22" s="246"/>
-      <c r="AU22" s="246"/>
-      <c r="AV22" s="246"/>
-      <c r="AW22" s="246"/>
-      <c r="AX22" s="246"/>
-      <c r="AY22" s="246"/>
-      <c r="AZ22" s="246"/>
-      <c r="BA22" s="246"/>
-      <c r="BB22" s="246"/>
-      <c r="BC22" s="246"/>
-      <c r="BD22" s="246"/>
-      <c r="BE22" s="246"/>
-      <c r="BF22" s="246"/>
-      <c r="BG22" s="246"/>
-      <c r="BH22" s="246"/>
-      <c r="BI22" s="246"/>
-      <c r="BJ22" s="246"/>
-      <c r="BK22" s="246"/>
-      <c r="BL22" s="246"/>
-      <c r="BM22" s="246"/>
-      <c r="BN22" s="246"/>
-      <c r="BO22" s="246"/>
-      <c r="BP22" s="246"/>
-      <c r="BQ22" s="246"/>
-      <c r="BR22" s="247"/>
+      <c r="AM22" s="155"/>
+      <c r="AN22" s="156"/>
+      <c r="AO22" s="156"/>
+      <c r="AP22" s="156"/>
+      <c r="AQ22" s="156"/>
+      <c r="AR22" s="156"/>
+      <c r="AS22" s="156"/>
+      <c r="AT22" s="156"/>
+      <c r="AU22" s="156"/>
+      <c r="AV22" s="156"/>
+      <c r="AW22" s="156"/>
+      <c r="AX22" s="156"/>
+      <c r="AY22" s="156"/>
+      <c r="AZ22" s="156"/>
+      <c r="BA22" s="156"/>
+      <c r="BB22" s="156"/>
+      <c r="BC22" s="156"/>
+      <c r="BD22" s="156"/>
+      <c r="BE22" s="156"/>
+      <c r="BF22" s="156"/>
+      <c r="BG22" s="156"/>
+      <c r="BH22" s="156"/>
+      <c r="BI22" s="156"/>
+      <c r="BJ22" s="156"/>
+      <c r="BK22" s="156"/>
+      <c r="BL22" s="156"/>
+      <c r="BM22" s="156"/>
+      <c r="BN22" s="156"/>
+      <c r="BO22" s="156"/>
+      <c r="BP22" s="156"/>
+      <c r="BQ22" s="156"/>
+      <c r="BR22" s="157"/>
     </row>
     <row r="23" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="163"/>
+      <c r="A23" s="240"/>
       <c r="B23" s="70"/>
       <c r="C23" s="67"/>
       <c r="D23" s="67"/>
@@ -7298,41 +7298,41 @@
       <c r="AJ23" s="68"/>
       <c r="AK23" s="70"/>
       <c r="AL23" s="71"/>
-      <c r="AM23" s="248"/>
-      <c r="AN23" s="249"/>
-      <c r="AO23" s="249"/>
-      <c r="AP23" s="249"/>
-      <c r="AQ23" s="249"/>
-      <c r="AR23" s="249"/>
-      <c r="AS23" s="249"/>
-      <c r="AT23" s="249"/>
-      <c r="AU23" s="249"/>
-      <c r="AV23" s="249"/>
-      <c r="AW23" s="249"/>
-      <c r="AX23" s="249"/>
-      <c r="AY23" s="249"/>
-      <c r="AZ23" s="249"/>
-      <c r="BA23" s="249"/>
-      <c r="BB23" s="249"/>
-      <c r="BC23" s="249"/>
-      <c r="BD23" s="249"/>
-      <c r="BE23" s="249"/>
-      <c r="BF23" s="249"/>
-      <c r="BG23" s="249"/>
-      <c r="BH23" s="249"/>
-      <c r="BI23" s="249"/>
-      <c r="BJ23" s="249"/>
-      <c r="BK23" s="249"/>
-      <c r="BL23" s="249"/>
-      <c r="BM23" s="249"/>
-      <c r="BN23" s="249"/>
-      <c r="BO23" s="249"/>
-      <c r="BP23" s="249"/>
-      <c r="BQ23" s="249"/>
-      <c r="BR23" s="250"/>
+      <c r="AM23" s="158"/>
+      <c r="AN23" s="159"/>
+      <c r="AO23" s="159"/>
+      <c r="AP23" s="159"/>
+      <c r="AQ23" s="159"/>
+      <c r="AR23" s="159"/>
+      <c r="AS23" s="159"/>
+      <c r="AT23" s="159"/>
+      <c r="AU23" s="159"/>
+      <c r="AV23" s="159"/>
+      <c r="AW23" s="159"/>
+      <c r="AX23" s="159"/>
+      <c r="AY23" s="159"/>
+      <c r="AZ23" s="159"/>
+      <c r="BA23" s="159"/>
+      <c r="BB23" s="159"/>
+      <c r="BC23" s="159"/>
+      <c r="BD23" s="159"/>
+      <c r="BE23" s="159"/>
+      <c r="BF23" s="159"/>
+      <c r="BG23" s="159"/>
+      <c r="BH23" s="159"/>
+      <c r="BI23" s="159"/>
+      <c r="BJ23" s="159"/>
+      <c r="BK23" s="159"/>
+      <c r="BL23" s="159"/>
+      <c r="BM23" s="159"/>
+      <c r="BN23" s="159"/>
+      <c r="BO23" s="159"/>
+      <c r="BP23" s="159"/>
+      <c r="BQ23" s="159"/>
+      <c r="BR23" s="160"/>
     </row>
     <row r="24" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="161" t="s">
+      <c r="A24" s="238" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="49"/>
@@ -7372,41 +7372,41 @@
       <c r="AJ24" s="48"/>
       <c r="AK24" s="49"/>
       <c r="AL24" s="50"/>
-      <c r="AM24" s="225"/>
-      <c r="AN24" s="226"/>
-      <c r="AO24" s="227"/>
-      <c r="AP24" s="228"/>
-      <c r="AQ24" s="229"/>
-      <c r="AR24" s="230"/>
-      <c r="AS24" s="230"/>
-      <c r="AT24" s="230"/>
-      <c r="AU24" s="230"/>
-      <c r="AV24" s="230"/>
-      <c r="AW24" s="230"/>
-      <c r="AX24" s="230"/>
-      <c r="AY24" s="230"/>
-      <c r="AZ24" s="230"/>
-      <c r="BA24" s="230"/>
-      <c r="BB24" s="230"/>
-      <c r="BC24" s="230"/>
-      <c r="BD24" s="231"/>
-      <c r="BE24" s="229"/>
-      <c r="BF24" s="230"/>
-      <c r="BG24" s="230"/>
-      <c r="BH24" s="230"/>
-      <c r="BI24" s="230"/>
-      <c r="BJ24" s="230"/>
-      <c r="BK24" s="231"/>
-      <c r="BL24" s="232"/>
-      <c r="BM24" s="230"/>
-      <c r="BN24" s="230"/>
-      <c r="BO24" s="233"/>
-      <c r="BP24" s="229"/>
-      <c r="BQ24" s="230"/>
-      <c r="BR24" s="234"/>
+      <c r="AM24" s="136"/>
+      <c r="AN24" s="137"/>
+      <c r="AO24" s="138"/>
+      <c r="AP24" s="139"/>
+      <c r="AQ24" s="140"/>
+      <c r="AR24" s="141"/>
+      <c r="AS24" s="141"/>
+      <c r="AT24" s="141"/>
+      <c r="AU24" s="141"/>
+      <c r="AV24" s="141"/>
+      <c r="AW24" s="141"/>
+      <c r="AX24" s="141"/>
+      <c r="AY24" s="141"/>
+      <c r="AZ24" s="141"/>
+      <c r="BA24" s="141"/>
+      <c r="BB24" s="141"/>
+      <c r="BC24" s="141"/>
+      <c r="BD24" s="142"/>
+      <c r="BE24" s="140"/>
+      <c r="BF24" s="141"/>
+      <c r="BG24" s="141"/>
+      <c r="BH24" s="141"/>
+      <c r="BI24" s="141"/>
+      <c r="BJ24" s="141"/>
+      <c r="BK24" s="142"/>
+      <c r="BL24" s="185"/>
+      <c r="BM24" s="141"/>
+      <c r="BN24" s="141"/>
+      <c r="BO24" s="187"/>
+      <c r="BP24" s="185"/>
+      <c r="BQ24" s="141"/>
+      <c r="BR24" s="247"/>
     </row>
     <row r="25" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="162"/>
+      <c r="A25" s="239"/>
       <c r="B25" s="134"/>
       <c r="C25" s="131"/>
       <c r="D25" s="131"/>
@@ -7444,41 +7444,41 @@
       <c r="AJ25" s="132"/>
       <c r="AK25" s="134"/>
       <c r="AL25" s="135"/>
-      <c r="AM25" s="235"/>
-      <c r="AN25" s="236"/>
-      <c r="AO25" s="237"/>
-      <c r="AP25" s="238"/>
-      <c r="AQ25" s="239"/>
-      <c r="AR25" s="240"/>
-      <c r="AS25" s="240"/>
-      <c r="AT25" s="240"/>
-      <c r="AU25" s="240"/>
-      <c r="AV25" s="240"/>
-      <c r="AW25" s="240"/>
-      <c r="AX25" s="240"/>
-      <c r="AY25" s="240"/>
-      <c r="AZ25" s="240"/>
-      <c r="BA25" s="240"/>
-      <c r="BB25" s="240"/>
-      <c r="BC25" s="240"/>
-      <c r="BD25" s="241"/>
-      <c r="BE25" s="239"/>
-      <c r="BF25" s="240"/>
-      <c r="BG25" s="240"/>
-      <c r="BH25" s="240"/>
-      <c r="BI25" s="240"/>
-      <c r="BJ25" s="240"/>
-      <c r="BK25" s="241"/>
-      <c r="BL25" s="242"/>
-      <c r="BM25" s="240"/>
-      <c r="BN25" s="240"/>
-      <c r="BO25" s="243"/>
-      <c r="BP25" s="239"/>
-      <c r="BQ25" s="240"/>
-      <c r="BR25" s="244"/>
+      <c r="AM25" s="143"/>
+      <c r="AN25" s="144"/>
+      <c r="AO25" s="145"/>
+      <c r="AP25" s="146"/>
+      <c r="AQ25" s="147"/>
+      <c r="AR25" s="148"/>
+      <c r="AS25" s="148"/>
+      <c r="AT25" s="148"/>
+      <c r="AU25" s="148"/>
+      <c r="AV25" s="148"/>
+      <c r="AW25" s="148"/>
+      <c r="AX25" s="148"/>
+      <c r="AY25" s="148"/>
+      <c r="AZ25" s="148"/>
+      <c r="BA25" s="148"/>
+      <c r="BB25" s="148"/>
+      <c r="BC25" s="148"/>
+      <c r="BD25" s="149"/>
+      <c r="BE25" s="147"/>
+      <c r="BF25" s="148"/>
+      <c r="BG25" s="148"/>
+      <c r="BH25" s="148"/>
+      <c r="BI25" s="148"/>
+      <c r="BJ25" s="148"/>
+      <c r="BK25" s="149"/>
+      <c r="BL25" s="186"/>
+      <c r="BM25" s="148"/>
+      <c r="BN25" s="148"/>
+      <c r="BO25" s="188"/>
+      <c r="BP25" s="186"/>
+      <c r="BQ25" s="148"/>
+      <c r="BR25" s="248"/>
     </row>
     <row r="26" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="162"/>
+      <c r="A26" s="239"/>
       <c r="B26" s="87"/>
       <c r="C26" s="88"/>
       <c r="D26" s="88"/>
@@ -7516,41 +7516,41 @@
       <c r="AJ26" s="89"/>
       <c r="AK26" s="91"/>
       <c r="AL26" s="92"/>
-      <c r="AM26" s="245"/>
-      <c r="AN26" s="246"/>
-      <c r="AO26" s="246"/>
-      <c r="AP26" s="246"/>
-      <c r="AQ26" s="246"/>
-      <c r="AR26" s="246"/>
-      <c r="AS26" s="246"/>
-      <c r="AT26" s="246"/>
-      <c r="AU26" s="246"/>
-      <c r="AV26" s="246"/>
-      <c r="AW26" s="246"/>
-      <c r="AX26" s="246"/>
-      <c r="AY26" s="246"/>
-      <c r="AZ26" s="246"/>
-      <c r="BA26" s="246"/>
-      <c r="BB26" s="246"/>
-      <c r="BC26" s="246"/>
-      <c r="BD26" s="246"/>
-      <c r="BE26" s="246"/>
-      <c r="BF26" s="246"/>
-      <c r="BG26" s="246"/>
-      <c r="BH26" s="246"/>
-      <c r="BI26" s="246"/>
-      <c r="BJ26" s="246"/>
-      <c r="BK26" s="246"/>
-      <c r="BL26" s="246"/>
-      <c r="BM26" s="246"/>
-      <c r="BN26" s="246"/>
-      <c r="BO26" s="246"/>
-      <c r="BP26" s="246"/>
-      <c r="BQ26" s="246"/>
-      <c r="BR26" s="247"/>
+      <c r="AM26" s="155"/>
+      <c r="AN26" s="156"/>
+      <c r="AO26" s="156"/>
+      <c r="AP26" s="156"/>
+      <c r="AQ26" s="156"/>
+      <c r="AR26" s="156"/>
+      <c r="AS26" s="156"/>
+      <c r="AT26" s="156"/>
+      <c r="AU26" s="156"/>
+      <c r="AV26" s="156"/>
+      <c r="AW26" s="156"/>
+      <c r="AX26" s="156"/>
+      <c r="AY26" s="156"/>
+      <c r="AZ26" s="156"/>
+      <c r="BA26" s="156"/>
+      <c r="BB26" s="156"/>
+      <c r="BC26" s="156"/>
+      <c r="BD26" s="156"/>
+      <c r="BE26" s="156"/>
+      <c r="BF26" s="156"/>
+      <c r="BG26" s="156"/>
+      <c r="BH26" s="156"/>
+      <c r="BI26" s="156"/>
+      <c r="BJ26" s="156"/>
+      <c r="BK26" s="156"/>
+      <c r="BL26" s="156"/>
+      <c r="BM26" s="156"/>
+      <c r="BN26" s="156"/>
+      <c r="BO26" s="156"/>
+      <c r="BP26" s="156"/>
+      <c r="BQ26" s="156"/>
+      <c r="BR26" s="157"/>
     </row>
     <row r="27" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="163"/>
+      <c r="A27" s="240"/>
       <c r="B27" s="70"/>
       <c r="C27" s="67"/>
       <c r="D27" s="67"/>
@@ -7588,41 +7588,41 @@
       <c r="AJ27" s="68"/>
       <c r="AK27" s="70"/>
       <c r="AL27" s="71"/>
-      <c r="AM27" s="248"/>
-      <c r="AN27" s="249"/>
-      <c r="AO27" s="249"/>
-      <c r="AP27" s="249"/>
-      <c r="AQ27" s="249"/>
-      <c r="AR27" s="249"/>
-      <c r="AS27" s="249"/>
-      <c r="AT27" s="249"/>
-      <c r="AU27" s="249"/>
-      <c r="AV27" s="249"/>
-      <c r="AW27" s="249"/>
-      <c r="AX27" s="249"/>
-      <c r="AY27" s="249"/>
-      <c r="AZ27" s="249"/>
-      <c r="BA27" s="249"/>
-      <c r="BB27" s="249"/>
-      <c r="BC27" s="249"/>
-      <c r="BD27" s="249"/>
-      <c r="BE27" s="249"/>
-      <c r="BF27" s="249"/>
-      <c r="BG27" s="249"/>
-      <c r="BH27" s="249"/>
-      <c r="BI27" s="249"/>
-      <c r="BJ27" s="249"/>
-      <c r="BK27" s="249"/>
-      <c r="BL27" s="249"/>
-      <c r="BM27" s="249"/>
-      <c r="BN27" s="249"/>
-      <c r="BO27" s="249"/>
-      <c r="BP27" s="249"/>
-      <c r="BQ27" s="249"/>
-      <c r="BR27" s="250"/>
+      <c r="AM27" s="158"/>
+      <c r="AN27" s="159"/>
+      <c r="AO27" s="159"/>
+      <c r="AP27" s="159"/>
+      <c r="AQ27" s="159"/>
+      <c r="AR27" s="159"/>
+      <c r="AS27" s="159"/>
+      <c r="AT27" s="159"/>
+      <c r="AU27" s="159"/>
+      <c r="AV27" s="159"/>
+      <c r="AW27" s="159"/>
+      <c r="AX27" s="159"/>
+      <c r="AY27" s="159"/>
+      <c r="AZ27" s="159"/>
+      <c r="BA27" s="159"/>
+      <c r="BB27" s="159"/>
+      <c r="BC27" s="159"/>
+      <c r="BD27" s="159"/>
+      <c r="BE27" s="159"/>
+      <c r="BF27" s="159"/>
+      <c r="BG27" s="159"/>
+      <c r="BH27" s="159"/>
+      <c r="BI27" s="159"/>
+      <c r="BJ27" s="159"/>
+      <c r="BK27" s="159"/>
+      <c r="BL27" s="159"/>
+      <c r="BM27" s="159"/>
+      <c r="BN27" s="159"/>
+      <c r="BO27" s="159"/>
+      <c r="BP27" s="159"/>
+      <c r="BQ27" s="159"/>
+      <c r="BR27" s="160"/>
     </row>
     <row r="28" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="161" t="s">
+      <c r="A28" s="238" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="49"/>
@@ -7662,41 +7662,41 @@
       <c r="AJ28" s="48"/>
       <c r="AK28" s="49"/>
       <c r="AL28" s="50"/>
-      <c r="AM28" s="225"/>
-      <c r="AN28" s="226"/>
-      <c r="AO28" s="227"/>
-      <c r="AP28" s="228"/>
-      <c r="AQ28" s="229"/>
-      <c r="AR28" s="230"/>
-      <c r="AS28" s="230"/>
-      <c r="AT28" s="230"/>
-      <c r="AU28" s="230"/>
-      <c r="AV28" s="230"/>
-      <c r="AW28" s="230"/>
-      <c r="AX28" s="230"/>
-      <c r="AY28" s="230"/>
-      <c r="AZ28" s="230"/>
-      <c r="BA28" s="230"/>
-      <c r="BB28" s="230"/>
-      <c r="BC28" s="230"/>
-      <c r="BD28" s="231"/>
-      <c r="BE28" s="229"/>
-      <c r="BF28" s="230"/>
-      <c r="BG28" s="230"/>
-      <c r="BH28" s="230"/>
-      <c r="BI28" s="230"/>
-      <c r="BJ28" s="230"/>
-      <c r="BK28" s="231"/>
-      <c r="BL28" s="232"/>
-      <c r="BM28" s="230"/>
-      <c r="BN28" s="230"/>
-      <c r="BO28" s="233"/>
-      <c r="BP28" s="229"/>
-      <c r="BQ28" s="230"/>
-      <c r="BR28" s="234"/>
+      <c r="AM28" s="136"/>
+      <c r="AN28" s="137"/>
+      <c r="AO28" s="138"/>
+      <c r="AP28" s="139"/>
+      <c r="AQ28" s="140"/>
+      <c r="AR28" s="141"/>
+      <c r="AS28" s="141"/>
+      <c r="AT28" s="141"/>
+      <c r="AU28" s="141"/>
+      <c r="AV28" s="141"/>
+      <c r="AW28" s="141"/>
+      <c r="AX28" s="141"/>
+      <c r="AY28" s="141"/>
+      <c r="AZ28" s="141"/>
+      <c r="BA28" s="141"/>
+      <c r="BB28" s="141"/>
+      <c r="BC28" s="141"/>
+      <c r="BD28" s="142"/>
+      <c r="BE28" s="140"/>
+      <c r="BF28" s="141"/>
+      <c r="BG28" s="141"/>
+      <c r="BH28" s="141"/>
+      <c r="BI28" s="141"/>
+      <c r="BJ28" s="141"/>
+      <c r="BK28" s="142"/>
+      <c r="BL28" s="185"/>
+      <c r="BM28" s="141"/>
+      <c r="BN28" s="141"/>
+      <c r="BO28" s="187"/>
+      <c r="BP28" s="185"/>
+      <c r="BQ28" s="141"/>
+      <c r="BR28" s="247"/>
     </row>
     <row r="29" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="162"/>
+      <c r="A29" s="239"/>
       <c r="B29" s="134"/>
       <c r="C29" s="131"/>
       <c r="D29" s="131"/>
@@ -7734,41 +7734,41 @@
       <c r="AJ29" s="132"/>
       <c r="AK29" s="134"/>
       <c r="AL29" s="135"/>
-      <c r="AM29" s="235"/>
-      <c r="AN29" s="236"/>
-      <c r="AO29" s="237"/>
-      <c r="AP29" s="238"/>
-      <c r="AQ29" s="239"/>
-      <c r="AR29" s="240"/>
-      <c r="AS29" s="240"/>
-      <c r="AT29" s="240"/>
-      <c r="AU29" s="240"/>
-      <c r="AV29" s="240"/>
-      <c r="AW29" s="240"/>
-      <c r="AX29" s="240"/>
-      <c r="AY29" s="240"/>
-      <c r="AZ29" s="240"/>
-      <c r="BA29" s="240"/>
-      <c r="BB29" s="240"/>
-      <c r="BC29" s="240"/>
-      <c r="BD29" s="241"/>
-      <c r="BE29" s="239"/>
-      <c r="BF29" s="240"/>
-      <c r="BG29" s="240"/>
-      <c r="BH29" s="240"/>
-      <c r="BI29" s="240"/>
-      <c r="BJ29" s="240"/>
-      <c r="BK29" s="241"/>
-      <c r="BL29" s="242"/>
-      <c r="BM29" s="240"/>
-      <c r="BN29" s="240"/>
-      <c r="BO29" s="243"/>
-      <c r="BP29" s="239"/>
-      <c r="BQ29" s="240"/>
-      <c r="BR29" s="244"/>
+      <c r="AM29" s="143"/>
+      <c r="AN29" s="144"/>
+      <c r="AO29" s="145"/>
+      <c r="AP29" s="146"/>
+      <c r="AQ29" s="147"/>
+      <c r="AR29" s="148"/>
+      <c r="AS29" s="148"/>
+      <c r="AT29" s="148"/>
+      <c r="AU29" s="148"/>
+      <c r="AV29" s="148"/>
+      <c r="AW29" s="148"/>
+      <c r="AX29" s="148"/>
+      <c r="AY29" s="148"/>
+      <c r="AZ29" s="148"/>
+      <c r="BA29" s="148"/>
+      <c r="BB29" s="148"/>
+      <c r="BC29" s="148"/>
+      <c r="BD29" s="149"/>
+      <c r="BE29" s="147"/>
+      <c r="BF29" s="148"/>
+      <c r="BG29" s="148"/>
+      <c r="BH29" s="148"/>
+      <c r="BI29" s="148"/>
+      <c r="BJ29" s="148"/>
+      <c r="BK29" s="149"/>
+      <c r="BL29" s="186"/>
+      <c r="BM29" s="148"/>
+      <c r="BN29" s="148"/>
+      <c r="BO29" s="188"/>
+      <c r="BP29" s="186"/>
+      <c r="BQ29" s="148"/>
+      <c r="BR29" s="248"/>
     </row>
     <row r="30" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="162"/>
+      <c r="A30" s="239"/>
       <c r="B30" s="87"/>
       <c r="C30" s="88"/>
       <c r="D30" s="88"/>
@@ -7806,41 +7806,41 @@
       <c r="AJ30" s="89"/>
       <c r="AK30" s="91"/>
       <c r="AL30" s="92"/>
-      <c r="AM30" s="245"/>
-      <c r="AN30" s="246"/>
-      <c r="AO30" s="246"/>
-      <c r="AP30" s="246"/>
-      <c r="AQ30" s="246"/>
-      <c r="AR30" s="246"/>
-      <c r="AS30" s="246"/>
-      <c r="AT30" s="246"/>
-      <c r="AU30" s="246"/>
-      <c r="AV30" s="246"/>
-      <c r="AW30" s="246"/>
-      <c r="AX30" s="246"/>
-      <c r="AY30" s="246"/>
-      <c r="AZ30" s="246"/>
-      <c r="BA30" s="246"/>
-      <c r="BB30" s="246"/>
-      <c r="BC30" s="246"/>
-      <c r="BD30" s="246"/>
-      <c r="BE30" s="246"/>
-      <c r="BF30" s="246"/>
-      <c r="BG30" s="246"/>
-      <c r="BH30" s="246"/>
-      <c r="BI30" s="246"/>
-      <c r="BJ30" s="246"/>
-      <c r="BK30" s="246"/>
-      <c r="BL30" s="246"/>
-      <c r="BM30" s="246"/>
-      <c r="BN30" s="246"/>
-      <c r="BO30" s="246"/>
-      <c r="BP30" s="246"/>
-      <c r="BQ30" s="246"/>
-      <c r="BR30" s="247"/>
+      <c r="AM30" s="155"/>
+      <c r="AN30" s="156"/>
+      <c r="AO30" s="156"/>
+      <c r="AP30" s="156"/>
+      <c r="AQ30" s="156"/>
+      <c r="AR30" s="156"/>
+      <c r="AS30" s="156"/>
+      <c r="AT30" s="156"/>
+      <c r="AU30" s="156"/>
+      <c r="AV30" s="156"/>
+      <c r="AW30" s="156"/>
+      <c r="AX30" s="156"/>
+      <c r="AY30" s="156"/>
+      <c r="AZ30" s="156"/>
+      <c r="BA30" s="156"/>
+      <c r="BB30" s="156"/>
+      <c r="BC30" s="156"/>
+      <c r="BD30" s="156"/>
+      <c r="BE30" s="156"/>
+      <c r="BF30" s="156"/>
+      <c r="BG30" s="156"/>
+      <c r="BH30" s="156"/>
+      <c r="BI30" s="156"/>
+      <c r="BJ30" s="156"/>
+      <c r="BK30" s="156"/>
+      <c r="BL30" s="156"/>
+      <c r="BM30" s="156"/>
+      <c r="BN30" s="156"/>
+      <c r="BO30" s="156"/>
+      <c r="BP30" s="156"/>
+      <c r="BQ30" s="156"/>
+      <c r="BR30" s="157"/>
     </row>
     <row r="31" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="163"/>
+      <c r="A31" s="240"/>
       <c r="B31" s="75"/>
       <c r="C31" s="73"/>
       <c r="D31" s="73"/>
@@ -7878,41 +7878,41 @@
       <c r="AJ31" s="74"/>
       <c r="AK31" s="75"/>
       <c r="AL31" s="76"/>
-      <c r="AM31" s="248"/>
-      <c r="AN31" s="249"/>
-      <c r="AO31" s="249"/>
-      <c r="AP31" s="249"/>
-      <c r="AQ31" s="249"/>
-      <c r="AR31" s="249"/>
-      <c r="AS31" s="249"/>
-      <c r="AT31" s="249"/>
-      <c r="AU31" s="249"/>
-      <c r="AV31" s="249"/>
-      <c r="AW31" s="249"/>
-      <c r="AX31" s="249"/>
-      <c r="AY31" s="249"/>
-      <c r="AZ31" s="249"/>
-      <c r="BA31" s="249"/>
-      <c r="BB31" s="249"/>
-      <c r="BC31" s="249"/>
-      <c r="BD31" s="249"/>
-      <c r="BE31" s="249"/>
-      <c r="BF31" s="249"/>
-      <c r="BG31" s="249"/>
-      <c r="BH31" s="249"/>
-      <c r="BI31" s="249"/>
-      <c r="BJ31" s="249"/>
-      <c r="BK31" s="249"/>
-      <c r="BL31" s="249"/>
-      <c r="BM31" s="249"/>
-      <c r="BN31" s="249"/>
-      <c r="BO31" s="249"/>
-      <c r="BP31" s="249"/>
-      <c r="BQ31" s="249"/>
-      <c r="BR31" s="250"/>
+      <c r="AM31" s="158"/>
+      <c r="AN31" s="159"/>
+      <c r="AO31" s="159"/>
+      <c r="AP31" s="159"/>
+      <c r="AQ31" s="159"/>
+      <c r="AR31" s="159"/>
+      <c r="AS31" s="159"/>
+      <c r="AT31" s="159"/>
+      <c r="AU31" s="159"/>
+      <c r="AV31" s="159"/>
+      <c r="AW31" s="159"/>
+      <c r="AX31" s="159"/>
+      <c r="AY31" s="159"/>
+      <c r="AZ31" s="159"/>
+      <c r="BA31" s="159"/>
+      <c r="BB31" s="159"/>
+      <c r="BC31" s="159"/>
+      <c r="BD31" s="159"/>
+      <c r="BE31" s="159"/>
+      <c r="BF31" s="159"/>
+      <c r="BG31" s="159"/>
+      <c r="BH31" s="159"/>
+      <c r="BI31" s="159"/>
+      <c r="BJ31" s="159"/>
+      <c r="BK31" s="159"/>
+      <c r="BL31" s="159"/>
+      <c r="BM31" s="159"/>
+      <c r="BN31" s="159"/>
+      <c r="BO31" s="159"/>
+      <c r="BP31" s="159"/>
+      <c r="BQ31" s="159"/>
+      <c r="BR31" s="160"/>
     </row>
     <row r="32" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="161" t="s">
+      <c r="A32" s="238" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="44"/>
@@ -7952,41 +7952,41 @@
       <c r="AJ32" s="43"/>
       <c r="AK32" s="44"/>
       <c r="AL32" s="45"/>
-      <c r="AM32" s="225"/>
-      <c r="AN32" s="226"/>
-      <c r="AO32" s="227"/>
-      <c r="AP32" s="228"/>
-      <c r="AQ32" s="229"/>
-      <c r="AR32" s="230"/>
-      <c r="AS32" s="230"/>
-      <c r="AT32" s="230"/>
-      <c r="AU32" s="230"/>
-      <c r="AV32" s="230"/>
-      <c r="AW32" s="230"/>
-      <c r="AX32" s="230"/>
-      <c r="AY32" s="230"/>
-      <c r="AZ32" s="230"/>
-      <c r="BA32" s="230"/>
-      <c r="BB32" s="230"/>
-      <c r="BC32" s="230"/>
-      <c r="BD32" s="231"/>
-      <c r="BE32" s="229"/>
-      <c r="BF32" s="230"/>
-      <c r="BG32" s="230"/>
-      <c r="BH32" s="230"/>
-      <c r="BI32" s="230"/>
-      <c r="BJ32" s="230"/>
-      <c r="BK32" s="231"/>
-      <c r="BL32" s="232"/>
-      <c r="BM32" s="230"/>
-      <c r="BN32" s="230"/>
-      <c r="BO32" s="233"/>
-      <c r="BP32" s="229"/>
-      <c r="BQ32" s="230"/>
-      <c r="BR32" s="234"/>
+      <c r="AM32" s="136"/>
+      <c r="AN32" s="137"/>
+      <c r="AO32" s="138"/>
+      <c r="AP32" s="139"/>
+      <c r="AQ32" s="140"/>
+      <c r="AR32" s="141"/>
+      <c r="AS32" s="141"/>
+      <c r="AT32" s="141"/>
+      <c r="AU32" s="141"/>
+      <c r="AV32" s="141"/>
+      <c r="AW32" s="141"/>
+      <c r="AX32" s="141"/>
+      <c r="AY32" s="141"/>
+      <c r="AZ32" s="141"/>
+      <c r="BA32" s="141"/>
+      <c r="BB32" s="141"/>
+      <c r="BC32" s="141"/>
+      <c r="BD32" s="142"/>
+      <c r="BE32" s="140"/>
+      <c r="BF32" s="141"/>
+      <c r="BG32" s="141"/>
+      <c r="BH32" s="141"/>
+      <c r="BI32" s="141"/>
+      <c r="BJ32" s="141"/>
+      <c r="BK32" s="142"/>
+      <c r="BL32" s="185"/>
+      <c r="BM32" s="141"/>
+      <c r="BN32" s="141"/>
+      <c r="BO32" s="187"/>
+      <c r="BP32" s="185"/>
+      <c r="BQ32" s="141"/>
+      <c r="BR32" s="247"/>
     </row>
     <row r="33" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="162"/>
+      <c r="A33" s="239"/>
       <c r="B33" s="134"/>
       <c r="C33" s="131"/>
       <c r="D33" s="131"/>
@@ -8024,41 +8024,41 @@
       <c r="AJ33" s="132"/>
       <c r="AK33" s="134"/>
       <c r="AL33" s="135"/>
-      <c r="AM33" s="235"/>
-      <c r="AN33" s="236"/>
-      <c r="AO33" s="237"/>
-      <c r="AP33" s="238"/>
-      <c r="AQ33" s="239"/>
-      <c r="AR33" s="240"/>
-      <c r="AS33" s="240"/>
-      <c r="AT33" s="240"/>
-      <c r="AU33" s="240"/>
-      <c r="AV33" s="240"/>
-      <c r="AW33" s="240"/>
-      <c r="AX33" s="240"/>
-      <c r="AY33" s="240"/>
-      <c r="AZ33" s="240"/>
-      <c r="BA33" s="240"/>
-      <c r="BB33" s="240"/>
-      <c r="BC33" s="240"/>
-      <c r="BD33" s="241"/>
-      <c r="BE33" s="239"/>
-      <c r="BF33" s="240"/>
-      <c r="BG33" s="240"/>
-      <c r="BH33" s="240"/>
-      <c r="BI33" s="240"/>
-      <c r="BJ33" s="240"/>
-      <c r="BK33" s="241"/>
-      <c r="BL33" s="242"/>
-      <c r="BM33" s="240"/>
-      <c r="BN33" s="240"/>
-      <c r="BO33" s="243"/>
-      <c r="BP33" s="239"/>
-      <c r="BQ33" s="240"/>
-      <c r="BR33" s="244"/>
+      <c r="AM33" s="143"/>
+      <c r="AN33" s="144"/>
+      <c r="AO33" s="145"/>
+      <c r="AP33" s="146"/>
+      <c r="AQ33" s="147"/>
+      <c r="AR33" s="148"/>
+      <c r="AS33" s="148"/>
+      <c r="AT33" s="148"/>
+      <c r="AU33" s="148"/>
+      <c r="AV33" s="148"/>
+      <c r="AW33" s="148"/>
+      <c r="AX33" s="148"/>
+      <c r="AY33" s="148"/>
+      <c r="AZ33" s="148"/>
+      <c r="BA33" s="148"/>
+      <c r="BB33" s="148"/>
+      <c r="BC33" s="148"/>
+      <c r="BD33" s="149"/>
+      <c r="BE33" s="147"/>
+      <c r="BF33" s="148"/>
+      <c r="BG33" s="148"/>
+      <c r="BH33" s="148"/>
+      <c r="BI33" s="148"/>
+      <c r="BJ33" s="148"/>
+      <c r="BK33" s="149"/>
+      <c r="BL33" s="186"/>
+      <c r="BM33" s="148"/>
+      <c r="BN33" s="148"/>
+      <c r="BO33" s="188"/>
+      <c r="BP33" s="186"/>
+      <c r="BQ33" s="148"/>
+      <c r="BR33" s="248"/>
     </row>
     <row r="34" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="162"/>
+      <c r="A34" s="239"/>
       <c r="B34" s="87"/>
       <c r="C34" s="88"/>
       <c r="D34" s="88"/>
@@ -8096,41 +8096,41 @@
       <c r="AJ34" s="89"/>
       <c r="AK34" s="91"/>
       <c r="AL34" s="92"/>
-      <c r="AM34" s="245"/>
-      <c r="AN34" s="246"/>
-      <c r="AO34" s="246"/>
-      <c r="AP34" s="246"/>
-      <c r="AQ34" s="246"/>
-      <c r="AR34" s="246"/>
-      <c r="AS34" s="246"/>
-      <c r="AT34" s="246"/>
-      <c r="AU34" s="246"/>
-      <c r="AV34" s="246"/>
-      <c r="AW34" s="246"/>
-      <c r="AX34" s="246"/>
-      <c r="AY34" s="246"/>
-      <c r="AZ34" s="246"/>
-      <c r="BA34" s="246"/>
-      <c r="BB34" s="246"/>
-      <c r="BC34" s="246"/>
-      <c r="BD34" s="246"/>
-      <c r="BE34" s="246"/>
-      <c r="BF34" s="246"/>
-      <c r="BG34" s="246"/>
-      <c r="BH34" s="246"/>
-      <c r="BI34" s="246"/>
-      <c r="BJ34" s="246"/>
-      <c r="BK34" s="246"/>
-      <c r="BL34" s="246"/>
-      <c r="BM34" s="246"/>
-      <c r="BN34" s="246"/>
-      <c r="BO34" s="246"/>
-      <c r="BP34" s="246"/>
-      <c r="BQ34" s="246"/>
-      <c r="BR34" s="247"/>
+      <c r="AM34" s="155"/>
+      <c r="AN34" s="156"/>
+      <c r="AO34" s="156"/>
+      <c r="AP34" s="156"/>
+      <c r="AQ34" s="156"/>
+      <c r="AR34" s="156"/>
+      <c r="AS34" s="156"/>
+      <c r="AT34" s="156"/>
+      <c r="AU34" s="156"/>
+      <c r="AV34" s="156"/>
+      <c r="AW34" s="156"/>
+      <c r="AX34" s="156"/>
+      <c r="AY34" s="156"/>
+      <c r="AZ34" s="156"/>
+      <c r="BA34" s="156"/>
+      <c r="BB34" s="156"/>
+      <c r="BC34" s="156"/>
+      <c r="BD34" s="156"/>
+      <c r="BE34" s="156"/>
+      <c r="BF34" s="156"/>
+      <c r="BG34" s="156"/>
+      <c r="BH34" s="156"/>
+      <c r="BI34" s="156"/>
+      <c r="BJ34" s="156"/>
+      <c r="BK34" s="156"/>
+      <c r="BL34" s="156"/>
+      <c r="BM34" s="156"/>
+      <c r="BN34" s="156"/>
+      <c r="BO34" s="156"/>
+      <c r="BP34" s="156"/>
+      <c r="BQ34" s="156"/>
+      <c r="BR34" s="157"/>
     </row>
     <row r="35" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="163"/>
+      <c r="A35" s="240"/>
       <c r="B35" s="70"/>
       <c r="C35" s="67"/>
       <c r="D35" s="67"/>
@@ -8168,41 +8168,41 @@
       <c r="AJ35" s="68"/>
       <c r="AK35" s="70"/>
       <c r="AL35" s="71"/>
-      <c r="AM35" s="248"/>
-      <c r="AN35" s="249"/>
-      <c r="AO35" s="249"/>
-      <c r="AP35" s="249"/>
-      <c r="AQ35" s="249"/>
-      <c r="AR35" s="249"/>
-      <c r="AS35" s="249"/>
-      <c r="AT35" s="249"/>
-      <c r="AU35" s="249"/>
-      <c r="AV35" s="249"/>
-      <c r="AW35" s="249"/>
-      <c r="AX35" s="249"/>
-      <c r="AY35" s="249"/>
-      <c r="AZ35" s="249"/>
-      <c r="BA35" s="249"/>
-      <c r="BB35" s="249"/>
-      <c r="BC35" s="249"/>
-      <c r="BD35" s="249"/>
-      <c r="BE35" s="249"/>
-      <c r="BF35" s="249"/>
-      <c r="BG35" s="249"/>
-      <c r="BH35" s="249"/>
-      <c r="BI35" s="249"/>
-      <c r="BJ35" s="249"/>
-      <c r="BK35" s="249"/>
-      <c r="BL35" s="249"/>
-      <c r="BM35" s="249"/>
-      <c r="BN35" s="249"/>
-      <c r="BO35" s="249"/>
-      <c r="BP35" s="249"/>
-      <c r="BQ35" s="249"/>
-      <c r="BR35" s="250"/>
+      <c r="AM35" s="158"/>
+      <c r="AN35" s="159"/>
+      <c r="AO35" s="159"/>
+      <c r="AP35" s="159"/>
+      <c r="AQ35" s="159"/>
+      <c r="AR35" s="159"/>
+      <c r="AS35" s="159"/>
+      <c r="AT35" s="159"/>
+      <c r="AU35" s="159"/>
+      <c r="AV35" s="159"/>
+      <c r="AW35" s="159"/>
+      <c r="AX35" s="159"/>
+      <c r="AY35" s="159"/>
+      <c r="AZ35" s="159"/>
+      <c r="BA35" s="159"/>
+      <c r="BB35" s="159"/>
+      <c r="BC35" s="159"/>
+      <c r="BD35" s="159"/>
+      <c r="BE35" s="159"/>
+      <c r="BF35" s="159"/>
+      <c r="BG35" s="159"/>
+      <c r="BH35" s="159"/>
+      <c r="BI35" s="159"/>
+      <c r="BJ35" s="159"/>
+      <c r="BK35" s="159"/>
+      <c r="BL35" s="159"/>
+      <c r="BM35" s="159"/>
+      <c r="BN35" s="159"/>
+      <c r="BO35" s="159"/>
+      <c r="BP35" s="159"/>
+      <c r="BQ35" s="159"/>
+      <c r="BR35" s="160"/>
     </row>
     <row r="36" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="165" t="s">
+      <c r="A36" s="242" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="46"/>
@@ -8242,41 +8242,41 @@
       <c r="AJ36" s="48"/>
       <c r="AK36" s="49"/>
       <c r="AL36" s="50"/>
-      <c r="AM36" s="225"/>
-      <c r="AN36" s="226"/>
-      <c r="AO36" s="227"/>
-      <c r="AP36" s="228"/>
-      <c r="AQ36" s="229"/>
-      <c r="AR36" s="230"/>
-      <c r="AS36" s="230"/>
-      <c r="AT36" s="230"/>
-      <c r="AU36" s="230"/>
-      <c r="AV36" s="230"/>
-      <c r="AW36" s="230"/>
-      <c r="AX36" s="230"/>
-      <c r="AY36" s="230"/>
-      <c r="AZ36" s="230"/>
-      <c r="BA36" s="230"/>
-      <c r="BB36" s="230"/>
-      <c r="BC36" s="230"/>
-      <c r="BD36" s="231"/>
-      <c r="BE36" s="229"/>
-      <c r="BF36" s="230"/>
-      <c r="BG36" s="230"/>
-      <c r="BH36" s="230"/>
-      <c r="BI36" s="230"/>
-      <c r="BJ36" s="230"/>
-      <c r="BK36" s="231"/>
-      <c r="BL36" s="232"/>
-      <c r="BM36" s="230"/>
-      <c r="BN36" s="230"/>
-      <c r="BO36" s="233"/>
-      <c r="BP36" s="229"/>
-      <c r="BQ36" s="230"/>
-      <c r="BR36" s="234"/>
+      <c r="AM36" s="136"/>
+      <c r="AN36" s="137"/>
+      <c r="AO36" s="138"/>
+      <c r="AP36" s="139"/>
+      <c r="AQ36" s="140"/>
+      <c r="AR36" s="141"/>
+      <c r="AS36" s="141"/>
+      <c r="AT36" s="141"/>
+      <c r="AU36" s="141"/>
+      <c r="AV36" s="141"/>
+      <c r="AW36" s="141"/>
+      <c r="AX36" s="141"/>
+      <c r="AY36" s="141"/>
+      <c r="AZ36" s="141"/>
+      <c r="BA36" s="141"/>
+      <c r="BB36" s="141"/>
+      <c r="BC36" s="141"/>
+      <c r="BD36" s="142"/>
+      <c r="BE36" s="140"/>
+      <c r="BF36" s="141"/>
+      <c r="BG36" s="141"/>
+      <c r="BH36" s="141"/>
+      <c r="BI36" s="141"/>
+      <c r="BJ36" s="141"/>
+      <c r="BK36" s="142"/>
+      <c r="BL36" s="185"/>
+      <c r="BM36" s="141"/>
+      <c r="BN36" s="141"/>
+      <c r="BO36" s="187"/>
+      <c r="BP36" s="185"/>
+      <c r="BQ36" s="141"/>
+      <c r="BR36" s="247"/>
     </row>
     <row r="37" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="166"/>
+      <c r="A37" s="243"/>
       <c r="B37" s="130"/>
       <c r="C37" s="131"/>
       <c r="D37" s="131"/>
@@ -8314,41 +8314,41 @@
       <c r="AJ37" s="132"/>
       <c r="AK37" s="134"/>
       <c r="AL37" s="135"/>
-      <c r="AM37" s="235"/>
-      <c r="AN37" s="236"/>
-      <c r="AO37" s="237"/>
-      <c r="AP37" s="238"/>
-      <c r="AQ37" s="239"/>
-      <c r="AR37" s="240"/>
-      <c r="AS37" s="240"/>
-      <c r="AT37" s="240"/>
-      <c r="AU37" s="240"/>
-      <c r="AV37" s="240"/>
-      <c r="AW37" s="240"/>
-      <c r="AX37" s="240"/>
-      <c r="AY37" s="240"/>
-      <c r="AZ37" s="240"/>
-      <c r="BA37" s="240"/>
-      <c r="BB37" s="240"/>
-      <c r="BC37" s="240"/>
-      <c r="BD37" s="241"/>
-      <c r="BE37" s="239"/>
-      <c r="BF37" s="240"/>
-      <c r="BG37" s="240"/>
-      <c r="BH37" s="240"/>
-      <c r="BI37" s="240"/>
-      <c r="BJ37" s="240"/>
-      <c r="BK37" s="241"/>
-      <c r="BL37" s="242"/>
-      <c r="BM37" s="240"/>
-      <c r="BN37" s="240"/>
-      <c r="BO37" s="243"/>
-      <c r="BP37" s="239"/>
-      <c r="BQ37" s="240"/>
-      <c r="BR37" s="244"/>
+      <c r="AM37" s="143"/>
+      <c r="AN37" s="144"/>
+      <c r="AO37" s="145"/>
+      <c r="AP37" s="146"/>
+      <c r="AQ37" s="147"/>
+      <c r="AR37" s="148"/>
+      <c r="AS37" s="148"/>
+      <c r="AT37" s="148"/>
+      <c r="AU37" s="148"/>
+      <c r="AV37" s="148"/>
+      <c r="AW37" s="148"/>
+      <c r="AX37" s="148"/>
+      <c r="AY37" s="148"/>
+      <c r="AZ37" s="148"/>
+      <c r="BA37" s="148"/>
+      <c r="BB37" s="148"/>
+      <c r="BC37" s="148"/>
+      <c r="BD37" s="149"/>
+      <c r="BE37" s="147"/>
+      <c r="BF37" s="148"/>
+      <c r="BG37" s="148"/>
+      <c r="BH37" s="148"/>
+      <c r="BI37" s="148"/>
+      <c r="BJ37" s="148"/>
+      <c r="BK37" s="149"/>
+      <c r="BL37" s="186"/>
+      <c r="BM37" s="148"/>
+      <c r="BN37" s="148"/>
+      <c r="BO37" s="188"/>
+      <c r="BP37" s="186"/>
+      <c r="BQ37" s="148"/>
+      <c r="BR37" s="248"/>
     </row>
     <row r="38" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="166"/>
+      <c r="A38" s="243"/>
       <c r="B38" s="87"/>
       <c r="C38" s="88"/>
       <c r="D38" s="88"/>
@@ -8386,41 +8386,41 @@
       <c r="AJ38" s="89"/>
       <c r="AK38" s="91"/>
       <c r="AL38" s="92"/>
-      <c r="AM38" s="245"/>
-      <c r="AN38" s="246"/>
-      <c r="AO38" s="246"/>
-      <c r="AP38" s="246"/>
-      <c r="AQ38" s="246"/>
-      <c r="AR38" s="246"/>
-      <c r="AS38" s="246"/>
-      <c r="AT38" s="246"/>
-      <c r="AU38" s="246"/>
-      <c r="AV38" s="246"/>
-      <c r="AW38" s="246"/>
-      <c r="AX38" s="246"/>
-      <c r="AY38" s="246"/>
-      <c r="AZ38" s="246"/>
-      <c r="BA38" s="246"/>
-      <c r="BB38" s="246"/>
-      <c r="BC38" s="246"/>
-      <c r="BD38" s="246"/>
-      <c r="BE38" s="246"/>
-      <c r="BF38" s="246"/>
-      <c r="BG38" s="246"/>
-      <c r="BH38" s="246"/>
-      <c r="BI38" s="246"/>
-      <c r="BJ38" s="246"/>
-      <c r="BK38" s="246"/>
-      <c r="BL38" s="246"/>
-      <c r="BM38" s="246"/>
-      <c r="BN38" s="246"/>
-      <c r="BO38" s="246"/>
-      <c r="BP38" s="246"/>
-      <c r="BQ38" s="246"/>
-      <c r="BR38" s="247"/>
+      <c r="AM38" s="155"/>
+      <c r="AN38" s="156"/>
+      <c r="AO38" s="156"/>
+      <c r="AP38" s="156"/>
+      <c r="AQ38" s="156"/>
+      <c r="AR38" s="156"/>
+      <c r="AS38" s="156"/>
+      <c r="AT38" s="156"/>
+      <c r="AU38" s="156"/>
+      <c r="AV38" s="156"/>
+      <c r="AW38" s="156"/>
+      <c r="AX38" s="156"/>
+      <c r="AY38" s="156"/>
+      <c r="AZ38" s="156"/>
+      <c r="BA38" s="156"/>
+      <c r="BB38" s="156"/>
+      <c r="BC38" s="156"/>
+      <c r="BD38" s="156"/>
+      <c r="BE38" s="156"/>
+      <c r="BF38" s="156"/>
+      <c r="BG38" s="156"/>
+      <c r="BH38" s="156"/>
+      <c r="BI38" s="156"/>
+      <c r="BJ38" s="156"/>
+      <c r="BK38" s="156"/>
+      <c r="BL38" s="156"/>
+      <c r="BM38" s="156"/>
+      <c r="BN38" s="156"/>
+      <c r="BO38" s="156"/>
+      <c r="BP38" s="156"/>
+      <c r="BQ38" s="156"/>
+      <c r="BR38" s="157"/>
     </row>
     <row r="39" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="167"/>
+      <c r="A39" s="244"/>
       <c r="B39" s="72"/>
       <c r="C39" s="73"/>
       <c r="D39" s="73"/>
@@ -8458,41 +8458,41 @@
       <c r="AJ39" s="74"/>
       <c r="AK39" s="75"/>
       <c r="AL39" s="76"/>
-      <c r="AM39" s="248"/>
-      <c r="AN39" s="249"/>
-      <c r="AO39" s="249"/>
-      <c r="AP39" s="249"/>
-      <c r="AQ39" s="249"/>
-      <c r="AR39" s="249"/>
-      <c r="AS39" s="249"/>
-      <c r="AT39" s="249"/>
-      <c r="AU39" s="249"/>
-      <c r="AV39" s="249"/>
-      <c r="AW39" s="249"/>
-      <c r="AX39" s="249"/>
-      <c r="AY39" s="249"/>
-      <c r="AZ39" s="249"/>
-      <c r="BA39" s="249"/>
-      <c r="BB39" s="249"/>
-      <c r="BC39" s="249"/>
-      <c r="BD39" s="249"/>
-      <c r="BE39" s="249"/>
-      <c r="BF39" s="249"/>
-      <c r="BG39" s="249"/>
-      <c r="BH39" s="249"/>
-      <c r="BI39" s="249"/>
-      <c r="BJ39" s="249"/>
-      <c r="BK39" s="249"/>
-      <c r="BL39" s="249"/>
-      <c r="BM39" s="249"/>
-      <c r="BN39" s="249"/>
-      <c r="BO39" s="249"/>
-      <c r="BP39" s="249"/>
-      <c r="BQ39" s="249"/>
-      <c r="BR39" s="250"/>
+      <c r="AM39" s="158"/>
+      <c r="AN39" s="159"/>
+      <c r="AO39" s="159"/>
+      <c r="AP39" s="159"/>
+      <c r="AQ39" s="159"/>
+      <c r="AR39" s="159"/>
+      <c r="AS39" s="159"/>
+      <c r="AT39" s="159"/>
+      <c r="AU39" s="159"/>
+      <c r="AV39" s="159"/>
+      <c r="AW39" s="159"/>
+      <c r="AX39" s="159"/>
+      <c r="AY39" s="159"/>
+      <c r="AZ39" s="159"/>
+      <c r="BA39" s="159"/>
+      <c r="BB39" s="159"/>
+      <c r="BC39" s="159"/>
+      <c r="BD39" s="159"/>
+      <c r="BE39" s="159"/>
+      <c r="BF39" s="159"/>
+      <c r="BG39" s="159"/>
+      <c r="BH39" s="159"/>
+      <c r="BI39" s="159"/>
+      <c r="BJ39" s="159"/>
+      <c r="BK39" s="159"/>
+      <c r="BL39" s="159"/>
+      <c r="BM39" s="159"/>
+      <c r="BN39" s="159"/>
+      <c r="BO39" s="159"/>
+      <c r="BP39" s="159"/>
+      <c r="BQ39" s="159"/>
+      <c r="BR39" s="160"/>
     </row>
     <row r="40" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="165" t="s">
+      <c r="A40" s="242" t="s">
         <v>57</v>
       </c>
       <c r="B40" s="44"/>
@@ -8532,41 +8532,41 @@
       <c r="AJ40" s="43"/>
       <c r="AK40" s="44"/>
       <c r="AL40" s="45"/>
-      <c r="AM40" s="225"/>
-      <c r="AN40" s="226"/>
-      <c r="AO40" s="227"/>
-      <c r="AP40" s="228"/>
-      <c r="AQ40" s="229"/>
-      <c r="AR40" s="230"/>
-      <c r="AS40" s="230"/>
-      <c r="AT40" s="230"/>
-      <c r="AU40" s="230"/>
-      <c r="AV40" s="230"/>
-      <c r="AW40" s="230"/>
-      <c r="AX40" s="230"/>
-      <c r="AY40" s="230"/>
-      <c r="AZ40" s="230"/>
-      <c r="BA40" s="230"/>
-      <c r="BB40" s="230"/>
-      <c r="BC40" s="230"/>
-      <c r="BD40" s="231"/>
-      <c r="BE40" s="229"/>
-      <c r="BF40" s="230"/>
-      <c r="BG40" s="230"/>
-      <c r="BH40" s="230"/>
-      <c r="BI40" s="230"/>
-      <c r="BJ40" s="230"/>
-      <c r="BK40" s="231"/>
-      <c r="BL40" s="232"/>
-      <c r="BM40" s="230"/>
-      <c r="BN40" s="230"/>
-      <c r="BO40" s="233"/>
-      <c r="BP40" s="229"/>
-      <c r="BQ40" s="230"/>
-      <c r="BR40" s="234"/>
+      <c r="AM40" s="136"/>
+      <c r="AN40" s="137"/>
+      <c r="AO40" s="138"/>
+      <c r="AP40" s="139"/>
+      <c r="AQ40" s="140"/>
+      <c r="AR40" s="141"/>
+      <c r="AS40" s="141"/>
+      <c r="AT40" s="141"/>
+      <c r="AU40" s="141"/>
+      <c r="AV40" s="141"/>
+      <c r="AW40" s="141"/>
+      <c r="AX40" s="141"/>
+      <c r="AY40" s="141"/>
+      <c r="AZ40" s="141"/>
+      <c r="BA40" s="141"/>
+      <c r="BB40" s="141"/>
+      <c r="BC40" s="141"/>
+      <c r="BD40" s="142"/>
+      <c r="BE40" s="140"/>
+      <c r="BF40" s="141"/>
+      <c r="BG40" s="141"/>
+      <c r="BH40" s="141"/>
+      <c r="BI40" s="141"/>
+      <c r="BJ40" s="141"/>
+      <c r="BK40" s="142"/>
+      <c r="BL40" s="185"/>
+      <c r="BM40" s="141"/>
+      <c r="BN40" s="141"/>
+      <c r="BO40" s="187"/>
+      <c r="BP40" s="185"/>
+      <c r="BQ40" s="141"/>
+      <c r="BR40" s="247"/>
     </row>
     <row r="41" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="166"/>
+      <c r="A41" s="243"/>
       <c r="B41" s="134"/>
       <c r="C41" s="131"/>
       <c r="D41" s="131"/>
@@ -8604,41 +8604,41 @@
       <c r="AJ41" s="132"/>
       <c r="AK41" s="134"/>
       <c r="AL41" s="135"/>
-      <c r="AM41" s="235"/>
-      <c r="AN41" s="236"/>
-      <c r="AO41" s="237"/>
-      <c r="AP41" s="238"/>
-      <c r="AQ41" s="239"/>
-      <c r="AR41" s="240"/>
-      <c r="AS41" s="240"/>
-      <c r="AT41" s="240"/>
-      <c r="AU41" s="240"/>
-      <c r="AV41" s="240"/>
-      <c r="AW41" s="240"/>
-      <c r="AX41" s="240"/>
-      <c r="AY41" s="240"/>
-      <c r="AZ41" s="240"/>
-      <c r="BA41" s="240"/>
-      <c r="BB41" s="240"/>
-      <c r="BC41" s="240"/>
-      <c r="BD41" s="241"/>
-      <c r="BE41" s="239"/>
-      <c r="BF41" s="240"/>
-      <c r="BG41" s="240"/>
-      <c r="BH41" s="240"/>
-      <c r="BI41" s="240"/>
-      <c r="BJ41" s="240"/>
-      <c r="BK41" s="241"/>
-      <c r="BL41" s="242"/>
-      <c r="BM41" s="240"/>
-      <c r="BN41" s="240"/>
-      <c r="BO41" s="243"/>
-      <c r="BP41" s="239"/>
-      <c r="BQ41" s="240"/>
-      <c r="BR41" s="244"/>
+      <c r="AM41" s="143"/>
+      <c r="AN41" s="144"/>
+      <c r="AO41" s="145"/>
+      <c r="AP41" s="146"/>
+      <c r="AQ41" s="147"/>
+      <c r="AR41" s="148"/>
+      <c r="AS41" s="148"/>
+      <c r="AT41" s="148"/>
+      <c r="AU41" s="148"/>
+      <c r="AV41" s="148"/>
+      <c r="AW41" s="148"/>
+      <c r="AX41" s="148"/>
+      <c r="AY41" s="148"/>
+      <c r="AZ41" s="148"/>
+      <c r="BA41" s="148"/>
+      <c r="BB41" s="148"/>
+      <c r="BC41" s="148"/>
+      <c r="BD41" s="149"/>
+      <c r="BE41" s="147"/>
+      <c r="BF41" s="148"/>
+      <c r="BG41" s="148"/>
+      <c r="BH41" s="148"/>
+      <c r="BI41" s="148"/>
+      <c r="BJ41" s="148"/>
+      <c r="BK41" s="149"/>
+      <c r="BL41" s="186"/>
+      <c r="BM41" s="148"/>
+      <c r="BN41" s="148"/>
+      <c r="BO41" s="188"/>
+      <c r="BP41" s="186"/>
+      <c r="BQ41" s="148"/>
+      <c r="BR41" s="248"/>
     </row>
     <row r="42" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="166"/>
+      <c r="A42" s="243"/>
       <c r="B42" s="87"/>
       <c r="C42" s="88"/>
       <c r="D42" s="88"/>
@@ -8676,41 +8676,41 @@
       <c r="AJ42" s="89"/>
       <c r="AK42" s="91"/>
       <c r="AL42" s="92"/>
-      <c r="AM42" s="245"/>
-      <c r="AN42" s="246"/>
-      <c r="AO42" s="246"/>
-      <c r="AP42" s="246"/>
-      <c r="AQ42" s="246"/>
-      <c r="AR42" s="246"/>
-      <c r="AS42" s="246"/>
-      <c r="AT42" s="246"/>
-      <c r="AU42" s="246"/>
-      <c r="AV42" s="246"/>
-      <c r="AW42" s="246"/>
-      <c r="AX42" s="246"/>
-      <c r="AY42" s="246"/>
-      <c r="AZ42" s="246"/>
-      <c r="BA42" s="246"/>
-      <c r="BB42" s="246"/>
-      <c r="BC42" s="246"/>
-      <c r="BD42" s="246"/>
-      <c r="BE42" s="246"/>
-      <c r="BF42" s="246"/>
-      <c r="BG42" s="246"/>
-      <c r="BH42" s="246"/>
-      <c r="BI42" s="246"/>
-      <c r="BJ42" s="246"/>
-      <c r="BK42" s="246"/>
-      <c r="BL42" s="246"/>
-      <c r="BM42" s="246"/>
-      <c r="BN42" s="246"/>
-      <c r="BO42" s="246"/>
-      <c r="BP42" s="246"/>
-      <c r="BQ42" s="246"/>
-      <c r="BR42" s="247"/>
+      <c r="AM42" s="155"/>
+      <c r="AN42" s="156"/>
+      <c r="AO42" s="156"/>
+      <c r="AP42" s="156"/>
+      <c r="AQ42" s="156"/>
+      <c r="AR42" s="156"/>
+      <c r="AS42" s="156"/>
+      <c r="AT42" s="156"/>
+      <c r="AU42" s="156"/>
+      <c r="AV42" s="156"/>
+      <c r="AW42" s="156"/>
+      <c r="AX42" s="156"/>
+      <c r="AY42" s="156"/>
+      <c r="AZ42" s="156"/>
+      <c r="BA42" s="156"/>
+      <c r="BB42" s="156"/>
+      <c r="BC42" s="156"/>
+      <c r="BD42" s="156"/>
+      <c r="BE42" s="156"/>
+      <c r="BF42" s="156"/>
+      <c r="BG42" s="156"/>
+      <c r="BH42" s="156"/>
+      <c r="BI42" s="156"/>
+      <c r="BJ42" s="156"/>
+      <c r="BK42" s="156"/>
+      <c r="BL42" s="156"/>
+      <c r="BM42" s="156"/>
+      <c r="BN42" s="156"/>
+      <c r="BO42" s="156"/>
+      <c r="BP42" s="156"/>
+      <c r="BQ42" s="156"/>
+      <c r="BR42" s="157"/>
     </row>
     <row r="43" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="167"/>
+      <c r="A43" s="244"/>
       <c r="B43" s="70"/>
       <c r="C43" s="67"/>
       <c r="D43" s="67"/>
@@ -8748,41 +8748,41 @@
       <c r="AJ43" s="68"/>
       <c r="AK43" s="70"/>
       <c r="AL43" s="71"/>
-      <c r="AM43" s="248"/>
-      <c r="AN43" s="249"/>
-      <c r="AO43" s="249"/>
-      <c r="AP43" s="249"/>
-      <c r="AQ43" s="249"/>
-      <c r="AR43" s="249"/>
-      <c r="AS43" s="249"/>
-      <c r="AT43" s="249"/>
-      <c r="AU43" s="249"/>
-      <c r="AV43" s="249"/>
-      <c r="AW43" s="249"/>
-      <c r="AX43" s="249"/>
-      <c r="AY43" s="249"/>
-      <c r="AZ43" s="249"/>
-      <c r="BA43" s="249"/>
-      <c r="BB43" s="249"/>
-      <c r="BC43" s="249"/>
-      <c r="BD43" s="249"/>
-      <c r="BE43" s="249"/>
-      <c r="BF43" s="249"/>
-      <c r="BG43" s="249"/>
-      <c r="BH43" s="249"/>
-      <c r="BI43" s="249"/>
-      <c r="BJ43" s="249"/>
-      <c r="BK43" s="249"/>
-      <c r="BL43" s="249"/>
-      <c r="BM43" s="249"/>
-      <c r="BN43" s="249"/>
-      <c r="BO43" s="249"/>
-      <c r="BP43" s="249"/>
-      <c r="BQ43" s="249"/>
-      <c r="BR43" s="250"/>
+      <c r="AM43" s="158"/>
+      <c r="AN43" s="159"/>
+      <c r="AO43" s="159"/>
+      <c r="AP43" s="159"/>
+      <c r="AQ43" s="159"/>
+      <c r="AR43" s="159"/>
+      <c r="AS43" s="159"/>
+      <c r="AT43" s="159"/>
+      <c r="AU43" s="159"/>
+      <c r="AV43" s="159"/>
+      <c r="AW43" s="159"/>
+      <c r="AX43" s="159"/>
+      <c r="AY43" s="159"/>
+      <c r="AZ43" s="159"/>
+      <c r="BA43" s="159"/>
+      <c r="BB43" s="159"/>
+      <c r="BC43" s="159"/>
+      <c r="BD43" s="159"/>
+      <c r="BE43" s="159"/>
+      <c r="BF43" s="159"/>
+      <c r="BG43" s="159"/>
+      <c r="BH43" s="159"/>
+      <c r="BI43" s="159"/>
+      <c r="BJ43" s="159"/>
+      <c r="BK43" s="159"/>
+      <c r="BL43" s="159"/>
+      <c r="BM43" s="159"/>
+      <c r="BN43" s="159"/>
+      <c r="BO43" s="159"/>
+      <c r="BP43" s="159"/>
+      <c r="BQ43" s="159"/>
+      <c r="BR43" s="160"/>
     </row>
     <row r="44" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="161" t="s">
+      <c r="A44" s="238" t="s">
         <v>58</v>
       </c>
       <c r="B44" s="51"/>
@@ -8822,41 +8822,41 @@
       <c r="AJ44" s="53"/>
       <c r="AK44" s="51"/>
       <c r="AL44" s="55"/>
-      <c r="AM44" s="225"/>
-      <c r="AN44" s="226"/>
-      <c r="AO44" s="227"/>
-      <c r="AP44" s="228"/>
-      <c r="AQ44" s="229"/>
-      <c r="AR44" s="230"/>
-      <c r="AS44" s="230"/>
-      <c r="AT44" s="230"/>
-      <c r="AU44" s="230"/>
-      <c r="AV44" s="230"/>
-      <c r="AW44" s="230"/>
-      <c r="AX44" s="230"/>
-      <c r="AY44" s="230"/>
-      <c r="AZ44" s="230"/>
-      <c r="BA44" s="230"/>
-      <c r="BB44" s="230"/>
-      <c r="BC44" s="230"/>
-      <c r="BD44" s="231"/>
-      <c r="BE44" s="229"/>
-      <c r="BF44" s="230"/>
-      <c r="BG44" s="230"/>
-      <c r="BH44" s="230"/>
-      <c r="BI44" s="230"/>
-      <c r="BJ44" s="230"/>
-      <c r="BK44" s="231"/>
-      <c r="BL44" s="232"/>
-      <c r="BM44" s="230"/>
-      <c r="BN44" s="230"/>
-      <c r="BO44" s="233"/>
-      <c r="BP44" s="229"/>
-      <c r="BQ44" s="230"/>
-      <c r="BR44" s="234"/>
+      <c r="AM44" s="136"/>
+      <c r="AN44" s="137"/>
+      <c r="AO44" s="138"/>
+      <c r="AP44" s="139"/>
+      <c r="AQ44" s="140"/>
+      <c r="AR44" s="141"/>
+      <c r="AS44" s="141"/>
+      <c r="AT44" s="141"/>
+      <c r="AU44" s="141"/>
+      <c r="AV44" s="141"/>
+      <c r="AW44" s="141"/>
+      <c r="AX44" s="141"/>
+      <c r="AY44" s="141"/>
+      <c r="AZ44" s="141"/>
+      <c r="BA44" s="141"/>
+      <c r="BB44" s="141"/>
+      <c r="BC44" s="141"/>
+      <c r="BD44" s="142"/>
+      <c r="BE44" s="140"/>
+      <c r="BF44" s="141"/>
+      <c r="BG44" s="141"/>
+      <c r="BH44" s="141"/>
+      <c r="BI44" s="141"/>
+      <c r="BJ44" s="141"/>
+      <c r="BK44" s="142"/>
+      <c r="BL44" s="185"/>
+      <c r="BM44" s="141"/>
+      <c r="BN44" s="141"/>
+      <c r="BO44" s="187"/>
+      <c r="BP44" s="185"/>
+      <c r="BQ44" s="141"/>
+      <c r="BR44" s="247"/>
     </row>
     <row r="45" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="162"/>
+      <c r="A45" s="239"/>
       <c r="B45" s="134"/>
       <c r="C45" s="131"/>
       <c r="D45" s="131"/>
@@ -8894,41 +8894,41 @@
       <c r="AJ45" s="132"/>
       <c r="AK45" s="134"/>
       <c r="AL45" s="135"/>
-      <c r="AM45" s="235"/>
-      <c r="AN45" s="236"/>
-      <c r="AO45" s="237"/>
-      <c r="AP45" s="238"/>
-      <c r="AQ45" s="239"/>
-      <c r="AR45" s="240"/>
-      <c r="AS45" s="240"/>
-      <c r="AT45" s="240"/>
-      <c r="AU45" s="240"/>
-      <c r="AV45" s="240"/>
-      <c r="AW45" s="240"/>
-      <c r="AX45" s="240"/>
-      <c r="AY45" s="240"/>
-      <c r="AZ45" s="240"/>
-      <c r="BA45" s="240"/>
-      <c r="BB45" s="240"/>
-      <c r="BC45" s="240"/>
-      <c r="BD45" s="241"/>
-      <c r="BE45" s="239"/>
-      <c r="BF45" s="240"/>
-      <c r="BG45" s="240"/>
-      <c r="BH45" s="240"/>
-      <c r="BI45" s="240"/>
-      <c r="BJ45" s="240"/>
-      <c r="BK45" s="241"/>
-      <c r="BL45" s="242"/>
-      <c r="BM45" s="240"/>
-      <c r="BN45" s="240"/>
-      <c r="BO45" s="243"/>
-      <c r="BP45" s="239"/>
-      <c r="BQ45" s="240"/>
-      <c r="BR45" s="244"/>
+      <c r="AM45" s="143"/>
+      <c r="AN45" s="144"/>
+      <c r="AO45" s="145"/>
+      <c r="AP45" s="146"/>
+      <c r="AQ45" s="147"/>
+      <c r="AR45" s="148"/>
+      <c r="AS45" s="148"/>
+      <c r="AT45" s="148"/>
+      <c r="AU45" s="148"/>
+      <c r="AV45" s="148"/>
+      <c r="AW45" s="148"/>
+      <c r="AX45" s="148"/>
+      <c r="AY45" s="148"/>
+      <c r="AZ45" s="148"/>
+      <c r="BA45" s="148"/>
+      <c r="BB45" s="148"/>
+      <c r="BC45" s="148"/>
+      <c r="BD45" s="149"/>
+      <c r="BE45" s="147"/>
+      <c r="BF45" s="148"/>
+      <c r="BG45" s="148"/>
+      <c r="BH45" s="148"/>
+      <c r="BI45" s="148"/>
+      <c r="BJ45" s="148"/>
+      <c r="BK45" s="149"/>
+      <c r="BL45" s="186"/>
+      <c r="BM45" s="148"/>
+      <c r="BN45" s="148"/>
+      <c r="BO45" s="188"/>
+      <c r="BP45" s="186"/>
+      <c r="BQ45" s="148"/>
+      <c r="BR45" s="248"/>
     </row>
     <row r="46" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="162"/>
+      <c r="A46" s="239"/>
       <c r="B46" s="87"/>
       <c r="C46" s="88"/>
       <c r="D46" s="88"/>
@@ -8966,41 +8966,41 @@
       <c r="AJ46" s="89"/>
       <c r="AK46" s="91"/>
       <c r="AL46" s="92"/>
-      <c r="AM46" s="245"/>
-      <c r="AN46" s="246"/>
-      <c r="AO46" s="246"/>
-      <c r="AP46" s="246"/>
-      <c r="AQ46" s="246"/>
-      <c r="AR46" s="246"/>
-      <c r="AS46" s="246"/>
-      <c r="AT46" s="246"/>
-      <c r="AU46" s="246"/>
-      <c r="AV46" s="246"/>
-      <c r="AW46" s="246"/>
-      <c r="AX46" s="246"/>
-      <c r="AY46" s="246"/>
-      <c r="AZ46" s="246"/>
-      <c r="BA46" s="246"/>
-      <c r="BB46" s="246"/>
-      <c r="BC46" s="246"/>
-      <c r="BD46" s="246"/>
-      <c r="BE46" s="246"/>
-      <c r="BF46" s="246"/>
-      <c r="BG46" s="246"/>
-      <c r="BH46" s="246"/>
-      <c r="BI46" s="246"/>
-      <c r="BJ46" s="246"/>
-      <c r="BK46" s="246"/>
-      <c r="BL46" s="246"/>
-      <c r="BM46" s="246"/>
-      <c r="BN46" s="246"/>
-      <c r="BO46" s="246"/>
-      <c r="BP46" s="246"/>
-      <c r="BQ46" s="246"/>
-      <c r="BR46" s="247"/>
+      <c r="AM46" s="155"/>
+      <c r="AN46" s="156"/>
+      <c r="AO46" s="156"/>
+      <c r="AP46" s="156"/>
+      <c r="AQ46" s="156"/>
+      <c r="AR46" s="156"/>
+      <c r="AS46" s="156"/>
+      <c r="AT46" s="156"/>
+      <c r="AU46" s="156"/>
+      <c r="AV46" s="156"/>
+      <c r="AW46" s="156"/>
+      <c r="AX46" s="156"/>
+      <c r="AY46" s="156"/>
+      <c r="AZ46" s="156"/>
+      <c r="BA46" s="156"/>
+      <c r="BB46" s="156"/>
+      <c r="BC46" s="156"/>
+      <c r="BD46" s="156"/>
+      <c r="BE46" s="156"/>
+      <c r="BF46" s="156"/>
+      <c r="BG46" s="156"/>
+      <c r="BH46" s="156"/>
+      <c r="BI46" s="156"/>
+      <c r="BJ46" s="156"/>
+      <c r="BK46" s="156"/>
+      <c r="BL46" s="156"/>
+      <c r="BM46" s="156"/>
+      <c r="BN46" s="156"/>
+      <c r="BO46" s="156"/>
+      <c r="BP46" s="156"/>
+      <c r="BQ46" s="156"/>
+      <c r="BR46" s="157"/>
     </row>
     <row r="47" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="163"/>
+      <c r="A47" s="240"/>
       <c r="B47" s="75"/>
       <c r="C47" s="73"/>
       <c r="D47" s="73"/>
@@ -9038,41 +9038,41 @@
       <c r="AJ47" s="74"/>
       <c r="AK47" s="75"/>
       <c r="AL47" s="76"/>
-      <c r="AM47" s="248"/>
-      <c r="AN47" s="249"/>
-      <c r="AO47" s="249"/>
-      <c r="AP47" s="249"/>
-      <c r="AQ47" s="249"/>
-      <c r="AR47" s="249"/>
-      <c r="AS47" s="249"/>
-      <c r="AT47" s="249"/>
-      <c r="AU47" s="249"/>
-      <c r="AV47" s="249"/>
-      <c r="AW47" s="249"/>
-      <c r="AX47" s="249"/>
-      <c r="AY47" s="249"/>
-      <c r="AZ47" s="249"/>
-      <c r="BA47" s="249"/>
-      <c r="BB47" s="249"/>
-      <c r="BC47" s="249"/>
-      <c r="BD47" s="249"/>
-      <c r="BE47" s="249"/>
-      <c r="BF47" s="249"/>
-      <c r="BG47" s="249"/>
-      <c r="BH47" s="249"/>
-      <c r="BI47" s="249"/>
-      <c r="BJ47" s="249"/>
-      <c r="BK47" s="249"/>
-      <c r="BL47" s="249"/>
-      <c r="BM47" s="249"/>
-      <c r="BN47" s="249"/>
-      <c r="BO47" s="249"/>
-      <c r="BP47" s="249"/>
-      <c r="BQ47" s="249"/>
-      <c r="BR47" s="250"/>
+      <c r="AM47" s="158"/>
+      <c r="AN47" s="159"/>
+      <c r="AO47" s="159"/>
+      <c r="AP47" s="159"/>
+      <c r="AQ47" s="159"/>
+      <c r="AR47" s="159"/>
+      <c r="AS47" s="159"/>
+      <c r="AT47" s="159"/>
+      <c r="AU47" s="159"/>
+      <c r="AV47" s="159"/>
+      <c r="AW47" s="159"/>
+      <c r="AX47" s="159"/>
+      <c r="AY47" s="159"/>
+      <c r="AZ47" s="159"/>
+      <c r="BA47" s="159"/>
+      <c r="BB47" s="159"/>
+      <c r="BC47" s="159"/>
+      <c r="BD47" s="159"/>
+      <c r="BE47" s="159"/>
+      <c r="BF47" s="159"/>
+      <c r="BG47" s="159"/>
+      <c r="BH47" s="159"/>
+      <c r="BI47" s="159"/>
+      <c r="BJ47" s="159"/>
+      <c r="BK47" s="159"/>
+      <c r="BL47" s="159"/>
+      <c r="BM47" s="159"/>
+      <c r="BN47" s="159"/>
+      <c r="BO47" s="159"/>
+      <c r="BP47" s="159"/>
+      <c r="BQ47" s="159"/>
+      <c r="BR47" s="160"/>
     </row>
     <row r="48" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="161" t="s">
+      <c r="A48" s="238" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="56"/>
@@ -9112,41 +9112,41 @@
       <c r="AJ48" s="58"/>
       <c r="AK48" s="56"/>
       <c r="AL48" s="60"/>
-      <c r="AM48" s="225"/>
-      <c r="AN48" s="226"/>
-      <c r="AO48" s="227"/>
-      <c r="AP48" s="228"/>
-      <c r="AQ48" s="229"/>
-      <c r="AR48" s="230"/>
-      <c r="AS48" s="230"/>
-      <c r="AT48" s="230"/>
-      <c r="AU48" s="230"/>
-      <c r="AV48" s="230"/>
-      <c r="AW48" s="230"/>
-      <c r="AX48" s="230"/>
-      <c r="AY48" s="230"/>
-      <c r="AZ48" s="230"/>
-      <c r="BA48" s="230"/>
-      <c r="BB48" s="230"/>
-      <c r="BC48" s="230"/>
-      <c r="BD48" s="231"/>
-      <c r="BE48" s="229"/>
-      <c r="BF48" s="230"/>
-      <c r="BG48" s="230"/>
-      <c r="BH48" s="230"/>
-      <c r="BI48" s="230"/>
-      <c r="BJ48" s="230"/>
-      <c r="BK48" s="231"/>
-      <c r="BL48" s="232"/>
-      <c r="BM48" s="230"/>
-      <c r="BN48" s="230"/>
-      <c r="BO48" s="233"/>
-      <c r="BP48" s="229"/>
-      <c r="BQ48" s="230"/>
-      <c r="BR48" s="234"/>
+      <c r="AM48" s="136"/>
+      <c r="AN48" s="137"/>
+      <c r="AO48" s="138"/>
+      <c r="AP48" s="139"/>
+      <c r="AQ48" s="140"/>
+      <c r="AR48" s="141"/>
+      <c r="AS48" s="141"/>
+      <c r="AT48" s="141"/>
+      <c r="AU48" s="141"/>
+      <c r="AV48" s="141"/>
+      <c r="AW48" s="141"/>
+      <c r="AX48" s="141"/>
+      <c r="AY48" s="141"/>
+      <c r="AZ48" s="141"/>
+      <c r="BA48" s="141"/>
+      <c r="BB48" s="141"/>
+      <c r="BC48" s="141"/>
+      <c r="BD48" s="142"/>
+      <c r="BE48" s="140"/>
+      <c r="BF48" s="141"/>
+      <c r="BG48" s="141"/>
+      <c r="BH48" s="141"/>
+      <c r="BI48" s="141"/>
+      <c r="BJ48" s="141"/>
+      <c r="BK48" s="142"/>
+      <c r="BL48" s="185"/>
+      <c r="BM48" s="141"/>
+      <c r="BN48" s="141"/>
+      <c r="BO48" s="187"/>
+      <c r="BP48" s="185"/>
+      <c r="BQ48" s="141"/>
+      <c r="BR48" s="247"/>
     </row>
     <row r="49" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="162"/>
+      <c r="A49" s="239"/>
       <c r="B49" s="134"/>
       <c r="C49" s="131"/>
       <c r="D49" s="131"/>
@@ -9184,41 +9184,41 @@
       <c r="AJ49" s="132"/>
       <c r="AK49" s="134"/>
       <c r="AL49" s="135"/>
-      <c r="AM49" s="251"/>
-      <c r="AN49" s="236"/>
-      <c r="AO49" s="237"/>
-      <c r="AP49" s="238"/>
-      <c r="AQ49" s="239"/>
-      <c r="AR49" s="240"/>
-      <c r="AS49" s="240"/>
-      <c r="AT49" s="240"/>
-      <c r="AU49" s="240"/>
-      <c r="AV49" s="240"/>
-      <c r="AW49" s="240"/>
-      <c r="AX49" s="240"/>
-      <c r="AY49" s="240"/>
-      <c r="AZ49" s="240"/>
-      <c r="BA49" s="240"/>
-      <c r="BB49" s="240"/>
-      <c r="BC49" s="240"/>
-      <c r="BD49" s="241"/>
-      <c r="BE49" s="239"/>
-      <c r="BF49" s="240"/>
-      <c r="BG49" s="240"/>
-      <c r="BH49" s="240"/>
-      <c r="BI49" s="240"/>
-      <c r="BJ49" s="240"/>
-      <c r="BK49" s="241"/>
-      <c r="BL49" s="242"/>
-      <c r="BM49" s="240"/>
-      <c r="BN49" s="240"/>
-      <c r="BO49" s="243"/>
-      <c r="BP49" s="239"/>
-      <c r="BQ49" s="240"/>
-      <c r="BR49" s="244"/>
+      <c r="AM49" s="150"/>
+      <c r="AN49" s="144"/>
+      <c r="AO49" s="145"/>
+      <c r="AP49" s="146"/>
+      <c r="AQ49" s="147"/>
+      <c r="AR49" s="148"/>
+      <c r="AS49" s="148"/>
+      <c r="AT49" s="148"/>
+      <c r="AU49" s="148"/>
+      <c r="AV49" s="148"/>
+      <c r="AW49" s="148"/>
+      <c r="AX49" s="148"/>
+      <c r="AY49" s="148"/>
+      <c r="AZ49" s="148"/>
+      <c r="BA49" s="148"/>
+      <c r="BB49" s="148"/>
+      <c r="BC49" s="148"/>
+      <c r="BD49" s="149"/>
+      <c r="BE49" s="147"/>
+      <c r="BF49" s="148"/>
+      <c r="BG49" s="148"/>
+      <c r="BH49" s="148"/>
+      <c r="BI49" s="148"/>
+      <c r="BJ49" s="148"/>
+      <c r="BK49" s="149"/>
+      <c r="BL49" s="186"/>
+      <c r="BM49" s="148"/>
+      <c r="BN49" s="148"/>
+      <c r="BO49" s="188"/>
+      <c r="BP49" s="186"/>
+      <c r="BQ49" s="148"/>
+      <c r="BR49" s="248"/>
     </row>
     <row r="50" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="162"/>
+      <c r="A50" s="239"/>
       <c r="B50" s="87"/>
       <c r="C50" s="88"/>
       <c r="D50" s="88"/>
@@ -9256,41 +9256,41 @@
       <c r="AJ50" s="89"/>
       <c r="AK50" s="91"/>
       <c r="AL50" s="92"/>
-      <c r="AM50" s="245"/>
-      <c r="AN50" s="246"/>
-      <c r="AO50" s="246"/>
-      <c r="AP50" s="246"/>
-      <c r="AQ50" s="246"/>
-      <c r="AR50" s="246"/>
-      <c r="AS50" s="246"/>
-      <c r="AT50" s="246"/>
-      <c r="AU50" s="246"/>
-      <c r="AV50" s="246"/>
-      <c r="AW50" s="246"/>
-      <c r="AX50" s="246"/>
-      <c r="AY50" s="246"/>
-      <c r="AZ50" s="246"/>
-      <c r="BA50" s="246"/>
-      <c r="BB50" s="246"/>
-      <c r="BC50" s="246"/>
-      <c r="BD50" s="246"/>
-      <c r="BE50" s="246"/>
-      <c r="BF50" s="246"/>
-      <c r="BG50" s="246"/>
-      <c r="BH50" s="246"/>
-      <c r="BI50" s="246"/>
-      <c r="BJ50" s="246"/>
-      <c r="BK50" s="246"/>
-      <c r="BL50" s="246"/>
-      <c r="BM50" s="246"/>
-      <c r="BN50" s="246"/>
-      <c r="BO50" s="246"/>
-      <c r="BP50" s="246"/>
-      <c r="BQ50" s="246"/>
-      <c r="BR50" s="247"/>
+      <c r="AM50" s="155"/>
+      <c r="AN50" s="156"/>
+      <c r="AO50" s="156"/>
+      <c r="AP50" s="156"/>
+      <c r="AQ50" s="156"/>
+      <c r="AR50" s="156"/>
+      <c r="AS50" s="156"/>
+      <c r="AT50" s="156"/>
+      <c r="AU50" s="156"/>
+      <c r="AV50" s="156"/>
+      <c r="AW50" s="156"/>
+      <c r="AX50" s="156"/>
+      <c r="AY50" s="156"/>
+      <c r="AZ50" s="156"/>
+      <c r="BA50" s="156"/>
+      <c r="BB50" s="156"/>
+      <c r="BC50" s="156"/>
+      <c r="BD50" s="156"/>
+      <c r="BE50" s="156"/>
+      <c r="BF50" s="156"/>
+      <c r="BG50" s="156"/>
+      <c r="BH50" s="156"/>
+      <c r="BI50" s="156"/>
+      <c r="BJ50" s="156"/>
+      <c r="BK50" s="156"/>
+      <c r="BL50" s="156"/>
+      <c r="BM50" s="156"/>
+      <c r="BN50" s="156"/>
+      <c r="BO50" s="156"/>
+      <c r="BP50" s="156"/>
+      <c r="BQ50" s="156"/>
+      <c r="BR50" s="157"/>
     </row>
     <row r="51" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="163"/>
+      <c r="A51" s="240"/>
       <c r="B51" s="70"/>
       <c r="C51" s="67"/>
       <c r="D51" s="67"/>
@@ -9328,41 +9328,41 @@
       <c r="AJ51" s="68"/>
       <c r="AK51" s="70"/>
       <c r="AL51" s="71"/>
-      <c r="AM51" s="248"/>
-      <c r="AN51" s="249"/>
-      <c r="AO51" s="249"/>
-      <c r="AP51" s="249"/>
-      <c r="AQ51" s="249"/>
-      <c r="AR51" s="249"/>
-      <c r="AS51" s="249"/>
-      <c r="AT51" s="249"/>
-      <c r="AU51" s="249"/>
-      <c r="AV51" s="249"/>
-      <c r="AW51" s="249"/>
-      <c r="AX51" s="249"/>
-      <c r="AY51" s="249"/>
-      <c r="AZ51" s="249"/>
-      <c r="BA51" s="249"/>
-      <c r="BB51" s="249"/>
-      <c r="BC51" s="249"/>
-      <c r="BD51" s="249"/>
-      <c r="BE51" s="249"/>
-      <c r="BF51" s="249"/>
-      <c r="BG51" s="249"/>
-      <c r="BH51" s="249"/>
-      <c r="BI51" s="249"/>
-      <c r="BJ51" s="249"/>
-      <c r="BK51" s="249"/>
-      <c r="BL51" s="249"/>
-      <c r="BM51" s="249"/>
-      <c r="BN51" s="249"/>
-      <c r="BO51" s="249"/>
-      <c r="BP51" s="249"/>
-      <c r="BQ51" s="249"/>
-      <c r="BR51" s="250"/>
+      <c r="AM51" s="158"/>
+      <c r="AN51" s="159"/>
+      <c r="AO51" s="159"/>
+      <c r="AP51" s="159"/>
+      <c r="AQ51" s="159"/>
+      <c r="AR51" s="159"/>
+      <c r="AS51" s="159"/>
+      <c r="AT51" s="159"/>
+      <c r="AU51" s="159"/>
+      <c r="AV51" s="159"/>
+      <c r="AW51" s="159"/>
+      <c r="AX51" s="159"/>
+      <c r="AY51" s="159"/>
+      <c r="AZ51" s="159"/>
+      <c r="BA51" s="159"/>
+      <c r="BB51" s="159"/>
+      <c r="BC51" s="159"/>
+      <c r="BD51" s="159"/>
+      <c r="BE51" s="159"/>
+      <c r="BF51" s="159"/>
+      <c r="BG51" s="159"/>
+      <c r="BH51" s="159"/>
+      <c r="BI51" s="159"/>
+      <c r="BJ51" s="159"/>
+      <c r="BK51" s="159"/>
+      <c r="BL51" s="159"/>
+      <c r="BM51" s="159"/>
+      <c r="BN51" s="159"/>
+      <c r="BO51" s="159"/>
+      <c r="BP51" s="159"/>
+      <c r="BQ51" s="159"/>
+      <c r="BR51" s="160"/>
     </row>
     <row r="52" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="161" t="s">
+      <c r="A52" s="238" t="s">
         <v>60</v>
       </c>
       <c r="B52" s="49"/>
@@ -9402,41 +9402,41 @@
       <c r="AJ52" s="48"/>
       <c r="AK52" s="49"/>
       <c r="AL52" s="50"/>
-      <c r="AM52" s="225"/>
-      <c r="AN52" s="226"/>
-      <c r="AO52" s="227"/>
-      <c r="AP52" s="228"/>
-      <c r="AQ52" s="229"/>
-      <c r="AR52" s="230"/>
-      <c r="AS52" s="230"/>
-      <c r="AT52" s="230"/>
-      <c r="AU52" s="230"/>
-      <c r="AV52" s="230"/>
-      <c r="AW52" s="230"/>
-      <c r="AX52" s="230"/>
-      <c r="AY52" s="230"/>
-      <c r="AZ52" s="230"/>
-      <c r="BA52" s="230"/>
-      <c r="BB52" s="230"/>
-      <c r="BC52" s="230"/>
-      <c r="BD52" s="231"/>
-      <c r="BE52" s="229"/>
-      <c r="BF52" s="230"/>
-      <c r="BG52" s="230"/>
-      <c r="BH52" s="230"/>
-      <c r="BI52" s="230"/>
-      <c r="BJ52" s="230"/>
-      <c r="BK52" s="231"/>
-      <c r="BL52" s="232"/>
-      <c r="BM52" s="230"/>
-      <c r="BN52" s="230"/>
-      <c r="BO52" s="233"/>
-      <c r="BP52" s="229"/>
-      <c r="BQ52" s="230"/>
-      <c r="BR52" s="234"/>
+      <c r="AM52" s="136"/>
+      <c r="AN52" s="137"/>
+      <c r="AO52" s="138"/>
+      <c r="AP52" s="139"/>
+      <c r="AQ52" s="140"/>
+      <c r="AR52" s="141"/>
+      <c r="AS52" s="141"/>
+      <c r="AT52" s="141"/>
+      <c r="AU52" s="141"/>
+      <c r="AV52" s="141"/>
+      <c r="AW52" s="141"/>
+      <c r="AX52" s="141"/>
+      <c r="AY52" s="141"/>
+      <c r="AZ52" s="141"/>
+      <c r="BA52" s="141"/>
+      <c r="BB52" s="141"/>
+      <c r="BC52" s="141"/>
+      <c r="BD52" s="142"/>
+      <c r="BE52" s="140"/>
+      <c r="BF52" s="141"/>
+      <c r="BG52" s="141"/>
+      <c r="BH52" s="141"/>
+      <c r="BI52" s="141"/>
+      <c r="BJ52" s="141"/>
+      <c r="BK52" s="142"/>
+      <c r="BL52" s="185"/>
+      <c r="BM52" s="141"/>
+      <c r="BN52" s="141"/>
+      <c r="BO52" s="187"/>
+      <c r="BP52" s="185"/>
+      <c r="BQ52" s="141"/>
+      <c r="BR52" s="247"/>
     </row>
     <row r="53" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="162"/>
+      <c r="A53" s="239"/>
       <c r="B53" s="134"/>
       <c r="C53" s="131"/>
       <c r="D53" s="131"/>
@@ -9474,41 +9474,41 @@
       <c r="AJ53" s="132"/>
       <c r="AK53" s="134"/>
       <c r="AL53" s="135"/>
-      <c r="AM53" s="235"/>
-      <c r="AN53" s="236"/>
-      <c r="AO53" s="237"/>
-      <c r="AP53" s="238"/>
-      <c r="AQ53" s="239"/>
-      <c r="AR53" s="240"/>
-      <c r="AS53" s="240"/>
-      <c r="AT53" s="240"/>
-      <c r="AU53" s="240"/>
-      <c r="AV53" s="240"/>
-      <c r="AW53" s="240"/>
-      <c r="AX53" s="240"/>
-      <c r="AY53" s="240"/>
-      <c r="AZ53" s="240"/>
-      <c r="BA53" s="240"/>
-      <c r="BB53" s="240"/>
-      <c r="BC53" s="240"/>
-      <c r="BD53" s="241"/>
-      <c r="BE53" s="239"/>
-      <c r="BF53" s="240"/>
-      <c r="BG53" s="240"/>
-      <c r="BH53" s="240"/>
-      <c r="BI53" s="240"/>
-      <c r="BJ53" s="240"/>
-      <c r="BK53" s="241"/>
-      <c r="BL53" s="242"/>
-      <c r="BM53" s="240"/>
-      <c r="BN53" s="240"/>
-      <c r="BO53" s="243"/>
-      <c r="BP53" s="239"/>
-      <c r="BQ53" s="240"/>
-      <c r="BR53" s="244"/>
+      <c r="AM53" s="143"/>
+      <c r="AN53" s="144"/>
+      <c r="AO53" s="145"/>
+      <c r="AP53" s="146"/>
+      <c r="AQ53" s="147"/>
+      <c r="AR53" s="148"/>
+      <c r="AS53" s="148"/>
+      <c r="AT53" s="148"/>
+      <c r="AU53" s="148"/>
+      <c r="AV53" s="148"/>
+      <c r="AW53" s="148"/>
+      <c r="AX53" s="148"/>
+      <c r="AY53" s="148"/>
+      <c r="AZ53" s="148"/>
+      <c r="BA53" s="148"/>
+      <c r="BB53" s="148"/>
+      <c r="BC53" s="148"/>
+      <c r="BD53" s="149"/>
+      <c r="BE53" s="147"/>
+      <c r="BF53" s="148"/>
+      <c r="BG53" s="148"/>
+      <c r="BH53" s="148"/>
+      <c r="BI53" s="148"/>
+      <c r="BJ53" s="148"/>
+      <c r="BK53" s="149"/>
+      <c r="BL53" s="186"/>
+      <c r="BM53" s="148"/>
+      <c r="BN53" s="148"/>
+      <c r="BO53" s="188"/>
+      <c r="BP53" s="186"/>
+      <c r="BQ53" s="148"/>
+      <c r="BR53" s="248"/>
     </row>
     <row r="54" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="162"/>
+      <c r="A54" s="239"/>
       <c r="B54" s="114"/>
       <c r="C54" s="115"/>
       <c r="D54" s="115"/>
@@ -9546,41 +9546,41 @@
       <c r="AJ54" s="89"/>
       <c r="AK54" s="91"/>
       <c r="AL54" s="119"/>
-      <c r="AM54" s="245"/>
-      <c r="AN54" s="246"/>
-      <c r="AO54" s="246"/>
-      <c r="AP54" s="246"/>
-      <c r="AQ54" s="246"/>
-      <c r="AR54" s="246"/>
-      <c r="AS54" s="246"/>
-      <c r="AT54" s="246"/>
-      <c r="AU54" s="246"/>
-      <c r="AV54" s="246"/>
-      <c r="AW54" s="246"/>
-      <c r="AX54" s="246"/>
-      <c r="AY54" s="246"/>
-      <c r="AZ54" s="246"/>
-      <c r="BA54" s="246"/>
-      <c r="BB54" s="246"/>
-      <c r="BC54" s="246"/>
-      <c r="BD54" s="246"/>
-      <c r="BE54" s="246"/>
-      <c r="BF54" s="246"/>
-      <c r="BG54" s="246"/>
-      <c r="BH54" s="246"/>
-      <c r="BI54" s="246"/>
-      <c r="BJ54" s="246"/>
-      <c r="BK54" s="246"/>
-      <c r="BL54" s="246"/>
-      <c r="BM54" s="246"/>
-      <c r="BN54" s="246"/>
-      <c r="BO54" s="246"/>
-      <c r="BP54" s="246"/>
-      <c r="BQ54" s="246"/>
-      <c r="BR54" s="247"/>
+      <c r="AM54" s="155"/>
+      <c r="AN54" s="156"/>
+      <c r="AO54" s="156"/>
+      <c r="AP54" s="156"/>
+      <c r="AQ54" s="156"/>
+      <c r="AR54" s="156"/>
+      <c r="AS54" s="156"/>
+      <c r="AT54" s="156"/>
+      <c r="AU54" s="156"/>
+      <c r="AV54" s="156"/>
+      <c r="AW54" s="156"/>
+      <c r="AX54" s="156"/>
+      <c r="AY54" s="156"/>
+      <c r="AZ54" s="156"/>
+      <c r="BA54" s="156"/>
+      <c r="BB54" s="156"/>
+      <c r="BC54" s="156"/>
+      <c r="BD54" s="156"/>
+      <c r="BE54" s="156"/>
+      <c r="BF54" s="156"/>
+      <c r="BG54" s="156"/>
+      <c r="BH54" s="156"/>
+      <c r="BI54" s="156"/>
+      <c r="BJ54" s="156"/>
+      <c r="BK54" s="156"/>
+      <c r="BL54" s="156"/>
+      <c r="BM54" s="156"/>
+      <c r="BN54" s="156"/>
+      <c r="BO54" s="156"/>
+      <c r="BP54" s="156"/>
+      <c r="BQ54" s="156"/>
+      <c r="BR54" s="157"/>
     </row>
     <row r="55" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="164"/>
+      <c r="A55" s="241"/>
       <c r="B55" s="79"/>
       <c r="C55" s="80"/>
       <c r="D55" s="80"/>
@@ -9618,44 +9618,44 @@
       <c r="AJ55" s="82"/>
       <c r="AK55" s="118"/>
       <c r="AL55" s="83"/>
-      <c r="AM55" s="248"/>
-      <c r="AN55" s="249"/>
-      <c r="AO55" s="249"/>
-      <c r="AP55" s="249"/>
-      <c r="AQ55" s="249"/>
-      <c r="AR55" s="249"/>
-      <c r="AS55" s="249"/>
-      <c r="AT55" s="249"/>
-      <c r="AU55" s="249"/>
-      <c r="AV55" s="249"/>
-      <c r="AW55" s="249"/>
-      <c r="AX55" s="249"/>
-      <c r="AY55" s="249"/>
-      <c r="AZ55" s="249"/>
-      <c r="BA55" s="249"/>
-      <c r="BB55" s="249"/>
-      <c r="BC55" s="249"/>
-      <c r="BD55" s="249"/>
-      <c r="BE55" s="249"/>
-      <c r="BF55" s="249"/>
-      <c r="BG55" s="249"/>
-      <c r="BH55" s="249"/>
-      <c r="BI55" s="249"/>
-      <c r="BJ55" s="249"/>
-      <c r="BK55" s="249"/>
-      <c r="BL55" s="249"/>
-      <c r="BM55" s="249"/>
-      <c r="BN55" s="249"/>
-      <c r="BO55" s="249"/>
-      <c r="BP55" s="249"/>
-      <c r="BQ55" s="249"/>
-      <c r="BR55" s="250"/>
+      <c r="AM55" s="158"/>
+      <c r="AN55" s="159"/>
+      <c r="AO55" s="159"/>
+      <c r="AP55" s="159"/>
+      <c r="AQ55" s="159"/>
+      <c r="AR55" s="159"/>
+      <c r="AS55" s="159"/>
+      <c r="AT55" s="159"/>
+      <c r="AU55" s="159"/>
+      <c r="AV55" s="159"/>
+      <c r="AW55" s="159"/>
+      <c r="AX55" s="159"/>
+      <c r="AY55" s="159"/>
+      <c r="AZ55" s="159"/>
+      <c r="BA55" s="159"/>
+      <c r="BB55" s="159"/>
+      <c r="BC55" s="159"/>
+      <c r="BD55" s="159"/>
+      <c r="BE55" s="159"/>
+      <c r="BF55" s="159"/>
+      <c r="BG55" s="159"/>
+      <c r="BH55" s="159"/>
+      <c r="BI55" s="159"/>
+      <c r="BJ55" s="159"/>
+      <c r="BK55" s="159"/>
+      <c r="BL55" s="159"/>
+      <c r="BM55" s="159"/>
+      <c r="BN55" s="159"/>
+      <c r="BO55" s="159"/>
+      <c r="BP55" s="159"/>
+      <c r="BQ55" s="159"/>
+      <c r="BR55" s="160"/>
     </row>
     <row r="56" spans="1:70" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="191" t="s">
+      <c r="A56" s="211" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="192"/>
+      <c r="B56" s="212"/>
       <c r="C56" s="3" t="s">
         <v>62</v>
       </c>
@@ -9691,11 +9691,11 @@
       <c r="AG56" s="10"/>
       <c r="AH56" s="10"/>
       <c r="AI56" s="78"/>
-      <c r="AJ56" s="193" t="s">
+      <c r="AJ56" s="213" t="s">
         <v>63</v>
       </c>
-      <c r="AK56" s="194"/>
-      <c r="AL56" s="195"/>
+      <c r="AK56" s="214"/>
+      <c r="AL56" s="215"/>
       <c r="AM56" s="32"/>
       <c r="AN56" s="33"/>
       <c r="AO56" s="34"/>
@@ -9822,420 +9822,420 @@
       <c r="BR58" s="121"/>
     </row>
     <row r="59" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="188" t="s">
+      <c r="A59" s="216" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="188"/>
-      <c r="C59" s="188"/>
-      <c r="D59" s="180" t="s">
+      <c r="B59" s="216"/>
+      <c r="C59" s="216"/>
+      <c r="D59" s="217" t="s">
         <v>65</v>
       </c>
-      <c r="E59" s="181"/>
-      <c r="F59" s="181"/>
+      <c r="E59" s="218"/>
+      <c r="F59" s="218"/>
       <c r="G59" s="15"/>
-      <c r="H59" s="180" t="s">
+      <c r="H59" s="217" t="s">
         <v>66</v>
       </c>
-      <c r="I59" s="181"/>
-      <c r="J59" s="181"/>
+      <c r="I59" s="218"/>
+      <c r="J59" s="218"/>
       <c r="K59" s="15"/>
-      <c r="L59" s="180" t="s">
+      <c r="L59" s="217" t="s">
         <v>67</v>
       </c>
-      <c r="M59" s="181"/>
-      <c r="N59" s="181"/>
+      <c r="M59" s="218"/>
+      <c r="N59" s="218"/>
       <c r="O59" s="15"/>
-      <c r="P59" s="180" t="s">
+      <c r="P59" s="217" t="s">
         <v>68</v>
       </c>
-      <c r="Q59" s="181"/>
-      <c r="R59" s="181"/>
+      <c r="Q59" s="218"/>
+      <c r="R59" s="218"/>
       <c r="S59" s="15"/>
-      <c r="T59" s="180" t="s">
+      <c r="T59" s="217" t="s">
         <v>69</v>
       </c>
-      <c r="U59" s="181"/>
-      <c r="V59" s="181"/>
+      <c r="U59" s="218"/>
+      <c r="V59" s="218"/>
       <c r="W59" s="15"/>
-      <c r="X59" s="180" t="s">
+      <c r="X59" s="217" t="s">
         <v>70</v>
       </c>
-      <c r="Y59" s="181"/>
-      <c r="Z59" s="181"/>
+      <c r="Y59" s="218"/>
+      <c r="Z59" s="218"/>
       <c r="AA59" s="15"/>
-      <c r="AM59" s="186" t="s">
+      <c r="AM59" s="219" t="s">
         <v>71</v>
       </c>
-      <c r="AN59" s="186"/>
-      <c r="AO59" s="186"/>
-      <c r="AP59" s="189"/>
-      <c r="AQ59" s="189"/>
-      <c r="AR59" s="189"/>
-      <c r="AS59" s="189"/>
-      <c r="AT59" s="189"/>
-      <c r="AU59" s="189"/>
-      <c r="AV59" s="189"/>
-      <c r="AW59" s="190"/>
+      <c r="AN59" s="219"/>
+      <c r="AO59" s="219"/>
+      <c r="AP59" s="205"/>
+      <c r="AQ59" s="205"/>
+      <c r="AR59" s="205"/>
+      <c r="AS59" s="205"/>
+      <c r="AT59" s="205"/>
+      <c r="AU59" s="205"/>
+      <c r="AV59" s="205"/>
+      <c r="AW59" s="206"/>
       <c r="AX59" s="11"/>
       <c r="AY59" s="11"/>
       <c r="AZ59" s="11"/>
-      <c r="BC59" s="173" t="s">
+      <c r="BC59" s="207" t="s">
         <v>72</v>
       </c>
-      <c r="BD59" s="173"/>
-      <c r="BE59" s="173"/>
-      <c r="BF59" s="173"/>
-      <c r="BG59" s="173"/>
-      <c r="BH59" s="173"/>
-      <c r="BI59" s="173"/>
-      <c r="BJ59" s="173"/>
-      <c r="BK59" s="174"/>
-      <c r="BL59" s="175"/>
-      <c r="BM59" s="175"/>
-      <c r="BN59" s="175"/>
-      <c r="BO59" s="175"/>
-      <c r="BP59" s="175"/>
-      <c r="BQ59" s="175"/>
-      <c r="BR59" s="176"/>
+      <c r="BD59" s="207"/>
+      <c r="BE59" s="207"/>
+      <c r="BF59" s="207"/>
+      <c r="BG59" s="207"/>
+      <c r="BH59" s="207"/>
+      <c r="BI59" s="207"/>
+      <c r="BJ59" s="207"/>
+      <c r="BK59" s="208"/>
+      <c r="BL59" s="209"/>
+      <c r="BM59" s="209"/>
+      <c r="BN59" s="209"/>
+      <c r="BO59" s="209"/>
+      <c r="BP59" s="209"/>
+      <c r="BQ59" s="209"/>
+      <c r="BR59" s="210"/>
     </row>
     <row r="60" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="188" t="s">
+      <c r="A60" s="216" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="188"/>
-      <c r="C60" s="188"/>
-      <c r="D60" s="180" t="s">
+      <c r="B60" s="216"/>
+      <c r="C60" s="216"/>
+      <c r="D60" s="217" t="s">
         <v>74</v>
       </c>
-      <c r="E60" s="181"/>
-      <c r="F60" s="181"/>
+      <c r="E60" s="218"/>
+      <c r="F60" s="218"/>
       <c r="G60" s="15"/>
-      <c r="H60" s="180" t="s">
+      <c r="H60" s="217" t="s">
         <v>75</v>
       </c>
-      <c r="I60" s="181"/>
-      <c r="J60" s="181"/>
+      <c r="I60" s="218"/>
+      <c r="J60" s="218"/>
       <c r="K60" s="15"/>
-      <c r="L60" s="180" t="s">
+      <c r="L60" s="217" t="s">
         <v>76</v>
       </c>
-      <c r="M60" s="181"/>
-      <c r="N60" s="181"/>
+      <c r="M60" s="218"/>
+      <c r="N60" s="218"/>
       <c r="O60" s="15"/>
-      <c r="P60" s="180"/>
-      <c r="Q60" s="181"/>
-      <c r="R60" s="181"/>
+      <c r="P60" s="217"/>
+      <c r="Q60" s="218"/>
+      <c r="R60" s="218"/>
       <c r="S60" s="15"/>
-      <c r="T60" s="180"/>
-      <c r="U60" s="181"/>
-      <c r="V60" s="181"/>
+      <c r="T60" s="217"/>
+      <c r="U60" s="218"/>
+      <c r="V60" s="218"/>
       <c r="W60" s="15"/>
-      <c r="X60" s="180"/>
-      <c r="Y60" s="181"/>
-      <c r="Z60" s="181"/>
+      <c r="X60" s="217"/>
+      <c r="Y60" s="218"/>
+      <c r="Z60" s="218"/>
       <c r="AA60" s="15"/>
       <c r="AB60" s="1"/>
-      <c r="AM60" s="186" t="s">
+      <c r="AM60" s="219" t="s">
         <v>77</v>
       </c>
-      <c r="AN60" s="186"/>
-      <c r="AO60" s="186"/>
-      <c r="AP60" s="187"/>
-      <c r="AQ60" s="187"/>
-      <c r="AR60" s="187"/>
-      <c r="AS60" s="187"/>
-      <c r="AT60" s="187"/>
-      <c r="AU60" s="187"/>
-      <c r="AV60" s="187"/>
-      <c r="AW60" s="187"/>
+      <c r="AN60" s="219"/>
+      <c r="AO60" s="219"/>
+      <c r="AP60" s="220"/>
+      <c r="AQ60" s="220"/>
+      <c r="AR60" s="220"/>
+      <c r="AS60" s="220"/>
+      <c r="AT60" s="220"/>
+      <c r="AU60" s="220"/>
+      <c r="AV60" s="220"/>
+      <c r="AW60" s="220"/>
       <c r="AX60" s="11"/>
       <c r="AY60" s="11"/>
       <c r="AZ60" s="11"/>
-      <c r="BC60" s="173" t="s">
+      <c r="BC60" s="207" t="s">
         <v>78</v>
       </c>
-      <c r="BD60" s="173"/>
-      <c r="BE60" s="173"/>
-      <c r="BF60" s="173"/>
-      <c r="BG60" s="173"/>
-      <c r="BH60" s="173"/>
-      <c r="BI60" s="173"/>
-      <c r="BJ60" s="173"/>
-      <c r="BK60" s="174"/>
-      <c r="BL60" s="175"/>
-      <c r="BM60" s="175"/>
-      <c r="BN60" s="175"/>
-      <c r="BO60" s="175"/>
-      <c r="BP60" s="175"/>
-      <c r="BQ60" s="175"/>
-      <c r="BR60" s="176"/>
+      <c r="BD60" s="207"/>
+      <c r="BE60" s="207"/>
+      <c r="BF60" s="207"/>
+      <c r="BG60" s="207"/>
+      <c r="BH60" s="207"/>
+      <c r="BI60" s="207"/>
+      <c r="BJ60" s="207"/>
+      <c r="BK60" s="208"/>
+      <c r="BL60" s="209"/>
+      <c r="BM60" s="209"/>
+      <c r="BN60" s="209"/>
+      <c r="BO60" s="209"/>
+      <c r="BP60" s="209"/>
+      <c r="BQ60" s="209"/>
+      <c r="BR60" s="210"/>
     </row>
     <row r="61" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="188" t="s">
+      <c r="A61" s="216" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="188"/>
-      <c r="C61" s="188"/>
-      <c r="D61" s="180" t="s">
+      <c r="B61" s="216"/>
+      <c r="C61" s="216"/>
+      <c r="D61" s="217" t="s">
         <v>80</v>
       </c>
-      <c r="E61" s="181"/>
-      <c r="F61" s="181"/>
+      <c r="E61" s="218"/>
+      <c r="F61" s="218"/>
       <c r="G61" s="15"/>
-      <c r="H61" s="180" t="s">
+      <c r="H61" s="217" t="s">
         <v>81</v>
       </c>
-      <c r="I61" s="181"/>
-      <c r="J61" s="181"/>
+      <c r="I61" s="218"/>
+      <c r="J61" s="218"/>
       <c r="K61" s="15"/>
-      <c r="L61" s="180" t="s">
+      <c r="L61" s="217" t="s">
         <v>82</v>
       </c>
-      <c r="M61" s="181"/>
-      <c r="N61" s="181"/>
+      <c r="M61" s="218"/>
+      <c r="N61" s="218"/>
       <c r="O61" s="15"/>
-      <c r="P61" s="180" t="s">
+      <c r="P61" s="217" t="s">
         <v>83</v>
       </c>
-      <c r="Q61" s="181"/>
-      <c r="R61" s="181"/>
+      <c r="Q61" s="218"/>
+      <c r="R61" s="218"/>
       <c r="S61" s="15"/>
-      <c r="T61" s="180" t="s">
+      <c r="T61" s="217" t="s">
         <v>84</v>
       </c>
-      <c r="U61" s="181"/>
-      <c r="V61" s="181"/>
+      <c r="U61" s="218"/>
+      <c r="V61" s="218"/>
       <c r="W61" s="15"/>
-      <c r="X61" s="180" t="s">
+      <c r="X61" s="217" t="s">
         <v>85</v>
       </c>
-      <c r="Y61" s="181"/>
-      <c r="Z61" s="181"/>
+      <c r="Y61" s="218"/>
+      <c r="Z61" s="218"/>
       <c r="AA61" s="15"/>
       <c r="AJ61" s="4"/>
-      <c r="AM61" s="186" t="s">
+      <c r="AM61" s="219" t="s">
         <v>86</v>
       </c>
-      <c r="AN61" s="186"/>
-      <c r="AO61" s="186"/>
-      <c r="AP61" s="187"/>
-      <c r="AQ61" s="187"/>
-      <c r="AR61" s="187"/>
-      <c r="AS61" s="187"/>
-      <c r="AT61" s="187"/>
-      <c r="AU61" s="187"/>
-      <c r="AV61" s="187"/>
-      <c r="AW61" s="187"/>
+      <c r="AN61" s="219"/>
+      <c r="AO61" s="219"/>
+      <c r="AP61" s="220"/>
+      <c r="AQ61" s="220"/>
+      <c r="AR61" s="220"/>
+      <c r="AS61" s="220"/>
+      <c r="AT61" s="220"/>
+      <c r="AU61" s="220"/>
+      <c r="AV61" s="220"/>
+      <c r="AW61" s="220"/>
       <c r="AX61" s="11"/>
       <c r="AY61" s="11"/>
       <c r="AZ61" s="11"/>
-      <c r="BC61" s="173" t="s">
+      <c r="BC61" s="207" t="s">
         <v>87</v>
       </c>
-      <c r="BD61" s="173"/>
-      <c r="BE61" s="173"/>
-      <c r="BF61" s="173"/>
-      <c r="BG61" s="173"/>
-      <c r="BH61" s="173"/>
-      <c r="BI61" s="173"/>
-      <c r="BJ61" s="173"/>
-      <c r="BK61" s="174"/>
-      <c r="BL61" s="175"/>
-      <c r="BM61" s="175"/>
-      <c r="BN61" s="175"/>
-      <c r="BO61" s="175"/>
-      <c r="BP61" s="175"/>
-      <c r="BQ61" s="175"/>
-      <c r="BR61" s="176"/>
+      <c r="BD61" s="207"/>
+      <c r="BE61" s="207"/>
+      <c r="BF61" s="207"/>
+      <c r="BG61" s="207"/>
+      <c r="BH61" s="207"/>
+      <c r="BI61" s="207"/>
+      <c r="BJ61" s="207"/>
+      <c r="BK61" s="208"/>
+      <c r="BL61" s="209"/>
+      <c r="BM61" s="209"/>
+      <c r="BN61" s="209"/>
+      <c r="BO61" s="209"/>
+      <c r="BP61" s="209"/>
+      <c r="BQ61" s="209"/>
+      <c r="BR61" s="210"/>
     </row>
     <row r="62" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="188"/>
-      <c r="B62" s="188"/>
-      <c r="C62" s="188"/>
-      <c r="D62" s="180" t="s">
+      <c r="A62" s="216"/>
+      <c r="B62" s="216"/>
+      <c r="C62" s="216"/>
+      <c r="D62" s="217" t="s">
         <v>88</v>
       </c>
-      <c r="E62" s="181"/>
-      <c r="F62" s="181"/>
+      <c r="E62" s="218"/>
+      <c r="F62" s="218"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="180" t="s">
+      <c r="H62" s="217" t="s">
         <v>89</v>
       </c>
-      <c r="I62" s="181"/>
-      <c r="J62" s="181"/>
+      <c r="I62" s="218"/>
+      <c r="J62" s="218"/>
       <c r="K62" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="L62" s="180" t="s">
+      <c r="L62" s="217" t="s">
         <v>91</v>
       </c>
-      <c r="M62" s="181"/>
-      <c r="N62" s="181"/>
+      <c r="M62" s="218"/>
+      <c r="N62" s="218"/>
       <c r="O62" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="P62" s="180"/>
-      <c r="Q62" s="181"/>
-      <c r="R62" s="181"/>
+      <c r="P62" s="217"/>
+      <c r="Q62" s="218"/>
+      <c r="R62" s="218"/>
       <c r="S62" s="15"/>
-      <c r="T62" s="180"/>
-      <c r="U62" s="181"/>
-      <c r="V62" s="181"/>
+      <c r="T62" s="217"/>
+      <c r="U62" s="218"/>
+      <c r="V62" s="218"/>
       <c r="W62" s="15"/>
-      <c r="X62" s="180"/>
-      <c r="Y62" s="181"/>
-      <c r="Z62" s="181"/>
+      <c r="X62" s="217"/>
+      <c r="Y62" s="218"/>
+      <c r="Z62" s="218"/>
       <c r="AA62" s="15"/>
       <c r="AB62" s="1"/>
-      <c r="AM62" s="186" t="s">
+      <c r="AM62" s="219" t="s">
         <v>93</v>
       </c>
-      <c r="AN62" s="186"/>
-      <c r="AO62" s="186"/>
-      <c r="AP62" s="187"/>
-      <c r="AQ62" s="187"/>
-      <c r="AR62" s="187"/>
-      <c r="AS62" s="187"/>
-      <c r="AT62" s="187"/>
-      <c r="AU62" s="187"/>
-      <c r="AV62" s="187"/>
-      <c r="AW62" s="187"/>
+      <c r="AN62" s="219"/>
+      <c r="AO62" s="219"/>
+      <c r="AP62" s="220"/>
+      <c r="AQ62" s="220"/>
+      <c r="AR62" s="220"/>
+      <c r="AS62" s="220"/>
+      <c r="AT62" s="220"/>
+      <c r="AU62" s="220"/>
+      <c r="AV62" s="220"/>
+      <c r="AW62" s="220"/>
       <c r="AX62" s="11"/>
       <c r="AY62" s="11"/>
       <c r="AZ62" s="11"/>
-      <c r="BC62" s="173" t="s">
+      <c r="BC62" s="207" t="s">
         <v>94</v>
       </c>
-      <c r="BD62" s="173"/>
-      <c r="BE62" s="173"/>
-      <c r="BF62" s="173"/>
-      <c r="BG62" s="173"/>
-      <c r="BH62" s="173"/>
-      <c r="BI62" s="173"/>
-      <c r="BJ62" s="173"/>
-      <c r="BK62" s="174"/>
-      <c r="BL62" s="175"/>
-      <c r="BM62" s="175"/>
-      <c r="BN62" s="175"/>
-      <c r="BO62" s="175"/>
-      <c r="BP62" s="175"/>
-      <c r="BQ62" s="175"/>
-      <c r="BR62" s="176"/>
+      <c r="BD62" s="207"/>
+      <c r="BE62" s="207"/>
+      <c r="BF62" s="207"/>
+      <c r="BG62" s="207"/>
+      <c r="BH62" s="207"/>
+      <c r="BI62" s="207"/>
+      <c r="BJ62" s="207"/>
+      <c r="BK62" s="208"/>
+      <c r="BL62" s="209"/>
+      <c r="BM62" s="209"/>
+      <c r="BN62" s="209"/>
+      <c r="BO62" s="209"/>
+      <c r="BP62" s="209"/>
+      <c r="BQ62" s="209"/>
+      <c r="BR62" s="210"/>
     </row>
     <row r="63" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="177" t="s">
+      <c r="A63" s="221" t="s">
         <v>95</v>
       </c>
-      <c r="B63" s="178"/>
-      <c r="C63" s="179"/>
-      <c r="D63" s="180" t="s">
+      <c r="B63" s="222"/>
+      <c r="C63" s="223"/>
+      <c r="D63" s="217" t="s">
         <v>96</v>
       </c>
-      <c r="E63" s="181"/>
-      <c r="F63" s="181"/>
+      <c r="E63" s="218"/>
+      <c r="F63" s="218"/>
       <c r="G63" s="15"/>
-      <c r="H63" s="180" t="s">
+      <c r="H63" s="217" t="s">
         <v>97</v>
       </c>
-      <c r="I63" s="181"/>
-      <c r="J63" s="181"/>
+      <c r="I63" s="218"/>
+      <c r="J63" s="218"/>
       <c r="K63" s="15"/>
-      <c r="L63" s="180" t="s">
+      <c r="L63" s="217" t="s">
         <v>98</v>
       </c>
-      <c r="M63" s="181"/>
-      <c r="N63" s="181"/>
+      <c r="M63" s="218"/>
+      <c r="N63" s="218"/>
       <c r="O63" s="15"/>
-      <c r="P63" s="180"/>
-      <c r="Q63" s="181"/>
-      <c r="R63" s="181"/>
+      <c r="P63" s="217"/>
+      <c r="Q63" s="218"/>
+      <c r="R63" s="218"/>
       <c r="S63" s="15"/>
-      <c r="T63" s="180"/>
-      <c r="U63" s="181"/>
-      <c r="V63" s="181"/>
+      <c r="T63" s="217"/>
+      <c r="U63" s="218"/>
+      <c r="V63" s="218"/>
       <c r="W63" s="15"/>
-      <c r="X63" s="180"/>
-      <c r="Y63" s="181"/>
-      <c r="Z63" s="181"/>
+      <c r="X63" s="217"/>
+      <c r="Y63" s="218"/>
+      <c r="Z63" s="218"/>
       <c r="AA63" s="15"/>
       <c r="AB63" s="1"/>
-      <c r="AM63" s="186"/>
-      <c r="AN63" s="186"/>
-      <c r="AO63" s="186"/>
-      <c r="AP63" s="187"/>
-      <c r="AQ63" s="187"/>
-      <c r="AR63" s="187"/>
-      <c r="AS63" s="187"/>
-      <c r="AT63" s="187"/>
-      <c r="AU63" s="187"/>
-      <c r="AV63" s="187"/>
-      <c r="AW63" s="187"/>
+      <c r="AM63" s="219"/>
+      <c r="AN63" s="219"/>
+      <c r="AO63" s="219"/>
+      <c r="AP63" s="220"/>
+      <c r="AQ63" s="220"/>
+      <c r="AR63" s="220"/>
+      <c r="AS63" s="220"/>
+      <c r="AT63" s="220"/>
+      <c r="AU63" s="220"/>
+      <c r="AV63" s="220"/>
+      <c r="AW63" s="220"/>
       <c r="AX63" s="11"/>
       <c r="AY63" s="11"/>
       <c r="AZ63" s="11"/>
-      <c r="BC63" s="173" t="s">
+      <c r="BC63" s="207" t="s">
         <v>99</v>
       </c>
-      <c r="BD63" s="173"/>
-      <c r="BE63" s="173"/>
-      <c r="BF63" s="173"/>
-      <c r="BG63" s="173"/>
-      <c r="BH63" s="173"/>
-      <c r="BI63" s="173"/>
-      <c r="BJ63" s="173"/>
-      <c r="BK63" s="174"/>
-      <c r="BL63" s="175"/>
-      <c r="BM63" s="175"/>
-      <c r="BN63" s="175"/>
-      <c r="BO63" s="175"/>
-      <c r="BP63" s="175"/>
-      <c r="BQ63" s="175"/>
-      <c r="BR63" s="176"/>
+      <c r="BD63" s="207"/>
+      <c r="BE63" s="207"/>
+      <c r="BF63" s="207"/>
+      <c r="BG63" s="207"/>
+      <c r="BH63" s="207"/>
+      <c r="BI63" s="207"/>
+      <c r="BJ63" s="207"/>
+      <c r="BK63" s="208"/>
+      <c r="BL63" s="209"/>
+      <c r="BM63" s="209"/>
+      <c r="BN63" s="209"/>
+      <c r="BO63" s="209"/>
+      <c r="BP63" s="209"/>
+      <c r="BQ63" s="209"/>
+      <c r="BR63" s="210"/>
     </row>
     <row r="64" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="177" t="s">
+      <c r="A64" s="221" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="178"/>
-      <c r="C64" s="179"/>
-      <c r="D64" s="180" t="s">
+      <c r="B64" s="222"/>
+      <c r="C64" s="223"/>
+      <c r="D64" s="217" t="s">
         <v>101</v>
       </c>
-      <c r="E64" s="181"/>
-      <c r="F64" s="181"/>
+      <c r="E64" s="218"/>
+      <c r="F64" s="218"/>
       <c r="G64" s="15"/>
-      <c r="H64" s="180" t="s">
+      <c r="H64" s="217" t="s">
         <v>102</v>
       </c>
-      <c r="I64" s="181"/>
-      <c r="J64" s="181"/>
+      <c r="I64" s="218"/>
+      <c r="J64" s="218"/>
       <c r="K64" s="15"/>
-      <c r="L64" s="180" t="s">
+      <c r="L64" s="217" t="s">
         <v>103</v>
       </c>
-      <c r="M64" s="181"/>
-      <c r="N64" s="181"/>
+      <c r="M64" s="218"/>
+      <c r="N64" s="218"/>
       <c r="O64" s="15"/>
-      <c r="P64" s="180" t="s">
+      <c r="P64" s="217" t="s">
         <v>104</v>
       </c>
-      <c r="Q64" s="181"/>
-      <c r="R64" s="181"/>
+      <c r="Q64" s="218"/>
+      <c r="R64" s="218"/>
       <c r="S64" s="15"/>
-      <c r="T64" s="180" t="s">
+      <c r="T64" s="217" t="s">
         <v>105</v>
       </c>
-      <c r="U64" s="181"/>
-      <c r="V64" s="181"/>
+      <c r="U64" s="218"/>
+      <c r="V64" s="218"/>
       <c r="W64" s="15"/>
-      <c r="X64" s="180" t="s">
+      <c r="X64" s="217" t="s">
         <v>106</v>
       </c>
-      <c r="Y64" s="181"/>
-      <c r="Z64" s="181"/>
+      <c r="Y64" s="218"/>
+      <c r="Z64" s="218"/>
       <c r="AA64" s="15"/>
-      <c r="AI64" s="182"/>
-      <c r="AJ64" s="182"/>
+      <c r="AI64" s="229"/>
+      <c r="AJ64" s="229"/>
       <c r="AK64" s="4"/>
       <c r="BR64" s="120"/>
     </row>
@@ -10351,355 +10351,612 @@
       <c r="A68" s="28">
         <v>1</v>
       </c>
-      <c r="B68" s="168" t="s">
+      <c r="B68" s="224" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="168"/>
-      <c r="D68" s="168"/>
-      <c r="E68" s="169" t="s">
+      <c r="C68" s="224"/>
+      <c r="D68" s="224"/>
+      <c r="E68" s="225" t="s">
         <v>109</v>
       </c>
-      <c r="F68" s="169"/>
-      <c r="G68" s="169"/>
-      <c r="H68" s="169"/>
-      <c r="I68" s="169"/>
-      <c r="J68" s="169"/>
-      <c r="K68" s="169"/>
+      <c r="F68" s="225"/>
+      <c r="G68" s="225"/>
+      <c r="H68" s="225"/>
+      <c r="I68" s="225"/>
+      <c r="J68" s="225"/>
+      <c r="K68" s="225"/>
       <c r="N68" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="O68" s="170" t="s">
+      <c r="O68" s="226" t="s">
         <v>111</v>
       </c>
-      <c r="P68" s="171"/>
-      <c r="Q68" s="172"/>
-      <c r="R68" s="169" t="s">
+      <c r="P68" s="227"/>
+      <c r="Q68" s="228"/>
+      <c r="R68" s="225" t="s">
         <v>112</v>
       </c>
-      <c r="S68" s="169"/>
-      <c r="T68" s="169"/>
-      <c r="U68" s="169"/>
-      <c r="V68" s="169"/>
-      <c r="W68" s="169"/>
-      <c r="X68" s="169"/>
+      <c r="S68" s="225"/>
+      <c r="T68" s="225"/>
+      <c r="U68" s="225"/>
+      <c r="V68" s="225"/>
+      <c r="W68" s="225"/>
+      <c r="X68" s="225"/>
       <c r="AA68" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="AB68" s="183" t="s">
+      <c r="AB68" s="230" t="s">
         <v>114</v>
       </c>
-      <c r="AC68" s="184"/>
-      <c r="AD68" s="184"/>
-      <c r="AE68" s="184"/>
-      <c r="AF68" s="184"/>
-      <c r="AG68" s="184"/>
-      <c r="AH68" s="184"/>
-      <c r="AI68" s="184"/>
-      <c r="AJ68" s="184"/>
-      <c r="AK68" s="184"/>
-      <c r="AL68" s="184"/>
-      <c r="AM68" s="185"/>
+      <c r="AC68" s="231"/>
+      <c r="AD68" s="231"/>
+      <c r="AE68" s="231"/>
+      <c r="AF68" s="231"/>
+      <c r="AG68" s="231"/>
+      <c r="AH68" s="231"/>
+      <c r="AI68" s="231"/>
+      <c r="AJ68" s="231"/>
+      <c r="AK68" s="231"/>
+      <c r="AL68" s="231"/>
+      <c r="AM68" s="232"/>
     </row>
     <row r="69" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="28">
         <v>2</v>
       </c>
-      <c r="B69" s="168" t="s">
+      <c r="B69" s="224" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="168"/>
-      <c r="D69" s="168"/>
-      <c r="E69" s="169" t="s">
+      <c r="C69" s="224"/>
+      <c r="D69" s="224"/>
+      <c r="E69" s="225" t="s">
         <v>116</v>
       </c>
-      <c r="F69" s="169"/>
-      <c r="G69" s="169"/>
-      <c r="H69" s="169"/>
-      <c r="I69" s="169"/>
-      <c r="J69" s="169"/>
-      <c r="K69" s="169"/>
+      <c r="F69" s="225"/>
+      <c r="G69" s="225"/>
+      <c r="H69" s="225"/>
+      <c r="I69" s="225"/>
+      <c r="J69" s="225"/>
+      <c r="K69" s="225"/>
       <c r="N69" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="O69" s="170" t="s">
+      <c r="O69" s="226" t="s">
         <v>118</v>
       </c>
-      <c r="P69" s="171"/>
-      <c r="Q69" s="172"/>
-      <c r="R69" s="169" t="s">
+      <c r="P69" s="227"/>
+      <c r="Q69" s="228"/>
+      <c r="R69" s="225" t="s">
         <v>119</v>
       </c>
-      <c r="S69" s="169"/>
-      <c r="T69" s="169"/>
-      <c r="U69" s="169"/>
-      <c r="V69" s="169"/>
-      <c r="W69" s="169"/>
-      <c r="X69" s="169"/>
+      <c r="S69" s="225"/>
+      <c r="T69" s="225"/>
+      <c r="U69" s="225"/>
+      <c r="V69" s="225"/>
+      <c r="W69" s="225"/>
+      <c r="X69" s="225"/>
       <c r="AA69" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="AB69" s="168" t="s">
+      <c r="AB69" s="224" t="s">
         <v>118</v>
       </c>
-      <c r="AC69" s="168"/>
-      <c r="AD69" s="168"/>
-      <c r="AE69" s="169" t="s">
+      <c r="AC69" s="224"/>
+      <c r="AD69" s="224"/>
+      <c r="AE69" s="225" t="s">
         <v>121</v>
       </c>
-      <c r="AF69" s="169"/>
-      <c r="AG69" s="169"/>
-      <c r="AH69" s="169"/>
-      <c r="AI69" s="169"/>
-      <c r="AJ69" s="169"/>
-      <c r="AK69" s="169"/>
-      <c r="AL69" s="169"/>
-      <c r="AM69" s="169"/>
+      <c r="AF69" s="225"/>
+      <c r="AG69" s="225"/>
+      <c r="AH69" s="225"/>
+      <c r="AI69" s="225"/>
+      <c r="AJ69" s="225"/>
+      <c r="AK69" s="225"/>
+      <c r="AL69" s="225"/>
+      <c r="AM69" s="225"/>
     </row>
     <row r="70" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="28">
         <v>3</v>
       </c>
-      <c r="B70" s="168" t="s">
+      <c r="B70" s="224" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="168"/>
-      <c r="D70" s="168"/>
-      <c r="E70" s="169" t="s">
+      <c r="C70" s="224"/>
+      <c r="D70" s="224"/>
+      <c r="E70" s="225" t="s">
         <v>123</v>
       </c>
-      <c r="F70" s="169"/>
-      <c r="G70" s="169"/>
-      <c r="H70" s="169"/>
-      <c r="I70" s="169"/>
-      <c r="J70" s="169"/>
-      <c r="K70" s="169"/>
+      <c r="F70" s="225"/>
+      <c r="G70" s="225"/>
+      <c r="H70" s="225"/>
+      <c r="I70" s="225"/>
+      <c r="J70" s="225"/>
+      <c r="K70" s="225"/>
       <c r="N70" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="O70" s="170" t="s">
+      <c r="O70" s="226" t="s">
         <v>125</v>
       </c>
-      <c r="P70" s="171"/>
-      <c r="Q70" s="172"/>
-      <c r="R70" s="169" t="s">
+      <c r="P70" s="227"/>
+      <c r="Q70" s="228"/>
+      <c r="R70" s="225" t="s">
         <v>126</v>
       </c>
-      <c r="S70" s="169"/>
-      <c r="T70" s="169"/>
-      <c r="U70" s="169"/>
-      <c r="V70" s="169"/>
-      <c r="W70" s="169"/>
-      <c r="X70" s="169"/>
+      <c r="S70" s="225"/>
+      <c r="T70" s="225"/>
+      <c r="U70" s="225"/>
+      <c r="V70" s="225"/>
+      <c r="W70" s="225"/>
+      <c r="X70" s="225"/>
       <c r="AA70" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="AB70" s="168" t="s">
+      <c r="AB70" s="224" t="s">
         <v>125</v>
       </c>
-      <c r="AC70" s="168"/>
-      <c r="AD70" s="168"/>
-      <c r="AE70" s="169" t="s">
+      <c r="AC70" s="224"/>
+      <c r="AD70" s="224"/>
+      <c r="AE70" s="225" t="s">
         <v>128</v>
       </c>
-      <c r="AF70" s="169"/>
-      <c r="AG70" s="169"/>
-      <c r="AH70" s="169"/>
-      <c r="AI70" s="169"/>
-      <c r="AJ70" s="169"/>
-      <c r="AK70" s="169"/>
-      <c r="AL70" s="169"/>
-      <c r="AM70" s="169"/>
+      <c r="AF70" s="225"/>
+      <c r="AG70" s="225"/>
+      <c r="AH70" s="225"/>
+      <c r="AI70" s="225"/>
+      <c r="AJ70" s="225"/>
+      <c r="AK70" s="225"/>
+      <c r="AL70" s="225"/>
+      <c r="AM70" s="225"/>
       <c r="AN70" s="30"/>
     </row>
     <row r="71" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="28">
         <v>4</v>
       </c>
-      <c r="B71" s="168" t="s">
+      <c r="B71" s="224" t="s">
         <v>129</v>
       </c>
-      <c r="C71" s="168"/>
-      <c r="D71" s="168"/>
-      <c r="E71" s="169" t="s">
+      <c r="C71" s="224"/>
+      <c r="D71" s="224"/>
+      <c r="E71" s="225" t="s">
         <v>130</v>
       </c>
-      <c r="F71" s="169"/>
-      <c r="G71" s="169"/>
-      <c r="H71" s="169"/>
-      <c r="I71" s="169"/>
-      <c r="J71" s="169"/>
-      <c r="K71" s="169"/>
+      <c r="F71" s="225"/>
+      <c r="G71" s="225"/>
+      <c r="H71" s="225"/>
+      <c r="I71" s="225"/>
+      <c r="J71" s="225"/>
+      <c r="K71" s="225"/>
       <c r="N71" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="O71" s="170" t="s">
+      <c r="O71" s="226" t="s">
         <v>132</v>
       </c>
-      <c r="P71" s="171"/>
-      <c r="Q71" s="172"/>
-      <c r="R71" s="169" t="s">
+      <c r="P71" s="227"/>
+      <c r="Q71" s="228"/>
+      <c r="R71" s="225" t="s">
         <v>133</v>
       </c>
-      <c r="S71" s="169"/>
-      <c r="T71" s="169"/>
-      <c r="U71" s="169"/>
-      <c r="V71" s="169"/>
-      <c r="W71" s="169"/>
-      <c r="X71" s="169"/>
+      <c r="S71" s="225"/>
+      <c r="T71" s="225"/>
+      <c r="U71" s="225"/>
+      <c r="V71" s="225"/>
+      <c r="W71" s="225"/>
+      <c r="X71" s="225"/>
       <c r="AA71" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="AB71" s="168" t="s">
+      <c r="AB71" s="224" t="s">
         <v>132</v>
       </c>
-      <c r="AC71" s="168"/>
-      <c r="AD71" s="168"/>
-      <c r="AE71" s="169" t="s">
+      <c r="AC71" s="224"/>
+      <c r="AD71" s="224"/>
+      <c r="AE71" s="225" t="s">
         <v>135</v>
       </c>
-      <c r="AF71" s="169"/>
-      <c r="AG71" s="169"/>
-      <c r="AH71" s="169"/>
-      <c r="AI71" s="169"/>
-      <c r="AJ71" s="169"/>
-      <c r="AK71" s="169"/>
-      <c r="AL71" s="169"/>
-      <c r="AM71" s="169"/>
+      <c r="AF71" s="225"/>
+      <c r="AG71" s="225"/>
+      <c r="AH71" s="225"/>
+      <c r="AI71" s="225"/>
+      <c r="AJ71" s="225"/>
+      <c r="AK71" s="225"/>
+      <c r="AL71" s="225"/>
+      <c r="AM71" s="225"/>
       <c r="AN71" s="30"/>
     </row>
     <row r="72" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
         <v>5</v>
       </c>
-      <c r="B72" s="168" t="s">
+      <c r="B72" s="224" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="168"/>
-      <c r="D72" s="168"/>
-      <c r="E72" s="169" t="s">
+      <c r="C72" s="224"/>
+      <c r="D72" s="224"/>
+      <c r="E72" s="225" t="s">
         <v>137</v>
       </c>
-      <c r="F72" s="169"/>
-      <c r="G72" s="169"/>
-      <c r="H72" s="169"/>
-      <c r="I72" s="169"/>
-      <c r="J72" s="169"/>
-      <c r="K72" s="169"/>
+      <c r="F72" s="225"/>
+      <c r="G72" s="225"/>
+      <c r="H72" s="225"/>
+      <c r="I72" s="225"/>
+      <c r="J72" s="225"/>
+      <c r="K72" s="225"/>
       <c r="N72" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="O72" s="170" t="s">
+      <c r="O72" s="226" t="s">
         <v>139</v>
       </c>
-      <c r="P72" s="171"/>
-      <c r="Q72" s="172"/>
-      <c r="R72" s="169" t="s">
+      <c r="P72" s="227"/>
+      <c r="Q72" s="228"/>
+      <c r="R72" s="225" t="s">
         <v>140</v>
       </c>
-      <c r="S72" s="169"/>
-      <c r="T72" s="169"/>
-      <c r="U72" s="169"/>
-      <c r="V72" s="169"/>
-      <c r="W72" s="169"/>
-      <c r="X72" s="169"/>
+      <c r="S72" s="225"/>
+      <c r="T72" s="225"/>
+      <c r="U72" s="225"/>
+      <c r="V72" s="225"/>
+      <c r="W72" s="225"/>
+      <c r="X72" s="225"/>
       <c r="AA72" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="AB72" s="168" t="s">
+      <c r="AB72" s="224" t="s">
         <v>139</v>
       </c>
-      <c r="AC72" s="168"/>
-      <c r="AD72" s="168"/>
-      <c r="AE72" s="169" t="s">
+      <c r="AC72" s="224"/>
+      <c r="AD72" s="224"/>
+      <c r="AE72" s="225" t="s">
         <v>142</v>
       </c>
-      <c r="AF72" s="169"/>
-      <c r="AG72" s="169"/>
-      <c r="AH72" s="169"/>
-      <c r="AI72" s="169"/>
-      <c r="AJ72" s="169"/>
-      <c r="AK72" s="169"/>
-      <c r="AL72" s="169"/>
-      <c r="AM72" s="169"/>
+      <c r="AF72" s="225"/>
+      <c r="AG72" s="225"/>
+      <c r="AH72" s="225"/>
+      <c r="AI72" s="225"/>
+      <c r="AJ72" s="225"/>
+      <c r="AK72" s="225"/>
+      <c r="AL72" s="225"/>
+      <c r="AM72" s="225"/>
       <c r="AN72" s="30"/>
     </row>
     <row r="73" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>6</v>
       </c>
-      <c r="B73" s="168" t="s">
+      <c r="B73" s="224" t="s">
         <v>143</v>
       </c>
-      <c r="C73" s="168"/>
-      <c r="D73" s="168"/>
-      <c r="E73" s="169" t="s">
+      <c r="C73" s="224"/>
+      <c r="D73" s="224"/>
+      <c r="E73" s="225" t="s">
         <v>144</v>
       </c>
-      <c r="F73" s="169"/>
-      <c r="G73" s="169"/>
-      <c r="H73" s="169"/>
-      <c r="I73" s="169"/>
-      <c r="J73" s="169"/>
-      <c r="K73" s="169"/>
+      <c r="F73" s="225"/>
+      <c r="G73" s="225"/>
+      <c r="H73" s="225"/>
+      <c r="I73" s="225"/>
+      <c r="J73" s="225"/>
+      <c r="K73" s="225"/>
       <c r="N73" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="O73" s="170" t="s">
+      <c r="O73" s="226" t="s">
         <v>146</v>
       </c>
-      <c r="P73" s="171"/>
-      <c r="Q73" s="172"/>
-      <c r="R73" s="169" t="s">
+      <c r="P73" s="227"/>
+      <c r="Q73" s="228"/>
+      <c r="R73" s="225" t="s">
         <v>147</v>
       </c>
-      <c r="S73" s="169"/>
-      <c r="T73" s="169"/>
-      <c r="U73" s="169"/>
-      <c r="V73" s="169"/>
-      <c r="W73" s="169"/>
-      <c r="X73" s="169"/>
+      <c r="S73" s="225"/>
+      <c r="T73" s="225"/>
+      <c r="U73" s="225"/>
+      <c r="V73" s="225"/>
+      <c r="W73" s="225"/>
+      <c r="X73" s="225"/>
       <c r="AA73" s="28"/>
-      <c r="AB73" s="168" t="s">
+      <c r="AB73" s="224" t="s">
         <v>148</v>
       </c>
-      <c r="AC73" s="168"/>
-      <c r="AD73" s="168"/>
-      <c r="AE73" s="169" t="s">
+      <c r="AC73" s="224"/>
+      <c r="AD73" s="224"/>
+      <c r="AE73" s="225" t="s">
         <v>149</v>
       </c>
-      <c r="AF73" s="169"/>
-      <c r="AG73" s="169"/>
-      <c r="AH73" s="169"/>
-      <c r="AI73" s="169"/>
-      <c r="AJ73" s="169"/>
-      <c r="AK73" s="169"/>
-      <c r="AL73" s="169"/>
-      <c r="AM73" s="169"/>
+      <c r="AF73" s="225"/>
+      <c r="AG73" s="225"/>
+      <c r="AH73" s="225"/>
+      <c r="AI73" s="225"/>
+      <c r="AJ73" s="225"/>
+      <c r="AK73" s="225"/>
+      <c r="AL73" s="225"/>
+      <c r="AM73" s="225"/>
     </row>
     <row r="74" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="28">
         <v>7</v>
       </c>
-      <c r="B74" s="168" t="s">
+      <c r="B74" s="224" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="168"/>
-      <c r="D74" s="168"/>
-      <c r="E74" s="169" t="s">
+      <c r="C74" s="224"/>
+      <c r="D74" s="224"/>
+      <c r="E74" s="225" t="s">
         <v>151</v>
       </c>
-      <c r="F74" s="169"/>
-      <c r="G74" s="169"/>
-      <c r="H74" s="169"/>
-      <c r="I74" s="169"/>
-      <c r="J74" s="169"/>
-      <c r="K74" s="169"/>
+      <c r="F74" s="225"/>
+      <c r="G74" s="225"/>
+      <c r="H74" s="225"/>
+      <c r="I74" s="225"/>
+      <c r="J74" s="225"/>
+      <c r="K74" s="225"/>
     </row>
     <row r="75" spans="1:70" ht="16.5" x14ac:dyDescent="0.25">
       <c r="N75" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="272">
+  <mergeCells count="281">
+    <mergeCell ref="BP24:BP25"/>
+    <mergeCell ref="BP28:BP29"/>
+    <mergeCell ref="BP32:BP33"/>
+    <mergeCell ref="BP36:BP37"/>
+    <mergeCell ref="BP40:BP41"/>
+    <mergeCell ref="BP44:BP45"/>
+    <mergeCell ref="BP48:BP49"/>
+    <mergeCell ref="BP52:BP53"/>
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="BR40:BR41"/>
+    <mergeCell ref="BR44:BR45"/>
+    <mergeCell ref="BL32:BL33"/>
+    <mergeCell ref="BL36:BL37"/>
+    <mergeCell ref="BL40:BL41"/>
+    <mergeCell ref="BL44:BL45"/>
+    <mergeCell ref="BO16:BO17"/>
+    <mergeCell ref="BO20:BO21"/>
+    <mergeCell ref="BO24:BO25"/>
+    <mergeCell ref="BO28:BO29"/>
+    <mergeCell ref="BO32:BO33"/>
+    <mergeCell ref="BO36:BO37"/>
+    <mergeCell ref="BO40:BO41"/>
+    <mergeCell ref="BO44:BO45"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AZ5:BA5"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="BP20:BP21"/>
+    <mergeCell ref="BR48:BR49"/>
+    <mergeCell ref="BR52:BR53"/>
+    <mergeCell ref="BP12:BP13"/>
+    <mergeCell ref="BP16:BP17"/>
+    <mergeCell ref="BR12:BR13"/>
+    <mergeCell ref="BR16:BR17"/>
+    <mergeCell ref="BR20:BR21"/>
+    <mergeCell ref="BR24:BR25"/>
+    <mergeCell ref="BR28:BR29"/>
+    <mergeCell ref="BR32:BR33"/>
+    <mergeCell ref="BR36:BR37"/>
+    <mergeCell ref="AM26:BR27"/>
+    <mergeCell ref="AM30:BR31"/>
+    <mergeCell ref="AM34:BR35"/>
+    <mergeCell ref="AM38:BR39"/>
+    <mergeCell ref="AM42:BR43"/>
+    <mergeCell ref="AM46:BR47"/>
+    <mergeCell ref="AM50:BR51"/>
+    <mergeCell ref="BO52:BO53"/>
+    <mergeCell ref="BL12:BL13"/>
+    <mergeCell ref="BL16:BL17"/>
+    <mergeCell ref="BL20:BL21"/>
+    <mergeCell ref="BL24:BL25"/>
+    <mergeCell ref="BL28:BL29"/>
+    <mergeCell ref="BO48:BO49"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP2:AZ2"/>
+    <mergeCell ref="AP3:AZ3"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="BD3:BI3"/>
+    <mergeCell ref="BM2:BR2"/>
+    <mergeCell ref="BM3:BR3"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BB5:BC5"/>
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="BN6:BN7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E74:K74"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:K73"/>
+    <mergeCell ref="O73:Q73"/>
+    <mergeCell ref="R73:X73"/>
+    <mergeCell ref="AB73:AD73"/>
+    <mergeCell ref="AE73:AM73"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:K72"/>
+    <mergeCell ref="O72:Q72"/>
+    <mergeCell ref="R72:X72"/>
+    <mergeCell ref="AB72:AD72"/>
+    <mergeCell ref="AE72:AM72"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:K71"/>
+    <mergeCell ref="O71:Q71"/>
+    <mergeCell ref="R71:X71"/>
+    <mergeCell ref="AB71:AD71"/>
+    <mergeCell ref="AE71:AM71"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="E70:K70"/>
+    <mergeCell ref="O70:Q70"/>
+    <mergeCell ref="R70:X70"/>
+    <mergeCell ref="AB70:AD70"/>
+    <mergeCell ref="AE70:AM70"/>
+    <mergeCell ref="BC63:BJ63"/>
+    <mergeCell ref="BK63:BR63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:K69"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="R69:X69"/>
+    <mergeCell ref="AB69:AD69"/>
+    <mergeCell ref="AE69:AM69"/>
+    <mergeCell ref="T64:V64"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:K68"/>
+    <mergeCell ref="O68:Q68"/>
+    <mergeCell ref="R68:X68"/>
+    <mergeCell ref="AB68:AM68"/>
+    <mergeCell ref="AM62:AO62"/>
+    <mergeCell ref="AP62:AW62"/>
+    <mergeCell ref="BC62:BJ62"/>
+    <mergeCell ref="BK62:BR62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="T62:V62"/>
+    <mergeCell ref="X62:Z62"/>
+    <mergeCell ref="A61:C62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="X63:Z63"/>
+    <mergeCell ref="AM63:AO63"/>
+    <mergeCell ref="AP63:AW63"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="X61:Z61"/>
+    <mergeCell ref="AM61:AO61"/>
+    <mergeCell ref="AP61:AW61"/>
+    <mergeCell ref="BC61:BJ61"/>
+    <mergeCell ref="BK61:BR61"/>
+    <mergeCell ref="X60:Z60"/>
+    <mergeCell ref="AM60:AO60"/>
+    <mergeCell ref="AP60:AW60"/>
+    <mergeCell ref="BC60:BJ60"/>
+    <mergeCell ref="BK60:BR60"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="T60:V60"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="X59:Z59"/>
+    <mergeCell ref="AM59:AO59"/>
+    <mergeCell ref="AP59:AW59"/>
+    <mergeCell ref="BC59:BJ59"/>
+    <mergeCell ref="BK59:BR59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="AJ56:AL56"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="AM1:BR1"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AQ4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="AF2:AL2"/>
+    <mergeCell ref="AF3:AL3"/>
+    <mergeCell ref="V2:AB2"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="D2:R2"/>
+    <mergeCell ref="D3:R3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="AX5:AY5"/>
+    <mergeCell ref="B4:AL4"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
     <mergeCell ref="AM54:BR55"/>
     <mergeCell ref="AQ6:AQ7"/>
     <mergeCell ref="AM6:AM7"/>
@@ -10724,254 +10981,6 @@
     <mergeCell ref="BL52:BL53"/>
     <mergeCell ref="BO8:BO9"/>
     <mergeCell ref="BO12:BO13"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="AM1:BR1"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AQ4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="AF2:AL2"/>
-    <mergeCell ref="AF3:AL3"/>
-    <mergeCell ref="V2:AB2"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="D2:R2"/>
-    <mergeCell ref="D3:R3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="AX5:AY5"/>
-    <mergeCell ref="B4:AL4"/>
-    <mergeCell ref="AP59:AW59"/>
-    <mergeCell ref="BC59:BJ59"/>
-    <mergeCell ref="BK59:BR59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="AJ56:AL56"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="T60:V60"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="X59:Z59"/>
-    <mergeCell ref="AM59:AO59"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="X61:Z61"/>
-    <mergeCell ref="AM61:AO61"/>
-    <mergeCell ref="AP61:AW61"/>
-    <mergeCell ref="BC61:BJ61"/>
-    <mergeCell ref="BK61:BR61"/>
-    <mergeCell ref="X60:Z60"/>
-    <mergeCell ref="AM60:AO60"/>
-    <mergeCell ref="AP60:AW60"/>
-    <mergeCell ref="BC60:BJ60"/>
-    <mergeCell ref="BK60:BR60"/>
-    <mergeCell ref="AM62:AO62"/>
-    <mergeCell ref="AP62:AW62"/>
-    <mergeCell ref="BC62:BJ62"/>
-    <mergeCell ref="BK62:BR62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="T62:V62"/>
-    <mergeCell ref="X62:Z62"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="X63:Z63"/>
-    <mergeCell ref="AM63:AO63"/>
-    <mergeCell ref="AP63:AW63"/>
-    <mergeCell ref="BC63:BJ63"/>
-    <mergeCell ref="BK63:BR63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="E69:K69"/>
-    <mergeCell ref="O69:Q69"/>
-    <mergeCell ref="R69:X69"/>
-    <mergeCell ref="AB69:AD69"/>
-    <mergeCell ref="AE69:AM69"/>
-    <mergeCell ref="T64:V64"/>
-    <mergeCell ref="X64:Z64"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="E68:K68"/>
-    <mergeCell ref="O68:Q68"/>
-    <mergeCell ref="R68:X68"/>
-    <mergeCell ref="AB68:AM68"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="E71:K71"/>
-    <mergeCell ref="O71:Q71"/>
-    <mergeCell ref="R71:X71"/>
-    <mergeCell ref="AB71:AD71"/>
-    <mergeCell ref="AE71:AM71"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="E70:K70"/>
-    <mergeCell ref="O70:Q70"/>
-    <mergeCell ref="R70:X70"/>
-    <mergeCell ref="AB70:AD70"/>
-    <mergeCell ref="AE70:AM70"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="E74:K74"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:K73"/>
-    <mergeCell ref="O73:Q73"/>
-    <mergeCell ref="R73:X73"/>
-    <mergeCell ref="AB73:AD73"/>
-    <mergeCell ref="AE73:AM73"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:K72"/>
-    <mergeCell ref="O72:Q72"/>
-    <mergeCell ref="R72:X72"/>
-    <mergeCell ref="AB72:AD72"/>
-    <mergeCell ref="AE72:AM72"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="BO48:BO49"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP2:AZ2"/>
-    <mergeCell ref="AP3:AZ3"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="BD3:BI3"/>
-    <mergeCell ref="BM2:BR2"/>
-    <mergeCell ref="BM3:BR3"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BP8:BP9"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BB5:BC5"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BM6:BM7"/>
-    <mergeCell ref="BN6:BN7"/>
-    <mergeCell ref="BR48:BR49"/>
-    <mergeCell ref="BR52:BR53"/>
-    <mergeCell ref="BP12:BP13"/>
-    <mergeCell ref="BP16:BP17"/>
-    <mergeCell ref="BR12:BR13"/>
-    <mergeCell ref="BR16:BR17"/>
-    <mergeCell ref="BR20:BR21"/>
-    <mergeCell ref="BR24:BR25"/>
-    <mergeCell ref="BR28:BR29"/>
-    <mergeCell ref="BR32:BR33"/>
-    <mergeCell ref="BR36:BR37"/>
-    <mergeCell ref="AM26:BR27"/>
-    <mergeCell ref="AM30:BR31"/>
-    <mergeCell ref="AM34:BR35"/>
-    <mergeCell ref="AM38:BR39"/>
-    <mergeCell ref="AM42:BR43"/>
-    <mergeCell ref="AM46:BR47"/>
-    <mergeCell ref="AM50:BR51"/>
-    <mergeCell ref="BO52:BO53"/>
-    <mergeCell ref="BL12:BL13"/>
-    <mergeCell ref="BL16:BL17"/>
-    <mergeCell ref="BL20:BL21"/>
-    <mergeCell ref="BL24:BL25"/>
-    <mergeCell ref="BL28:BL29"/>
-    <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="BR40:BR41"/>
-    <mergeCell ref="BR44:BR45"/>
-    <mergeCell ref="BL32:BL33"/>
-    <mergeCell ref="BL36:BL37"/>
-    <mergeCell ref="BL40:BL41"/>
-    <mergeCell ref="BL44:BL45"/>
-    <mergeCell ref="BO16:BO17"/>
-    <mergeCell ref="BO20:BO21"/>
-    <mergeCell ref="BO24:BO25"/>
-    <mergeCell ref="BO28:BO29"/>
-    <mergeCell ref="BO32:BO33"/>
-    <mergeCell ref="BO36:BO37"/>
-    <mergeCell ref="BO40:BO41"/>
-    <mergeCell ref="BO44:BO45"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AZ5:BA5"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AV6:AW6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Python/ExternalData/DailyReportTemplateWithLunar_B.xlsx
+++ b/Python/ExternalData/DailyReportTemplateWithLunar_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_EveryThing\_code\HuachunDailyReport2024\Python\ExternalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25106D20-79E1-4D49-89EA-2D73D3A1DD5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D92D543-4991-45AA-AB63-FAF12843EC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A6DB0C3-2965-4D6C-B04A-BB1132023D50}"/>
   </bookViews>
@@ -876,7 +876,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -885,19 +885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="42"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2076,7 +2064,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2212,19 +2200,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2242,37 +2230,37 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2281,19 +2269,19 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2305,22 +2293,22 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2386,22 +2374,22 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2430,22 +2418,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="81" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2505,23 +2493,230 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="5" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
@@ -2535,30 +2730,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2595,217 +2772,28 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5414,7 +5402,7 @@
   </sheetPr>
   <dimension ref="A1:BR75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="40" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AC8" sqref="AC8:AC10"/>
       <selection pane="bottomLeft" sqref="A1:AL1"/>
@@ -5430,384 +5418,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="219" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
-      <c r="N1" s="190"/>
-      <c r="O1" s="190"/>
-      <c r="P1" s="190"/>
-      <c r="Q1" s="190"/>
-      <c r="R1" s="190"/>
-      <c r="S1" s="190"/>
-      <c r="T1" s="190"/>
-      <c r="U1" s="190"/>
-      <c r="V1" s="190"/>
-      <c r="W1" s="190"/>
-      <c r="X1" s="190"/>
-      <c r="Y1" s="190"/>
-      <c r="Z1" s="190"/>
-      <c r="AA1" s="190"/>
-      <c r="AB1" s="190"/>
-      <c r="AC1" s="190"/>
-      <c r="AD1" s="190"/>
-      <c r="AE1" s="190"/>
-      <c r="AF1" s="190"/>
-      <c r="AG1" s="190"/>
-      <c r="AH1" s="190"/>
-      <c r="AI1" s="190"/>
-      <c r="AJ1" s="190"/>
-      <c r="AK1" s="190"/>
-      <c r="AL1" s="191"/>
-      <c r="AM1" s="189" t="s">
+      <c r="B1" s="220"/>
+      <c r="C1" s="220"/>
+      <c r="D1" s="220"/>
+      <c r="E1" s="220"/>
+      <c r="F1" s="220"/>
+      <c r="G1" s="220"/>
+      <c r="H1" s="220"/>
+      <c r="I1" s="220"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="220"/>
+      <c r="O1" s="220"/>
+      <c r="P1" s="220"/>
+      <c r="Q1" s="220"/>
+      <c r="R1" s="220"/>
+      <c r="S1" s="220"/>
+      <c r="T1" s="220"/>
+      <c r="U1" s="220"/>
+      <c r="V1" s="220"/>
+      <c r="W1" s="220"/>
+      <c r="X1" s="220"/>
+      <c r="Y1" s="220"/>
+      <c r="Z1" s="220"/>
+      <c r="AA1" s="220"/>
+      <c r="AB1" s="220"/>
+      <c r="AC1" s="220"/>
+      <c r="AD1" s="220"/>
+      <c r="AE1" s="220"/>
+      <c r="AF1" s="220"/>
+      <c r="AG1" s="220"/>
+      <c r="AH1" s="220"/>
+      <c r="AI1" s="220"/>
+      <c r="AJ1" s="220"/>
+      <c r="AK1" s="220"/>
+      <c r="AL1" s="221"/>
+      <c r="AM1" s="219" t="s">
         <v>160</v>
       </c>
-      <c r="AN1" s="190"/>
-      <c r="AO1" s="190"/>
-      <c r="AP1" s="190"/>
-      <c r="AQ1" s="190"/>
-      <c r="AR1" s="190"/>
-      <c r="AS1" s="190"/>
-      <c r="AT1" s="190"/>
-      <c r="AU1" s="190"/>
-      <c r="AV1" s="190"/>
-      <c r="AW1" s="190"/>
-      <c r="AX1" s="190"/>
-      <c r="AY1" s="190"/>
-      <c r="AZ1" s="190"/>
-      <c r="BA1" s="190"/>
-      <c r="BB1" s="190"/>
-      <c r="BC1" s="190"/>
-      <c r="BD1" s="190"/>
-      <c r="BE1" s="190"/>
-      <c r="BF1" s="190"/>
-      <c r="BG1" s="190"/>
-      <c r="BH1" s="190"/>
-      <c r="BI1" s="190"/>
-      <c r="BJ1" s="190"/>
-      <c r="BK1" s="190"/>
-      <c r="BL1" s="190"/>
-      <c r="BM1" s="190"/>
-      <c r="BN1" s="190"/>
-      <c r="BO1" s="190"/>
-      <c r="BP1" s="190"/>
-      <c r="BQ1" s="190"/>
-      <c r="BR1" s="191"/>
+      <c r="AN1" s="220"/>
+      <c r="AO1" s="220"/>
+      <c r="AP1" s="220"/>
+      <c r="AQ1" s="220"/>
+      <c r="AR1" s="220"/>
+      <c r="AS1" s="220"/>
+      <c r="AT1" s="220"/>
+      <c r="AU1" s="220"/>
+      <c r="AV1" s="220"/>
+      <c r="AW1" s="220"/>
+      <c r="AX1" s="220"/>
+      <c r="AY1" s="220"/>
+      <c r="AZ1" s="220"/>
+      <c r="BA1" s="220"/>
+      <c r="BB1" s="220"/>
+      <c r="BC1" s="220"/>
+      <c r="BD1" s="220"/>
+      <c r="BE1" s="220"/>
+      <c r="BF1" s="220"/>
+      <c r="BG1" s="220"/>
+      <c r="BH1" s="220"/>
+      <c r="BI1" s="220"/>
+      <c r="BJ1" s="220"/>
+      <c r="BK1" s="220"/>
+      <c r="BL1" s="220"/>
+      <c r="BM1" s="220"/>
+      <c r="BN1" s="220"/>
+      <c r="BO1" s="220"/>
+      <c r="BP1" s="220"/>
+      <c r="BQ1" s="220"/>
+      <c r="BR1" s="221"/>
     </row>
     <row r="2" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="199" t="s">
+      <c r="A2" s="173" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="197"/>
-      <c r="C2" s="197"/>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="197"/>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="197"/>
-      <c r="K2" s="197"/>
-      <c r="L2" s="197"/>
-      <c r="M2" s="197"/>
-      <c r="N2" s="197"/>
-      <c r="O2" s="197"/>
-      <c r="P2" s="197"/>
-      <c r="Q2" s="197"/>
-      <c r="R2" s="197"/>
-      <c r="S2" s="197" t="s">
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="174"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="174"/>
+      <c r="P2" s="174"/>
+      <c r="Q2" s="174"/>
+      <c r="R2" s="174"/>
+      <c r="S2" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="197"/>
-      <c r="U2" s="197"/>
-      <c r="V2" s="197"/>
-      <c r="W2" s="197"/>
-      <c r="X2" s="197"/>
-      <c r="Y2" s="197"/>
-      <c r="Z2" s="197"/>
-      <c r="AA2" s="197"/>
-      <c r="AB2" s="197"/>
-      <c r="AC2" s="197" t="s">
+      <c r="T2" s="174"/>
+      <c r="U2" s="174"/>
+      <c r="V2" s="174"/>
+      <c r="W2" s="174"/>
+      <c r="X2" s="174"/>
+      <c r="Y2" s="174"/>
+      <c r="Z2" s="174"/>
+      <c r="AA2" s="174"/>
+      <c r="AB2" s="174"/>
+      <c r="AC2" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="197"/>
-      <c r="AE2" s="197"/>
-      <c r="AF2" s="197"/>
-      <c r="AG2" s="197"/>
-      <c r="AH2" s="197"/>
-      <c r="AI2" s="197"/>
-      <c r="AJ2" s="197"/>
-      <c r="AK2" s="197"/>
-      <c r="AL2" s="198"/>
-      <c r="AM2" s="199" t="s">
+      <c r="AD2" s="174"/>
+      <c r="AE2" s="174"/>
+      <c r="AF2" s="174"/>
+      <c r="AG2" s="174"/>
+      <c r="AH2" s="174"/>
+      <c r="AI2" s="174"/>
+      <c r="AJ2" s="174"/>
+      <c r="AK2" s="174"/>
+      <c r="AL2" s="175"/>
+      <c r="AM2" s="173" t="s">
         <v>153</v>
       </c>
-      <c r="AN2" s="197"/>
-      <c r="AO2" s="197"/>
-      <c r="AP2" s="197"/>
-      <c r="AQ2" s="197"/>
-      <c r="AR2" s="197"/>
-      <c r="AS2" s="197"/>
-      <c r="AT2" s="197"/>
-      <c r="AU2" s="197"/>
-      <c r="AV2" s="197"/>
-      <c r="AW2" s="197"/>
-      <c r="AX2" s="197"/>
-      <c r="AY2" s="197"/>
-      <c r="AZ2" s="197"/>
-      <c r="BA2" s="197" t="s">
+      <c r="AN2" s="174"/>
+      <c r="AO2" s="174"/>
+      <c r="AP2" s="174"/>
+      <c r="AQ2" s="174"/>
+      <c r="AR2" s="174"/>
+      <c r="AS2" s="174"/>
+      <c r="AT2" s="174"/>
+      <c r="AU2" s="174"/>
+      <c r="AV2" s="174"/>
+      <c r="AW2" s="174"/>
+      <c r="AX2" s="174"/>
+      <c r="AY2" s="174"/>
+      <c r="AZ2" s="174"/>
+      <c r="BA2" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="BB2" s="197"/>
-      <c r="BC2" s="197"/>
-      <c r="BD2" s="197"/>
-      <c r="BE2" s="197"/>
-      <c r="BF2" s="197"/>
-      <c r="BG2" s="197"/>
-      <c r="BH2" s="197"/>
-      <c r="BI2" s="197"/>
-      <c r="BJ2" s="197" t="s">
+      <c r="BB2" s="174"/>
+      <c r="BC2" s="174"/>
+      <c r="BD2" s="174"/>
+      <c r="BE2" s="174"/>
+      <c r="BF2" s="174"/>
+      <c r="BG2" s="174"/>
+      <c r="BH2" s="174"/>
+      <c r="BI2" s="174"/>
+      <c r="BJ2" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" s="197"/>
-      <c r="BL2" s="197"/>
-      <c r="BM2" s="197"/>
-      <c r="BN2" s="197"/>
-      <c r="BO2" s="197"/>
-      <c r="BP2" s="197"/>
-      <c r="BQ2" s="197"/>
-      <c r="BR2" s="198"/>
+      <c r="BK2" s="174"/>
+      <c r="BL2" s="174"/>
+      <c r="BM2" s="174"/>
+      <c r="BN2" s="174"/>
+      <c r="BO2" s="174"/>
+      <c r="BP2" s="174"/>
+      <c r="BQ2" s="174"/>
+      <c r="BR2" s="175"/>
     </row>
     <row r="3" spans="1:70" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="199" t="s">
+      <c r="A3" s="173" t="s">
         <v>161</v>
       </c>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="G3" s="197"/>
-      <c r="H3" s="197"/>
-      <c r="I3" s="197"/>
-      <c r="J3" s="197"/>
-      <c r="K3" s="197"/>
-      <c r="L3" s="197"/>
-      <c r="M3" s="197"/>
-      <c r="N3" s="197"/>
-      <c r="O3" s="197"/>
-      <c r="P3" s="197"/>
-      <c r="Q3" s="197"/>
-      <c r="R3" s="197"/>
-      <c r="S3" s="197" t="s">
+      <c r="B3" s="174"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="174"/>
+      <c r="I3" s="174"/>
+      <c r="J3" s="174"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="174"/>
+      <c r="P3" s="174"/>
+      <c r="Q3" s="174"/>
+      <c r="R3" s="174"/>
+      <c r="S3" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="197"/>
-      <c r="U3" s="197"/>
-      <c r="V3" s="197"/>
-      <c r="W3" s="197"/>
-      <c r="X3" s="197"/>
-      <c r="Y3" s="197"/>
-      <c r="Z3" s="197"/>
-      <c r="AA3" s="197"/>
-      <c r="AB3" s="197"/>
-      <c r="AC3" s="197" t="s">
+      <c r="T3" s="174"/>
+      <c r="U3" s="174"/>
+      <c r="V3" s="174"/>
+      <c r="W3" s="174"/>
+      <c r="X3" s="174"/>
+      <c r="Y3" s="174"/>
+      <c r="Z3" s="174"/>
+      <c r="AA3" s="174"/>
+      <c r="AB3" s="174"/>
+      <c r="AC3" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="197"/>
-      <c r="AE3" s="197"/>
-      <c r="AF3" s="197"/>
-      <c r="AG3" s="197"/>
-      <c r="AH3" s="197"/>
-      <c r="AI3" s="197"/>
-      <c r="AJ3" s="197"/>
-      <c r="AK3" s="197"/>
-      <c r="AL3" s="198"/>
-      <c r="AM3" s="199" t="s">
+      <c r="AD3" s="174"/>
+      <c r="AE3" s="174"/>
+      <c r="AF3" s="174"/>
+      <c r="AG3" s="174"/>
+      <c r="AH3" s="174"/>
+      <c r="AI3" s="174"/>
+      <c r="AJ3" s="174"/>
+      <c r="AK3" s="174"/>
+      <c r="AL3" s="175"/>
+      <c r="AM3" s="173" t="s">
         <v>161</v>
       </c>
-      <c r="AN3" s="197"/>
-      <c r="AO3" s="197"/>
-      <c r="AP3" s="197"/>
-      <c r="AQ3" s="197"/>
-      <c r="AR3" s="197"/>
-      <c r="AS3" s="197"/>
-      <c r="AT3" s="197"/>
-      <c r="AU3" s="197"/>
-      <c r="AV3" s="197"/>
-      <c r="AW3" s="197"/>
-      <c r="AX3" s="197"/>
-      <c r="AY3" s="197"/>
-      <c r="AZ3" s="197"/>
-      <c r="BA3" s="197" t="s">
+      <c r="AN3" s="174"/>
+      <c r="AO3" s="174"/>
+      <c r="AP3" s="174"/>
+      <c r="AQ3" s="174"/>
+      <c r="AR3" s="174"/>
+      <c r="AS3" s="174"/>
+      <c r="AT3" s="174"/>
+      <c r="AU3" s="174"/>
+      <c r="AV3" s="174"/>
+      <c r="AW3" s="174"/>
+      <c r="AX3" s="174"/>
+      <c r="AY3" s="174"/>
+      <c r="AZ3" s="174"/>
+      <c r="BA3" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="197"/>
-      <c r="BC3" s="197"/>
-      <c r="BD3" s="197"/>
-      <c r="BE3" s="197"/>
-      <c r="BF3" s="197"/>
-      <c r="BG3" s="197"/>
-      <c r="BH3" s="197"/>
-      <c r="BI3" s="197"/>
-      <c r="BJ3" s="197" t="s">
+      <c r="BB3" s="174"/>
+      <c r="BC3" s="174"/>
+      <c r="BD3" s="174"/>
+      <c r="BE3" s="174"/>
+      <c r="BF3" s="174"/>
+      <c r="BG3" s="174"/>
+      <c r="BH3" s="174"/>
+      <c r="BI3" s="174"/>
+      <c r="BJ3" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="BK3" s="197"/>
-      <c r="BL3" s="197"/>
-      <c r="BM3" s="197"/>
-      <c r="BN3" s="197"/>
-      <c r="BO3" s="197"/>
-      <c r="BP3" s="197"/>
-      <c r="BQ3" s="197"/>
-      <c r="BR3" s="198"/>
+      <c r="BK3" s="174"/>
+      <c r="BL3" s="174"/>
+      <c r="BM3" s="174"/>
+      <c r="BN3" s="174"/>
+      <c r="BO3" s="174"/>
+      <c r="BP3" s="174"/>
+      <c r="BQ3" s="174"/>
+      <c r="BR3" s="175"/>
     </row>
     <row r="4" spans="1:70" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="200"/>
-      <c r="B4" s="204"/>
-      <c r="C4" s="204"/>
-      <c r="D4" s="204"/>
-      <c r="E4" s="204"/>
-      <c r="F4" s="204"/>
-      <c r="G4" s="204"/>
-      <c r="H4" s="204"/>
-      <c r="I4" s="204"/>
-      <c r="J4" s="204"/>
-      <c r="K4" s="204"/>
-      <c r="L4" s="204"/>
-      <c r="M4" s="204"/>
-      <c r="N4" s="204"/>
-      <c r="O4" s="204"/>
-      <c r="P4" s="204"/>
-      <c r="Q4" s="204"/>
-      <c r="R4" s="204"/>
-      <c r="S4" s="204"/>
-      <c r="T4" s="204"/>
-      <c r="U4" s="204"/>
-      <c r="V4" s="204"/>
-      <c r="W4" s="204"/>
-      <c r="X4" s="204"/>
-      <c r="Y4" s="204"/>
-      <c r="Z4" s="204"/>
-      <c r="AA4" s="204"/>
-      <c r="AB4" s="204"/>
-      <c r="AC4" s="204"/>
-      <c r="AD4" s="204"/>
-      <c r="AE4" s="204"/>
-      <c r="AF4" s="204"/>
-      <c r="AG4" s="204"/>
-      <c r="AH4" s="204"/>
-      <c r="AI4" s="204"/>
-      <c r="AJ4" s="204"/>
-      <c r="AK4" s="204"/>
-      <c r="AL4" s="204"/>
+      <c r="A4" s="227"/>
+      <c r="B4" s="229"/>
+      <c r="C4" s="229"/>
+      <c r="D4" s="229"/>
+      <c r="E4" s="229"/>
+      <c r="F4" s="229"/>
+      <c r="G4" s="229"/>
+      <c r="H4" s="229"/>
+      <c r="I4" s="229"/>
+      <c r="J4" s="229"/>
+      <c r="K4" s="229"/>
+      <c r="L4" s="229"/>
+      <c r="M4" s="229"/>
+      <c r="N4" s="229"/>
+      <c r="O4" s="229"/>
+      <c r="P4" s="229"/>
+      <c r="Q4" s="229"/>
+      <c r="R4" s="229"/>
+      <c r="S4" s="229"/>
+      <c r="T4" s="229"/>
+      <c r="U4" s="229"/>
+      <c r="V4" s="229"/>
+      <c r="W4" s="229"/>
+      <c r="X4" s="229"/>
+      <c r="Y4" s="229"/>
+      <c r="Z4" s="229"/>
+      <c r="AA4" s="229"/>
+      <c r="AB4" s="229"/>
+      <c r="AC4" s="229"/>
+      <c r="AD4" s="229"/>
+      <c r="AE4" s="229"/>
+      <c r="AF4" s="229"/>
+      <c r="AG4" s="229"/>
+      <c r="AH4" s="229"/>
+      <c r="AI4" s="229"/>
+      <c r="AJ4" s="229"/>
+      <c r="AK4" s="229"/>
+      <c r="AL4" s="229"/>
       <c r="AM4" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="AN4" s="192" t="s">
+      <c r="AN4" s="222" t="s">
         <v>164</v>
       </c>
-      <c r="AO4" s="193"/>
-      <c r="AP4" s="194"/>
-      <c r="AQ4" s="192" t="s">
+      <c r="AO4" s="223"/>
+      <c r="AP4" s="224"/>
+      <c r="AQ4" s="222" t="s">
         <v>165</v>
       </c>
-      <c r="AR4" s="193"/>
-      <c r="AS4" s="193"/>
-      <c r="AT4" s="193"/>
-      <c r="AU4" s="193"/>
-      <c r="AV4" s="193"/>
-      <c r="AW4" s="193"/>
-      <c r="AX4" s="193"/>
-      <c r="AY4" s="193"/>
-      <c r="AZ4" s="193"/>
-      <c r="BA4" s="193"/>
-      <c r="BB4" s="193"/>
-      <c r="BC4" s="193"/>
-      <c r="BD4" s="194"/>
-      <c r="BE4" s="192" t="s">
+      <c r="AR4" s="223"/>
+      <c r="AS4" s="223"/>
+      <c r="AT4" s="223"/>
+      <c r="AU4" s="223"/>
+      <c r="AV4" s="223"/>
+      <c r="AW4" s="223"/>
+      <c r="AX4" s="223"/>
+      <c r="AY4" s="223"/>
+      <c r="AZ4" s="223"/>
+      <c r="BA4" s="223"/>
+      <c r="BB4" s="223"/>
+      <c r="BC4" s="223"/>
+      <c r="BD4" s="224"/>
+      <c r="BE4" s="222" t="s">
         <v>166</v>
       </c>
-      <c r="BF4" s="195"/>
-      <c r="BG4" s="193"/>
-      <c r="BH4" s="193"/>
-      <c r="BI4" s="193"/>
-      <c r="BJ4" s="193"/>
-      <c r="BK4" s="194"/>
-      <c r="BL4" s="192" t="s">
+      <c r="BF4" s="225"/>
+      <c r="BG4" s="223"/>
+      <c r="BH4" s="223"/>
+      <c r="BI4" s="223"/>
+      <c r="BJ4" s="223"/>
+      <c r="BK4" s="224"/>
+      <c r="BL4" s="222" t="s">
         <v>4</v>
       </c>
-      <c r="BM4" s="193"/>
-      <c r="BN4" s="193"/>
-      <c r="BO4" s="194"/>
-      <c r="BP4" s="192" t="s">
+      <c r="BM4" s="223"/>
+      <c r="BN4" s="223"/>
+      <c r="BO4" s="224"/>
+      <c r="BP4" s="222" t="s">
         <v>5</v>
       </c>
-      <c r="BQ4" s="193"/>
-      <c r="BR4" s="196"/>
+      <c r="BQ4" s="223"/>
+      <c r="BR4" s="226"/>
     </row>
     <row r="5" spans="1:70" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="201"/>
-      <c r="B5" s="233" t="s">
+      <c r="A5" s="228"/>
+      <c r="B5" s="183" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="233"/>
-      <c r="D5" s="233"/>
-      <c r="E5" s="233"/>
-      <c r="F5" s="233"/>
-      <c r="G5" s="233"/>
-      <c r="H5" s="233"/>
-      <c r="I5" s="233" t="s">
+      <c r="C5" s="183"/>
+      <c r="D5" s="183"/>
+      <c r="E5" s="183"/>
+      <c r="F5" s="183"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183" t="s">
         <v>155</v>
       </c>
-      <c r="J5" s="233"/>
-      <c r="K5" s="233"/>
-      <c r="L5" s="233"/>
-      <c r="M5" s="233"/>
-      <c r="N5" s="233"/>
-      <c r="O5" s="233"/>
-      <c r="P5" s="233" t="s">
+      <c r="J5" s="183"/>
+      <c r="K5" s="183"/>
+      <c r="L5" s="183"/>
+      <c r="M5" s="183"/>
+      <c r="N5" s="183"/>
+      <c r="O5" s="183"/>
+      <c r="P5" s="183" t="s">
         <v>156</v>
       </c>
-      <c r="Q5" s="233"/>
-      <c r="R5" s="233"/>
-      <c r="S5" s="233"/>
-      <c r="T5" s="233"/>
-      <c r="U5" s="233"/>
-      <c r="V5" s="233"/>
-      <c r="W5" s="233" t="s">
+      <c r="Q5" s="183"/>
+      <c r="R5" s="183"/>
+      <c r="S5" s="183"/>
+      <c r="T5" s="183"/>
+      <c r="U5" s="183"/>
+      <c r="V5" s="183"/>
+      <c r="W5" s="183" t="s">
         <v>157</v>
       </c>
-      <c r="X5" s="233"/>
-      <c r="Y5" s="233"/>
-      <c r="Z5" s="233"/>
-      <c r="AA5" s="233"/>
-      <c r="AB5" s="233"/>
-      <c r="AC5" s="233"/>
-      <c r="AD5" s="233" t="s">
+      <c r="X5" s="183"/>
+      <c r="Y5" s="183"/>
+      <c r="Z5" s="183"/>
+      <c r="AA5" s="183"/>
+      <c r="AB5" s="183"/>
+      <c r="AC5" s="183"/>
+      <c r="AD5" s="183" t="s">
         <v>158</v>
       </c>
-      <c r="AE5" s="233"/>
-      <c r="AF5" s="233"/>
-      <c r="AG5" s="233"/>
-      <c r="AH5" s="233"/>
-      <c r="AI5" s="233"/>
-      <c r="AJ5" s="233"/>
-      <c r="AK5" s="233" t="s">
+      <c r="AE5" s="183"/>
+      <c r="AF5" s="183"/>
+      <c r="AG5" s="183"/>
+      <c r="AH5" s="183"/>
+      <c r="AI5" s="183"/>
+      <c r="AJ5" s="183"/>
+      <c r="AK5" s="183" t="s">
         <v>159</v>
       </c>
-      <c r="AL5" s="233"/>
+      <c r="AL5" s="183"/>
       <c r="AM5" s="124" t="s">
         <v>6</v>
       </c>
@@ -5823,45 +5811,45 @@
       <c r="AQ5" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="AR5" s="202" t="s">
+      <c r="AR5" s="159" t="s">
         <v>11</v>
       </c>
-      <c r="AS5" s="203"/>
-      <c r="AT5" s="202" t="s">
+      <c r="AS5" s="160"/>
+      <c r="AT5" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="AU5" s="203"/>
-      <c r="AV5" s="202" t="s">
+      <c r="AU5" s="160"/>
+      <c r="AV5" s="159" t="s">
         <v>13</v>
       </c>
-      <c r="AW5" s="203"/>
-      <c r="AX5" s="202" t="s">
+      <c r="AW5" s="160"/>
+      <c r="AX5" s="159" t="s">
         <v>14</v>
       </c>
-      <c r="AY5" s="203"/>
-      <c r="AZ5" s="202" t="s">
+      <c r="AY5" s="160"/>
+      <c r="AZ5" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="BA5" s="203"/>
-      <c r="BB5" s="202" t="s">
+      <c r="BA5" s="160"/>
+      <c r="BB5" s="159" t="s">
         <v>16</v>
       </c>
-      <c r="BC5" s="203"/>
+      <c r="BC5" s="160"/>
       <c r="BD5" s="101" t="s">
         <v>17</v>
       </c>
-      <c r="BE5" s="249" t="s">
+      <c r="BE5" s="176" t="s">
         <v>18</v>
       </c>
-      <c r="BF5" s="203"/>
-      <c r="BG5" s="250" t="s">
+      <c r="BF5" s="160"/>
+      <c r="BG5" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="BH5" s="251"/>
-      <c r="BI5" s="250" t="s">
+      <c r="BH5" s="178"/>
+      <c r="BI5" s="177" t="s">
         <v>20</v>
       </c>
-      <c r="BJ5" s="251"/>
+      <c r="BJ5" s="178"/>
       <c r="BK5" s="103" t="s">
         <v>21</v>
       </c>
@@ -5889,193 +5877,193 @@
     </row>
     <row r="6" spans="1:70" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39"/>
-      <c r="B6" s="236" t="s">
+      <c r="B6" s="248" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="234" t="s">
+      <c r="C6" s="249" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="234" t="s">
+      <c r="D6" s="249" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="234" t="s">
+      <c r="E6" s="249" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="234" t="s">
+      <c r="F6" s="249" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="234" t="s">
+      <c r="G6" s="249" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="245" t="s">
+      <c r="H6" s="250" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="236" t="s">
+      <c r="I6" s="248" t="s">
         <v>162</v>
       </c>
-      <c r="J6" s="234" t="s">
+      <c r="J6" s="249" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="234" t="s">
+      <c r="K6" s="249" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="234" t="s">
+      <c r="L6" s="249" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="234" t="s">
+      <c r="M6" s="249" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="234" t="s">
+      <c r="N6" s="249" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="245" t="s">
+      <c r="O6" s="250" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="236" t="s">
+      <c r="P6" s="248" t="s">
         <v>162</v>
       </c>
-      <c r="Q6" s="234" t="s">
+      <c r="Q6" s="249" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="234" t="s">
+      <c r="R6" s="249" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="234" t="s">
+      <c r="S6" s="249" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="234" t="s">
+      <c r="T6" s="249" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="234" t="s">
+      <c r="U6" s="249" t="s">
         <v>53</v>
       </c>
-      <c r="V6" s="245" t="s">
+      <c r="V6" s="250" t="s">
         <v>54</v>
       </c>
-      <c r="W6" s="236" t="s">
+      <c r="W6" s="248" t="s">
         <v>162</v>
       </c>
-      <c r="X6" s="234" t="s">
+      <c r="X6" s="249" t="s">
         <v>49</v>
       </c>
-      <c r="Y6" s="234" t="s">
+      <c r="Y6" s="249" t="s">
         <v>50</v>
       </c>
-      <c r="Z6" s="234" t="s">
+      <c r="Z6" s="249" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="234" t="s">
+      <c r="AA6" s="249" t="s">
         <v>52</v>
       </c>
-      <c r="AB6" s="234" t="s">
+      <c r="AB6" s="249" t="s">
         <v>53</v>
       </c>
-      <c r="AC6" s="245" t="s">
+      <c r="AC6" s="250" t="s">
         <v>54</v>
       </c>
-      <c r="AD6" s="236" t="s">
+      <c r="AD6" s="248" t="s">
         <v>162</v>
       </c>
-      <c r="AE6" s="234" t="s">
+      <c r="AE6" s="249" t="s">
         <v>49</v>
       </c>
-      <c r="AF6" s="234" t="s">
+      <c r="AF6" s="249" t="s">
         <v>50</v>
       </c>
-      <c r="AG6" s="234" t="s">
+      <c r="AG6" s="249" t="s">
         <v>51</v>
       </c>
-      <c r="AH6" s="234" t="s">
+      <c r="AH6" s="249" t="s">
         <v>52</v>
       </c>
-      <c r="AI6" s="234" t="s">
+      <c r="AI6" s="249" t="s">
         <v>53</v>
       </c>
-      <c r="AJ6" s="245" t="s">
+      <c r="AJ6" s="250" t="s">
         <v>54</v>
       </c>
-      <c r="AK6" s="236" t="s">
+      <c r="AK6" s="248" t="s">
         <v>162</v>
       </c>
-      <c r="AL6" s="254" t="s">
+      <c r="AL6" s="251" t="s">
         <v>49</v>
       </c>
-      <c r="AM6" s="163" t="s">
+      <c r="AM6" s="232" t="s">
         <v>167</v>
       </c>
-      <c r="AN6" s="163" t="s">
+      <c r="AN6" s="232" t="s">
         <v>29</v>
       </c>
-      <c r="AO6" s="165" t="s">
+      <c r="AO6" s="181" t="s">
         <v>30</v>
       </c>
-      <c r="AP6" s="171" t="s">
+      <c r="AP6" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="AQ6" s="161" t="s">
+      <c r="AQ6" s="230" t="s">
         <v>33</v>
       </c>
-      <c r="AR6" s="167" t="s">
+      <c r="AR6" s="165" t="s">
         <v>34</v>
       </c>
-      <c r="AS6" s="168"/>
-      <c r="AT6" s="167" t="s">
+      <c r="AS6" s="166"/>
+      <c r="AT6" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="AU6" s="168"/>
-      <c r="AV6" s="167" t="s">
+      <c r="AU6" s="166"/>
+      <c r="AV6" s="165" t="s">
         <v>36</v>
       </c>
-      <c r="AW6" s="168"/>
-      <c r="AX6" s="167" t="s">
+      <c r="AW6" s="166"/>
+      <c r="AX6" s="165" t="s">
         <v>37</v>
       </c>
-      <c r="AY6" s="168"/>
-      <c r="AZ6" s="167" t="s">
+      <c r="AY6" s="166"/>
+      <c r="AZ6" s="165" t="s">
         <v>38</v>
       </c>
-      <c r="BA6" s="168"/>
-      <c r="BB6" s="167" t="s">
+      <c r="BA6" s="166"/>
+      <c r="BB6" s="165" t="s">
         <v>31</v>
       </c>
-      <c r="BC6" s="168"/>
-      <c r="BD6" s="177" t="s">
+      <c r="BC6" s="166"/>
+      <c r="BD6" s="240" t="s">
         <v>32</v>
       </c>
-      <c r="BE6" s="179" t="s">
+      <c r="BE6" s="242" t="s">
         <v>39</v>
       </c>
-      <c r="BF6" s="180"/>
-      <c r="BG6" s="181" t="s">
+      <c r="BF6" s="243"/>
+      <c r="BG6" s="244" t="s">
         <v>40</v>
       </c>
-      <c r="BH6" s="182"/>
-      <c r="BI6" s="252" t="s">
+      <c r="BH6" s="245"/>
+      <c r="BI6" s="179" t="s">
         <v>31</v>
       </c>
-      <c r="BJ6" s="253"/>
-      <c r="BK6" s="183" t="s">
+      <c r="BJ6" s="180"/>
+      <c r="BK6" s="246" t="s">
         <v>32</v>
       </c>
-      <c r="BL6" s="163" t="s">
+      <c r="BL6" s="232" t="s">
         <v>41</v>
       </c>
-      <c r="BM6" s="165" t="s">
+      <c r="BM6" s="181" t="s">
         <v>32</v>
       </c>
-      <c r="BN6" s="165" t="s">
+      <c r="BN6" s="181" t="s">
         <v>42</v>
       </c>
-      <c r="BO6" s="171" t="s">
+      <c r="BO6" s="157" t="s">
         <v>43</v>
       </c>
-      <c r="BP6" s="169" t="s">
+      <c r="BP6" s="234" t="s">
         <v>44</v>
       </c>
-      <c r="BQ6" s="175" t="s">
+      <c r="BQ6" s="238" t="s">
         <v>45</v>
       </c>
-      <c r="BR6" s="173" t="s">
+      <c r="BR6" s="236" t="s">
         <v>46</v>
       </c>
     </row>
@@ -6083,48 +6071,48 @@
       <c r="A7" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="237"/>
-      <c r="C7" s="235"/>
-      <c r="D7" s="235"/>
-      <c r="E7" s="235"/>
-      <c r="F7" s="235"/>
-      <c r="G7" s="235"/>
-      <c r="H7" s="246"/>
-      <c r="I7" s="237"/>
-      <c r="J7" s="235"/>
-      <c r="K7" s="235"/>
-      <c r="L7" s="235"/>
-      <c r="M7" s="235"/>
-      <c r="N7" s="235"/>
-      <c r="O7" s="246"/>
-      <c r="P7" s="237"/>
-      <c r="Q7" s="235"/>
-      <c r="R7" s="235"/>
-      <c r="S7" s="235"/>
-      <c r="T7" s="235"/>
-      <c r="U7" s="235"/>
-      <c r="V7" s="246"/>
-      <c r="W7" s="237"/>
-      <c r="X7" s="235"/>
-      <c r="Y7" s="235"/>
-      <c r="Z7" s="235"/>
-      <c r="AA7" s="235"/>
-      <c r="AB7" s="235"/>
-      <c r="AC7" s="246"/>
-      <c r="AD7" s="237"/>
-      <c r="AE7" s="235"/>
-      <c r="AF7" s="235"/>
-      <c r="AG7" s="235"/>
-      <c r="AH7" s="235"/>
-      <c r="AI7" s="235"/>
-      <c r="AJ7" s="246"/>
-      <c r="AK7" s="237"/>
+      <c r="B7" s="252"/>
+      <c r="C7" s="253"/>
+      <c r="D7" s="253"/>
+      <c r="E7" s="253"/>
+      <c r="F7" s="253"/>
+      <c r="G7" s="253"/>
+      <c r="H7" s="254"/>
+      <c r="I7" s="252"/>
+      <c r="J7" s="253"/>
+      <c r="K7" s="253"/>
+      <c r="L7" s="253"/>
+      <c r="M7" s="253"/>
+      <c r="N7" s="253"/>
+      <c r="O7" s="254"/>
+      <c r="P7" s="252"/>
+      <c r="Q7" s="253"/>
+      <c r="R7" s="253"/>
+      <c r="S7" s="253"/>
+      <c r="T7" s="253"/>
+      <c r="U7" s="253"/>
+      <c r="V7" s="254"/>
+      <c r="W7" s="252"/>
+      <c r="X7" s="253"/>
+      <c r="Y7" s="253"/>
+      <c r="Z7" s="253"/>
+      <c r="AA7" s="253"/>
+      <c r="AB7" s="253"/>
+      <c r="AC7" s="254"/>
+      <c r="AD7" s="252"/>
+      <c r="AE7" s="253"/>
+      <c r="AF7" s="253"/>
+      <c r="AG7" s="253"/>
+      <c r="AH7" s="253"/>
+      <c r="AI7" s="253"/>
+      <c r="AJ7" s="254"/>
+      <c r="AK7" s="252"/>
       <c r="AL7" s="255"/>
-      <c r="AM7" s="164"/>
-      <c r="AN7" s="164"/>
-      <c r="AO7" s="166"/>
-      <c r="AP7" s="172"/>
-      <c r="AQ7" s="162"/>
+      <c r="AM7" s="233"/>
+      <c r="AN7" s="233"/>
+      <c r="AO7" s="182"/>
+      <c r="AP7" s="158"/>
+      <c r="AQ7" s="231"/>
       <c r="AR7" s="93"/>
       <c r="AS7" s="95" t="s">
         <v>48</v>
@@ -6149,7 +6137,7 @@
       <c r="BC7" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="BD7" s="178"/>
+      <c r="BD7" s="241"/>
       <c r="BE7" s="94"/>
       <c r="BF7" s="95" t="s">
         <v>48</v>
@@ -6162,17 +6150,17 @@
       <c r="BJ7" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="BK7" s="184"/>
-      <c r="BL7" s="164"/>
-      <c r="BM7" s="166"/>
-      <c r="BN7" s="166"/>
-      <c r="BO7" s="172"/>
-      <c r="BP7" s="170"/>
-      <c r="BQ7" s="176"/>
-      <c r="BR7" s="174"/>
+      <c r="BK7" s="247"/>
+      <c r="BL7" s="233"/>
+      <c r="BM7" s="182"/>
+      <c r="BN7" s="182"/>
+      <c r="BO7" s="158"/>
+      <c r="BP7" s="235"/>
+      <c r="BQ7" s="239"/>
+      <c r="BR7" s="237"/>
     </row>
     <row r="8" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="239" t="s">
+      <c r="A8" s="185" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="41"/>
@@ -6237,16 +6225,16 @@
       <c r="BI8" s="141"/>
       <c r="BJ8" s="141"/>
       <c r="BK8" s="142"/>
-      <c r="BL8" s="185"/>
+      <c r="BL8" s="155"/>
       <c r="BM8" s="141"/>
       <c r="BN8" s="141"/>
-      <c r="BO8" s="187"/>
-      <c r="BP8" s="185"/>
+      <c r="BO8" s="163"/>
+      <c r="BP8" s="155"/>
       <c r="BQ8" s="141"/>
-      <c r="BR8" s="247"/>
+      <c r="BR8" s="161"/>
     </row>
     <row r="9" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="239"/>
+      <c r="A9" s="185"/>
       <c r="B9" s="125"/>
       <c r="C9" s="126"/>
       <c r="D9" s="126"/>
@@ -6309,16 +6297,16 @@
       <c r="BI9" s="148"/>
       <c r="BJ9" s="148"/>
       <c r="BK9" s="149"/>
-      <c r="BL9" s="186"/>
+      <c r="BL9" s="156"/>
       <c r="BM9" s="148"/>
       <c r="BN9" s="148"/>
-      <c r="BO9" s="188"/>
-      <c r="BP9" s="186"/>
+      <c r="BO9" s="164"/>
+      <c r="BP9" s="156"/>
       <c r="BQ9" s="148"/>
-      <c r="BR9" s="248"/>
+      <c r="BR9" s="162"/>
     </row>
     <row r="10" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="239"/>
+      <c r="A10" s="185"/>
       <c r="B10" s="109"/>
       <c r="C10" s="110"/>
       <c r="D10" s="110"/>
@@ -6356,41 +6344,41 @@
       <c r="AJ10" s="111"/>
       <c r="AK10" s="112"/>
       <c r="AL10" s="113"/>
-      <c r="AM10" s="155"/>
-      <c r="AN10" s="156"/>
-      <c r="AO10" s="156"/>
-      <c r="AP10" s="156"/>
-      <c r="AQ10" s="156"/>
-      <c r="AR10" s="156"/>
-      <c r="AS10" s="156"/>
-      <c r="AT10" s="156"/>
-      <c r="AU10" s="156"/>
-      <c r="AV10" s="156"/>
-      <c r="AW10" s="156"/>
-      <c r="AX10" s="156"/>
-      <c r="AY10" s="156"/>
-      <c r="AZ10" s="156"/>
-      <c r="BA10" s="156"/>
-      <c r="BB10" s="156"/>
-      <c r="BC10" s="156"/>
-      <c r="BD10" s="156"/>
-      <c r="BE10" s="156"/>
-      <c r="BF10" s="156"/>
-      <c r="BG10" s="156"/>
-      <c r="BH10" s="156"/>
-      <c r="BI10" s="156"/>
-      <c r="BJ10" s="156"/>
-      <c r="BK10" s="156"/>
-      <c r="BL10" s="156"/>
-      <c r="BM10" s="156"/>
-      <c r="BN10" s="156"/>
-      <c r="BO10" s="156"/>
-      <c r="BP10" s="156"/>
-      <c r="BQ10" s="156"/>
-      <c r="BR10" s="157"/>
+      <c r="AM10" s="167"/>
+      <c r="AN10" s="168"/>
+      <c r="AO10" s="168"/>
+      <c r="AP10" s="168"/>
+      <c r="AQ10" s="168"/>
+      <c r="AR10" s="168"/>
+      <c r="AS10" s="168"/>
+      <c r="AT10" s="168"/>
+      <c r="AU10" s="168"/>
+      <c r="AV10" s="168"/>
+      <c r="AW10" s="168"/>
+      <c r="AX10" s="168"/>
+      <c r="AY10" s="168"/>
+      <c r="AZ10" s="168"/>
+      <c r="BA10" s="168"/>
+      <c r="BB10" s="168"/>
+      <c r="BC10" s="168"/>
+      <c r="BD10" s="168"/>
+      <c r="BE10" s="168"/>
+      <c r="BF10" s="168"/>
+      <c r="BG10" s="168"/>
+      <c r="BH10" s="168"/>
+      <c r="BI10" s="168"/>
+      <c r="BJ10" s="168"/>
+      <c r="BK10" s="168"/>
+      <c r="BL10" s="168"/>
+      <c r="BM10" s="168"/>
+      <c r="BN10" s="168"/>
+      <c r="BO10" s="168"/>
+      <c r="BP10" s="168"/>
+      <c r="BQ10" s="168"/>
+      <c r="BR10" s="169"/>
     </row>
     <row r="11" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="240"/>
+      <c r="A11" s="186"/>
       <c r="B11" s="61"/>
       <c r="C11" s="62"/>
       <c r="D11" s="62"/>
@@ -6428,41 +6416,41 @@
       <c r="AJ11" s="63"/>
       <c r="AK11" s="64"/>
       <c r="AL11" s="65"/>
-      <c r="AM11" s="158"/>
-      <c r="AN11" s="159"/>
-      <c r="AO11" s="159"/>
-      <c r="AP11" s="159"/>
-      <c r="AQ11" s="159"/>
-      <c r="AR11" s="159"/>
-      <c r="AS11" s="159"/>
-      <c r="AT11" s="159"/>
-      <c r="AU11" s="159"/>
-      <c r="AV11" s="159"/>
-      <c r="AW11" s="159"/>
-      <c r="AX11" s="159"/>
-      <c r="AY11" s="159"/>
-      <c r="AZ11" s="159"/>
-      <c r="BA11" s="159"/>
-      <c r="BB11" s="159"/>
-      <c r="BC11" s="159"/>
-      <c r="BD11" s="159"/>
-      <c r="BE11" s="159"/>
-      <c r="BF11" s="159"/>
-      <c r="BG11" s="159"/>
-      <c r="BH11" s="159"/>
-      <c r="BI11" s="159"/>
-      <c r="BJ11" s="159"/>
-      <c r="BK11" s="159"/>
-      <c r="BL11" s="159"/>
-      <c r="BM11" s="159"/>
-      <c r="BN11" s="159"/>
-      <c r="BO11" s="159"/>
-      <c r="BP11" s="159"/>
-      <c r="BQ11" s="159"/>
-      <c r="BR11" s="160"/>
+      <c r="AM11" s="170"/>
+      <c r="AN11" s="171"/>
+      <c r="AO11" s="171"/>
+      <c r="AP11" s="171"/>
+      <c r="AQ11" s="171"/>
+      <c r="AR11" s="171"/>
+      <c r="AS11" s="171"/>
+      <c r="AT11" s="171"/>
+      <c r="AU11" s="171"/>
+      <c r="AV11" s="171"/>
+      <c r="AW11" s="171"/>
+      <c r="AX11" s="171"/>
+      <c r="AY11" s="171"/>
+      <c r="AZ11" s="171"/>
+      <c r="BA11" s="171"/>
+      <c r="BB11" s="171"/>
+      <c r="BC11" s="171"/>
+      <c r="BD11" s="171"/>
+      <c r="BE11" s="171"/>
+      <c r="BF11" s="171"/>
+      <c r="BG11" s="171"/>
+      <c r="BH11" s="171"/>
+      <c r="BI11" s="171"/>
+      <c r="BJ11" s="171"/>
+      <c r="BK11" s="171"/>
+      <c r="BL11" s="171"/>
+      <c r="BM11" s="171"/>
+      <c r="BN11" s="171"/>
+      <c r="BO11" s="171"/>
+      <c r="BP11" s="171"/>
+      <c r="BQ11" s="171"/>
+      <c r="BR11" s="172"/>
     </row>
     <row r="12" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="238" t="s">
+      <c r="A12" s="184" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="46"/>
@@ -6527,16 +6515,16 @@
       <c r="BI12" s="141"/>
       <c r="BJ12" s="141"/>
       <c r="BK12" s="142"/>
-      <c r="BL12" s="185"/>
+      <c r="BL12" s="155"/>
       <c r="BM12" s="141"/>
       <c r="BN12" s="141"/>
-      <c r="BO12" s="187"/>
-      <c r="BP12" s="185"/>
+      <c r="BO12" s="163"/>
+      <c r="BP12" s="155"/>
       <c r="BQ12" s="141"/>
-      <c r="BR12" s="247"/>
+      <c r="BR12" s="161"/>
     </row>
     <row r="13" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="239"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="130"/>
       <c r="C13" s="131"/>
       <c r="D13" s="131"/>
@@ -6599,16 +6587,16 @@
       <c r="BI13" s="148"/>
       <c r="BJ13" s="148"/>
       <c r="BK13" s="149"/>
-      <c r="BL13" s="186"/>
+      <c r="BL13" s="156"/>
       <c r="BM13" s="148"/>
       <c r="BN13" s="148"/>
-      <c r="BO13" s="188"/>
-      <c r="BP13" s="186"/>
+      <c r="BO13" s="164"/>
+      <c r="BP13" s="156"/>
       <c r="BQ13" s="148"/>
-      <c r="BR13" s="248"/>
+      <c r="BR13" s="162"/>
     </row>
     <row r="14" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="239"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="87"/>
       <c r="C14" s="88"/>
       <c r="D14" s="88"/>
@@ -6646,41 +6634,41 @@
       <c r="AJ14" s="89"/>
       <c r="AK14" s="91"/>
       <c r="AL14" s="92"/>
-      <c r="AM14" s="155"/>
-      <c r="AN14" s="156"/>
-      <c r="AO14" s="156"/>
-      <c r="AP14" s="156"/>
-      <c r="AQ14" s="156"/>
-      <c r="AR14" s="156"/>
-      <c r="AS14" s="156"/>
-      <c r="AT14" s="156"/>
-      <c r="AU14" s="156"/>
-      <c r="AV14" s="156"/>
-      <c r="AW14" s="156"/>
-      <c r="AX14" s="156"/>
-      <c r="AY14" s="156"/>
-      <c r="AZ14" s="156"/>
-      <c r="BA14" s="156"/>
-      <c r="BB14" s="156"/>
-      <c r="BC14" s="156"/>
-      <c r="BD14" s="156"/>
-      <c r="BE14" s="156"/>
-      <c r="BF14" s="156"/>
-      <c r="BG14" s="156"/>
-      <c r="BH14" s="156"/>
-      <c r="BI14" s="156"/>
-      <c r="BJ14" s="156"/>
-      <c r="BK14" s="156"/>
-      <c r="BL14" s="156"/>
-      <c r="BM14" s="156"/>
-      <c r="BN14" s="156"/>
-      <c r="BO14" s="156"/>
-      <c r="BP14" s="156"/>
-      <c r="BQ14" s="156"/>
-      <c r="BR14" s="157"/>
+      <c r="AM14" s="167"/>
+      <c r="AN14" s="168"/>
+      <c r="AO14" s="168"/>
+      <c r="AP14" s="168"/>
+      <c r="AQ14" s="168"/>
+      <c r="AR14" s="168"/>
+      <c r="AS14" s="168"/>
+      <c r="AT14" s="168"/>
+      <c r="AU14" s="168"/>
+      <c r="AV14" s="168"/>
+      <c r="AW14" s="168"/>
+      <c r="AX14" s="168"/>
+      <c r="AY14" s="168"/>
+      <c r="AZ14" s="168"/>
+      <c r="BA14" s="168"/>
+      <c r="BB14" s="168"/>
+      <c r="BC14" s="168"/>
+      <c r="BD14" s="168"/>
+      <c r="BE14" s="168"/>
+      <c r="BF14" s="168"/>
+      <c r="BG14" s="168"/>
+      <c r="BH14" s="168"/>
+      <c r="BI14" s="168"/>
+      <c r="BJ14" s="168"/>
+      <c r="BK14" s="168"/>
+      <c r="BL14" s="168"/>
+      <c r="BM14" s="168"/>
+      <c r="BN14" s="168"/>
+      <c r="BO14" s="168"/>
+      <c r="BP14" s="168"/>
+      <c r="BQ14" s="168"/>
+      <c r="BR14" s="169"/>
     </row>
     <row r="15" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="239"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
       <c r="D15" s="67"/>
@@ -6718,41 +6706,41 @@
       <c r="AJ15" s="68"/>
       <c r="AK15" s="70"/>
       <c r="AL15" s="71"/>
-      <c r="AM15" s="158"/>
-      <c r="AN15" s="159"/>
-      <c r="AO15" s="159"/>
-      <c r="AP15" s="159"/>
-      <c r="AQ15" s="159"/>
-      <c r="AR15" s="159"/>
-      <c r="AS15" s="159"/>
-      <c r="AT15" s="159"/>
-      <c r="AU15" s="159"/>
-      <c r="AV15" s="159"/>
-      <c r="AW15" s="159"/>
-      <c r="AX15" s="159"/>
-      <c r="AY15" s="159"/>
-      <c r="AZ15" s="159"/>
-      <c r="BA15" s="159"/>
-      <c r="BB15" s="159"/>
-      <c r="BC15" s="159"/>
-      <c r="BD15" s="159"/>
-      <c r="BE15" s="159"/>
-      <c r="BF15" s="159"/>
-      <c r="BG15" s="159"/>
-      <c r="BH15" s="159"/>
-      <c r="BI15" s="159"/>
-      <c r="BJ15" s="159"/>
-      <c r="BK15" s="159"/>
-      <c r="BL15" s="159"/>
-      <c r="BM15" s="159"/>
-      <c r="BN15" s="159"/>
-      <c r="BO15" s="159"/>
-      <c r="BP15" s="159"/>
-      <c r="BQ15" s="159"/>
-      <c r="BR15" s="160"/>
+      <c r="AM15" s="170"/>
+      <c r="AN15" s="171"/>
+      <c r="AO15" s="171"/>
+      <c r="AP15" s="171"/>
+      <c r="AQ15" s="171"/>
+      <c r="AR15" s="171"/>
+      <c r="AS15" s="171"/>
+      <c r="AT15" s="171"/>
+      <c r="AU15" s="171"/>
+      <c r="AV15" s="171"/>
+      <c r="AW15" s="171"/>
+      <c r="AX15" s="171"/>
+      <c r="AY15" s="171"/>
+      <c r="AZ15" s="171"/>
+      <c r="BA15" s="171"/>
+      <c r="BB15" s="171"/>
+      <c r="BC15" s="171"/>
+      <c r="BD15" s="171"/>
+      <c r="BE15" s="171"/>
+      <c r="BF15" s="171"/>
+      <c r="BG15" s="171"/>
+      <c r="BH15" s="171"/>
+      <c r="BI15" s="171"/>
+      <c r="BJ15" s="171"/>
+      <c r="BK15" s="171"/>
+      <c r="BL15" s="171"/>
+      <c r="BM15" s="171"/>
+      <c r="BN15" s="171"/>
+      <c r="BO15" s="171"/>
+      <c r="BP15" s="171"/>
+      <c r="BQ15" s="171"/>
+      <c r="BR15" s="172"/>
     </row>
     <row r="16" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="238" t="s">
+      <c r="A16" s="184" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="49"/>
@@ -6817,16 +6805,16 @@
       <c r="BI16" s="141"/>
       <c r="BJ16" s="141"/>
       <c r="BK16" s="142"/>
-      <c r="BL16" s="185"/>
+      <c r="BL16" s="155"/>
       <c r="BM16" s="141"/>
       <c r="BN16" s="141"/>
-      <c r="BO16" s="187"/>
-      <c r="BP16" s="185"/>
+      <c r="BO16" s="163"/>
+      <c r="BP16" s="155"/>
       <c r="BQ16" s="141"/>
-      <c r="BR16" s="247"/>
+      <c r="BR16" s="161"/>
     </row>
     <row r="17" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="239"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="130"/>
       <c r="C17" s="131"/>
       <c r="D17" s="131"/>
@@ -6889,16 +6877,16 @@
       <c r="BI17" s="148"/>
       <c r="BJ17" s="148"/>
       <c r="BK17" s="149"/>
-      <c r="BL17" s="186"/>
+      <c r="BL17" s="156"/>
       <c r="BM17" s="148"/>
       <c r="BN17" s="148"/>
-      <c r="BO17" s="188"/>
-      <c r="BP17" s="186"/>
+      <c r="BO17" s="164"/>
+      <c r="BP17" s="156"/>
       <c r="BQ17" s="148"/>
-      <c r="BR17" s="248"/>
+      <c r="BR17" s="162"/>
     </row>
     <row r="18" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="239"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="87"/>
       <c r="C18" s="88"/>
       <c r="D18" s="88"/>
@@ -6936,41 +6924,41 @@
       <c r="AJ18" s="89"/>
       <c r="AK18" s="91"/>
       <c r="AL18" s="92"/>
-      <c r="AM18" s="155"/>
-      <c r="AN18" s="156"/>
-      <c r="AO18" s="156"/>
-      <c r="AP18" s="156"/>
-      <c r="AQ18" s="156"/>
-      <c r="AR18" s="156"/>
-      <c r="AS18" s="156"/>
-      <c r="AT18" s="156"/>
-      <c r="AU18" s="156"/>
-      <c r="AV18" s="156"/>
-      <c r="AW18" s="156"/>
-      <c r="AX18" s="156"/>
-      <c r="AY18" s="156"/>
-      <c r="AZ18" s="156"/>
-      <c r="BA18" s="156"/>
-      <c r="BB18" s="156"/>
-      <c r="BC18" s="156"/>
-      <c r="BD18" s="156"/>
-      <c r="BE18" s="156"/>
-      <c r="BF18" s="156"/>
-      <c r="BG18" s="156"/>
-      <c r="BH18" s="156"/>
-      <c r="BI18" s="156"/>
-      <c r="BJ18" s="156"/>
-      <c r="BK18" s="156"/>
-      <c r="BL18" s="156"/>
-      <c r="BM18" s="156"/>
-      <c r="BN18" s="156"/>
-      <c r="BO18" s="156"/>
-      <c r="BP18" s="156"/>
-      <c r="BQ18" s="156"/>
-      <c r="BR18" s="157"/>
+      <c r="AM18" s="167"/>
+      <c r="AN18" s="168"/>
+      <c r="AO18" s="168"/>
+      <c r="AP18" s="168"/>
+      <c r="AQ18" s="168"/>
+      <c r="AR18" s="168"/>
+      <c r="AS18" s="168"/>
+      <c r="AT18" s="168"/>
+      <c r="AU18" s="168"/>
+      <c r="AV18" s="168"/>
+      <c r="AW18" s="168"/>
+      <c r="AX18" s="168"/>
+      <c r="AY18" s="168"/>
+      <c r="AZ18" s="168"/>
+      <c r="BA18" s="168"/>
+      <c r="BB18" s="168"/>
+      <c r="BC18" s="168"/>
+      <c r="BD18" s="168"/>
+      <c r="BE18" s="168"/>
+      <c r="BF18" s="168"/>
+      <c r="BG18" s="168"/>
+      <c r="BH18" s="168"/>
+      <c r="BI18" s="168"/>
+      <c r="BJ18" s="168"/>
+      <c r="BK18" s="168"/>
+      <c r="BL18" s="168"/>
+      <c r="BM18" s="168"/>
+      <c r="BN18" s="168"/>
+      <c r="BO18" s="168"/>
+      <c r="BP18" s="168"/>
+      <c r="BQ18" s="168"/>
+      <c r="BR18" s="169"/>
     </row>
     <row r="19" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="240"/>
+      <c r="A19" s="186"/>
       <c r="B19" s="72"/>
       <c r="C19" s="73"/>
       <c r="D19" s="73"/>
@@ -7008,41 +6996,41 @@
       <c r="AJ19" s="74"/>
       <c r="AK19" s="75"/>
       <c r="AL19" s="76"/>
-      <c r="AM19" s="158"/>
-      <c r="AN19" s="159"/>
-      <c r="AO19" s="159"/>
-      <c r="AP19" s="159"/>
-      <c r="AQ19" s="159"/>
-      <c r="AR19" s="159"/>
-      <c r="AS19" s="159"/>
-      <c r="AT19" s="159"/>
-      <c r="AU19" s="159"/>
-      <c r="AV19" s="159"/>
-      <c r="AW19" s="159"/>
-      <c r="AX19" s="159"/>
-      <c r="AY19" s="159"/>
-      <c r="AZ19" s="159"/>
-      <c r="BA19" s="159"/>
-      <c r="BB19" s="159"/>
-      <c r="BC19" s="159"/>
-      <c r="BD19" s="159"/>
-      <c r="BE19" s="159"/>
-      <c r="BF19" s="159"/>
-      <c r="BG19" s="159"/>
-      <c r="BH19" s="159"/>
-      <c r="BI19" s="159"/>
-      <c r="BJ19" s="159"/>
-      <c r="BK19" s="159"/>
-      <c r="BL19" s="159"/>
-      <c r="BM19" s="159"/>
-      <c r="BN19" s="159"/>
-      <c r="BO19" s="159"/>
-      <c r="BP19" s="159"/>
-      <c r="BQ19" s="159"/>
-      <c r="BR19" s="160"/>
+      <c r="AM19" s="170"/>
+      <c r="AN19" s="171"/>
+      <c r="AO19" s="171"/>
+      <c r="AP19" s="171"/>
+      <c r="AQ19" s="171"/>
+      <c r="AR19" s="171"/>
+      <c r="AS19" s="171"/>
+      <c r="AT19" s="171"/>
+      <c r="AU19" s="171"/>
+      <c r="AV19" s="171"/>
+      <c r="AW19" s="171"/>
+      <c r="AX19" s="171"/>
+      <c r="AY19" s="171"/>
+      <c r="AZ19" s="171"/>
+      <c r="BA19" s="171"/>
+      <c r="BB19" s="171"/>
+      <c r="BC19" s="171"/>
+      <c r="BD19" s="171"/>
+      <c r="BE19" s="171"/>
+      <c r="BF19" s="171"/>
+      <c r="BG19" s="171"/>
+      <c r="BH19" s="171"/>
+      <c r="BI19" s="171"/>
+      <c r="BJ19" s="171"/>
+      <c r="BK19" s="171"/>
+      <c r="BL19" s="171"/>
+      <c r="BM19" s="171"/>
+      <c r="BN19" s="171"/>
+      <c r="BO19" s="171"/>
+      <c r="BP19" s="171"/>
+      <c r="BQ19" s="171"/>
+      <c r="BR19" s="172"/>
     </row>
     <row r="20" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="239" t="s">
+      <c r="A20" s="185" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="44"/>
@@ -7107,16 +7095,16 @@
       <c r="BI20" s="141"/>
       <c r="BJ20" s="141"/>
       <c r="BK20" s="142"/>
-      <c r="BL20" s="185"/>
+      <c r="BL20" s="155"/>
       <c r="BM20" s="141"/>
       <c r="BN20" s="141"/>
-      <c r="BO20" s="187"/>
-      <c r="BP20" s="185"/>
+      <c r="BO20" s="163"/>
+      <c r="BP20" s="155"/>
       <c r="BQ20" s="141"/>
-      <c r="BR20" s="247"/>
+      <c r="BR20" s="161"/>
     </row>
     <row r="21" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="239"/>
+      <c r="A21" s="185"/>
       <c r="B21" s="134"/>
       <c r="C21" s="131"/>
       <c r="D21" s="131"/>
@@ -7179,16 +7167,16 @@
       <c r="BI21" s="148"/>
       <c r="BJ21" s="148"/>
       <c r="BK21" s="149"/>
-      <c r="BL21" s="186"/>
+      <c r="BL21" s="156"/>
       <c r="BM21" s="148"/>
       <c r="BN21" s="148"/>
-      <c r="BO21" s="188"/>
-      <c r="BP21" s="186"/>
+      <c r="BO21" s="164"/>
+      <c r="BP21" s="156"/>
       <c r="BQ21" s="148"/>
-      <c r="BR21" s="248"/>
+      <c r="BR21" s="162"/>
     </row>
     <row r="22" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="239"/>
+      <c r="A22" s="185"/>
       <c r="B22" s="87"/>
       <c r="C22" s="88"/>
       <c r="D22" s="88"/>
@@ -7226,41 +7214,41 @@
       <c r="AJ22" s="89"/>
       <c r="AK22" s="91"/>
       <c r="AL22" s="92"/>
-      <c r="AM22" s="155"/>
-      <c r="AN22" s="156"/>
-      <c r="AO22" s="156"/>
-      <c r="AP22" s="156"/>
-      <c r="AQ22" s="156"/>
-      <c r="AR22" s="156"/>
-      <c r="AS22" s="156"/>
-      <c r="AT22" s="156"/>
-      <c r="AU22" s="156"/>
-      <c r="AV22" s="156"/>
-      <c r="AW22" s="156"/>
-      <c r="AX22" s="156"/>
-      <c r="AY22" s="156"/>
-      <c r="AZ22" s="156"/>
-      <c r="BA22" s="156"/>
-      <c r="BB22" s="156"/>
-      <c r="BC22" s="156"/>
-      <c r="BD22" s="156"/>
-      <c r="BE22" s="156"/>
-      <c r="BF22" s="156"/>
-      <c r="BG22" s="156"/>
-      <c r="BH22" s="156"/>
-      <c r="BI22" s="156"/>
-      <c r="BJ22" s="156"/>
-      <c r="BK22" s="156"/>
-      <c r="BL22" s="156"/>
-      <c r="BM22" s="156"/>
-      <c r="BN22" s="156"/>
-      <c r="BO22" s="156"/>
-      <c r="BP22" s="156"/>
-      <c r="BQ22" s="156"/>
-      <c r="BR22" s="157"/>
+      <c r="AM22" s="167"/>
+      <c r="AN22" s="168"/>
+      <c r="AO22" s="168"/>
+      <c r="AP22" s="168"/>
+      <c r="AQ22" s="168"/>
+      <c r="AR22" s="168"/>
+      <c r="AS22" s="168"/>
+      <c r="AT22" s="168"/>
+      <c r="AU22" s="168"/>
+      <c r="AV22" s="168"/>
+      <c r="AW22" s="168"/>
+      <c r="AX22" s="168"/>
+      <c r="AY22" s="168"/>
+      <c r="AZ22" s="168"/>
+      <c r="BA22" s="168"/>
+      <c r="BB22" s="168"/>
+      <c r="BC22" s="168"/>
+      <c r="BD22" s="168"/>
+      <c r="BE22" s="168"/>
+      <c r="BF22" s="168"/>
+      <c r="BG22" s="168"/>
+      <c r="BH22" s="168"/>
+      <c r="BI22" s="168"/>
+      <c r="BJ22" s="168"/>
+      <c r="BK22" s="168"/>
+      <c r="BL22" s="168"/>
+      <c r="BM22" s="168"/>
+      <c r="BN22" s="168"/>
+      <c r="BO22" s="168"/>
+      <c r="BP22" s="168"/>
+      <c r="BQ22" s="168"/>
+      <c r="BR22" s="169"/>
     </row>
     <row r="23" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="240"/>
+      <c r="A23" s="186"/>
       <c r="B23" s="70"/>
       <c r="C23" s="67"/>
       <c r="D23" s="67"/>
@@ -7298,41 +7286,41 @@
       <c r="AJ23" s="68"/>
       <c r="AK23" s="70"/>
       <c r="AL23" s="71"/>
-      <c r="AM23" s="158"/>
-      <c r="AN23" s="159"/>
-      <c r="AO23" s="159"/>
-      <c r="AP23" s="159"/>
-      <c r="AQ23" s="159"/>
-      <c r="AR23" s="159"/>
-      <c r="AS23" s="159"/>
-      <c r="AT23" s="159"/>
-      <c r="AU23" s="159"/>
-      <c r="AV23" s="159"/>
-      <c r="AW23" s="159"/>
-      <c r="AX23" s="159"/>
-      <c r="AY23" s="159"/>
-      <c r="AZ23" s="159"/>
-      <c r="BA23" s="159"/>
-      <c r="BB23" s="159"/>
-      <c r="BC23" s="159"/>
-      <c r="BD23" s="159"/>
-      <c r="BE23" s="159"/>
-      <c r="BF23" s="159"/>
-      <c r="BG23" s="159"/>
-      <c r="BH23" s="159"/>
-      <c r="BI23" s="159"/>
-      <c r="BJ23" s="159"/>
-      <c r="BK23" s="159"/>
-      <c r="BL23" s="159"/>
-      <c r="BM23" s="159"/>
-      <c r="BN23" s="159"/>
-      <c r="BO23" s="159"/>
-      <c r="BP23" s="159"/>
-      <c r="BQ23" s="159"/>
-      <c r="BR23" s="160"/>
+      <c r="AM23" s="170"/>
+      <c r="AN23" s="171"/>
+      <c r="AO23" s="171"/>
+      <c r="AP23" s="171"/>
+      <c r="AQ23" s="171"/>
+      <c r="AR23" s="171"/>
+      <c r="AS23" s="171"/>
+      <c r="AT23" s="171"/>
+      <c r="AU23" s="171"/>
+      <c r="AV23" s="171"/>
+      <c r="AW23" s="171"/>
+      <c r="AX23" s="171"/>
+      <c r="AY23" s="171"/>
+      <c r="AZ23" s="171"/>
+      <c r="BA23" s="171"/>
+      <c r="BB23" s="171"/>
+      <c r="BC23" s="171"/>
+      <c r="BD23" s="171"/>
+      <c r="BE23" s="171"/>
+      <c r="BF23" s="171"/>
+      <c r="BG23" s="171"/>
+      <c r="BH23" s="171"/>
+      <c r="BI23" s="171"/>
+      <c r="BJ23" s="171"/>
+      <c r="BK23" s="171"/>
+      <c r="BL23" s="171"/>
+      <c r="BM23" s="171"/>
+      <c r="BN23" s="171"/>
+      <c r="BO23" s="171"/>
+      <c r="BP23" s="171"/>
+      <c r="BQ23" s="171"/>
+      <c r="BR23" s="172"/>
     </row>
     <row r="24" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="238" t="s">
+      <c r="A24" s="184" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="49"/>
@@ -7397,16 +7385,16 @@
       <c r="BI24" s="141"/>
       <c r="BJ24" s="141"/>
       <c r="BK24" s="142"/>
-      <c r="BL24" s="185"/>
+      <c r="BL24" s="155"/>
       <c r="BM24" s="141"/>
       <c r="BN24" s="141"/>
-      <c r="BO24" s="187"/>
-      <c r="BP24" s="185"/>
+      <c r="BO24" s="163"/>
+      <c r="BP24" s="155"/>
       <c r="BQ24" s="141"/>
-      <c r="BR24" s="247"/>
+      <c r="BR24" s="161"/>
     </row>
     <row r="25" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="239"/>
+      <c r="A25" s="185"/>
       <c r="B25" s="134"/>
       <c r="C25" s="131"/>
       <c r="D25" s="131"/>
@@ -7469,16 +7457,16 @@
       <c r="BI25" s="148"/>
       <c r="BJ25" s="148"/>
       <c r="BK25" s="149"/>
-      <c r="BL25" s="186"/>
+      <c r="BL25" s="156"/>
       <c r="BM25" s="148"/>
       <c r="BN25" s="148"/>
-      <c r="BO25" s="188"/>
-      <c r="BP25" s="186"/>
+      <c r="BO25" s="164"/>
+      <c r="BP25" s="156"/>
       <c r="BQ25" s="148"/>
-      <c r="BR25" s="248"/>
+      <c r="BR25" s="162"/>
     </row>
     <row r="26" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="239"/>
+      <c r="A26" s="185"/>
       <c r="B26" s="87"/>
       <c r="C26" s="88"/>
       <c r="D26" s="88"/>
@@ -7516,41 +7504,41 @@
       <c r="AJ26" s="89"/>
       <c r="AK26" s="91"/>
       <c r="AL26" s="92"/>
-      <c r="AM26" s="155"/>
-      <c r="AN26" s="156"/>
-      <c r="AO26" s="156"/>
-      <c r="AP26" s="156"/>
-      <c r="AQ26" s="156"/>
-      <c r="AR26" s="156"/>
-      <c r="AS26" s="156"/>
-      <c r="AT26" s="156"/>
-      <c r="AU26" s="156"/>
-      <c r="AV26" s="156"/>
-      <c r="AW26" s="156"/>
-      <c r="AX26" s="156"/>
-      <c r="AY26" s="156"/>
-      <c r="AZ26" s="156"/>
-      <c r="BA26" s="156"/>
-      <c r="BB26" s="156"/>
-      <c r="BC26" s="156"/>
-      <c r="BD26" s="156"/>
-      <c r="BE26" s="156"/>
-      <c r="BF26" s="156"/>
-      <c r="BG26" s="156"/>
-      <c r="BH26" s="156"/>
-      <c r="BI26" s="156"/>
-      <c r="BJ26" s="156"/>
-      <c r="BK26" s="156"/>
-      <c r="BL26" s="156"/>
-      <c r="BM26" s="156"/>
-      <c r="BN26" s="156"/>
-      <c r="BO26" s="156"/>
-      <c r="BP26" s="156"/>
-      <c r="BQ26" s="156"/>
-      <c r="BR26" s="157"/>
+      <c r="AM26" s="167"/>
+      <c r="AN26" s="168"/>
+      <c r="AO26" s="168"/>
+      <c r="AP26" s="168"/>
+      <c r="AQ26" s="168"/>
+      <c r="AR26" s="168"/>
+      <c r="AS26" s="168"/>
+      <c r="AT26" s="168"/>
+      <c r="AU26" s="168"/>
+      <c r="AV26" s="168"/>
+      <c r="AW26" s="168"/>
+      <c r="AX26" s="168"/>
+      <c r="AY26" s="168"/>
+      <c r="AZ26" s="168"/>
+      <c r="BA26" s="168"/>
+      <c r="BB26" s="168"/>
+      <c r="BC26" s="168"/>
+      <c r="BD26" s="168"/>
+      <c r="BE26" s="168"/>
+      <c r="BF26" s="168"/>
+      <c r="BG26" s="168"/>
+      <c r="BH26" s="168"/>
+      <c r="BI26" s="168"/>
+      <c r="BJ26" s="168"/>
+      <c r="BK26" s="168"/>
+      <c r="BL26" s="168"/>
+      <c r="BM26" s="168"/>
+      <c r="BN26" s="168"/>
+      <c r="BO26" s="168"/>
+      <c r="BP26" s="168"/>
+      <c r="BQ26" s="168"/>
+      <c r="BR26" s="169"/>
     </row>
     <row r="27" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="240"/>
+      <c r="A27" s="186"/>
       <c r="B27" s="70"/>
       <c r="C27" s="67"/>
       <c r="D27" s="67"/>
@@ -7588,41 +7576,41 @@
       <c r="AJ27" s="68"/>
       <c r="AK27" s="70"/>
       <c r="AL27" s="71"/>
-      <c r="AM27" s="158"/>
-      <c r="AN27" s="159"/>
-      <c r="AO27" s="159"/>
-      <c r="AP27" s="159"/>
-      <c r="AQ27" s="159"/>
-      <c r="AR27" s="159"/>
-      <c r="AS27" s="159"/>
-      <c r="AT27" s="159"/>
-      <c r="AU27" s="159"/>
-      <c r="AV27" s="159"/>
-      <c r="AW27" s="159"/>
-      <c r="AX27" s="159"/>
-      <c r="AY27" s="159"/>
-      <c r="AZ27" s="159"/>
-      <c r="BA27" s="159"/>
-      <c r="BB27" s="159"/>
-      <c r="BC27" s="159"/>
-      <c r="BD27" s="159"/>
-      <c r="BE27" s="159"/>
-      <c r="BF27" s="159"/>
-      <c r="BG27" s="159"/>
-      <c r="BH27" s="159"/>
-      <c r="BI27" s="159"/>
-      <c r="BJ27" s="159"/>
-      <c r="BK27" s="159"/>
-      <c r="BL27" s="159"/>
-      <c r="BM27" s="159"/>
-      <c r="BN27" s="159"/>
-      <c r="BO27" s="159"/>
-      <c r="BP27" s="159"/>
-      <c r="BQ27" s="159"/>
-      <c r="BR27" s="160"/>
+      <c r="AM27" s="170"/>
+      <c r="AN27" s="171"/>
+      <c r="AO27" s="171"/>
+      <c r="AP27" s="171"/>
+      <c r="AQ27" s="171"/>
+      <c r="AR27" s="171"/>
+      <c r="AS27" s="171"/>
+      <c r="AT27" s="171"/>
+      <c r="AU27" s="171"/>
+      <c r="AV27" s="171"/>
+      <c r="AW27" s="171"/>
+      <c r="AX27" s="171"/>
+      <c r="AY27" s="171"/>
+      <c r="AZ27" s="171"/>
+      <c r="BA27" s="171"/>
+      <c r="BB27" s="171"/>
+      <c r="BC27" s="171"/>
+      <c r="BD27" s="171"/>
+      <c r="BE27" s="171"/>
+      <c r="BF27" s="171"/>
+      <c r="BG27" s="171"/>
+      <c r="BH27" s="171"/>
+      <c r="BI27" s="171"/>
+      <c r="BJ27" s="171"/>
+      <c r="BK27" s="171"/>
+      <c r="BL27" s="171"/>
+      <c r="BM27" s="171"/>
+      <c r="BN27" s="171"/>
+      <c r="BO27" s="171"/>
+      <c r="BP27" s="171"/>
+      <c r="BQ27" s="171"/>
+      <c r="BR27" s="172"/>
     </row>
     <row r="28" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="238" t="s">
+      <c r="A28" s="184" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="49"/>
@@ -7687,16 +7675,16 @@
       <c r="BI28" s="141"/>
       <c r="BJ28" s="141"/>
       <c r="BK28" s="142"/>
-      <c r="BL28" s="185"/>
+      <c r="BL28" s="155"/>
       <c r="BM28" s="141"/>
       <c r="BN28" s="141"/>
-      <c r="BO28" s="187"/>
-      <c r="BP28" s="185"/>
+      <c r="BO28" s="163"/>
+      <c r="BP28" s="155"/>
       <c r="BQ28" s="141"/>
-      <c r="BR28" s="247"/>
+      <c r="BR28" s="161"/>
     </row>
     <row r="29" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="239"/>
+      <c r="A29" s="185"/>
       <c r="B29" s="134"/>
       <c r="C29" s="131"/>
       <c r="D29" s="131"/>
@@ -7759,16 +7747,16 @@
       <c r="BI29" s="148"/>
       <c r="BJ29" s="148"/>
       <c r="BK29" s="149"/>
-      <c r="BL29" s="186"/>
+      <c r="BL29" s="156"/>
       <c r="BM29" s="148"/>
       <c r="BN29" s="148"/>
-      <c r="BO29" s="188"/>
-      <c r="BP29" s="186"/>
+      <c r="BO29" s="164"/>
+      <c r="BP29" s="156"/>
       <c r="BQ29" s="148"/>
-      <c r="BR29" s="248"/>
+      <c r="BR29" s="162"/>
     </row>
     <row r="30" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="239"/>
+      <c r="A30" s="185"/>
       <c r="B30" s="87"/>
       <c r="C30" s="88"/>
       <c r="D30" s="88"/>
@@ -7806,41 +7794,41 @@
       <c r="AJ30" s="89"/>
       <c r="AK30" s="91"/>
       <c r="AL30" s="92"/>
-      <c r="AM30" s="155"/>
-      <c r="AN30" s="156"/>
-      <c r="AO30" s="156"/>
-      <c r="AP30" s="156"/>
-      <c r="AQ30" s="156"/>
-      <c r="AR30" s="156"/>
-      <c r="AS30" s="156"/>
-      <c r="AT30" s="156"/>
-      <c r="AU30" s="156"/>
-      <c r="AV30" s="156"/>
-      <c r="AW30" s="156"/>
-      <c r="AX30" s="156"/>
-      <c r="AY30" s="156"/>
-      <c r="AZ30" s="156"/>
-      <c r="BA30" s="156"/>
-      <c r="BB30" s="156"/>
-      <c r="BC30" s="156"/>
-      <c r="BD30" s="156"/>
-      <c r="BE30" s="156"/>
-      <c r="BF30" s="156"/>
-      <c r="BG30" s="156"/>
-      <c r="BH30" s="156"/>
-      <c r="BI30" s="156"/>
-      <c r="BJ30" s="156"/>
-      <c r="BK30" s="156"/>
-      <c r="BL30" s="156"/>
-      <c r="BM30" s="156"/>
-      <c r="BN30" s="156"/>
-      <c r="BO30" s="156"/>
-      <c r="BP30" s="156"/>
-      <c r="BQ30" s="156"/>
-      <c r="BR30" s="157"/>
+      <c r="AM30" s="167"/>
+      <c r="AN30" s="168"/>
+      <c r="AO30" s="168"/>
+      <c r="AP30" s="168"/>
+      <c r="AQ30" s="168"/>
+      <c r="AR30" s="168"/>
+      <c r="AS30" s="168"/>
+      <c r="AT30" s="168"/>
+      <c r="AU30" s="168"/>
+      <c r="AV30" s="168"/>
+      <c r="AW30" s="168"/>
+      <c r="AX30" s="168"/>
+      <c r="AY30" s="168"/>
+      <c r="AZ30" s="168"/>
+      <c r="BA30" s="168"/>
+      <c r="BB30" s="168"/>
+      <c r="BC30" s="168"/>
+      <c r="BD30" s="168"/>
+      <c r="BE30" s="168"/>
+      <c r="BF30" s="168"/>
+      <c r="BG30" s="168"/>
+      <c r="BH30" s="168"/>
+      <c r="BI30" s="168"/>
+      <c r="BJ30" s="168"/>
+      <c r="BK30" s="168"/>
+      <c r="BL30" s="168"/>
+      <c r="BM30" s="168"/>
+      <c r="BN30" s="168"/>
+      <c r="BO30" s="168"/>
+      <c r="BP30" s="168"/>
+      <c r="BQ30" s="168"/>
+      <c r="BR30" s="169"/>
     </row>
     <row r="31" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="240"/>
+      <c r="A31" s="186"/>
       <c r="B31" s="75"/>
       <c r="C31" s="73"/>
       <c r="D31" s="73"/>
@@ -7878,41 +7866,41 @@
       <c r="AJ31" s="74"/>
       <c r="AK31" s="75"/>
       <c r="AL31" s="76"/>
-      <c r="AM31" s="158"/>
-      <c r="AN31" s="159"/>
-      <c r="AO31" s="159"/>
-      <c r="AP31" s="159"/>
-      <c r="AQ31" s="159"/>
-      <c r="AR31" s="159"/>
-      <c r="AS31" s="159"/>
-      <c r="AT31" s="159"/>
-      <c r="AU31" s="159"/>
-      <c r="AV31" s="159"/>
-      <c r="AW31" s="159"/>
-      <c r="AX31" s="159"/>
-      <c r="AY31" s="159"/>
-      <c r="AZ31" s="159"/>
-      <c r="BA31" s="159"/>
-      <c r="BB31" s="159"/>
-      <c r="BC31" s="159"/>
-      <c r="BD31" s="159"/>
-      <c r="BE31" s="159"/>
-      <c r="BF31" s="159"/>
-      <c r="BG31" s="159"/>
-      <c r="BH31" s="159"/>
-      <c r="BI31" s="159"/>
-      <c r="BJ31" s="159"/>
-      <c r="BK31" s="159"/>
-      <c r="BL31" s="159"/>
-      <c r="BM31" s="159"/>
-      <c r="BN31" s="159"/>
-      <c r="BO31" s="159"/>
-      <c r="BP31" s="159"/>
-      <c r="BQ31" s="159"/>
-      <c r="BR31" s="160"/>
+      <c r="AM31" s="170"/>
+      <c r="AN31" s="171"/>
+      <c r="AO31" s="171"/>
+      <c r="AP31" s="171"/>
+      <c r="AQ31" s="171"/>
+      <c r="AR31" s="171"/>
+      <c r="AS31" s="171"/>
+      <c r="AT31" s="171"/>
+      <c r="AU31" s="171"/>
+      <c r="AV31" s="171"/>
+      <c r="AW31" s="171"/>
+      <c r="AX31" s="171"/>
+      <c r="AY31" s="171"/>
+      <c r="AZ31" s="171"/>
+      <c r="BA31" s="171"/>
+      <c r="BB31" s="171"/>
+      <c r="BC31" s="171"/>
+      <c r="BD31" s="171"/>
+      <c r="BE31" s="171"/>
+      <c r="BF31" s="171"/>
+      <c r="BG31" s="171"/>
+      <c r="BH31" s="171"/>
+      <c r="BI31" s="171"/>
+      <c r="BJ31" s="171"/>
+      <c r="BK31" s="171"/>
+      <c r="BL31" s="171"/>
+      <c r="BM31" s="171"/>
+      <c r="BN31" s="171"/>
+      <c r="BO31" s="171"/>
+      <c r="BP31" s="171"/>
+      <c r="BQ31" s="171"/>
+      <c r="BR31" s="172"/>
     </row>
     <row r="32" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="238" t="s">
+      <c r="A32" s="184" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="44"/>
@@ -7977,16 +7965,16 @@
       <c r="BI32" s="141"/>
       <c r="BJ32" s="141"/>
       <c r="BK32" s="142"/>
-      <c r="BL32" s="185"/>
+      <c r="BL32" s="155"/>
       <c r="BM32" s="141"/>
       <c r="BN32" s="141"/>
-      <c r="BO32" s="187"/>
-      <c r="BP32" s="185"/>
+      <c r="BO32" s="163"/>
+      <c r="BP32" s="155"/>
       <c r="BQ32" s="141"/>
-      <c r="BR32" s="247"/>
+      <c r="BR32" s="161"/>
     </row>
     <row r="33" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="239"/>
+      <c r="A33" s="185"/>
       <c r="B33" s="134"/>
       <c r="C33" s="131"/>
       <c r="D33" s="131"/>
@@ -8049,16 +8037,16 @@
       <c r="BI33" s="148"/>
       <c r="BJ33" s="148"/>
       <c r="BK33" s="149"/>
-      <c r="BL33" s="186"/>
+      <c r="BL33" s="156"/>
       <c r="BM33" s="148"/>
       <c r="BN33" s="148"/>
-      <c r="BO33" s="188"/>
-      <c r="BP33" s="186"/>
+      <c r="BO33" s="164"/>
+      <c r="BP33" s="156"/>
       <c r="BQ33" s="148"/>
-      <c r="BR33" s="248"/>
+      <c r="BR33" s="162"/>
     </row>
     <row r="34" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="239"/>
+      <c r="A34" s="185"/>
       <c r="B34" s="87"/>
       <c r="C34" s="88"/>
       <c r="D34" s="88"/>
@@ -8096,41 +8084,41 @@
       <c r="AJ34" s="89"/>
       <c r="AK34" s="91"/>
       <c r="AL34" s="92"/>
-      <c r="AM34" s="155"/>
-      <c r="AN34" s="156"/>
-      <c r="AO34" s="156"/>
-      <c r="AP34" s="156"/>
-      <c r="AQ34" s="156"/>
-      <c r="AR34" s="156"/>
-      <c r="AS34" s="156"/>
-      <c r="AT34" s="156"/>
-      <c r="AU34" s="156"/>
-      <c r="AV34" s="156"/>
-      <c r="AW34" s="156"/>
-      <c r="AX34" s="156"/>
-      <c r="AY34" s="156"/>
-      <c r="AZ34" s="156"/>
-      <c r="BA34" s="156"/>
-      <c r="BB34" s="156"/>
-      <c r="BC34" s="156"/>
-      <c r="BD34" s="156"/>
-      <c r="BE34" s="156"/>
-      <c r="BF34" s="156"/>
-      <c r="BG34" s="156"/>
-      <c r="BH34" s="156"/>
-      <c r="BI34" s="156"/>
-      <c r="BJ34" s="156"/>
-      <c r="BK34" s="156"/>
-      <c r="BL34" s="156"/>
-      <c r="BM34" s="156"/>
-      <c r="BN34" s="156"/>
-      <c r="BO34" s="156"/>
-      <c r="BP34" s="156"/>
-      <c r="BQ34" s="156"/>
-      <c r="BR34" s="157"/>
+      <c r="AM34" s="167"/>
+      <c r="AN34" s="168"/>
+      <c r="AO34" s="168"/>
+      <c r="AP34" s="168"/>
+      <c r="AQ34" s="168"/>
+      <c r="AR34" s="168"/>
+      <c r="AS34" s="168"/>
+      <c r="AT34" s="168"/>
+      <c r="AU34" s="168"/>
+      <c r="AV34" s="168"/>
+      <c r="AW34" s="168"/>
+      <c r="AX34" s="168"/>
+      <c r="AY34" s="168"/>
+      <c r="AZ34" s="168"/>
+      <c r="BA34" s="168"/>
+      <c r="BB34" s="168"/>
+      <c r="BC34" s="168"/>
+      <c r="BD34" s="168"/>
+      <c r="BE34" s="168"/>
+      <c r="BF34" s="168"/>
+      <c r="BG34" s="168"/>
+      <c r="BH34" s="168"/>
+      <c r="BI34" s="168"/>
+      <c r="BJ34" s="168"/>
+      <c r="BK34" s="168"/>
+      <c r="BL34" s="168"/>
+      <c r="BM34" s="168"/>
+      <c r="BN34" s="168"/>
+      <c r="BO34" s="168"/>
+      <c r="BP34" s="168"/>
+      <c r="BQ34" s="168"/>
+      <c r="BR34" s="169"/>
     </row>
     <row r="35" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="240"/>
+      <c r="A35" s="186"/>
       <c r="B35" s="70"/>
       <c r="C35" s="67"/>
       <c r="D35" s="67"/>
@@ -8168,41 +8156,41 @@
       <c r="AJ35" s="68"/>
       <c r="AK35" s="70"/>
       <c r="AL35" s="71"/>
-      <c r="AM35" s="158"/>
-      <c r="AN35" s="159"/>
-      <c r="AO35" s="159"/>
-      <c r="AP35" s="159"/>
-      <c r="AQ35" s="159"/>
-      <c r="AR35" s="159"/>
-      <c r="AS35" s="159"/>
-      <c r="AT35" s="159"/>
-      <c r="AU35" s="159"/>
-      <c r="AV35" s="159"/>
-      <c r="AW35" s="159"/>
-      <c r="AX35" s="159"/>
-      <c r="AY35" s="159"/>
-      <c r="AZ35" s="159"/>
-      <c r="BA35" s="159"/>
-      <c r="BB35" s="159"/>
-      <c r="BC35" s="159"/>
-      <c r="BD35" s="159"/>
-      <c r="BE35" s="159"/>
-      <c r="BF35" s="159"/>
-      <c r="BG35" s="159"/>
-      <c r="BH35" s="159"/>
-      <c r="BI35" s="159"/>
-      <c r="BJ35" s="159"/>
-      <c r="BK35" s="159"/>
-      <c r="BL35" s="159"/>
-      <c r="BM35" s="159"/>
-      <c r="BN35" s="159"/>
-      <c r="BO35" s="159"/>
-      <c r="BP35" s="159"/>
-      <c r="BQ35" s="159"/>
-      <c r="BR35" s="160"/>
+      <c r="AM35" s="170"/>
+      <c r="AN35" s="171"/>
+      <c r="AO35" s="171"/>
+      <c r="AP35" s="171"/>
+      <c r="AQ35" s="171"/>
+      <c r="AR35" s="171"/>
+      <c r="AS35" s="171"/>
+      <c r="AT35" s="171"/>
+      <c r="AU35" s="171"/>
+      <c r="AV35" s="171"/>
+      <c r="AW35" s="171"/>
+      <c r="AX35" s="171"/>
+      <c r="AY35" s="171"/>
+      <c r="AZ35" s="171"/>
+      <c r="BA35" s="171"/>
+      <c r="BB35" s="171"/>
+      <c r="BC35" s="171"/>
+      <c r="BD35" s="171"/>
+      <c r="BE35" s="171"/>
+      <c r="BF35" s="171"/>
+      <c r="BG35" s="171"/>
+      <c r="BH35" s="171"/>
+      <c r="BI35" s="171"/>
+      <c r="BJ35" s="171"/>
+      <c r="BK35" s="171"/>
+      <c r="BL35" s="171"/>
+      <c r="BM35" s="171"/>
+      <c r="BN35" s="171"/>
+      <c r="BO35" s="171"/>
+      <c r="BP35" s="171"/>
+      <c r="BQ35" s="171"/>
+      <c r="BR35" s="172"/>
     </row>
     <row r="36" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="242" t="s">
+      <c r="A36" s="188" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="46"/>
@@ -8267,16 +8255,16 @@
       <c r="BI36" s="141"/>
       <c r="BJ36" s="141"/>
       <c r="BK36" s="142"/>
-      <c r="BL36" s="185"/>
+      <c r="BL36" s="155"/>
       <c r="BM36" s="141"/>
       <c r="BN36" s="141"/>
-      <c r="BO36" s="187"/>
-      <c r="BP36" s="185"/>
+      <c r="BO36" s="163"/>
+      <c r="BP36" s="155"/>
       <c r="BQ36" s="141"/>
-      <c r="BR36" s="247"/>
+      <c r="BR36" s="161"/>
     </row>
     <row r="37" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="243"/>
+      <c r="A37" s="189"/>
       <c r="B37" s="130"/>
       <c r="C37" s="131"/>
       <c r="D37" s="131"/>
@@ -8339,16 +8327,16 @@
       <c r="BI37" s="148"/>
       <c r="BJ37" s="148"/>
       <c r="BK37" s="149"/>
-      <c r="BL37" s="186"/>
+      <c r="BL37" s="156"/>
       <c r="BM37" s="148"/>
       <c r="BN37" s="148"/>
-      <c r="BO37" s="188"/>
-      <c r="BP37" s="186"/>
+      <c r="BO37" s="164"/>
+      <c r="BP37" s="156"/>
       <c r="BQ37" s="148"/>
-      <c r="BR37" s="248"/>
+      <c r="BR37" s="162"/>
     </row>
     <row r="38" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="243"/>
+      <c r="A38" s="189"/>
       <c r="B38" s="87"/>
       <c r="C38" s="88"/>
       <c r="D38" s="88"/>
@@ -8386,41 +8374,41 @@
       <c r="AJ38" s="89"/>
       <c r="AK38" s="91"/>
       <c r="AL38" s="92"/>
-      <c r="AM38" s="155"/>
-      <c r="AN38" s="156"/>
-      <c r="AO38" s="156"/>
-      <c r="AP38" s="156"/>
-      <c r="AQ38" s="156"/>
-      <c r="AR38" s="156"/>
-      <c r="AS38" s="156"/>
-      <c r="AT38" s="156"/>
-      <c r="AU38" s="156"/>
-      <c r="AV38" s="156"/>
-      <c r="AW38" s="156"/>
-      <c r="AX38" s="156"/>
-      <c r="AY38" s="156"/>
-      <c r="AZ38" s="156"/>
-      <c r="BA38" s="156"/>
-      <c r="BB38" s="156"/>
-      <c r="BC38" s="156"/>
-      <c r="BD38" s="156"/>
-      <c r="BE38" s="156"/>
-      <c r="BF38" s="156"/>
-      <c r="BG38" s="156"/>
-      <c r="BH38" s="156"/>
-      <c r="BI38" s="156"/>
-      <c r="BJ38" s="156"/>
-      <c r="BK38" s="156"/>
-      <c r="BL38" s="156"/>
-      <c r="BM38" s="156"/>
-      <c r="BN38" s="156"/>
-      <c r="BO38" s="156"/>
-      <c r="BP38" s="156"/>
-      <c r="BQ38" s="156"/>
-      <c r="BR38" s="157"/>
+      <c r="AM38" s="167"/>
+      <c r="AN38" s="168"/>
+      <c r="AO38" s="168"/>
+      <c r="AP38" s="168"/>
+      <c r="AQ38" s="168"/>
+      <c r="AR38" s="168"/>
+      <c r="AS38" s="168"/>
+      <c r="AT38" s="168"/>
+      <c r="AU38" s="168"/>
+      <c r="AV38" s="168"/>
+      <c r="AW38" s="168"/>
+      <c r="AX38" s="168"/>
+      <c r="AY38" s="168"/>
+      <c r="AZ38" s="168"/>
+      <c r="BA38" s="168"/>
+      <c r="BB38" s="168"/>
+      <c r="BC38" s="168"/>
+      <c r="BD38" s="168"/>
+      <c r="BE38" s="168"/>
+      <c r="BF38" s="168"/>
+      <c r="BG38" s="168"/>
+      <c r="BH38" s="168"/>
+      <c r="BI38" s="168"/>
+      <c r="BJ38" s="168"/>
+      <c r="BK38" s="168"/>
+      <c r="BL38" s="168"/>
+      <c r="BM38" s="168"/>
+      <c r="BN38" s="168"/>
+      <c r="BO38" s="168"/>
+      <c r="BP38" s="168"/>
+      <c r="BQ38" s="168"/>
+      <c r="BR38" s="169"/>
     </row>
     <row r="39" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="244"/>
+      <c r="A39" s="190"/>
       <c r="B39" s="72"/>
       <c r="C39" s="73"/>
       <c r="D39" s="73"/>
@@ -8458,41 +8446,41 @@
       <c r="AJ39" s="74"/>
       <c r="AK39" s="75"/>
       <c r="AL39" s="76"/>
-      <c r="AM39" s="158"/>
-      <c r="AN39" s="159"/>
-      <c r="AO39" s="159"/>
-      <c r="AP39" s="159"/>
-      <c r="AQ39" s="159"/>
-      <c r="AR39" s="159"/>
-      <c r="AS39" s="159"/>
-      <c r="AT39" s="159"/>
-      <c r="AU39" s="159"/>
-      <c r="AV39" s="159"/>
-      <c r="AW39" s="159"/>
-      <c r="AX39" s="159"/>
-      <c r="AY39" s="159"/>
-      <c r="AZ39" s="159"/>
-      <c r="BA39" s="159"/>
-      <c r="BB39" s="159"/>
-      <c r="BC39" s="159"/>
-      <c r="BD39" s="159"/>
-      <c r="BE39" s="159"/>
-      <c r="BF39" s="159"/>
-      <c r="BG39" s="159"/>
-      <c r="BH39" s="159"/>
-      <c r="BI39" s="159"/>
-      <c r="BJ39" s="159"/>
-      <c r="BK39" s="159"/>
-      <c r="BL39" s="159"/>
-      <c r="BM39" s="159"/>
-      <c r="BN39" s="159"/>
-      <c r="BO39" s="159"/>
-      <c r="BP39" s="159"/>
-      <c r="BQ39" s="159"/>
-      <c r="BR39" s="160"/>
+      <c r="AM39" s="170"/>
+      <c r="AN39" s="171"/>
+      <c r="AO39" s="171"/>
+      <c r="AP39" s="171"/>
+      <c r="AQ39" s="171"/>
+      <c r="AR39" s="171"/>
+      <c r="AS39" s="171"/>
+      <c r="AT39" s="171"/>
+      <c r="AU39" s="171"/>
+      <c r="AV39" s="171"/>
+      <c r="AW39" s="171"/>
+      <c r="AX39" s="171"/>
+      <c r="AY39" s="171"/>
+      <c r="AZ39" s="171"/>
+      <c r="BA39" s="171"/>
+      <c r="BB39" s="171"/>
+      <c r="BC39" s="171"/>
+      <c r="BD39" s="171"/>
+      <c r="BE39" s="171"/>
+      <c r="BF39" s="171"/>
+      <c r="BG39" s="171"/>
+      <c r="BH39" s="171"/>
+      <c r="BI39" s="171"/>
+      <c r="BJ39" s="171"/>
+      <c r="BK39" s="171"/>
+      <c r="BL39" s="171"/>
+      <c r="BM39" s="171"/>
+      <c r="BN39" s="171"/>
+      <c r="BO39" s="171"/>
+      <c r="BP39" s="171"/>
+      <c r="BQ39" s="171"/>
+      <c r="BR39" s="172"/>
     </row>
     <row r="40" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="242" t="s">
+      <c r="A40" s="188" t="s">
         <v>57</v>
       </c>
       <c r="B40" s="44"/>
@@ -8557,16 +8545,16 @@
       <c r="BI40" s="141"/>
       <c r="BJ40" s="141"/>
       <c r="BK40" s="142"/>
-      <c r="BL40" s="185"/>
+      <c r="BL40" s="155"/>
       <c r="BM40" s="141"/>
       <c r="BN40" s="141"/>
-      <c r="BO40" s="187"/>
-      <c r="BP40" s="185"/>
+      <c r="BO40" s="163"/>
+      <c r="BP40" s="155"/>
       <c r="BQ40" s="141"/>
-      <c r="BR40" s="247"/>
+      <c r="BR40" s="161"/>
     </row>
     <row r="41" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="243"/>
+      <c r="A41" s="189"/>
       <c r="B41" s="134"/>
       <c r="C41" s="131"/>
       <c r="D41" s="131"/>
@@ -8629,16 +8617,16 @@
       <c r="BI41" s="148"/>
       <c r="BJ41" s="148"/>
       <c r="BK41" s="149"/>
-      <c r="BL41" s="186"/>
+      <c r="BL41" s="156"/>
       <c r="BM41" s="148"/>
       <c r="BN41" s="148"/>
-      <c r="BO41" s="188"/>
-      <c r="BP41" s="186"/>
+      <c r="BO41" s="164"/>
+      <c r="BP41" s="156"/>
       <c r="BQ41" s="148"/>
-      <c r="BR41" s="248"/>
+      <c r="BR41" s="162"/>
     </row>
     <row r="42" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="243"/>
+      <c r="A42" s="189"/>
       <c r="B42" s="87"/>
       <c r="C42" s="88"/>
       <c r="D42" s="88"/>
@@ -8676,41 +8664,41 @@
       <c r="AJ42" s="89"/>
       <c r="AK42" s="91"/>
       <c r="AL42" s="92"/>
-      <c r="AM42" s="155"/>
-      <c r="AN42" s="156"/>
-      <c r="AO42" s="156"/>
-      <c r="AP42" s="156"/>
-      <c r="AQ42" s="156"/>
-      <c r="AR42" s="156"/>
-      <c r="AS42" s="156"/>
-      <c r="AT42" s="156"/>
-      <c r="AU42" s="156"/>
-      <c r="AV42" s="156"/>
-      <c r="AW42" s="156"/>
-      <c r="AX42" s="156"/>
-      <c r="AY42" s="156"/>
-      <c r="AZ42" s="156"/>
-      <c r="BA42" s="156"/>
-      <c r="BB42" s="156"/>
-      <c r="BC42" s="156"/>
-      <c r="BD42" s="156"/>
-      <c r="BE42" s="156"/>
-      <c r="BF42" s="156"/>
-      <c r="BG42" s="156"/>
-      <c r="BH42" s="156"/>
-      <c r="BI42" s="156"/>
-      <c r="BJ42" s="156"/>
-      <c r="BK42" s="156"/>
-      <c r="BL42" s="156"/>
-      <c r="BM42" s="156"/>
-      <c r="BN42" s="156"/>
-      <c r="BO42" s="156"/>
-      <c r="BP42" s="156"/>
-      <c r="BQ42" s="156"/>
-      <c r="BR42" s="157"/>
+      <c r="AM42" s="167"/>
+      <c r="AN42" s="168"/>
+      <c r="AO42" s="168"/>
+      <c r="AP42" s="168"/>
+      <c r="AQ42" s="168"/>
+      <c r="AR42" s="168"/>
+      <c r="AS42" s="168"/>
+      <c r="AT42" s="168"/>
+      <c r="AU42" s="168"/>
+      <c r="AV42" s="168"/>
+      <c r="AW42" s="168"/>
+      <c r="AX42" s="168"/>
+      <c r="AY42" s="168"/>
+      <c r="AZ42" s="168"/>
+      <c r="BA42" s="168"/>
+      <c r="BB42" s="168"/>
+      <c r="BC42" s="168"/>
+      <c r="BD42" s="168"/>
+      <c r="BE42" s="168"/>
+      <c r="BF42" s="168"/>
+      <c r="BG42" s="168"/>
+      <c r="BH42" s="168"/>
+      <c r="BI42" s="168"/>
+      <c r="BJ42" s="168"/>
+      <c r="BK42" s="168"/>
+      <c r="BL42" s="168"/>
+      <c r="BM42" s="168"/>
+      <c r="BN42" s="168"/>
+      <c r="BO42" s="168"/>
+      <c r="BP42" s="168"/>
+      <c r="BQ42" s="168"/>
+      <c r="BR42" s="169"/>
     </row>
     <row r="43" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="244"/>
+      <c r="A43" s="190"/>
       <c r="B43" s="70"/>
       <c r="C43" s="67"/>
       <c r="D43" s="67"/>
@@ -8748,41 +8736,41 @@
       <c r="AJ43" s="68"/>
       <c r="AK43" s="70"/>
       <c r="AL43" s="71"/>
-      <c r="AM43" s="158"/>
-      <c r="AN43" s="159"/>
-      <c r="AO43" s="159"/>
-      <c r="AP43" s="159"/>
-      <c r="AQ43" s="159"/>
-      <c r="AR43" s="159"/>
-      <c r="AS43" s="159"/>
-      <c r="AT43" s="159"/>
-      <c r="AU43" s="159"/>
-      <c r="AV43" s="159"/>
-      <c r="AW43" s="159"/>
-      <c r="AX43" s="159"/>
-      <c r="AY43" s="159"/>
-      <c r="AZ43" s="159"/>
-      <c r="BA43" s="159"/>
-      <c r="BB43" s="159"/>
-      <c r="BC43" s="159"/>
-      <c r="BD43" s="159"/>
-      <c r="BE43" s="159"/>
-      <c r="BF43" s="159"/>
-      <c r="BG43" s="159"/>
-      <c r="BH43" s="159"/>
-      <c r="BI43" s="159"/>
-      <c r="BJ43" s="159"/>
-      <c r="BK43" s="159"/>
-      <c r="BL43" s="159"/>
-      <c r="BM43" s="159"/>
-      <c r="BN43" s="159"/>
-      <c r="BO43" s="159"/>
-      <c r="BP43" s="159"/>
-      <c r="BQ43" s="159"/>
-      <c r="BR43" s="160"/>
+      <c r="AM43" s="170"/>
+      <c r="AN43" s="171"/>
+      <c r="AO43" s="171"/>
+      <c r="AP43" s="171"/>
+      <c r="AQ43" s="171"/>
+      <c r="AR43" s="171"/>
+      <c r="AS43" s="171"/>
+      <c r="AT43" s="171"/>
+      <c r="AU43" s="171"/>
+      <c r="AV43" s="171"/>
+      <c r="AW43" s="171"/>
+      <c r="AX43" s="171"/>
+      <c r="AY43" s="171"/>
+      <c r="AZ43" s="171"/>
+      <c r="BA43" s="171"/>
+      <c r="BB43" s="171"/>
+      <c r="BC43" s="171"/>
+      <c r="BD43" s="171"/>
+      <c r="BE43" s="171"/>
+      <c r="BF43" s="171"/>
+      <c r="BG43" s="171"/>
+      <c r="BH43" s="171"/>
+      <c r="BI43" s="171"/>
+      <c r="BJ43" s="171"/>
+      <c r="BK43" s="171"/>
+      <c r="BL43" s="171"/>
+      <c r="BM43" s="171"/>
+      <c r="BN43" s="171"/>
+      <c r="BO43" s="171"/>
+      <c r="BP43" s="171"/>
+      <c r="BQ43" s="171"/>
+      <c r="BR43" s="172"/>
     </row>
     <row r="44" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="238" t="s">
+      <c r="A44" s="184" t="s">
         <v>58</v>
       </c>
       <c r="B44" s="51"/>
@@ -8847,16 +8835,16 @@
       <c r="BI44" s="141"/>
       <c r="BJ44" s="141"/>
       <c r="BK44" s="142"/>
-      <c r="BL44" s="185"/>
+      <c r="BL44" s="155"/>
       <c r="BM44" s="141"/>
       <c r="BN44" s="141"/>
-      <c r="BO44" s="187"/>
-      <c r="BP44" s="185"/>
+      <c r="BO44" s="163"/>
+      <c r="BP44" s="155"/>
       <c r="BQ44" s="141"/>
-      <c r="BR44" s="247"/>
+      <c r="BR44" s="161"/>
     </row>
     <row r="45" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="239"/>
+      <c r="A45" s="185"/>
       <c r="B45" s="134"/>
       <c r="C45" s="131"/>
       <c r="D45" s="131"/>
@@ -8919,16 +8907,16 @@
       <c r="BI45" s="148"/>
       <c r="BJ45" s="148"/>
       <c r="BK45" s="149"/>
-      <c r="BL45" s="186"/>
+      <c r="BL45" s="156"/>
       <c r="BM45" s="148"/>
       <c r="BN45" s="148"/>
-      <c r="BO45" s="188"/>
-      <c r="BP45" s="186"/>
+      <c r="BO45" s="164"/>
+      <c r="BP45" s="156"/>
       <c r="BQ45" s="148"/>
-      <c r="BR45" s="248"/>
+      <c r="BR45" s="162"/>
     </row>
     <row r="46" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="239"/>
+      <c r="A46" s="185"/>
       <c r="B46" s="87"/>
       <c r="C46" s="88"/>
       <c r="D46" s="88"/>
@@ -8966,41 +8954,41 @@
       <c r="AJ46" s="89"/>
       <c r="AK46" s="91"/>
       <c r="AL46" s="92"/>
-      <c r="AM46" s="155"/>
-      <c r="AN46" s="156"/>
-      <c r="AO46" s="156"/>
-      <c r="AP46" s="156"/>
-      <c r="AQ46" s="156"/>
-      <c r="AR46" s="156"/>
-      <c r="AS46" s="156"/>
-      <c r="AT46" s="156"/>
-      <c r="AU46" s="156"/>
-      <c r="AV46" s="156"/>
-      <c r="AW46" s="156"/>
-      <c r="AX46" s="156"/>
-      <c r="AY46" s="156"/>
-      <c r="AZ46" s="156"/>
-      <c r="BA46" s="156"/>
-      <c r="BB46" s="156"/>
-      <c r="BC46" s="156"/>
-      <c r="BD46" s="156"/>
-      <c r="BE46" s="156"/>
-      <c r="BF46" s="156"/>
-      <c r="BG46" s="156"/>
-      <c r="BH46" s="156"/>
-      <c r="BI46" s="156"/>
-      <c r="BJ46" s="156"/>
-      <c r="BK46" s="156"/>
-      <c r="BL46" s="156"/>
-      <c r="BM46" s="156"/>
-      <c r="BN46" s="156"/>
-      <c r="BO46" s="156"/>
-      <c r="BP46" s="156"/>
-      <c r="BQ46" s="156"/>
-      <c r="BR46" s="157"/>
+      <c r="AM46" s="167"/>
+      <c r="AN46" s="168"/>
+      <c r="AO46" s="168"/>
+      <c r="AP46" s="168"/>
+      <c r="AQ46" s="168"/>
+      <c r="AR46" s="168"/>
+      <c r="AS46" s="168"/>
+      <c r="AT46" s="168"/>
+      <c r="AU46" s="168"/>
+      <c r="AV46" s="168"/>
+      <c r="AW46" s="168"/>
+      <c r="AX46" s="168"/>
+      <c r="AY46" s="168"/>
+      <c r="AZ46" s="168"/>
+      <c r="BA46" s="168"/>
+      <c r="BB46" s="168"/>
+      <c r="BC46" s="168"/>
+      <c r="BD46" s="168"/>
+      <c r="BE46" s="168"/>
+      <c r="BF46" s="168"/>
+      <c r="BG46" s="168"/>
+      <c r="BH46" s="168"/>
+      <c r="BI46" s="168"/>
+      <c r="BJ46" s="168"/>
+      <c r="BK46" s="168"/>
+      <c r="BL46" s="168"/>
+      <c r="BM46" s="168"/>
+      <c r="BN46" s="168"/>
+      <c r="BO46" s="168"/>
+      <c r="BP46" s="168"/>
+      <c r="BQ46" s="168"/>
+      <c r="BR46" s="169"/>
     </row>
     <row r="47" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="240"/>
+      <c r="A47" s="186"/>
       <c r="B47" s="75"/>
       <c r="C47" s="73"/>
       <c r="D47" s="73"/>
@@ -9038,41 +9026,41 @@
       <c r="AJ47" s="74"/>
       <c r="AK47" s="75"/>
       <c r="AL47" s="76"/>
-      <c r="AM47" s="158"/>
-      <c r="AN47" s="159"/>
-      <c r="AO47" s="159"/>
-      <c r="AP47" s="159"/>
-      <c r="AQ47" s="159"/>
-      <c r="AR47" s="159"/>
-      <c r="AS47" s="159"/>
-      <c r="AT47" s="159"/>
-      <c r="AU47" s="159"/>
-      <c r="AV47" s="159"/>
-      <c r="AW47" s="159"/>
-      <c r="AX47" s="159"/>
-      <c r="AY47" s="159"/>
-      <c r="AZ47" s="159"/>
-      <c r="BA47" s="159"/>
-      <c r="BB47" s="159"/>
-      <c r="BC47" s="159"/>
-      <c r="BD47" s="159"/>
-      <c r="BE47" s="159"/>
-      <c r="BF47" s="159"/>
-      <c r="BG47" s="159"/>
-      <c r="BH47" s="159"/>
-      <c r="BI47" s="159"/>
-      <c r="BJ47" s="159"/>
-      <c r="BK47" s="159"/>
-      <c r="BL47" s="159"/>
-      <c r="BM47" s="159"/>
-      <c r="BN47" s="159"/>
-      <c r="BO47" s="159"/>
-      <c r="BP47" s="159"/>
-      <c r="BQ47" s="159"/>
-      <c r="BR47" s="160"/>
+      <c r="AM47" s="170"/>
+      <c r="AN47" s="171"/>
+      <c r="AO47" s="171"/>
+      <c r="AP47" s="171"/>
+      <c r="AQ47" s="171"/>
+      <c r="AR47" s="171"/>
+      <c r="AS47" s="171"/>
+      <c r="AT47" s="171"/>
+      <c r="AU47" s="171"/>
+      <c r="AV47" s="171"/>
+      <c r="AW47" s="171"/>
+      <c r="AX47" s="171"/>
+      <c r="AY47" s="171"/>
+      <c r="AZ47" s="171"/>
+      <c r="BA47" s="171"/>
+      <c r="BB47" s="171"/>
+      <c r="BC47" s="171"/>
+      <c r="BD47" s="171"/>
+      <c r="BE47" s="171"/>
+      <c r="BF47" s="171"/>
+      <c r="BG47" s="171"/>
+      <c r="BH47" s="171"/>
+      <c r="BI47" s="171"/>
+      <c r="BJ47" s="171"/>
+      <c r="BK47" s="171"/>
+      <c r="BL47" s="171"/>
+      <c r="BM47" s="171"/>
+      <c r="BN47" s="171"/>
+      <c r="BO47" s="171"/>
+      <c r="BP47" s="171"/>
+      <c r="BQ47" s="171"/>
+      <c r="BR47" s="172"/>
     </row>
     <row r="48" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="238" t="s">
+      <c r="A48" s="184" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="56"/>
@@ -9137,16 +9125,16 @@
       <c r="BI48" s="141"/>
       <c r="BJ48" s="141"/>
       <c r="BK48" s="142"/>
-      <c r="BL48" s="185"/>
+      <c r="BL48" s="155"/>
       <c r="BM48" s="141"/>
       <c r="BN48" s="141"/>
-      <c r="BO48" s="187"/>
-      <c r="BP48" s="185"/>
+      <c r="BO48" s="163"/>
+      <c r="BP48" s="155"/>
       <c r="BQ48" s="141"/>
-      <c r="BR48" s="247"/>
+      <c r="BR48" s="161"/>
     </row>
     <row r="49" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="239"/>
+      <c r="A49" s="185"/>
       <c r="B49" s="134"/>
       <c r="C49" s="131"/>
       <c r="D49" s="131"/>
@@ -9209,16 +9197,16 @@
       <c r="BI49" s="148"/>
       <c r="BJ49" s="148"/>
       <c r="BK49" s="149"/>
-      <c r="BL49" s="186"/>
+      <c r="BL49" s="156"/>
       <c r="BM49" s="148"/>
       <c r="BN49" s="148"/>
-      <c r="BO49" s="188"/>
-      <c r="BP49" s="186"/>
+      <c r="BO49" s="164"/>
+      <c r="BP49" s="156"/>
       <c r="BQ49" s="148"/>
-      <c r="BR49" s="248"/>
+      <c r="BR49" s="162"/>
     </row>
     <row r="50" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="239"/>
+      <c r="A50" s="185"/>
       <c r="B50" s="87"/>
       <c r="C50" s="88"/>
       <c r="D50" s="88"/>
@@ -9256,41 +9244,41 @@
       <c r="AJ50" s="89"/>
       <c r="AK50" s="91"/>
       <c r="AL50" s="92"/>
-      <c r="AM50" s="155"/>
-      <c r="AN50" s="156"/>
-      <c r="AO50" s="156"/>
-      <c r="AP50" s="156"/>
-      <c r="AQ50" s="156"/>
-      <c r="AR50" s="156"/>
-      <c r="AS50" s="156"/>
-      <c r="AT50" s="156"/>
-      <c r="AU50" s="156"/>
-      <c r="AV50" s="156"/>
-      <c r="AW50" s="156"/>
-      <c r="AX50" s="156"/>
-      <c r="AY50" s="156"/>
-      <c r="AZ50" s="156"/>
-      <c r="BA50" s="156"/>
-      <c r="BB50" s="156"/>
-      <c r="BC50" s="156"/>
-      <c r="BD50" s="156"/>
-      <c r="BE50" s="156"/>
-      <c r="BF50" s="156"/>
-      <c r="BG50" s="156"/>
-      <c r="BH50" s="156"/>
-      <c r="BI50" s="156"/>
-      <c r="BJ50" s="156"/>
-      <c r="BK50" s="156"/>
-      <c r="BL50" s="156"/>
-      <c r="BM50" s="156"/>
-      <c r="BN50" s="156"/>
-      <c r="BO50" s="156"/>
-      <c r="BP50" s="156"/>
-      <c r="BQ50" s="156"/>
-      <c r="BR50" s="157"/>
+      <c r="AM50" s="167"/>
+      <c r="AN50" s="168"/>
+      <c r="AO50" s="168"/>
+      <c r="AP50" s="168"/>
+      <c r="AQ50" s="168"/>
+      <c r="AR50" s="168"/>
+      <c r="AS50" s="168"/>
+      <c r="AT50" s="168"/>
+      <c r="AU50" s="168"/>
+      <c r="AV50" s="168"/>
+      <c r="AW50" s="168"/>
+      <c r="AX50" s="168"/>
+      <c r="AY50" s="168"/>
+      <c r="AZ50" s="168"/>
+      <c r="BA50" s="168"/>
+      <c r="BB50" s="168"/>
+      <c r="BC50" s="168"/>
+      <c r="BD50" s="168"/>
+      <c r="BE50" s="168"/>
+      <c r="BF50" s="168"/>
+      <c r="BG50" s="168"/>
+      <c r="BH50" s="168"/>
+      <c r="BI50" s="168"/>
+      <c r="BJ50" s="168"/>
+      <c r="BK50" s="168"/>
+      <c r="BL50" s="168"/>
+      <c r="BM50" s="168"/>
+      <c r="BN50" s="168"/>
+      <c r="BO50" s="168"/>
+      <c r="BP50" s="168"/>
+      <c r="BQ50" s="168"/>
+      <c r="BR50" s="169"/>
     </row>
     <row r="51" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="240"/>
+      <c r="A51" s="186"/>
       <c r="B51" s="70"/>
       <c r="C51" s="67"/>
       <c r="D51" s="67"/>
@@ -9328,41 +9316,41 @@
       <c r="AJ51" s="68"/>
       <c r="AK51" s="70"/>
       <c r="AL51" s="71"/>
-      <c r="AM51" s="158"/>
-      <c r="AN51" s="159"/>
-      <c r="AO51" s="159"/>
-      <c r="AP51" s="159"/>
-      <c r="AQ51" s="159"/>
-      <c r="AR51" s="159"/>
-      <c r="AS51" s="159"/>
-      <c r="AT51" s="159"/>
-      <c r="AU51" s="159"/>
-      <c r="AV51" s="159"/>
-      <c r="AW51" s="159"/>
-      <c r="AX51" s="159"/>
-      <c r="AY51" s="159"/>
-      <c r="AZ51" s="159"/>
-      <c r="BA51" s="159"/>
-      <c r="BB51" s="159"/>
-      <c r="BC51" s="159"/>
-      <c r="BD51" s="159"/>
-      <c r="BE51" s="159"/>
-      <c r="BF51" s="159"/>
-      <c r="BG51" s="159"/>
-      <c r="BH51" s="159"/>
-      <c r="BI51" s="159"/>
-      <c r="BJ51" s="159"/>
-      <c r="BK51" s="159"/>
-      <c r="BL51" s="159"/>
-      <c r="BM51" s="159"/>
-      <c r="BN51" s="159"/>
-      <c r="BO51" s="159"/>
-      <c r="BP51" s="159"/>
-      <c r="BQ51" s="159"/>
-      <c r="BR51" s="160"/>
+      <c r="AM51" s="170"/>
+      <c r="AN51" s="171"/>
+      <c r="AO51" s="171"/>
+      <c r="AP51" s="171"/>
+      <c r="AQ51" s="171"/>
+      <c r="AR51" s="171"/>
+      <c r="AS51" s="171"/>
+      <c r="AT51" s="171"/>
+      <c r="AU51" s="171"/>
+      <c r="AV51" s="171"/>
+      <c r="AW51" s="171"/>
+      <c r="AX51" s="171"/>
+      <c r="AY51" s="171"/>
+      <c r="AZ51" s="171"/>
+      <c r="BA51" s="171"/>
+      <c r="BB51" s="171"/>
+      <c r="BC51" s="171"/>
+      <c r="BD51" s="171"/>
+      <c r="BE51" s="171"/>
+      <c r="BF51" s="171"/>
+      <c r="BG51" s="171"/>
+      <c r="BH51" s="171"/>
+      <c r="BI51" s="171"/>
+      <c r="BJ51" s="171"/>
+      <c r="BK51" s="171"/>
+      <c r="BL51" s="171"/>
+      <c r="BM51" s="171"/>
+      <c r="BN51" s="171"/>
+      <c r="BO51" s="171"/>
+      <c r="BP51" s="171"/>
+      <c r="BQ51" s="171"/>
+      <c r="BR51" s="172"/>
     </row>
     <row r="52" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="238" t="s">
+      <c r="A52" s="184" t="s">
         <v>60</v>
       </c>
       <c r="B52" s="49"/>
@@ -9427,16 +9415,16 @@
       <c r="BI52" s="141"/>
       <c r="BJ52" s="141"/>
       <c r="BK52" s="142"/>
-      <c r="BL52" s="185"/>
+      <c r="BL52" s="155"/>
       <c r="BM52" s="141"/>
       <c r="BN52" s="141"/>
-      <c r="BO52" s="187"/>
-      <c r="BP52" s="185"/>
+      <c r="BO52" s="163"/>
+      <c r="BP52" s="155"/>
       <c r="BQ52" s="141"/>
-      <c r="BR52" s="247"/>
+      <c r="BR52" s="161"/>
     </row>
     <row r="53" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="239"/>
+      <c r="A53" s="185"/>
       <c r="B53" s="134"/>
       <c r="C53" s="131"/>
       <c r="D53" s="131"/>
@@ -9499,16 +9487,16 @@
       <c r="BI53" s="148"/>
       <c r="BJ53" s="148"/>
       <c r="BK53" s="149"/>
-      <c r="BL53" s="186"/>
+      <c r="BL53" s="156"/>
       <c r="BM53" s="148"/>
       <c r="BN53" s="148"/>
-      <c r="BO53" s="188"/>
-      <c r="BP53" s="186"/>
+      <c r="BO53" s="164"/>
+      <c r="BP53" s="156"/>
       <c r="BQ53" s="148"/>
-      <c r="BR53" s="248"/>
+      <c r="BR53" s="162"/>
     </row>
     <row r="54" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="239"/>
+      <c r="A54" s="185"/>
       <c r="B54" s="114"/>
       <c r="C54" s="115"/>
       <c r="D54" s="115"/>
@@ -9546,41 +9534,41 @@
       <c r="AJ54" s="89"/>
       <c r="AK54" s="91"/>
       <c r="AL54" s="119"/>
-      <c r="AM54" s="155"/>
-      <c r="AN54" s="156"/>
-      <c r="AO54" s="156"/>
-      <c r="AP54" s="156"/>
-      <c r="AQ54" s="156"/>
-      <c r="AR54" s="156"/>
-      <c r="AS54" s="156"/>
-      <c r="AT54" s="156"/>
-      <c r="AU54" s="156"/>
-      <c r="AV54" s="156"/>
-      <c r="AW54" s="156"/>
-      <c r="AX54" s="156"/>
-      <c r="AY54" s="156"/>
-      <c r="AZ54" s="156"/>
-      <c r="BA54" s="156"/>
-      <c r="BB54" s="156"/>
-      <c r="BC54" s="156"/>
-      <c r="BD54" s="156"/>
-      <c r="BE54" s="156"/>
-      <c r="BF54" s="156"/>
-      <c r="BG54" s="156"/>
-      <c r="BH54" s="156"/>
-      <c r="BI54" s="156"/>
-      <c r="BJ54" s="156"/>
-      <c r="BK54" s="156"/>
-      <c r="BL54" s="156"/>
-      <c r="BM54" s="156"/>
-      <c r="BN54" s="156"/>
-      <c r="BO54" s="156"/>
-      <c r="BP54" s="156"/>
-      <c r="BQ54" s="156"/>
-      <c r="BR54" s="157"/>
+      <c r="AM54" s="167"/>
+      <c r="AN54" s="168"/>
+      <c r="AO54" s="168"/>
+      <c r="AP54" s="168"/>
+      <c r="AQ54" s="168"/>
+      <c r="AR54" s="168"/>
+      <c r="AS54" s="168"/>
+      <c r="AT54" s="168"/>
+      <c r="AU54" s="168"/>
+      <c r="AV54" s="168"/>
+      <c r="AW54" s="168"/>
+      <c r="AX54" s="168"/>
+      <c r="AY54" s="168"/>
+      <c r="AZ54" s="168"/>
+      <c r="BA54" s="168"/>
+      <c r="BB54" s="168"/>
+      <c r="BC54" s="168"/>
+      <c r="BD54" s="168"/>
+      <c r="BE54" s="168"/>
+      <c r="BF54" s="168"/>
+      <c r="BG54" s="168"/>
+      <c r="BH54" s="168"/>
+      <c r="BI54" s="168"/>
+      <c r="BJ54" s="168"/>
+      <c r="BK54" s="168"/>
+      <c r="BL54" s="168"/>
+      <c r="BM54" s="168"/>
+      <c r="BN54" s="168"/>
+      <c r="BO54" s="168"/>
+      <c r="BP54" s="168"/>
+      <c r="BQ54" s="168"/>
+      <c r="BR54" s="169"/>
     </row>
     <row r="55" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="241"/>
+      <c r="A55" s="187"/>
       <c r="B55" s="79"/>
       <c r="C55" s="80"/>
       <c r="D55" s="80"/>
@@ -9618,44 +9606,44 @@
       <c r="AJ55" s="82"/>
       <c r="AK55" s="118"/>
       <c r="AL55" s="83"/>
-      <c r="AM55" s="158"/>
-      <c r="AN55" s="159"/>
-      <c r="AO55" s="159"/>
-      <c r="AP55" s="159"/>
-      <c r="AQ55" s="159"/>
-      <c r="AR55" s="159"/>
-      <c r="AS55" s="159"/>
-      <c r="AT55" s="159"/>
-      <c r="AU55" s="159"/>
-      <c r="AV55" s="159"/>
-      <c r="AW55" s="159"/>
-      <c r="AX55" s="159"/>
-      <c r="AY55" s="159"/>
-      <c r="AZ55" s="159"/>
-      <c r="BA55" s="159"/>
-      <c r="BB55" s="159"/>
-      <c r="BC55" s="159"/>
-      <c r="BD55" s="159"/>
-      <c r="BE55" s="159"/>
-      <c r="BF55" s="159"/>
-      <c r="BG55" s="159"/>
-      <c r="BH55" s="159"/>
-      <c r="BI55" s="159"/>
-      <c r="BJ55" s="159"/>
-      <c r="BK55" s="159"/>
-      <c r="BL55" s="159"/>
-      <c r="BM55" s="159"/>
-      <c r="BN55" s="159"/>
-      <c r="BO55" s="159"/>
-      <c r="BP55" s="159"/>
-      <c r="BQ55" s="159"/>
-      <c r="BR55" s="160"/>
+      <c r="AM55" s="170"/>
+      <c r="AN55" s="171"/>
+      <c r="AO55" s="171"/>
+      <c r="AP55" s="171"/>
+      <c r="AQ55" s="171"/>
+      <c r="AR55" s="171"/>
+      <c r="AS55" s="171"/>
+      <c r="AT55" s="171"/>
+      <c r="AU55" s="171"/>
+      <c r="AV55" s="171"/>
+      <c r="AW55" s="171"/>
+      <c r="AX55" s="171"/>
+      <c r="AY55" s="171"/>
+      <c r="AZ55" s="171"/>
+      <c r="BA55" s="171"/>
+      <c r="BB55" s="171"/>
+      <c r="BC55" s="171"/>
+      <c r="BD55" s="171"/>
+      <c r="BE55" s="171"/>
+      <c r="BF55" s="171"/>
+      <c r="BG55" s="171"/>
+      <c r="BH55" s="171"/>
+      <c r="BI55" s="171"/>
+      <c r="BJ55" s="171"/>
+      <c r="BK55" s="171"/>
+      <c r="BL55" s="171"/>
+      <c r="BM55" s="171"/>
+      <c r="BN55" s="171"/>
+      <c r="BO55" s="171"/>
+      <c r="BP55" s="171"/>
+      <c r="BQ55" s="171"/>
+      <c r="BR55" s="172"/>
     </row>
     <row r="56" spans="1:70" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="211" t="s">
+      <c r="A56" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="212"/>
+      <c r="B56" s="215"/>
       <c r="C56" s="3" t="s">
         <v>62</v>
       </c>
@@ -9691,11 +9679,11 @@
       <c r="AG56" s="10"/>
       <c r="AH56" s="10"/>
       <c r="AI56" s="78"/>
-      <c r="AJ56" s="213" t="s">
+      <c r="AJ56" s="216" t="s">
         <v>63</v>
       </c>
-      <c r="AK56" s="214"/>
-      <c r="AL56" s="215"/>
+      <c r="AK56" s="217"/>
+      <c r="AL56" s="218"/>
       <c r="AM56" s="32"/>
       <c r="AN56" s="33"/>
       <c r="AO56" s="34"/>
@@ -9822,420 +9810,420 @@
       <c r="BR58" s="121"/>
     </row>
     <row r="59" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="216" t="s">
+      <c r="A59" s="211" t="s">
         <v>64</v>
       </c>
-      <c r="B59" s="216"/>
-      <c r="C59" s="216"/>
-      <c r="D59" s="217" t="s">
+      <c r="B59" s="211"/>
+      <c r="C59" s="211"/>
+      <c r="D59" s="203" t="s">
         <v>65</v>
       </c>
-      <c r="E59" s="218"/>
-      <c r="F59" s="218"/>
+      <c r="E59" s="204"/>
+      <c r="F59" s="204"/>
       <c r="G59" s="15"/>
-      <c r="H59" s="217" t="s">
+      <c r="H59" s="203" t="s">
         <v>66</v>
       </c>
-      <c r="I59" s="218"/>
-      <c r="J59" s="218"/>
+      <c r="I59" s="204"/>
+      <c r="J59" s="204"/>
       <c r="K59" s="15"/>
-      <c r="L59" s="217" t="s">
+      <c r="L59" s="203" t="s">
         <v>67</v>
       </c>
-      <c r="M59" s="218"/>
-      <c r="N59" s="218"/>
+      <c r="M59" s="204"/>
+      <c r="N59" s="204"/>
       <c r="O59" s="15"/>
-      <c r="P59" s="217" t="s">
+      <c r="P59" s="203" t="s">
         <v>68</v>
       </c>
-      <c r="Q59" s="218"/>
-      <c r="R59" s="218"/>
+      <c r="Q59" s="204"/>
+      <c r="R59" s="204"/>
       <c r="S59" s="15"/>
-      <c r="T59" s="217" t="s">
+      <c r="T59" s="203" t="s">
         <v>69</v>
       </c>
-      <c r="U59" s="218"/>
-      <c r="V59" s="218"/>
+      <c r="U59" s="204"/>
+      <c r="V59" s="204"/>
       <c r="W59" s="15"/>
-      <c r="X59" s="217" t="s">
+      <c r="X59" s="203" t="s">
         <v>70</v>
       </c>
-      <c r="Y59" s="218"/>
-      <c r="Z59" s="218"/>
+      <c r="Y59" s="204"/>
+      <c r="Z59" s="204"/>
       <c r="AA59" s="15"/>
-      <c r="AM59" s="219" t="s">
+      <c r="AM59" s="209" t="s">
         <v>71</v>
       </c>
-      <c r="AN59" s="219"/>
-      <c r="AO59" s="219"/>
-      <c r="AP59" s="205"/>
-      <c r="AQ59" s="205"/>
-      <c r="AR59" s="205"/>
-      <c r="AS59" s="205"/>
-      <c r="AT59" s="205"/>
-      <c r="AU59" s="205"/>
-      <c r="AV59" s="205"/>
-      <c r="AW59" s="206"/>
+      <c r="AN59" s="209"/>
+      <c r="AO59" s="209"/>
+      <c r="AP59" s="212"/>
+      <c r="AQ59" s="212"/>
+      <c r="AR59" s="212"/>
+      <c r="AS59" s="212"/>
+      <c r="AT59" s="212"/>
+      <c r="AU59" s="212"/>
+      <c r="AV59" s="212"/>
+      <c r="AW59" s="213"/>
       <c r="AX59" s="11"/>
       <c r="AY59" s="11"/>
       <c r="AZ59" s="11"/>
-      <c r="BC59" s="207" t="s">
+      <c r="BC59" s="196" t="s">
         <v>72</v>
       </c>
-      <c r="BD59" s="207"/>
-      <c r="BE59" s="207"/>
-      <c r="BF59" s="207"/>
-      <c r="BG59" s="207"/>
-      <c r="BH59" s="207"/>
-      <c r="BI59" s="207"/>
-      <c r="BJ59" s="207"/>
-      <c r="BK59" s="208"/>
-      <c r="BL59" s="209"/>
-      <c r="BM59" s="209"/>
-      <c r="BN59" s="209"/>
-      <c r="BO59" s="209"/>
-      <c r="BP59" s="209"/>
-      <c r="BQ59" s="209"/>
-      <c r="BR59" s="210"/>
+      <c r="BD59" s="196"/>
+      <c r="BE59" s="196"/>
+      <c r="BF59" s="196"/>
+      <c r="BG59" s="196"/>
+      <c r="BH59" s="196"/>
+      <c r="BI59" s="196"/>
+      <c r="BJ59" s="196"/>
+      <c r="BK59" s="197"/>
+      <c r="BL59" s="198"/>
+      <c r="BM59" s="198"/>
+      <c r="BN59" s="198"/>
+      <c r="BO59" s="198"/>
+      <c r="BP59" s="198"/>
+      <c r="BQ59" s="198"/>
+      <c r="BR59" s="199"/>
     </row>
     <row r="60" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="216" t="s">
+      <c r="A60" s="211" t="s">
         <v>73</v>
       </c>
-      <c r="B60" s="216"/>
-      <c r="C60" s="216"/>
-      <c r="D60" s="217" t="s">
+      <c r="B60" s="211"/>
+      <c r="C60" s="211"/>
+      <c r="D60" s="203" t="s">
         <v>74</v>
       </c>
-      <c r="E60" s="218"/>
-      <c r="F60" s="218"/>
+      <c r="E60" s="204"/>
+      <c r="F60" s="204"/>
       <c r="G60" s="15"/>
-      <c r="H60" s="217" t="s">
+      <c r="H60" s="203" t="s">
         <v>75</v>
       </c>
-      <c r="I60" s="218"/>
-      <c r="J60" s="218"/>
+      <c r="I60" s="204"/>
+      <c r="J60" s="204"/>
       <c r="K60" s="15"/>
-      <c r="L60" s="217" t="s">
+      <c r="L60" s="203" t="s">
         <v>76</v>
       </c>
-      <c r="M60" s="218"/>
-      <c r="N60" s="218"/>
+      <c r="M60" s="204"/>
+      <c r="N60" s="204"/>
       <c r="O60" s="15"/>
-      <c r="P60" s="217"/>
-      <c r="Q60" s="218"/>
-      <c r="R60" s="218"/>
+      <c r="P60" s="203"/>
+      <c r="Q60" s="204"/>
+      <c r="R60" s="204"/>
       <c r="S60" s="15"/>
-      <c r="T60" s="217"/>
-      <c r="U60" s="218"/>
-      <c r="V60" s="218"/>
+      <c r="T60" s="203"/>
+      <c r="U60" s="204"/>
+      <c r="V60" s="204"/>
       <c r="W60" s="15"/>
-      <c r="X60" s="217"/>
-      <c r="Y60" s="218"/>
-      <c r="Z60" s="218"/>
+      <c r="X60" s="203"/>
+      <c r="Y60" s="204"/>
+      <c r="Z60" s="204"/>
       <c r="AA60" s="15"/>
       <c r="AB60" s="1"/>
-      <c r="AM60" s="219" t="s">
+      <c r="AM60" s="209" t="s">
         <v>77</v>
       </c>
-      <c r="AN60" s="219"/>
-      <c r="AO60" s="219"/>
-      <c r="AP60" s="220"/>
-      <c r="AQ60" s="220"/>
-      <c r="AR60" s="220"/>
-      <c r="AS60" s="220"/>
-      <c r="AT60" s="220"/>
-      <c r="AU60" s="220"/>
-      <c r="AV60" s="220"/>
-      <c r="AW60" s="220"/>
+      <c r="AN60" s="209"/>
+      <c r="AO60" s="209"/>
+      <c r="AP60" s="210"/>
+      <c r="AQ60" s="210"/>
+      <c r="AR60" s="210"/>
+      <c r="AS60" s="210"/>
+      <c r="AT60" s="210"/>
+      <c r="AU60" s="210"/>
+      <c r="AV60" s="210"/>
+      <c r="AW60" s="210"/>
       <c r="AX60" s="11"/>
       <c r="AY60" s="11"/>
       <c r="AZ60" s="11"/>
-      <c r="BC60" s="207" t="s">
+      <c r="BC60" s="196" t="s">
         <v>78</v>
       </c>
-      <c r="BD60" s="207"/>
-      <c r="BE60" s="207"/>
-      <c r="BF60" s="207"/>
-      <c r="BG60" s="207"/>
-      <c r="BH60" s="207"/>
-      <c r="BI60" s="207"/>
-      <c r="BJ60" s="207"/>
-      <c r="BK60" s="208"/>
-      <c r="BL60" s="209"/>
-      <c r="BM60" s="209"/>
-      <c r="BN60" s="209"/>
-      <c r="BO60" s="209"/>
-      <c r="BP60" s="209"/>
-      <c r="BQ60" s="209"/>
-      <c r="BR60" s="210"/>
+      <c r="BD60" s="196"/>
+      <c r="BE60" s="196"/>
+      <c r="BF60" s="196"/>
+      <c r="BG60" s="196"/>
+      <c r="BH60" s="196"/>
+      <c r="BI60" s="196"/>
+      <c r="BJ60" s="196"/>
+      <c r="BK60" s="197"/>
+      <c r="BL60" s="198"/>
+      <c r="BM60" s="198"/>
+      <c r="BN60" s="198"/>
+      <c r="BO60" s="198"/>
+      <c r="BP60" s="198"/>
+      <c r="BQ60" s="198"/>
+      <c r="BR60" s="199"/>
     </row>
     <row r="61" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="216" t="s">
+      <c r="A61" s="211" t="s">
         <v>79</v>
       </c>
-      <c r="B61" s="216"/>
-      <c r="C61" s="216"/>
-      <c r="D61" s="217" t="s">
+      <c r="B61" s="211"/>
+      <c r="C61" s="211"/>
+      <c r="D61" s="203" t="s">
         <v>80</v>
       </c>
-      <c r="E61" s="218"/>
-      <c r="F61" s="218"/>
+      <c r="E61" s="204"/>
+      <c r="F61" s="204"/>
       <c r="G61" s="15"/>
-      <c r="H61" s="217" t="s">
+      <c r="H61" s="203" t="s">
         <v>81</v>
       </c>
-      <c r="I61" s="218"/>
-      <c r="J61" s="218"/>
+      <c r="I61" s="204"/>
+      <c r="J61" s="204"/>
       <c r="K61" s="15"/>
-      <c r="L61" s="217" t="s">
+      <c r="L61" s="203" t="s">
         <v>82</v>
       </c>
-      <c r="M61" s="218"/>
-      <c r="N61" s="218"/>
+      <c r="M61" s="204"/>
+      <c r="N61" s="204"/>
       <c r="O61" s="15"/>
-      <c r="P61" s="217" t="s">
+      <c r="P61" s="203" t="s">
         <v>83</v>
       </c>
-      <c r="Q61" s="218"/>
-      <c r="R61" s="218"/>
+      <c r="Q61" s="204"/>
+      <c r="R61" s="204"/>
       <c r="S61" s="15"/>
-      <c r="T61" s="217" t="s">
+      <c r="T61" s="203" t="s">
         <v>84</v>
       </c>
-      <c r="U61" s="218"/>
-      <c r="V61" s="218"/>
+      <c r="U61" s="204"/>
+      <c r="V61" s="204"/>
       <c r="W61" s="15"/>
-      <c r="X61" s="217" t="s">
+      <c r="X61" s="203" t="s">
         <v>85</v>
       </c>
-      <c r="Y61" s="218"/>
-      <c r="Z61" s="218"/>
+      <c r="Y61" s="204"/>
+      <c r="Z61" s="204"/>
       <c r="AA61" s="15"/>
       <c r="AJ61" s="4"/>
-      <c r="AM61" s="219" t="s">
+      <c r="AM61" s="209" t="s">
         <v>86</v>
       </c>
-      <c r="AN61" s="219"/>
-      <c r="AO61" s="219"/>
-      <c r="AP61" s="220"/>
-      <c r="AQ61" s="220"/>
-      <c r="AR61" s="220"/>
-      <c r="AS61" s="220"/>
-      <c r="AT61" s="220"/>
-      <c r="AU61" s="220"/>
-      <c r="AV61" s="220"/>
-      <c r="AW61" s="220"/>
+      <c r="AN61" s="209"/>
+      <c r="AO61" s="209"/>
+      <c r="AP61" s="210"/>
+      <c r="AQ61" s="210"/>
+      <c r="AR61" s="210"/>
+      <c r="AS61" s="210"/>
+      <c r="AT61" s="210"/>
+      <c r="AU61" s="210"/>
+      <c r="AV61" s="210"/>
+      <c r="AW61" s="210"/>
       <c r="AX61" s="11"/>
       <c r="AY61" s="11"/>
       <c r="AZ61" s="11"/>
-      <c r="BC61" s="207" t="s">
+      <c r="BC61" s="196" t="s">
         <v>87</v>
       </c>
-      <c r="BD61" s="207"/>
-      <c r="BE61" s="207"/>
-      <c r="BF61" s="207"/>
-      <c r="BG61" s="207"/>
-      <c r="BH61" s="207"/>
-      <c r="BI61" s="207"/>
-      <c r="BJ61" s="207"/>
-      <c r="BK61" s="208"/>
-      <c r="BL61" s="209"/>
-      <c r="BM61" s="209"/>
-      <c r="BN61" s="209"/>
-      <c r="BO61" s="209"/>
-      <c r="BP61" s="209"/>
-      <c r="BQ61" s="209"/>
-      <c r="BR61" s="210"/>
+      <c r="BD61" s="196"/>
+      <c r="BE61" s="196"/>
+      <c r="BF61" s="196"/>
+      <c r="BG61" s="196"/>
+      <c r="BH61" s="196"/>
+      <c r="BI61" s="196"/>
+      <c r="BJ61" s="196"/>
+      <c r="BK61" s="197"/>
+      <c r="BL61" s="198"/>
+      <c r="BM61" s="198"/>
+      <c r="BN61" s="198"/>
+      <c r="BO61" s="198"/>
+      <c r="BP61" s="198"/>
+      <c r="BQ61" s="198"/>
+      <c r="BR61" s="199"/>
     </row>
     <row r="62" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="216"/>
-      <c r="B62" s="216"/>
-      <c r="C62" s="216"/>
-      <c r="D62" s="217" t="s">
+      <c r="A62" s="211"/>
+      <c r="B62" s="211"/>
+      <c r="C62" s="211"/>
+      <c r="D62" s="203" t="s">
         <v>88</v>
       </c>
-      <c r="E62" s="218"/>
-      <c r="F62" s="218"/>
+      <c r="E62" s="204"/>
+      <c r="F62" s="204"/>
       <c r="G62" s="15"/>
-      <c r="H62" s="217" t="s">
+      <c r="H62" s="203" t="s">
         <v>89</v>
       </c>
-      <c r="I62" s="218"/>
-      <c r="J62" s="218"/>
+      <c r="I62" s="204"/>
+      <c r="J62" s="204"/>
       <c r="K62" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="L62" s="217" t="s">
+      <c r="L62" s="203" t="s">
         <v>91</v>
       </c>
-      <c r="M62" s="218"/>
-      <c r="N62" s="218"/>
+      <c r="M62" s="204"/>
+      <c r="N62" s="204"/>
       <c r="O62" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="P62" s="217"/>
-      <c r="Q62" s="218"/>
-      <c r="R62" s="218"/>
+      <c r="P62" s="203"/>
+      <c r="Q62" s="204"/>
+      <c r="R62" s="204"/>
       <c r="S62" s="15"/>
-      <c r="T62" s="217"/>
-      <c r="U62" s="218"/>
-      <c r="V62" s="218"/>
+      <c r="T62" s="203"/>
+      <c r="U62" s="204"/>
+      <c r="V62" s="204"/>
       <c r="W62" s="15"/>
-      <c r="X62" s="217"/>
-      <c r="Y62" s="218"/>
-      <c r="Z62" s="218"/>
+      <c r="X62" s="203"/>
+      <c r="Y62" s="204"/>
+      <c r="Z62" s="204"/>
       <c r="AA62" s="15"/>
       <c r="AB62" s="1"/>
-      <c r="AM62" s="219" t="s">
+      <c r="AM62" s="209" t="s">
         <v>93</v>
       </c>
-      <c r="AN62" s="219"/>
-      <c r="AO62" s="219"/>
-      <c r="AP62" s="220"/>
-      <c r="AQ62" s="220"/>
-      <c r="AR62" s="220"/>
-      <c r="AS62" s="220"/>
-      <c r="AT62" s="220"/>
-      <c r="AU62" s="220"/>
-      <c r="AV62" s="220"/>
-      <c r="AW62" s="220"/>
+      <c r="AN62" s="209"/>
+      <c r="AO62" s="209"/>
+      <c r="AP62" s="210"/>
+      <c r="AQ62" s="210"/>
+      <c r="AR62" s="210"/>
+      <c r="AS62" s="210"/>
+      <c r="AT62" s="210"/>
+      <c r="AU62" s="210"/>
+      <c r="AV62" s="210"/>
+      <c r="AW62" s="210"/>
       <c r="AX62" s="11"/>
       <c r="AY62" s="11"/>
       <c r="AZ62" s="11"/>
-      <c r="BC62" s="207" t="s">
+      <c r="BC62" s="196" t="s">
         <v>94</v>
       </c>
-      <c r="BD62" s="207"/>
-      <c r="BE62" s="207"/>
-      <c r="BF62" s="207"/>
-      <c r="BG62" s="207"/>
-      <c r="BH62" s="207"/>
-      <c r="BI62" s="207"/>
-      <c r="BJ62" s="207"/>
-      <c r="BK62" s="208"/>
-      <c r="BL62" s="209"/>
-      <c r="BM62" s="209"/>
-      <c r="BN62" s="209"/>
-      <c r="BO62" s="209"/>
-      <c r="BP62" s="209"/>
-      <c r="BQ62" s="209"/>
-      <c r="BR62" s="210"/>
+      <c r="BD62" s="196"/>
+      <c r="BE62" s="196"/>
+      <c r="BF62" s="196"/>
+      <c r="BG62" s="196"/>
+      <c r="BH62" s="196"/>
+      <c r="BI62" s="196"/>
+      <c r="BJ62" s="196"/>
+      <c r="BK62" s="197"/>
+      <c r="BL62" s="198"/>
+      <c r="BM62" s="198"/>
+      <c r="BN62" s="198"/>
+      <c r="BO62" s="198"/>
+      <c r="BP62" s="198"/>
+      <c r="BQ62" s="198"/>
+      <c r="BR62" s="199"/>
     </row>
     <row r="63" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="221" t="s">
+      <c r="A63" s="200" t="s">
         <v>95</v>
       </c>
-      <c r="B63" s="222"/>
-      <c r="C63" s="223"/>
-      <c r="D63" s="217" t="s">
+      <c r="B63" s="201"/>
+      <c r="C63" s="202"/>
+      <c r="D63" s="203" t="s">
         <v>96</v>
       </c>
-      <c r="E63" s="218"/>
-      <c r="F63" s="218"/>
+      <c r="E63" s="204"/>
+      <c r="F63" s="204"/>
       <c r="G63" s="15"/>
-      <c r="H63" s="217" t="s">
+      <c r="H63" s="203" t="s">
         <v>97</v>
       </c>
-      <c r="I63" s="218"/>
-      <c r="J63" s="218"/>
+      <c r="I63" s="204"/>
+      <c r="J63" s="204"/>
       <c r="K63" s="15"/>
-      <c r="L63" s="217" t="s">
+      <c r="L63" s="203" t="s">
         <v>98</v>
       </c>
-      <c r="M63" s="218"/>
-      <c r="N63" s="218"/>
+      <c r="M63" s="204"/>
+      <c r="N63" s="204"/>
       <c r="O63" s="15"/>
-      <c r="P63" s="217"/>
-      <c r="Q63" s="218"/>
-      <c r="R63" s="218"/>
+      <c r="P63" s="203"/>
+      <c r="Q63" s="204"/>
+      <c r="R63" s="204"/>
       <c r="S63" s="15"/>
-      <c r="T63" s="217"/>
-      <c r="U63" s="218"/>
-      <c r="V63" s="218"/>
+      <c r="T63" s="203"/>
+      <c r="U63" s="204"/>
+      <c r="V63" s="204"/>
       <c r="W63" s="15"/>
-      <c r="X63" s="217"/>
-      <c r="Y63" s="218"/>
-      <c r="Z63" s="218"/>
+      <c r="X63" s="203"/>
+      <c r="Y63" s="204"/>
+      <c r="Z63" s="204"/>
       <c r="AA63" s="15"/>
       <c r="AB63" s="1"/>
-      <c r="AM63" s="219"/>
-      <c r="AN63" s="219"/>
-      <c r="AO63" s="219"/>
-      <c r="AP63" s="220"/>
-      <c r="AQ63" s="220"/>
-      <c r="AR63" s="220"/>
-      <c r="AS63" s="220"/>
-      <c r="AT63" s="220"/>
-      <c r="AU63" s="220"/>
-      <c r="AV63" s="220"/>
-      <c r="AW63" s="220"/>
+      <c r="AM63" s="209"/>
+      <c r="AN63" s="209"/>
+      <c r="AO63" s="209"/>
+      <c r="AP63" s="210"/>
+      <c r="AQ63" s="210"/>
+      <c r="AR63" s="210"/>
+      <c r="AS63" s="210"/>
+      <c r="AT63" s="210"/>
+      <c r="AU63" s="210"/>
+      <c r="AV63" s="210"/>
+      <c r="AW63" s="210"/>
       <c r="AX63" s="11"/>
       <c r="AY63" s="11"/>
       <c r="AZ63" s="11"/>
-      <c r="BC63" s="207" t="s">
+      <c r="BC63" s="196" t="s">
         <v>99</v>
       </c>
-      <c r="BD63" s="207"/>
-      <c r="BE63" s="207"/>
-      <c r="BF63" s="207"/>
-      <c r="BG63" s="207"/>
-      <c r="BH63" s="207"/>
-      <c r="BI63" s="207"/>
-      <c r="BJ63" s="207"/>
-      <c r="BK63" s="208"/>
-      <c r="BL63" s="209"/>
-      <c r="BM63" s="209"/>
-      <c r="BN63" s="209"/>
-      <c r="BO63" s="209"/>
-      <c r="BP63" s="209"/>
-      <c r="BQ63" s="209"/>
-      <c r="BR63" s="210"/>
+      <c r="BD63" s="196"/>
+      <c r="BE63" s="196"/>
+      <c r="BF63" s="196"/>
+      <c r="BG63" s="196"/>
+      <c r="BH63" s="196"/>
+      <c r="BI63" s="196"/>
+      <c r="BJ63" s="196"/>
+      <c r="BK63" s="197"/>
+      <c r="BL63" s="198"/>
+      <c r="BM63" s="198"/>
+      <c r="BN63" s="198"/>
+      <c r="BO63" s="198"/>
+      <c r="BP63" s="198"/>
+      <c r="BQ63" s="198"/>
+      <c r="BR63" s="199"/>
     </row>
     <row r="64" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="221" t="s">
+      <c r="A64" s="200" t="s">
         <v>100</v>
       </c>
-      <c r="B64" s="222"/>
-      <c r="C64" s="223"/>
-      <c r="D64" s="217" t="s">
+      <c r="B64" s="201"/>
+      <c r="C64" s="202"/>
+      <c r="D64" s="203" t="s">
         <v>101</v>
       </c>
-      <c r="E64" s="218"/>
-      <c r="F64" s="218"/>
+      <c r="E64" s="204"/>
+      <c r="F64" s="204"/>
       <c r="G64" s="15"/>
-      <c r="H64" s="217" t="s">
+      <c r="H64" s="203" t="s">
         <v>102</v>
       </c>
-      <c r="I64" s="218"/>
-      <c r="J64" s="218"/>
+      <c r="I64" s="204"/>
+      <c r="J64" s="204"/>
       <c r="K64" s="15"/>
-      <c r="L64" s="217" t="s">
+      <c r="L64" s="203" t="s">
         <v>103</v>
       </c>
-      <c r="M64" s="218"/>
-      <c r="N64" s="218"/>
+      <c r="M64" s="204"/>
+      <c r="N64" s="204"/>
       <c r="O64" s="15"/>
-      <c r="P64" s="217" t="s">
+      <c r="P64" s="203" t="s">
         <v>104</v>
       </c>
-      <c r="Q64" s="218"/>
-      <c r="R64" s="218"/>
+      <c r="Q64" s="204"/>
+      <c r="R64" s="204"/>
       <c r="S64" s="15"/>
-      <c r="T64" s="217" t="s">
+      <c r="T64" s="203" t="s">
         <v>105</v>
       </c>
-      <c r="U64" s="218"/>
-      <c r="V64" s="218"/>
+      <c r="U64" s="204"/>
+      <c r="V64" s="204"/>
       <c r="W64" s="15"/>
-      <c r="X64" s="217" t="s">
+      <c r="X64" s="203" t="s">
         <v>106</v>
       </c>
-      <c r="Y64" s="218"/>
-      <c r="Z64" s="218"/>
+      <c r="Y64" s="204"/>
+      <c r="Z64" s="204"/>
       <c r="AA64" s="15"/>
-      <c r="AI64" s="229"/>
-      <c r="AJ64" s="229"/>
+      <c r="AI64" s="205"/>
+      <c r="AJ64" s="205"/>
       <c r="AK64" s="4"/>
       <c r="BR64" s="120"/>
     </row>
@@ -10351,387 +10339,579 @@
       <c r="A68" s="28">
         <v>1</v>
       </c>
-      <c r="B68" s="224" t="s">
+      <c r="B68" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="C68" s="224"/>
-      <c r="D68" s="224"/>
-      <c r="E68" s="225" t="s">
+      <c r="C68" s="191"/>
+      <c r="D68" s="191"/>
+      <c r="E68" s="192" t="s">
         <v>109</v>
       </c>
-      <c r="F68" s="225"/>
-      <c r="G68" s="225"/>
-      <c r="H68" s="225"/>
-      <c r="I68" s="225"/>
-      <c r="J68" s="225"/>
-      <c r="K68" s="225"/>
+      <c r="F68" s="192"/>
+      <c r="G68" s="192"/>
+      <c r="H68" s="192"/>
+      <c r="I68" s="192"/>
+      <c r="J68" s="192"/>
+      <c r="K68" s="192"/>
       <c r="N68" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="O68" s="226" t="s">
+      <c r="O68" s="193" t="s">
         <v>111</v>
       </c>
-      <c r="P68" s="227"/>
-      <c r="Q68" s="228"/>
-      <c r="R68" s="225" t="s">
+      <c r="P68" s="194"/>
+      <c r="Q68" s="195"/>
+      <c r="R68" s="192" t="s">
         <v>112</v>
       </c>
-      <c r="S68" s="225"/>
-      <c r="T68" s="225"/>
-      <c r="U68" s="225"/>
-      <c r="V68" s="225"/>
-      <c r="W68" s="225"/>
-      <c r="X68" s="225"/>
+      <c r="S68" s="192"/>
+      <c r="T68" s="192"/>
+      <c r="U68" s="192"/>
+      <c r="V68" s="192"/>
+      <c r="W68" s="192"/>
+      <c r="X68" s="192"/>
       <c r="AA68" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="AB68" s="230" t="s">
+      <c r="AB68" s="206" t="s">
         <v>114</v>
       </c>
-      <c r="AC68" s="231"/>
-      <c r="AD68" s="231"/>
-      <c r="AE68" s="231"/>
-      <c r="AF68" s="231"/>
-      <c r="AG68" s="231"/>
-      <c r="AH68" s="231"/>
-      <c r="AI68" s="231"/>
-      <c r="AJ68" s="231"/>
-      <c r="AK68" s="231"/>
-      <c r="AL68" s="231"/>
-      <c r="AM68" s="232"/>
+      <c r="AC68" s="207"/>
+      <c r="AD68" s="207"/>
+      <c r="AE68" s="207"/>
+      <c r="AF68" s="207"/>
+      <c r="AG68" s="207"/>
+      <c r="AH68" s="207"/>
+      <c r="AI68" s="207"/>
+      <c r="AJ68" s="207"/>
+      <c r="AK68" s="207"/>
+      <c r="AL68" s="207"/>
+      <c r="AM68" s="208"/>
     </row>
     <row r="69" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="28">
         <v>2</v>
       </c>
-      <c r="B69" s="224" t="s">
+      <c r="B69" s="191" t="s">
         <v>115</v>
       </c>
-      <c r="C69" s="224"/>
-      <c r="D69" s="224"/>
-      <c r="E69" s="225" t="s">
+      <c r="C69" s="191"/>
+      <c r="D69" s="191"/>
+      <c r="E69" s="192" t="s">
         <v>116</v>
       </c>
-      <c r="F69" s="225"/>
-      <c r="G69" s="225"/>
-      <c r="H69" s="225"/>
-      <c r="I69" s="225"/>
-      <c r="J69" s="225"/>
-      <c r="K69" s="225"/>
+      <c r="F69" s="192"/>
+      <c r="G69" s="192"/>
+      <c r="H69" s="192"/>
+      <c r="I69" s="192"/>
+      <c r="J69" s="192"/>
+      <c r="K69" s="192"/>
       <c r="N69" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="O69" s="226" t="s">
+      <c r="O69" s="193" t="s">
         <v>118</v>
       </c>
-      <c r="P69" s="227"/>
-      <c r="Q69" s="228"/>
-      <c r="R69" s="225" t="s">
+      <c r="P69" s="194"/>
+      <c r="Q69" s="195"/>
+      <c r="R69" s="192" t="s">
         <v>119</v>
       </c>
-      <c r="S69" s="225"/>
-      <c r="T69" s="225"/>
-      <c r="U69" s="225"/>
-      <c r="V69" s="225"/>
-      <c r="W69" s="225"/>
-      <c r="X69" s="225"/>
+      <c r="S69" s="192"/>
+      <c r="T69" s="192"/>
+      <c r="U69" s="192"/>
+      <c r="V69" s="192"/>
+      <c r="W69" s="192"/>
+      <c r="X69" s="192"/>
       <c r="AA69" s="28" t="s">
         <v>120</v>
       </c>
-      <c r="AB69" s="224" t="s">
+      <c r="AB69" s="191" t="s">
         <v>118</v>
       </c>
-      <c r="AC69" s="224"/>
-      <c r="AD69" s="224"/>
-      <c r="AE69" s="225" t="s">
+      <c r="AC69" s="191"/>
+      <c r="AD69" s="191"/>
+      <c r="AE69" s="192" t="s">
         <v>121</v>
       </c>
-      <c r="AF69" s="225"/>
-      <c r="AG69" s="225"/>
-      <c r="AH69" s="225"/>
-      <c r="AI69" s="225"/>
-      <c r="AJ69" s="225"/>
-      <c r="AK69" s="225"/>
-      <c r="AL69" s="225"/>
-      <c r="AM69" s="225"/>
+      <c r="AF69" s="192"/>
+      <c r="AG69" s="192"/>
+      <c r="AH69" s="192"/>
+      <c r="AI69" s="192"/>
+      <c r="AJ69" s="192"/>
+      <c r="AK69" s="192"/>
+      <c r="AL69" s="192"/>
+      <c r="AM69" s="192"/>
     </row>
     <row r="70" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="28">
         <v>3</v>
       </c>
-      <c r="B70" s="224" t="s">
+      <c r="B70" s="191" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="224"/>
-      <c r="D70" s="224"/>
-      <c r="E70" s="225" t="s">
+      <c r="C70" s="191"/>
+      <c r="D70" s="191"/>
+      <c r="E70" s="192" t="s">
         <v>123</v>
       </c>
-      <c r="F70" s="225"/>
-      <c r="G70" s="225"/>
-      <c r="H70" s="225"/>
-      <c r="I70" s="225"/>
-      <c r="J70" s="225"/>
-      <c r="K70" s="225"/>
+      <c r="F70" s="192"/>
+      <c r="G70" s="192"/>
+      <c r="H70" s="192"/>
+      <c r="I70" s="192"/>
+      <c r="J70" s="192"/>
+      <c r="K70" s="192"/>
       <c r="N70" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="O70" s="226" t="s">
+      <c r="O70" s="193" t="s">
         <v>125</v>
       </c>
-      <c r="P70" s="227"/>
-      <c r="Q70" s="228"/>
-      <c r="R70" s="225" t="s">
+      <c r="P70" s="194"/>
+      <c r="Q70" s="195"/>
+      <c r="R70" s="192" t="s">
         <v>126</v>
       </c>
-      <c r="S70" s="225"/>
-      <c r="T70" s="225"/>
-      <c r="U70" s="225"/>
-      <c r="V70" s="225"/>
-      <c r="W70" s="225"/>
-      <c r="X70" s="225"/>
+      <c r="S70" s="192"/>
+      <c r="T70" s="192"/>
+      <c r="U70" s="192"/>
+      <c r="V70" s="192"/>
+      <c r="W70" s="192"/>
+      <c r="X70" s="192"/>
       <c r="AA70" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="AB70" s="224" t="s">
+      <c r="AB70" s="191" t="s">
         <v>125</v>
       </c>
-      <c r="AC70" s="224"/>
-      <c r="AD70" s="224"/>
-      <c r="AE70" s="225" t="s">
+      <c r="AC70" s="191"/>
+      <c r="AD70" s="191"/>
+      <c r="AE70" s="192" t="s">
         <v>128</v>
       </c>
-      <c r="AF70" s="225"/>
-      <c r="AG70" s="225"/>
-      <c r="AH70" s="225"/>
-      <c r="AI70" s="225"/>
-      <c r="AJ70" s="225"/>
-      <c r="AK70" s="225"/>
-      <c r="AL70" s="225"/>
-      <c r="AM70" s="225"/>
+      <c r="AF70" s="192"/>
+      <c r="AG70" s="192"/>
+      <c r="AH70" s="192"/>
+      <c r="AI70" s="192"/>
+      <c r="AJ70" s="192"/>
+      <c r="AK70" s="192"/>
+      <c r="AL70" s="192"/>
+      <c r="AM70" s="192"/>
       <c r="AN70" s="30"/>
     </row>
     <row r="71" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="28">
         <v>4</v>
       </c>
-      <c r="B71" s="224" t="s">
+      <c r="B71" s="191" t="s">
         <v>129</v>
       </c>
-      <c r="C71" s="224"/>
-      <c r="D71" s="224"/>
-      <c r="E71" s="225" t="s">
+      <c r="C71" s="191"/>
+      <c r="D71" s="191"/>
+      <c r="E71" s="192" t="s">
         <v>130</v>
       </c>
-      <c r="F71" s="225"/>
-      <c r="G71" s="225"/>
-      <c r="H71" s="225"/>
-      <c r="I71" s="225"/>
-      <c r="J71" s="225"/>
-      <c r="K71" s="225"/>
+      <c r="F71" s="192"/>
+      <c r="G71" s="192"/>
+      <c r="H71" s="192"/>
+      <c r="I71" s="192"/>
+      <c r="J71" s="192"/>
+      <c r="K71" s="192"/>
       <c r="N71" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="O71" s="226" t="s">
+      <c r="O71" s="193" t="s">
         <v>132</v>
       </c>
-      <c r="P71" s="227"/>
-      <c r="Q71" s="228"/>
-      <c r="R71" s="225" t="s">
+      <c r="P71" s="194"/>
+      <c r="Q71" s="195"/>
+      <c r="R71" s="192" t="s">
         <v>133</v>
       </c>
-      <c r="S71" s="225"/>
-      <c r="T71" s="225"/>
-      <c r="U71" s="225"/>
-      <c r="V71" s="225"/>
-      <c r="W71" s="225"/>
-      <c r="X71" s="225"/>
+      <c r="S71" s="192"/>
+      <c r="T71" s="192"/>
+      <c r="U71" s="192"/>
+      <c r="V71" s="192"/>
+      <c r="W71" s="192"/>
+      <c r="X71" s="192"/>
       <c r="AA71" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="AB71" s="224" t="s">
+      <c r="AB71" s="191" t="s">
         <v>132</v>
       </c>
-      <c r="AC71" s="224"/>
-      <c r="AD71" s="224"/>
-      <c r="AE71" s="225" t="s">
+      <c r="AC71" s="191"/>
+      <c r="AD71" s="191"/>
+      <c r="AE71" s="192" t="s">
         <v>135</v>
       </c>
-      <c r="AF71" s="225"/>
-      <c r="AG71" s="225"/>
-      <c r="AH71" s="225"/>
-      <c r="AI71" s="225"/>
-      <c r="AJ71" s="225"/>
-      <c r="AK71" s="225"/>
-      <c r="AL71" s="225"/>
-      <c r="AM71" s="225"/>
+      <c r="AF71" s="192"/>
+      <c r="AG71" s="192"/>
+      <c r="AH71" s="192"/>
+      <c r="AI71" s="192"/>
+      <c r="AJ71" s="192"/>
+      <c r="AK71" s="192"/>
+      <c r="AL71" s="192"/>
+      <c r="AM71" s="192"/>
       <c r="AN71" s="30"/>
     </row>
     <row r="72" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="28">
         <v>5</v>
       </c>
-      <c r="B72" s="224" t="s">
+      <c r="B72" s="191" t="s">
         <v>136</v>
       </c>
-      <c r="C72" s="224"/>
-      <c r="D72" s="224"/>
-      <c r="E72" s="225" t="s">
+      <c r="C72" s="191"/>
+      <c r="D72" s="191"/>
+      <c r="E72" s="192" t="s">
         <v>137</v>
       </c>
-      <c r="F72" s="225"/>
-      <c r="G72" s="225"/>
-      <c r="H72" s="225"/>
-      <c r="I72" s="225"/>
-      <c r="J72" s="225"/>
-      <c r="K72" s="225"/>
+      <c r="F72" s="192"/>
+      <c r="G72" s="192"/>
+      <c r="H72" s="192"/>
+      <c r="I72" s="192"/>
+      <c r="J72" s="192"/>
+      <c r="K72" s="192"/>
       <c r="N72" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="O72" s="226" t="s">
+      <c r="O72" s="193" t="s">
         <v>139</v>
       </c>
-      <c r="P72" s="227"/>
-      <c r="Q72" s="228"/>
-      <c r="R72" s="225" t="s">
+      <c r="P72" s="194"/>
+      <c r="Q72" s="195"/>
+      <c r="R72" s="192" t="s">
         <v>140</v>
       </c>
-      <c r="S72" s="225"/>
-      <c r="T72" s="225"/>
-      <c r="U72" s="225"/>
-      <c r="V72" s="225"/>
-      <c r="W72" s="225"/>
-      <c r="X72" s="225"/>
+      <c r="S72" s="192"/>
+      <c r="T72" s="192"/>
+      <c r="U72" s="192"/>
+      <c r="V72" s="192"/>
+      <c r="W72" s="192"/>
+      <c r="X72" s="192"/>
       <c r="AA72" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="AB72" s="224" t="s">
+      <c r="AB72" s="191" t="s">
         <v>139</v>
       </c>
-      <c r="AC72" s="224"/>
-      <c r="AD72" s="224"/>
-      <c r="AE72" s="225" t="s">
+      <c r="AC72" s="191"/>
+      <c r="AD72" s="191"/>
+      <c r="AE72" s="192" t="s">
         <v>142</v>
       </c>
-      <c r="AF72" s="225"/>
-      <c r="AG72" s="225"/>
-      <c r="AH72" s="225"/>
-      <c r="AI72" s="225"/>
-      <c r="AJ72" s="225"/>
-      <c r="AK72" s="225"/>
-      <c r="AL72" s="225"/>
-      <c r="AM72" s="225"/>
+      <c r="AF72" s="192"/>
+      <c r="AG72" s="192"/>
+      <c r="AH72" s="192"/>
+      <c r="AI72" s="192"/>
+      <c r="AJ72" s="192"/>
+      <c r="AK72" s="192"/>
+      <c r="AL72" s="192"/>
+      <c r="AM72" s="192"/>
       <c r="AN72" s="30"/>
     </row>
     <row r="73" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="28">
         <v>6</v>
       </c>
-      <c r="B73" s="224" t="s">
+      <c r="B73" s="191" t="s">
         <v>143</v>
       </c>
-      <c r="C73" s="224"/>
-      <c r="D73" s="224"/>
-      <c r="E73" s="225" t="s">
+      <c r="C73" s="191"/>
+      <c r="D73" s="191"/>
+      <c r="E73" s="192" t="s">
         <v>144</v>
       </c>
-      <c r="F73" s="225"/>
-      <c r="G73" s="225"/>
-      <c r="H73" s="225"/>
-      <c r="I73" s="225"/>
-      <c r="J73" s="225"/>
-      <c r="K73" s="225"/>
+      <c r="F73" s="192"/>
+      <c r="G73" s="192"/>
+      <c r="H73" s="192"/>
+      <c r="I73" s="192"/>
+      <c r="J73" s="192"/>
+      <c r="K73" s="192"/>
       <c r="N73" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="O73" s="226" t="s">
+      <c r="O73" s="193" t="s">
         <v>146</v>
       </c>
-      <c r="P73" s="227"/>
-      <c r="Q73" s="228"/>
-      <c r="R73" s="225" t="s">
+      <c r="P73" s="194"/>
+      <c r="Q73" s="195"/>
+      <c r="R73" s="192" t="s">
         <v>147</v>
       </c>
-      <c r="S73" s="225"/>
-      <c r="T73" s="225"/>
-      <c r="U73" s="225"/>
-      <c r="V73" s="225"/>
-      <c r="W73" s="225"/>
-      <c r="X73" s="225"/>
+      <c r="S73" s="192"/>
+      <c r="T73" s="192"/>
+      <c r="U73" s="192"/>
+      <c r="V73" s="192"/>
+      <c r="W73" s="192"/>
+      <c r="X73" s="192"/>
       <c r="AA73" s="28"/>
-      <c r="AB73" s="224" t="s">
+      <c r="AB73" s="191" t="s">
         <v>148</v>
       </c>
-      <c r="AC73" s="224"/>
-      <c r="AD73" s="224"/>
-      <c r="AE73" s="225" t="s">
+      <c r="AC73" s="191"/>
+      <c r="AD73" s="191"/>
+      <c r="AE73" s="192" t="s">
         <v>149</v>
       </c>
-      <c r="AF73" s="225"/>
-      <c r="AG73" s="225"/>
-      <c r="AH73" s="225"/>
-      <c r="AI73" s="225"/>
-      <c r="AJ73" s="225"/>
-      <c r="AK73" s="225"/>
-      <c r="AL73" s="225"/>
-      <c r="AM73" s="225"/>
+      <c r="AF73" s="192"/>
+      <c r="AG73" s="192"/>
+      <c r="AH73" s="192"/>
+      <c r="AI73" s="192"/>
+      <c r="AJ73" s="192"/>
+      <c r="AK73" s="192"/>
+      <c r="AL73" s="192"/>
+      <c r="AM73" s="192"/>
     </row>
     <row r="74" spans="1:70" s="29" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="28">
         <v>7</v>
       </c>
-      <c r="B74" s="224" t="s">
+      <c r="B74" s="191" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="224"/>
-      <c r="D74" s="224"/>
-      <c r="E74" s="225" t="s">
+      <c r="C74" s="191"/>
+      <c r="D74" s="191"/>
+      <c r="E74" s="192" t="s">
         <v>151</v>
       </c>
-      <c r="F74" s="225"/>
-      <c r="G74" s="225"/>
-      <c r="H74" s="225"/>
-      <c r="I74" s="225"/>
-      <c r="J74" s="225"/>
-      <c r="K74" s="225"/>
+      <c r="F74" s="192"/>
+      <c r="G74" s="192"/>
+      <c r="H74" s="192"/>
+      <c r="I74" s="192"/>
+      <c r="J74" s="192"/>
+      <c r="K74" s="192"/>
     </row>
     <row r="75" spans="1:70" ht="16.5" x14ac:dyDescent="0.25">
       <c r="N75" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="281">
-    <mergeCell ref="BP24:BP25"/>
-    <mergeCell ref="BP28:BP29"/>
-    <mergeCell ref="BP32:BP33"/>
-    <mergeCell ref="BP36:BP37"/>
-    <mergeCell ref="BP40:BP41"/>
-    <mergeCell ref="BP44:BP45"/>
-    <mergeCell ref="BP48:BP49"/>
-    <mergeCell ref="BP52:BP53"/>
-    <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="BR40:BR41"/>
-    <mergeCell ref="BR44:BR45"/>
-    <mergeCell ref="BL32:BL33"/>
-    <mergeCell ref="BL36:BL37"/>
-    <mergeCell ref="BL40:BL41"/>
-    <mergeCell ref="BL44:BL45"/>
-    <mergeCell ref="BO16:BO17"/>
-    <mergeCell ref="BO20:BO21"/>
-    <mergeCell ref="BO24:BO25"/>
-    <mergeCell ref="BO28:BO29"/>
-    <mergeCell ref="BO32:BO33"/>
-    <mergeCell ref="BO36:BO37"/>
-    <mergeCell ref="BO40:BO41"/>
-    <mergeCell ref="BO44:BO45"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AZ5:BA5"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="BP20:BP21"/>
+    <mergeCell ref="AM54:BR55"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="BP6:BP7"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="BR6:BR7"/>
+    <mergeCell ref="BL6:BL7"/>
+    <mergeCell ref="AM10:BR11"/>
+    <mergeCell ref="AM14:BR15"/>
+    <mergeCell ref="AM18:BR19"/>
+    <mergeCell ref="AM22:BR23"/>
+    <mergeCell ref="BQ6:BQ7"/>
+    <mergeCell ref="BD6:BD7"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BK6:BK7"/>
+    <mergeCell ref="BL48:BL49"/>
+    <mergeCell ref="BL52:BL53"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BO12:BO13"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="AM1:BR1"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AQ4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="AF2:AL2"/>
+    <mergeCell ref="AF3:AL3"/>
+    <mergeCell ref="V2:AB2"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="D2:R2"/>
+    <mergeCell ref="D3:R3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="AX5:AY5"/>
+    <mergeCell ref="B4:AL4"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AP59:AW59"/>
+    <mergeCell ref="BC59:BJ59"/>
+    <mergeCell ref="BK59:BR59"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="AJ56:AL56"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="T60:V60"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="X59:Z59"/>
+    <mergeCell ref="AM59:AO59"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="X61:Z61"/>
+    <mergeCell ref="AM61:AO61"/>
+    <mergeCell ref="AP61:AW61"/>
+    <mergeCell ref="BC61:BJ61"/>
+    <mergeCell ref="BK61:BR61"/>
+    <mergeCell ref="X60:Z60"/>
+    <mergeCell ref="AM60:AO60"/>
+    <mergeCell ref="AP60:AW60"/>
+    <mergeCell ref="BC60:BJ60"/>
+    <mergeCell ref="BK60:BR60"/>
+    <mergeCell ref="AM62:AO62"/>
+    <mergeCell ref="AP62:AW62"/>
+    <mergeCell ref="BC62:BJ62"/>
+    <mergeCell ref="BK62:BR62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="P62:R62"/>
+    <mergeCell ref="T62:V62"/>
+    <mergeCell ref="X62:Z62"/>
+    <mergeCell ref="A61:C62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="X63:Z63"/>
+    <mergeCell ref="AM63:AO63"/>
+    <mergeCell ref="AP63:AW63"/>
+    <mergeCell ref="BC63:BJ63"/>
+    <mergeCell ref="BK63:BR63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="L64:N64"/>
+    <mergeCell ref="P64:R64"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:K69"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="R69:X69"/>
+    <mergeCell ref="AB69:AD69"/>
+    <mergeCell ref="AE69:AM69"/>
+    <mergeCell ref="T64:V64"/>
+    <mergeCell ref="X64:Z64"/>
+    <mergeCell ref="AI64:AJ64"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:K68"/>
+    <mergeCell ref="O68:Q68"/>
+    <mergeCell ref="R68:X68"/>
+    <mergeCell ref="AB68:AM68"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:K71"/>
+    <mergeCell ref="O71:Q71"/>
+    <mergeCell ref="R71:X71"/>
+    <mergeCell ref="AB71:AD71"/>
+    <mergeCell ref="AE71:AM71"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="E70:K70"/>
+    <mergeCell ref="O70:Q70"/>
+    <mergeCell ref="R70:X70"/>
+    <mergeCell ref="AB70:AD70"/>
+    <mergeCell ref="AE70:AM70"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E74:K74"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:K73"/>
+    <mergeCell ref="O73:Q73"/>
+    <mergeCell ref="R73:X73"/>
+    <mergeCell ref="AB73:AD73"/>
+    <mergeCell ref="AE73:AM73"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:K72"/>
+    <mergeCell ref="O72:Q72"/>
+    <mergeCell ref="R72:X72"/>
+    <mergeCell ref="AB72:AD72"/>
+    <mergeCell ref="AE72:AM72"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP2:AZ2"/>
+    <mergeCell ref="AP3:AZ3"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="BD3:BI3"/>
+    <mergeCell ref="BM2:BR2"/>
+    <mergeCell ref="BM3:BR3"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BB5:BC5"/>
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="BN6:BN7"/>
     <mergeCell ref="BR48:BR49"/>
     <mergeCell ref="BR52:BR53"/>
     <mergeCell ref="BP12:BP13"/>
@@ -10756,231 +10936,39 @@
     <mergeCell ref="BL20:BL21"/>
     <mergeCell ref="BL24:BL25"/>
     <mergeCell ref="BL28:BL29"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="BR40:BR41"/>
+    <mergeCell ref="BR44:BR45"/>
+    <mergeCell ref="BL32:BL33"/>
+    <mergeCell ref="BL36:BL37"/>
+    <mergeCell ref="BL40:BL41"/>
+    <mergeCell ref="BL44:BL45"/>
+    <mergeCell ref="BO16:BO17"/>
+    <mergeCell ref="BO20:BO21"/>
+    <mergeCell ref="BO24:BO25"/>
+    <mergeCell ref="BO28:BO29"/>
+    <mergeCell ref="BO32:BO33"/>
+    <mergeCell ref="BO36:BO37"/>
+    <mergeCell ref="BO40:BO41"/>
+    <mergeCell ref="BO44:BO45"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AZ5:BA5"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="BP20:BP21"/>
+    <mergeCell ref="BP24:BP25"/>
+    <mergeCell ref="BP28:BP29"/>
+    <mergeCell ref="BP32:BP33"/>
+    <mergeCell ref="BP36:BP37"/>
+    <mergeCell ref="BP40:BP41"/>
+    <mergeCell ref="BP44:BP45"/>
+    <mergeCell ref="BP48:BP49"/>
+    <mergeCell ref="BP52:BP53"/>
+    <mergeCell ref="BO6:BO7"/>
     <mergeCell ref="BO48:BO49"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP2:AZ2"/>
-    <mergeCell ref="AP3:AZ3"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="BD3:BI3"/>
-    <mergeCell ref="BM2:BR2"/>
-    <mergeCell ref="BM3:BR3"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BP8:BP9"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BB5:BC5"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BM6:BM7"/>
-    <mergeCell ref="BN6:BN7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B74:D74"/>
-    <mergeCell ref="E74:K74"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:K73"/>
-    <mergeCell ref="O73:Q73"/>
-    <mergeCell ref="R73:X73"/>
-    <mergeCell ref="AB73:AD73"/>
-    <mergeCell ref="AE73:AM73"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:K72"/>
-    <mergeCell ref="O72:Q72"/>
-    <mergeCell ref="R72:X72"/>
-    <mergeCell ref="AB72:AD72"/>
-    <mergeCell ref="AE72:AM72"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="E71:K71"/>
-    <mergeCell ref="O71:Q71"/>
-    <mergeCell ref="R71:X71"/>
-    <mergeCell ref="AB71:AD71"/>
-    <mergeCell ref="AE71:AM71"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="E70:K70"/>
-    <mergeCell ref="O70:Q70"/>
-    <mergeCell ref="R70:X70"/>
-    <mergeCell ref="AB70:AD70"/>
-    <mergeCell ref="AE70:AM70"/>
-    <mergeCell ref="BC63:BJ63"/>
-    <mergeCell ref="BK63:BR63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="L64:N64"/>
-    <mergeCell ref="P64:R64"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="E69:K69"/>
-    <mergeCell ref="O69:Q69"/>
-    <mergeCell ref="R69:X69"/>
-    <mergeCell ref="AB69:AD69"/>
-    <mergeCell ref="AE69:AM69"/>
-    <mergeCell ref="T64:V64"/>
-    <mergeCell ref="X64:Z64"/>
-    <mergeCell ref="AI64:AJ64"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="E68:K68"/>
-    <mergeCell ref="O68:Q68"/>
-    <mergeCell ref="R68:X68"/>
-    <mergeCell ref="AB68:AM68"/>
-    <mergeCell ref="AM62:AO62"/>
-    <mergeCell ref="AP62:AW62"/>
-    <mergeCell ref="BC62:BJ62"/>
-    <mergeCell ref="BK62:BR62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="P62:R62"/>
-    <mergeCell ref="T62:V62"/>
-    <mergeCell ref="X62:Z62"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="X63:Z63"/>
-    <mergeCell ref="AM63:AO63"/>
-    <mergeCell ref="AP63:AW63"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="X61:Z61"/>
-    <mergeCell ref="AM61:AO61"/>
-    <mergeCell ref="AP61:AW61"/>
-    <mergeCell ref="BC61:BJ61"/>
-    <mergeCell ref="BK61:BR61"/>
-    <mergeCell ref="X60:Z60"/>
-    <mergeCell ref="AM60:AO60"/>
-    <mergeCell ref="AP60:AW60"/>
-    <mergeCell ref="BC60:BJ60"/>
-    <mergeCell ref="BK60:BR60"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="T60:V60"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="X59:Z59"/>
-    <mergeCell ref="AM59:AO59"/>
-    <mergeCell ref="AP59:AW59"/>
-    <mergeCell ref="BC59:BJ59"/>
-    <mergeCell ref="BK59:BR59"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="AJ56:AL56"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="AM1:BR1"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AQ4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="AF2:AL2"/>
-    <mergeCell ref="AF3:AL3"/>
-    <mergeCell ref="V2:AB2"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="D2:R2"/>
-    <mergeCell ref="D3:R3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="AX5:AY5"/>
-    <mergeCell ref="B4:AL4"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM54:BR55"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="BP6:BP7"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="BR6:BR7"/>
-    <mergeCell ref="BL6:BL7"/>
-    <mergeCell ref="AM10:BR11"/>
-    <mergeCell ref="AM14:BR15"/>
-    <mergeCell ref="AM18:BR19"/>
-    <mergeCell ref="AM22:BR23"/>
-    <mergeCell ref="BQ6:BQ7"/>
-    <mergeCell ref="BD6:BD7"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BK6:BK7"/>
-    <mergeCell ref="BL48:BL49"/>
-    <mergeCell ref="BL52:BL53"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="BO12:BO13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Python/ExternalData/DailyReportTemplateWithLunar_B.xlsx
+++ b/Python/ExternalData/DailyReportTemplateWithLunar_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_EveryThing\_code\HuachunDailyReport2024\Python\ExternalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BE1949E-DD24-4B96-9D46-E8A52621BC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556974D9-F07C-4075-9F6F-D12221482BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A6DB0C3-2965-4D6C-B04A-BB1132023D50}"/>
   </bookViews>
@@ -246,10 +246,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>6.無資料</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>實際工期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -641,6 +637,10 @@
   </si>
   <si>
     <t>驗收完成日</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>無資料</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1956,7 +1956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="270">
+  <cellXfs count="269">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2186,30 +2186,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
@@ -2258,37 +2237,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2398,6 +2347,182 @@
     <xf numFmtId="177" fontId="4" fillId="0" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2410,8 +2535,122 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="distributed"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="177" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2419,17 +2658,26 @@
     <xf numFmtId="177" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2437,147 +2685,6 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2587,163 +2694,53 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4498,652 +4495,652 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="216" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
-      <c r="H1" s="217"/>
-      <c r="I1" s="217"/>
-      <c r="J1" s="217"/>
-      <c r="K1" s="217"/>
-      <c r="L1" s="217"/>
-      <c r="M1" s="217"/>
-      <c r="N1" s="217"/>
-      <c r="O1" s="217"/>
-      <c r="P1" s="217"/>
-      <c r="Q1" s="217"/>
-      <c r="R1" s="217"/>
-      <c r="S1" s="217"/>
-      <c r="T1" s="217"/>
-      <c r="U1" s="217"/>
-      <c r="V1" s="217"/>
-      <c r="W1" s="217"/>
-      <c r="X1" s="217"/>
-      <c r="Y1" s="217"/>
-      <c r="Z1" s="217"/>
-      <c r="AA1" s="217"/>
-      <c r="AB1" s="217"/>
-      <c r="AC1" s="217"/>
-      <c r="AD1" s="217"/>
-      <c r="AE1" s="217"/>
-      <c r="AF1" s="217"/>
-      <c r="AG1" s="217"/>
-      <c r="AH1" s="217"/>
-      <c r="AI1" s="217"/>
-      <c r="AJ1" s="217"/>
-      <c r="AK1" s="217"/>
-      <c r="AL1" s="218"/>
-      <c r="AM1" s="216" t="s">
-        <v>126</v>
-      </c>
-      <c r="AN1" s="217"/>
-      <c r="AO1" s="217"/>
-      <c r="AP1" s="217"/>
-      <c r="AQ1" s="217"/>
-      <c r="AR1" s="217"/>
-      <c r="AS1" s="217"/>
-      <c r="AT1" s="217"/>
-      <c r="AU1" s="217"/>
-      <c r="AV1" s="217"/>
-      <c r="AW1" s="217"/>
-      <c r="AX1" s="217"/>
-      <c r="AY1" s="217"/>
-      <c r="AZ1" s="217"/>
-      <c r="BA1" s="217"/>
-      <c r="BB1" s="217"/>
-      <c r="BC1" s="217"/>
-      <c r="BD1" s="217"/>
-      <c r="BE1" s="217"/>
-      <c r="BF1" s="217"/>
-      <c r="BG1" s="217"/>
-      <c r="BH1" s="217"/>
-      <c r="BI1" s="217"/>
-      <c r="BJ1" s="217"/>
-      <c r="BK1" s="217"/>
-      <c r="BL1" s="217"/>
-      <c r="BM1" s="217"/>
-      <c r="BN1" s="217"/>
-      <c r="BO1" s="217"/>
-      <c r="BP1" s="217"/>
-      <c r="BQ1" s="217"/>
-      <c r="BR1" s="218"/>
+      <c r="A1" s="170" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="171"/>
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="171"/>
+      <c r="AG1" s="171"/>
+      <c r="AH1" s="171"/>
+      <c r="AI1" s="171"/>
+      <c r="AJ1" s="171"/>
+      <c r="AK1" s="171"/>
+      <c r="AL1" s="172"/>
+      <c r="AM1" s="170" t="s">
+        <v>125</v>
+      </c>
+      <c r="AN1" s="171"/>
+      <c r="AO1" s="171"/>
+      <c r="AP1" s="171"/>
+      <c r="AQ1" s="171"/>
+      <c r="AR1" s="171"/>
+      <c r="AS1" s="171"/>
+      <c r="AT1" s="171"/>
+      <c r="AU1" s="171"/>
+      <c r="AV1" s="171"/>
+      <c r="AW1" s="171"/>
+      <c r="AX1" s="171"/>
+      <c r="AY1" s="171"/>
+      <c r="AZ1" s="171"/>
+      <c r="BA1" s="171"/>
+      <c r="BB1" s="171"/>
+      <c r="BC1" s="171"/>
+      <c r="BD1" s="171"/>
+      <c r="BE1" s="171"/>
+      <c r="BF1" s="171"/>
+      <c r="BG1" s="171"/>
+      <c r="BH1" s="171"/>
+      <c r="BI1" s="171"/>
+      <c r="BJ1" s="171"/>
+      <c r="BK1" s="171"/>
+      <c r="BL1" s="171"/>
+      <c r="BM1" s="171"/>
+      <c r="BN1" s="171"/>
+      <c r="BO1" s="171"/>
+      <c r="BP1" s="171"/>
+      <c r="BQ1" s="171"/>
+      <c r="BR1" s="172"/>
     </row>
     <row r="2" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="178" t="s">
-        <v>119</v>
-      </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="179"/>
-      <c r="N2" s="179"/>
-      <c r="O2" s="179"/>
-      <c r="P2" s="179"/>
-      <c r="Q2" s="179"/>
-      <c r="R2" s="179"/>
-      <c r="S2" s="179" t="s">
+      <c r="A2" s="180" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="178"/>
+      <c r="C2" s="178"/>
+      <c r="D2" s="178"/>
+      <c r="E2" s="178"/>
+      <c r="F2" s="178"/>
+      <c r="G2" s="178"/>
+      <c r="H2" s="178"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="178"/>
+      <c r="K2" s="178"/>
+      <c r="L2" s="178"/>
+      <c r="M2" s="178"/>
+      <c r="N2" s="178"/>
+      <c r="O2" s="178"/>
+      <c r="P2" s="178"/>
+      <c r="Q2" s="178"/>
+      <c r="R2" s="178"/>
+      <c r="S2" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="179"/>
-      <c r="U2" s="179"/>
-      <c r="V2" s="179"/>
-      <c r="W2" s="179"/>
-      <c r="X2" s="179"/>
-      <c r="Y2" s="179"/>
-      <c r="Z2" s="179"/>
-      <c r="AA2" s="179"/>
-      <c r="AB2" s="179"/>
-      <c r="AC2" s="179" t="s">
+      <c r="T2" s="178"/>
+      <c r="U2" s="178"/>
+      <c r="V2" s="178"/>
+      <c r="W2" s="178"/>
+      <c r="X2" s="178"/>
+      <c r="Y2" s="178"/>
+      <c r="Z2" s="178"/>
+      <c r="AA2" s="178"/>
+      <c r="AB2" s="178"/>
+      <c r="AC2" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="179"/>
-      <c r="AE2" s="179"/>
-      <c r="AF2" s="179"/>
-      <c r="AG2" s="179"/>
-      <c r="AH2" s="179"/>
-      <c r="AI2" s="179"/>
-      <c r="AJ2" s="179"/>
-      <c r="AK2" s="179"/>
-      <c r="AL2" s="180"/>
-      <c r="AM2" s="178" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN2" s="179"/>
-      <c r="AO2" s="179"/>
-      <c r="AP2" s="179"/>
-      <c r="AQ2" s="179"/>
-      <c r="AR2" s="179"/>
-      <c r="AS2" s="179"/>
-      <c r="AT2" s="179"/>
-      <c r="AU2" s="179"/>
-      <c r="AV2" s="179"/>
-      <c r="AW2" s="179"/>
-      <c r="AX2" s="179"/>
-      <c r="AY2" s="179"/>
-      <c r="AZ2" s="179"/>
-      <c r="BA2" s="179" t="s">
+      <c r="AD2" s="178"/>
+      <c r="AE2" s="178"/>
+      <c r="AF2" s="178"/>
+      <c r="AG2" s="178"/>
+      <c r="AH2" s="178"/>
+      <c r="AI2" s="178"/>
+      <c r="AJ2" s="178"/>
+      <c r="AK2" s="178"/>
+      <c r="AL2" s="179"/>
+      <c r="AM2" s="180" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN2" s="178"/>
+      <c r="AO2" s="178"/>
+      <c r="AP2" s="178"/>
+      <c r="AQ2" s="178"/>
+      <c r="AR2" s="178"/>
+      <c r="AS2" s="178"/>
+      <c r="AT2" s="178"/>
+      <c r="AU2" s="178"/>
+      <c r="AV2" s="178"/>
+      <c r="AW2" s="178"/>
+      <c r="AX2" s="178"/>
+      <c r="AY2" s="178"/>
+      <c r="AZ2" s="178"/>
+      <c r="BA2" s="178" t="s">
         <v>0</v>
       </c>
-      <c r="BB2" s="179"/>
-      <c r="BC2" s="179"/>
-      <c r="BD2" s="179"/>
-      <c r="BE2" s="179"/>
-      <c r="BF2" s="179"/>
-      <c r="BG2" s="179"/>
-      <c r="BH2" s="179"/>
-      <c r="BI2" s="179"/>
-      <c r="BJ2" s="179" t="s">
+      <c r="BB2" s="178"/>
+      <c r="BC2" s="178"/>
+      <c r="BD2" s="178"/>
+      <c r="BE2" s="178"/>
+      <c r="BF2" s="178"/>
+      <c r="BG2" s="178"/>
+      <c r="BH2" s="178"/>
+      <c r="BI2" s="178"/>
+      <c r="BJ2" s="178" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" s="179"/>
-      <c r="BL2" s="179"/>
-      <c r="BM2" s="179"/>
-      <c r="BN2" s="179"/>
-      <c r="BO2" s="179"/>
-      <c r="BP2" s="179"/>
-      <c r="BQ2" s="179"/>
-      <c r="BR2" s="180"/>
+      <c r="BK2" s="178"/>
+      <c r="BL2" s="178"/>
+      <c r="BM2" s="178"/>
+      <c r="BN2" s="178"/>
+      <c r="BO2" s="178"/>
+      <c r="BP2" s="178"/>
+      <c r="BQ2" s="178"/>
+      <c r="BR2" s="179"/>
     </row>
     <row r="3" spans="1:70" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="178" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
-      <c r="E3" s="179"/>
-      <c r="F3" s="179"/>
-      <c r="G3" s="179"/>
-      <c r="H3" s="179"/>
-      <c r="I3" s="179"/>
-      <c r="J3" s="179"/>
-      <c r="K3" s="179"/>
-      <c r="L3" s="179"/>
-      <c r="M3" s="179"/>
-      <c r="N3" s="179"/>
-      <c r="O3" s="179"/>
-      <c r="P3" s="179"/>
-      <c r="Q3" s="179"/>
-      <c r="R3" s="179"/>
-      <c r="S3" s="179" t="s">
+      <c r="A3" s="180" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="178"/>
+      <c r="M3" s="178"/>
+      <c r="N3" s="178"/>
+      <c r="O3" s="178"/>
+      <c r="P3" s="178"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="178"/>
+      <c r="S3" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="179"/>
-      <c r="U3" s="179"/>
-      <c r="V3" s="179"/>
-      <c r="W3" s="179"/>
-      <c r="X3" s="179"/>
-      <c r="Y3" s="179"/>
-      <c r="Z3" s="179"/>
-      <c r="AA3" s="179"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="179" t="s">
+      <c r="T3" s="178"/>
+      <c r="U3" s="178"/>
+      <c r="V3" s="178"/>
+      <c r="W3" s="178"/>
+      <c r="X3" s="178"/>
+      <c r="Y3" s="178"/>
+      <c r="Z3" s="178"/>
+      <c r="AA3" s="178"/>
+      <c r="AB3" s="178"/>
+      <c r="AC3" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="179"/>
-      <c r="AE3" s="179"/>
-      <c r="AF3" s="179"/>
-      <c r="AG3" s="179"/>
-      <c r="AH3" s="179"/>
-      <c r="AI3" s="179"/>
-      <c r="AJ3" s="179"/>
-      <c r="AK3" s="179"/>
-      <c r="AL3" s="180"/>
-      <c r="AM3" s="178" t="s">
-        <v>127</v>
-      </c>
-      <c r="AN3" s="179"/>
-      <c r="AO3" s="179"/>
-      <c r="AP3" s="179"/>
-      <c r="AQ3" s="179"/>
-      <c r="AR3" s="179"/>
-      <c r="AS3" s="179"/>
-      <c r="AT3" s="179"/>
-      <c r="AU3" s="179"/>
-      <c r="AV3" s="179"/>
-      <c r="AW3" s="179"/>
-      <c r="AX3" s="179"/>
-      <c r="AY3" s="179"/>
-      <c r="AZ3" s="179"/>
-      <c r="BA3" s="179" t="s">
+      <c r="AD3" s="178"/>
+      <c r="AE3" s="178"/>
+      <c r="AF3" s="178"/>
+      <c r="AG3" s="178"/>
+      <c r="AH3" s="178"/>
+      <c r="AI3" s="178"/>
+      <c r="AJ3" s="178"/>
+      <c r="AK3" s="178"/>
+      <c r="AL3" s="179"/>
+      <c r="AM3" s="180" t="s">
+        <v>126</v>
+      </c>
+      <c r="AN3" s="178"/>
+      <c r="AO3" s="178"/>
+      <c r="AP3" s="178"/>
+      <c r="AQ3" s="178"/>
+      <c r="AR3" s="178"/>
+      <c r="AS3" s="178"/>
+      <c r="AT3" s="178"/>
+      <c r="AU3" s="178"/>
+      <c r="AV3" s="178"/>
+      <c r="AW3" s="178"/>
+      <c r="AX3" s="178"/>
+      <c r="AY3" s="178"/>
+      <c r="AZ3" s="178"/>
+      <c r="BA3" s="178" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="179"/>
-      <c r="BC3" s="179"/>
-      <c r="BD3" s="179"/>
-      <c r="BE3" s="179"/>
-      <c r="BF3" s="179"/>
-      <c r="BG3" s="179"/>
-      <c r="BH3" s="179"/>
-      <c r="BI3" s="179"/>
-      <c r="BJ3" s="179" t="s">
+      <c r="BB3" s="178"/>
+      <c r="BC3" s="178"/>
+      <c r="BD3" s="178"/>
+      <c r="BE3" s="178"/>
+      <c r="BF3" s="178"/>
+      <c r="BG3" s="178"/>
+      <c r="BH3" s="178"/>
+      <c r="BI3" s="178"/>
+      <c r="BJ3" s="178" t="s">
         <v>3</v>
       </c>
-      <c r="BK3" s="179"/>
-      <c r="BL3" s="179"/>
-      <c r="BM3" s="179"/>
-      <c r="BN3" s="179"/>
-      <c r="BO3" s="179"/>
-      <c r="BP3" s="179"/>
-      <c r="BQ3" s="179"/>
-      <c r="BR3" s="180"/>
+      <c r="BK3" s="178"/>
+      <c r="BL3" s="178"/>
+      <c r="BM3" s="178"/>
+      <c r="BN3" s="178"/>
+      <c r="BO3" s="178"/>
+      <c r="BP3" s="178"/>
+      <c r="BQ3" s="178"/>
+      <c r="BR3" s="179"/>
     </row>
     <row r="4" spans="1:70" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="224"/>
-      <c r="B4" s="226"/>
-      <c r="C4" s="226"/>
-      <c r="D4" s="226"/>
-      <c r="E4" s="226"/>
-      <c r="F4" s="226"/>
-      <c r="G4" s="226"/>
-      <c r="H4" s="226"/>
-      <c r="I4" s="226"/>
-      <c r="J4" s="226"/>
-      <c r="K4" s="226"/>
-      <c r="L4" s="226"/>
-      <c r="M4" s="226"/>
-      <c r="N4" s="226"/>
-      <c r="O4" s="226"/>
-      <c r="P4" s="226"/>
-      <c r="Q4" s="226"/>
-      <c r="R4" s="226"/>
-      <c r="S4" s="226"/>
-      <c r="T4" s="226"/>
-      <c r="U4" s="226"/>
-      <c r="V4" s="226"/>
-      <c r="W4" s="226"/>
-      <c r="X4" s="226"/>
-      <c r="Y4" s="226"/>
-      <c r="Z4" s="226"/>
-      <c r="AA4" s="226"/>
-      <c r="AB4" s="226"/>
-      <c r="AC4" s="226"/>
-      <c r="AD4" s="226"/>
-      <c r="AE4" s="226"/>
-      <c r="AF4" s="226"/>
-      <c r="AG4" s="226"/>
-      <c r="AH4" s="226"/>
-      <c r="AI4" s="226"/>
-      <c r="AJ4" s="226"/>
-      <c r="AK4" s="226"/>
-      <c r="AL4" s="226"/>
-      <c r="AM4" s="119" t="s">
+      <c r="A4" s="181"/>
+      <c r="B4" s="185"/>
+      <c r="C4" s="185"/>
+      <c r="D4" s="185"/>
+      <c r="E4" s="185"/>
+      <c r="F4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="185"/>
+      <c r="I4" s="185"/>
+      <c r="J4" s="185"/>
+      <c r="K4" s="185"/>
+      <c r="L4" s="185"/>
+      <c r="M4" s="185"/>
+      <c r="N4" s="185"/>
+      <c r="O4" s="185"/>
+      <c r="P4" s="185"/>
+      <c r="Q4" s="185"/>
+      <c r="R4" s="185"/>
+      <c r="S4" s="185"/>
+      <c r="T4" s="185"/>
+      <c r="U4" s="185"/>
+      <c r="V4" s="185"/>
+      <c r="W4" s="185"/>
+      <c r="X4" s="185"/>
+      <c r="Y4" s="185"/>
+      <c r="Z4" s="185"/>
+      <c r="AA4" s="185"/>
+      <c r="AB4" s="185"/>
+      <c r="AC4" s="185"/>
+      <c r="AD4" s="185"/>
+      <c r="AE4" s="185"/>
+      <c r="AF4" s="185"/>
+      <c r="AG4" s="185"/>
+      <c r="AH4" s="185"/>
+      <c r="AI4" s="185"/>
+      <c r="AJ4" s="185"/>
+      <c r="AK4" s="185"/>
+      <c r="AL4" s="185"/>
+      <c r="AM4" s="102" t="s">
+        <v>128</v>
+      </c>
+      <c r="AN4" s="173" t="s">
         <v>129</v>
       </c>
-      <c r="AN4" s="219" t="s">
+      <c r="AO4" s="174"/>
+      <c r="AP4" s="175"/>
+      <c r="AQ4" s="173" t="s">
         <v>130</v>
       </c>
-      <c r="AO4" s="220"/>
-      <c r="AP4" s="221"/>
-      <c r="AQ4" s="219" t="s">
+      <c r="AR4" s="174"/>
+      <c r="AS4" s="174"/>
+      <c r="AT4" s="174"/>
+      <c r="AU4" s="174"/>
+      <c r="AV4" s="174"/>
+      <c r="AW4" s="174"/>
+      <c r="AX4" s="174"/>
+      <c r="AY4" s="174"/>
+      <c r="AZ4" s="174"/>
+      <c r="BA4" s="174"/>
+      <c r="BB4" s="174"/>
+      <c r="BC4" s="174"/>
+      <c r="BD4" s="175"/>
+      <c r="BE4" s="173" t="s">
         <v>131</v>
       </c>
-      <c r="AR4" s="220"/>
-      <c r="AS4" s="220"/>
-      <c r="AT4" s="220"/>
-      <c r="AU4" s="220"/>
-      <c r="AV4" s="220"/>
-      <c r="AW4" s="220"/>
-      <c r="AX4" s="220"/>
-      <c r="AY4" s="220"/>
-      <c r="AZ4" s="220"/>
-      <c r="BA4" s="220"/>
-      <c r="BB4" s="220"/>
-      <c r="BC4" s="220"/>
-      <c r="BD4" s="221"/>
-      <c r="BE4" s="219" t="s">
-        <v>132</v>
-      </c>
-      <c r="BF4" s="222"/>
-      <c r="BG4" s="220"/>
-      <c r="BH4" s="220"/>
-      <c r="BI4" s="220"/>
-      <c r="BJ4" s="220"/>
-      <c r="BK4" s="221"/>
-      <c r="BL4" s="219" t="s">
+      <c r="BF4" s="176"/>
+      <c r="BG4" s="174"/>
+      <c r="BH4" s="174"/>
+      <c r="BI4" s="174"/>
+      <c r="BJ4" s="174"/>
+      <c r="BK4" s="175"/>
+      <c r="BL4" s="173" t="s">
         <v>4</v>
       </c>
-      <c r="BM4" s="220"/>
-      <c r="BN4" s="220"/>
-      <c r="BO4" s="221"/>
-      <c r="BP4" s="219" t="s">
+      <c r="BM4" s="174"/>
+      <c r="BN4" s="174"/>
+      <c r="BO4" s="175"/>
+      <c r="BP4" s="173" t="s">
         <v>5</v>
       </c>
-      <c r="BQ4" s="220"/>
-      <c r="BR4" s="223"/>
+      <c r="BQ4" s="174"/>
+      <c r="BR4" s="177"/>
     </row>
     <row r="5" spans="1:70" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="225"/>
-      <c r="B5" s="194" t="s">
+      <c r="A5" s="182"/>
+      <c r="B5" s="186" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="186"/>
+      <c r="D5" s="186"/>
+      <c r="E5" s="186"/>
+      <c r="F5" s="186"/>
+      <c r="G5" s="186"/>
+      <c r="H5" s="186"/>
+      <c r="I5" s="186" t="s">
         <v>120</v>
       </c>
-      <c r="C5" s="194"/>
-      <c r="D5" s="194"/>
-      <c r="E5" s="194"/>
-      <c r="F5" s="194"/>
-      <c r="G5" s="194"/>
-      <c r="H5" s="194"/>
-      <c r="I5" s="194" t="s">
+      <c r="J5" s="186"/>
+      <c r="K5" s="186"/>
+      <c r="L5" s="186"/>
+      <c r="M5" s="186"/>
+      <c r="N5" s="186"/>
+      <c r="O5" s="186"/>
+      <c r="P5" s="186" t="s">
         <v>121</v>
       </c>
-      <c r="J5" s="194"/>
-      <c r="K5" s="194"/>
-      <c r="L5" s="194"/>
-      <c r="M5" s="194"/>
-      <c r="N5" s="194"/>
-      <c r="O5" s="194"/>
-      <c r="P5" s="194" t="s">
+      <c r="Q5" s="186"/>
+      <c r="R5" s="186"/>
+      <c r="S5" s="186"/>
+      <c r="T5" s="186"/>
+      <c r="U5" s="186"/>
+      <c r="V5" s="186"/>
+      <c r="W5" s="186" t="s">
         <v>122</v>
       </c>
-      <c r="Q5" s="194"/>
-      <c r="R5" s="194"/>
-      <c r="S5" s="194"/>
-      <c r="T5" s="194"/>
-      <c r="U5" s="194"/>
-      <c r="V5" s="194"/>
-      <c r="W5" s="194" t="s">
+      <c r="X5" s="186"/>
+      <c r="Y5" s="186"/>
+      <c r="Z5" s="186"/>
+      <c r="AA5" s="186"/>
+      <c r="AB5" s="186"/>
+      <c r="AC5" s="186"/>
+      <c r="AD5" s="186" t="s">
         <v>123</v>
       </c>
-      <c r="X5" s="194"/>
-      <c r="Y5" s="194"/>
-      <c r="Z5" s="194"/>
-      <c r="AA5" s="194"/>
-      <c r="AB5" s="194"/>
-      <c r="AC5" s="194"/>
-      <c r="AD5" s="194" t="s">
+      <c r="AE5" s="186"/>
+      <c r="AF5" s="186"/>
+      <c r="AG5" s="186"/>
+      <c r="AH5" s="186"/>
+      <c r="AI5" s="186"/>
+      <c r="AJ5" s="186"/>
+      <c r="AK5" s="186" t="s">
         <v>124</v>
       </c>
-      <c r="AE5" s="194"/>
-      <c r="AF5" s="194"/>
-      <c r="AG5" s="194"/>
-      <c r="AH5" s="194"/>
-      <c r="AI5" s="194"/>
-      <c r="AJ5" s="194"/>
-      <c r="AK5" s="194" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL5" s="194"/>
-      <c r="AM5" s="120" t="s">
+      <c r="AL5" s="186"/>
+      <c r="AM5" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="AN5" s="95" t="s">
+      <c r="AN5" s="88" t="s">
         <v>7</v>
       </c>
-      <c r="AO5" s="96" t="s">
+      <c r="AO5" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="AP5" s="97" t="s">
+      <c r="AP5" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="AQ5" s="98" t="s">
+      <c r="AQ5" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="AR5" s="166" t="s">
+      <c r="AR5" s="183" t="s">
         <v>11</v>
       </c>
-      <c r="AS5" s="167"/>
-      <c r="AT5" s="166" t="s">
+      <c r="AS5" s="184"/>
+      <c r="AT5" s="183" t="s">
         <v>12</v>
       </c>
-      <c r="AU5" s="167"/>
-      <c r="AV5" s="166" t="s">
+      <c r="AU5" s="184"/>
+      <c r="AV5" s="183" t="s">
         <v>13</v>
       </c>
-      <c r="AW5" s="167"/>
-      <c r="AX5" s="166" t="s">
+      <c r="AW5" s="184"/>
+      <c r="AX5" s="183" t="s">
         <v>14</v>
       </c>
-      <c r="AY5" s="167"/>
-      <c r="AZ5" s="166" t="s">
+      <c r="AY5" s="184"/>
+      <c r="AZ5" s="183" t="s">
         <v>15</v>
       </c>
-      <c r="BA5" s="167"/>
-      <c r="BB5" s="166" t="s">
+      <c r="BA5" s="184"/>
+      <c r="BB5" s="183" t="s">
         <v>16</v>
       </c>
-      <c r="BC5" s="167"/>
-      <c r="BD5" s="97" t="s">
+      <c r="BC5" s="184"/>
+      <c r="BD5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BE5" s="181" t="s">
+      <c r="BE5" s="243" t="s">
         <v>18</v>
       </c>
-      <c r="BF5" s="167"/>
-      <c r="BG5" s="182" t="s">
+      <c r="BF5" s="184"/>
+      <c r="BG5" s="244" t="s">
         <v>19</v>
       </c>
-      <c r="BH5" s="183"/>
-      <c r="BI5" s="182" t="s">
+      <c r="BH5" s="245"/>
+      <c r="BI5" s="244" t="s">
         <v>20</v>
       </c>
-      <c r="BJ5" s="183"/>
-      <c r="BK5" s="99" t="s">
+      <c r="BJ5" s="245"/>
+      <c r="BK5" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="BL5" s="95" t="s">
+      <c r="BL5" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="BM5" s="100" t="s">
+      <c r="BM5" s="93" t="s">
         <v>23</v>
       </c>
-      <c r="BN5" s="100" t="s">
+      <c r="BN5" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="BO5" s="101" t="s">
+      <c r="BO5" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="BP5" s="102" t="s">
+      <c r="BP5" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="BQ5" s="103" t="s">
+      <c r="BQ5" s="96" t="s">
         <v>27</v>
       </c>
-      <c r="BR5" s="104" t="s">
+      <c r="BR5" s="97" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:70" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
-      <c r="B6" s="188" t="s">
-        <v>128</v>
-      </c>
-      <c r="C6" s="190" t="s">
+      <c r="B6" s="229" t="s">
+        <v>127</v>
+      </c>
+      <c r="C6" s="220" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="190" t="s">
+      <c r="D6" s="220" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="190" t="s">
+      <c r="E6" s="220" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="190" t="s">
+      <c r="F6" s="220" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="190" t="s">
+      <c r="G6" s="220" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="192" t="s">
+      <c r="H6" s="231" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="188" t="s">
-        <v>128</v>
-      </c>
-      <c r="J6" s="190" t="s">
+      <c r="I6" s="229" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" s="220" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="190" t="s">
+      <c r="K6" s="220" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="190" t="s">
+      <c r="L6" s="220" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="190" t="s">
+      <c r="M6" s="220" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="190" t="s">
+      <c r="N6" s="220" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="192" t="s">
+      <c r="O6" s="231" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="188" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q6" s="190" t="s">
+      <c r="P6" s="229" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q6" s="220" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="190" t="s">
+      <c r="R6" s="220" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="190" t="s">
+      <c r="S6" s="220" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="190" t="s">
+      <c r="T6" s="220" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="190" t="s">
+      <c r="U6" s="220" t="s">
         <v>53</v>
       </c>
-      <c r="V6" s="192" t="s">
+      <c r="V6" s="231" t="s">
         <v>54</v>
       </c>
-      <c r="W6" s="188" t="s">
-        <v>128</v>
-      </c>
-      <c r="X6" s="190" t="s">
+      <c r="W6" s="229" t="s">
+        <v>127</v>
+      </c>
+      <c r="X6" s="220" t="s">
         <v>49</v>
       </c>
-      <c r="Y6" s="190" t="s">
+      <c r="Y6" s="220" t="s">
         <v>50</v>
       </c>
-      <c r="Z6" s="190" t="s">
+      <c r="Z6" s="220" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="190" t="s">
+      <c r="AA6" s="220" t="s">
         <v>52</v>
       </c>
-      <c r="AB6" s="190" t="s">
+      <c r="AB6" s="220" t="s">
         <v>53</v>
       </c>
-      <c r="AC6" s="192" t="s">
+      <c r="AC6" s="231" t="s">
         <v>54</v>
       </c>
-      <c r="AD6" s="188" t="s">
-        <v>128</v>
-      </c>
-      <c r="AE6" s="190" t="s">
+      <c r="AD6" s="229" t="s">
+        <v>127</v>
+      </c>
+      <c r="AE6" s="220" t="s">
         <v>49</v>
       </c>
-      <c r="AF6" s="190" t="s">
+      <c r="AF6" s="220" t="s">
         <v>50</v>
       </c>
-      <c r="AG6" s="190" t="s">
+      <c r="AG6" s="220" t="s">
         <v>51</v>
       </c>
-      <c r="AH6" s="190" t="s">
+      <c r="AH6" s="220" t="s">
         <v>52</v>
       </c>
-      <c r="AI6" s="190" t="s">
+      <c r="AI6" s="220" t="s">
         <v>53</v>
       </c>
-      <c r="AJ6" s="192" t="s">
+      <c r="AJ6" s="231" t="s">
         <v>54</v>
       </c>
-      <c r="AK6" s="188" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL6" s="164" t="s">
+      <c r="AK6" s="229" t="s">
+        <v>127</v>
+      </c>
+      <c r="AL6" s="248" t="s">
         <v>49</v>
       </c>
-      <c r="AM6" s="229" t="s">
-        <v>133</v>
-      </c>
-      <c r="AN6" s="229" t="s">
+      <c r="AM6" s="150" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN6" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="AO6" s="186" t="s">
+      <c r="AO6" s="233" t="s">
         <v>30</v>
       </c>
-      <c r="AP6" s="160" t="s">
+      <c r="AP6" s="146" t="s">
         <v>32</v>
       </c>
-      <c r="AQ6" s="227" t="s">
+      <c r="AQ6" s="235" t="s">
         <v>33</v>
       </c>
-      <c r="AR6" s="170" t="s">
+      <c r="AR6" s="237" t="s">
         <v>34</v>
       </c>
-      <c r="AS6" s="171"/>
-      <c r="AT6" s="170" t="s">
+      <c r="AS6" s="238"/>
+      <c r="AT6" s="237" t="s">
         <v>35</v>
       </c>
-      <c r="AU6" s="171"/>
-      <c r="AV6" s="170" t="s">
+      <c r="AU6" s="238"/>
+      <c r="AV6" s="237" t="s">
         <v>36</v>
       </c>
-      <c r="AW6" s="171"/>
-      <c r="AX6" s="170" t="s">
+      <c r="AW6" s="238"/>
+      <c r="AX6" s="237" t="s">
         <v>37</v>
       </c>
-      <c r="AY6" s="171"/>
-      <c r="AZ6" s="170" t="s">
+      <c r="AY6" s="238"/>
+      <c r="AZ6" s="237" t="s">
         <v>38</v>
       </c>
-      <c r="BA6" s="171"/>
-      <c r="BB6" s="170" t="s">
+      <c r="BA6" s="238"/>
+      <c r="BB6" s="237" t="s">
         <v>31</v>
       </c>
-      <c r="BC6" s="171"/>
-      <c r="BD6" s="237" t="s">
+      <c r="BC6" s="238"/>
+      <c r="BD6" s="160" t="s">
         <v>32</v>
       </c>
-      <c r="BE6" s="239" t="s">
+      <c r="BE6" s="162" t="s">
         <v>39</v>
       </c>
-      <c r="BF6" s="240"/>
-      <c r="BG6" s="241" t="s">
+      <c r="BF6" s="163"/>
+      <c r="BG6" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="BH6" s="242"/>
-      <c r="BI6" s="184" t="s">
+      <c r="BH6" s="165"/>
+      <c r="BI6" s="246" t="s">
         <v>31</v>
       </c>
-      <c r="BJ6" s="185"/>
-      <c r="BK6" s="243" t="s">
+      <c r="BJ6" s="247"/>
+      <c r="BK6" s="166" t="s">
         <v>32</v>
       </c>
-      <c r="BL6" s="229" t="s">
+      <c r="BL6" s="150" t="s">
         <v>41</v>
       </c>
-      <c r="BM6" s="186" t="s">
+      <c r="BM6" s="233" t="s">
         <v>32</v>
       </c>
-      <c r="BN6" s="186" t="s">
+      <c r="BN6" s="233" t="s">
         <v>42</v>
       </c>
-      <c r="BO6" s="160" t="s">
+      <c r="BO6" s="146" t="s">
         <v>43</v>
       </c>
-      <c r="BP6" s="231" t="s">
+      <c r="BP6" s="144" t="s">
         <v>44</v>
       </c>
-      <c r="BQ6" s="235" t="s">
+      <c r="BQ6" s="158" t="s">
         <v>45</v>
       </c>
-      <c r="BR6" s="233" t="s">
+      <c r="BR6" s="148" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5151,96 +5148,96 @@
       <c r="A7" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="189"/>
-      <c r="C7" s="191"/>
-      <c r="D7" s="191"/>
-      <c r="E7" s="191"/>
-      <c r="F7" s="191"/>
-      <c r="G7" s="191"/>
-      <c r="H7" s="193"/>
-      <c r="I7" s="189"/>
-      <c r="J7" s="191"/>
-      <c r="K7" s="191"/>
-      <c r="L7" s="191"/>
-      <c r="M7" s="191"/>
-      <c r="N7" s="191"/>
-      <c r="O7" s="193"/>
-      <c r="P7" s="189"/>
-      <c r="Q7" s="191"/>
-      <c r="R7" s="191"/>
-      <c r="S7" s="191"/>
-      <c r="T7" s="191"/>
-      <c r="U7" s="191"/>
-      <c r="V7" s="193"/>
-      <c r="W7" s="189"/>
-      <c r="X7" s="191"/>
-      <c r="Y7" s="191"/>
-      <c r="Z7" s="191"/>
-      <c r="AA7" s="191"/>
-      <c r="AB7" s="191"/>
-      <c r="AC7" s="193"/>
-      <c r="AD7" s="189"/>
-      <c r="AE7" s="191"/>
-      <c r="AF7" s="191"/>
-      <c r="AG7" s="191"/>
-      <c r="AH7" s="191"/>
-      <c r="AI7" s="191"/>
-      <c r="AJ7" s="193"/>
-      <c r="AK7" s="189"/>
-      <c r="AL7" s="165"/>
-      <c r="AM7" s="230"/>
-      <c r="AN7" s="230"/>
-      <c r="AO7" s="187"/>
-      <c r="AP7" s="161"/>
-      <c r="AQ7" s="228"/>
-      <c r="AR7" s="89"/>
-      <c r="AS7" s="91" t="s">
+      <c r="B7" s="230"/>
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="221"/>
+      <c r="F7" s="221"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="232"/>
+      <c r="I7" s="230"/>
+      <c r="J7" s="221"/>
+      <c r="K7" s="221"/>
+      <c r="L7" s="221"/>
+      <c r="M7" s="221"/>
+      <c r="N7" s="221"/>
+      <c r="O7" s="232"/>
+      <c r="P7" s="230"/>
+      <c r="Q7" s="221"/>
+      <c r="R7" s="221"/>
+      <c r="S7" s="221"/>
+      <c r="T7" s="221"/>
+      <c r="U7" s="221"/>
+      <c r="V7" s="232"/>
+      <c r="W7" s="230"/>
+      <c r="X7" s="221"/>
+      <c r="Y7" s="221"/>
+      <c r="Z7" s="221"/>
+      <c r="AA7" s="221"/>
+      <c r="AB7" s="221"/>
+      <c r="AC7" s="232"/>
+      <c r="AD7" s="230"/>
+      <c r="AE7" s="221"/>
+      <c r="AF7" s="221"/>
+      <c r="AG7" s="221"/>
+      <c r="AH7" s="221"/>
+      <c r="AI7" s="221"/>
+      <c r="AJ7" s="232"/>
+      <c r="AK7" s="230"/>
+      <c r="AL7" s="249"/>
+      <c r="AM7" s="151"/>
+      <c r="AN7" s="151"/>
+      <c r="AO7" s="234"/>
+      <c r="AP7" s="147"/>
+      <c r="AQ7" s="236"/>
+      <c r="AR7" s="82"/>
+      <c r="AS7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="AT7" s="89"/>
-      <c r="AU7" s="91" t="s">
+      <c r="AT7" s="82"/>
+      <c r="AU7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="AV7" s="91"/>
-      <c r="AW7" s="91" t="s">
+      <c r="AV7" s="84"/>
+      <c r="AW7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="AX7" s="92"/>
-      <c r="AY7" s="91" t="s">
+      <c r="AX7" s="85"/>
+      <c r="AY7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="AZ7" s="92"/>
-      <c r="BA7" s="91" t="s">
+      <c r="AZ7" s="85"/>
+      <c r="BA7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="BB7" s="92"/>
-      <c r="BC7" s="91" t="s">
+      <c r="BB7" s="85"/>
+      <c r="BC7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="BD7" s="238"/>
-      <c r="BE7" s="90"/>
-      <c r="BF7" s="91" t="s">
+      <c r="BD7" s="161"/>
+      <c r="BE7" s="83"/>
+      <c r="BF7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="BG7" s="93"/>
-      <c r="BH7" s="91" t="s">
+      <c r="BG7" s="86"/>
+      <c r="BH7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="BI7" s="94"/>
-      <c r="BJ7" s="91" t="s">
+      <c r="BI7" s="87"/>
+      <c r="BJ7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="BK7" s="244"/>
-      <c r="BL7" s="230"/>
-      <c r="BM7" s="187"/>
-      <c r="BN7" s="187"/>
-      <c r="BO7" s="161"/>
-      <c r="BP7" s="232"/>
-      <c r="BQ7" s="236"/>
-      <c r="BR7" s="234"/>
+      <c r="BK7" s="167"/>
+      <c r="BL7" s="151"/>
+      <c r="BM7" s="234"/>
+      <c r="BN7" s="234"/>
+      <c r="BO7" s="147"/>
+      <c r="BP7" s="145"/>
+      <c r="BQ7" s="159"/>
+      <c r="BR7" s="149"/>
     </row>
     <row r="8" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="196" t="s">
+      <c r="A8" s="223" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="37"/>
@@ -5280,185 +5277,185 @@
       <c r="AJ8" s="39"/>
       <c r="AK8" s="40"/>
       <c r="AL8" s="41"/>
-      <c r="AM8" s="132"/>
-      <c r="AN8" s="133"/>
-      <c r="AO8" s="134"/>
-      <c r="AP8" s="135"/>
-      <c r="AQ8" s="136"/>
-      <c r="AR8" s="137"/>
-      <c r="AS8" s="137"/>
-      <c r="AT8" s="137"/>
-      <c r="AU8" s="137"/>
-      <c r="AV8" s="137"/>
-      <c r="AW8" s="137"/>
-      <c r="AX8" s="137"/>
-      <c r="AY8" s="137"/>
-      <c r="AZ8" s="137"/>
-      <c r="BA8" s="137"/>
-      <c r="BB8" s="137"/>
-      <c r="BC8" s="137"/>
-      <c r="BD8" s="138"/>
-      <c r="BE8" s="136"/>
-      <c r="BF8" s="137"/>
-      <c r="BG8" s="137"/>
-      <c r="BH8" s="137"/>
-      <c r="BI8" s="137"/>
-      <c r="BJ8" s="137"/>
-      <c r="BK8" s="138"/>
-      <c r="BL8" s="158"/>
-      <c r="BM8" s="137"/>
-      <c r="BN8" s="137"/>
-      <c r="BO8" s="162"/>
-      <c r="BP8" s="158"/>
-      <c r="BQ8" s="137"/>
-      <c r="BR8" s="168"/>
+      <c r="AM8" s="115"/>
+      <c r="AN8" s="116"/>
+      <c r="AO8" s="117"/>
+      <c r="AP8" s="118"/>
+      <c r="AQ8" s="119"/>
+      <c r="AR8" s="120"/>
+      <c r="AS8" s="120"/>
+      <c r="AT8" s="120"/>
+      <c r="AU8" s="120"/>
+      <c r="AV8" s="120"/>
+      <c r="AW8" s="120"/>
+      <c r="AX8" s="120"/>
+      <c r="AY8" s="120"/>
+      <c r="AZ8" s="120"/>
+      <c r="BA8" s="120"/>
+      <c r="BB8" s="120"/>
+      <c r="BC8" s="120"/>
+      <c r="BD8" s="121"/>
+      <c r="BE8" s="119"/>
+      <c r="BF8" s="120"/>
+      <c r="BG8" s="120"/>
+      <c r="BH8" s="120"/>
+      <c r="BI8" s="120"/>
+      <c r="BJ8" s="120"/>
+      <c r="BK8" s="121"/>
+      <c r="BL8" s="239"/>
+      <c r="BM8" s="120"/>
+      <c r="BN8" s="120"/>
+      <c r="BO8" s="168"/>
+      <c r="BP8" s="239"/>
+      <c r="BQ8" s="120"/>
+      <c r="BR8" s="241"/>
     </row>
     <row r="9" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="196"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="123"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="122"/>
-      <c r="M9" s="122"/>
-      <c r="N9" s="122"/>
-      <c r="O9" s="123"/>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="122"/>
-      <c r="R9" s="122"/>
-      <c r="S9" s="122"/>
-      <c r="T9" s="122"/>
-      <c r="U9" s="122"/>
-      <c r="V9" s="123"/>
-      <c r="W9" s="121"/>
-      <c r="X9" s="122"/>
-      <c r="Y9" s="122"/>
-      <c r="Z9" s="122"/>
-      <c r="AA9" s="122"/>
-      <c r="AB9" s="122"/>
-      <c r="AC9" s="123"/>
-      <c r="AD9" s="121"/>
-      <c r="AE9" s="122"/>
-      <c r="AF9" s="122"/>
-      <c r="AG9" s="122"/>
-      <c r="AH9" s="122"/>
-      <c r="AI9" s="122"/>
-      <c r="AJ9" s="123"/>
-      <c r="AK9" s="124"/>
-      <c r="AL9" s="125"/>
-      <c r="AM9" s="139"/>
-      <c r="AN9" s="140"/>
-      <c r="AO9" s="141"/>
-      <c r="AP9" s="142"/>
-      <c r="AQ9" s="143"/>
-      <c r="AR9" s="144"/>
-      <c r="AS9" s="144"/>
-      <c r="AT9" s="144"/>
-      <c r="AU9" s="144"/>
-      <c r="AV9" s="144"/>
-      <c r="AW9" s="144"/>
-      <c r="AX9" s="144"/>
-      <c r="AY9" s="144"/>
-      <c r="AZ9" s="144"/>
-      <c r="BA9" s="144"/>
-      <c r="BB9" s="144"/>
-      <c r="BC9" s="144"/>
-      <c r="BD9" s="145"/>
-      <c r="BE9" s="143"/>
-      <c r="BF9" s="144"/>
-      <c r="BG9" s="144"/>
-      <c r="BH9" s="144"/>
-      <c r="BI9" s="144"/>
-      <c r="BJ9" s="144"/>
-      <c r="BK9" s="145"/>
-      <c r="BL9" s="159"/>
-      <c r="BM9" s="144"/>
-      <c r="BN9" s="144"/>
-      <c r="BO9" s="163"/>
-      <c r="BP9" s="159"/>
-      <c r="BQ9" s="144"/>
-      <c r="BR9" s="169"/>
+      <c r="A9" s="223"/>
+      <c r="B9" s="104"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="104"/>
+      <c r="J9" s="105"/>
+      <c r="K9" s="105"/>
+      <c r="L9" s="105"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="105"/>
+      <c r="O9" s="106"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="105"/>
+      <c r="R9" s="105"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="105"/>
+      <c r="U9" s="105"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="104"/>
+      <c r="X9" s="105"/>
+      <c r="Y9" s="105"/>
+      <c r="Z9" s="105"/>
+      <c r="AA9" s="105"/>
+      <c r="AB9" s="105"/>
+      <c r="AC9" s="106"/>
+      <c r="AD9" s="104"/>
+      <c r="AE9" s="105"/>
+      <c r="AF9" s="105"/>
+      <c r="AG9" s="105"/>
+      <c r="AH9" s="105"/>
+      <c r="AI9" s="105"/>
+      <c r="AJ9" s="106"/>
+      <c r="AK9" s="107"/>
+      <c r="AL9" s="108"/>
+      <c r="AM9" s="122"/>
+      <c r="AN9" s="123"/>
+      <c r="AO9" s="124"/>
+      <c r="AP9" s="125"/>
+      <c r="AQ9" s="126"/>
+      <c r="AR9" s="127"/>
+      <c r="AS9" s="127"/>
+      <c r="AT9" s="127"/>
+      <c r="AU9" s="127"/>
+      <c r="AV9" s="127"/>
+      <c r="AW9" s="127"/>
+      <c r="AX9" s="127"/>
+      <c r="AY9" s="127"/>
+      <c r="AZ9" s="127"/>
+      <c r="BA9" s="127"/>
+      <c r="BB9" s="127"/>
+      <c r="BC9" s="127"/>
+      <c r="BD9" s="128"/>
+      <c r="BE9" s="126"/>
+      <c r="BF9" s="127"/>
+      <c r="BG9" s="127"/>
+      <c r="BH9" s="127"/>
+      <c r="BI9" s="127"/>
+      <c r="BJ9" s="127"/>
+      <c r="BK9" s="128"/>
+      <c r="BL9" s="240"/>
+      <c r="BM9" s="127"/>
+      <c r="BN9" s="127"/>
+      <c r="BO9" s="169"/>
+      <c r="BP9" s="240"/>
+      <c r="BQ9" s="127"/>
+      <c r="BR9" s="242"/>
     </row>
     <row r="10" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="196"/>
-      <c r="B10" s="105"/>
-      <c r="C10" s="106"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="107"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="106"/>
-      <c r="K10" s="106"/>
-      <c r="L10" s="106"/>
-      <c r="M10" s="106"/>
-      <c r="N10" s="106"/>
-      <c r="O10" s="107"/>
-      <c r="P10" s="105"/>
-      <c r="Q10" s="106"/>
-      <c r="R10" s="106"/>
-      <c r="S10" s="106"/>
-      <c r="T10" s="106"/>
-      <c r="U10" s="106"/>
-      <c r="V10" s="107"/>
-      <c r="W10" s="105"/>
-      <c r="X10" s="106"/>
-      <c r="Y10" s="106"/>
-      <c r="Z10" s="106"/>
-      <c r="AA10" s="106"/>
-      <c r="AB10" s="106"/>
-      <c r="AC10" s="107"/>
-      <c r="AD10" s="105"/>
-      <c r="AE10" s="106"/>
-      <c r="AF10" s="106"/>
-      <c r="AG10" s="106"/>
-      <c r="AH10" s="106"/>
-      <c r="AI10" s="106"/>
-      <c r="AJ10" s="107"/>
-      <c r="AK10" s="108"/>
-      <c r="AL10" s="109"/>
-      <c r="AM10" s="172"/>
-      <c r="AN10" s="173"/>
-      <c r="AO10" s="173"/>
-      <c r="AP10" s="173"/>
-      <c r="AQ10" s="173"/>
-      <c r="AR10" s="173"/>
-      <c r="AS10" s="173"/>
-      <c r="AT10" s="173"/>
-      <c r="AU10" s="173"/>
-      <c r="AV10" s="173"/>
-      <c r="AW10" s="173"/>
-      <c r="AX10" s="173"/>
-      <c r="AY10" s="173"/>
-      <c r="AZ10" s="173"/>
-      <c r="BA10" s="173"/>
-      <c r="BB10" s="173"/>
-      <c r="BC10" s="173"/>
-      <c r="BD10" s="173"/>
-      <c r="BE10" s="173"/>
-      <c r="BF10" s="173"/>
-      <c r="BG10" s="173"/>
-      <c r="BH10" s="173"/>
-      <c r="BI10" s="173"/>
-      <c r="BJ10" s="173"/>
-      <c r="BK10" s="173"/>
-      <c r="BL10" s="173"/>
-      <c r="BM10" s="173"/>
-      <c r="BN10" s="173"/>
-      <c r="BO10" s="173"/>
-      <c r="BP10" s="173"/>
-      <c r="BQ10" s="173"/>
-      <c r="BR10" s="174"/>
+      <c r="A10" s="223"/>
+      <c r="B10" s="253"/>
+      <c r="C10" s="254"/>
+      <c r="D10" s="254"/>
+      <c r="E10" s="254"/>
+      <c r="F10" s="254"/>
+      <c r="G10" s="254"/>
+      <c r="H10" s="255"/>
+      <c r="I10" s="253"/>
+      <c r="J10" s="254"/>
+      <c r="K10" s="254"/>
+      <c r="L10" s="254"/>
+      <c r="M10" s="254"/>
+      <c r="N10" s="254"/>
+      <c r="O10" s="255"/>
+      <c r="P10" s="253"/>
+      <c r="Q10" s="254"/>
+      <c r="R10" s="254"/>
+      <c r="S10" s="254"/>
+      <c r="T10" s="254"/>
+      <c r="U10" s="254"/>
+      <c r="V10" s="255"/>
+      <c r="W10" s="253"/>
+      <c r="X10" s="254"/>
+      <c r="Y10" s="254"/>
+      <c r="Z10" s="254"/>
+      <c r="AA10" s="254"/>
+      <c r="AB10" s="254"/>
+      <c r="AC10" s="255"/>
+      <c r="AD10" s="253"/>
+      <c r="AE10" s="254"/>
+      <c r="AF10" s="254"/>
+      <c r="AG10" s="254"/>
+      <c r="AH10" s="254"/>
+      <c r="AI10" s="254"/>
+      <c r="AJ10" s="255"/>
+      <c r="AK10" s="256"/>
+      <c r="AL10" s="257"/>
+      <c r="AM10" s="152"/>
+      <c r="AN10" s="153"/>
+      <c r="AO10" s="153"/>
+      <c r="AP10" s="153"/>
+      <c r="AQ10" s="153"/>
+      <c r="AR10" s="153"/>
+      <c r="AS10" s="153"/>
+      <c r="AT10" s="153"/>
+      <c r="AU10" s="153"/>
+      <c r="AV10" s="153"/>
+      <c r="AW10" s="153"/>
+      <c r="AX10" s="153"/>
+      <c r="AY10" s="153"/>
+      <c r="AZ10" s="153"/>
+      <c r="BA10" s="153"/>
+      <c r="BB10" s="153"/>
+      <c r="BC10" s="153"/>
+      <c r="BD10" s="153"/>
+      <c r="BE10" s="153"/>
+      <c r="BF10" s="153"/>
+      <c r="BG10" s="153"/>
+      <c r="BH10" s="153"/>
+      <c r="BI10" s="153"/>
+      <c r="BJ10" s="153"/>
+      <c r="BK10" s="153"/>
+      <c r="BL10" s="153"/>
+      <c r="BM10" s="153"/>
+      <c r="BN10" s="153"/>
+      <c r="BO10" s="153"/>
+      <c r="BP10" s="153"/>
+      <c r="BQ10" s="153"/>
+      <c r="BR10" s="154"/>
     </row>
     <row r="11" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="197"/>
+      <c r="A11" s="224"/>
       <c r="B11" s="57"/>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
@@ -5496,41 +5493,41 @@
       <c r="AJ11" s="59"/>
       <c r="AK11" s="60"/>
       <c r="AL11" s="61"/>
-      <c r="AM11" s="175"/>
-      <c r="AN11" s="176"/>
-      <c r="AO11" s="176"/>
-      <c r="AP11" s="176"/>
-      <c r="AQ11" s="176"/>
-      <c r="AR11" s="176"/>
-      <c r="AS11" s="176"/>
-      <c r="AT11" s="176"/>
-      <c r="AU11" s="176"/>
-      <c r="AV11" s="176"/>
-      <c r="AW11" s="176"/>
-      <c r="AX11" s="176"/>
-      <c r="AY11" s="176"/>
-      <c r="AZ11" s="176"/>
-      <c r="BA11" s="176"/>
-      <c r="BB11" s="176"/>
-      <c r="BC11" s="176"/>
-      <c r="BD11" s="176"/>
-      <c r="BE11" s="176"/>
-      <c r="BF11" s="176"/>
-      <c r="BG11" s="176"/>
-      <c r="BH11" s="176"/>
-      <c r="BI11" s="176"/>
-      <c r="BJ11" s="176"/>
-      <c r="BK11" s="176"/>
-      <c r="BL11" s="176"/>
-      <c r="BM11" s="176"/>
-      <c r="BN11" s="176"/>
-      <c r="BO11" s="176"/>
-      <c r="BP11" s="176"/>
-      <c r="BQ11" s="176"/>
-      <c r="BR11" s="177"/>
+      <c r="AM11" s="155"/>
+      <c r="AN11" s="156"/>
+      <c r="AO11" s="156"/>
+      <c r="AP11" s="156"/>
+      <c r="AQ11" s="156"/>
+      <c r="AR11" s="156"/>
+      <c r="AS11" s="156"/>
+      <c r="AT11" s="156"/>
+      <c r="AU11" s="156"/>
+      <c r="AV11" s="156"/>
+      <c r="AW11" s="156"/>
+      <c r="AX11" s="156"/>
+      <c r="AY11" s="156"/>
+      <c r="AZ11" s="156"/>
+      <c r="BA11" s="156"/>
+      <c r="BB11" s="156"/>
+      <c r="BC11" s="156"/>
+      <c r="BD11" s="156"/>
+      <c r="BE11" s="156"/>
+      <c r="BF11" s="156"/>
+      <c r="BG11" s="156"/>
+      <c r="BH11" s="156"/>
+      <c r="BI11" s="156"/>
+      <c r="BJ11" s="156"/>
+      <c r="BK11" s="156"/>
+      <c r="BL11" s="156"/>
+      <c r="BM11" s="156"/>
+      <c r="BN11" s="156"/>
+      <c r="BO11" s="156"/>
+      <c r="BP11" s="156"/>
+      <c r="BQ11" s="156"/>
+      <c r="BR11" s="157"/>
     </row>
     <row r="12" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="195" t="s">
+      <c r="A12" s="222" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="42"/>
@@ -5570,185 +5567,185 @@
       <c r="AJ12" s="44"/>
       <c r="AK12" s="45"/>
       <c r="AL12" s="46"/>
-      <c r="AM12" s="132"/>
-      <c r="AN12" s="133"/>
-      <c r="AO12" s="134"/>
-      <c r="AP12" s="135"/>
-      <c r="AQ12" s="136"/>
-      <c r="AR12" s="137"/>
-      <c r="AS12" s="137"/>
-      <c r="AT12" s="137"/>
-      <c r="AU12" s="137"/>
-      <c r="AV12" s="137"/>
-      <c r="AW12" s="137"/>
-      <c r="AX12" s="137"/>
-      <c r="AY12" s="137"/>
-      <c r="AZ12" s="137"/>
-      <c r="BA12" s="137"/>
-      <c r="BB12" s="137"/>
-      <c r="BC12" s="137"/>
-      <c r="BD12" s="138"/>
-      <c r="BE12" s="136"/>
-      <c r="BF12" s="137"/>
-      <c r="BG12" s="137"/>
-      <c r="BH12" s="137"/>
-      <c r="BI12" s="137"/>
-      <c r="BJ12" s="137"/>
-      <c r="BK12" s="138"/>
-      <c r="BL12" s="158"/>
-      <c r="BM12" s="137"/>
-      <c r="BN12" s="137"/>
-      <c r="BO12" s="162"/>
-      <c r="BP12" s="158"/>
-      <c r="BQ12" s="137"/>
-      <c r="BR12" s="168"/>
+      <c r="AM12" s="115"/>
+      <c r="AN12" s="116"/>
+      <c r="AO12" s="117"/>
+      <c r="AP12" s="118"/>
+      <c r="AQ12" s="119"/>
+      <c r="AR12" s="120"/>
+      <c r="AS12" s="120"/>
+      <c r="AT12" s="120"/>
+      <c r="AU12" s="120"/>
+      <c r="AV12" s="120"/>
+      <c r="AW12" s="120"/>
+      <c r="AX12" s="120"/>
+      <c r="AY12" s="120"/>
+      <c r="AZ12" s="120"/>
+      <c r="BA12" s="120"/>
+      <c r="BB12" s="120"/>
+      <c r="BC12" s="120"/>
+      <c r="BD12" s="121"/>
+      <c r="BE12" s="119"/>
+      <c r="BF12" s="120"/>
+      <c r="BG12" s="120"/>
+      <c r="BH12" s="120"/>
+      <c r="BI12" s="120"/>
+      <c r="BJ12" s="120"/>
+      <c r="BK12" s="121"/>
+      <c r="BL12" s="239"/>
+      <c r="BM12" s="120"/>
+      <c r="BN12" s="120"/>
+      <c r="BO12" s="168"/>
+      <c r="BP12" s="239"/>
+      <c r="BQ12" s="120"/>
+      <c r="BR12" s="241"/>
     </row>
     <row r="13" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="196"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="127"/>
-      <c r="L13" s="127"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="127"/>
-      <c r="O13" s="128"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="127"/>
-      <c r="S13" s="127"/>
-      <c r="T13" s="127"/>
-      <c r="U13" s="127"/>
-      <c r="V13" s="128"/>
-      <c r="W13" s="126"/>
-      <c r="X13" s="127"/>
-      <c r="Y13" s="127"/>
-      <c r="Z13" s="127"/>
-      <c r="AA13" s="127"/>
-      <c r="AB13" s="127"/>
-      <c r="AC13" s="128"/>
-      <c r="AD13" s="129"/>
-      <c r="AE13" s="127"/>
-      <c r="AF13" s="127"/>
-      <c r="AG13" s="127"/>
-      <c r="AH13" s="127"/>
-      <c r="AI13" s="127"/>
-      <c r="AJ13" s="128"/>
-      <c r="AK13" s="130"/>
-      <c r="AL13" s="131"/>
-      <c r="AM13" s="146"/>
-      <c r="AN13" s="140"/>
-      <c r="AO13" s="141"/>
-      <c r="AP13" s="142"/>
-      <c r="AQ13" s="143"/>
-      <c r="AR13" s="144"/>
-      <c r="AS13" s="144"/>
-      <c r="AT13" s="144"/>
-      <c r="AU13" s="144"/>
-      <c r="AV13" s="144"/>
-      <c r="AW13" s="144"/>
-      <c r="AX13" s="144"/>
-      <c r="AY13" s="144"/>
-      <c r="AZ13" s="144"/>
-      <c r="BA13" s="144"/>
-      <c r="BB13" s="144"/>
-      <c r="BC13" s="144"/>
-      <c r="BD13" s="145"/>
-      <c r="BE13" s="143"/>
-      <c r="BF13" s="144"/>
-      <c r="BG13" s="144"/>
-      <c r="BH13" s="144"/>
-      <c r="BI13" s="144"/>
-      <c r="BJ13" s="144"/>
-      <c r="BK13" s="145"/>
-      <c r="BL13" s="159"/>
-      <c r="BM13" s="144"/>
-      <c r="BN13" s="144"/>
-      <c r="BO13" s="163"/>
-      <c r="BP13" s="159"/>
-      <c r="BQ13" s="144"/>
-      <c r="BR13" s="169"/>
+      <c r="A13" s="223"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="110"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="109"/>
+      <c r="J13" s="110"/>
+      <c r="K13" s="110"/>
+      <c r="L13" s="110"/>
+      <c r="M13" s="110"/>
+      <c r="N13" s="110"/>
+      <c r="O13" s="111"/>
+      <c r="P13" s="109"/>
+      <c r="Q13" s="110"/>
+      <c r="R13" s="110"/>
+      <c r="S13" s="110"/>
+      <c r="T13" s="110"/>
+      <c r="U13" s="110"/>
+      <c r="V13" s="111"/>
+      <c r="W13" s="109"/>
+      <c r="X13" s="110"/>
+      <c r="Y13" s="110"/>
+      <c r="Z13" s="110"/>
+      <c r="AA13" s="110"/>
+      <c r="AB13" s="110"/>
+      <c r="AC13" s="111"/>
+      <c r="AD13" s="112"/>
+      <c r="AE13" s="110"/>
+      <c r="AF13" s="110"/>
+      <c r="AG13" s="110"/>
+      <c r="AH13" s="110"/>
+      <c r="AI13" s="110"/>
+      <c r="AJ13" s="111"/>
+      <c r="AK13" s="113"/>
+      <c r="AL13" s="114"/>
+      <c r="AM13" s="129"/>
+      <c r="AN13" s="123"/>
+      <c r="AO13" s="124"/>
+      <c r="AP13" s="125"/>
+      <c r="AQ13" s="126"/>
+      <c r="AR13" s="127"/>
+      <c r="AS13" s="127"/>
+      <c r="AT13" s="127"/>
+      <c r="AU13" s="127"/>
+      <c r="AV13" s="127"/>
+      <c r="AW13" s="127"/>
+      <c r="AX13" s="127"/>
+      <c r="AY13" s="127"/>
+      <c r="AZ13" s="127"/>
+      <c r="BA13" s="127"/>
+      <c r="BB13" s="127"/>
+      <c r="BC13" s="127"/>
+      <c r="BD13" s="128"/>
+      <c r="BE13" s="126"/>
+      <c r="BF13" s="127"/>
+      <c r="BG13" s="127"/>
+      <c r="BH13" s="127"/>
+      <c r="BI13" s="127"/>
+      <c r="BJ13" s="127"/>
+      <c r="BK13" s="128"/>
+      <c r="BL13" s="240"/>
+      <c r="BM13" s="127"/>
+      <c r="BN13" s="127"/>
+      <c r="BO13" s="169"/>
+      <c r="BP13" s="240"/>
+      <c r="BQ13" s="127"/>
+      <c r="BR13" s="242"/>
     </row>
     <row r="14" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="196"/>
-      <c r="B14" s="83"/>
-      <c r="C14" s="84"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="84"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="84"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="83"/>
-      <c r="Q14" s="84"/>
-      <c r="R14" s="84"/>
-      <c r="S14" s="84"/>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="85"/>
-      <c r="W14" s="83"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="84"/>
-      <c r="Z14" s="84"/>
-      <c r="AA14" s="84"/>
-      <c r="AB14" s="84"/>
-      <c r="AC14" s="85"/>
-      <c r="AD14" s="86"/>
-      <c r="AE14" s="84"/>
-      <c r="AF14" s="84"/>
-      <c r="AG14" s="84"/>
-      <c r="AH14" s="84"/>
-      <c r="AI14" s="84"/>
-      <c r="AJ14" s="85"/>
-      <c r="AK14" s="87"/>
-      <c r="AL14" s="88"/>
-      <c r="AM14" s="172"/>
-      <c r="AN14" s="173"/>
-      <c r="AO14" s="173"/>
-      <c r="AP14" s="173"/>
-      <c r="AQ14" s="173"/>
-      <c r="AR14" s="173"/>
-      <c r="AS14" s="173"/>
-      <c r="AT14" s="173"/>
-      <c r="AU14" s="173"/>
-      <c r="AV14" s="173"/>
-      <c r="AW14" s="173"/>
-      <c r="AX14" s="173"/>
-      <c r="AY14" s="173"/>
-      <c r="AZ14" s="173"/>
-      <c r="BA14" s="173"/>
-      <c r="BB14" s="173"/>
-      <c r="BC14" s="173"/>
-      <c r="BD14" s="173"/>
-      <c r="BE14" s="173"/>
-      <c r="BF14" s="173"/>
-      <c r="BG14" s="173"/>
-      <c r="BH14" s="173"/>
-      <c r="BI14" s="173"/>
-      <c r="BJ14" s="173"/>
-      <c r="BK14" s="173"/>
-      <c r="BL14" s="173"/>
-      <c r="BM14" s="173"/>
-      <c r="BN14" s="173"/>
-      <c r="BO14" s="173"/>
-      <c r="BP14" s="173"/>
-      <c r="BQ14" s="173"/>
-      <c r="BR14" s="174"/>
+      <c r="A14" s="223"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="258"/>
+      <c r="D14" s="258"/>
+      <c r="E14" s="258"/>
+      <c r="F14" s="258"/>
+      <c r="G14" s="258"/>
+      <c r="H14" s="259"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="258"/>
+      <c r="K14" s="258"/>
+      <c r="L14" s="258"/>
+      <c r="M14" s="258"/>
+      <c r="N14" s="258"/>
+      <c r="O14" s="259"/>
+      <c r="P14" s="81"/>
+      <c r="Q14" s="258"/>
+      <c r="R14" s="258"/>
+      <c r="S14" s="258"/>
+      <c r="T14" s="258"/>
+      <c r="U14" s="258"/>
+      <c r="V14" s="259"/>
+      <c r="W14" s="81"/>
+      <c r="X14" s="258"/>
+      <c r="Y14" s="258"/>
+      <c r="Z14" s="258"/>
+      <c r="AA14" s="258"/>
+      <c r="AB14" s="258"/>
+      <c r="AC14" s="259"/>
+      <c r="AD14" s="81"/>
+      <c r="AE14" s="258"/>
+      <c r="AF14" s="258"/>
+      <c r="AG14" s="258"/>
+      <c r="AH14" s="258"/>
+      <c r="AI14" s="258"/>
+      <c r="AJ14" s="259"/>
+      <c r="AK14" s="260"/>
+      <c r="AL14" s="261"/>
+      <c r="AM14" s="152"/>
+      <c r="AN14" s="153"/>
+      <c r="AO14" s="153"/>
+      <c r="AP14" s="153"/>
+      <c r="AQ14" s="153"/>
+      <c r="AR14" s="153"/>
+      <c r="AS14" s="153"/>
+      <c r="AT14" s="153"/>
+      <c r="AU14" s="153"/>
+      <c r="AV14" s="153"/>
+      <c r="AW14" s="153"/>
+      <c r="AX14" s="153"/>
+      <c r="AY14" s="153"/>
+      <c r="AZ14" s="153"/>
+      <c r="BA14" s="153"/>
+      <c r="BB14" s="153"/>
+      <c r="BC14" s="153"/>
+      <c r="BD14" s="153"/>
+      <c r="BE14" s="153"/>
+      <c r="BF14" s="153"/>
+      <c r="BG14" s="153"/>
+      <c r="BH14" s="153"/>
+      <c r="BI14" s="153"/>
+      <c r="BJ14" s="153"/>
+      <c r="BK14" s="153"/>
+      <c r="BL14" s="153"/>
+      <c r="BM14" s="153"/>
+      <c r="BN14" s="153"/>
+      <c r="BO14" s="153"/>
+      <c r="BP14" s="153"/>
+      <c r="BQ14" s="153"/>
+      <c r="BR14" s="154"/>
     </row>
     <row r="15" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="196"/>
+      <c r="A15" s="223"/>
       <c r="B15" s="62"/>
       <c r="C15" s="63"/>
       <c r="D15" s="63"/>
@@ -5786,41 +5783,41 @@
       <c r="AJ15" s="64"/>
       <c r="AK15" s="66"/>
       <c r="AL15" s="67"/>
-      <c r="AM15" s="175"/>
-      <c r="AN15" s="176"/>
-      <c r="AO15" s="176"/>
-      <c r="AP15" s="176"/>
-      <c r="AQ15" s="176"/>
-      <c r="AR15" s="176"/>
-      <c r="AS15" s="176"/>
-      <c r="AT15" s="176"/>
-      <c r="AU15" s="176"/>
-      <c r="AV15" s="176"/>
-      <c r="AW15" s="176"/>
-      <c r="AX15" s="176"/>
-      <c r="AY15" s="176"/>
-      <c r="AZ15" s="176"/>
-      <c r="BA15" s="176"/>
-      <c r="BB15" s="176"/>
-      <c r="BC15" s="176"/>
-      <c r="BD15" s="176"/>
-      <c r="BE15" s="176"/>
-      <c r="BF15" s="176"/>
-      <c r="BG15" s="176"/>
-      <c r="BH15" s="176"/>
-      <c r="BI15" s="176"/>
-      <c r="BJ15" s="176"/>
-      <c r="BK15" s="176"/>
-      <c r="BL15" s="176"/>
-      <c r="BM15" s="176"/>
-      <c r="BN15" s="176"/>
-      <c r="BO15" s="176"/>
-      <c r="BP15" s="176"/>
-      <c r="BQ15" s="176"/>
-      <c r="BR15" s="177"/>
+      <c r="AM15" s="155"/>
+      <c r="AN15" s="156"/>
+      <c r="AO15" s="156"/>
+      <c r="AP15" s="156"/>
+      <c r="AQ15" s="156"/>
+      <c r="AR15" s="156"/>
+      <c r="AS15" s="156"/>
+      <c r="AT15" s="156"/>
+      <c r="AU15" s="156"/>
+      <c r="AV15" s="156"/>
+      <c r="AW15" s="156"/>
+      <c r="AX15" s="156"/>
+      <c r="AY15" s="156"/>
+      <c r="AZ15" s="156"/>
+      <c r="BA15" s="156"/>
+      <c r="BB15" s="156"/>
+      <c r="BC15" s="156"/>
+      <c r="BD15" s="156"/>
+      <c r="BE15" s="156"/>
+      <c r="BF15" s="156"/>
+      <c r="BG15" s="156"/>
+      <c r="BH15" s="156"/>
+      <c r="BI15" s="156"/>
+      <c r="BJ15" s="156"/>
+      <c r="BK15" s="156"/>
+      <c r="BL15" s="156"/>
+      <c r="BM15" s="156"/>
+      <c r="BN15" s="156"/>
+      <c r="BO15" s="156"/>
+      <c r="BP15" s="156"/>
+      <c r="BQ15" s="156"/>
+      <c r="BR15" s="157"/>
     </row>
     <row r="16" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="195" t="s">
+      <c r="A16" s="222" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="45"/>
@@ -5860,185 +5857,185 @@
       <c r="AJ16" s="44"/>
       <c r="AK16" s="45"/>
       <c r="AL16" s="46"/>
-      <c r="AM16" s="132"/>
-      <c r="AN16" s="133"/>
-      <c r="AO16" s="134"/>
-      <c r="AP16" s="135"/>
-      <c r="AQ16" s="136"/>
-      <c r="AR16" s="137"/>
-      <c r="AS16" s="137"/>
-      <c r="AT16" s="137"/>
-      <c r="AU16" s="137"/>
-      <c r="AV16" s="137"/>
-      <c r="AW16" s="137"/>
-      <c r="AX16" s="137"/>
-      <c r="AY16" s="137"/>
-      <c r="AZ16" s="137"/>
-      <c r="BA16" s="137"/>
-      <c r="BB16" s="137"/>
-      <c r="BC16" s="137"/>
-      <c r="BD16" s="138"/>
-      <c r="BE16" s="136"/>
-      <c r="BF16" s="137"/>
-      <c r="BG16" s="137"/>
-      <c r="BH16" s="137"/>
-      <c r="BI16" s="137"/>
-      <c r="BJ16" s="137"/>
-      <c r="BK16" s="138"/>
-      <c r="BL16" s="158"/>
-      <c r="BM16" s="137"/>
-      <c r="BN16" s="137"/>
-      <c r="BO16" s="162"/>
-      <c r="BP16" s="158"/>
-      <c r="BQ16" s="137"/>
-      <c r="BR16" s="168"/>
+      <c r="AM16" s="115"/>
+      <c r="AN16" s="116"/>
+      <c r="AO16" s="117"/>
+      <c r="AP16" s="118"/>
+      <c r="AQ16" s="119"/>
+      <c r="AR16" s="120"/>
+      <c r="AS16" s="120"/>
+      <c r="AT16" s="120"/>
+      <c r="AU16" s="120"/>
+      <c r="AV16" s="120"/>
+      <c r="AW16" s="120"/>
+      <c r="AX16" s="120"/>
+      <c r="AY16" s="120"/>
+      <c r="AZ16" s="120"/>
+      <c r="BA16" s="120"/>
+      <c r="BB16" s="120"/>
+      <c r="BC16" s="120"/>
+      <c r="BD16" s="121"/>
+      <c r="BE16" s="119"/>
+      <c r="BF16" s="120"/>
+      <c r="BG16" s="120"/>
+      <c r="BH16" s="120"/>
+      <c r="BI16" s="120"/>
+      <c r="BJ16" s="120"/>
+      <c r="BK16" s="121"/>
+      <c r="BL16" s="239"/>
+      <c r="BM16" s="120"/>
+      <c r="BN16" s="120"/>
+      <c r="BO16" s="168"/>
+      <c r="BP16" s="239"/>
+      <c r="BQ16" s="120"/>
+      <c r="BR16" s="241"/>
     </row>
     <row r="17" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="196"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="128"/>
-      <c r="P17" s="126"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="128"/>
-      <c r="W17" s="126"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="127"/>
-      <c r="AA17" s="127"/>
-      <c r="AB17" s="127"/>
-      <c r="AC17" s="128"/>
-      <c r="AD17" s="126"/>
-      <c r="AE17" s="127"/>
-      <c r="AF17" s="127"/>
-      <c r="AG17" s="127"/>
-      <c r="AH17" s="127"/>
-      <c r="AI17" s="127"/>
-      <c r="AJ17" s="128"/>
-      <c r="AK17" s="130"/>
-      <c r="AL17" s="131"/>
-      <c r="AM17" s="146"/>
-      <c r="AN17" s="140"/>
-      <c r="AO17" s="141"/>
-      <c r="AP17" s="142"/>
-      <c r="AQ17" s="143"/>
-      <c r="AR17" s="144"/>
-      <c r="AS17" s="144"/>
-      <c r="AT17" s="144"/>
-      <c r="AU17" s="144"/>
-      <c r="AV17" s="144"/>
-      <c r="AW17" s="144"/>
-      <c r="AX17" s="144"/>
-      <c r="AY17" s="144"/>
-      <c r="AZ17" s="144"/>
-      <c r="BA17" s="144"/>
-      <c r="BB17" s="144"/>
-      <c r="BC17" s="144"/>
-      <c r="BD17" s="145"/>
-      <c r="BE17" s="143"/>
-      <c r="BF17" s="144"/>
-      <c r="BG17" s="144"/>
-      <c r="BH17" s="144"/>
-      <c r="BI17" s="144"/>
-      <c r="BJ17" s="144"/>
-      <c r="BK17" s="145"/>
-      <c r="BL17" s="159"/>
-      <c r="BM17" s="144"/>
-      <c r="BN17" s="144"/>
-      <c r="BO17" s="163"/>
-      <c r="BP17" s="159"/>
-      <c r="BQ17" s="144"/>
-      <c r="BR17" s="169"/>
+      <c r="A17" s="223"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="110"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="110"/>
+      <c r="F17" s="110"/>
+      <c r="G17" s="110"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="109"/>
+      <c r="J17" s="110"/>
+      <c r="K17" s="110"/>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="109"/>
+      <c r="Q17" s="110"/>
+      <c r="R17" s="110"/>
+      <c r="S17" s="110"/>
+      <c r="T17" s="110"/>
+      <c r="U17" s="110"/>
+      <c r="V17" s="111"/>
+      <c r="W17" s="109"/>
+      <c r="X17" s="110"/>
+      <c r="Y17" s="110"/>
+      <c r="Z17" s="110"/>
+      <c r="AA17" s="110"/>
+      <c r="AB17" s="110"/>
+      <c r="AC17" s="111"/>
+      <c r="AD17" s="109"/>
+      <c r="AE17" s="110"/>
+      <c r="AF17" s="110"/>
+      <c r="AG17" s="110"/>
+      <c r="AH17" s="110"/>
+      <c r="AI17" s="110"/>
+      <c r="AJ17" s="111"/>
+      <c r="AK17" s="113"/>
+      <c r="AL17" s="114"/>
+      <c r="AM17" s="129"/>
+      <c r="AN17" s="123"/>
+      <c r="AO17" s="124"/>
+      <c r="AP17" s="125"/>
+      <c r="AQ17" s="126"/>
+      <c r="AR17" s="127"/>
+      <c r="AS17" s="127"/>
+      <c r="AT17" s="127"/>
+      <c r="AU17" s="127"/>
+      <c r="AV17" s="127"/>
+      <c r="AW17" s="127"/>
+      <c r="AX17" s="127"/>
+      <c r="AY17" s="127"/>
+      <c r="AZ17" s="127"/>
+      <c r="BA17" s="127"/>
+      <c r="BB17" s="127"/>
+      <c r="BC17" s="127"/>
+      <c r="BD17" s="128"/>
+      <c r="BE17" s="126"/>
+      <c r="BF17" s="127"/>
+      <c r="BG17" s="127"/>
+      <c r="BH17" s="127"/>
+      <c r="BI17" s="127"/>
+      <c r="BJ17" s="127"/>
+      <c r="BK17" s="128"/>
+      <c r="BL17" s="240"/>
+      <c r="BM17" s="127"/>
+      <c r="BN17" s="127"/>
+      <c r="BO17" s="169"/>
+      <c r="BP17" s="240"/>
+      <c r="BQ17" s="127"/>
+      <c r="BR17" s="242"/>
     </row>
     <row r="18" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="196"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="85"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="84"/>
-      <c r="O18" s="85"/>
-      <c r="P18" s="83"/>
-      <c r="Q18" s="84"/>
-      <c r="R18" s="84"/>
-      <c r="S18" s="84"/>
-      <c r="T18" s="84"/>
-      <c r="U18" s="84"/>
-      <c r="V18" s="85"/>
-      <c r="W18" s="83"/>
-      <c r="X18" s="84"/>
-      <c r="Y18" s="84"/>
-      <c r="Z18" s="84"/>
-      <c r="AA18" s="84"/>
-      <c r="AB18" s="84"/>
-      <c r="AC18" s="85"/>
-      <c r="AD18" s="83"/>
-      <c r="AE18" s="84"/>
-      <c r="AF18" s="84"/>
-      <c r="AG18" s="84"/>
-      <c r="AH18" s="84"/>
-      <c r="AI18" s="84"/>
-      <c r="AJ18" s="85"/>
-      <c r="AK18" s="87"/>
-      <c r="AL18" s="88"/>
-      <c r="AM18" s="172"/>
-      <c r="AN18" s="173"/>
-      <c r="AO18" s="173"/>
-      <c r="AP18" s="173"/>
-      <c r="AQ18" s="173"/>
-      <c r="AR18" s="173"/>
-      <c r="AS18" s="173"/>
-      <c r="AT18" s="173"/>
-      <c r="AU18" s="173"/>
-      <c r="AV18" s="173"/>
-      <c r="AW18" s="173"/>
-      <c r="AX18" s="173"/>
-      <c r="AY18" s="173"/>
-      <c r="AZ18" s="173"/>
-      <c r="BA18" s="173"/>
-      <c r="BB18" s="173"/>
-      <c r="BC18" s="173"/>
-      <c r="BD18" s="173"/>
-      <c r="BE18" s="173"/>
-      <c r="BF18" s="173"/>
-      <c r="BG18" s="173"/>
-      <c r="BH18" s="173"/>
-      <c r="BI18" s="173"/>
-      <c r="BJ18" s="173"/>
-      <c r="BK18" s="173"/>
-      <c r="BL18" s="173"/>
-      <c r="BM18" s="173"/>
-      <c r="BN18" s="173"/>
-      <c r="BO18" s="173"/>
-      <c r="BP18" s="173"/>
-      <c r="BQ18" s="173"/>
-      <c r="BR18" s="174"/>
+      <c r="A18" s="223"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="258"/>
+      <c r="D18" s="258"/>
+      <c r="E18" s="258"/>
+      <c r="F18" s="258"/>
+      <c r="G18" s="258"/>
+      <c r="H18" s="259"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="258"/>
+      <c r="K18" s="258"/>
+      <c r="L18" s="258"/>
+      <c r="M18" s="258"/>
+      <c r="N18" s="258"/>
+      <c r="O18" s="259"/>
+      <c r="P18" s="81"/>
+      <c r="Q18" s="258"/>
+      <c r="R18" s="258"/>
+      <c r="S18" s="258"/>
+      <c r="T18" s="258"/>
+      <c r="U18" s="258"/>
+      <c r="V18" s="259"/>
+      <c r="W18" s="81"/>
+      <c r="X18" s="258"/>
+      <c r="Y18" s="258"/>
+      <c r="Z18" s="258"/>
+      <c r="AA18" s="258"/>
+      <c r="AB18" s="258"/>
+      <c r="AC18" s="259"/>
+      <c r="AD18" s="81"/>
+      <c r="AE18" s="258"/>
+      <c r="AF18" s="258"/>
+      <c r="AG18" s="258"/>
+      <c r="AH18" s="258"/>
+      <c r="AI18" s="258"/>
+      <c r="AJ18" s="259"/>
+      <c r="AK18" s="260"/>
+      <c r="AL18" s="261"/>
+      <c r="AM18" s="152"/>
+      <c r="AN18" s="153"/>
+      <c r="AO18" s="153"/>
+      <c r="AP18" s="153"/>
+      <c r="AQ18" s="153"/>
+      <c r="AR18" s="153"/>
+      <c r="AS18" s="153"/>
+      <c r="AT18" s="153"/>
+      <c r="AU18" s="153"/>
+      <c r="AV18" s="153"/>
+      <c r="AW18" s="153"/>
+      <c r="AX18" s="153"/>
+      <c r="AY18" s="153"/>
+      <c r="AZ18" s="153"/>
+      <c r="BA18" s="153"/>
+      <c r="BB18" s="153"/>
+      <c r="BC18" s="153"/>
+      <c r="BD18" s="153"/>
+      <c r="BE18" s="153"/>
+      <c r="BF18" s="153"/>
+      <c r="BG18" s="153"/>
+      <c r="BH18" s="153"/>
+      <c r="BI18" s="153"/>
+      <c r="BJ18" s="153"/>
+      <c r="BK18" s="153"/>
+      <c r="BL18" s="153"/>
+      <c r="BM18" s="153"/>
+      <c r="BN18" s="153"/>
+      <c r="BO18" s="153"/>
+      <c r="BP18" s="153"/>
+      <c r="BQ18" s="153"/>
+      <c r="BR18" s="154"/>
     </row>
     <row r="19" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="197"/>
+      <c r="A19" s="224"/>
       <c r="B19" s="68"/>
       <c r="C19" s="69"/>
       <c r="D19" s="69"/>
@@ -6076,41 +6073,41 @@
       <c r="AJ19" s="70"/>
       <c r="AK19" s="71"/>
       <c r="AL19" s="72"/>
-      <c r="AM19" s="175"/>
-      <c r="AN19" s="176"/>
-      <c r="AO19" s="176"/>
-      <c r="AP19" s="176"/>
-      <c r="AQ19" s="176"/>
-      <c r="AR19" s="176"/>
-      <c r="AS19" s="176"/>
-      <c r="AT19" s="176"/>
-      <c r="AU19" s="176"/>
-      <c r="AV19" s="176"/>
-      <c r="AW19" s="176"/>
-      <c r="AX19" s="176"/>
-      <c r="AY19" s="176"/>
-      <c r="AZ19" s="176"/>
-      <c r="BA19" s="176"/>
-      <c r="BB19" s="176"/>
-      <c r="BC19" s="176"/>
-      <c r="BD19" s="176"/>
-      <c r="BE19" s="176"/>
-      <c r="BF19" s="176"/>
-      <c r="BG19" s="176"/>
-      <c r="BH19" s="176"/>
-      <c r="BI19" s="176"/>
-      <c r="BJ19" s="176"/>
-      <c r="BK19" s="176"/>
-      <c r="BL19" s="176"/>
-      <c r="BM19" s="176"/>
-      <c r="BN19" s="176"/>
-      <c r="BO19" s="176"/>
-      <c r="BP19" s="176"/>
-      <c r="BQ19" s="176"/>
-      <c r="BR19" s="177"/>
+      <c r="AM19" s="155"/>
+      <c r="AN19" s="156"/>
+      <c r="AO19" s="156"/>
+      <c r="AP19" s="156"/>
+      <c r="AQ19" s="156"/>
+      <c r="AR19" s="156"/>
+      <c r="AS19" s="156"/>
+      <c r="AT19" s="156"/>
+      <c r="AU19" s="156"/>
+      <c r="AV19" s="156"/>
+      <c r="AW19" s="156"/>
+      <c r="AX19" s="156"/>
+      <c r="AY19" s="156"/>
+      <c r="AZ19" s="156"/>
+      <c r="BA19" s="156"/>
+      <c r="BB19" s="156"/>
+      <c r="BC19" s="156"/>
+      <c r="BD19" s="156"/>
+      <c r="BE19" s="156"/>
+      <c r="BF19" s="156"/>
+      <c r="BG19" s="156"/>
+      <c r="BH19" s="156"/>
+      <c r="BI19" s="156"/>
+      <c r="BJ19" s="156"/>
+      <c r="BK19" s="156"/>
+      <c r="BL19" s="156"/>
+      <c r="BM19" s="156"/>
+      <c r="BN19" s="156"/>
+      <c r="BO19" s="156"/>
+      <c r="BP19" s="156"/>
+      <c r="BQ19" s="156"/>
+      <c r="BR19" s="157"/>
     </row>
     <row r="20" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="196" t="s">
+      <c r="A20" s="223" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="40"/>
@@ -6150,185 +6147,185 @@
       <c r="AJ20" s="39"/>
       <c r="AK20" s="40"/>
       <c r="AL20" s="41"/>
-      <c r="AM20" s="132"/>
-      <c r="AN20" s="133"/>
-      <c r="AO20" s="134"/>
-      <c r="AP20" s="135"/>
-      <c r="AQ20" s="136"/>
-      <c r="AR20" s="137"/>
-      <c r="AS20" s="137"/>
-      <c r="AT20" s="137"/>
-      <c r="AU20" s="137"/>
-      <c r="AV20" s="137"/>
-      <c r="AW20" s="137"/>
-      <c r="AX20" s="137"/>
-      <c r="AY20" s="137"/>
-      <c r="AZ20" s="137"/>
-      <c r="BA20" s="137"/>
-      <c r="BB20" s="137"/>
-      <c r="BC20" s="137"/>
-      <c r="BD20" s="138"/>
-      <c r="BE20" s="136"/>
-      <c r="BF20" s="137"/>
-      <c r="BG20" s="137"/>
-      <c r="BH20" s="137"/>
-      <c r="BI20" s="137"/>
-      <c r="BJ20" s="137"/>
-      <c r="BK20" s="138"/>
-      <c r="BL20" s="158"/>
-      <c r="BM20" s="137"/>
-      <c r="BN20" s="137"/>
-      <c r="BO20" s="162"/>
-      <c r="BP20" s="158"/>
-      <c r="BQ20" s="137"/>
-      <c r="BR20" s="168"/>
+      <c r="AM20" s="115"/>
+      <c r="AN20" s="116"/>
+      <c r="AO20" s="117"/>
+      <c r="AP20" s="118"/>
+      <c r="AQ20" s="119"/>
+      <c r="AR20" s="120"/>
+      <c r="AS20" s="120"/>
+      <c r="AT20" s="120"/>
+      <c r="AU20" s="120"/>
+      <c r="AV20" s="120"/>
+      <c r="AW20" s="120"/>
+      <c r="AX20" s="120"/>
+      <c r="AY20" s="120"/>
+      <c r="AZ20" s="120"/>
+      <c r="BA20" s="120"/>
+      <c r="BB20" s="120"/>
+      <c r="BC20" s="120"/>
+      <c r="BD20" s="121"/>
+      <c r="BE20" s="119"/>
+      <c r="BF20" s="120"/>
+      <c r="BG20" s="120"/>
+      <c r="BH20" s="120"/>
+      <c r="BI20" s="120"/>
+      <c r="BJ20" s="120"/>
+      <c r="BK20" s="121"/>
+      <c r="BL20" s="239"/>
+      <c r="BM20" s="120"/>
+      <c r="BN20" s="120"/>
+      <c r="BO20" s="168"/>
+      <c r="BP20" s="239"/>
+      <c r="BQ20" s="120"/>
+      <c r="BR20" s="241"/>
     </row>
     <row r="21" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="196"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
-      <c r="G21" s="127"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="127"/>
-      <c r="L21" s="127"/>
-      <c r="M21" s="127"/>
-      <c r="N21" s="127"/>
-      <c r="O21" s="128"/>
-      <c r="P21" s="126"/>
-      <c r="Q21" s="127"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="127"/>
-      <c r="T21" s="127"/>
-      <c r="U21" s="127"/>
-      <c r="V21" s="128"/>
-      <c r="W21" s="126"/>
-      <c r="X21" s="127"/>
-      <c r="Y21" s="127"/>
-      <c r="Z21" s="127"/>
-      <c r="AA21" s="127"/>
-      <c r="AB21" s="127"/>
-      <c r="AC21" s="128"/>
-      <c r="AD21" s="126"/>
-      <c r="AE21" s="127"/>
-      <c r="AF21" s="127"/>
-      <c r="AG21" s="127"/>
-      <c r="AH21" s="127"/>
-      <c r="AI21" s="127"/>
-      <c r="AJ21" s="128"/>
-      <c r="AK21" s="130"/>
-      <c r="AL21" s="131"/>
-      <c r="AM21" s="147"/>
-      <c r="AN21" s="148"/>
-      <c r="AO21" s="149"/>
-      <c r="AP21" s="150"/>
-      <c r="AQ21" s="143"/>
-      <c r="AR21" s="144"/>
-      <c r="AS21" s="144"/>
-      <c r="AT21" s="144"/>
-      <c r="AU21" s="144"/>
-      <c r="AV21" s="144"/>
-      <c r="AW21" s="144"/>
-      <c r="AX21" s="144"/>
-      <c r="AY21" s="144"/>
-      <c r="AZ21" s="144"/>
-      <c r="BA21" s="144"/>
-      <c r="BB21" s="144"/>
-      <c r="BC21" s="144"/>
-      <c r="BD21" s="145"/>
-      <c r="BE21" s="143"/>
-      <c r="BF21" s="144"/>
-      <c r="BG21" s="144"/>
-      <c r="BH21" s="144"/>
-      <c r="BI21" s="144"/>
-      <c r="BJ21" s="144"/>
-      <c r="BK21" s="145"/>
-      <c r="BL21" s="159"/>
-      <c r="BM21" s="144"/>
-      <c r="BN21" s="144"/>
-      <c r="BO21" s="163"/>
-      <c r="BP21" s="159"/>
-      <c r="BQ21" s="144"/>
-      <c r="BR21" s="169"/>
+      <c r="A21" s="223"/>
+      <c r="B21" s="113"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="109"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
+      <c r="M21" s="110"/>
+      <c r="N21" s="110"/>
+      <c r="O21" s="111"/>
+      <c r="P21" s="109"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="110"/>
+      <c r="T21" s="110"/>
+      <c r="U21" s="110"/>
+      <c r="V21" s="111"/>
+      <c r="W21" s="109"/>
+      <c r="X21" s="110"/>
+      <c r="Y21" s="110"/>
+      <c r="Z21" s="110"/>
+      <c r="AA21" s="110"/>
+      <c r="AB21" s="110"/>
+      <c r="AC21" s="111"/>
+      <c r="AD21" s="109"/>
+      <c r="AE21" s="110"/>
+      <c r="AF21" s="110"/>
+      <c r="AG21" s="110"/>
+      <c r="AH21" s="110"/>
+      <c r="AI21" s="110"/>
+      <c r="AJ21" s="111"/>
+      <c r="AK21" s="113"/>
+      <c r="AL21" s="114"/>
+      <c r="AM21" s="130"/>
+      <c r="AN21" s="131"/>
+      <c r="AO21" s="132"/>
+      <c r="AP21" s="133"/>
+      <c r="AQ21" s="126"/>
+      <c r="AR21" s="127"/>
+      <c r="AS21" s="127"/>
+      <c r="AT21" s="127"/>
+      <c r="AU21" s="127"/>
+      <c r="AV21" s="127"/>
+      <c r="AW21" s="127"/>
+      <c r="AX21" s="127"/>
+      <c r="AY21" s="127"/>
+      <c r="AZ21" s="127"/>
+      <c r="BA21" s="127"/>
+      <c r="BB21" s="127"/>
+      <c r="BC21" s="127"/>
+      <c r="BD21" s="128"/>
+      <c r="BE21" s="126"/>
+      <c r="BF21" s="127"/>
+      <c r="BG21" s="127"/>
+      <c r="BH21" s="127"/>
+      <c r="BI21" s="127"/>
+      <c r="BJ21" s="127"/>
+      <c r="BK21" s="128"/>
+      <c r="BL21" s="240"/>
+      <c r="BM21" s="127"/>
+      <c r="BN21" s="127"/>
+      <c r="BO21" s="169"/>
+      <c r="BP21" s="240"/>
+      <c r="BQ21" s="127"/>
+      <c r="BR21" s="242"/>
     </row>
     <row r="22" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="196"/>
-      <c r="B22" s="83"/>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="83"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
-      <c r="M22" s="84"/>
-      <c r="N22" s="84"/>
-      <c r="O22" s="85"/>
-      <c r="P22" s="83"/>
-      <c r="Q22" s="84"/>
-      <c r="R22" s="84"/>
-      <c r="S22" s="84"/>
-      <c r="T22" s="84"/>
-      <c r="U22" s="84"/>
-      <c r="V22" s="85"/>
-      <c r="W22" s="83"/>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="84"/>
-      <c r="Z22" s="84"/>
-      <c r="AA22" s="84"/>
-      <c r="AB22" s="84"/>
-      <c r="AC22" s="85"/>
-      <c r="AD22" s="83"/>
-      <c r="AE22" s="84"/>
-      <c r="AF22" s="84"/>
-      <c r="AG22" s="84"/>
-      <c r="AH22" s="84"/>
-      <c r="AI22" s="84"/>
-      <c r="AJ22" s="85"/>
-      <c r="AK22" s="87"/>
-      <c r="AL22" s="88"/>
-      <c r="AM22" s="172"/>
-      <c r="AN22" s="173"/>
-      <c r="AO22" s="173"/>
-      <c r="AP22" s="173"/>
-      <c r="AQ22" s="173"/>
-      <c r="AR22" s="173"/>
-      <c r="AS22" s="173"/>
-      <c r="AT22" s="173"/>
-      <c r="AU22" s="173"/>
-      <c r="AV22" s="173"/>
-      <c r="AW22" s="173"/>
-      <c r="AX22" s="173"/>
-      <c r="AY22" s="173"/>
-      <c r="AZ22" s="173"/>
-      <c r="BA22" s="173"/>
-      <c r="BB22" s="173"/>
-      <c r="BC22" s="173"/>
-      <c r="BD22" s="173"/>
-      <c r="BE22" s="173"/>
-      <c r="BF22" s="173"/>
-      <c r="BG22" s="173"/>
-      <c r="BH22" s="173"/>
-      <c r="BI22" s="173"/>
-      <c r="BJ22" s="173"/>
-      <c r="BK22" s="173"/>
-      <c r="BL22" s="173"/>
-      <c r="BM22" s="173"/>
-      <c r="BN22" s="173"/>
-      <c r="BO22" s="173"/>
-      <c r="BP22" s="173"/>
-      <c r="BQ22" s="173"/>
-      <c r="BR22" s="174"/>
+      <c r="A22" s="223"/>
+      <c r="B22" s="81"/>
+      <c r="C22" s="258"/>
+      <c r="D22" s="258"/>
+      <c r="E22" s="258"/>
+      <c r="F22" s="258"/>
+      <c r="G22" s="258"/>
+      <c r="H22" s="259"/>
+      <c r="I22" s="81"/>
+      <c r="J22" s="258"/>
+      <c r="K22" s="258"/>
+      <c r="L22" s="258"/>
+      <c r="M22" s="258"/>
+      <c r="N22" s="258"/>
+      <c r="O22" s="259"/>
+      <c r="P22" s="81"/>
+      <c r="Q22" s="258"/>
+      <c r="R22" s="258"/>
+      <c r="S22" s="258"/>
+      <c r="T22" s="258"/>
+      <c r="U22" s="258"/>
+      <c r="V22" s="259"/>
+      <c r="W22" s="81"/>
+      <c r="X22" s="258"/>
+      <c r="Y22" s="258"/>
+      <c r="Z22" s="258"/>
+      <c r="AA22" s="258"/>
+      <c r="AB22" s="258"/>
+      <c r="AC22" s="259"/>
+      <c r="AD22" s="81"/>
+      <c r="AE22" s="258"/>
+      <c r="AF22" s="258"/>
+      <c r="AG22" s="258"/>
+      <c r="AH22" s="258"/>
+      <c r="AI22" s="258"/>
+      <c r="AJ22" s="259"/>
+      <c r="AK22" s="260"/>
+      <c r="AL22" s="261"/>
+      <c r="AM22" s="152"/>
+      <c r="AN22" s="153"/>
+      <c r="AO22" s="153"/>
+      <c r="AP22" s="153"/>
+      <c r="AQ22" s="153"/>
+      <c r="AR22" s="153"/>
+      <c r="AS22" s="153"/>
+      <c r="AT22" s="153"/>
+      <c r="AU22" s="153"/>
+      <c r="AV22" s="153"/>
+      <c r="AW22" s="153"/>
+      <c r="AX22" s="153"/>
+      <c r="AY22" s="153"/>
+      <c r="AZ22" s="153"/>
+      <c r="BA22" s="153"/>
+      <c r="BB22" s="153"/>
+      <c r="BC22" s="153"/>
+      <c r="BD22" s="153"/>
+      <c r="BE22" s="153"/>
+      <c r="BF22" s="153"/>
+      <c r="BG22" s="153"/>
+      <c r="BH22" s="153"/>
+      <c r="BI22" s="153"/>
+      <c r="BJ22" s="153"/>
+      <c r="BK22" s="153"/>
+      <c r="BL22" s="153"/>
+      <c r="BM22" s="153"/>
+      <c r="BN22" s="153"/>
+      <c r="BO22" s="153"/>
+      <c r="BP22" s="153"/>
+      <c r="BQ22" s="153"/>
+      <c r="BR22" s="154"/>
     </row>
     <row r="23" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="197"/>
+      <c r="A23" s="224"/>
       <c r="B23" s="66"/>
       <c r="C23" s="63"/>
       <c r="D23" s="63"/>
@@ -6366,41 +6363,41 @@
       <c r="AJ23" s="64"/>
       <c r="AK23" s="66"/>
       <c r="AL23" s="67"/>
-      <c r="AM23" s="175"/>
-      <c r="AN23" s="176"/>
-      <c r="AO23" s="176"/>
-      <c r="AP23" s="176"/>
-      <c r="AQ23" s="176"/>
-      <c r="AR23" s="176"/>
-      <c r="AS23" s="176"/>
-      <c r="AT23" s="176"/>
-      <c r="AU23" s="176"/>
-      <c r="AV23" s="176"/>
-      <c r="AW23" s="176"/>
-      <c r="AX23" s="176"/>
-      <c r="AY23" s="176"/>
-      <c r="AZ23" s="176"/>
-      <c r="BA23" s="176"/>
-      <c r="BB23" s="176"/>
-      <c r="BC23" s="176"/>
-      <c r="BD23" s="176"/>
-      <c r="BE23" s="176"/>
-      <c r="BF23" s="176"/>
-      <c r="BG23" s="176"/>
-      <c r="BH23" s="176"/>
-      <c r="BI23" s="176"/>
-      <c r="BJ23" s="176"/>
-      <c r="BK23" s="176"/>
-      <c r="BL23" s="176"/>
-      <c r="BM23" s="176"/>
-      <c r="BN23" s="176"/>
-      <c r="BO23" s="176"/>
-      <c r="BP23" s="176"/>
-      <c r="BQ23" s="176"/>
-      <c r="BR23" s="177"/>
+      <c r="AM23" s="155"/>
+      <c r="AN23" s="156"/>
+      <c r="AO23" s="156"/>
+      <c r="AP23" s="156"/>
+      <c r="AQ23" s="156"/>
+      <c r="AR23" s="156"/>
+      <c r="AS23" s="156"/>
+      <c r="AT23" s="156"/>
+      <c r="AU23" s="156"/>
+      <c r="AV23" s="156"/>
+      <c r="AW23" s="156"/>
+      <c r="AX23" s="156"/>
+      <c r="AY23" s="156"/>
+      <c r="AZ23" s="156"/>
+      <c r="BA23" s="156"/>
+      <c r="BB23" s="156"/>
+      <c r="BC23" s="156"/>
+      <c r="BD23" s="156"/>
+      <c r="BE23" s="156"/>
+      <c r="BF23" s="156"/>
+      <c r="BG23" s="156"/>
+      <c r="BH23" s="156"/>
+      <c r="BI23" s="156"/>
+      <c r="BJ23" s="156"/>
+      <c r="BK23" s="156"/>
+      <c r="BL23" s="156"/>
+      <c r="BM23" s="156"/>
+      <c r="BN23" s="156"/>
+      <c r="BO23" s="156"/>
+      <c r="BP23" s="156"/>
+      <c r="BQ23" s="156"/>
+      <c r="BR23" s="157"/>
     </row>
     <row r="24" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="195" t="s">
+      <c r="A24" s="222" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="45"/>
@@ -6440,185 +6437,185 @@
       <c r="AJ24" s="44"/>
       <c r="AK24" s="45"/>
       <c r="AL24" s="46"/>
-      <c r="AM24" s="132"/>
-      <c r="AN24" s="133"/>
-      <c r="AO24" s="134"/>
-      <c r="AP24" s="135"/>
-      <c r="AQ24" s="136"/>
-      <c r="AR24" s="137"/>
-      <c r="AS24" s="137"/>
-      <c r="AT24" s="137"/>
-      <c r="AU24" s="137"/>
-      <c r="AV24" s="137"/>
-      <c r="AW24" s="137"/>
-      <c r="AX24" s="137"/>
-      <c r="AY24" s="137"/>
-      <c r="AZ24" s="137"/>
-      <c r="BA24" s="137"/>
-      <c r="BB24" s="137"/>
-      <c r="BC24" s="137"/>
-      <c r="BD24" s="138"/>
-      <c r="BE24" s="136"/>
-      <c r="BF24" s="137"/>
-      <c r="BG24" s="137"/>
-      <c r="BH24" s="137"/>
-      <c r="BI24" s="137"/>
-      <c r="BJ24" s="137"/>
-      <c r="BK24" s="138"/>
-      <c r="BL24" s="158"/>
-      <c r="BM24" s="137"/>
-      <c r="BN24" s="137"/>
-      <c r="BO24" s="162"/>
-      <c r="BP24" s="158"/>
-      <c r="BQ24" s="137"/>
-      <c r="BR24" s="168"/>
+      <c r="AM24" s="115"/>
+      <c r="AN24" s="116"/>
+      <c r="AO24" s="117"/>
+      <c r="AP24" s="118"/>
+      <c r="AQ24" s="119"/>
+      <c r="AR24" s="120"/>
+      <c r="AS24" s="120"/>
+      <c r="AT24" s="120"/>
+      <c r="AU24" s="120"/>
+      <c r="AV24" s="120"/>
+      <c r="AW24" s="120"/>
+      <c r="AX24" s="120"/>
+      <c r="AY24" s="120"/>
+      <c r="AZ24" s="120"/>
+      <c r="BA24" s="120"/>
+      <c r="BB24" s="120"/>
+      <c r="BC24" s="120"/>
+      <c r="BD24" s="121"/>
+      <c r="BE24" s="119"/>
+      <c r="BF24" s="120"/>
+      <c r="BG24" s="120"/>
+      <c r="BH24" s="120"/>
+      <c r="BI24" s="120"/>
+      <c r="BJ24" s="120"/>
+      <c r="BK24" s="121"/>
+      <c r="BL24" s="239"/>
+      <c r="BM24" s="120"/>
+      <c r="BN24" s="120"/>
+      <c r="BO24" s="168"/>
+      <c r="BP24" s="239"/>
+      <c r="BQ24" s="120"/>
+      <c r="BR24" s="241"/>
     </row>
     <row r="25" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="196"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
-      <c r="G25" s="127"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="127"/>
-      <c r="K25" s="127"/>
-      <c r="L25" s="127"/>
-      <c r="M25" s="127"/>
-      <c r="N25" s="127"/>
-      <c r="O25" s="128"/>
-      <c r="P25" s="126"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="127"/>
-      <c r="S25" s="127"/>
-      <c r="T25" s="127"/>
-      <c r="U25" s="127"/>
-      <c r="V25" s="128"/>
-      <c r="W25" s="126"/>
-      <c r="X25" s="127"/>
-      <c r="Y25" s="127"/>
-      <c r="Z25" s="127"/>
-      <c r="AA25" s="127"/>
-      <c r="AB25" s="127"/>
-      <c r="AC25" s="128"/>
-      <c r="AD25" s="126"/>
-      <c r="AE25" s="127"/>
-      <c r="AF25" s="127"/>
-      <c r="AG25" s="127"/>
-      <c r="AH25" s="127"/>
-      <c r="AI25" s="127"/>
-      <c r="AJ25" s="128"/>
-      <c r="AK25" s="130"/>
-      <c r="AL25" s="131"/>
-      <c r="AM25" s="139"/>
-      <c r="AN25" s="140"/>
-      <c r="AO25" s="141"/>
-      <c r="AP25" s="142"/>
-      <c r="AQ25" s="143"/>
-      <c r="AR25" s="144"/>
-      <c r="AS25" s="144"/>
-      <c r="AT25" s="144"/>
-      <c r="AU25" s="144"/>
-      <c r="AV25" s="144"/>
-      <c r="AW25" s="144"/>
-      <c r="AX25" s="144"/>
-      <c r="AY25" s="144"/>
-      <c r="AZ25" s="144"/>
-      <c r="BA25" s="144"/>
-      <c r="BB25" s="144"/>
-      <c r="BC25" s="144"/>
-      <c r="BD25" s="145"/>
-      <c r="BE25" s="143"/>
-      <c r="BF25" s="144"/>
-      <c r="BG25" s="144"/>
-      <c r="BH25" s="144"/>
-      <c r="BI25" s="144"/>
-      <c r="BJ25" s="144"/>
-      <c r="BK25" s="145"/>
-      <c r="BL25" s="159"/>
-      <c r="BM25" s="144"/>
-      <c r="BN25" s="144"/>
-      <c r="BO25" s="163"/>
-      <c r="BP25" s="159"/>
-      <c r="BQ25" s="144"/>
-      <c r="BR25" s="169"/>
+      <c r="A25" s="223"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="110"/>
+      <c r="D25" s="110"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="110"/>
+      <c r="H25" s="111"/>
+      <c r="I25" s="109"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="110"/>
+      <c r="L25" s="110"/>
+      <c r="M25" s="110"/>
+      <c r="N25" s="110"/>
+      <c r="O25" s="111"/>
+      <c r="P25" s="109"/>
+      <c r="Q25" s="110"/>
+      <c r="R25" s="110"/>
+      <c r="S25" s="110"/>
+      <c r="T25" s="110"/>
+      <c r="U25" s="110"/>
+      <c r="V25" s="111"/>
+      <c r="W25" s="109"/>
+      <c r="X25" s="110"/>
+      <c r="Y25" s="110"/>
+      <c r="Z25" s="110"/>
+      <c r="AA25" s="110"/>
+      <c r="AB25" s="110"/>
+      <c r="AC25" s="111"/>
+      <c r="AD25" s="109"/>
+      <c r="AE25" s="110"/>
+      <c r="AF25" s="110"/>
+      <c r="AG25" s="110"/>
+      <c r="AH25" s="110"/>
+      <c r="AI25" s="110"/>
+      <c r="AJ25" s="111"/>
+      <c r="AK25" s="113"/>
+      <c r="AL25" s="114"/>
+      <c r="AM25" s="122"/>
+      <c r="AN25" s="123"/>
+      <c r="AO25" s="124"/>
+      <c r="AP25" s="125"/>
+      <c r="AQ25" s="126"/>
+      <c r="AR25" s="127"/>
+      <c r="AS25" s="127"/>
+      <c r="AT25" s="127"/>
+      <c r="AU25" s="127"/>
+      <c r="AV25" s="127"/>
+      <c r="AW25" s="127"/>
+      <c r="AX25" s="127"/>
+      <c r="AY25" s="127"/>
+      <c r="AZ25" s="127"/>
+      <c r="BA25" s="127"/>
+      <c r="BB25" s="127"/>
+      <c r="BC25" s="127"/>
+      <c r="BD25" s="128"/>
+      <c r="BE25" s="126"/>
+      <c r="BF25" s="127"/>
+      <c r="BG25" s="127"/>
+      <c r="BH25" s="127"/>
+      <c r="BI25" s="127"/>
+      <c r="BJ25" s="127"/>
+      <c r="BK25" s="128"/>
+      <c r="BL25" s="240"/>
+      <c r="BM25" s="127"/>
+      <c r="BN25" s="127"/>
+      <c r="BO25" s="169"/>
+      <c r="BP25" s="240"/>
+      <c r="BQ25" s="127"/>
+      <c r="BR25" s="242"/>
     </row>
     <row r="26" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="196"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="84"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="84"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="85"/>
-      <c r="I26" s="83"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
-      <c r="N26" s="84"/>
-      <c r="O26" s="85"/>
-      <c r="P26" s="83"/>
-      <c r="Q26" s="84"/>
-      <c r="R26" s="84"/>
-      <c r="S26" s="84"/>
-      <c r="T26" s="84"/>
-      <c r="U26" s="84"/>
-      <c r="V26" s="85"/>
-      <c r="W26" s="83"/>
-      <c r="X26" s="84"/>
-      <c r="Y26" s="84"/>
-      <c r="Z26" s="84"/>
-      <c r="AA26" s="84"/>
-      <c r="AB26" s="84"/>
-      <c r="AC26" s="85"/>
-      <c r="AD26" s="83"/>
-      <c r="AE26" s="84"/>
-      <c r="AF26" s="84"/>
-      <c r="AG26" s="84"/>
-      <c r="AH26" s="84"/>
-      <c r="AI26" s="84"/>
-      <c r="AJ26" s="85"/>
-      <c r="AK26" s="87"/>
-      <c r="AL26" s="88"/>
-      <c r="AM26" s="172"/>
-      <c r="AN26" s="173"/>
-      <c r="AO26" s="173"/>
-      <c r="AP26" s="173"/>
-      <c r="AQ26" s="173"/>
-      <c r="AR26" s="173"/>
-      <c r="AS26" s="173"/>
-      <c r="AT26" s="173"/>
-      <c r="AU26" s="173"/>
-      <c r="AV26" s="173"/>
-      <c r="AW26" s="173"/>
-      <c r="AX26" s="173"/>
-      <c r="AY26" s="173"/>
-      <c r="AZ26" s="173"/>
-      <c r="BA26" s="173"/>
-      <c r="BB26" s="173"/>
-      <c r="BC26" s="173"/>
-      <c r="BD26" s="173"/>
-      <c r="BE26" s="173"/>
-      <c r="BF26" s="173"/>
-      <c r="BG26" s="173"/>
-      <c r="BH26" s="173"/>
-      <c r="BI26" s="173"/>
-      <c r="BJ26" s="173"/>
-      <c r="BK26" s="173"/>
-      <c r="BL26" s="173"/>
-      <c r="BM26" s="173"/>
-      <c r="BN26" s="173"/>
-      <c r="BO26" s="173"/>
-      <c r="BP26" s="173"/>
-      <c r="BQ26" s="173"/>
-      <c r="BR26" s="174"/>
+      <c r="A26" s="223"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="258"/>
+      <c r="D26" s="258"/>
+      <c r="E26" s="258"/>
+      <c r="F26" s="258"/>
+      <c r="G26" s="258"/>
+      <c r="H26" s="259"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="258"/>
+      <c r="K26" s="258"/>
+      <c r="L26" s="258"/>
+      <c r="M26" s="258"/>
+      <c r="N26" s="258"/>
+      <c r="O26" s="259"/>
+      <c r="P26" s="81"/>
+      <c r="Q26" s="258"/>
+      <c r="R26" s="258"/>
+      <c r="S26" s="258"/>
+      <c r="T26" s="258"/>
+      <c r="U26" s="258"/>
+      <c r="V26" s="259"/>
+      <c r="W26" s="81"/>
+      <c r="X26" s="258"/>
+      <c r="Y26" s="258"/>
+      <c r="Z26" s="258"/>
+      <c r="AA26" s="258"/>
+      <c r="AB26" s="258"/>
+      <c r="AC26" s="259"/>
+      <c r="AD26" s="81"/>
+      <c r="AE26" s="258"/>
+      <c r="AF26" s="258"/>
+      <c r="AG26" s="258"/>
+      <c r="AH26" s="258"/>
+      <c r="AI26" s="258"/>
+      <c r="AJ26" s="259"/>
+      <c r="AK26" s="260"/>
+      <c r="AL26" s="261"/>
+      <c r="AM26" s="152"/>
+      <c r="AN26" s="153"/>
+      <c r="AO26" s="153"/>
+      <c r="AP26" s="153"/>
+      <c r="AQ26" s="153"/>
+      <c r="AR26" s="153"/>
+      <c r="AS26" s="153"/>
+      <c r="AT26" s="153"/>
+      <c r="AU26" s="153"/>
+      <c r="AV26" s="153"/>
+      <c r="AW26" s="153"/>
+      <c r="AX26" s="153"/>
+      <c r="AY26" s="153"/>
+      <c r="AZ26" s="153"/>
+      <c r="BA26" s="153"/>
+      <c r="BB26" s="153"/>
+      <c r="BC26" s="153"/>
+      <c r="BD26" s="153"/>
+      <c r="BE26" s="153"/>
+      <c r="BF26" s="153"/>
+      <c r="BG26" s="153"/>
+      <c r="BH26" s="153"/>
+      <c r="BI26" s="153"/>
+      <c r="BJ26" s="153"/>
+      <c r="BK26" s="153"/>
+      <c r="BL26" s="153"/>
+      <c r="BM26" s="153"/>
+      <c r="BN26" s="153"/>
+      <c r="BO26" s="153"/>
+      <c r="BP26" s="153"/>
+      <c r="BQ26" s="153"/>
+      <c r="BR26" s="154"/>
     </row>
     <row r="27" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="197"/>
+      <c r="A27" s="224"/>
       <c r="B27" s="66"/>
       <c r="C27" s="63"/>
       <c r="D27" s="63"/>
@@ -6656,41 +6653,41 @@
       <c r="AJ27" s="64"/>
       <c r="AK27" s="66"/>
       <c r="AL27" s="67"/>
-      <c r="AM27" s="175"/>
-      <c r="AN27" s="176"/>
-      <c r="AO27" s="176"/>
-      <c r="AP27" s="176"/>
-      <c r="AQ27" s="176"/>
-      <c r="AR27" s="176"/>
-      <c r="AS27" s="176"/>
-      <c r="AT27" s="176"/>
-      <c r="AU27" s="176"/>
-      <c r="AV27" s="176"/>
-      <c r="AW27" s="176"/>
-      <c r="AX27" s="176"/>
-      <c r="AY27" s="176"/>
-      <c r="AZ27" s="176"/>
-      <c r="BA27" s="176"/>
-      <c r="BB27" s="176"/>
-      <c r="BC27" s="176"/>
-      <c r="BD27" s="176"/>
-      <c r="BE27" s="176"/>
-      <c r="BF27" s="176"/>
-      <c r="BG27" s="176"/>
-      <c r="BH27" s="176"/>
-      <c r="BI27" s="176"/>
-      <c r="BJ27" s="176"/>
-      <c r="BK27" s="176"/>
-      <c r="BL27" s="176"/>
-      <c r="BM27" s="176"/>
-      <c r="BN27" s="176"/>
-      <c r="BO27" s="176"/>
-      <c r="BP27" s="176"/>
-      <c r="BQ27" s="176"/>
-      <c r="BR27" s="177"/>
+      <c r="AM27" s="155"/>
+      <c r="AN27" s="156"/>
+      <c r="AO27" s="156"/>
+      <c r="AP27" s="156"/>
+      <c r="AQ27" s="156"/>
+      <c r="AR27" s="156"/>
+      <c r="AS27" s="156"/>
+      <c r="AT27" s="156"/>
+      <c r="AU27" s="156"/>
+      <c r="AV27" s="156"/>
+      <c r="AW27" s="156"/>
+      <c r="AX27" s="156"/>
+      <c r="AY27" s="156"/>
+      <c r="AZ27" s="156"/>
+      <c r="BA27" s="156"/>
+      <c r="BB27" s="156"/>
+      <c r="BC27" s="156"/>
+      <c r="BD27" s="156"/>
+      <c r="BE27" s="156"/>
+      <c r="BF27" s="156"/>
+      <c r="BG27" s="156"/>
+      <c r="BH27" s="156"/>
+      <c r="BI27" s="156"/>
+      <c r="BJ27" s="156"/>
+      <c r="BK27" s="156"/>
+      <c r="BL27" s="156"/>
+      <c r="BM27" s="156"/>
+      <c r="BN27" s="156"/>
+      <c r="BO27" s="156"/>
+      <c r="BP27" s="156"/>
+      <c r="BQ27" s="156"/>
+      <c r="BR27" s="157"/>
     </row>
     <row r="28" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="195" t="s">
+      <c r="A28" s="222" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="45"/>
@@ -6730,185 +6727,185 @@
       <c r="AJ28" s="44"/>
       <c r="AK28" s="45"/>
       <c r="AL28" s="46"/>
-      <c r="AM28" s="132"/>
-      <c r="AN28" s="133"/>
-      <c r="AO28" s="134"/>
-      <c r="AP28" s="135"/>
-      <c r="AQ28" s="136"/>
-      <c r="AR28" s="137"/>
-      <c r="AS28" s="137"/>
-      <c r="AT28" s="137"/>
-      <c r="AU28" s="137"/>
-      <c r="AV28" s="137"/>
-      <c r="AW28" s="137"/>
-      <c r="AX28" s="137"/>
-      <c r="AY28" s="137"/>
-      <c r="AZ28" s="137"/>
-      <c r="BA28" s="137"/>
-      <c r="BB28" s="137"/>
-      <c r="BC28" s="137"/>
-      <c r="BD28" s="138"/>
-      <c r="BE28" s="136"/>
-      <c r="BF28" s="137"/>
-      <c r="BG28" s="137"/>
-      <c r="BH28" s="137"/>
-      <c r="BI28" s="137"/>
-      <c r="BJ28" s="137"/>
-      <c r="BK28" s="138"/>
-      <c r="BL28" s="158"/>
-      <c r="BM28" s="137"/>
-      <c r="BN28" s="137"/>
-      <c r="BO28" s="162"/>
-      <c r="BP28" s="158"/>
-      <c r="BQ28" s="137"/>
-      <c r="BR28" s="168"/>
+      <c r="AM28" s="115"/>
+      <c r="AN28" s="116"/>
+      <c r="AO28" s="117"/>
+      <c r="AP28" s="118"/>
+      <c r="AQ28" s="119"/>
+      <c r="AR28" s="120"/>
+      <c r="AS28" s="120"/>
+      <c r="AT28" s="120"/>
+      <c r="AU28" s="120"/>
+      <c r="AV28" s="120"/>
+      <c r="AW28" s="120"/>
+      <c r="AX28" s="120"/>
+      <c r="AY28" s="120"/>
+      <c r="AZ28" s="120"/>
+      <c r="BA28" s="120"/>
+      <c r="BB28" s="120"/>
+      <c r="BC28" s="120"/>
+      <c r="BD28" s="121"/>
+      <c r="BE28" s="119"/>
+      <c r="BF28" s="120"/>
+      <c r="BG28" s="120"/>
+      <c r="BH28" s="120"/>
+      <c r="BI28" s="120"/>
+      <c r="BJ28" s="120"/>
+      <c r="BK28" s="121"/>
+      <c r="BL28" s="239"/>
+      <c r="BM28" s="120"/>
+      <c r="BN28" s="120"/>
+      <c r="BO28" s="168"/>
+      <c r="BP28" s="239"/>
+      <c r="BQ28" s="120"/>
+      <c r="BR28" s="241"/>
     </row>
     <row r="29" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="196"/>
-      <c r="B29" s="130"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
-      <c r="G29" s="127"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="128"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="122"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="127"/>
-      <c r="T29" s="127"/>
-      <c r="U29" s="127"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="126"/>
-      <c r="X29" s="127"/>
-      <c r="Y29" s="127"/>
-      <c r="Z29" s="127"/>
-      <c r="AA29" s="127"/>
-      <c r="AB29" s="127"/>
-      <c r="AC29" s="128"/>
-      <c r="AD29" s="126"/>
-      <c r="AE29" s="127"/>
-      <c r="AF29" s="127"/>
-      <c r="AG29" s="127"/>
-      <c r="AH29" s="127"/>
-      <c r="AI29" s="127"/>
-      <c r="AJ29" s="128"/>
-      <c r="AK29" s="130"/>
-      <c r="AL29" s="131"/>
-      <c r="AM29" s="139"/>
-      <c r="AN29" s="140"/>
-      <c r="AO29" s="141"/>
-      <c r="AP29" s="142"/>
-      <c r="AQ29" s="143"/>
-      <c r="AR29" s="144"/>
-      <c r="AS29" s="144"/>
-      <c r="AT29" s="144"/>
-      <c r="AU29" s="144"/>
-      <c r="AV29" s="144"/>
-      <c r="AW29" s="144"/>
-      <c r="AX29" s="144"/>
-      <c r="AY29" s="144"/>
-      <c r="AZ29" s="144"/>
-      <c r="BA29" s="144"/>
-      <c r="BB29" s="144"/>
-      <c r="BC29" s="144"/>
-      <c r="BD29" s="145"/>
-      <c r="BE29" s="143"/>
-      <c r="BF29" s="144"/>
-      <c r="BG29" s="144"/>
-      <c r="BH29" s="144"/>
-      <c r="BI29" s="144"/>
-      <c r="BJ29" s="144"/>
-      <c r="BK29" s="145"/>
-      <c r="BL29" s="159"/>
-      <c r="BM29" s="144"/>
-      <c r="BN29" s="144"/>
-      <c r="BO29" s="163"/>
-      <c r="BP29" s="159"/>
-      <c r="BQ29" s="144"/>
-      <c r="BR29" s="169"/>
+      <c r="A29" s="223"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="109"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="110"/>
+      <c r="M29" s="110"/>
+      <c r="N29" s="110"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="105"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="110"/>
+      <c r="U29" s="110"/>
+      <c r="V29" s="111"/>
+      <c r="W29" s="109"/>
+      <c r="X29" s="110"/>
+      <c r="Y29" s="110"/>
+      <c r="Z29" s="110"/>
+      <c r="AA29" s="110"/>
+      <c r="AB29" s="110"/>
+      <c r="AC29" s="111"/>
+      <c r="AD29" s="109"/>
+      <c r="AE29" s="110"/>
+      <c r="AF29" s="110"/>
+      <c r="AG29" s="110"/>
+      <c r="AH29" s="110"/>
+      <c r="AI29" s="110"/>
+      <c r="AJ29" s="111"/>
+      <c r="AK29" s="113"/>
+      <c r="AL29" s="114"/>
+      <c r="AM29" s="122"/>
+      <c r="AN29" s="123"/>
+      <c r="AO29" s="124"/>
+      <c r="AP29" s="125"/>
+      <c r="AQ29" s="126"/>
+      <c r="AR29" s="127"/>
+      <c r="AS29" s="127"/>
+      <c r="AT29" s="127"/>
+      <c r="AU29" s="127"/>
+      <c r="AV29" s="127"/>
+      <c r="AW29" s="127"/>
+      <c r="AX29" s="127"/>
+      <c r="AY29" s="127"/>
+      <c r="AZ29" s="127"/>
+      <c r="BA29" s="127"/>
+      <c r="BB29" s="127"/>
+      <c r="BC29" s="127"/>
+      <c r="BD29" s="128"/>
+      <c r="BE29" s="126"/>
+      <c r="BF29" s="127"/>
+      <c r="BG29" s="127"/>
+      <c r="BH29" s="127"/>
+      <c r="BI29" s="127"/>
+      <c r="BJ29" s="127"/>
+      <c r="BK29" s="128"/>
+      <c r="BL29" s="240"/>
+      <c r="BM29" s="127"/>
+      <c r="BN29" s="127"/>
+      <c r="BO29" s="169"/>
+      <c r="BP29" s="240"/>
+      <c r="BQ29" s="127"/>
+      <c r="BR29" s="242"/>
     </row>
     <row r="30" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="196"/>
-      <c r="B30" s="83"/>
-      <c r="C30" s="84"/>
-      <c r="D30" s="84"/>
-      <c r="E30" s="84"/>
-      <c r="F30" s="84"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="85"/>
-      <c r="I30" s="83"/>
-      <c r="J30" s="84"/>
-      <c r="K30" s="84"/>
-      <c r="L30" s="84"/>
-      <c r="M30" s="84"/>
-      <c r="N30" s="84"/>
-      <c r="O30" s="85"/>
-      <c r="P30" s="81"/>
-      <c r="Q30" s="82"/>
-      <c r="R30" s="84"/>
-      <c r="S30" s="84"/>
-      <c r="T30" s="84"/>
-      <c r="U30" s="84"/>
-      <c r="V30" s="85"/>
-      <c r="W30" s="83"/>
-      <c r="X30" s="84"/>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="84"/>
-      <c r="AA30" s="84"/>
-      <c r="AB30" s="84"/>
-      <c r="AC30" s="85"/>
-      <c r="AD30" s="83"/>
-      <c r="AE30" s="84"/>
-      <c r="AF30" s="84"/>
-      <c r="AG30" s="84"/>
-      <c r="AH30" s="84"/>
-      <c r="AI30" s="84"/>
-      <c r="AJ30" s="85"/>
-      <c r="AK30" s="87"/>
-      <c r="AL30" s="88"/>
-      <c r="AM30" s="172"/>
-      <c r="AN30" s="173"/>
-      <c r="AO30" s="173"/>
-      <c r="AP30" s="173"/>
-      <c r="AQ30" s="173"/>
-      <c r="AR30" s="173"/>
-      <c r="AS30" s="173"/>
-      <c r="AT30" s="173"/>
-      <c r="AU30" s="173"/>
-      <c r="AV30" s="173"/>
-      <c r="AW30" s="173"/>
-      <c r="AX30" s="173"/>
-      <c r="AY30" s="173"/>
-      <c r="AZ30" s="173"/>
-      <c r="BA30" s="173"/>
-      <c r="BB30" s="173"/>
-      <c r="BC30" s="173"/>
-      <c r="BD30" s="173"/>
-      <c r="BE30" s="173"/>
-      <c r="BF30" s="173"/>
-      <c r="BG30" s="173"/>
-      <c r="BH30" s="173"/>
-      <c r="BI30" s="173"/>
-      <c r="BJ30" s="173"/>
-      <c r="BK30" s="173"/>
-      <c r="BL30" s="173"/>
-      <c r="BM30" s="173"/>
-      <c r="BN30" s="173"/>
-      <c r="BO30" s="173"/>
-      <c r="BP30" s="173"/>
-      <c r="BQ30" s="173"/>
-      <c r="BR30" s="174"/>
+      <c r="A30" s="223"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="258"/>
+      <c r="D30" s="258"/>
+      <c r="E30" s="258"/>
+      <c r="F30" s="258"/>
+      <c r="G30" s="258"/>
+      <c r="H30" s="259"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="258"/>
+      <c r="K30" s="258"/>
+      <c r="L30" s="258"/>
+      <c r="M30" s="258"/>
+      <c r="N30" s="258"/>
+      <c r="O30" s="259"/>
+      <c r="P30" s="262"/>
+      <c r="Q30" s="263"/>
+      <c r="R30" s="258"/>
+      <c r="S30" s="258"/>
+      <c r="T30" s="258"/>
+      <c r="U30" s="258"/>
+      <c r="V30" s="259"/>
+      <c r="W30" s="81"/>
+      <c r="X30" s="258"/>
+      <c r="Y30" s="258"/>
+      <c r="Z30" s="258"/>
+      <c r="AA30" s="258"/>
+      <c r="AB30" s="258"/>
+      <c r="AC30" s="259"/>
+      <c r="AD30" s="81"/>
+      <c r="AE30" s="258"/>
+      <c r="AF30" s="258"/>
+      <c r="AG30" s="258"/>
+      <c r="AH30" s="258"/>
+      <c r="AI30" s="258"/>
+      <c r="AJ30" s="259"/>
+      <c r="AK30" s="260"/>
+      <c r="AL30" s="261"/>
+      <c r="AM30" s="152"/>
+      <c r="AN30" s="153"/>
+      <c r="AO30" s="153"/>
+      <c r="AP30" s="153"/>
+      <c r="AQ30" s="153"/>
+      <c r="AR30" s="153"/>
+      <c r="AS30" s="153"/>
+      <c r="AT30" s="153"/>
+      <c r="AU30" s="153"/>
+      <c r="AV30" s="153"/>
+      <c r="AW30" s="153"/>
+      <c r="AX30" s="153"/>
+      <c r="AY30" s="153"/>
+      <c r="AZ30" s="153"/>
+      <c r="BA30" s="153"/>
+      <c r="BB30" s="153"/>
+      <c r="BC30" s="153"/>
+      <c r="BD30" s="153"/>
+      <c r="BE30" s="153"/>
+      <c r="BF30" s="153"/>
+      <c r="BG30" s="153"/>
+      <c r="BH30" s="153"/>
+      <c r="BI30" s="153"/>
+      <c r="BJ30" s="153"/>
+      <c r="BK30" s="153"/>
+      <c r="BL30" s="153"/>
+      <c r="BM30" s="153"/>
+      <c r="BN30" s="153"/>
+      <c r="BO30" s="153"/>
+      <c r="BP30" s="153"/>
+      <c r="BQ30" s="153"/>
+      <c r="BR30" s="154"/>
     </row>
     <row r="31" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="197"/>
+      <c r="A31" s="224"/>
       <c r="B31" s="71"/>
       <c r="C31" s="69"/>
       <c r="D31" s="69"/>
@@ -6946,41 +6943,41 @@
       <c r="AJ31" s="70"/>
       <c r="AK31" s="71"/>
       <c r="AL31" s="72"/>
-      <c r="AM31" s="175"/>
-      <c r="AN31" s="176"/>
-      <c r="AO31" s="176"/>
-      <c r="AP31" s="176"/>
-      <c r="AQ31" s="176"/>
-      <c r="AR31" s="176"/>
-      <c r="AS31" s="176"/>
-      <c r="AT31" s="176"/>
-      <c r="AU31" s="176"/>
-      <c r="AV31" s="176"/>
-      <c r="AW31" s="176"/>
-      <c r="AX31" s="176"/>
-      <c r="AY31" s="176"/>
-      <c r="AZ31" s="176"/>
-      <c r="BA31" s="176"/>
-      <c r="BB31" s="176"/>
-      <c r="BC31" s="176"/>
-      <c r="BD31" s="176"/>
-      <c r="BE31" s="176"/>
-      <c r="BF31" s="176"/>
-      <c r="BG31" s="176"/>
-      <c r="BH31" s="176"/>
-      <c r="BI31" s="176"/>
-      <c r="BJ31" s="176"/>
-      <c r="BK31" s="176"/>
-      <c r="BL31" s="176"/>
-      <c r="BM31" s="176"/>
-      <c r="BN31" s="176"/>
-      <c r="BO31" s="176"/>
-      <c r="BP31" s="176"/>
-      <c r="BQ31" s="176"/>
-      <c r="BR31" s="177"/>
+      <c r="AM31" s="155"/>
+      <c r="AN31" s="156"/>
+      <c r="AO31" s="156"/>
+      <c r="AP31" s="156"/>
+      <c r="AQ31" s="156"/>
+      <c r="AR31" s="156"/>
+      <c r="AS31" s="156"/>
+      <c r="AT31" s="156"/>
+      <c r="AU31" s="156"/>
+      <c r="AV31" s="156"/>
+      <c r="AW31" s="156"/>
+      <c r="AX31" s="156"/>
+      <c r="AY31" s="156"/>
+      <c r="AZ31" s="156"/>
+      <c r="BA31" s="156"/>
+      <c r="BB31" s="156"/>
+      <c r="BC31" s="156"/>
+      <c r="BD31" s="156"/>
+      <c r="BE31" s="156"/>
+      <c r="BF31" s="156"/>
+      <c r="BG31" s="156"/>
+      <c r="BH31" s="156"/>
+      <c r="BI31" s="156"/>
+      <c r="BJ31" s="156"/>
+      <c r="BK31" s="156"/>
+      <c r="BL31" s="156"/>
+      <c r="BM31" s="156"/>
+      <c r="BN31" s="156"/>
+      <c r="BO31" s="156"/>
+      <c r="BP31" s="156"/>
+      <c r="BQ31" s="156"/>
+      <c r="BR31" s="157"/>
     </row>
     <row r="32" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="195" t="s">
+      <c r="A32" s="222" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="40"/>
@@ -7020,185 +7017,185 @@
       <c r="AJ32" s="39"/>
       <c r="AK32" s="40"/>
       <c r="AL32" s="41"/>
-      <c r="AM32" s="132"/>
-      <c r="AN32" s="133"/>
-      <c r="AO32" s="134"/>
-      <c r="AP32" s="135"/>
-      <c r="AQ32" s="136"/>
-      <c r="AR32" s="137"/>
-      <c r="AS32" s="137"/>
-      <c r="AT32" s="137"/>
-      <c r="AU32" s="137"/>
-      <c r="AV32" s="137"/>
-      <c r="AW32" s="137"/>
-      <c r="AX32" s="137"/>
-      <c r="AY32" s="137"/>
-      <c r="AZ32" s="137"/>
-      <c r="BA32" s="137"/>
-      <c r="BB32" s="137"/>
-      <c r="BC32" s="137"/>
-      <c r="BD32" s="138"/>
-      <c r="BE32" s="136"/>
-      <c r="BF32" s="137"/>
-      <c r="BG32" s="137"/>
-      <c r="BH32" s="137"/>
-      <c r="BI32" s="137"/>
-      <c r="BJ32" s="137"/>
-      <c r="BK32" s="138"/>
-      <c r="BL32" s="158"/>
-      <c r="BM32" s="137"/>
-      <c r="BN32" s="137"/>
-      <c r="BO32" s="162"/>
-      <c r="BP32" s="158"/>
-      <c r="BQ32" s="137"/>
-      <c r="BR32" s="168"/>
+      <c r="AM32" s="115"/>
+      <c r="AN32" s="116"/>
+      <c r="AO32" s="117"/>
+      <c r="AP32" s="118"/>
+      <c r="AQ32" s="119"/>
+      <c r="AR32" s="120"/>
+      <c r="AS32" s="120"/>
+      <c r="AT32" s="120"/>
+      <c r="AU32" s="120"/>
+      <c r="AV32" s="120"/>
+      <c r="AW32" s="120"/>
+      <c r="AX32" s="120"/>
+      <c r="AY32" s="120"/>
+      <c r="AZ32" s="120"/>
+      <c r="BA32" s="120"/>
+      <c r="BB32" s="120"/>
+      <c r="BC32" s="120"/>
+      <c r="BD32" s="121"/>
+      <c r="BE32" s="119"/>
+      <c r="BF32" s="120"/>
+      <c r="BG32" s="120"/>
+      <c r="BH32" s="120"/>
+      <c r="BI32" s="120"/>
+      <c r="BJ32" s="120"/>
+      <c r="BK32" s="121"/>
+      <c r="BL32" s="239"/>
+      <c r="BM32" s="120"/>
+      <c r="BN32" s="120"/>
+      <c r="BO32" s="168"/>
+      <c r="BP32" s="239"/>
+      <c r="BQ32" s="120"/>
+      <c r="BR32" s="241"/>
     </row>
     <row r="33" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="196"/>
-      <c r="B33" s="130"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="127"/>
-      <c r="G33" s="127"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="127"/>
-      <c r="L33" s="127"/>
-      <c r="M33" s="127"/>
-      <c r="N33" s="127"/>
-      <c r="O33" s="128"/>
-      <c r="P33" s="126"/>
-      <c r="Q33" s="127"/>
-      <c r="R33" s="127"/>
-      <c r="S33" s="127"/>
-      <c r="T33" s="127"/>
-      <c r="U33" s="127"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="126"/>
-      <c r="X33" s="127"/>
-      <c r="Y33" s="127"/>
-      <c r="Z33" s="127"/>
-      <c r="AA33" s="127"/>
-      <c r="AB33" s="127"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="126"/>
-      <c r="AE33" s="127"/>
-      <c r="AF33" s="127"/>
-      <c r="AG33" s="127"/>
-      <c r="AH33" s="127"/>
-      <c r="AI33" s="127"/>
-      <c r="AJ33" s="128"/>
-      <c r="AK33" s="130"/>
-      <c r="AL33" s="131"/>
-      <c r="AM33" s="139"/>
-      <c r="AN33" s="140"/>
-      <c r="AO33" s="141"/>
-      <c r="AP33" s="142"/>
-      <c r="AQ33" s="143"/>
-      <c r="AR33" s="144"/>
-      <c r="AS33" s="144"/>
-      <c r="AT33" s="144"/>
-      <c r="AU33" s="144"/>
-      <c r="AV33" s="144"/>
-      <c r="AW33" s="144"/>
-      <c r="AX33" s="144"/>
-      <c r="AY33" s="144"/>
-      <c r="AZ33" s="144"/>
-      <c r="BA33" s="144"/>
-      <c r="BB33" s="144"/>
-      <c r="BC33" s="144"/>
-      <c r="BD33" s="145"/>
-      <c r="BE33" s="143"/>
-      <c r="BF33" s="144"/>
-      <c r="BG33" s="144"/>
-      <c r="BH33" s="144"/>
-      <c r="BI33" s="144"/>
-      <c r="BJ33" s="144"/>
-      <c r="BK33" s="145"/>
-      <c r="BL33" s="159"/>
-      <c r="BM33" s="144"/>
-      <c r="BN33" s="144"/>
-      <c r="BO33" s="163"/>
-      <c r="BP33" s="159"/>
-      <c r="BQ33" s="144"/>
-      <c r="BR33" s="169"/>
+      <c r="A33" s="223"/>
+      <c r="B33" s="113"/>
+      <c r="C33" s="110"/>
+      <c r="D33" s="110"/>
+      <c r="E33" s="110"/>
+      <c r="F33" s="110"/>
+      <c r="G33" s="110"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="109"/>
+      <c r="J33" s="110"/>
+      <c r="K33" s="110"/>
+      <c r="L33" s="110"/>
+      <c r="M33" s="110"/>
+      <c r="N33" s="110"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="109"/>
+      <c r="Q33" s="110"/>
+      <c r="R33" s="110"/>
+      <c r="S33" s="110"/>
+      <c r="T33" s="110"/>
+      <c r="U33" s="110"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="109"/>
+      <c r="X33" s="110"/>
+      <c r="Y33" s="110"/>
+      <c r="Z33" s="110"/>
+      <c r="AA33" s="110"/>
+      <c r="AB33" s="110"/>
+      <c r="AC33" s="111"/>
+      <c r="AD33" s="109"/>
+      <c r="AE33" s="110"/>
+      <c r="AF33" s="110"/>
+      <c r="AG33" s="110"/>
+      <c r="AH33" s="110"/>
+      <c r="AI33" s="110"/>
+      <c r="AJ33" s="111"/>
+      <c r="AK33" s="113"/>
+      <c r="AL33" s="114"/>
+      <c r="AM33" s="122"/>
+      <c r="AN33" s="123"/>
+      <c r="AO33" s="124"/>
+      <c r="AP33" s="125"/>
+      <c r="AQ33" s="126"/>
+      <c r="AR33" s="127"/>
+      <c r="AS33" s="127"/>
+      <c r="AT33" s="127"/>
+      <c r="AU33" s="127"/>
+      <c r="AV33" s="127"/>
+      <c r="AW33" s="127"/>
+      <c r="AX33" s="127"/>
+      <c r="AY33" s="127"/>
+      <c r="AZ33" s="127"/>
+      <c r="BA33" s="127"/>
+      <c r="BB33" s="127"/>
+      <c r="BC33" s="127"/>
+      <c r="BD33" s="128"/>
+      <c r="BE33" s="126"/>
+      <c r="BF33" s="127"/>
+      <c r="BG33" s="127"/>
+      <c r="BH33" s="127"/>
+      <c r="BI33" s="127"/>
+      <c r="BJ33" s="127"/>
+      <c r="BK33" s="128"/>
+      <c r="BL33" s="240"/>
+      <c r="BM33" s="127"/>
+      <c r="BN33" s="127"/>
+      <c r="BO33" s="169"/>
+      <c r="BP33" s="240"/>
+      <c r="BQ33" s="127"/>
+      <c r="BR33" s="242"/>
     </row>
     <row r="34" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="196"/>
-      <c r="B34" s="83"/>
-      <c r="C34" s="84"/>
-      <c r="D34" s="84"/>
-      <c r="E34" s="84"/>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="85"/>
-      <c r="I34" s="83"/>
-      <c r="J34" s="84"/>
-      <c r="K34" s="84"/>
-      <c r="L34" s="84"/>
-      <c r="M34" s="84"/>
-      <c r="N34" s="84"/>
-      <c r="O34" s="85"/>
-      <c r="P34" s="83"/>
-      <c r="Q34" s="84"/>
-      <c r="R34" s="84"/>
-      <c r="S34" s="84"/>
-      <c r="T34" s="84"/>
-      <c r="U34" s="84"/>
-      <c r="V34" s="85"/>
-      <c r="W34" s="83"/>
-      <c r="X34" s="84"/>
-      <c r="Y34" s="84"/>
-      <c r="Z34" s="84"/>
-      <c r="AA34" s="84"/>
-      <c r="AB34" s="84"/>
-      <c r="AC34" s="85"/>
-      <c r="AD34" s="83"/>
-      <c r="AE34" s="84"/>
-      <c r="AF34" s="84"/>
-      <c r="AG34" s="84"/>
-      <c r="AH34" s="84"/>
-      <c r="AI34" s="84"/>
-      <c r="AJ34" s="85"/>
-      <c r="AK34" s="87"/>
-      <c r="AL34" s="88"/>
-      <c r="AM34" s="172"/>
-      <c r="AN34" s="173"/>
-      <c r="AO34" s="173"/>
-      <c r="AP34" s="173"/>
-      <c r="AQ34" s="173"/>
-      <c r="AR34" s="173"/>
-      <c r="AS34" s="173"/>
-      <c r="AT34" s="173"/>
-      <c r="AU34" s="173"/>
-      <c r="AV34" s="173"/>
-      <c r="AW34" s="173"/>
-      <c r="AX34" s="173"/>
-      <c r="AY34" s="173"/>
-      <c r="AZ34" s="173"/>
-      <c r="BA34" s="173"/>
-      <c r="BB34" s="173"/>
-      <c r="BC34" s="173"/>
-      <c r="BD34" s="173"/>
-      <c r="BE34" s="173"/>
-      <c r="BF34" s="173"/>
-      <c r="BG34" s="173"/>
-      <c r="BH34" s="173"/>
-      <c r="BI34" s="173"/>
-      <c r="BJ34" s="173"/>
-      <c r="BK34" s="173"/>
-      <c r="BL34" s="173"/>
-      <c r="BM34" s="173"/>
-      <c r="BN34" s="173"/>
-      <c r="BO34" s="173"/>
-      <c r="BP34" s="173"/>
-      <c r="BQ34" s="173"/>
-      <c r="BR34" s="174"/>
+      <c r="A34" s="223"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="258"/>
+      <c r="D34" s="258"/>
+      <c r="E34" s="258"/>
+      <c r="F34" s="258"/>
+      <c r="G34" s="258"/>
+      <c r="H34" s="259"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="258"/>
+      <c r="K34" s="258"/>
+      <c r="L34" s="258"/>
+      <c r="M34" s="258"/>
+      <c r="N34" s="258"/>
+      <c r="O34" s="259"/>
+      <c r="P34" s="81"/>
+      <c r="Q34" s="258"/>
+      <c r="R34" s="258"/>
+      <c r="S34" s="258"/>
+      <c r="T34" s="258"/>
+      <c r="U34" s="258"/>
+      <c r="V34" s="259"/>
+      <c r="W34" s="81"/>
+      <c r="X34" s="258"/>
+      <c r="Y34" s="258"/>
+      <c r="Z34" s="258"/>
+      <c r="AA34" s="258"/>
+      <c r="AB34" s="258"/>
+      <c r="AC34" s="259"/>
+      <c r="AD34" s="81"/>
+      <c r="AE34" s="258"/>
+      <c r="AF34" s="258"/>
+      <c r="AG34" s="258"/>
+      <c r="AH34" s="258"/>
+      <c r="AI34" s="258"/>
+      <c r="AJ34" s="259"/>
+      <c r="AK34" s="260"/>
+      <c r="AL34" s="261"/>
+      <c r="AM34" s="152"/>
+      <c r="AN34" s="153"/>
+      <c r="AO34" s="153"/>
+      <c r="AP34" s="153"/>
+      <c r="AQ34" s="153"/>
+      <c r="AR34" s="153"/>
+      <c r="AS34" s="153"/>
+      <c r="AT34" s="153"/>
+      <c r="AU34" s="153"/>
+      <c r="AV34" s="153"/>
+      <c r="AW34" s="153"/>
+      <c r="AX34" s="153"/>
+      <c r="AY34" s="153"/>
+      <c r="AZ34" s="153"/>
+      <c r="BA34" s="153"/>
+      <c r="BB34" s="153"/>
+      <c r="BC34" s="153"/>
+      <c r="BD34" s="153"/>
+      <c r="BE34" s="153"/>
+      <c r="BF34" s="153"/>
+      <c r="BG34" s="153"/>
+      <c r="BH34" s="153"/>
+      <c r="BI34" s="153"/>
+      <c r="BJ34" s="153"/>
+      <c r="BK34" s="153"/>
+      <c r="BL34" s="153"/>
+      <c r="BM34" s="153"/>
+      <c r="BN34" s="153"/>
+      <c r="BO34" s="153"/>
+      <c r="BP34" s="153"/>
+      <c r="BQ34" s="153"/>
+      <c r="BR34" s="154"/>
     </row>
     <row r="35" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="197"/>
+      <c r="A35" s="224"/>
       <c r="B35" s="66"/>
       <c r="C35" s="63"/>
       <c r="D35" s="63"/>
@@ -7236,41 +7233,41 @@
       <c r="AJ35" s="64"/>
       <c r="AK35" s="66"/>
       <c r="AL35" s="67"/>
-      <c r="AM35" s="175"/>
-      <c r="AN35" s="176"/>
-      <c r="AO35" s="176"/>
-      <c r="AP35" s="176"/>
-      <c r="AQ35" s="176"/>
-      <c r="AR35" s="176"/>
-      <c r="AS35" s="176"/>
-      <c r="AT35" s="176"/>
-      <c r="AU35" s="176"/>
-      <c r="AV35" s="176"/>
-      <c r="AW35" s="176"/>
-      <c r="AX35" s="176"/>
-      <c r="AY35" s="176"/>
-      <c r="AZ35" s="176"/>
-      <c r="BA35" s="176"/>
-      <c r="BB35" s="176"/>
-      <c r="BC35" s="176"/>
-      <c r="BD35" s="176"/>
-      <c r="BE35" s="176"/>
-      <c r="BF35" s="176"/>
-      <c r="BG35" s="176"/>
-      <c r="BH35" s="176"/>
-      <c r="BI35" s="176"/>
-      <c r="BJ35" s="176"/>
-      <c r="BK35" s="176"/>
-      <c r="BL35" s="176"/>
-      <c r="BM35" s="176"/>
-      <c r="BN35" s="176"/>
-      <c r="BO35" s="176"/>
-      <c r="BP35" s="176"/>
-      <c r="BQ35" s="176"/>
-      <c r="BR35" s="177"/>
+      <c r="AM35" s="155"/>
+      <c r="AN35" s="156"/>
+      <c r="AO35" s="156"/>
+      <c r="AP35" s="156"/>
+      <c r="AQ35" s="156"/>
+      <c r="AR35" s="156"/>
+      <c r="AS35" s="156"/>
+      <c r="AT35" s="156"/>
+      <c r="AU35" s="156"/>
+      <c r="AV35" s="156"/>
+      <c r="AW35" s="156"/>
+      <c r="AX35" s="156"/>
+      <c r="AY35" s="156"/>
+      <c r="AZ35" s="156"/>
+      <c r="BA35" s="156"/>
+      <c r="BB35" s="156"/>
+      <c r="BC35" s="156"/>
+      <c r="BD35" s="156"/>
+      <c r="BE35" s="156"/>
+      <c r="BF35" s="156"/>
+      <c r="BG35" s="156"/>
+      <c r="BH35" s="156"/>
+      <c r="BI35" s="156"/>
+      <c r="BJ35" s="156"/>
+      <c r="BK35" s="156"/>
+      <c r="BL35" s="156"/>
+      <c r="BM35" s="156"/>
+      <c r="BN35" s="156"/>
+      <c r="BO35" s="156"/>
+      <c r="BP35" s="156"/>
+      <c r="BQ35" s="156"/>
+      <c r="BR35" s="157"/>
     </row>
     <row r="36" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="199" t="s">
+      <c r="A36" s="226" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="42"/>
@@ -7310,185 +7307,185 @@
       <c r="AJ36" s="44"/>
       <c r="AK36" s="45"/>
       <c r="AL36" s="46"/>
-      <c r="AM36" s="132"/>
-      <c r="AN36" s="133"/>
-      <c r="AO36" s="134"/>
-      <c r="AP36" s="135"/>
-      <c r="AQ36" s="136"/>
-      <c r="AR36" s="137"/>
-      <c r="AS36" s="137"/>
-      <c r="AT36" s="137"/>
-      <c r="AU36" s="137"/>
-      <c r="AV36" s="137"/>
-      <c r="AW36" s="137"/>
-      <c r="AX36" s="137"/>
-      <c r="AY36" s="137"/>
-      <c r="AZ36" s="137"/>
-      <c r="BA36" s="137"/>
-      <c r="BB36" s="137"/>
-      <c r="BC36" s="137"/>
-      <c r="BD36" s="138"/>
-      <c r="BE36" s="136"/>
-      <c r="BF36" s="137"/>
-      <c r="BG36" s="137"/>
-      <c r="BH36" s="137"/>
-      <c r="BI36" s="137"/>
-      <c r="BJ36" s="137"/>
-      <c r="BK36" s="138"/>
-      <c r="BL36" s="158"/>
-      <c r="BM36" s="137"/>
-      <c r="BN36" s="137"/>
-      <c r="BO36" s="162"/>
-      <c r="BP36" s="158"/>
-      <c r="BQ36" s="137"/>
-      <c r="BR36" s="168"/>
+      <c r="AM36" s="115"/>
+      <c r="AN36" s="116"/>
+      <c r="AO36" s="117"/>
+      <c r="AP36" s="118"/>
+      <c r="AQ36" s="119"/>
+      <c r="AR36" s="120"/>
+      <c r="AS36" s="120"/>
+      <c r="AT36" s="120"/>
+      <c r="AU36" s="120"/>
+      <c r="AV36" s="120"/>
+      <c r="AW36" s="120"/>
+      <c r="AX36" s="120"/>
+      <c r="AY36" s="120"/>
+      <c r="AZ36" s="120"/>
+      <c r="BA36" s="120"/>
+      <c r="BB36" s="120"/>
+      <c r="BC36" s="120"/>
+      <c r="BD36" s="121"/>
+      <c r="BE36" s="119"/>
+      <c r="BF36" s="120"/>
+      <c r="BG36" s="120"/>
+      <c r="BH36" s="120"/>
+      <c r="BI36" s="120"/>
+      <c r="BJ36" s="120"/>
+      <c r="BK36" s="121"/>
+      <c r="BL36" s="239"/>
+      <c r="BM36" s="120"/>
+      <c r="BN36" s="120"/>
+      <c r="BO36" s="168"/>
+      <c r="BP36" s="239"/>
+      <c r="BQ36" s="120"/>
+      <c r="BR36" s="241"/>
     </row>
     <row r="37" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="200"/>
-      <c r="B37" s="126"/>
-      <c r="C37" s="127"/>
-      <c r="D37" s="127"/>
-      <c r="E37" s="127"/>
-      <c r="F37" s="127"/>
-      <c r="G37" s="127"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="127"/>
-      <c r="K37" s="127"/>
-      <c r="L37" s="127"/>
-      <c r="M37" s="127"/>
-      <c r="N37" s="127"/>
-      <c r="O37" s="128"/>
-      <c r="P37" s="126"/>
-      <c r="Q37" s="127"/>
-      <c r="R37" s="127"/>
-      <c r="S37" s="127"/>
-      <c r="T37" s="127"/>
-      <c r="U37" s="127"/>
-      <c r="V37" s="128"/>
-      <c r="W37" s="126"/>
-      <c r="X37" s="127"/>
-      <c r="Y37" s="127"/>
-      <c r="Z37" s="127"/>
-      <c r="AA37" s="127"/>
-      <c r="AB37" s="127"/>
-      <c r="AC37" s="128"/>
-      <c r="AD37" s="126"/>
-      <c r="AE37" s="127"/>
-      <c r="AF37" s="127"/>
-      <c r="AG37" s="127"/>
-      <c r="AH37" s="127"/>
-      <c r="AI37" s="127"/>
-      <c r="AJ37" s="128"/>
-      <c r="AK37" s="130"/>
-      <c r="AL37" s="131"/>
-      <c r="AM37" s="139"/>
-      <c r="AN37" s="140"/>
-      <c r="AO37" s="141"/>
-      <c r="AP37" s="142"/>
-      <c r="AQ37" s="143"/>
-      <c r="AR37" s="144"/>
-      <c r="AS37" s="144"/>
-      <c r="AT37" s="144"/>
-      <c r="AU37" s="144"/>
-      <c r="AV37" s="144"/>
-      <c r="AW37" s="144"/>
-      <c r="AX37" s="144"/>
-      <c r="AY37" s="144"/>
-      <c r="AZ37" s="144"/>
-      <c r="BA37" s="144"/>
-      <c r="BB37" s="144"/>
-      <c r="BC37" s="144"/>
-      <c r="BD37" s="145"/>
-      <c r="BE37" s="143"/>
-      <c r="BF37" s="144"/>
-      <c r="BG37" s="144"/>
-      <c r="BH37" s="144"/>
-      <c r="BI37" s="144"/>
-      <c r="BJ37" s="144"/>
-      <c r="BK37" s="145"/>
-      <c r="BL37" s="159"/>
-      <c r="BM37" s="144"/>
-      <c r="BN37" s="144"/>
-      <c r="BO37" s="163"/>
-      <c r="BP37" s="159"/>
-      <c r="BQ37" s="144"/>
-      <c r="BR37" s="169"/>
+      <c r="A37" s="227"/>
+      <c r="B37" s="109"/>
+      <c r="C37" s="110"/>
+      <c r="D37" s="110"/>
+      <c r="E37" s="110"/>
+      <c r="F37" s="110"/>
+      <c r="G37" s="110"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="109"/>
+      <c r="J37" s="110"/>
+      <c r="K37" s="110"/>
+      <c r="L37" s="110"/>
+      <c r="M37" s="110"/>
+      <c r="N37" s="110"/>
+      <c r="O37" s="111"/>
+      <c r="P37" s="109"/>
+      <c r="Q37" s="110"/>
+      <c r="R37" s="110"/>
+      <c r="S37" s="110"/>
+      <c r="T37" s="110"/>
+      <c r="U37" s="110"/>
+      <c r="V37" s="111"/>
+      <c r="W37" s="109"/>
+      <c r="X37" s="110"/>
+      <c r="Y37" s="110"/>
+      <c r="Z37" s="110"/>
+      <c r="AA37" s="110"/>
+      <c r="AB37" s="110"/>
+      <c r="AC37" s="111"/>
+      <c r="AD37" s="109"/>
+      <c r="AE37" s="110"/>
+      <c r="AF37" s="110"/>
+      <c r="AG37" s="110"/>
+      <c r="AH37" s="110"/>
+      <c r="AI37" s="110"/>
+      <c r="AJ37" s="111"/>
+      <c r="AK37" s="113"/>
+      <c r="AL37" s="114"/>
+      <c r="AM37" s="122"/>
+      <c r="AN37" s="123"/>
+      <c r="AO37" s="124"/>
+      <c r="AP37" s="125"/>
+      <c r="AQ37" s="126"/>
+      <c r="AR37" s="127"/>
+      <c r="AS37" s="127"/>
+      <c r="AT37" s="127"/>
+      <c r="AU37" s="127"/>
+      <c r="AV37" s="127"/>
+      <c r="AW37" s="127"/>
+      <c r="AX37" s="127"/>
+      <c r="AY37" s="127"/>
+      <c r="AZ37" s="127"/>
+      <c r="BA37" s="127"/>
+      <c r="BB37" s="127"/>
+      <c r="BC37" s="127"/>
+      <c r="BD37" s="128"/>
+      <c r="BE37" s="126"/>
+      <c r="BF37" s="127"/>
+      <c r="BG37" s="127"/>
+      <c r="BH37" s="127"/>
+      <c r="BI37" s="127"/>
+      <c r="BJ37" s="127"/>
+      <c r="BK37" s="128"/>
+      <c r="BL37" s="240"/>
+      <c r="BM37" s="127"/>
+      <c r="BN37" s="127"/>
+      <c r="BO37" s="169"/>
+      <c r="BP37" s="240"/>
+      <c r="BQ37" s="127"/>
+      <c r="BR37" s="242"/>
     </row>
     <row r="38" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="200"/>
-      <c r="B38" s="83"/>
-      <c r="C38" s="84"/>
-      <c r="D38" s="84"/>
-      <c r="E38" s="84"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="85"/>
-      <c r="I38" s="83"/>
-      <c r="J38" s="84"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="84"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="84"/>
-      <c r="O38" s="85"/>
-      <c r="P38" s="83"/>
-      <c r="Q38" s="84"/>
-      <c r="R38" s="84"/>
-      <c r="S38" s="84"/>
-      <c r="T38" s="84"/>
-      <c r="U38" s="84"/>
-      <c r="V38" s="85"/>
-      <c r="W38" s="83"/>
-      <c r="X38" s="84"/>
-      <c r="Y38" s="84"/>
-      <c r="Z38" s="84"/>
-      <c r="AA38" s="84"/>
-      <c r="AB38" s="84"/>
-      <c r="AC38" s="85"/>
-      <c r="AD38" s="83"/>
-      <c r="AE38" s="84"/>
-      <c r="AF38" s="84"/>
-      <c r="AG38" s="84"/>
-      <c r="AH38" s="84"/>
-      <c r="AI38" s="84"/>
-      <c r="AJ38" s="85"/>
-      <c r="AK38" s="87"/>
-      <c r="AL38" s="88"/>
-      <c r="AM38" s="172"/>
-      <c r="AN38" s="173"/>
-      <c r="AO38" s="173"/>
-      <c r="AP38" s="173"/>
-      <c r="AQ38" s="173"/>
-      <c r="AR38" s="173"/>
-      <c r="AS38" s="173"/>
-      <c r="AT38" s="173"/>
-      <c r="AU38" s="173"/>
-      <c r="AV38" s="173"/>
-      <c r="AW38" s="173"/>
-      <c r="AX38" s="173"/>
-      <c r="AY38" s="173"/>
-      <c r="AZ38" s="173"/>
-      <c r="BA38" s="173"/>
-      <c r="BB38" s="173"/>
-      <c r="BC38" s="173"/>
-      <c r="BD38" s="173"/>
-      <c r="BE38" s="173"/>
-      <c r="BF38" s="173"/>
-      <c r="BG38" s="173"/>
-      <c r="BH38" s="173"/>
-      <c r="BI38" s="173"/>
-      <c r="BJ38" s="173"/>
-      <c r="BK38" s="173"/>
-      <c r="BL38" s="173"/>
-      <c r="BM38" s="173"/>
-      <c r="BN38" s="173"/>
-      <c r="BO38" s="173"/>
-      <c r="BP38" s="173"/>
-      <c r="BQ38" s="173"/>
-      <c r="BR38" s="174"/>
+      <c r="A38" s="227"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="258"/>
+      <c r="D38" s="258"/>
+      <c r="E38" s="258"/>
+      <c r="F38" s="258"/>
+      <c r="G38" s="258"/>
+      <c r="H38" s="259"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="258"/>
+      <c r="K38" s="258"/>
+      <c r="L38" s="258"/>
+      <c r="M38" s="258"/>
+      <c r="N38" s="258"/>
+      <c r="O38" s="259"/>
+      <c r="P38" s="81"/>
+      <c r="Q38" s="258"/>
+      <c r="R38" s="258"/>
+      <c r="S38" s="258"/>
+      <c r="T38" s="258"/>
+      <c r="U38" s="258"/>
+      <c r="V38" s="259"/>
+      <c r="W38" s="81"/>
+      <c r="X38" s="258"/>
+      <c r="Y38" s="258"/>
+      <c r="Z38" s="258"/>
+      <c r="AA38" s="258"/>
+      <c r="AB38" s="258"/>
+      <c r="AC38" s="259"/>
+      <c r="AD38" s="81"/>
+      <c r="AE38" s="258"/>
+      <c r="AF38" s="258"/>
+      <c r="AG38" s="258"/>
+      <c r="AH38" s="258"/>
+      <c r="AI38" s="258"/>
+      <c r="AJ38" s="259"/>
+      <c r="AK38" s="260"/>
+      <c r="AL38" s="261"/>
+      <c r="AM38" s="152"/>
+      <c r="AN38" s="153"/>
+      <c r="AO38" s="153"/>
+      <c r="AP38" s="153"/>
+      <c r="AQ38" s="153"/>
+      <c r="AR38" s="153"/>
+      <c r="AS38" s="153"/>
+      <c r="AT38" s="153"/>
+      <c r="AU38" s="153"/>
+      <c r="AV38" s="153"/>
+      <c r="AW38" s="153"/>
+      <c r="AX38" s="153"/>
+      <c r="AY38" s="153"/>
+      <c r="AZ38" s="153"/>
+      <c r="BA38" s="153"/>
+      <c r="BB38" s="153"/>
+      <c r="BC38" s="153"/>
+      <c r="BD38" s="153"/>
+      <c r="BE38" s="153"/>
+      <c r="BF38" s="153"/>
+      <c r="BG38" s="153"/>
+      <c r="BH38" s="153"/>
+      <c r="BI38" s="153"/>
+      <c r="BJ38" s="153"/>
+      <c r="BK38" s="153"/>
+      <c r="BL38" s="153"/>
+      <c r="BM38" s="153"/>
+      <c r="BN38" s="153"/>
+      <c r="BO38" s="153"/>
+      <c r="BP38" s="153"/>
+      <c r="BQ38" s="153"/>
+      <c r="BR38" s="154"/>
     </row>
     <row r="39" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="201"/>
+      <c r="A39" s="228"/>
       <c r="B39" s="68"/>
       <c r="C39" s="69"/>
       <c r="D39" s="69"/>
@@ -7526,41 +7523,41 @@
       <c r="AJ39" s="70"/>
       <c r="AK39" s="71"/>
       <c r="AL39" s="72"/>
-      <c r="AM39" s="175"/>
-      <c r="AN39" s="176"/>
-      <c r="AO39" s="176"/>
-      <c r="AP39" s="176"/>
-      <c r="AQ39" s="176"/>
-      <c r="AR39" s="176"/>
-      <c r="AS39" s="176"/>
-      <c r="AT39" s="176"/>
-      <c r="AU39" s="176"/>
-      <c r="AV39" s="176"/>
-      <c r="AW39" s="176"/>
-      <c r="AX39" s="176"/>
-      <c r="AY39" s="176"/>
-      <c r="AZ39" s="176"/>
-      <c r="BA39" s="176"/>
-      <c r="BB39" s="176"/>
-      <c r="BC39" s="176"/>
-      <c r="BD39" s="176"/>
-      <c r="BE39" s="176"/>
-      <c r="BF39" s="176"/>
-      <c r="BG39" s="176"/>
-      <c r="BH39" s="176"/>
-      <c r="BI39" s="176"/>
-      <c r="BJ39" s="176"/>
-      <c r="BK39" s="176"/>
-      <c r="BL39" s="176"/>
-      <c r="BM39" s="176"/>
-      <c r="BN39" s="176"/>
-      <c r="BO39" s="176"/>
-      <c r="BP39" s="176"/>
-      <c r="BQ39" s="176"/>
-      <c r="BR39" s="177"/>
+      <c r="AM39" s="155"/>
+      <c r="AN39" s="156"/>
+      <c r="AO39" s="156"/>
+      <c r="AP39" s="156"/>
+      <c r="AQ39" s="156"/>
+      <c r="AR39" s="156"/>
+      <c r="AS39" s="156"/>
+      <c r="AT39" s="156"/>
+      <c r="AU39" s="156"/>
+      <c r="AV39" s="156"/>
+      <c r="AW39" s="156"/>
+      <c r="AX39" s="156"/>
+      <c r="AY39" s="156"/>
+      <c r="AZ39" s="156"/>
+      <c r="BA39" s="156"/>
+      <c r="BB39" s="156"/>
+      <c r="BC39" s="156"/>
+      <c r="BD39" s="156"/>
+      <c r="BE39" s="156"/>
+      <c r="BF39" s="156"/>
+      <c r="BG39" s="156"/>
+      <c r="BH39" s="156"/>
+      <c r="BI39" s="156"/>
+      <c r="BJ39" s="156"/>
+      <c r="BK39" s="156"/>
+      <c r="BL39" s="156"/>
+      <c r="BM39" s="156"/>
+      <c r="BN39" s="156"/>
+      <c r="BO39" s="156"/>
+      <c r="BP39" s="156"/>
+      <c r="BQ39" s="156"/>
+      <c r="BR39" s="157"/>
     </row>
     <row r="40" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="199" t="s">
+      <c r="A40" s="226" t="s">
         <v>57</v>
       </c>
       <c r="B40" s="40"/>
@@ -7600,185 +7597,185 @@
       <c r="AJ40" s="39"/>
       <c r="AK40" s="40"/>
       <c r="AL40" s="41"/>
-      <c r="AM40" s="132"/>
-      <c r="AN40" s="133"/>
-      <c r="AO40" s="134"/>
-      <c r="AP40" s="135"/>
-      <c r="AQ40" s="136"/>
-      <c r="AR40" s="137"/>
-      <c r="AS40" s="137"/>
-      <c r="AT40" s="137"/>
-      <c r="AU40" s="137"/>
-      <c r="AV40" s="137"/>
-      <c r="AW40" s="137"/>
-      <c r="AX40" s="137"/>
-      <c r="AY40" s="137"/>
-      <c r="AZ40" s="137"/>
-      <c r="BA40" s="137"/>
-      <c r="BB40" s="137"/>
-      <c r="BC40" s="137"/>
-      <c r="BD40" s="138"/>
-      <c r="BE40" s="136"/>
-      <c r="BF40" s="137"/>
-      <c r="BG40" s="137"/>
-      <c r="BH40" s="137"/>
-      <c r="BI40" s="137"/>
-      <c r="BJ40" s="137"/>
-      <c r="BK40" s="138"/>
-      <c r="BL40" s="158"/>
-      <c r="BM40" s="137"/>
-      <c r="BN40" s="137"/>
-      <c r="BO40" s="162"/>
-      <c r="BP40" s="158"/>
-      <c r="BQ40" s="137"/>
-      <c r="BR40" s="168"/>
+      <c r="AM40" s="115"/>
+      <c r="AN40" s="116"/>
+      <c r="AO40" s="117"/>
+      <c r="AP40" s="118"/>
+      <c r="AQ40" s="119"/>
+      <c r="AR40" s="120"/>
+      <c r="AS40" s="120"/>
+      <c r="AT40" s="120"/>
+      <c r="AU40" s="120"/>
+      <c r="AV40" s="120"/>
+      <c r="AW40" s="120"/>
+      <c r="AX40" s="120"/>
+      <c r="AY40" s="120"/>
+      <c r="AZ40" s="120"/>
+      <c r="BA40" s="120"/>
+      <c r="BB40" s="120"/>
+      <c r="BC40" s="120"/>
+      <c r="BD40" s="121"/>
+      <c r="BE40" s="119"/>
+      <c r="BF40" s="120"/>
+      <c r="BG40" s="120"/>
+      <c r="BH40" s="120"/>
+      <c r="BI40" s="120"/>
+      <c r="BJ40" s="120"/>
+      <c r="BK40" s="121"/>
+      <c r="BL40" s="239"/>
+      <c r="BM40" s="120"/>
+      <c r="BN40" s="120"/>
+      <c r="BO40" s="168"/>
+      <c r="BP40" s="239"/>
+      <c r="BQ40" s="120"/>
+      <c r="BR40" s="241"/>
     </row>
     <row r="41" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="200"/>
-      <c r="B41" s="130"/>
-      <c r="C41" s="127"/>
-      <c r="D41" s="127"/>
-      <c r="E41" s="127"/>
-      <c r="F41" s="127"/>
-      <c r="G41" s="127"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="127"/>
-      <c r="K41" s="127"/>
-      <c r="L41" s="127"/>
-      <c r="M41" s="127"/>
-      <c r="N41" s="127"/>
-      <c r="O41" s="128"/>
-      <c r="P41" s="126"/>
-      <c r="Q41" s="127"/>
-      <c r="R41" s="127"/>
-      <c r="S41" s="127"/>
-      <c r="T41" s="127"/>
-      <c r="U41" s="127"/>
-      <c r="V41" s="128"/>
-      <c r="W41" s="126"/>
-      <c r="X41" s="127"/>
-      <c r="Y41" s="127"/>
-      <c r="Z41" s="127"/>
-      <c r="AA41" s="127"/>
-      <c r="AB41" s="127"/>
-      <c r="AC41" s="128"/>
-      <c r="AD41" s="126"/>
-      <c r="AE41" s="127"/>
-      <c r="AF41" s="127"/>
-      <c r="AG41" s="127"/>
-      <c r="AH41" s="127"/>
-      <c r="AI41" s="127"/>
-      <c r="AJ41" s="128"/>
-      <c r="AK41" s="130"/>
-      <c r="AL41" s="131"/>
-      <c r="AM41" s="139"/>
-      <c r="AN41" s="140"/>
-      <c r="AO41" s="141"/>
-      <c r="AP41" s="142"/>
-      <c r="AQ41" s="143"/>
-      <c r="AR41" s="144"/>
-      <c r="AS41" s="144"/>
-      <c r="AT41" s="144"/>
-      <c r="AU41" s="144"/>
-      <c r="AV41" s="144"/>
-      <c r="AW41" s="144"/>
-      <c r="AX41" s="144"/>
-      <c r="AY41" s="144"/>
-      <c r="AZ41" s="144"/>
-      <c r="BA41" s="144"/>
-      <c r="BB41" s="144"/>
-      <c r="BC41" s="144"/>
-      <c r="BD41" s="145"/>
-      <c r="BE41" s="143"/>
-      <c r="BF41" s="144"/>
-      <c r="BG41" s="144"/>
-      <c r="BH41" s="144"/>
-      <c r="BI41" s="144"/>
-      <c r="BJ41" s="144"/>
-      <c r="BK41" s="145"/>
-      <c r="BL41" s="159"/>
-      <c r="BM41" s="144"/>
-      <c r="BN41" s="144"/>
-      <c r="BO41" s="163"/>
-      <c r="BP41" s="159"/>
-      <c r="BQ41" s="144"/>
-      <c r="BR41" s="169"/>
+      <c r="A41" s="227"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="110"/>
+      <c r="E41" s="110"/>
+      <c r="F41" s="110"/>
+      <c r="G41" s="110"/>
+      <c r="H41" s="111"/>
+      <c r="I41" s="109"/>
+      <c r="J41" s="110"/>
+      <c r="K41" s="110"/>
+      <c r="L41" s="110"/>
+      <c r="M41" s="110"/>
+      <c r="N41" s="110"/>
+      <c r="O41" s="111"/>
+      <c r="P41" s="109"/>
+      <c r="Q41" s="110"/>
+      <c r="R41" s="110"/>
+      <c r="S41" s="110"/>
+      <c r="T41" s="110"/>
+      <c r="U41" s="110"/>
+      <c r="V41" s="111"/>
+      <c r="W41" s="109"/>
+      <c r="X41" s="110"/>
+      <c r="Y41" s="110"/>
+      <c r="Z41" s="110"/>
+      <c r="AA41" s="110"/>
+      <c r="AB41" s="110"/>
+      <c r="AC41" s="111"/>
+      <c r="AD41" s="109"/>
+      <c r="AE41" s="110"/>
+      <c r="AF41" s="110"/>
+      <c r="AG41" s="110"/>
+      <c r="AH41" s="110"/>
+      <c r="AI41" s="110"/>
+      <c r="AJ41" s="111"/>
+      <c r="AK41" s="113"/>
+      <c r="AL41" s="114"/>
+      <c r="AM41" s="122"/>
+      <c r="AN41" s="123"/>
+      <c r="AO41" s="124"/>
+      <c r="AP41" s="125"/>
+      <c r="AQ41" s="126"/>
+      <c r="AR41" s="127"/>
+      <c r="AS41" s="127"/>
+      <c r="AT41" s="127"/>
+      <c r="AU41" s="127"/>
+      <c r="AV41" s="127"/>
+      <c r="AW41" s="127"/>
+      <c r="AX41" s="127"/>
+      <c r="AY41" s="127"/>
+      <c r="AZ41" s="127"/>
+      <c r="BA41" s="127"/>
+      <c r="BB41" s="127"/>
+      <c r="BC41" s="127"/>
+      <c r="BD41" s="128"/>
+      <c r="BE41" s="126"/>
+      <c r="BF41" s="127"/>
+      <c r="BG41" s="127"/>
+      <c r="BH41" s="127"/>
+      <c r="BI41" s="127"/>
+      <c r="BJ41" s="127"/>
+      <c r="BK41" s="128"/>
+      <c r="BL41" s="240"/>
+      <c r="BM41" s="127"/>
+      <c r="BN41" s="127"/>
+      <c r="BO41" s="169"/>
+      <c r="BP41" s="240"/>
+      <c r="BQ41" s="127"/>
+      <c r="BR41" s="242"/>
     </row>
     <row r="42" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="200"/>
-      <c r="B42" s="83"/>
-      <c r="C42" s="84"/>
-      <c r="D42" s="84"/>
-      <c r="E42" s="84"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
-      <c r="H42" s="85"/>
-      <c r="I42" s="83"/>
-      <c r="J42" s="84"/>
-      <c r="K42" s="84"/>
-      <c r="L42" s="84"/>
-      <c r="M42" s="84"/>
-      <c r="N42" s="84"/>
-      <c r="O42" s="85"/>
-      <c r="P42" s="83"/>
-      <c r="Q42" s="84"/>
-      <c r="R42" s="84"/>
-      <c r="S42" s="84"/>
-      <c r="T42" s="84"/>
-      <c r="U42" s="84"/>
-      <c r="V42" s="85"/>
-      <c r="W42" s="83"/>
-      <c r="X42" s="84"/>
-      <c r="Y42" s="84"/>
-      <c r="Z42" s="84"/>
-      <c r="AA42" s="84"/>
-      <c r="AB42" s="84"/>
-      <c r="AC42" s="85"/>
-      <c r="AD42" s="83"/>
-      <c r="AE42" s="84"/>
-      <c r="AF42" s="84"/>
-      <c r="AG42" s="84"/>
-      <c r="AH42" s="84"/>
-      <c r="AI42" s="84"/>
-      <c r="AJ42" s="85"/>
-      <c r="AK42" s="87"/>
-      <c r="AL42" s="88"/>
-      <c r="AM42" s="172"/>
-      <c r="AN42" s="173"/>
-      <c r="AO42" s="173"/>
-      <c r="AP42" s="173"/>
-      <c r="AQ42" s="173"/>
-      <c r="AR42" s="173"/>
-      <c r="AS42" s="173"/>
-      <c r="AT42" s="173"/>
-      <c r="AU42" s="173"/>
-      <c r="AV42" s="173"/>
-      <c r="AW42" s="173"/>
-      <c r="AX42" s="173"/>
-      <c r="AY42" s="173"/>
-      <c r="AZ42" s="173"/>
-      <c r="BA42" s="173"/>
-      <c r="BB42" s="173"/>
-      <c r="BC42" s="173"/>
-      <c r="BD42" s="173"/>
-      <c r="BE42" s="173"/>
-      <c r="BF42" s="173"/>
-      <c r="BG42" s="173"/>
-      <c r="BH42" s="173"/>
-      <c r="BI42" s="173"/>
-      <c r="BJ42" s="173"/>
-      <c r="BK42" s="173"/>
-      <c r="BL42" s="173"/>
-      <c r="BM42" s="173"/>
-      <c r="BN42" s="173"/>
-      <c r="BO42" s="173"/>
-      <c r="BP42" s="173"/>
-      <c r="BQ42" s="173"/>
-      <c r="BR42" s="174"/>
+      <c r="A42" s="227"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="258"/>
+      <c r="D42" s="258"/>
+      <c r="E42" s="258"/>
+      <c r="F42" s="258"/>
+      <c r="G42" s="258"/>
+      <c r="H42" s="259"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="258"/>
+      <c r="K42" s="258"/>
+      <c r="L42" s="258"/>
+      <c r="M42" s="258"/>
+      <c r="N42" s="258"/>
+      <c r="O42" s="259"/>
+      <c r="P42" s="81"/>
+      <c r="Q42" s="258"/>
+      <c r="R42" s="258"/>
+      <c r="S42" s="258"/>
+      <c r="T42" s="258"/>
+      <c r="U42" s="258"/>
+      <c r="V42" s="259"/>
+      <c r="W42" s="81"/>
+      <c r="X42" s="258"/>
+      <c r="Y42" s="258"/>
+      <c r="Z42" s="258"/>
+      <c r="AA42" s="258"/>
+      <c r="AB42" s="258"/>
+      <c r="AC42" s="259"/>
+      <c r="AD42" s="81"/>
+      <c r="AE42" s="258"/>
+      <c r="AF42" s="258"/>
+      <c r="AG42" s="258"/>
+      <c r="AH42" s="258"/>
+      <c r="AI42" s="258"/>
+      <c r="AJ42" s="259"/>
+      <c r="AK42" s="260"/>
+      <c r="AL42" s="261"/>
+      <c r="AM42" s="152"/>
+      <c r="AN42" s="153"/>
+      <c r="AO42" s="153"/>
+      <c r="AP42" s="153"/>
+      <c r="AQ42" s="153"/>
+      <c r="AR42" s="153"/>
+      <c r="AS42" s="153"/>
+      <c r="AT42" s="153"/>
+      <c r="AU42" s="153"/>
+      <c r="AV42" s="153"/>
+      <c r="AW42" s="153"/>
+      <c r="AX42" s="153"/>
+      <c r="AY42" s="153"/>
+      <c r="AZ42" s="153"/>
+      <c r="BA42" s="153"/>
+      <c r="BB42" s="153"/>
+      <c r="BC42" s="153"/>
+      <c r="BD42" s="153"/>
+      <c r="BE42" s="153"/>
+      <c r="BF42" s="153"/>
+      <c r="BG42" s="153"/>
+      <c r="BH42" s="153"/>
+      <c r="BI42" s="153"/>
+      <c r="BJ42" s="153"/>
+      <c r="BK42" s="153"/>
+      <c r="BL42" s="153"/>
+      <c r="BM42" s="153"/>
+      <c r="BN42" s="153"/>
+      <c r="BO42" s="153"/>
+      <c r="BP42" s="153"/>
+      <c r="BQ42" s="153"/>
+      <c r="BR42" s="154"/>
     </row>
     <row r="43" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="201"/>
+      <c r="A43" s="228"/>
       <c r="B43" s="66"/>
       <c r="C43" s="63"/>
       <c r="D43" s="63"/>
@@ -7816,41 +7813,41 @@
       <c r="AJ43" s="64"/>
       <c r="AK43" s="66"/>
       <c r="AL43" s="67"/>
-      <c r="AM43" s="175"/>
-      <c r="AN43" s="176"/>
-      <c r="AO43" s="176"/>
-      <c r="AP43" s="176"/>
-      <c r="AQ43" s="176"/>
-      <c r="AR43" s="176"/>
-      <c r="AS43" s="176"/>
-      <c r="AT43" s="176"/>
-      <c r="AU43" s="176"/>
-      <c r="AV43" s="176"/>
-      <c r="AW43" s="176"/>
-      <c r="AX43" s="176"/>
-      <c r="AY43" s="176"/>
-      <c r="AZ43" s="176"/>
-      <c r="BA43" s="176"/>
-      <c r="BB43" s="176"/>
-      <c r="BC43" s="176"/>
-      <c r="BD43" s="176"/>
-      <c r="BE43" s="176"/>
-      <c r="BF43" s="176"/>
-      <c r="BG43" s="176"/>
-      <c r="BH43" s="176"/>
-      <c r="BI43" s="176"/>
-      <c r="BJ43" s="176"/>
-      <c r="BK43" s="176"/>
-      <c r="BL43" s="176"/>
-      <c r="BM43" s="176"/>
-      <c r="BN43" s="176"/>
-      <c r="BO43" s="176"/>
-      <c r="BP43" s="176"/>
-      <c r="BQ43" s="176"/>
-      <c r="BR43" s="177"/>
+      <c r="AM43" s="155"/>
+      <c r="AN43" s="156"/>
+      <c r="AO43" s="156"/>
+      <c r="AP43" s="156"/>
+      <c r="AQ43" s="156"/>
+      <c r="AR43" s="156"/>
+      <c r="AS43" s="156"/>
+      <c r="AT43" s="156"/>
+      <c r="AU43" s="156"/>
+      <c r="AV43" s="156"/>
+      <c r="AW43" s="156"/>
+      <c r="AX43" s="156"/>
+      <c r="AY43" s="156"/>
+      <c r="AZ43" s="156"/>
+      <c r="BA43" s="156"/>
+      <c r="BB43" s="156"/>
+      <c r="BC43" s="156"/>
+      <c r="BD43" s="156"/>
+      <c r="BE43" s="156"/>
+      <c r="BF43" s="156"/>
+      <c r="BG43" s="156"/>
+      <c r="BH43" s="156"/>
+      <c r="BI43" s="156"/>
+      <c r="BJ43" s="156"/>
+      <c r="BK43" s="156"/>
+      <c r="BL43" s="156"/>
+      <c r="BM43" s="156"/>
+      <c r="BN43" s="156"/>
+      <c r="BO43" s="156"/>
+      <c r="BP43" s="156"/>
+      <c r="BQ43" s="156"/>
+      <c r="BR43" s="157"/>
     </row>
     <row r="44" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="195" t="s">
+      <c r="A44" s="222" t="s">
         <v>58</v>
       </c>
       <c r="B44" s="47"/>
@@ -7890,185 +7887,185 @@
       <c r="AJ44" s="49"/>
       <c r="AK44" s="47"/>
       <c r="AL44" s="51"/>
-      <c r="AM44" s="132"/>
-      <c r="AN44" s="133"/>
-      <c r="AO44" s="134"/>
-      <c r="AP44" s="135"/>
-      <c r="AQ44" s="136"/>
-      <c r="AR44" s="137"/>
-      <c r="AS44" s="137"/>
-      <c r="AT44" s="137"/>
-      <c r="AU44" s="137"/>
-      <c r="AV44" s="137"/>
-      <c r="AW44" s="137"/>
-      <c r="AX44" s="137"/>
-      <c r="AY44" s="137"/>
-      <c r="AZ44" s="137"/>
-      <c r="BA44" s="137"/>
-      <c r="BB44" s="137"/>
-      <c r="BC44" s="137"/>
-      <c r="BD44" s="138"/>
-      <c r="BE44" s="136"/>
-      <c r="BF44" s="137"/>
-      <c r="BG44" s="137"/>
-      <c r="BH44" s="137"/>
-      <c r="BI44" s="137"/>
-      <c r="BJ44" s="137"/>
-      <c r="BK44" s="138"/>
-      <c r="BL44" s="158"/>
-      <c r="BM44" s="137"/>
-      <c r="BN44" s="137"/>
-      <c r="BO44" s="162"/>
-      <c r="BP44" s="158"/>
-      <c r="BQ44" s="137"/>
-      <c r="BR44" s="168"/>
+      <c r="AM44" s="115"/>
+      <c r="AN44" s="116"/>
+      <c r="AO44" s="117"/>
+      <c r="AP44" s="118"/>
+      <c r="AQ44" s="119"/>
+      <c r="AR44" s="120"/>
+      <c r="AS44" s="120"/>
+      <c r="AT44" s="120"/>
+      <c r="AU44" s="120"/>
+      <c r="AV44" s="120"/>
+      <c r="AW44" s="120"/>
+      <c r="AX44" s="120"/>
+      <c r="AY44" s="120"/>
+      <c r="AZ44" s="120"/>
+      <c r="BA44" s="120"/>
+      <c r="BB44" s="120"/>
+      <c r="BC44" s="120"/>
+      <c r="BD44" s="121"/>
+      <c r="BE44" s="119"/>
+      <c r="BF44" s="120"/>
+      <c r="BG44" s="120"/>
+      <c r="BH44" s="120"/>
+      <c r="BI44" s="120"/>
+      <c r="BJ44" s="120"/>
+      <c r="BK44" s="121"/>
+      <c r="BL44" s="239"/>
+      <c r="BM44" s="120"/>
+      <c r="BN44" s="120"/>
+      <c r="BO44" s="168"/>
+      <c r="BP44" s="239"/>
+      <c r="BQ44" s="120"/>
+      <c r="BR44" s="241"/>
     </row>
     <row r="45" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="196"/>
-      <c r="B45" s="130"/>
-      <c r="C45" s="127"/>
-      <c r="D45" s="127"/>
-      <c r="E45" s="127"/>
-      <c r="F45" s="127"/>
-      <c r="G45" s="127"/>
-      <c r="H45" s="128"/>
-      <c r="I45" s="126"/>
-      <c r="J45" s="127"/>
-      <c r="K45" s="127"/>
-      <c r="L45" s="127"/>
-      <c r="M45" s="127"/>
-      <c r="N45" s="127"/>
-      <c r="O45" s="128"/>
-      <c r="P45" s="126"/>
-      <c r="Q45" s="127"/>
-      <c r="R45" s="127"/>
-      <c r="S45" s="127"/>
-      <c r="T45" s="127"/>
-      <c r="U45" s="127"/>
-      <c r="V45" s="128"/>
-      <c r="W45" s="126"/>
-      <c r="X45" s="127"/>
-      <c r="Y45" s="127"/>
-      <c r="Z45" s="127"/>
-      <c r="AA45" s="127"/>
-      <c r="AB45" s="127"/>
-      <c r="AC45" s="128"/>
-      <c r="AD45" s="126"/>
-      <c r="AE45" s="127"/>
-      <c r="AF45" s="127"/>
-      <c r="AG45" s="127"/>
-      <c r="AH45" s="127"/>
-      <c r="AI45" s="127"/>
-      <c r="AJ45" s="128"/>
-      <c r="AK45" s="130"/>
-      <c r="AL45" s="131"/>
-      <c r="AM45" s="139"/>
-      <c r="AN45" s="140"/>
-      <c r="AO45" s="141"/>
-      <c r="AP45" s="142"/>
-      <c r="AQ45" s="143"/>
-      <c r="AR45" s="144"/>
-      <c r="AS45" s="144"/>
-      <c r="AT45" s="144"/>
-      <c r="AU45" s="144"/>
-      <c r="AV45" s="144"/>
-      <c r="AW45" s="144"/>
-      <c r="AX45" s="144"/>
-      <c r="AY45" s="144"/>
-      <c r="AZ45" s="144"/>
-      <c r="BA45" s="144"/>
-      <c r="BB45" s="144"/>
-      <c r="BC45" s="144"/>
-      <c r="BD45" s="145"/>
-      <c r="BE45" s="143"/>
-      <c r="BF45" s="144"/>
-      <c r="BG45" s="144"/>
-      <c r="BH45" s="144"/>
-      <c r="BI45" s="144"/>
-      <c r="BJ45" s="144"/>
-      <c r="BK45" s="145"/>
-      <c r="BL45" s="159"/>
-      <c r="BM45" s="144"/>
-      <c r="BN45" s="144"/>
-      <c r="BO45" s="163"/>
-      <c r="BP45" s="159"/>
-      <c r="BQ45" s="144"/>
-      <c r="BR45" s="169"/>
+      <c r="A45" s="223"/>
+      <c r="B45" s="113"/>
+      <c r="C45" s="110"/>
+      <c r="D45" s="110"/>
+      <c r="E45" s="110"/>
+      <c r="F45" s="110"/>
+      <c r="G45" s="110"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="109"/>
+      <c r="J45" s="110"/>
+      <c r="K45" s="110"/>
+      <c r="L45" s="110"/>
+      <c r="M45" s="110"/>
+      <c r="N45" s="110"/>
+      <c r="O45" s="111"/>
+      <c r="P45" s="109"/>
+      <c r="Q45" s="110"/>
+      <c r="R45" s="110"/>
+      <c r="S45" s="110"/>
+      <c r="T45" s="110"/>
+      <c r="U45" s="110"/>
+      <c r="V45" s="111"/>
+      <c r="W45" s="109"/>
+      <c r="X45" s="110"/>
+      <c r="Y45" s="110"/>
+      <c r="Z45" s="110"/>
+      <c r="AA45" s="110"/>
+      <c r="AB45" s="110"/>
+      <c r="AC45" s="111"/>
+      <c r="AD45" s="109"/>
+      <c r="AE45" s="110"/>
+      <c r="AF45" s="110"/>
+      <c r="AG45" s="110"/>
+      <c r="AH45" s="110"/>
+      <c r="AI45" s="110"/>
+      <c r="AJ45" s="111"/>
+      <c r="AK45" s="113"/>
+      <c r="AL45" s="114"/>
+      <c r="AM45" s="122"/>
+      <c r="AN45" s="123"/>
+      <c r="AO45" s="124"/>
+      <c r="AP45" s="125"/>
+      <c r="AQ45" s="126"/>
+      <c r="AR45" s="127"/>
+      <c r="AS45" s="127"/>
+      <c r="AT45" s="127"/>
+      <c r="AU45" s="127"/>
+      <c r="AV45" s="127"/>
+      <c r="AW45" s="127"/>
+      <c r="AX45" s="127"/>
+      <c r="AY45" s="127"/>
+      <c r="AZ45" s="127"/>
+      <c r="BA45" s="127"/>
+      <c r="BB45" s="127"/>
+      <c r="BC45" s="127"/>
+      <c r="BD45" s="128"/>
+      <c r="BE45" s="126"/>
+      <c r="BF45" s="127"/>
+      <c r="BG45" s="127"/>
+      <c r="BH45" s="127"/>
+      <c r="BI45" s="127"/>
+      <c r="BJ45" s="127"/>
+      <c r="BK45" s="128"/>
+      <c r="BL45" s="240"/>
+      <c r="BM45" s="127"/>
+      <c r="BN45" s="127"/>
+      <c r="BO45" s="169"/>
+      <c r="BP45" s="240"/>
+      <c r="BQ45" s="127"/>
+      <c r="BR45" s="242"/>
     </row>
     <row r="46" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="196"/>
-      <c r="B46" s="83"/>
-      <c r="C46" s="84"/>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="85"/>
-      <c r="I46" s="83"/>
-      <c r="J46" s="84"/>
-      <c r="K46" s="84"/>
-      <c r="L46" s="84"/>
-      <c r="M46" s="84"/>
-      <c r="N46" s="84"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="83"/>
-      <c r="Q46" s="84"/>
-      <c r="R46" s="84"/>
-      <c r="S46" s="84"/>
-      <c r="T46" s="84"/>
-      <c r="U46" s="84"/>
-      <c r="V46" s="85"/>
-      <c r="W46" s="83"/>
-      <c r="X46" s="84"/>
-      <c r="Y46" s="84"/>
-      <c r="Z46" s="84"/>
-      <c r="AA46" s="84"/>
-      <c r="AB46" s="84"/>
-      <c r="AC46" s="85"/>
-      <c r="AD46" s="83"/>
-      <c r="AE46" s="84"/>
-      <c r="AF46" s="84"/>
-      <c r="AG46" s="84"/>
-      <c r="AH46" s="84"/>
-      <c r="AI46" s="84"/>
-      <c r="AJ46" s="85"/>
-      <c r="AK46" s="87"/>
-      <c r="AL46" s="88"/>
-      <c r="AM46" s="172"/>
-      <c r="AN46" s="173"/>
-      <c r="AO46" s="173"/>
-      <c r="AP46" s="173"/>
-      <c r="AQ46" s="173"/>
-      <c r="AR46" s="173"/>
-      <c r="AS46" s="173"/>
-      <c r="AT46" s="173"/>
-      <c r="AU46" s="173"/>
-      <c r="AV46" s="173"/>
-      <c r="AW46" s="173"/>
-      <c r="AX46" s="173"/>
-      <c r="AY46" s="173"/>
-      <c r="AZ46" s="173"/>
-      <c r="BA46" s="173"/>
-      <c r="BB46" s="173"/>
-      <c r="BC46" s="173"/>
-      <c r="BD46" s="173"/>
-      <c r="BE46" s="173"/>
-      <c r="BF46" s="173"/>
-      <c r="BG46" s="173"/>
-      <c r="BH46" s="173"/>
-      <c r="BI46" s="173"/>
-      <c r="BJ46" s="173"/>
-      <c r="BK46" s="173"/>
-      <c r="BL46" s="173"/>
-      <c r="BM46" s="173"/>
-      <c r="BN46" s="173"/>
-      <c r="BO46" s="173"/>
-      <c r="BP46" s="173"/>
-      <c r="BQ46" s="173"/>
-      <c r="BR46" s="174"/>
+      <c r="A46" s="223"/>
+      <c r="B46" s="81"/>
+      <c r="C46" s="258"/>
+      <c r="D46" s="258"/>
+      <c r="E46" s="258"/>
+      <c r="F46" s="258"/>
+      <c r="G46" s="258"/>
+      <c r="H46" s="259"/>
+      <c r="I46" s="81"/>
+      <c r="J46" s="258"/>
+      <c r="K46" s="258"/>
+      <c r="L46" s="258"/>
+      <c r="M46" s="258"/>
+      <c r="N46" s="258"/>
+      <c r="O46" s="259"/>
+      <c r="P46" s="81"/>
+      <c r="Q46" s="258"/>
+      <c r="R46" s="258"/>
+      <c r="S46" s="258"/>
+      <c r="T46" s="258"/>
+      <c r="U46" s="258"/>
+      <c r="V46" s="259"/>
+      <c r="W46" s="81"/>
+      <c r="X46" s="258"/>
+      <c r="Y46" s="258"/>
+      <c r="Z46" s="258"/>
+      <c r="AA46" s="258"/>
+      <c r="AB46" s="258"/>
+      <c r="AC46" s="259"/>
+      <c r="AD46" s="81"/>
+      <c r="AE46" s="258"/>
+      <c r="AF46" s="258"/>
+      <c r="AG46" s="258"/>
+      <c r="AH46" s="258"/>
+      <c r="AI46" s="258"/>
+      <c r="AJ46" s="259"/>
+      <c r="AK46" s="260"/>
+      <c r="AL46" s="261"/>
+      <c r="AM46" s="152"/>
+      <c r="AN46" s="153"/>
+      <c r="AO46" s="153"/>
+      <c r="AP46" s="153"/>
+      <c r="AQ46" s="153"/>
+      <c r="AR46" s="153"/>
+      <c r="AS46" s="153"/>
+      <c r="AT46" s="153"/>
+      <c r="AU46" s="153"/>
+      <c r="AV46" s="153"/>
+      <c r="AW46" s="153"/>
+      <c r="AX46" s="153"/>
+      <c r="AY46" s="153"/>
+      <c r="AZ46" s="153"/>
+      <c r="BA46" s="153"/>
+      <c r="BB46" s="153"/>
+      <c r="BC46" s="153"/>
+      <c r="BD46" s="153"/>
+      <c r="BE46" s="153"/>
+      <c r="BF46" s="153"/>
+      <c r="BG46" s="153"/>
+      <c r="BH46" s="153"/>
+      <c r="BI46" s="153"/>
+      <c r="BJ46" s="153"/>
+      <c r="BK46" s="153"/>
+      <c r="BL46" s="153"/>
+      <c r="BM46" s="153"/>
+      <c r="BN46" s="153"/>
+      <c r="BO46" s="153"/>
+      <c r="BP46" s="153"/>
+      <c r="BQ46" s="153"/>
+      <c r="BR46" s="154"/>
     </row>
     <row r="47" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="197"/>
+      <c r="A47" s="224"/>
       <c r="B47" s="71"/>
       <c r="C47" s="69"/>
       <c r="D47" s="69"/>
@@ -8106,41 +8103,41 @@
       <c r="AJ47" s="70"/>
       <c r="AK47" s="71"/>
       <c r="AL47" s="72"/>
-      <c r="AM47" s="175"/>
-      <c r="AN47" s="176"/>
-      <c r="AO47" s="176"/>
-      <c r="AP47" s="176"/>
-      <c r="AQ47" s="176"/>
-      <c r="AR47" s="176"/>
-      <c r="AS47" s="176"/>
-      <c r="AT47" s="176"/>
-      <c r="AU47" s="176"/>
-      <c r="AV47" s="176"/>
-      <c r="AW47" s="176"/>
-      <c r="AX47" s="176"/>
-      <c r="AY47" s="176"/>
-      <c r="AZ47" s="176"/>
-      <c r="BA47" s="176"/>
-      <c r="BB47" s="176"/>
-      <c r="BC47" s="176"/>
-      <c r="BD47" s="176"/>
-      <c r="BE47" s="176"/>
-      <c r="BF47" s="176"/>
-      <c r="BG47" s="176"/>
-      <c r="BH47" s="176"/>
-      <c r="BI47" s="176"/>
-      <c r="BJ47" s="176"/>
-      <c r="BK47" s="176"/>
-      <c r="BL47" s="176"/>
-      <c r="BM47" s="176"/>
-      <c r="BN47" s="176"/>
-      <c r="BO47" s="176"/>
-      <c r="BP47" s="176"/>
-      <c r="BQ47" s="176"/>
-      <c r="BR47" s="177"/>
+      <c r="AM47" s="155"/>
+      <c r="AN47" s="156"/>
+      <c r="AO47" s="156"/>
+      <c r="AP47" s="156"/>
+      <c r="AQ47" s="156"/>
+      <c r="AR47" s="156"/>
+      <c r="AS47" s="156"/>
+      <c r="AT47" s="156"/>
+      <c r="AU47" s="156"/>
+      <c r="AV47" s="156"/>
+      <c r="AW47" s="156"/>
+      <c r="AX47" s="156"/>
+      <c r="AY47" s="156"/>
+      <c r="AZ47" s="156"/>
+      <c r="BA47" s="156"/>
+      <c r="BB47" s="156"/>
+      <c r="BC47" s="156"/>
+      <c r="BD47" s="156"/>
+      <c r="BE47" s="156"/>
+      <c r="BF47" s="156"/>
+      <c r="BG47" s="156"/>
+      <c r="BH47" s="156"/>
+      <c r="BI47" s="156"/>
+      <c r="BJ47" s="156"/>
+      <c r="BK47" s="156"/>
+      <c r="BL47" s="156"/>
+      <c r="BM47" s="156"/>
+      <c r="BN47" s="156"/>
+      <c r="BO47" s="156"/>
+      <c r="BP47" s="156"/>
+      <c r="BQ47" s="156"/>
+      <c r="BR47" s="157"/>
     </row>
     <row r="48" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="195" t="s">
+      <c r="A48" s="222" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="52"/>
@@ -8180,185 +8177,185 @@
       <c r="AJ48" s="54"/>
       <c r="AK48" s="52"/>
       <c r="AL48" s="56"/>
-      <c r="AM48" s="132"/>
-      <c r="AN48" s="133"/>
-      <c r="AO48" s="134"/>
-      <c r="AP48" s="135"/>
-      <c r="AQ48" s="136"/>
-      <c r="AR48" s="137"/>
-      <c r="AS48" s="137"/>
-      <c r="AT48" s="137"/>
-      <c r="AU48" s="137"/>
-      <c r="AV48" s="137"/>
-      <c r="AW48" s="137"/>
-      <c r="AX48" s="137"/>
-      <c r="AY48" s="137"/>
-      <c r="AZ48" s="137"/>
-      <c r="BA48" s="137"/>
-      <c r="BB48" s="137"/>
-      <c r="BC48" s="137"/>
-      <c r="BD48" s="138"/>
-      <c r="BE48" s="136"/>
-      <c r="BF48" s="137"/>
-      <c r="BG48" s="137"/>
-      <c r="BH48" s="137"/>
-      <c r="BI48" s="137"/>
-      <c r="BJ48" s="137"/>
-      <c r="BK48" s="138"/>
-      <c r="BL48" s="158"/>
-      <c r="BM48" s="137"/>
-      <c r="BN48" s="137"/>
-      <c r="BO48" s="162"/>
-      <c r="BP48" s="158"/>
-      <c r="BQ48" s="137"/>
-      <c r="BR48" s="168"/>
+      <c r="AM48" s="115"/>
+      <c r="AN48" s="116"/>
+      <c r="AO48" s="117"/>
+      <c r="AP48" s="118"/>
+      <c r="AQ48" s="119"/>
+      <c r="AR48" s="120"/>
+      <c r="AS48" s="120"/>
+      <c r="AT48" s="120"/>
+      <c r="AU48" s="120"/>
+      <c r="AV48" s="120"/>
+      <c r="AW48" s="120"/>
+      <c r="AX48" s="120"/>
+      <c r="AY48" s="120"/>
+      <c r="AZ48" s="120"/>
+      <c r="BA48" s="120"/>
+      <c r="BB48" s="120"/>
+      <c r="BC48" s="120"/>
+      <c r="BD48" s="121"/>
+      <c r="BE48" s="119"/>
+      <c r="BF48" s="120"/>
+      <c r="BG48" s="120"/>
+      <c r="BH48" s="120"/>
+      <c r="BI48" s="120"/>
+      <c r="BJ48" s="120"/>
+      <c r="BK48" s="121"/>
+      <c r="BL48" s="239"/>
+      <c r="BM48" s="120"/>
+      <c r="BN48" s="120"/>
+      <c r="BO48" s="168"/>
+      <c r="BP48" s="239"/>
+      <c r="BQ48" s="120"/>
+      <c r="BR48" s="241"/>
     </row>
     <row r="49" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="196"/>
-      <c r="B49" s="130"/>
-      <c r="C49" s="127"/>
-      <c r="D49" s="127"/>
-      <c r="E49" s="127"/>
-      <c r="F49" s="127"/>
-      <c r="G49" s="127"/>
-      <c r="H49" s="128"/>
-      <c r="I49" s="126"/>
-      <c r="J49" s="127"/>
-      <c r="K49" s="127"/>
-      <c r="L49" s="127"/>
-      <c r="M49" s="127"/>
-      <c r="N49" s="127"/>
-      <c r="O49" s="128"/>
-      <c r="P49" s="126"/>
-      <c r="Q49" s="127"/>
-      <c r="R49" s="127"/>
-      <c r="S49" s="127"/>
-      <c r="T49" s="127"/>
-      <c r="U49" s="127"/>
-      <c r="V49" s="128"/>
-      <c r="W49" s="126"/>
-      <c r="X49" s="127"/>
-      <c r="Y49" s="127"/>
-      <c r="Z49" s="127"/>
-      <c r="AA49" s="127"/>
-      <c r="AB49" s="127"/>
-      <c r="AC49" s="128"/>
-      <c r="AD49" s="126"/>
-      <c r="AE49" s="127"/>
-      <c r="AF49" s="127"/>
-      <c r="AG49" s="127"/>
-      <c r="AH49" s="127"/>
-      <c r="AI49" s="127"/>
-      <c r="AJ49" s="128"/>
-      <c r="AK49" s="130"/>
-      <c r="AL49" s="131"/>
-      <c r="AM49" s="146"/>
-      <c r="AN49" s="140"/>
-      <c r="AO49" s="141"/>
-      <c r="AP49" s="142"/>
-      <c r="AQ49" s="143"/>
-      <c r="AR49" s="144"/>
-      <c r="AS49" s="144"/>
-      <c r="AT49" s="144"/>
-      <c r="AU49" s="144"/>
-      <c r="AV49" s="144"/>
-      <c r="AW49" s="144"/>
-      <c r="AX49" s="144"/>
-      <c r="AY49" s="144"/>
-      <c r="AZ49" s="144"/>
-      <c r="BA49" s="144"/>
-      <c r="BB49" s="144"/>
-      <c r="BC49" s="144"/>
-      <c r="BD49" s="145"/>
-      <c r="BE49" s="143"/>
-      <c r="BF49" s="144"/>
-      <c r="BG49" s="144"/>
-      <c r="BH49" s="144"/>
-      <c r="BI49" s="144"/>
-      <c r="BJ49" s="144"/>
-      <c r="BK49" s="145"/>
-      <c r="BL49" s="159"/>
-      <c r="BM49" s="144"/>
-      <c r="BN49" s="144"/>
-      <c r="BO49" s="163"/>
-      <c r="BP49" s="159"/>
-      <c r="BQ49" s="144"/>
-      <c r="BR49" s="169"/>
+      <c r="A49" s="223"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="110"/>
+      <c r="D49" s="110"/>
+      <c r="E49" s="110"/>
+      <c r="F49" s="110"/>
+      <c r="G49" s="110"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="110"/>
+      <c r="K49" s="110"/>
+      <c r="L49" s="110"/>
+      <c r="M49" s="110"/>
+      <c r="N49" s="110"/>
+      <c r="O49" s="111"/>
+      <c r="P49" s="109"/>
+      <c r="Q49" s="110"/>
+      <c r="R49" s="110"/>
+      <c r="S49" s="110"/>
+      <c r="T49" s="110"/>
+      <c r="U49" s="110"/>
+      <c r="V49" s="111"/>
+      <c r="W49" s="109"/>
+      <c r="X49" s="110"/>
+      <c r="Y49" s="110"/>
+      <c r="Z49" s="110"/>
+      <c r="AA49" s="110"/>
+      <c r="AB49" s="110"/>
+      <c r="AC49" s="111"/>
+      <c r="AD49" s="109"/>
+      <c r="AE49" s="110"/>
+      <c r="AF49" s="110"/>
+      <c r="AG49" s="110"/>
+      <c r="AH49" s="110"/>
+      <c r="AI49" s="110"/>
+      <c r="AJ49" s="111"/>
+      <c r="AK49" s="113"/>
+      <c r="AL49" s="114"/>
+      <c r="AM49" s="129"/>
+      <c r="AN49" s="123"/>
+      <c r="AO49" s="124"/>
+      <c r="AP49" s="125"/>
+      <c r="AQ49" s="126"/>
+      <c r="AR49" s="127"/>
+      <c r="AS49" s="127"/>
+      <c r="AT49" s="127"/>
+      <c r="AU49" s="127"/>
+      <c r="AV49" s="127"/>
+      <c r="AW49" s="127"/>
+      <c r="AX49" s="127"/>
+      <c r="AY49" s="127"/>
+      <c r="AZ49" s="127"/>
+      <c r="BA49" s="127"/>
+      <c r="BB49" s="127"/>
+      <c r="BC49" s="127"/>
+      <c r="BD49" s="128"/>
+      <c r="BE49" s="126"/>
+      <c r="BF49" s="127"/>
+      <c r="BG49" s="127"/>
+      <c r="BH49" s="127"/>
+      <c r="BI49" s="127"/>
+      <c r="BJ49" s="127"/>
+      <c r="BK49" s="128"/>
+      <c r="BL49" s="240"/>
+      <c r="BM49" s="127"/>
+      <c r="BN49" s="127"/>
+      <c r="BO49" s="169"/>
+      <c r="BP49" s="240"/>
+      <c r="BQ49" s="127"/>
+      <c r="BR49" s="242"/>
     </row>
     <row r="50" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="196"/>
-      <c r="B50" s="83"/>
-      <c r="C50" s="84"/>
-      <c r="D50" s="84"/>
-      <c r="E50" s="84"/>
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="85"/>
-      <c r="I50" s="83"/>
-      <c r="J50" s="84"/>
-      <c r="K50" s="84"/>
-      <c r="L50" s="84"/>
-      <c r="M50" s="84"/>
-      <c r="N50" s="84"/>
-      <c r="O50" s="85"/>
-      <c r="P50" s="83"/>
-      <c r="Q50" s="84"/>
-      <c r="R50" s="84"/>
-      <c r="S50" s="84"/>
-      <c r="T50" s="84"/>
-      <c r="U50" s="84"/>
-      <c r="V50" s="85"/>
-      <c r="W50" s="83"/>
-      <c r="X50" s="84"/>
-      <c r="Y50" s="84"/>
-      <c r="Z50" s="84"/>
-      <c r="AA50" s="84"/>
-      <c r="AB50" s="84"/>
-      <c r="AC50" s="85"/>
-      <c r="AD50" s="83"/>
-      <c r="AE50" s="84"/>
-      <c r="AF50" s="84"/>
-      <c r="AG50" s="84"/>
-      <c r="AH50" s="84"/>
-      <c r="AI50" s="84"/>
-      <c r="AJ50" s="85"/>
-      <c r="AK50" s="87"/>
-      <c r="AL50" s="88"/>
-      <c r="AM50" s="172"/>
-      <c r="AN50" s="173"/>
-      <c r="AO50" s="173"/>
-      <c r="AP50" s="173"/>
-      <c r="AQ50" s="173"/>
-      <c r="AR50" s="173"/>
-      <c r="AS50" s="173"/>
-      <c r="AT50" s="173"/>
-      <c r="AU50" s="173"/>
-      <c r="AV50" s="173"/>
-      <c r="AW50" s="173"/>
-      <c r="AX50" s="173"/>
-      <c r="AY50" s="173"/>
-      <c r="AZ50" s="173"/>
-      <c r="BA50" s="173"/>
-      <c r="BB50" s="173"/>
-      <c r="BC50" s="173"/>
-      <c r="BD50" s="173"/>
-      <c r="BE50" s="173"/>
-      <c r="BF50" s="173"/>
-      <c r="BG50" s="173"/>
-      <c r="BH50" s="173"/>
-      <c r="BI50" s="173"/>
-      <c r="BJ50" s="173"/>
-      <c r="BK50" s="173"/>
-      <c r="BL50" s="173"/>
-      <c r="BM50" s="173"/>
-      <c r="BN50" s="173"/>
-      <c r="BO50" s="173"/>
-      <c r="BP50" s="173"/>
-      <c r="BQ50" s="173"/>
-      <c r="BR50" s="174"/>
+      <c r="A50" s="223"/>
+      <c r="B50" s="81"/>
+      <c r="C50" s="258"/>
+      <c r="D50" s="258"/>
+      <c r="E50" s="258"/>
+      <c r="F50" s="258"/>
+      <c r="G50" s="258"/>
+      <c r="H50" s="259"/>
+      <c r="I50" s="81"/>
+      <c r="J50" s="258"/>
+      <c r="K50" s="258"/>
+      <c r="L50" s="258"/>
+      <c r="M50" s="258"/>
+      <c r="N50" s="258"/>
+      <c r="O50" s="259"/>
+      <c r="P50" s="81"/>
+      <c r="Q50" s="258"/>
+      <c r="R50" s="258"/>
+      <c r="S50" s="258"/>
+      <c r="T50" s="258"/>
+      <c r="U50" s="258"/>
+      <c r="V50" s="259"/>
+      <c r="W50" s="81"/>
+      <c r="X50" s="258"/>
+      <c r="Y50" s="258"/>
+      <c r="Z50" s="258"/>
+      <c r="AA50" s="258"/>
+      <c r="AB50" s="258"/>
+      <c r="AC50" s="259"/>
+      <c r="AD50" s="81"/>
+      <c r="AE50" s="258"/>
+      <c r="AF50" s="258"/>
+      <c r="AG50" s="258"/>
+      <c r="AH50" s="258"/>
+      <c r="AI50" s="258"/>
+      <c r="AJ50" s="259"/>
+      <c r="AK50" s="260"/>
+      <c r="AL50" s="261"/>
+      <c r="AM50" s="152"/>
+      <c r="AN50" s="153"/>
+      <c r="AO50" s="153"/>
+      <c r="AP50" s="153"/>
+      <c r="AQ50" s="153"/>
+      <c r="AR50" s="153"/>
+      <c r="AS50" s="153"/>
+      <c r="AT50" s="153"/>
+      <c r="AU50" s="153"/>
+      <c r="AV50" s="153"/>
+      <c r="AW50" s="153"/>
+      <c r="AX50" s="153"/>
+      <c r="AY50" s="153"/>
+      <c r="AZ50" s="153"/>
+      <c r="BA50" s="153"/>
+      <c r="BB50" s="153"/>
+      <c r="BC50" s="153"/>
+      <c r="BD50" s="153"/>
+      <c r="BE50" s="153"/>
+      <c r="BF50" s="153"/>
+      <c r="BG50" s="153"/>
+      <c r="BH50" s="153"/>
+      <c r="BI50" s="153"/>
+      <c r="BJ50" s="153"/>
+      <c r="BK50" s="153"/>
+      <c r="BL50" s="153"/>
+      <c r="BM50" s="153"/>
+      <c r="BN50" s="153"/>
+      <c r="BO50" s="153"/>
+      <c r="BP50" s="153"/>
+      <c r="BQ50" s="153"/>
+      <c r="BR50" s="154"/>
     </row>
     <row r="51" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="197"/>
+      <c r="A51" s="224"/>
       <c r="B51" s="66"/>
       <c r="C51" s="63"/>
       <c r="D51" s="63"/>
@@ -8396,41 +8393,41 @@
       <c r="AJ51" s="64"/>
       <c r="AK51" s="66"/>
       <c r="AL51" s="67"/>
-      <c r="AM51" s="175"/>
-      <c r="AN51" s="176"/>
-      <c r="AO51" s="176"/>
-      <c r="AP51" s="176"/>
-      <c r="AQ51" s="176"/>
-      <c r="AR51" s="176"/>
-      <c r="AS51" s="176"/>
-      <c r="AT51" s="176"/>
-      <c r="AU51" s="176"/>
-      <c r="AV51" s="176"/>
-      <c r="AW51" s="176"/>
-      <c r="AX51" s="176"/>
-      <c r="AY51" s="176"/>
-      <c r="AZ51" s="176"/>
-      <c r="BA51" s="176"/>
-      <c r="BB51" s="176"/>
-      <c r="BC51" s="176"/>
-      <c r="BD51" s="176"/>
-      <c r="BE51" s="176"/>
-      <c r="BF51" s="176"/>
-      <c r="BG51" s="176"/>
-      <c r="BH51" s="176"/>
-      <c r="BI51" s="176"/>
-      <c r="BJ51" s="176"/>
-      <c r="BK51" s="176"/>
-      <c r="BL51" s="176"/>
-      <c r="BM51" s="176"/>
-      <c r="BN51" s="176"/>
-      <c r="BO51" s="176"/>
-      <c r="BP51" s="176"/>
-      <c r="BQ51" s="176"/>
-      <c r="BR51" s="177"/>
+      <c r="AM51" s="155"/>
+      <c r="AN51" s="156"/>
+      <c r="AO51" s="156"/>
+      <c r="AP51" s="156"/>
+      <c r="AQ51" s="156"/>
+      <c r="AR51" s="156"/>
+      <c r="AS51" s="156"/>
+      <c r="AT51" s="156"/>
+      <c r="AU51" s="156"/>
+      <c r="AV51" s="156"/>
+      <c r="AW51" s="156"/>
+      <c r="AX51" s="156"/>
+      <c r="AY51" s="156"/>
+      <c r="AZ51" s="156"/>
+      <c r="BA51" s="156"/>
+      <c r="BB51" s="156"/>
+      <c r="BC51" s="156"/>
+      <c r="BD51" s="156"/>
+      <c r="BE51" s="156"/>
+      <c r="BF51" s="156"/>
+      <c r="BG51" s="156"/>
+      <c r="BH51" s="156"/>
+      <c r="BI51" s="156"/>
+      <c r="BJ51" s="156"/>
+      <c r="BK51" s="156"/>
+      <c r="BL51" s="156"/>
+      <c r="BM51" s="156"/>
+      <c r="BN51" s="156"/>
+      <c r="BO51" s="156"/>
+      <c r="BP51" s="156"/>
+      <c r="BQ51" s="156"/>
+      <c r="BR51" s="157"/>
     </row>
     <row r="52" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="195" t="s">
+      <c r="A52" s="222" t="s">
         <v>60</v>
       </c>
       <c r="B52" s="45"/>
@@ -8470,185 +8467,185 @@
       <c r="AJ52" s="44"/>
       <c r="AK52" s="45"/>
       <c r="AL52" s="46"/>
-      <c r="AM52" s="132"/>
-      <c r="AN52" s="133"/>
-      <c r="AO52" s="134"/>
-      <c r="AP52" s="135"/>
-      <c r="AQ52" s="136"/>
-      <c r="AR52" s="137"/>
-      <c r="AS52" s="137"/>
-      <c r="AT52" s="137"/>
-      <c r="AU52" s="137"/>
-      <c r="AV52" s="137"/>
-      <c r="AW52" s="137"/>
-      <c r="AX52" s="137"/>
-      <c r="AY52" s="137"/>
-      <c r="AZ52" s="137"/>
-      <c r="BA52" s="137"/>
-      <c r="BB52" s="137"/>
-      <c r="BC52" s="137"/>
-      <c r="BD52" s="138"/>
-      <c r="BE52" s="136"/>
-      <c r="BF52" s="137"/>
-      <c r="BG52" s="137"/>
-      <c r="BH52" s="137"/>
-      <c r="BI52" s="137"/>
-      <c r="BJ52" s="137"/>
-      <c r="BK52" s="138"/>
-      <c r="BL52" s="158"/>
-      <c r="BM52" s="137"/>
-      <c r="BN52" s="137"/>
-      <c r="BO52" s="162"/>
-      <c r="BP52" s="158"/>
-      <c r="BQ52" s="137"/>
-      <c r="BR52" s="168"/>
+      <c r="AM52" s="115"/>
+      <c r="AN52" s="116"/>
+      <c r="AO52" s="117"/>
+      <c r="AP52" s="118"/>
+      <c r="AQ52" s="119"/>
+      <c r="AR52" s="120"/>
+      <c r="AS52" s="120"/>
+      <c r="AT52" s="120"/>
+      <c r="AU52" s="120"/>
+      <c r="AV52" s="120"/>
+      <c r="AW52" s="120"/>
+      <c r="AX52" s="120"/>
+      <c r="AY52" s="120"/>
+      <c r="AZ52" s="120"/>
+      <c r="BA52" s="120"/>
+      <c r="BB52" s="120"/>
+      <c r="BC52" s="120"/>
+      <c r="BD52" s="121"/>
+      <c r="BE52" s="119"/>
+      <c r="BF52" s="120"/>
+      <c r="BG52" s="120"/>
+      <c r="BH52" s="120"/>
+      <c r="BI52" s="120"/>
+      <c r="BJ52" s="120"/>
+      <c r="BK52" s="121"/>
+      <c r="BL52" s="239"/>
+      <c r="BM52" s="120"/>
+      <c r="BN52" s="120"/>
+      <c r="BO52" s="168"/>
+      <c r="BP52" s="239"/>
+      <c r="BQ52" s="120"/>
+      <c r="BR52" s="241"/>
     </row>
     <row r="53" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="196"/>
-      <c r="B53" s="130"/>
-      <c r="C53" s="127"/>
-      <c r="D53" s="127"/>
-      <c r="E53" s="127"/>
-      <c r="F53" s="127"/>
-      <c r="G53" s="127"/>
-      <c r="H53" s="128"/>
-      <c r="I53" s="126"/>
-      <c r="J53" s="127"/>
-      <c r="K53" s="127"/>
-      <c r="L53" s="127"/>
-      <c r="M53" s="127"/>
-      <c r="N53" s="127"/>
-      <c r="O53" s="128"/>
-      <c r="P53" s="126"/>
-      <c r="Q53" s="127"/>
-      <c r="R53" s="127"/>
-      <c r="S53" s="127"/>
-      <c r="T53" s="127"/>
-      <c r="U53" s="127"/>
-      <c r="V53" s="128"/>
-      <c r="W53" s="126"/>
-      <c r="X53" s="127"/>
-      <c r="Y53" s="127"/>
-      <c r="Z53" s="127"/>
-      <c r="AA53" s="127"/>
-      <c r="AB53" s="127"/>
-      <c r="AC53" s="128"/>
-      <c r="AD53" s="126"/>
-      <c r="AE53" s="127"/>
-      <c r="AF53" s="127"/>
-      <c r="AG53" s="127"/>
-      <c r="AH53" s="127"/>
-      <c r="AI53" s="127"/>
-      <c r="AJ53" s="128"/>
-      <c r="AK53" s="130"/>
-      <c r="AL53" s="131"/>
-      <c r="AM53" s="139"/>
-      <c r="AN53" s="140"/>
-      <c r="AO53" s="141"/>
-      <c r="AP53" s="142"/>
-      <c r="AQ53" s="143"/>
-      <c r="AR53" s="144"/>
-      <c r="AS53" s="144"/>
-      <c r="AT53" s="144"/>
-      <c r="AU53" s="144"/>
-      <c r="AV53" s="144"/>
-      <c r="AW53" s="144"/>
-      <c r="AX53" s="144"/>
-      <c r="AY53" s="144"/>
-      <c r="AZ53" s="144"/>
-      <c r="BA53" s="144"/>
-      <c r="BB53" s="144"/>
-      <c r="BC53" s="144"/>
-      <c r="BD53" s="145"/>
-      <c r="BE53" s="143"/>
-      <c r="BF53" s="144"/>
-      <c r="BG53" s="144"/>
-      <c r="BH53" s="144"/>
-      <c r="BI53" s="144"/>
-      <c r="BJ53" s="144"/>
-      <c r="BK53" s="145"/>
-      <c r="BL53" s="159"/>
-      <c r="BM53" s="144"/>
-      <c r="BN53" s="144"/>
-      <c r="BO53" s="163"/>
-      <c r="BP53" s="159"/>
-      <c r="BQ53" s="144"/>
-      <c r="BR53" s="169"/>
+      <c r="A53" s="223"/>
+      <c r="B53" s="113"/>
+      <c r="C53" s="110"/>
+      <c r="D53" s="110"/>
+      <c r="E53" s="110"/>
+      <c r="F53" s="110"/>
+      <c r="G53" s="110"/>
+      <c r="H53" s="111"/>
+      <c r="I53" s="109"/>
+      <c r="J53" s="110"/>
+      <c r="K53" s="110"/>
+      <c r="L53" s="110"/>
+      <c r="M53" s="110"/>
+      <c r="N53" s="110"/>
+      <c r="O53" s="111"/>
+      <c r="P53" s="109"/>
+      <c r="Q53" s="110"/>
+      <c r="R53" s="110"/>
+      <c r="S53" s="110"/>
+      <c r="T53" s="110"/>
+      <c r="U53" s="110"/>
+      <c r="V53" s="111"/>
+      <c r="W53" s="109"/>
+      <c r="X53" s="110"/>
+      <c r="Y53" s="110"/>
+      <c r="Z53" s="110"/>
+      <c r="AA53" s="110"/>
+      <c r="AB53" s="110"/>
+      <c r="AC53" s="111"/>
+      <c r="AD53" s="109"/>
+      <c r="AE53" s="110"/>
+      <c r="AF53" s="110"/>
+      <c r="AG53" s="110"/>
+      <c r="AH53" s="110"/>
+      <c r="AI53" s="110"/>
+      <c r="AJ53" s="111"/>
+      <c r="AK53" s="113"/>
+      <c r="AL53" s="114"/>
+      <c r="AM53" s="122"/>
+      <c r="AN53" s="123"/>
+      <c r="AO53" s="124"/>
+      <c r="AP53" s="125"/>
+      <c r="AQ53" s="126"/>
+      <c r="AR53" s="127"/>
+      <c r="AS53" s="127"/>
+      <c r="AT53" s="127"/>
+      <c r="AU53" s="127"/>
+      <c r="AV53" s="127"/>
+      <c r="AW53" s="127"/>
+      <c r="AX53" s="127"/>
+      <c r="AY53" s="127"/>
+      <c r="AZ53" s="127"/>
+      <c r="BA53" s="127"/>
+      <c r="BB53" s="127"/>
+      <c r="BC53" s="127"/>
+      <c r="BD53" s="128"/>
+      <c r="BE53" s="126"/>
+      <c r="BF53" s="127"/>
+      <c r="BG53" s="127"/>
+      <c r="BH53" s="127"/>
+      <c r="BI53" s="127"/>
+      <c r="BJ53" s="127"/>
+      <c r="BK53" s="128"/>
+      <c r="BL53" s="240"/>
+      <c r="BM53" s="127"/>
+      <c r="BN53" s="127"/>
+      <c r="BO53" s="169"/>
+      <c r="BP53" s="240"/>
+      <c r="BQ53" s="127"/>
+      <c r="BR53" s="242"/>
     </row>
     <row r="54" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="196"/>
-      <c r="B54" s="110"/>
-      <c r="C54" s="111"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="111"/>
-      <c r="F54" s="111"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="112"/>
-      <c r="I54" s="113"/>
-      <c r="J54" s="111"/>
-      <c r="K54" s="111"/>
-      <c r="L54" s="111"/>
-      <c r="M54" s="111"/>
-      <c r="N54" s="111"/>
-      <c r="O54" s="112"/>
-      <c r="P54" s="113"/>
-      <c r="Q54" s="111"/>
-      <c r="R54" s="111"/>
-      <c r="S54" s="111"/>
-      <c r="T54" s="111"/>
-      <c r="U54" s="111"/>
-      <c r="V54" s="112"/>
-      <c r="W54" s="113"/>
-      <c r="X54" s="111"/>
-      <c r="Y54" s="111"/>
-      <c r="Z54" s="111"/>
-      <c r="AA54" s="111"/>
-      <c r="AB54" s="111"/>
-      <c r="AC54" s="112"/>
-      <c r="AD54" s="113"/>
-      <c r="AE54" s="111"/>
-      <c r="AF54" s="111"/>
-      <c r="AG54" s="111"/>
-      <c r="AH54" s="111"/>
-      <c r="AI54" s="111"/>
-      <c r="AJ54" s="85"/>
-      <c r="AK54" s="87"/>
-      <c r="AL54" s="115"/>
-      <c r="AM54" s="172"/>
-      <c r="AN54" s="173"/>
-      <c r="AO54" s="173"/>
-      <c r="AP54" s="173"/>
-      <c r="AQ54" s="173"/>
-      <c r="AR54" s="173"/>
-      <c r="AS54" s="173"/>
-      <c r="AT54" s="173"/>
-      <c r="AU54" s="173"/>
-      <c r="AV54" s="173"/>
-      <c r="AW54" s="173"/>
-      <c r="AX54" s="173"/>
-      <c r="AY54" s="173"/>
-      <c r="AZ54" s="173"/>
-      <c r="BA54" s="173"/>
-      <c r="BB54" s="173"/>
-      <c r="BC54" s="173"/>
-      <c r="BD54" s="173"/>
-      <c r="BE54" s="173"/>
-      <c r="BF54" s="173"/>
-      <c r="BG54" s="173"/>
-      <c r="BH54" s="173"/>
-      <c r="BI54" s="173"/>
-      <c r="BJ54" s="173"/>
-      <c r="BK54" s="173"/>
-      <c r="BL54" s="173"/>
-      <c r="BM54" s="173"/>
-      <c r="BN54" s="173"/>
-      <c r="BO54" s="173"/>
-      <c r="BP54" s="173"/>
-      <c r="BQ54" s="173"/>
-      <c r="BR54" s="174"/>
+      <c r="A54" s="223"/>
+      <c r="B54" s="264"/>
+      <c r="C54" s="265"/>
+      <c r="D54" s="265"/>
+      <c r="E54" s="265"/>
+      <c r="F54" s="265"/>
+      <c r="G54" s="265"/>
+      <c r="H54" s="266"/>
+      <c r="I54" s="267"/>
+      <c r="J54" s="265"/>
+      <c r="K54" s="265"/>
+      <c r="L54" s="265"/>
+      <c r="M54" s="265"/>
+      <c r="N54" s="265"/>
+      <c r="O54" s="266"/>
+      <c r="P54" s="267"/>
+      <c r="Q54" s="265"/>
+      <c r="R54" s="265"/>
+      <c r="S54" s="265"/>
+      <c r="T54" s="265"/>
+      <c r="U54" s="265"/>
+      <c r="V54" s="266"/>
+      <c r="W54" s="267"/>
+      <c r="X54" s="265"/>
+      <c r="Y54" s="265"/>
+      <c r="Z54" s="265"/>
+      <c r="AA54" s="265"/>
+      <c r="AB54" s="265"/>
+      <c r="AC54" s="266"/>
+      <c r="AD54" s="267"/>
+      <c r="AE54" s="265"/>
+      <c r="AF54" s="265"/>
+      <c r="AG54" s="265"/>
+      <c r="AH54" s="265"/>
+      <c r="AI54" s="265"/>
+      <c r="AJ54" s="259"/>
+      <c r="AK54" s="260"/>
+      <c r="AL54" s="268"/>
+      <c r="AM54" s="152"/>
+      <c r="AN54" s="153"/>
+      <c r="AO54" s="153"/>
+      <c r="AP54" s="153"/>
+      <c r="AQ54" s="153"/>
+      <c r="AR54" s="153"/>
+      <c r="AS54" s="153"/>
+      <c r="AT54" s="153"/>
+      <c r="AU54" s="153"/>
+      <c r="AV54" s="153"/>
+      <c r="AW54" s="153"/>
+      <c r="AX54" s="153"/>
+      <c r="AY54" s="153"/>
+      <c r="AZ54" s="153"/>
+      <c r="BA54" s="153"/>
+      <c r="BB54" s="153"/>
+      <c r="BC54" s="153"/>
+      <c r="BD54" s="153"/>
+      <c r="BE54" s="153"/>
+      <c r="BF54" s="153"/>
+      <c r="BG54" s="153"/>
+      <c r="BH54" s="153"/>
+      <c r="BI54" s="153"/>
+      <c r="BJ54" s="153"/>
+      <c r="BK54" s="153"/>
+      <c r="BL54" s="153"/>
+      <c r="BM54" s="153"/>
+      <c r="BN54" s="153"/>
+      <c r="BO54" s="153"/>
+      <c r="BP54" s="153"/>
+      <c r="BQ54" s="153"/>
+      <c r="BR54" s="154"/>
     </row>
     <row r="55" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="198"/>
+      <c r="A55" s="225"/>
       <c r="B55" s="75"/>
       <c r="C55" s="76"/>
       <c r="D55" s="76"/>
@@ -8684,46 +8681,46 @@
       <c r="AH55" s="76"/>
       <c r="AI55" s="76"/>
       <c r="AJ55" s="78"/>
-      <c r="AK55" s="114"/>
+      <c r="AK55" s="98"/>
       <c r="AL55" s="79"/>
-      <c r="AM55" s="175"/>
-      <c r="AN55" s="176"/>
-      <c r="AO55" s="176"/>
-      <c r="AP55" s="176"/>
-      <c r="AQ55" s="176"/>
-      <c r="AR55" s="176"/>
-      <c r="AS55" s="176"/>
-      <c r="AT55" s="176"/>
-      <c r="AU55" s="176"/>
-      <c r="AV55" s="176"/>
-      <c r="AW55" s="176"/>
-      <c r="AX55" s="176"/>
-      <c r="AY55" s="176"/>
-      <c r="AZ55" s="176"/>
-      <c r="BA55" s="176"/>
-      <c r="BB55" s="176"/>
-      <c r="BC55" s="176"/>
-      <c r="BD55" s="176"/>
-      <c r="BE55" s="176"/>
-      <c r="BF55" s="176"/>
-      <c r="BG55" s="176"/>
-      <c r="BH55" s="176"/>
-      <c r="BI55" s="176"/>
-      <c r="BJ55" s="176"/>
-      <c r="BK55" s="176"/>
-      <c r="BL55" s="176"/>
-      <c r="BM55" s="176"/>
-      <c r="BN55" s="176"/>
-      <c r="BO55" s="176"/>
-      <c r="BP55" s="176"/>
-      <c r="BQ55" s="176"/>
-      <c r="BR55" s="177"/>
+      <c r="AM55" s="155"/>
+      <c r="AN55" s="156"/>
+      <c r="AO55" s="156"/>
+      <c r="AP55" s="156"/>
+      <c r="AQ55" s="156"/>
+      <c r="AR55" s="156"/>
+      <c r="AS55" s="156"/>
+      <c r="AT55" s="156"/>
+      <c r="AU55" s="156"/>
+      <c r="AV55" s="156"/>
+      <c r="AW55" s="156"/>
+      <c r="AX55" s="156"/>
+      <c r="AY55" s="156"/>
+      <c r="AZ55" s="156"/>
+      <c r="BA55" s="156"/>
+      <c r="BB55" s="156"/>
+      <c r="BC55" s="156"/>
+      <c r="BD55" s="156"/>
+      <c r="BE55" s="156"/>
+      <c r="BF55" s="156"/>
+      <c r="BG55" s="156"/>
+      <c r="BH55" s="156"/>
+      <c r="BI55" s="156"/>
+      <c r="BJ55" s="156"/>
+      <c r="BK55" s="156"/>
+      <c r="BL55" s="156"/>
+      <c r="BM55" s="156"/>
+      <c r="BN55" s="156"/>
+      <c r="BO55" s="156"/>
+      <c r="BP55" s="156"/>
+      <c r="BQ55" s="156"/>
+      <c r="BR55" s="157"/>
     </row>
     <row r="56" spans="1:70" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="211" t="s">
+      <c r="A56" s="188" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="212"/>
+      <c r="B56" s="189"/>
       <c r="C56" s="3"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
@@ -8757,11 +8754,11 @@
       <c r="AG56" s="10"/>
       <c r="AH56" s="10"/>
       <c r="AI56" s="74"/>
-      <c r="AJ56" s="267" t="s">
+      <c r="AJ56" s="190" t="s">
         <v>62</v>
       </c>
-      <c r="AK56" s="268"/>
-      <c r="AL56" s="269"/>
+      <c r="AK56" s="191"/>
+      <c r="AL56" s="192"/>
       <c r="AM56" s="28"/>
       <c r="AN56" s="29"/>
       <c r="AO56" s="30"/>
@@ -8865,75 +8862,75 @@
       <c r="BO57" s="13"/>
       <c r="BP57" s="13"/>
       <c r="BQ57" s="13"/>
-      <c r="BR57" s="152"/>
+      <c r="BR57" s="135"/>
     </row>
     <row r="58" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="245" t="s">
+      <c r="A58" s="193" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="245"/>
-      <c r="C58" s="245"/>
-      <c r="D58" s="246" t="s">
+      <c r="B58" s="193"/>
+      <c r="C58" s="193"/>
+      <c r="D58" s="194" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" s="195"/>
+      <c r="F58" s="195"/>
+      <c r="G58" s="136"/>
+      <c r="H58" s="194" t="s">
         <v>139</v>
       </c>
-      <c r="E58" s="247"/>
-      <c r="F58" s="247"/>
-      <c r="G58" s="248"/>
-      <c r="H58" s="246" t="s">
+      <c r="I58" s="195"/>
+      <c r="J58" s="195"/>
+      <c r="K58" s="136"/>
+      <c r="L58" s="194" t="s">
         <v>140</v>
       </c>
-      <c r="I58" s="247"/>
-      <c r="J58" s="247"/>
-      <c r="K58" s="248"/>
-      <c r="L58" s="246" t="s">
-        <v>141</v>
-      </c>
-      <c r="M58" s="247"/>
-      <c r="N58" s="247"/>
-      <c r="O58" s="248"/>
-      <c r="P58" s="246" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q58" s="247"/>
-      <c r="R58" s="247"/>
-      <c r="S58" s="248"/>
-      <c r="T58" s="249"/>
-      <c r="U58" s="249"/>
-      <c r="V58" s="249"/>
-      <c r="W58" s="250"/>
-      <c r="AA58" s="250"/>
+      <c r="M58" s="195"/>
+      <c r="N58" s="195"/>
+      <c r="O58" s="136"/>
+      <c r="P58" s="194" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q58" s="195"/>
+      <c r="R58" s="195"/>
+      <c r="S58" s="136"/>
+      <c r="T58" s="137"/>
+      <c r="U58" s="137"/>
+      <c r="V58" s="137"/>
+      <c r="W58" s="138"/>
+      <c r="AA58" s="138"/>
       <c r="AB58" s="21"/>
       <c r="AC58" s="21"/>
       <c r="AD58" s="21"/>
-      <c r="AM58" s="157" t="s">
+      <c r="AM58" s="187" t="s">
+        <v>133</v>
+      </c>
+      <c r="AN58" s="187"/>
+      <c r="AO58" s="187"/>
+      <c r="AP58" s="196"/>
+      <c r="AQ58" s="196"/>
+      <c r="AR58" s="196"/>
+      <c r="AS58" s="196"/>
+      <c r="AT58" s="11"/>
+      <c r="AU58" s="187" t="s">
         <v>134</v>
       </c>
-      <c r="AN58" s="157"/>
-      <c r="AO58" s="157"/>
-      <c r="AP58" s="153"/>
-      <c r="AQ58" s="153"/>
-      <c r="AR58" s="153"/>
-      <c r="AS58" s="153"/>
-      <c r="AT58" s="11"/>
-      <c r="AU58" s="157" t="s">
-        <v>135</v>
-      </c>
-      <c r="AV58" s="157"/>
-      <c r="AW58" s="157"/>
-      <c r="AX58" s="213"/>
-      <c r="AY58" s="214"/>
-      <c r="AZ58" s="214"/>
-      <c r="BA58" s="215"/>
-      <c r="BC58" s="154" t="s">
-        <v>65</v>
-      </c>
-      <c r="BD58" s="155"/>
-      <c r="BE58" s="155"/>
-      <c r="BF58" s="156"/>
-      <c r="BG58" s="157"/>
-      <c r="BH58" s="157"/>
-      <c r="BI58" s="157"/>
-      <c r="BJ58" s="157"/>
+      <c r="AV58" s="187"/>
+      <c r="AW58" s="187"/>
+      <c r="AX58" s="250"/>
+      <c r="AY58" s="251"/>
+      <c r="AZ58" s="251"/>
+      <c r="BA58" s="252"/>
+      <c r="BC58" s="197" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD58" s="198"/>
+      <c r="BE58" s="198"/>
+      <c r="BF58" s="199"/>
+      <c r="BG58" s="187"/>
+      <c r="BH58" s="187"/>
+      <c r="BI58" s="187"/>
+      <c r="BJ58" s="187"/>
       <c r="BK58" s="13"/>
       <c r="BL58" s="13"/>
       <c r="BM58" s="13"/>
@@ -8941,65 +8938,65 @@
       <c r="BO58" s="13"/>
       <c r="BP58" s="13"/>
       <c r="BQ58" s="13"/>
-      <c r="BR58" s="118"/>
+      <c r="BR58" s="101"/>
     </row>
     <row r="59" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="245" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="245"/>
-      <c r="C59" s="245"/>
-      <c r="D59" s="246" t="s">
+      <c r="A59" s="193" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="193"/>
+      <c r="C59" s="193"/>
+      <c r="D59" s="194" t="s">
+        <v>141</v>
+      </c>
+      <c r="E59" s="195"/>
+      <c r="F59" s="195"/>
+      <c r="G59" s="136"/>
+      <c r="H59" s="194" t="s">
         <v>142</v>
       </c>
-      <c r="E59" s="247"/>
-      <c r="F59" s="247"/>
-      <c r="G59" s="248"/>
-      <c r="H59" s="246" t="s">
+      <c r="I59" s="195"/>
+      <c r="J59" s="195"/>
+      <c r="K59" s="136"/>
+      <c r="L59" s="194" t="s">
         <v>143</v>
       </c>
-      <c r="I59" s="247"/>
-      <c r="J59" s="247"/>
-      <c r="K59" s="248"/>
-      <c r="L59" s="246" t="s">
+      <c r="M59" s="195"/>
+      <c r="N59" s="195"/>
+      <c r="O59" s="136"/>
+      <c r="P59" s="194" t="s">
         <v>144</v>
       </c>
-      <c r="M59" s="247"/>
-      <c r="N59" s="247"/>
-      <c r="O59" s="248"/>
-      <c r="P59" s="246" t="s">
+      <c r="Q59" s="195"/>
+      <c r="R59" s="195"/>
+      <c r="S59" s="136"/>
+      <c r="T59" s="194" t="s">
         <v>145</v>
       </c>
-      <c r="Q59" s="247"/>
-      <c r="R59" s="247"/>
-      <c r="S59" s="248"/>
-      <c r="T59" s="246" t="s">
+      <c r="U59" s="195"/>
+      <c r="V59" s="195"/>
+      <c r="W59" s="136"/>
+      <c r="X59" s="194" t="s">
         <v>146</v>
       </c>
-      <c r="U59" s="247"/>
-      <c r="V59" s="247"/>
-      <c r="W59" s="248"/>
-      <c r="X59" s="246" t="s">
+      <c r="Y59" s="195"/>
+      <c r="Z59" s="195"/>
+      <c r="AA59" s="136"/>
+      <c r="AB59" s="194" t="s">
         <v>147</v>
       </c>
-      <c r="Y59" s="247"/>
-      <c r="Z59" s="247"/>
-      <c r="AA59" s="248"/>
-      <c r="AB59" s="246" t="s">
-        <v>148</v>
-      </c>
-      <c r="AC59" s="247"/>
-      <c r="AD59" s="251"/>
-      <c r="AE59" s="252"/>
-      <c r="AM59" s="157" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN59" s="157"/>
-      <c r="AO59" s="157"/>
-      <c r="AP59" s="153"/>
-      <c r="AQ59" s="153"/>
-      <c r="AR59" s="153"/>
-      <c r="AS59" s="153"/>
+      <c r="AC59" s="195"/>
+      <c r="AD59" s="200"/>
+      <c r="AE59" s="139"/>
+      <c r="AM59" s="187" t="s">
+        <v>135</v>
+      </c>
+      <c r="AN59" s="187"/>
+      <c r="AO59" s="187"/>
+      <c r="AP59" s="196"/>
+      <c r="AQ59" s="196"/>
+      <c r="AR59" s="196"/>
+      <c r="AS59" s="196"/>
       <c r="AT59" s="11"/>
       <c r="AU59" s="11"/>
       <c r="AV59" s="11"/>
@@ -9007,16 +9004,16 @@
       <c r="AX59" s="11"/>
       <c r="AY59" s="11"/>
       <c r="AZ59" s="11"/>
-      <c r="BC59" s="154" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD59" s="155"/>
-      <c r="BE59" s="155"/>
-      <c r="BF59" s="156"/>
-      <c r="BG59" s="157"/>
-      <c r="BH59" s="157"/>
-      <c r="BI59" s="157"/>
-      <c r="BJ59" s="157"/>
+      <c r="BC59" s="197" t="s">
+        <v>65</v>
+      </c>
+      <c r="BD59" s="198"/>
+      <c r="BE59" s="198"/>
+      <c r="BF59" s="199"/>
+      <c r="BG59" s="187"/>
+      <c r="BH59" s="187"/>
+      <c r="BI59" s="187"/>
+      <c r="BJ59" s="187"/>
       <c r="BK59" s="13"/>
       <c r="BL59" s="13"/>
       <c r="BM59" s="13"/>
@@ -9024,64 +9021,64 @@
       <c r="BO59" s="13"/>
       <c r="BP59" s="13"/>
       <c r="BQ59" s="13"/>
-      <c r="BR59" s="118"/>
+      <c r="BR59" s="101"/>
     </row>
     <row r="60" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="245"/>
-      <c r="B60" s="245"/>
-      <c r="C60" s="245"/>
-      <c r="D60" s="246" t="s">
+      <c r="A60" s="193"/>
+      <c r="B60" s="193"/>
+      <c r="C60" s="193"/>
+      <c r="D60" s="194" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" s="195"/>
+      <c r="F60" s="195"/>
+      <c r="G60" s="136"/>
+      <c r="H60" s="194" t="s">
         <v>149</v>
       </c>
-      <c r="E60" s="247"/>
-      <c r="F60" s="247"/>
-      <c r="G60" s="248"/>
-      <c r="H60" s="246" t="s">
+      <c r="I60" s="195"/>
+      <c r="J60" s="195"/>
+      <c r="K60" s="136"/>
+      <c r="L60" s="194" t="s">
         <v>150</v>
       </c>
-      <c r="I60" s="247"/>
-      <c r="J60" s="247"/>
-      <c r="K60" s="248"/>
-      <c r="L60" s="246" t="s">
+      <c r="M60" s="195"/>
+      <c r="N60" s="195"/>
+      <c r="O60" s="136"/>
+      <c r="P60" s="194" t="s">
         <v>151</v>
       </c>
-      <c r="M60" s="247"/>
-      <c r="N60" s="247"/>
-      <c r="O60" s="248"/>
-      <c r="P60" s="246" t="s">
+      <c r="Q60" s="195"/>
+      <c r="R60" s="195"/>
+      <c r="S60" s="136"/>
+      <c r="T60" s="194" t="s">
         <v>152</v>
       </c>
-      <c r="Q60" s="247"/>
-      <c r="R60" s="247"/>
-      <c r="S60" s="248"/>
-      <c r="T60" s="246" t="s">
+      <c r="U60" s="195"/>
+      <c r="V60" s="195"/>
+      <c r="W60" s="136"/>
+      <c r="X60" s="194" t="s">
         <v>153</v>
       </c>
-      <c r="U60" s="247"/>
-      <c r="V60" s="247"/>
-      <c r="W60" s="248"/>
-      <c r="X60" s="246" t="s">
+      <c r="Y60" s="195"/>
+      <c r="Z60" s="195"/>
+      <c r="AA60" s="136"/>
+      <c r="AB60" s="194" t="s">
         <v>154</v>
       </c>
-      <c r="Y60" s="247"/>
-      <c r="Z60" s="247"/>
-      <c r="AA60" s="248"/>
-      <c r="AB60" s="246" t="s">
-        <v>155</v>
-      </c>
-      <c r="AC60" s="247"/>
-      <c r="AD60" s="251"/>
-      <c r="AE60" s="252"/>
+      <c r="AC60" s="195"/>
+      <c r="AD60" s="200"/>
+      <c r="AE60" s="139"/>
       <c r="AJ60" s="4"/>
-      <c r="AM60" s="157" t="s">
-        <v>137</v>
-      </c>
-      <c r="AN60" s="157"/>
-      <c r="AO60" s="157"/>
-      <c r="AP60" s="153"/>
-      <c r="AQ60" s="153"/>
-      <c r="AR60" s="153"/>
-      <c r="AS60" s="153"/>
+      <c r="AM60" s="187" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN60" s="187"/>
+      <c r="AO60" s="187"/>
+      <c r="AP60" s="196"/>
+      <c r="AQ60" s="196"/>
+      <c r="AR60" s="196"/>
+      <c r="AS60" s="196"/>
       <c r="AT60" s="11"/>
       <c r="AU60" s="11"/>
       <c r="AV60" s="11"/>
@@ -9089,16 +9086,16 @@
       <c r="AX60" s="11"/>
       <c r="AY60" s="11"/>
       <c r="AZ60" s="11"/>
-      <c r="BC60" s="154" t="s">
-        <v>68</v>
-      </c>
-      <c r="BD60" s="155"/>
-      <c r="BE60" s="155"/>
-      <c r="BF60" s="156"/>
-      <c r="BG60" s="157"/>
-      <c r="BH60" s="157"/>
-      <c r="BI60" s="157"/>
-      <c r="BJ60" s="157"/>
+      <c r="BC60" s="197" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD60" s="198"/>
+      <c r="BE60" s="198"/>
+      <c r="BF60" s="199"/>
+      <c r="BG60" s="187"/>
+      <c r="BH60" s="187"/>
+      <c r="BI60" s="187"/>
+      <c r="BJ60" s="187"/>
       <c r="BK60" s="13"/>
       <c r="BL60" s="13"/>
       <c r="BM60" s="13"/>
@@ -9106,53 +9103,53 @@
       <c r="BO60" s="13"/>
       <c r="BP60" s="13"/>
       <c r="BQ60" s="13"/>
-      <c r="BR60" s="118"/>
+      <c r="BR60" s="101"/>
     </row>
     <row r="61" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="253" t="s">
-        <v>70</v>
-      </c>
-      <c r="B61" s="254"/>
-      <c r="C61" s="255"/>
-      <c r="D61" s="246" t="s">
+      <c r="A61" s="201" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" s="202"/>
+      <c r="C61" s="203"/>
+      <c r="D61" s="194" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" s="195"/>
+      <c r="F61" s="195"/>
+      <c r="G61" s="136"/>
+      <c r="H61" s="194" t="s">
         <v>156</v>
       </c>
-      <c r="E61" s="247"/>
-      <c r="F61" s="247"/>
-      <c r="G61" s="248"/>
-      <c r="H61" s="246" t="s">
-        <v>157</v>
-      </c>
-      <c r="I61" s="247"/>
-      <c r="J61" s="247"/>
-      <c r="K61" s="248"/>
-      <c r="L61" s="246" t="s">
-        <v>148</v>
-      </c>
-      <c r="M61" s="247"/>
-      <c r="N61" s="247"/>
-      <c r="O61" s="248"/>
-      <c r="P61" s="249"/>
-      <c r="Q61" s="249"/>
-      <c r="R61" s="249"/>
-      <c r="S61" s="250"/>
-      <c r="T61" s="249"/>
-      <c r="U61" s="249"/>
-      <c r="V61" s="249"/>
-      <c r="W61" s="250"/>
-      <c r="X61" s="249"/>
-      <c r="Y61" s="249"/>
-      <c r="Z61" s="249"/>
-      <c r="AA61" s="250"/>
-      <c r="AM61" s="157" t="s">
-        <v>138</v>
-      </c>
-      <c r="AN61" s="157"/>
-      <c r="AO61" s="157"/>
-      <c r="AP61" s="153"/>
-      <c r="AQ61" s="153"/>
-      <c r="AR61" s="153"/>
-      <c r="AS61" s="153"/>
+      <c r="I61" s="195"/>
+      <c r="J61" s="195"/>
+      <c r="K61" s="136"/>
+      <c r="L61" s="194" t="s">
+        <v>147</v>
+      </c>
+      <c r="M61" s="195"/>
+      <c r="N61" s="195"/>
+      <c r="O61" s="136"/>
+      <c r="P61" s="137"/>
+      <c r="Q61" s="137"/>
+      <c r="R61" s="137"/>
+      <c r="S61" s="138"/>
+      <c r="T61" s="137"/>
+      <c r="U61" s="137"/>
+      <c r="V61" s="137"/>
+      <c r="W61" s="138"/>
+      <c r="X61" s="137"/>
+      <c r="Y61" s="137"/>
+      <c r="Z61" s="137"/>
+      <c r="AA61" s="138"/>
+      <c r="AM61" s="187" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN61" s="187"/>
+      <c r="AO61" s="187"/>
+      <c r="AP61" s="196"/>
+      <c r="AQ61" s="196"/>
+      <c r="AR61" s="196"/>
+      <c r="AS61" s="196"/>
       <c r="AT61" s="11"/>
       <c r="AU61" s="11"/>
       <c r="AV61" s="11"/>
@@ -9160,16 +9157,16 @@
       <c r="AX61" s="11"/>
       <c r="AY61" s="11"/>
       <c r="AZ61" s="11"/>
-      <c r="BC61" s="154" t="s">
-        <v>69</v>
-      </c>
-      <c r="BD61" s="155"/>
-      <c r="BE61" s="155"/>
-      <c r="BF61" s="156"/>
-      <c r="BG61" s="157"/>
-      <c r="BH61" s="157"/>
-      <c r="BI61" s="157"/>
-      <c r="BJ61" s="157"/>
+      <c r="BC61" s="197" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD61" s="198"/>
+      <c r="BE61" s="198"/>
+      <c r="BF61" s="199"/>
+      <c r="BG61" s="187"/>
+      <c r="BH61" s="187"/>
+      <c r="BI61" s="187"/>
+      <c r="BJ61" s="187"/>
       <c r="BK61" s="13"/>
       <c r="BL61" s="13"/>
       <c r="BM61" s="13"/>
@@ -9177,48 +9174,48 @@
       <c r="BO61" s="13"/>
       <c r="BP61" s="13"/>
       <c r="BQ61" s="13"/>
-      <c r="BR61" s="118"/>
+      <c r="BR61" s="101"/>
     </row>
     <row r="62" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="256"/>
-      <c r="B62" s="257"/>
-      <c r="C62" s="258"/>
-      <c r="D62" s="246" t="s">
+      <c r="A62" s="204"/>
+      <c r="B62" s="205"/>
+      <c r="C62" s="206"/>
+      <c r="D62" s="194" t="s">
+        <v>157</v>
+      </c>
+      <c r="E62" s="195"/>
+      <c r="F62" s="195"/>
+      <c r="G62" s="136"/>
+      <c r="H62" s="194" t="s">
         <v>158</v>
       </c>
-      <c r="E62" s="247"/>
-      <c r="F62" s="247"/>
-      <c r="G62" s="248"/>
-      <c r="H62" s="246" t="s">
-        <v>159</v>
-      </c>
-      <c r="I62" s="247"/>
-      <c r="J62" s="247"/>
-      <c r="K62" s="248"/>
-      <c r="L62" s="246" t="s">
-        <v>148</v>
-      </c>
-      <c r="M62" s="247"/>
-      <c r="N62" s="247"/>
-      <c r="O62" s="248"/>
-      <c r="P62" s="249"/>
-      <c r="Q62" s="249"/>
-      <c r="R62" s="249"/>
-      <c r="S62" s="250"/>
-      <c r="T62" s="249"/>
-      <c r="U62" s="249"/>
-      <c r="V62" s="249"/>
-      <c r="W62" s="250"/>
-      <c r="X62" s="249"/>
-      <c r="Y62" s="249"/>
-      <c r="Z62" s="249"/>
-      <c r="AA62" s="250"/>
-      <c r="AB62" s="259"/>
+      <c r="I62" s="195"/>
+      <c r="J62" s="195"/>
+      <c r="K62" s="136"/>
+      <c r="L62" s="194" t="s">
+        <v>147</v>
+      </c>
+      <c r="M62" s="195"/>
+      <c r="N62" s="195"/>
+      <c r="O62" s="136"/>
+      <c r="P62" s="137"/>
+      <c r="Q62" s="137"/>
+      <c r="R62" s="137"/>
+      <c r="S62" s="138"/>
+      <c r="T62" s="137"/>
+      <c r="U62" s="137"/>
+      <c r="V62" s="137"/>
+      <c r="W62" s="138"/>
+      <c r="X62" s="137"/>
+      <c r="Y62" s="137"/>
+      <c r="Z62" s="137"/>
+      <c r="AA62" s="138"/>
+      <c r="AB62" s="140"/>
       <c r="AC62" s="21"/>
       <c r="AD62" s="21"/>
-      <c r="AM62" s="151"/>
-      <c r="AN62" s="151"/>
-      <c r="AO62" s="151"/>
+      <c r="AM62" s="134"/>
+      <c r="AN62" s="134"/>
+      <c r="AO62" s="134"/>
       <c r="AP62" s="11"/>
       <c r="AQ62" s="11"/>
       <c r="AR62" s="11"/>
@@ -9230,16 +9227,16 @@
       <c r="AX62" s="11"/>
       <c r="AY62" s="11"/>
       <c r="AZ62" s="11"/>
-      <c r="BC62" s="154" t="s">
-        <v>71</v>
-      </c>
-      <c r="BD62" s="155"/>
-      <c r="BE62" s="155"/>
-      <c r="BF62" s="156"/>
-      <c r="BG62" s="157"/>
-      <c r="BH62" s="157"/>
-      <c r="BI62" s="157"/>
-      <c r="BJ62" s="157"/>
+      <c r="BC62" s="197" t="s">
+        <v>70</v>
+      </c>
+      <c r="BD62" s="198"/>
+      <c r="BE62" s="198"/>
+      <c r="BF62" s="199"/>
+      <c r="BG62" s="187"/>
+      <c r="BH62" s="187"/>
+      <c r="BI62" s="187"/>
+      <c r="BJ62" s="187"/>
       <c r="BK62" s="13"/>
       <c r="BL62" s="13"/>
       <c r="BM62" s="13"/>
@@ -9247,55 +9244,55 @@
       <c r="BO62" s="13"/>
       <c r="BP62" s="13"/>
       <c r="BQ62" s="13"/>
-      <c r="BR62" s="118"/>
+      <c r="BR62" s="101"/>
     </row>
     <row r="63" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="260" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="261"/>
-      <c r="C63" s="262"/>
-      <c r="D63" s="246" t="s">
+      <c r="A63" s="217" t="s">
+        <v>71</v>
+      </c>
+      <c r="B63" s="218"/>
+      <c r="C63" s="219"/>
+      <c r="D63" s="194" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63" s="195"/>
+      <c r="F63" s="195"/>
+      <c r="G63" s="136"/>
+      <c r="H63" s="194" t="s">
         <v>160</v>
       </c>
-      <c r="E63" s="247"/>
-      <c r="F63" s="247"/>
-      <c r="G63" s="248"/>
-      <c r="H63" s="246" t="s">
+      <c r="I63" s="195"/>
+      <c r="J63" s="195"/>
+      <c r="K63" s="136"/>
+      <c r="L63" s="194" t="s">
         <v>161</v>
       </c>
-      <c r="I63" s="247"/>
-      <c r="J63" s="247"/>
-      <c r="K63" s="248"/>
-      <c r="L63" s="246" t="s">
+      <c r="M63" s="195"/>
+      <c r="N63" s="195"/>
+      <c r="O63" s="136"/>
+      <c r="P63" s="209" t="s">
         <v>162</v>
       </c>
-      <c r="M63" s="247"/>
-      <c r="N63" s="247"/>
-      <c r="O63" s="248"/>
-      <c r="P63" s="263" t="s">
+      <c r="Q63" s="209"/>
+      <c r="R63" s="209"/>
+      <c r="S63" s="141"/>
+      <c r="T63" s="209" t="s">
         <v>163</v>
       </c>
-      <c r="Q63" s="263"/>
-      <c r="R63" s="263"/>
-      <c r="S63" s="264"/>
-      <c r="T63" s="263" t="s">
-        <v>164</v>
-      </c>
-      <c r="U63" s="263"/>
-      <c r="V63" s="263"/>
-      <c r="W63" s="265"/>
-      <c r="X63" s="266"/>
-      <c r="Y63" s="249"/>
-      <c r="Z63" s="249"/>
-      <c r="AA63" s="250"/>
-      <c r="AB63" s="259"/>
+      <c r="U63" s="209"/>
+      <c r="V63" s="209"/>
+      <c r="W63" s="142"/>
+      <c r="X63" s="143"/>
+      <c r="Y63" s="137"/>
+      <c r="Z63" s="137"/>
+      <c r="AA63" s="138"/>
+      <c r="AB63" s="140"/>
       <c r="AC63" s="21"/>
       <c r="AD63" s="21"/>
-      <c r="AI63" s="207"/>
-      <c r="AJ63" s="207"/>
+      <c r="AI63" s="210"/>
+      <c r="AJ63" s="210"/>
       <c r="AK63" s="4"/>
-      <c r="BR63" s="116"/>
+      <c r="BR63" s="99"/>
     </row>
     <row r="64" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="14"/>
@@ -9367,7 +9364,7 @@
       <c r="BO64" s="18"/>
       <c r="BP64" s="18"/>
       <c r="BQ64" s="18"/>
-      <c r="BR64" s="117"/>
+      <c r="BR64" s="100"/>
     </row>
     <row r="65" spans="1:40" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="J65" s="20"/>
@@ -9400,7 +9397,7 @@
     </row>
     <row r="66" spans="1:40" ht="18" x14ac:dyDescent="0.25">
       <c r="A66" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D66" s="23"/>
       <c r="E66" s="23"/>
@@ -9409,370 +9406,580 @@
       <c r="A67" s="24">
         <v>1</v>
       </c>
-      <c r="B67" s="202" t="s">
+      <c r="B67" s="207" t="s">
+        <v>73</v>
+      </c>
+      <c r="C67" s="207"/>
+      <c r="D67" s="207"/>
+      <c r="E67" s="208" t="s">
         <v>74</v>
       </c>
-      <c r="C67" s="202"/>
-      <c r="D67" s="202"/>
-      <c r="E67" s="203" t="s">
+      <c r="F67" s="208"/>
+      <c r="G67" s="208"/>
+      <c r="H67" s="208"/>
+      <c r="I67" s="208"/>
+      <c r="J67" s="208"/>
+      <c r="K67" s="208"/>
+      <c r="N67" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="F67" s="203"/>
-      <c r="G67" s="203"/>
-      <c r="H67" s="203"/>
-      <c r="I67" s="203"/>
-      <c r="J67" s="203"/>
-      <c r="K67" s="203"/>
-      <c r="N67" s="24" t="s">
+      <c r="O67" s="211" t="s">
         <v>76</v>
       </c>
-      <c r="O67" s="204" t="s">
+      <c r="P67" s="212"/>
+      <c r="Q67" s="213"/>
+      <c r="R67" s="208" t="s">
         <v>77</v>
       </c>
-      <c r="P67" s="205"/>
-      <c r="Q67" s="206"/>
-      <c r="R67" s="203" t="s">
+      <c r="S67" s="208"/>
+      <c r="T67" s="208"/>
+      <c r="U67" s="208"/>
+      <c r="V67" s="208"/>
+      <c r="W67" s="208"/>
+      <c r="X67" s="208"/>
+      <c r="AA67" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="S67" s="203"/>
-      <c r="T67" s="203"/>
-      <c r="U67" s="203"/>
-      <c r="V67" s="203"/>
-      <c r="W67" s="203"/>
-      <c r="X67" s="203"/>
-      <c r="AA67" s="24" t="s">
+      <c r="AB67" s="214" t="s">
         <v>79</v>
       </c>
-      <c r="AB67" s="208" t="s">
-        <v>80</v>
-      </c>
-      <c r="AC67" s="209"/>
-      <c r="AD67" s="209"/>
-      <c r="AE67" s="209"/>
-      <c r="AF67" s="209"/>
-      <c r="AG67" s="209"/>
-      <c r="AH67" s="209"/>
-      <c r="AI67" s="209"/>
-      <c r="AJ67" s="209"/>
-      <c r="AK67" s="209"/>
-      <c r="AL67" s="209"/>
-      <c r="AM67" s="210"/>
+      <c r="AC67" s="215"/>
+      <c r="AD67" s="215"/>
+      <c r="AE67" s="215"/>
+      <c r="AF67" s="215"/>
+      <c r="AG67" s="215"/>
+      <c r="AH67" s="215"/>
+      <c r="AI67" s="215"/>
+      <c r="AJ67" s="215"/>
+      <c r="AK67" s="215"/>
+      <c r="AL67" s="215"/>
+      <c r="AM67" s="216"/>
     </row>
     <row r="68" spans="1:40" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
         <v>2</v>
       </c>
-      <c r="B68" s="202" t="s">
+      <c r="B68" s="207" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="207"/>
+      <c r="D68" s="207"/>
+      <c r="E68" s="208" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="202"/>
-      <c r="D68" s="202"/>
-      <c r="E68" s="203" t="s">
+      <c r="F68" s="208"/>
+      <c r="G68" s="208"/>
+      <c r="H68" s="208"/>
+      <c r="I68" s="208"/>
+      <c r="J68" s="208"/>
+      <c r="K68" s="208"/>
+      <c r="N68" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="F68" s="203"/>
-      <c r="G68" s="203"/>
-      <c r="H68" s="203"/>
-      <c r="I68" s="203"/>
-      <c r="J68" s="203"/>
-      <c r="K68" s="203"/>
-      <c r="N68" s="24" t="s">
+      <c r="O68" s="211" t="s">
         <v>83</v>
       </c>
-      <c r="O68" s="204" t="s">
+      <c r="P68" s="212"/>
+      <c r="Q68" s="213"/>
+      <c r="R68" s="208" t="s">
         <v>84</v>
       </c>
-      <c r="P68" s="205"/>
-      <c r="Q68" s="206"/>
-      <c r="R68" s="203" t="s">
+      <c r="S68" s="208"/>
+      <c r="T68" s="208"/>
+      <c r="U68" s="208"/>
+      <c r="V68" s="208"/>
+      <c r="W68" s="208"/>
+      <c r="X68" s="208"/>
+      <c r="AA68" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="S68" s="203"/>
-      <c r="T68" s="203"/>
-      <c r="U68" s="203"/>
-      <c r="V68" s="203"/>
-      <c r="W68" s="203"/>
-      <c r="X68" s="203"/>
-      <c r="AA68" s="24" t="s">
+      <c r="AB68" s="207" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC68" s="207"/>
+      <c r="AD68" s="207"/>
+      <c r="AE68" s="208" t="s">
         <v>86</v>
       </c>
-      <c r="AB68" s="202" t="s">
-        <v>84</v>
-      </c>
-      <c r="AC68" s="202"/>
-      <c r="AD68" s="202"/>
-      <c r="AE68" s="203" t="s">
-        <v>87</v>
-      </c>
-      <c r="AF68" s="203"/>
-      <c r="AG68" s="203"/>
-      <c r="AH68" s="203"/>
-      <c r="AI68" s="203"/>
-      <c r="AJ68" s="203"/>
-      <c r="AK68" s="203"/>
-      <c r="AL68" s="203"/>
-      <c r="AM68" s="203"/>
+      <c r="AF68" s="208"/>
+      <c r="AG68" s="208"/>
+      <c r="AH68" s="208"/>
+      <c r="AI68" s="208"/>
+      <c r="AJ68" s="208"/>
+      <c r="AK68" s="208"/>
+      <c r="AL68" s="208"/>
+      <c r="AM68" s="208"/>
     </row>
     <row r="69" spans="1:40" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="24">
         <v>3</v>
       </c>
-      <c r="B69" s="202" t="s">
+      <c r="B69" s="207" t="s">
+        <v>87</v>
+      </c>
+      <c r="C69" s="207"/>
+      <c r="D69" s="207"/>
+      <c r="E69" s="208" t="s">
         <v>88</v>
       </c>
-      <c r="C69" s="202"/>
-      <c r="D69" s="202"/>
-      <c r="E69" s="203" t="s">
+      <c r="F69" s="208"/>
+      <c r="G69" s="208"/>
+      <c r="H69" s="208"/>
+      <c r="I69" s="208"/>
+      <c r="J69" s="208"/>
+      <c r="K69" s="208"/>
+      <c r="N69" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="F69" s="203"/>
-      <c r="G69" s="203"/>
-      <c r="H69" s="203"/>
-      <c r="I69" s="203"/>
-      <c r="J69" s="203"/>
-      <c r="K69" s="203"/>
-      <c r="N69" s="24" t="s">
+      <c r="O69" s="211" t="s">
         <v>90</v>
       </c>
-      <c r="O69" s="204" t="s">
+      <c r="P69" s="212"/>
+      <c r="Q69" s="213"/>
+      <c r="R69" s="208" t="s">
         <v>91</v>
       </c>
-      <c r="P69" s="205"/>
-      <c r="Q69" s="206"/>
-      <c r="R69" s="203" t="s">
+      <c r="S69" s="208"/>
+      <c r="T69" s="208"/>
+      <c r="U69" s="208"/>
+      <c r="V69" s="208"/>
+      <c r="W69" s="208"/>
+      <c r="X69" s="208"/>
+      <c r="AA69" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="S69" s="203"/>
-      <c r="T69" s="203"/>
-      <c r="U69" s="203"/>
-      <c r="V69" s="203"/>
-      <c r="W69" s="203"/>
-      <c r="X69" s="203"/>
-      <c r="AA69" s="24" t="s">
+      <c r="AB69" s="207" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC69" s="207"/>
+      <c r="AD69" s="207"/>
+      <c r="AE69" s="208" t="s">
         <v>93</v>
       </c>
-      <c r="AB69" s="202" t="s">
-        <v>91</v>
-      </c>
-      <c r="AC69" s="202"/>
-      <c r="AD69" s="202"/>
-      <c r="AE69" s="203" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF69" s="203"/>
-      <c r="AG69" s="203"/>
-      <c r="AH69" s="203"/>
-      <c r="AI69" s="203"/>
-      <c r="AJ69" s="203"/>
-      <c r="AK69" s="203"/>
-      <c r="AL69" s="203"/>
-      <c r="AM69" s="203"/>
+      <c r="AF69" s="208"/>
+      <c r="AG69" s="208"/>
+      <c r="AH69" s="208"/>
+      <c r="AI69" s="208"/>
+      <c r="AJ69" s="208"/>
+      <c r="AK69" s="208"/>
+      <c r="AL69" s="208"/>
+      <c r="AM69" s="208"/>
       <c r="AN69" s="26"/>
     </row>
     <row r="70" spans="1:40" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="24">
         <v>4</v>
       </c>
-      <c r="B70" s="202" t="s">
+      <c r="B70" s="207" t="s">
+        <v>94</v>
+      </c>
+      <c r="C70" s="207"/>
+      <c r="D70" s="207"/>
+      <c r="E70" s="208" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="202"/>
-      <c r="D70" s="202"/>
-      <c r="E70" s="203" t="s">
+      <c r="F70" s="208"/>
+      <c r="G70" s="208"/>
+      <c r="H70" s="208"/>
+      <c r="I70" s="208"/>
+      <c r="J70" s="208"/>
+      <c r="K70" s="208"/>
+      <c r="N70" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="F70" s="203"/>
-      <c r="G70" s="203"/>
-      <c r="H70" s="203"/>
-      <c r="I70" s="203"/>
-      <c r="J70" s="203"/>
-      <c r="K70" s="203"/>
-      <c r="N70" s="24" t="s">
+      <c r="O70" s="211" t="s">
         <v>97</v>
       </c>
-      <c r="O70" s="204" t="s">
+      <c r="P70" s="212"/>
+      <c r="Q70" s="213"/>
+      <c r="R70" s="208" t="s">
         <v>98</v>
       </c>
-      <c r="P70" s="205"/>
-      <c r="Q70" s="206"/>
-      <c r="R70" s="203" t="s">
+      <c r="S70" s="208"/>
+      <c r="T70" s="208"/>
+      <c r="U70" s="208"/>
+      <c r="V70" s="208"/>
+      <c r="W70" s="208"/>
+      <c r="X70" s="208"/>
+      <c r="AA70" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="S70" s="203"/>
-      <c r="T70" s="203"/>
-      <c r="U70" s="203"/>
-      <c r="V70" s="203"/>
-      <c r="W70" s="203"/>
-      <c r="X70" s="203"/>
-      <c r="AA70" s="24" t="s">
+      <c r="AB70" s="207" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC70" s="207"/>
+      <c r="AD70" s="207"/>
+      <c r="AE70" s="208" t="s">
         <v>100</v>
       </c>
-      <c r="AB70" s="202" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC70" s="202"/>
-      <c r="AD70" s="202"/>
-      <c r="AE70" s="203" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF70" s="203"/>
-      <c r="AG70" s="203"/>
-      <c r="AH70" s="203"/>
-      <c r="AI70" s="203"/>
-      <c r="AJ70" s="203"/>
-      <c r="AK70" s="203"/>
-      <c r="AL70" s="203"/>
-      <c r="AM70" s="203"/>
+      <c r="AF70" s="208"/>
+      <c r="AG70" s="208"/>
+      <c r="AH70" s="208"/>
+      <c r="AI70" s="208"/>
+      <c r="AJ70" s="208"/>
+      <c r="AK70" s="208"/>
+      <c r="AL70" s="208"/>
+      <c r="AM70" s="208"/>
       <c r="AN70" s="26"/>
     </row>
     <row r="71" spans="1:40" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="24">
         <v>5</v>
       </c>
-      <c r="B71" s="202" t="s">
+      <c r="B71" s="207" t="s">
+        <v>101</v>
+      </c>
+      <c r="C71" s="207"/>
+      <c r="D71" s="207"/>
+      <c r="E71" s="208" t="s">
         <v>102</v>
       </c>
-      <c r="C71" s="202"/>
-      <c r="D71" s="202"/>
-      <c r="E71" s="203" t="s">
+      <c r="F71" s="208"/>
+      <c r="G71" s="208"/>
+      <c r="H71" s="208"/>
+      <c r="I71" s="208"/>
+      <c r="J71" s="208"/>
+      <c r="K71" s="208"/>
+      <c r="N71" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="F71" s="203"/>
-      <c r="G71" s="203"/>
-      <c r="H71" s="203"/>
-      <c r="I71" s="203"/>
-      <c r="J71" s="203"/>
-      <c r="K71" s="203"/>
-      <c r="N71" s="24" t="s">
+      <c r="O71" s="211" t="s">
         <v>104</v>
       </c>
-      <c r="O71" s="204" t="s">
+      <c r="P71" s="212"/>
+      <c r="Q71" s="213"/>
+      <c r="R71" s="208" t="s">
         <v>105</v>
       </c>
-      <c r="P71" s="205"/>
-      <c r="Q71" s="206"/>
-      <c r="R71" s="203" t="s">
+      <c r="S71" s="208"/>
+      <c r="T71" s="208"/>
+      <c r="U71" s="208"/>
+      <c r="V71" s="208"/>
+      <c r="W71" s="208"/>
+      <c r="X71" s="208"/>
+      <c r="AA71" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="S71" s="203"/>
-      <c r="T71" s="203"/>
-      <c r="U71" s="203"/>
-      <c r="V71" s="203"/>
-      <c r="W71" s="203"/>
-      <c r="X71" s="203"/>
-      <c r="AA71" s="24" t="s">
+      <c r="AB71" s="207" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC71" s="207"/>
+      <c r="AD71" s="207"/>
+      <c r="AE71" s="208" t="s">
         <v>107</v>
       </c>
-      <c r="AB71" s="202" t="s">
-        <v>105</v>
-      </c>
-      <c r="AC71" s="202"/>
-      <c r="AD71" s="202"/>
-      <c r="AE71" s="203" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF71" s="203"/>
-      <c r="AG71" s="203"/>
-      <c r="AH71" s="203"/>
-      <c r="AI71" s="203"/>
-      <c r="AJ71" s="203"/>
-      <c r="AK71" s="203"/>
-      <c r="AL71" s="203"/>
-      <c r="AM71" s="203"/>
+      <c r="AF71" s="208"/>
+      <c r="AG71" s="208"/>
+      <c r="AH71" s="208"/>
+      <c r="AI71" s="208"/>
+      <c r="AJ71" s="208"/>
+      <c r="AK71" s="208"/>
+      <c r="AL71" s="208"/>
+      <c r="AM71" s="208"/>
       <c r="AN71" s="26"/>
     </row>
     <row r="72" spans="1:40" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="24">
         <v>6</v>
       </c>
-      <c r="B72" s="202" t="s">
+      <c r="B72" s="207" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" s="207"/>
+      <c r="D72" s="207"/>
+      <c r="E72" s="208" t="s">
         <v>109</v>
       </c>
-      <c r="C72" s="202"/>
-      <c r="D72" s="202"/>
-      <c r="E72" s="203" t="s">
+      <c r="F72" s="208"/>
+      <c r="G72" s="208"/>
+      <c r="H72" s="208"/>
+      <c r="I72" s="208"/>
+      <c r="J72" s="208"/>
+      <c r="K72" s="208"/>
+      <c r="N72" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="F72" s="203"/>
-      <c r="G72" s="203"/>
-      <c r="H72" s="203"/>
-      <c r="I72" s="203"/>
-      <c r="J72" s="203"/>
-      <c r="K72" s="203"/>
-      <c r="N72" s="24" t="s">
+      <c r="O72" s="211" t="s">
         <v>111</v>
       </c>
-      <c r="O72" s="204" t="s">
+      <c r="P72" s="212"/>
+      <c r="Q72" s="213"/>
+      <c r="R72" s="208" t="s">
         <v>112</v>
       </c>
-      <c r="P72" s="205"/>
-      <c r="Q72" s="206"/>
-      <c r="R72" s="203" t="s">
+      <c r="S72" s="208"/>
+      <c r="T72" s="208"/>
+      <c r="U72" s="208"/>
+      <c r="V72" s="208"/>
+      <c r="W72" s="208"/>
+      <c r="X72" s="208"/>
+      <c r="AA72" s="24"/>
+      <c r="AB72" s="207" t="s">
         <v>113</v>
       </c>
-      <c r="S72" s="203"/>
-      <c r="T72" s="203"/>
-      <c r="U72" s="203"/>
-      <c r="V72" s="203"/>
-      <c r="W72" s="203"/>
-      <c r="X72" s="203"/>
-      <c r="AA72" s="24"/>
-      <c r="AB72" s="202" t="s">
+      <c r="AC72" s="207"/>
+      <c r="AD72" s="207"/>
+      <c r="AE72" s="208" t="s">
         <v>114</v>
       </c>
-      <c r="AC72" s="202"/>
-      <c r="AD72" s="202"/>
-      <c r="AE72" s="203" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF72" s="203"/>
-      <c r="AG72" s="203"/>
-      <c r="AH72" s="203"/>
-      <c r="AI72" s="203"/>
-      <c r="AJ72" s="203"/>
-      <c r="AK72" s="203"/>
-      <c r="AL72" s="203"/>
-      <c r="AM72" s="203"/>
+      <c r="AF72" s="208"/>
+      <c r="AG72" s="208"/>
+      <c r="AH72" s="208"/>
+      <c r="AI72" s="208"/>
+      <c r="AJ72" s="208"/>
+      <c r="AK72" s="208"/>
+      <c r="AL72" s="208"/>
+      <c r="AM72" s="208"/>
     </row>
     <row r="73" spans="1:40" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="24">
         <v>7</v>
       </c>
-      <c r="B73" s="202" t="s">
+      <c r="B73" s="207" t="s">
+        <v>115</v>
+      </c>
+      <c r="C73" s="207"/>
+      <c r="D73" s="207"/>
+      <c r="E73" s="208" t="s">
         <v>116</v>
       </c>
-      <c r="C73" s="202"/>
-      <c r="D73" s="202"/>
-      <c r="E73" s="203" t="s">
-        <v>117</v>
-      </c>
-      <c r="F73" s="203"/>
-      <c r="G73" s="203"/>
-      <c r="H73" s="203"/>
-      <c r="I73" s="203"/>
-      <c r="J73" s="203"/>
-      <c r="K73" s="203"/>
+      <c r="F73" s="208"/>
+      <c r="G73" s="208"/>
+      <c r="H73" s="208"/>
+      <c r="I73" s="208"/>
+      <c r="J73" s="208"/>
+      <c r="K73" s="208"/>
     </row>
     <row r="74" spans="1:40" ht="16.5" x14ac:dyDescent="0.25">
       <c r="N74" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="273">
-    <mergeCell ref="BP6:BP7"/>
-    <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="BR6:BR7"/>
-    <mergeCell ref="BL6:BL7"/>
-    <mergeCell ref="AM10:BR11"/>
-    <mergeCell ref="AM14:BR15"/>
-    <mergeCell ref="AM18:BR19"/>
-    <mergeCell ref="AM22:BR23"/>
-    <mergeCell ref="BQ6:BQ7"/>
-    <mergeCell ref="BD6:BD7"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BK6:BK7"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="BO12:BO13"/>
+    <mergeCell ref="AP61:AS61"/>
+    <mergeCell ref="BC61:BF61"/>
+    <mergeCell ref="BG61:BJ61"/>
+    <mergeCell ref="BC62:BF62"/>
+    <mergeCell ref="BG62:BJ62"/>
+    <mergeCell ref="BP28:BP29"/>
+    <mergeCell ref="BP32:BP33"/>
+    <mergeCell ref="BP36:BP37"/>
+    <mergeCell ref="BP40:BP41"/>
+    <mergeCell ref="BP44:BP45"/>
+    <mergeCell ref="BP48:BP49"/>
+    <mergeCell ref="BP52:BP53"/>
+    <mergeCell ref="AP58:AS58"/>
+    <mergeCell ref="AU58:AW58"/>
+    <mergeCell ref="AX58:BA58"/>
+    <mergeCell ref="BC58:BF58"/>
+    <mergeCell ref="BG58:BJ58"/>
+    <mergeCell ref="AM54:BR55"/>
+    <mergeCell ref="BL48:BL49"/>
+    <mergeCell ref="BL52:BL53"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="BR40:BR41"/>
+    <mergeCell ref="BR44:BR45"/>
+    <mergeCell ref="BL32:BL33"/>
+    <mergeCell ref="BL36:BL37"/>
+    <mergeCell ref="BL40:BL41"/>
+    <mergeCell ref="BL44:BL45"/>
+    <mergeCell ref="BO16:BO17"/>
+    <mergeCell ref="BO20:BO21"/>
+    <mergeCell ref="BO24:BO25"/>
+    <mergeCell ref="BO28:BO29"/>
+    <mergeCell ref="BO32:BO33"/>
+    <mergeCell ref="BO36:BO37"/>
+    <mergeCell ref="BO40:BO41"/>
+    <mergeCell ref="BO44:BO45"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AZ5:BA5"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="BP24:BP25"/>
+    <mergeCell ref="BR48:BR49"/>
+    <mergeCell ref="BR52:BR53"/>
+    <mergeCell ref="BP12:BP13"/>
+    <mergeCell ref="BP16:BP17"/>
+    <mergeCell ref="BR12:BR13"/>
+    <mergeCell ref="BR16:BR17"/>
+    <mergeCell ref="BR20:BR21"/>
+    <mergeCell ref="BR24:BR25"/>
+    <mergeCell ref="BR28:BR29"/>
+    <mergeCell ref="BR32:BR33"/>
+    <mergeCell ref="BR36:BR37"/>
+    <mergeCell ref="AM26:BR27"/>
+    <mergeCell ref="AM30:BR31"/>
+    <mergeCell ref="AM34:BR35"/>
+    <mergeCell ref="AM38:BR39"/>
+    <mergeCell ref="AM42:BR43"/>
+    <mergeCell ref="AM46:BR47"/>
+    <mergeCell ref="AM50:BR51"/>
+    <mergeCell ref="BO52:BO53"/>
+    <mergeCell ref="BL12:BL13"/>
+    <mergeCell ref="BL16:BL17"/>
+    <mergeCell ref="BL20:BL21"/>
+    <mergeCell ref="BO48:BO49"/>
+    <mergeCell ref="BL24:BL25"/>
+    <mergeCell ref="BL28:BL29"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP2:AZ2"/>
+    <mergeCell ref="AP3:AZ3"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="BD3:BI3"/>
+    <mergeCell ref="BM2:BR2"/>
+    <mergeCell ref="BM3:BR3"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BB5:BC5"/>
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BM6:BM7"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="B5:H5"/>
+    <mergeCell ref="I5:O5"/>
+    <mergeCell ref="P5:V5"/>
+    <mergeCell ref="W5:AC5"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="R6:R7"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="O6:O7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="Z6:Z7"/>
+    <mergeCell ref="AA6:AA7"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:U7"/>
+    <mergeCell ref="W6:W7"/>
+    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:K73"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:K72"/>
+    <mergeCell ref="O72:Q72"/>
+    <mergeCell ref="R72:X72"/>
+    <mergeCell ref="AB72:AD72"/>
+    <mergeCell ref="AE72:AM72"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:K71"/>
+    <mergeCell ref="O71:Q71"/>
+    <mergeCell ref="R71:X71"/>
+    <mergeCell ref="AB71:AD71"/>
+    <mergeCell ref="AE71:AM71"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="E70:K70"/>
+    <mergeCell ref="O70:Q70"/>
+    <mergeCell ref="R70:X70"/>
+    <mergeCell ref="AB70:AD70"/>
+    <mergeCell ref="AE70:AM70"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:K69"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="R69:X69"/>
+    <mergeCell ref="AB69:AD69"/>
+    <mergeCell ref="AE69:AM69"/>
+    <mergeCell ref="A61:C62"/>
+    <mergeCell ref="AB68:AD68"/>
+    <mergeCell ref="AE68:AM68"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="AI63:AJ63"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="E67:K67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="R67:X67"/>
+    <mergeCell ref="AB67:AM67"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:K68"/>
+    <mergeCell ref="O68:Q68"/>
+    <mergeCell ref="R68:X68"/>
+    <mergeCell ref="AM61:AO61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="T60:V60"/>
+    <mergeCell ref="X60:Z60"/>
+    <mergeCell ref="AM60:AO60"/>
+    <mergeCell ref="AP59:AS59"/>
+    <mergeCell ref="BC59:BF59"/>
+    <mergeCell ref="BG59:BJ59"/>
+    <mergeCell ref="AP60:AS60"/>
+    <mergeCell ref="BC60:BF60"/>
+    <mergeCell ref="BG60:BJ60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="AB59:AD59"/>
+    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="AM58:AO58"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="AJ56:AL56"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="X59:Z59"/>
+    <mergeCell ref="AM59:AO59"/>
+    <mergeCell ref="A59:C60"/>
     <mergeCell ref="A1:AL1"/>
     <mergeCell ref="AM1:BR1"/>
     <mergeCell ref="AN4:AP4"/>
@@ -9797,240 +10004,30 @@
     <mergeCell ref="B4:AL4"/>
     <mergeCell ref="AD5:AJ5"/>
     <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM58:AO58"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="AJ56:AL56"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="X59:Z59"/>
-    <mergeCell ref="AM59:AO59"/>
-    <mergeCell ref="AP59:AS59"/>
-    <mergeCell ref="BC59:BF59"/>
-    <mergeCell ref="BG59:BJ59"/>
-    <mergeCell ref="AP60:AS60"/>
-    <mergeCell ref="BC60:BF60"/>
-    <mergeCell ref="BG60:BJ60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="AB59:AD59"/>
-    <mergeCell ref="AB60:AD60"/>
-    <mergeCell ref="AM61:AO61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="T60:V60"/>
-    <mergeCell ref="X60:Z60"/>
-    <mergeCell ref="AM60:AO60"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="AB68:AD68"/>
-    <mergeCell ref="AE68:AM68"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="AI63:AJ63"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="E67:K67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="R67:X67"/>
-    <mergeCell ref="AB67:AM67"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="E68:K68"/>
-    <mergeCell ref="O68:Q68"/>
-    <mergeCell ref="R68:X68"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="E70:K70"/>
-    <mergeCell ref="O70:Q70"/>
-    <mergeCell ref="R70:X70"/>
-    <mergeCell ref="AB70:AD70"/>
-    <mergeCell ref="AE70:AM70"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="E69:K69"/>
-    <mergeCell ref="O69:Q69"/>
-    <mergeCell ref="R69:X69"/>
-    <mergeCell ref="AB69:AD69"/>
-    <mergeCell ref="AE69:AM69"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:K73"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:K72"/>
-    <mergeCell ref="O72:Q72"/>
-    <mergeCell ref="R72:X72"/>
-    <mergeCell ref="AB72:AD72"/>
-    <mergeCell ref="AE72:AM72"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="E71:K71"/>
-    <mergeCell ref="O71:Q71"/>
-    <mergeCell ref="R71:X71"/>
-    <mergeCell ref="AB71:AD71"/>
-    <mergeCell ref="AE71:AM71"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B5:H5"/>
-    <mergeCell ref="I5:O5"/>
-    <mergeCell ref="P5:V5"/>
-    <mergeCell ref="W5:AC5"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="R6:R7"/>
-    <mergeCell ref="S6:S7"/>
-    <mergeCell ref="O6:O7"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="Z6:Z7"/>
-    <mergeCell ref="AA6:AA7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="P6:P7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:U7"/>
-    <mergeCell ref="W6:W7"/>
-    <mergeCell ref="X6:X7"/>
+    <mergeCell ref="BP6:BP7"/>
+    <mergeCell ref="AP6:AP7"/>
+    <mergeCell ref="BR6:BR7"/>
+    <mergeCell ref="BL6:BL7"/>
+    <mergeCell ref="AM10:BR11"/>
+    <mergeCell ref="AM14:BR15"/>
+    <mergeCell ref="AM18:BR19"/>
+    <mergeCell ref="AM22:BR23"/>
+    <mergeCell ref="BQ6:BQ7"/>
+    <mergeCell ref="BD6:BD7"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BK6:BK7"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BO12:BO13"/>
     <mergeCell ref="BN6:BN7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
     <mergeCell ref="AQ6:AQ7"/>
     <mergeCell ref="AM6:AM7"/>
     <mergeCell ref="AN6:AN7"/>
     <mergeCell ref="AO6:AO7"/>
     <mergeCell ref="AR6:AS6"/>
     <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="BL24:BL25"/>
-    <mergeCell ref="BL28:BL29"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP2:AZ2"/>
-    <mergeCell ref="AP3:AZ3"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="BD3:BI3"/>
-    <mergeCell ref="BM2:BR2"/>
-    <mergeCell ref="BM3:BR3"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BP8:BP9"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BB5:BC5"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BM6:BM7"/>
     <mergeCell ref="BP20:BP21"/>
-    <mergeCell ref="BP24:BP25"/>
-    <mergeCell ref="BR48:BR49"/>
-    <mergeCell ref="BR52:BR53"/>
-    <mergeCell ref="BP12:BP13"/>
-    <mergeCell ref="BP16:BP17"/>
-    <mergeCell ref="BR12:BR13"/>
-    <mergeCell ref="BR16:BR17"/>
-    <mergeCell ref="BR20:BR21"/>
-    <mergeCell ref="BR24:BR25"/>
-    <mergeCell ref="BR28:BR29"/>
-    <mergeCell ref="BR32:BR33"/>
-    <mergeCell ref="BR36:BR37"/>
-    <mergeCell ref="AM26:BR27"/>
-    <mergeCell ref="AM30:BR31"/>
-    <mergeCell ref="AM34:BR35"/>
-    <mergeCell ref="AM38:BR39"/>
-    <mergeCell ref="AM42:BR43"/>
-    <mergeCell ref="AM46:BR47"/>
-    <mergeCell ref="AM50:BR51"/>
-    <mergeCell ref="BO52:BO53"/>
-    <mergeCell ref="BL12:BL13"/>
-    <mergeCell ref="BL16:BL17"/>
-    <mergeCell ref="BL20:BL21"/>
     <mergeCell ref="BO6:BO7"/>
-    <mergeCell ref="BO48:BO49"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="BR40:BR41"/>
-    <mergeCell ref="BR44:BR45"/>
-    <mergeCell ref="BL32:BL33"/>
-    <mergeCell ref="BL36:BL37"/>
-    <mergeCell ref="BL40:BL41"/>
-    <mergeCell ref="BL44:BL45"/>
-    <mergeCell ref="BO16:BO17"/>
-    <mergeCell ref="BO20:BO21"/>
-    <mergeCell ref="BO24:BO25"/>
-    <mergeCell ref="BO28:BO29"/>
-    <mergeCell ref="BO32:BO33"/>
-    <mergeCell ref="BO36:BO37"/>
-    <mergeCell ref="BO40:BO41"/>
-    <mergeCell ref="BO44:BO45"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AZ5:BA5"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="AP61:AS61"/>
-    <mergeCell ref="BC61:BF61"/>
-    <mergeCell ref="BG61:BJ61"/>
-    <mergeCell ref="BC62:BF62"/>
-    <mergeCell ref="BG62:BJ62"/>
-    <mergeCell ref="BP28:BP29"/>
-    <mergeCell ref="BP32:BP33"/>
-    <mergeCell ref="BP36:BP37"/>
-    <mergeCell ref="BP40:BP41"/>
-    <mergeCell ref="BP44:BP45"/>
-    <mergeCell ref="BP48:BP49"/>
-    <mergeCell ref="BP52:BP53"/>
-    <mergeCell ref="AP58:AS58"/>
-    <mergeCell ref="AU58:AW58"/>
-    <mergeCell ref="AX58:BA58"/>
-    <mergeCell ref="BC58:BF58"/>
-    <mergeCell ref="BG58:BJ58"/>
-    <mergeCell ref="AM54:BR55"/>
-    <mergeCell ref="BL48:BL49"/>
-    <mergeCell ref="BL52:BL53"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Python/ExternalData/DailyReportTemplateWithLunar_B.xlsx
+++ b/Python/ExternalData/DailyReportTemplateWithLunar_B.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_EveryThing\_code\HuachunDailyReport2024\Python\ExternalData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{556974D9-F07C-4075-9F6F-D12221482BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6890F735-BAA4-4AE3-8EE6-31D40C8F1E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5A6DB0C3-2965-4D6C-B04A-BB1132023D50}"/>
   </bookViews>
@@ -1956,7 +1956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="269">
+  <cellXfs count="271">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2367,6 +2367,312 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2391,24 +2697,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="82" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="83" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="88" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="3" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -2439,308 +2727,26 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="75" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="62" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4495,384 +4501,384 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" s="1" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="235" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="171"/>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="171"/>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="171"/>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="171"/>
-      <c r="AH1" s="171"/>
-      <c r="AI1" s="171"/>
-      <c r="AJ1" s="171"/>
-      <c r="AK1" s="171"/>
-      <c r="AL1" s="172"/>
-      <c r="AM1" s="170" t="s">
+      <c r="B1" s="236"/>
+      <c r="C1" s="236"/>
+      <c r="D1" s="236"/>
+      <c r="E1" s="236"/>
+      <c r="F1" s="236"/>
+      <c r="G1" s="236"/>
+      <c r="H1" s="236"/>
+      <c r="I1" s="236"/>
+      <c r="J1" s="236"/>
+      <c r="K1" s="236"/>
+      <c r="L1" s="236"/>
+      <c r="M1" s="236"/>
+      <c r="N1" s="236"/>
+      <c r="O1" s="236"/>
+      <c r="P1" s="236"/>
+      <c r="Q1" s="236"/>
+      <c r="R1" s="236"/>
+      <c r="S1" s="236"/>
+      <c r="T1" s="236"/>
+      <c r="U1" s="236"/>
+      <c r="V1" s="236"/>
+      <c r="W1" s="236"/>
+      <c r="X1" s="236"/>
+      <c r="Y1" s="236"/>
+      <c r="Z1" s="236"/>
+      <c r="AA1" s="236"/>
+      <c r="AB1" s="236"/>
+      <c r="AC1" s="236"/>
+      <c r="AD1" s="236"/>
+      <c r="AE1" s="236"/>
+      <c r="AF1" s="236"/>
+      <c r="AG1" s="236"/>
+      <c r="AH1" s="236"/>
+      <c r="AI1" s="236"/>
+      <c r="AJ1" s="236"/>
+      <c r="AK1" s="236"/>
+      <c r="AL1" s="237"/>
+      <c r="AM1" s="235" t="s">
         <v>125</v>
       </c>
-      <c r="AN1" s="171"/>
-      <c r="AO1" s="171"/>
-      <c r="AP1" s="171"/>
-      <c r="AQ1" s="171"/>
-      <c r="AR1" s="171"/>
-      <c r="AS1" s="171"/>
-      <c r="AT1" s="171"/>
-      <c r="AU1" s="171"/>
-      <c r="AV1" s="171"/>
-      <c r="AW1" s="171"/>
-      <c r="AX1" s="171"/>
-      <c r="AY1" s="171"/>
-      <c r="AZ1" s="171"/>
-      <c r="BA1" s="171"/>
-      <c r="BB1" s="171"/>
-      <c r="BC1" s="171"/>
-      <c r="BD1" s="171"/>
-      <c r="BE1" s="171"/>
-      <c r="BF1" s="171"/>
-      <c r="BG1" s="171"/>
-      <c r="BH1" s="171"/>
-      <c r="BI1" s="171"/>
-      <c r="BJ1" s="171"/>
-      <c r="BK1" s="171"/>
-      <c r="BL1" s="171"/>
-      <c r="BM1" s="171"/>
-      <c r="BN1" s="171"/>
-      <c r="BO1" s="171"/>
-      <c r="BP1" s="171"/>
-      <c r="BQ1" s="171"/>
-      <c r="BR1" s="172"/>
+      <c r="AN1" s="236"/>
+      <c r="AO1" s="236"/>
+      <c r="AP1" s="236"/>
+      <c r="AQ1" s="236"/>
+      <c r="AR1" s="236"/>
+      <c r="AS1" s="236"/>
+      <c r="AT1" s="236"/>
+      <c r="AU1" s="236"/>
+      <c r="AV1" s="236"/>
+      <c r="AW1" s="236"/>
+      <c r="AX1" s="236"/>
+      <c r="AY1" s="236"/>
+      <c r="AZ1" s="236"/>
+      <c r="BA1" s="236"/>
+      <c r="BB1" s="236"/>
+      <c r="BC1" s="236"/>
+      <c r="BD1" s="236"/>
+      <c r="BE1" s="236"/>
+      <c r="BF1" s="236"/>
+      <c r="BG1" s="236"/>
+      <c r="BH1" s="236"/>
+      <c r="BI1" s="236"/>
+      <c r="BJ1" s="236"/>
+      <c r="BK1" s="236"/>
+      <c r="BL1" s="236"/>
+      <c r="BM1" s="236"/>
+      <c r="BN1" s="236"/>
+      <c r="BO1" s="236"/>
+      <c r="BP1" s="236"/>
+      <c r="BQ1" s="236"/>
+      <c r="BR1" s="237"/>
     </row>
     <row r="2" spans="1:70" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="180" t="s">
+      <c r="A2" s="183" t="s">
         <v>118</v>
       </c>
-      <c r="B2" s="178"/>
-      <c r="C2" s="178"/>
-      <c r="D2" s="178"/>
-      <c r="E2" s="178"/>
-      <c r="F2" s="178"/>
-      <c r="G2" s="178"/>
-      <c r="H2" s="178"/>
-      <c r="I2" s="178"/>
-      <c r="J2" s="178"/>
-      <c r="K2" s="178"/>
-      <c r="L2" s="178"/>
-      <c r="M2" s="178"/>
-      <c r="N2" s="178"/>
-      <c r="O2" s="178"/>
-      <c r="P2" s="178"/>
-      <c r="Q2" s="178"/>
-      <c r="R2" s="178"/>
-      <c r="S2" s="178" t="s">
+      <c r="B2" s="184"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="184"/>
+      <c r="O2" s="184"/>
+      <c r="P2" s="184"/>
+      <c r="Q2" s="184"/>
+      <c r="R2" s="184"/>
+      <c r="S2" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="178"/>
-      <c r="U2" s="178"/>
-      <c r="V2" s="178"/>
-      <c r="W2" s="178"/>
-      <c r="X2" s="178"/>
-      <c r="Y2" s="178"/>
-      <c r="Z2" s="178"/>
-      <c r="AA2" s="178"/>
-      <c r="AB2" s="178"/>
-      <c r="AC2" s="178" t="s">
+      <c r="T2" s="184"/>
+      <c r="U2" s="184"/>
+      <c r="V2" s="184"/>
+      <c r="W2" s="184"/>
+      <c r="X2" s="184"/>
+      <c r="Y2" s="184"/>
+      <c r="Z2" s="184"/>
+      <c r="AA2" s="184"/>
+      <c r="AB2" s="184"/>
+      <c r="AC2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="AD2" s="178"/>
-      <c r="AE2" s="178"/>
-      <c r="AF2" s="178"/>
-      <c r="AG2" s="178"/>
-      <c r="AH2" s="178"/>
-      <c r="AI2" s="178"/>
-      <c r="AJ2" s="178"/>
-      <c r="AK2" s="178"/>
-      <c r="AL2" s="179"/>
-      <c r="AM2" s="180" t="s">
+      <c r="AD2" s="184"/>
+      <c r="AE2" s="184"/>
+      <c r="AF2" s="184"/>
+      <c r="AG2" s="184"/>
+      <c r="AH2" s="184"/>
+      <c r="AI2" s="184"/>
+      <c r="AJ2" s="184"/>
+      <c r="AK2" s="184"/>
+      <c r="AL2" s="185"/>
+      <c r="AM2" s="183" t="s">
         <v>118</v>
       </c>
-      <c r="AN2" s="178"/>
-      <c r="AO2" s="178"/>
-      <c r="AP2" s="178"/>
-      <c r="AQ2" s="178"/>
-      <c r="AR2" s="178"/>
-      <c r="AS2" s="178"/>
-      <c r="AT2" s="178"/>
-      <c r="AU2" s="178"/>
-      <c r="AV2" s="178"/>
-      <c r="AW2" s="178"/>
-      <c r="AX2" s="178"/>
-      <c r="AY2" s="178"/>
-      <c r="AZ2" s="178"/>
-      <c r="BA2" s="178" t="s">
+      <c r="AN2" s="184"/>
+      <c r="AO2" s="184"/>
+      <c r="AP2" s="184"/>
+      <c r="AQ2" s="184"/>
+      <c r="AR2" s="184"/>
+      <c r="AS2" s="184"/>
+      <c r="AT2" s="184"/>
+      <c r="AU2" s="184"/>
+      <c r="AV2" s="184"/>
+      <c r="AW2" s="184"/>
+      <c r="AX2" s="184"/>
+      <c r="AY2" s="184"/>
+      <c r="AZ2" s="184"/>
+      <c r="BA2" s="184" t="s">
         <v>0</v>
       </c>
-      <c r="BB2" s="178"/>
-      <c r="BC2" s="178"/>
-      <c r="BD2" s="178"/>
-      <c r="BE2" s="178"/>
-      <c r="BF2" s="178"/>
-      <c r="BG2" s="178"/>
-      <c r="BH2" s="178"/>
-      <c r="BI2" s="178"/>
-      <c r="BJ2" s="178" t="s">
+      <c r="BB2" s="184"/>
+      <c r="BC2" s="184"/>
+      <c r="BD2" s="184"/>
+      <c r="BE2" s="184"/>
+      <c r="BF2" s="184"/>
+      <c r="BG2" s="184"/>
+      <c r="BH2" s="184"/>
+      <c r="BI2" s="184"/>
+      <c r="BJ2" s="184" t="s">
         <v>1</v>
       </c>
-      <c r="BK2" s="178"/>
-      <c r="BL2" s="178"/>
-      <c r="BM2" s="178"/>
-      <c r="BN2" s="178"/>
-      <c r="BO2" s="178"/>
-      <c r="BP2" s="178"/>
-      <c r="BQ2" s="178"/>
-      <c r="BR2" s="179"/>
+      <c r="BK2" s="184"/>
+      <c r="BL2" s="184"/>
+      <c r="BM2" s="184"/>
+      <c r="BN2" s="184"/>
+      <c r="BO2" s="184"/>
+      <c r="BP2" s="184"/>
+      <c r="BQ2" s="184"/>
+      <c r="BR2" s="185"/>
     </row>
     <row r="3" spans="1:70" s="1" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="B3" s="178"/>
-      <c r="C3" s="178"/>
-      <c r="D3" s="178"/>
-      <c r="E3" s="178"/>
-      <c r="F3" s="178"/>
-      <c r="G3" s="178"/>
-      <c r="H3" s="178"/>
-      <c r="I3" s="178"/>
-      <c r="J3" s="178"/>
-      <c r="K3" s="178"/>
-      <c r="L3" s="178"/>
-      <c r="M3" s="178"/>
-      <c r="N3" s="178"/>
-      <c r="O3" s="178"/>
-      <c r="P3" s="178"/>
-      <c r="Q3" s="178"/>
-      <c r="R3" s="178"/>
-      <c r="S3" s="178" t="s">
+      <c r="B3" s="184"/>
+      <c r="C3" s="184"/>
+      <c r="D3" s="184"/>
+      <c r="E3" s="184"/>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="184"/>
+      <c r="O3" s="184"/>
+      <c r="P3" s="184"/>
+      <c r="Q3" s="184"/>
+      <c r="R3" s="184"/>
+      <c r="S3" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="T3" s="178"/>
-      <c r="U3" s="178"/>
-      <c r="V3" s="178"/>
-      <c r="W3" s="178"/>
-      <c r="X3" s="178"/>
-      <c r="Y3" s="178"/>
-      <c r="Z3" s="178"/>
-      <c r="AA3" s="178"/>
-      <c r="AB3" s="178"/>
-      <c r="AC3" s="178" t="s">
+      <c r="T3" s="184"/>
+      <c r="U3" s="184"/>
+      <c r="V3" s="184"/>
+      <c r="W3" s="184"/>
+      <c r="X3" s="184"/>
+      <c r="Y3" s="184"/>
+      <c r="Z3" s="184"/>
+      <c r="AA3" s="184"/>
+      <c r="AB3" s="184"/>
+      <c r="AC3" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="AD3" s="178"/>
-      <c r="AE3" s="178"/>
-      <c r="AF3" s="178"/>
-      <c r="AG3" s="178"/>
-      <c r="AH3" s="178"/>
-      <c r="AI3" s="178"/>
-      <c r="AJ3" s="178"/>
-      <c r="AK3" s="178"/>
-      <c r="AL3" s="179"/>
-      <c r="AM3" s="180" t="s">
+      <c r="AD3" s="184"/>
+      <c r="AE3" s="184"/>
+      <c r="AF3" s="184"/>
+      <c r="AG3" s="184"/>
+      <c r="AH3" s="184"/>
+      <c r="AI3" s="184"/>
+      <c r="AJ3" s="184"/>
+      <c r="AK3" s="184"/>
+      <c r="AL3" s="185"/>
+      <c r="AM3" s="183" t="s">
         <v>126</v>
       </c>
-      <c r="AN3" s="178"/>
-      <c r="AO3" s="178"/>
-      <c r="AP3" s="178"/>
-      <c r="AQ3" s="178"/>
-      <c r="AR3" s="178"/>
-      <c r="AS3" s="178"/>
-      <c r="AT3" s="178"/>
-      <c r="AU3" s="178"/>
-      <c r="AV3" s="178"/>
-      <c r="AW3" s="178"/>
-      <c r="AX3" s="178"/>
-      <c r="AY3" s="178"/>
-      <c r="AZ3" s="178"/>
-      <c r="BA3" s="178" t="s">
+      <c r="AN3" s="184"/>
+      <c r="AO3" s="184"/>
+      <c r="AP3" s="184"/>
+      <c r="AQ3" s="184"/>
+      <c r="AR3" s="184"/>
+      <c r="AS3" s="184"/>
+      <c r="AT3" s="184"/>
+      <c r="AU3" s="184"/>
+      <c r="AV3" s="184"/>
+      <c r="AW3" s="184"/>
+      <c r="AX3" s="184"/>
+      <c r="AY3" s="184"/>
+      <c r="AZ3" s="184"/>
+      <c r="BA3" s="184" t="s">
         <v>2</v>
       </c>
-      <c r="BB3" s="178"/>
-      <c r="BC3" s="178"/>
-      <c r="BD3" s="178"/>
-      <c r="BE3" s="178"/>
-      <c r="BF3" s="178"/>
-      <c r="BG3" s="178"/>
-      <c r="BH3" s="178"/>
-      <c r="BI3" s="178"/>
-      <c r="BJ3" s="178" t="s">
+      <c r="BB3" s="184"/>
+      <c r="BC3" s="184"/>
+      <c r="BD3" s="184"/>
+      <c r="BE3" s="184"/>
+      <c r="BF3" s="184"/>
+      <c r="BG3" s="184"/>
+      <c r="BH3" s="184"/>
+      <c r="BI3" s="184"/>
+      <c r="BJ3" s="184" t="s">
         <v>3</v>
       </c>
-      <c r="BK3" s="178"/>
-      <c r="BL3" s="178"/>
-      <c r="BM3" s="178"/>
-      <c r="BN3" s="178"/>
-      <c r="BO3" s="178"/>
-      <c r="BP3" s="178"/>
-      <c r="BQ3" s="178"/>
-      <c r="BR3" s="179"/>
+      <c r="BK3" s="184"/>
+      <c r="BL3" s="184"/>
+      <c r="BM3" s="184"/>
+      <c r="BN3" s="184"/>
+      <c r="BO3" s="184"/>
+      <c r="BP3" s="184"/>
+      <c r="BQ3" s="184"/>
+      <c r="BR3" s="185"/>
     </row>
     <row r="4" spans="1:70" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="181"/>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="185"/>
-      <c r="H4" s="185"/>
-      <c r="I4" s="185"/>
-      <c r="J4" s="185"/>
-      <c r="K4" s="185"/>
-      <c r="L4" s="185"/>
-      <c r="M4" s="185"/>
-      <c r="N4" s="185"/>
-      <c r="O4" s="185"/>
-      <c r="P4" s="185"/>
-      <c r="Q4" s="185"/>
-      <c r="R4" s="185"/>
-      <c r="S4" s="185"/>
-      <c r="T4" s="185"/>
-      <c r="U4" s="185"/>
-      <c r="V4" s="185"/>
-      <c r="W4" s="185"/>
-      <c r="X4" s="185"/>
-      <c r="Y4" s="185"/>
-      <c r="Z4" s="185"/>
-      <c r="AA4" s="185"/>
-      <c r="AB4" s="185"/>
-      <c r="AC4" s="185"/>
-      <c r="AD4" s="185"/>
-      <c r="AE4" s="185"/>
-      <c r="AF4" s="185"/>
-      <c r="AG4" s="185"/>
-      <c r="AH4" s="185"/>
-      <c r="AI4" s="185"/>
-      <c r="AJ4" s="185"/>
-      <c r="AK4" s="185"/>
-      <c r="AL4" s="185"/>
+      <c r="A4" s="243"/>
+      <c r="B4" s="245"/>
+      <c r="C4" s="245"/>
+      <c r="D4" s="245"/>
+      <c r="E4" s="245"/>
+      <c r="F4" s="245"/>
+      <c r="G4" s="245"/>
+      <c r="H4" s="245"/>
+      <c r="I4" s="245"/>
+      <c r="J4" s="245"/>
+      <c r="K4" s="245"/>
+      <c r="L4" s="245"/>
+      <c r="M4" s="245"/>
+      <c r="N4" s="245"/>
+      <c r="O4" s="245"/>
+      <c r="P4" s="245"/>
+      <c r="Q4" s="245"/>
+      <c r="R4" s="245"/>
+      <c r="S4" s="245"/>
+      <c r="T4" s="245"/>
+      <c r="U4" s="245"/>
+      <c r="V4" s="245"/>
+      <c r="W4" s="245"/>
+      <c r="X4" s="245"/>
+      <c r="Y4" s="245"/>
+      <c r="Z4" s="245"/>
+      <c r="AA4" s="245"/>
+      <c r="AB4" s="245"/>
+      <c r="AC4" s="245"/>
+      <c r="AD4" s="245"/>
+      <c r="AE4" s="245"/>
+      <c r="AF4" s="245"/>
+      <c r="AG4" s="245"/>
+      <c r="AH4" s="245"/>
+      <c r="AI4" s="245"/>
+      <c r="AJ4" s="245"/>
+      <c r="AK4" s="245"/>
+      <c r="AL4" s="245"/>
       <c r="AM4" s="102" t="s">
         <v>128</v>
       </c>
-      <c r="AN4" s="173" t="s">
+      <c r="AN4" s="238" t="s">
         <v>129</v>
       </c>
-      <c r="AO4" s="174"/>
-      <c r="AP4" s="175"/>
-      <c r="AQ4" s="173" t="s">
+      <c r="AO4" s="239"/>
+      <c r="AP4" s="240"/>
+      <c r="AQ4" s="238" t="s">
         <v>130</v>
       </c>
-      <c r="AR4" s="174"/>
-      <c r="AS4" s="174"/>
-      <c r="AT4" s="174"/>
-      <c r="AU4" s="174"/>
-      <c r="AV4" s="174"/>
-      <c r="AW4" s="174"/>
-      <c r="AX4" s="174"/>
-      <c r="AY4" s="174"/>
-      <c r="AZ4" s="174"/>
-      <c r="BA4" s="174"/>
-      <c r="BB4" s="174"/>
-      <c r="BC4" s="174"/>
-      <c r="BD4" s="175"/>
-      <c r="BE4" s="173" t="s">
+      <c r="AR4" s="239"/>
+      <c r="AS4" s="239"/>
+      <c r="AT4" s="239"/>
+      <c r="AU4" s="239"/>
+      <c r="AV4" s="239"/>
+      <c r="AW4" s="239"/>
+      <c r="AX4" s="239"/>
+      <c r="AY4" s="239"/>
+      <c r="AZ4" s="239"/>
+      <c r="BA4" s="239"/>
+      <c r="BB4" s="239"/>
+      <c r="BC4" s="239"/>
+      <c r="BD4" s="240"/>
+      <c r="BE4" s="238" t="s">
         <v>131</v>
       </c>
-      <c r="BF4" s="176"/>
-      <c r="BG4" s="174"/>
-      <c r="BH4" s="174"/>
-      <c r="BI4" s="174"/>
-      <c r="BJ4" s="174"/>
-      <c r="BK4" s="175"/>
-      <c r="BL4" s="173" t="s">
+      <c r="BF4" s="241"/>
+      <c r="BG4" s="239"/>
+      <c r="BH4" s="239"/>
+      <c r="BI4" s="239"/>
+      <c r="BJ4" s="239"/>
+      <c r="BK4" s="240"/>
+      <c r="BL4" s="238" t="s">
         <v>4</v>
       </c>
-      <c r="BM4" s="174"/>
-      <c r="BN4" s="174"/>
-      <c r="BO4" s="175"/>
-      <c r="BP4" s="173" t="s">
+      <c r="BM4" s="239"/>
+      <c r="BN4" s="239"/>
+      <c r="BO4" s="240"/>
+      <c r="BP4" s="238" t="s">
         <v>5</v>
       </c>
-      <c r="BQ4" s="174"/>
-      <c r="BR4" s="177"/>
+      <c r="BQ4" s="239"/>
+      <c r="BR4" s="242"/>
     </row>
     <row r="5" spans="1:70" s="5" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="182"/>
-      <c r="B5" s="186" t="s">
+      <c r="A5" s="244"/>
+      <c r="B5" s="199" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="186"/>
-      <c r="D5" s="186"/>
-      <c r="E5" s="186"/>
-      <c r="F5" s="186"/>
-      <c r="G5" s="186"/>
-      <c r="H5" s="186"/>
-      <c r="I5" s="186" t="s">
+      <c r="C5" s="199"/>
+      <c r="D5" s="199"/>
+      <c r="E5" s="199"/>
+      <c r="F5" s="199"/>
+      <c r="G5" s="199"/>
+      <c r="H5" s="199"/>
+      <c r="I5" s="199" t="s">
         <v>120</v>
       </c>
-      <c r="J5" s="186"/>
-      <c r="K5" s="186"/>
-      <c r="L5" s="186"/>
-      <c r="M5" s="186"/>
-      <c r="N5" s="186"/>
-      <c r="O5" s="186"/>
-      <c r="P5" s="186" t="s">
+      <c r="J5" s="199"/>
+      <c r="K5" s="199"/>
+      <c r="L5" s="199"/>
+      <c r="M5" s="199"/>
+      <c r="N5" s="199"/>
+      <c r="O5" s="199"/>
+      <c r="P5" s="199" t="s">
         <v>121</v>
       </c>
-      <c r="Q5" s="186"/>
-      <c r="R5" s="186"/>
-      <c r="S5" s="186"/>
-      <c r="T5" s="186"/>
-      <c r="U5" s="186"/>
-      <c r="V5" s="186"/>
-      <c r="W5" s="186" t="s">
+      <c r="Q5" s="199"/>
+      <c r="R5" s="199"/>
+      <c r="S5" s="199"/>
+      <c r="T5" s="199"/>
+      <c r="U5" s="199"/>
+      <c r="V5" s="199"/>
+      <c r="W5" s="199" t="s">
         <v>122</v>
       </c>
-      <c r="X5" s="186"/>
-      <c r="Y5" s="186"/>
-      <c r="Z5" s="186"/>
-      <c r="AA5" s="186"/>
-      <c r="AB5" s="186"/>
-      <c r="AC5" s="186"/>
-      <c r="AD5" s="186" t="s">
+      <c r="X5" s="199"/>
+      <c r="Y5" s="199"/>
+      <c r="Z5" s="199"/>
+      <c r="AA5" s="199"/>
+      <c r="AB5" s="199"/>
+      <c r="AC5" s="199"/>
+      <c r="AD5" s="199" t="s">
         <v>123</v>
       </c>
-      <c r="AE5" s="186"/>
-      <c r="AF5" s="186"/>
-      <c r="AG5" s="186"/>
-      <c r="AH5" s="186"/>
-      <c r="AI5" s="186"/>
-      <c r="AJ5" s="186"/>
-      <c r="AK5" s="186" t="s">
+      <c r="AE5" s="199"/>
+      <c r="AF5" s="199"/>
+      <c r="AG5" s="199"/>
+      <c r="AH5" s="199"/>
+      <c r="AI5" s="199"/>
+      <c r="AJ5" s="199"/>
+      <c r="AK5" s="199" t="s">
         <v>124</v>
       </c>
-      <c r="AL5" s="186"/>
+      <c r="AL5" s="199"/>
       <c r="AM5" s="103" t="s">
         <v>6</v>
       </c>
@@ -4888,45 +4894,45 @@
       <c r="AQ5" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="AR5" s="183" t="s">
+      <c r="AR5" s="175" t="s">
         <v>11</v>
       </c>
-      <c r="AS5" s="184"/>
-      <c r="AT5" s="183" t="s">
+      <c r="AS5" s="176"/>
+      <c r="AT5" s="175" t="s">
         <v>12</v>
       </c>
-      <c r="AU5" s="184"/>
-      <c r="AV5" s="183" t="s">
+      <c r="AU5" s="176"/>
+      <c r="AV5" s="175" t="s">
         <v>13</v>
       </c>
-      <c r="AW5" s="184"/>
-      <c r="AX5" s="183" t="s">
+      <c r="AW5" s="176"/>
+      <c r="AX5" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="AY5" s="184"/>
-      <c r="AZ5" s="183" t="s">
+      <c r="AY5" s="176"/>
+      <c r="AZ5" s="175" t="s">
         <v>15</v>
       </c>
-      <c r="BA5" s="184"/>
-      <c r="BB5" s="183" t="s">
+      <c r="BA5" s="176"/>
+      <c r="BB5" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="BC5" s="184"/>
+      <c r="BC5" s="176"/>
       <c r="BD5" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="BE5" s="243" t="s">
+      <c r="BE5" s="186" t="s">
         <v>18</v>
       </c>
-      <c r="BF5" s="184"/>
-      <c r="BG5" s="244" t="s">
+      <c r="BF5" s="176"/>
+      <c r="BG5" s="187" t="s">
         <v>19</v>
       </c>
-      <c r="BH5" s="245"/>
-      <c r="BI5" s="244" t="s">
+      <c r="BH5" s="188"/>
+      <c r="BI5" s="187" t="s">
         <v>20</v>
       </c>
-      <c r="BJ5" s="245"/>
+      <c r="BJ5" s="188"/>
       <c r="BK5" s="92" t="s">
         <v>21</v>
       </c>
@@ -4954,193 +4960,193 @@
     </row>
     <row r="6" spans="1:70" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="35"/>
-      <c r="B6" s="229" t="s">
+      <c r="B6" s="193" t="s">
         <v>127</v>
       </c>
-      <c r="C6" s="220" t="s">
+      <c r="C6" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="220" t="s">
+      <c r="D6" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="E6" s="220" t="s">
+      <c r="E6" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="220" t="s">
+      <c r="F6" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="220" t="s">
+      <c r="G6" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="H6" s="231" t="s">
+      <c r="H6" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="229" t="s">
+      <c r="I6" s="193" t="s">
         <v>127</v>
       </c>
-      <c r="J6" s="220" t="s">
+      <c r="J6" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="220" t="s">
+      <c r="K6" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="L6" s="220" t="s">
+      <c r="L6" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="220" t="s">
+      <c r="M6" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="N6" s="220" t="s">
+      <c r="N6" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="O6" s="231" t="s">
+      <c r="O6" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="229" t="s">
+      <c r="P6" s="193" t="s">
         <v>127</v>
       </c>
-      <c r="Q6" s="220" t="s">
+      <c r="Q6" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="220" t="s">
+      <c r="R6" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="S6" s="220" t="s">
+      <c r="S6" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="T6" s="220" t="s">
+      <c r="T6" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="U6" s="220" t="s">
+      <c r="U6" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="V6" s="231" t="s">
+      <c r="V6" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="W6" s="229" t="s">
+      <c r="W6" s="193" t="s">
         <v>127</v>
       </c>
-      <c r="X6" s="220" t="s">
+      <c r="X6" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="Y6" s="220" t="s">
+      <c r="Y6" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="Z6" s="220" t="s">
+      <c r="Z6" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="AA6" s="220" t="s">
+      <c r="AA6" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="AB6" s="220" t="s">
+      <c r="AB6" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="AC6" s="231" t="s">
+      <c r="AC6" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="AD6" s="229" t="s">
+      <c r="AD6" s="193" t="s">
         <v>127</v>
       </c>
-      <c r="AE6" s="220" t="s">
+      <c r="AE6" s="195" t="s">
         <v>49</v>
       </c>
-      <c r="AF6" s="220" t="s">
+      <c r="AF6" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="AG6" s="220" t="s">
+      <c r="AG6" s="195" t="s">
         <v>51</v>
       </c>
-      <c r="AH6" s="220" t="s">
+      <c r="AH6" s="195" t="s">
         <v>52</v>
       </c>
-      <c r="AI6" s="220" t="s">
+      <c r="AI6" s="195" t="s">
         <v>53</v>
       </c>
-      <c r="AJ6" s="231" t="s">
+      <c r="AJ6" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="AK6" s="229" t="s">
+      <c r="AK6" s="193" t="s">
         <v>127</v>
       </c>
-      <c r="AL6" s="248" t="s">
+      <c r="AL6" s="173" t="s">
         <v>49</v>
       </c>
-      <c r="AM6" s="150" t="s">
+      <c r="AM6" s="252" t="s">
         <v>132</v>
       </c>
-      <c r="AN6" s="150" t="s">
+      <c r="AN6" s="252" t="s">
         <v>29</v>
       </c>
-      <c r="AO6" s="233" t="s">
+      <c r="AO6" s="191" t="s">
         <v>30</v>
       </c>
-      <c r="AP6" s="146" t="s">
+      <c r="AP6" s="248" t="s">
         <v>32</v>
       </c>
-      <c r="AQ6" s="235" t="s">
+      <c r="AQ6" s="264" t="s">
         <v>33</v>
       </c>
-      <c r="AR6" s="237" t="s">
+      <c r="AR6" s="181" t="s">
         <v>34</v>
       </c>
-      <c r="AS6" s="238"/>
-      <c r="AT6" s="237" t="s">
+      <c r="AS6" s="182"/>
+      <c r="AT6" s="181" t="s">
         <v>35</v>
       </c>
-      <c r="AU6" s="238"/>
-      <c r="AV6" s="237" t="s">
+      <c r="AU6" s="182"/>
+      <c r="AV6" s="181" t="s">
         <v>36</v>
       </c>
-      <c r="AW6" s="238"/>
-      <c r="AX6" s="237" t="s">
+      <c r="AW6" s="182"/>
+      <c r="AX6" s="181" t="s">
         <v>37</v>
       </c>
-      <c r="AY6" s="238"/>
-      <c r="AZ6" s="237" t="s">
+      <c r="AY6" s="182"/>
+      <c r="AZ6" s="181" t="s">
         <v>38</v>
       </c>
-      <c r="BA6" s="238"/>
-      <c r="BB6" s="237" t="s">
+      <c r="BA6" s="182"/>
+      <c r="BB6" s="181" t="s">
         <v>31</v>
       </c>
-      <c r="BC6" s="238"/>
-      <c r="BD6" s="160" t="s">
+      <c r="BC6" s="182"/>
+      <c r="BD6" s="256" t="s">
         <v>32</v>
       </c>
-      <c r="BE6" s="162" t="s">
+      <c r="BE6" s="258" t="s">
         <v>39</v>
       </c>
-      <c r="BF6" s="163"/>
-      <c r="BG6" s="164" t="s">
+      <c r="BF6" s="259"/>
+      <c r="BG6" s="260" t="s">
         <v>40</v>
       </c>
-      <c r="BH6" s="165"/>
-      <c r="BI6" s="246" t="s">
+      <c r="BH6" s="261"/>
+      <c r="BI6" s="189" t="s">
         <v>31</v>
       </c>
-      <c r="BJ6" s="247"/>
-      <c r="BK6" s="166" t="s">
+      <c r="BJ6" s="190"/>
+      <c r="BK6" s="262" t="s">
         <v>32</v>
       </c>
-      <c r="BL6" s="150" t="s">
+      <c r="BL6" s="252" t="s">
         <v>41</v>
       </c>
-      <c r="BM6" s="233" t="s">
+      <c r="BM6" s="191" t="s">
         <v>32</v>
       </c>
-      <c r="BN6" s="233" t="s">
+      <c r="BN6" s="191" t="s">
         <v>42</v>
       </c>
-      <c r="BO6" s="146" t="s">
+      <c r="BO6" s="248" t="s">
         <v>43</v>
       </c>
-      <c r="BP6" s="144" t="s">
+      <c r="BP6" s="246" t="s">
         <v>44</v>
       </c>
-      <c r="BQ6" s="158" t="s">
+      <c r="BQ6" s="254" t="s">
         <v>45</v>
       </c>
-      <c r="BR6" s="148" t="s">
+      <c r="BR6" s="250" t="s">
         <v>46</v>
       </c>
     </row>
@@ -5148,48 +5154,48 @@
       <c r="A7" s="80" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="230"/>
-      <c r="C7" s="221"/>
-      <c r="D7" s="221"/>
-      <c r="E7" s="221"/>
-      <c r="F7" s="221"/>
-      <c r="G7" s="221"/>
-      <c r="H7" s="232"/>
-      <c r="I7" s="230"/>
-      <c r="J7" s="221"/>
-      <c r="K7" s="221"/>
-      <c r="L7" s="221"/>
-      <c r="M7" s="221"/>
-      <c r="N7" s="221"/>
-      <c r="O7" s="232"/>
-      <c r="P7" s="230"/>
-      <c r="Q7" s="221"/>
-      <c r="R7" s="221"/>
-      <c r="S7" s="221"/>
-      <c r="T7" s="221"/>
-      <c r="U7" s="221"/>
-      <c r="V7" s="232"/>
-      <c r="W7" s="230"/>
-      <c r="X7" s="221"/>
-      <c r="Y7" s="221"/>
-      <c r="Z7" s="221"/>
-      <c r="AA7" s="221"/>
-      <c r="AB7" s="221"/>
-      <c r="AC7" s="232"/>
-      <c r="AD7" s="230"/>
-      <c r="AE7" s="221"/>
-      <c r="AF7" s="221"/>
-      <c r="AG7" s="221"/>
-      <c r="AH7" s="221"/>
-      <c r="AI7" s="221"/>
-      <c r="AJ7" s="232"/>
-      <c r="AK7" s="230"/>
-      <c r="AL7" s="249"/>
-      <c r="AM7" s="151"/>
-      <c r="AN7" s="151"/>
-      <c r="AO7" s="234"/>
-      <c r="AP7" s="147"/>
-      <c r="AQ7" s="236"/>
+      <c r="B7" s="194"/>
+      <c r="C7" s="196"/>
+      <c r="D7" s="196"/>
+      <c r="E7" s="196"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="196"/>
+      <c r="H7" s="198"/>
+      <c r="I7" s="194"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="196"/>
+      <c r="L7" s="196"/>
+      <c r="M7" s="196"/>
+      <c r="N7" s="196"/>
+      <c r="O7" s="198"/>
+      <c r="P7" s="194"/>
+      <c r="Q7" s="196"/>
+      <c r="R7" s="196"/>
+      <c r="S7" s="196"/>
+      <c r="T7" s="196"/>
+      <c r="U7" s="196"/>
+      <c r="V7" s="198"/>
+      <c r="W7" s="194"/>
+      <c r="X7" s="196"/>
+      <c r="Y7" s="196"/>
+      <c r="Z7" s="196"/>
+      <c r="AA7" s="196"/>
+      <c r="AB7" s="196"/>
+      <c r="AC7" s="198"/>
+      <c r="AD7" s="194"/>
+      <c r="AE7" s="196"/>
+      <c r="AF7" s="196"/>
+      <c r="AG7" s="196"/>
+      <c r="AH7" s="196"/>
+      <c r="AI7" s="196"/>
+      <c r="AJ7" s="198"/>
+      <c r="AK7" s="194"/>
+      <c r="AL7" s="174"/>
+      <c r="AM7" s="253"/>
+      <c r="AN7" s="253"/>
+      <c r="AO7" s="192"/>
+      <c r="AP7" s="249"/>
+      <c r="AQ7" s="265"/>
       <c r="AR7" s="82"/>
       <c r="AS7" s="84" t="s">
         <v>48</v>
@@ -5214,7 +5220,7 @@
       <c r="BC7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="BD7" s="161"/>
+      <c r="BD7" s="257"/>
       <c r="BE7" s="83"/>
       <c r="BF7" s="84" t="s">
         <v>48</v>
@@ -5227,17 +5233,17 @@
       <c r="BJ7" s="84" t="s">
         <v>48</v>
       </c>
-      <c r="BK7" s="167"/>
-      <c r="BL7" s="151"/>
-      <c r="BM7" s="234"/>
-      <c r="BN7" s="234"/>
-      <c r="BO7" s="147"/>
-      <c r="BP7" s="145"/>
-      <c r="BQ7" s="159"/>
-      <c r="BR7" s="149"/>
+      <c r="BK7" s="263"/>
+      <c r="BL7" s="253"/>
+      <c r="BM7" s="192"/>
+      <c r="BN7" s="192"/>
+      <c r="BO7" s="249"/>
+      <c r="BP7" s="247"/>
+      <c r="BQ7" s="255"/>
+      <c r="BR7" s="251"/>
     </row>
     <row r="8" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="223" t="s">
+      <c r="A8" s="201" t="s">
         <v>49</v>
       </c>
       <c r="B8" s="37"/>
@@ -5302,16 +5308,16 @@
       <c r="BI8" s="120"/>
       <c r="BJ8" s="120"/>
       <c r="BK8" s="121"/>
-      <c r="BL8" s="239"/>
+      <c r="BL8" s="165"/>
       <c r="BM8" s="120"/>
       <c r="BN8" s="120"/>
-      <c r="BO8" s="168"/>
-      <c r="BP8" s="239"/>
+      <c r="BO8" s="179"/>
+      <c r="BP8" s="165"/>
       <c r="BQ8" s="120"/>
-      <c r="BR8" s="241"/>
+      <c r="BR8" s="177"/>
     </row>
     <row r="9" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="223"/>
+      <c r="A9" s="201"/>
       <c r="B9" s="104"/>
       <c r="C9" s="105"/>
       <c r="D9" s="105"/>
@@ -5374,88 +5380,88 @@
       <c r="BI9" s="127"/>
       <c r="BJ9" s="127"/>
       <c r="BK9" s="128"/>
-      <c r="BL9" s="240"/>
+      <c r="BL9" s="166"/>
       <c r="BM9" s="127"/>
       <c r="BN9" s="127"/>
-      <c r="BO9" s="169"/>
-      <c r="BP9" s="240"/>
+      <c r="BO9" s="180"/>
+      <c r="BP9" s="166"/>
       <c r="BQ9" s="127"/>
-      <c r="BR9" s="242"/>
+      <c r="BR9" s="178"/>
     </row>
     <row r="10" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="223"/>
-      <c r="B10" s="253"/>
-      <c r="C10" s="254"/>
-      <c r="D10" s="254"/>
-      <c r="E10" s="254"/>
-      <c r="F10" s="254"/>
-      <c r="G10" s="254"/>
-      <c r="H10" s="255"/>
-      <c r="I10" s="253"/>
-      <c r="J10" s="254"/>
-      <c r="K10" s="254"/>
-      <c r="L10" s="254"/>
-      <c r="M10" s="254"/>
-      <c r="N10" s="254"/>
-      <c r="O10" s="255"/>
-      <c r="P10" s="253"/>
-      <c r="Q10" s="254"/>
-      <c r="R10" s="254"/>
-      <c r="S10" s="254"/>
-      <c r="T10" s="254"/>
-      <c r="U10" s="254"/>
-      <c r="V10" s="255"/>
-      <c r="W10" s="253"/>
-      <c r="X10" s="254"/>
-      <c r="Y10" s="254"/>
-      <c r="Z10" s="254"/>
-      <c r="AA10" s="254"/>
-      <c r="AB10" s="254"/>
-      <c r="AC10" s="255"/>
-      <c r="AD10" s="253"/>
-      <c r="AE10" s="254"/>
-      <c r="AF10" s="254"/>
-      <c r="AG10" s="254"/>
-      <c r="AH10" s="254"/>
-      <c r="AI10" s="254"/>
-      <c r="AJ10" s="255"/>
-      <c r="AK10" s="256"/>
-      <c r="AL10" s="257"/>
-      <c r="AM10" s="152"/>
-      <c r="AN10" s="153"/>
-      <c r="AO10" s="153"/>
-      <c r="AP10" s="153"/>
-      <c r="AQ10" s="153"/>
-      <c r="AR10" s="153"/>
-      <c r="AS10" s="153"/>
-      <c r="AT10" s="153"/>
-      <c r="AU10" s="153"/>
-      <c r="AV10" s="153"/>
-      <c r="AW10" s="153"/>
-      <c r="AX10" s="153"/>
-      <c r="AY10" s="153"/>
-      <c r="AZ10" s="153"/>
-      <c r="BA10" s="153"/>
-      <c r="BB10" s="153"/>
-      <c r="BC10" s="153"/>
-      <c r="BD10" s="153"/>
-      <c r="BE10" s="153"/>
-      <c r="BF10" s="153"/>
-      <c r="BG10" s="153"/>
-      <c r="BH10" s="153"/>
-      <c r="BI10" s="153"/>
-      <c r="BJ10" s="153"/>
-      <c r="BK10" s="153"/>
-      <c r="BL10" s="153"/>
-      <c r="BM10" s="153"/>
-      <c r="BN10" s="153"/>
-      <c r="BO10" s="153"/>
-      <c r="BP10" s="153"/>
-      <c r="BQ10" s="153"/>
-      <c r="BR10" s="154"/>
+      <c r="A10" s="201"/>
+      <c r="B10" s="144"/>
+      <c r="C10" s="145"/>
+      <c r="D10" s="145"/>
+      <c r="E10" s="145"/>
+      <c r="F10" s="145"/>
+      <c r="G10" s="145"/>
+      <c r="H10" s="146"/>
+      <c r="I10" s="144"/>
+      <c r="J10" s="145"/>
+      <c r="K10" s="145"/>
+      <c r="L10" s="145"/>
+      <c r="M10" s="145"/>
+      <c r="N10" s="145"/>
+      <c r="O10" s="146"/>
+      <c r="P10" s="144"/>
+      <c r="Q10" s="145"/>
+      <c r="R10" s="145"/>
+      <c r="S10" s="145"/>
+      <c r="T10" s="145"/>
+      <c r="U10" s="145"/>
+      <c r="V10" s="146"/>
+      <c r="W10" s="144"/>
+      <c r="X10" s="145"/>
+      <c r="Y10" s="145"/>
+      <c r="Z10" s="145"/>
+      <c r="AA10" s="145"/>
+      <c r="AB10" s="145"/>
+      <c r="AC10" s="146"/>
+      <c r="AD10" s="144"/>
+      <c r="AE10" s="145"/>
+      <c r="AF10" s="145"/>
+      <c r="AG10" s="145"/>
+      <c r="AH10" s="145"/>
+      <c r="AI10" s="145"/>
+      <c r="AJ10" s="146"/>
+      <c r="AK10" s="147"/>
+      <c r="AL10" s="148"/>
+      <c r="AM10" s="167"/>
+      <c r="AN10" s="168"/>
+      <c r="AO10" s="168"/>
+      <c r="AP10" s="168"/>
+      <c r="AQ10" s="168"/>
+      <c r="AR10" s="168"/>
+      <c r="AS10" s="168"/>
+      <c r="AT10" s="168"/>
+      <c r="AU10" s="168"/>
+      <c r="AV10" s="168"/>
+      <c r="AW10" s="168"/>
+      <c r="AX10" s="168"/>
+      <c r="AY10" s="168"/>
+      <c r="AZ10" s="168"/>
+      <c r="BA10" s="168"/>
+      <c r="BB10" s="168"/>
+      <c r="BC10" s="168"/>
+      <c r="BD10" s="168"/>
+      <c r="BE10" s="168"/>
+      <c r="BF10" s="168"/>
+      <c r="BG10" s="168"/>
+      <c r="BH10" s="168"/>
+      <c r="BI10" s="168"/>
+      <c r="BJ10" s="168"/>
+      <c r="BK10" s="168"/>
+      <c r="BL10" s="168"/>
+      <c r="BM10" s="168"/>
+      <c r="BN10" s="168"/>
+      <c r="BO10" s="168"/>
+      <c r="BP10" s="168"/>
+      <c r="BQ10" s="168"/>
+      <c r="BR10" s="169"/>
     </row>
     <row r="11" spans="1:70" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="224"/>
+      <c r="A11" s="202"/>
       <c r="B11" s="57"/>
       <c r="C11" s="58"/>
       <c r="D11" s="58"/>
@@ -5493,41 +5499,41 @@
       <c r="AJ11" s="59"/>
       <c r="AK11" s="60"/>
       <c r="AL11" s="61"/>
-      <c r="AM11" s="155"/>
-      <c r="AN11" s="156"/>
-      <c r="AO11" s="156"/>
-      <c r="AP11" s="156"/>
-      <c r="AQ11" s="156"/>
-      <c r="AR11" s="156"/>
-      <c r="AS11" s="156"/>
-      <c r="AT11" s="156"/>
-      <c r="AU11" s="156"/>
-      <c r="AV11" s="156"/>
-      <c r="AW11" s="156"/>
-      <c r="AX11" s="156"/>
-      <c r="AY11" s="156"/>
-      <c r="AZ11" s="156"/>
-      <c r="BA11" s="156"/>
-      <c r="BB11" s="156"/>
-      <c r="BC11" s="156"/>
-      <c r="BD11" s="156"/>
-      <c r="BE11" s="156"/>
-      <c r="BF11" s="156"/>
-      <c r="BG11" s="156"/>
-      <c r="BH11" s="156"/>
-      <c r="BI11" s="156"/>
-      <c r="BJ11" s="156"/>
-      <c r="BK11" s="156"/>
-      <c r="BL11" s="156"/>
-      <c r="BM11" s="156"/>
-      <c r="BN11" s="156"/>
-      <c r="BO11" s="156"/>
-      <c r="BP11" s="156"/>
-      <c r="BQ11" s="156"/>
-      <c r="BR11" s="157"/>
+      <c r="AM11" s="170"/>
+      <c r="AN11" s="171"/>
+      <c r="AO11" s="171"/>
+      <c r="AP11" s="171"/>
+      <c r="AQ11" s="171"/>
+      <c r="AR11" s="171"/>
+      <c r="AS11" s="171"/>
+      <c r="AT11" s="171"/>
+      <c r="AU11" s="171"/>
+      <c r="AV11" s="171"/>
+      <c r="AW11" s="171"/>
+      <c r="AX11" s="171"/>
+      <c r="AY11" s="171"/>
+      <c r="AZ11" s="171"/>
+      <c r="BA11" s="171"/>
+      <c r="BB11" s="171"/>
+      <c r="BC11" s="171"/>
+      <c r="BD11" s="171"/>
+      <c r="BE11" s="171"/>
+      <c r="BF11" s="171"/>
+      <c r="BG11" s="171"/>
+      <c r="BH11" s="171"/>
+      <c r="BI11" s="171"/>
+      <c r="BJ11" s="171"/>
+      <c r="BK11" s="171"/>
+      <c r="BL11" s="171"/>
+      <c r="BM11" s="171"/>
+      <c r="BN11" s="171"/>
+      <c r="BO11" s="171"/>
+      <c r="BP11" s="171"/>
+      <c r="BQ11" s="171"/>
+      <c r="BR11" s="172"/>
     </row>
     <row r="12" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="222" t="s">
+      <c r="A12" s="200" t="s">
         <v>50</v>
       </c>
       <c r="B12" s="42"/>
@@ -5592,16 +5598,16 @@
       <c r="BI12" s="120"/>
       <c r="BJ12" s="120"/>
       <c r="BK12" s="121"/>
-      <c r="BL12" s="239"/>
+      <c r="BL12" s="165"/>
       <c r="BM12" s="120"/>
       <c r="BN12" s="120"/>
-      <c r="BO12" s="168"/>
-      <c r="BP12" s="239"/>
+      <c r="BO12" s="179"/>
+      <c r="BP12" s="165"/>
       <c r="BQ12" s="120"/>
-      <c r="BR12" s="241"/>
+      <c r="BR12" s="177"/>
     </row>
     <row r="13" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="223"/>
+      <c r="A13" s="201"/>
       <c r="B13" s="109"/>
       <c r="C13" s="110"/>
       <c r="D13" s="110"/>
@@ -5664,88 +5670,88 @@
       <c r="BI13" s="127"/>
       <c r="BJ13" s="127"/>
       <c r="BK13" s="128"/>
-      <c r="BL13" s="240"/>
+      <c r="BL13" s="166"/>
       <c r="BM13" s="127"/>
       <c r="BN13" s="127"/>
-      <c r="BO13" s="169"/>
-      <c r="BP13" s="240"/>
+      <c r="BO13" s="180"/>
+      <c r="BP13" s="166"/>
       <c r="BQ13" s="127"/>
-      <c r="BR13" s="242"/>
+      <c r="BR13" s="178"/>
     </row>
     <row r="14" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="223"/>
+      <c r="A14" s="201"/>
       <c r="B14" s="81"/>
-      <c r="C14" s="258"/>
-      <c r="D14" s="258"/>
-      <c r="E14" s="258"/>
-      <c r="F14" s="258"/>
-      <c r="G14" s="258"/>
-      <c r="H14" s="259"/>
+      <c r="C14" s="149"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="150"/>
       <c r="I14" s="81"/>
-      <c r="J14" s="258"/>
-      <c r="K14" s="258"/>
-      <c r="L14" s="258"/>
-      <c r="M14" s="258"/>
-      <c r="N14" s="258"/>
-      <c r="O14" s="259"/>
+      <c r="J14" s="149"/>
+      <c r="K14" s="149"/>
+      <c r="L14" s="149"/>
+      <c r="M14" s="149"/>
+      <c r="N14" s="149"/>
+      <c r="O14" s="150"/>
       <c r="P14" s="81"/>
-      <c r="Q14" s="258"/>
-      <c r="R14" s="258"/>
-      <c r="S14" s="258"/>
-      <c r="T14" s="258"/>
-      <c r="U14" s="258"/>
-      <c r="V14" s="259"/>
+      <c r="Q14" s="149"/>
+      <c r="R14" s="149"/>
+      <c r="S14" s="149"/>
+      <c r="T14" s="149"/>
+      <c r="U14" s="149"/>
+      <c r="V14" s="150"/>
       <c r="W14" s="81"/>
-      <c r="X14" s="258"/>
-      <c r="Y14" s="258"/>
-      <c r="Z14" s="258"/>
-      <c r="AA14" s="258"/>
-      <c r="AB14" s="258"/>
-      <c r="AC14" s="259"/>
+      <c r="X14" s="149"/>
+      <c r="Y14" s="149"/>
+      <c r="Z14" s="149"/>
+      <c r="AA14" s="149"/>
+      <c r="AB14" s="149"/>
+      <c r="AC14" s="150"/>
       <c r="AD14" s="81"/>
-      <c r="AE14" s="258"/>
-      <c r="AF14" s="258"/>
-      <c r="AG14" s="258"/>
-      <c r="AH14" s="258"/>
-      <c r="AI14" s="258"/>
-      <c r="AJ14" s="259"/>
-      <c r="AK14" s="260"/>
-      <c r="AL14" s="261"/>
-      <c r="AM14" s="152"/>
-      <c r="AN14" s="153"/>
-      <c r="AO14" s="153"/>
-      <c r="AP14" s="153"/>
-      <c r="AQ14" s="153"/>
-      <c r="AR14" s="153"/>
-      <c r="AS14" s="153"/>
-      <c r="AT14" s="153"/>
-      <c r="AU14" s="153"/>
-      <c r="AV14" s="153"/>
-      <c r="AW14" s="153"/>
-      <c r="AX14" s="153"/>
-      <c r="AY14" s="153"/>
-      <c r="AZ14" s="153"/>
-      <c r="BA14" s="153"/>
-      <c r="BB14" s="153"/>
-      <c r="BC14" s="153"/>
-      <c r="BD14" s="153"/>
-      <c r="BE14" s="153"/>
-      <c r="BF14" s="153"/>
-      <c r="BG14" s="153"/>
-      <c r="BH14" s="153"/>
-      <c r="BI14" s="153"/>
-      <c r="BJ14" s="153"/>
-      <c r="BK14" s="153"/>
-      <c r="BL14" s="153"/>
-      <c r="BM14" s="153"/>
-      <c r="BN14" s="153"/>
-      <c r="BO14" s="153"/>
-      <c r="BP14" s="153"/>
-      <c r="BQ14" s="153"/>
-      <c r="BR14" s="154"/>
+      <c r="AE14" s="149"/>
+      <c r="AF14" s="149"/>
+      <c r="AG14" s="149"/>
+      <c r="AH14" s="149"/>
+      <c r="AI14" s="149"/>
+      <c r="AJ14" s="150"/>
+      <c r="AK14" s="151"/>
+      <c r="AL14" s="152"/>
+      <c r="AM14" s="167"/>
+      <c r="AN14" s="168"/>
+      <c r="AO14" s="168"/>
+      <c r="AP14" s="168"/>
+      <c r="AQ14" s="168"/>
+      <c r="AR14" s="168"/>
+      <c r="AS14" s="168"/>
+      <c r="AT14" s="168"/>
+      <c r="AU14" s="168"/>
+      <c r="AV14" s="168"/>
+      <c r="AW14" s="168"/>
+      <c r="AX14" s="168"/>
+      <c r="AY14" s="168"/>
+      <c r="AZ14" s="168"/>
+      <c r="BA14" s="168"/>
+      <c r="BB14" s="168"/>
+      <c r="BC14" s="168"/>
+      <c r="BD14" s="168"/>
+      <c r="BE14" s="168"/>
+      <c r="BF14" s="168"/>
+      <c r="BG14" s="168"/>
+      <c r="BH14" s="168"/>
+      <c r="BI14" s="168"/>
+      <c r="BJ14" s="168"/>
+      <c r="BK14" s="168"/>
+      <c r="BL14" s="168"/>
+      <c r="BM14" s="168"/>
+      <c r="BN14" s="168"/>
+      <c r="BO14" s="168"/>
+      <c r="BP14" s="168"/>
+      <c r="BQ14" s="168"/>
+      <c r="BR14" s="169"/>
     </row>
     <row r="15" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="223"/>
+      <c r="A15" s="201"/>
       <c r="B15" s="62"/>
       <c r="C15" s="63"/>
       <c r="D15" s="63"/>
@@ -5783,41 +5789,41 @@
       <c r="AJ15" s="64"/>
       <c r="AK15" s="66"/>
       <c r="AL15" s="67"/>
-      <c r="AM15" s="155"/>
-      <c r="AN15" s="156"/>
-      <c r="AO15" s="156"/>
-      <c r="AP15" s="156"/>
-      <c r="AQ15" s="156"/>
-      <c r="AR15" s="156"/>
-      <c r="AS15" s="156"/>
-      <c r="AT15" s="156"/>
-      <c r="AU15" s="156"/>
-      <c r="AV15" s="156"/>
-      <c r="AW15" s="156"/>
-      <c r="AX15" s="156"/>
-      <c r="AY15" s="156"/>
-      <c r="AZ15" s="156"/>
-      <c r="BA15" s="156"/>
-      <c r="BB15" s="156"/>
-      <c r="BC15" s="156"/>
-      <c r="BD15" s="156"/>
-      <c r="BE15" s="156"/>
-      <c r="BF15" s="156"/>
-      <c r="BG15" s="156"/>
-      <c r="BH15" s="156"/>
-      <c r="BI15" s="156"/>
-      <c r="BJ15" s="156"/>
-      <c r="BK15" s="156"/>
-      <c r="BL15" s="156"/>
-      <c r="BM15" s="156"/>
-      <c r="BN15" s="156"/>
-      <c r="BO15" s="156"/>
-      <c r="BP15" s="156"/>
-      <c r="BQ15" s="156"/>
-      <c r="BR15" s="157"/>
+      <c r="AM15" s="170"/>
+      <c r="AN15" s="171"/>
+      <c r="AO15" s="171"/>
+      <c r="AP15" s="171"/>
+      <c r="AQ15" s="171"/>
+      <c r="AR15" s="171"/>
+      <c r="AS15" s="171"/>
+      <c r="AT15" s="171"/>
+      <c r="AU15" s="171"/>
+      <c r="AV15" s="171"/>
+      <c r="AW15" s="171"/>
+      <c r="AX15" s="171"/>
+      <c r="AY15" s="171"/>
+      <c r="AZ15" s="171"/>
+      <c r="BA15" s="171"/>
+      <c r="BB15" s="171"/>
+      <c r="BC15" s="171"/>
+      <c r="BD15" s="171"/>
+      <c r="BE15" s="171"/>
+      <c r="BF15" s="171"/>
+      <c r="BG15" s="171"/>
+      <c r="BH15" s="171"/>
+      <c r="BI15" s="171"/>
+      <c r="BJ15" s="171"/>
+      <c r="BK15" s="171"/>
+      <c r="BL15" s="171"/>
+      <c r="BM15" s="171"/>
+      <c r="BN15" s="171"/>
+      <c r="BO15" s="171"/>
+      <c r="BP15" s="171"/>
+      <c r="BQ15" s="171"/>
+      <c r="BR15" s="172"/>
     </row>
     <row r="16" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="222" t="s">
+      <c r="A16" s="200" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="45"/>
@@ -5882,16 +5888,16 @@
       <c r="BI16" s="120"/>
       <c r="BJ16" s="120"/>
       <c r="BK16" s="121"/>
-      <c r="BL16" s="239"/>
+      <c r="BL16" s="165"/>
       <c r="BM16" s="120"/>
       <c r="BN16" s="120"/>
-      <c r="BO16" s="168"/>
-      <c r="BP16" s="239"/>
+      <c r="BO16" s="179"/>
+      <c r="BP16" s="165"/>
       <c r="BQ16" s="120"/>
-      <c r="BR16" s="241"/>
+      <c r="BR16" s="177"/>
     </row>
     <row r="17" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="223"/>
+      <c r="A17" s="201"/>
       <c r="B17" s="109"/>
       <c r="C17" s="110"/>
       <c r="D17" s="110"/>
@@ -5954,88 +5960,88 @@
       <c r="BI17" s="127"/>
       <c r="BJ17" s="127"/>
       <c r="BK17" s="128"/>
-      <c r="BL17" s="240"/>
+      <c r="BL17" s="166"/>
       <c r="BM17" s="127"/>
       <c r="BN17" s="127"/>
-      <c r="BO17" s="169"/>
-      <c r="BP17" s="240"/>
+      <c r="BO17" s="180"/>
+      <c r="BP17" s="166"/>
       <c r="BQ17" s="127"/>
-      <c r="BR17" s="242"/>
+      <c r="BR17" s="178"/>
     </row>
     <row r="18" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="223"/>
+      <c r="A18" s="201"/>
       <c r="B18" s="81"/>
-      <c r="C18" s="258"/>
-      <c r="D18" s="258"/>
-      <c r="E18" s="258"/>
-      <c r="F18" s="258"/>
-      <c r="G18" s="258"/>
-      <c r="H18" s="259"/>
+      <c r="C18" s="149"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="150"/>
       <c r="I18" s="81"/>
-      <c r="J18" s="258"/>
-      <c r="K18" s="258"/>
-      <c r="L18" s="258"/>
-      <c r="M18" s="258"/>
-      <c r="N18" s="258"/>
-      <c r="O18" s="259"/>
+      <c r="J18" s="149"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="149"/>
+      <c r="N18" s="149"/>
+      <c r="O18" s="150"/>
       <c r="P18" s="81"/>
-      <c r="Q18" s="258"/>
-      <c r="R18" s="258"/>
-      <c r="S18" s="258"/>
-      <c r="T18" s="258"/>
-      <c r="U18" s="258"/>
-      <c r="V18" s="259"/>
+      <c r="Q18" s="149"/>
+      <c r="R18" s="149"/>
+      <c r="S18" s="149"/>
+      <c r="T18" s="149"/>
+      <c r="U18" s="149"/>
+      <c r="V18" s="150"/>
       <c r="W18" s="81"/>
-      <c r="X18" s="258"/>
-      <c r="Y18" s="258"/>
-      <c r="Z18" s="258"/>
-      <c r="AA18" s="258"/>
-      <c r="AB18" s="258"/>
-      <c r="AC18" s="259"/>
+      <c r="X18" s="149"/>
+      <c r="Y18" s="149"/>
+      <c r="Z18" s="149"/>
+      <c r="AA18" s="149"/>
+      <c r="AB18" s="149"/>
+      <c r="AC18" s="150"/>
       <c r="AD18" s="81"/>
-      <c r="AE18" s="258"/>
-      <c r="AF18" s="258"/>
-      <c r="AG18" s="258"/>
-      <c r="AH18" s="258"/>
-      <c r="AI18" s="258"/>
-      <c r="AJ18" s="259"/>
-      <c r="AK18" s="260"/>
-      <c r="AL18" s="261"/>
-      <c r="AM18" s="152"/>
-      <c r="AN18" s="153"/>
-      <c r="AO18" s="153"/>
-      <c r="AP18" s="153"/>
-      <c r="AQ18" s="153"/>
-      <c r="AR18" s="153"/>
-      <c r="AS18" s="153"/>
-      <c r="AT18" s="153"/>
-      <c r="AU18" s="153"/>
-      <c r="AV18" s="153"/>
-      <c r="AW18" s="153"/>
-      <c r="AX18" s="153"/>
-      <c r="AY18" s="153"/>
-      <c r="AZ18" s="153"/>
-      <c r="BA18" s="153"/>
-      <c r="BB18" s="153"/>
-      <c r="BC18" s="153"/>
-      <c r="BD18" s="153"/>
-      <c r="BE18" s="153"/>
-      <c r="BF18" s="153"/>
-      <c r="BG18" s="153"/>
-      <c r="BH18" s="153"/>
-      <c r="BI18" s="153"/>
-      <c r="BJ18" s="153"/>
-      <c r="BK18" s="153"/>
-      <c r="BL18" s="153"/>
-      <c r="BM18" s="153"/>
-      <c r="BN18" s="153"/>
-      <c r="BO18" s="153"/>
-      <c r="BP18" s="153"/>
-      <c r="BQ18" s="153"/>
-      <c r="BR18" s="154"/>
+      <c r="AE18" s="149"/>
+      <c r="AF18" s="149"/>
+      <c r="AG18" s="149"/>
+      <c r="AH18" s="149"/>
+      <c r="AI18" s="149"/>
+      <c r="AJ18" s="150"/>
+      <c r="AK18" s="151"/>
+      <c r="AL18" s="152"/>
+      <c r="AM18" s="167"/>
+      <c r="AN18" s="168"/>
+      <c r="AO18" s="168"/>
+      <c r="AP18" s="168"/>
+      <c r="AQ18" s="168"/>
+      <c r="AR18" s="168"/>
+      <c r="AS18" s="168"/>
+      <c r="AT18" s="168"/>
+      <c r="AU18" s="168"/>
+      <c r="AV18" s="168"/>
+      <c r="AW18" s="168"/>
+      <c r="AX18" s="168"/>
+      <c r="AY18" s="168"/>
+      <c r="AZ18" s="168"/>
+      <c r="BA18" s="168"/>
+      <c r="BB18" s="168"/>
+      <c r="BC18" s="168"/>
+      <c r="BD18" s="168"/>
+      <c r="BE18" s="168"/>
+      <c r="BF18" s="168"/>
+      <c r="BG18" s="168"/>
+      <c r="BH18" s="168"/>
+      <c r="BI18" s="168"/>
+      <c r="BJ18" s="168"/>
+      <c r="BK18" s="168"/>
+      <c r="BL18" s="168"/>
+      <c r="BM18" s="168"/>
+      <c r="BN18" s="168"/>
+      <c r="BO18" s="168"/>
+      <c r="BP18" s="168"/>
+      <c r="BQ18" s="168"/>
+      <c r="BR18" s="169"/>
     </row>
     <row r="19" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="224"/>
+      <c r="A19" s="202"/>
       <c r="B19" s="68"/>
       <c r="C19" s="69"/>
       <c r="D19" s="69"/>
@@ -6073,41 +6079,41 @@
       <c r="AJ19" s="70"/>
       <c r="AK19" s="71"/>
       <c r="AL19" s="72"/>
-      <c r="AM19" s="155"/>
-      <c r="AN19" s="156"/>
-      <c r="AO19" s="156"/>
-      <c r="AP19" s="156"/>
-      <c r="AQ19" s="156"/>
-      <c r="AR19" s="156"/>
-      <c r="AS19" s="156"/>
-      <c r="AT19" s="156"/>
-      <c r="AU19" s="156"/>
-      <c r="AV19" s="156"/>
-      <c r="AW19" s="156"/>
-      <c r="AX19" s="156"/>
-      <c r="AY19" s="156"/>
-      <c r="AZ19" s="156"/>
-      <c r="BA19" s="156"/>
-      <c r="BB19" s="156"/>
-      <c r="BC19" s="156"/>
-      <c r="BD19" s="156"/>
-      <c r="BE19" s="156"/>
-      <c r="BF19" s="156"/>
-      <c r="BG19" s="156"/>
-      <c r="BH19" s="156"/>
-      <c r="BI19" s="156"/>
-      <c r="BJ19" s="156"/>
-      <c r="BK19" s="156"/>
-      <c r="BL19" s="156"/>
-      <c r="BM19" s="156"/>
-      <c r="BN19" s="156"/>
-      <c r="BO19" s="156"/>
-      <c r="BP19" s="156"/>
-      <c r="BQ19" s="156"/>
-      <c r="BR19" s="157"/>
+      <c r="AM19" s="170"/>
+      <c r="AN19" s="171"/>
+      <c r="AO19" s="171"/>
+      <c r="AP19" s="171"/>
+      <c r="AQ19" s="171"/>
+      <c r="AR19" s="171"/>
+      <c r="AS19" s="171"/>
+      <c r="AT19" s="171"/>
+      <c r="AU19" s="171"/>
+      <c r="AV19" s="171"/>
+      <c r="AW19" s="171"/>
+      <c r="AX19" s="171"/>
+      <c r="AY19" s="171"/>
+      <c r="AZ19" s="171"/>
+      <c r="BA19" s="171"/>
+      <c r="BB19" s="171"/>
+      <c r="BC19" s="171"/>
+      <c r="BD19" s="171"/>
+      <c r="BE19" s="171"/>
+      <c r="BF19" s="171"/>
+      <c r="BG19" s="171"/>
+      <c r="BH19" s="171"/>
+      <c r="BI19" s="171"/>
+      <c r="BJ19" s="171"/>
+      <c r="BK19" s="171"/>
+      <c r="BL19" s="171"/>
+      <c r="BM19" s="171"/>
+      <c r="BN19" s="171"/>
+      <c r="BO19" s="171"/>
+      <c r="BP19" s="171"/>
+      <c r="BQ19" s="171"/>
+      <c r="BR19" s="172"/>
     </row>
     <row r="20" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="223" t="s">
+      <c r="A20" s="201" t="s">
         <v>52</v>
       </c>
       <c r="B20" s="40"/>
@@ -6172,16 +6178,16 @@
       <c r="BI20" s="120"/>
       <c r="BJ20" s="120"/>
       <c r="BK20" s="121"/>
-      <c r="BL20" s="239"/>
+      <c r="BL20" s="165"/>
       <c r="BM20" s="120"/>
       <c r="BN20" s="120"/>
-      <c r="BO20" s="168"/>
-      <c r="BP20" s="239"/>
+      <c r="BO20" s="179"/>
+      <c r="BP20" s="165"/>
       <c r="BQ20" s="120"/>
-      <c r="BR20" s="241"/>
+      <c r="BR20" s="177"/>
     </row>
     <row r="21" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="223"/>
+      <c r="A21" s="201"/>
       <c r="B21" s="113"/>
       <c r="C21" s="110"/>
       <c r="D21" s="110"/>
@@ -6244,88 +6250,88 @@
       <c r="BI21" s="127"/>
       <c r="BJ21" s="127"/>
       <c r="BK21" s="128"/>
-      <c r="BL21" s="240"/>
+      <c r="BL21" s="166"/>
       <c r="BM21" s="127"/>
       <c r="BN21" s="127"/>
-      <c r="BO21" s="169"/>
-      <c r="BP21" s="240"/>
+      <c r="BO21" s="180"/>
+      <c r="BP21" s="166"/>
       <c r="BQ21" s="127"/>
-      <c r="BR21" s="242"/>
+      <c r="BR21" s="178"/>
     </row>
     <row r="22" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="223"/>
+      <c r="A22" s="201"/>
       <c r="B22" s="81"/>
-      <c r="C22" s="258"/>
-      <c r="D22" s="258"/>
-      <c r="E22" s="258"/>
-      <c r="F22" s="258"/>
-      <c r="G22" s="258"/>
-      <c r="H22" s="259"/>
+      <c r="C22" s="149"/>
+      <c r="D22" s="149"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="150"/>
       <c r="I22" s="81"/>
-      <c r="J22" s="258"/>
-      <c r="K22" s="258"/>
-      <c r="L22" s="258"/>
-      <c r="M22" s="258"/>
-      <c r="N22" s="258"/>
-      <c r="O22" s="259"/>
+      <c r="J22" s="149"/>
+      <c r="K22" s="149"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="149"/>
+      <c r="N22" s="149"/>
+      <c r="O22" s="150"/>
       <c r="P22" s="81"/>
-      <c r="Q22" s="258"/>
-      <c r="R22" s="258"/>
-      <c r="S22" s="258"/>
-      <c r="T22" s="258"/>
-      <c r="U22" s="258"/>
-      <c r="V22" s="259"/>
+      <c r="Q22" s="149"/>
+      <c r="R22" s="149"/>
+      <c r="S22" s="149"/>
+      <c r="T22" s="149"/>
+      <c r="U22" s="149"/>
+      <c r="V22" s="150"/>
       <c r="W22" s="81"/>
-      <c r="X22" s="258"/>
-      <c r="Y22" s="258"/>
-      <c r="Z22" s="258"/>
-      <c r="AA22" s="258"/>
-      <c r="AB22" s="258"/>
-      <c r="AC22" s="259"/>
+      <c r="X22" s="149"/>
+      <c r="Y22" s="149"/>
+      <c r="Z22" s="149"/>
+      <c r="AA22" s="149"/>
+      <c r="AB22" s="149"/>
+      <c r="AC22" s="150"/>
       <c r="AD22" s="81"/>
-      <c r="AE22" s="258"/>
-      <c r="AF22" s="258"/>
-      <c r="AG22" s="258"/>
-      <c r="AH22" s="258"/>
-      <c r="AI22" s="258"/>
-      <c r="AJ22" s="259"/>
-      <c r="AK22" s="260"/>
-      <c r="AL22" s="261"/>
-      <c r="AM22" s="152"/>
-      <c r="AN22" s="153"/>
-      <c r="AO22" s="153"/>
-      <c r="AP22" s="153"/>
-      <c r="AQ22" s="153"/>
-      <c r="AR22" s="153"/>
-      <c r="AS22" s="153"/>
-      <c r="AT22" s="153"/>
-      <c r="AU22" s="153"/>
-      <c r="AV22" s="153"/>
-      <c r="AW22" s="153"/>
-      <c r="AX22" s="153"/>
-      <c r="AY22" s="153"/>
-      <c r="AZ22" s="153"/>
-      <c r="BA22" s="153"/>
-      <c r="BB22" s="153"/>
-      <c r="BC22" s="153"/>
-      <c r="BD22" s="153"/>
-      <c r="BE22" s="153"/>
-      <c r="BF22" s="153"/>
-      <c r="BG22" s="153"/>
-      <c r="BH22" s="153"/>
-      <c r="BI22" s="153"/>
-      <c r="BJ22" s="153"/>
-      <c r="BK22" s="153"/>
-      <c r="BL22" s="153"/>
-      <c r="BM22" s="153"/>
-      <c r="BN22" s="153"/>
-      <c r="BO22" s="153"/>
-      <c r="BP22" s="153"/>
-      <c r="BQ22" s="153"/>
-      <c r="BR22" s="154"/>
+      <c r="AE22" s="149"/>
+      <c r="AF22" s="149"/>
+      <c r="AG22" s="149"/>
+      <c r="AH22" s="149"/>
+      <c r="AI22" s="149"/>
+      <c r="AJ22" s="150"/>
+      <c r="AK22" s="151"/>
+      <c r="AL22" s="152"/>
+      <c r="AM22" s="167"/>
+      <c r="AN22" s="168"/>
+      <c r="AO22" s="168"/>
+      <c r="AP22" s="168"/>
+      <c r="AQ22" s="168"/>
+      <c r="AR22" s="168"/>
+      <c r="AS22" s="168"/>
+      <c r="AT22" s="168"/>
+      <c r="AU22" s="168"/>
+      <c r="AV22" s="168"/>
+      <c r="AW22" s="168"/>
+      <c r="AX22" s="168"/>
+      <c r="AY22" s="168"/>
+      <c r="AZ22" s="168"/>
+      <c r="BA22" s="168"/>
+      <c r="BB22" s="168"/>
+      <c r="BC22" s="168"/>
+      <c r="BD22" s="168"/>
+      <c r="BE22" s="168"/>
+      <c r="BF22" s="168"/>
+      <c r="BG22" s="168"/>
+      <c r="BH22" s="168"/>
+      <c r="BI22" s="168"/>
+      <c r="BJ22" s="168"/>
+      <c r="BK22" s="168"/>
+      <c r="BL22" s="168"/>
+      <c r="BM22" s="168"/>
+      <c r="BN22" s="168"/>
+      <c r="BO22" s="168"/>
+      <c r="BP22" s="168"/>
+      <c r="BQ22" s="168"/>
+      <c r="BR22" s="169"/>
     </row>
     <row r="23" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="224"/>
+      <c r="A23" s="202"/>
       <c r="B23" s="66"/>
       <c r="C23" s="63"/>
       <c r="D23" s="63"/>
@@ -6363,41 +6369,41 @@
       <c r="AJ23" s="64"/>
       <c r="AK23" s="66"/>
       <c r="AL23" s="67"/>
-      <c r="AM23" s="155"/>
-      <c r="AN23" s="156"/>
-      <c r="AO23" s="156"/>
-      <c r="AP23" s="156"/>
-      <c r="AQ23" s="156"/>
-      <c r="AR23" s="156"/>
-      <c r="AS23" s="156"/>
-      <c r="AT23" s="156"/>
-      <c r="AU23" s="156"/>
-      <c r="AV23" s="156"/>
-      <c r="AW23" s="156"/>
-      <c r="AX23" s="156"/>
-      <c r="AY23" s="156"/>
-      <c r="AZ23" s="156"/>
-      <c r="BA23" s="156"/>
-      <c r="BB23" s="156"/>
-      <c r="BC23" s="156"/>
-      <c r="BD23" s="156"/>
-      <c r="BE23" s="156"/>
-      <c r="BF23" s="156"/>
-      <c r="BG23" s="156"/>
-      <c r="BH23" s="156"/>
-      <c r="BI23" s="156"/>
-      <c r="BJ23" s="156"/>
-      <c r="BK23" s="156"/>
-      <c r="BL23" s="156"/>
-      <c r="BM23" s="156"/>
-      <c r="BN23" s="156"/>
-      <c r="BO23" s="156"/>
-      <c r="BP23" s="156"/>
-      <c r="BQ23" s="156"/>
-      <c r="BR23" s="157"/>
+      <c r="AM23" s="170"/>
+      <c r="AN23" s="171"/>
+      <c r="AO23" s="171"/>
+      <c r="AP23" s="171"/>
+      <c r="AQ23" s="171"/>
+      <c r="AR23" s="171"/>
+      <c r="AS23" s="171"/>
+      <c r="AT23" s="171"/>
+      <c r="AU23" s="171"/>
+      <c r="AV23" s="171"/>
+      <c r="AW23" s="171"/>
+      <c r="AX23" s="171"/>
+      <c r="AY23" s="171"/>
+      <c r="AZ23" s="171"/>
+      <c r="BA23" s="171"/>
+      <c r="BB23" s="171"/>
+      <c r="BC23" s="171"/>
+      <c r="BD23" s="171"/>
+      <c r="BE23" s="171"/>
+      <c r="BF23" s="171"/>
+      <c r="BG23" s="171"/>
+      <c r="BH23" s="171"/>
+      <c r="BI23" s="171"/>
+      <c r="BJ23" s="171"/>
+      <c r="BK23" s="171"/>
+      <c r="BL23" s="171"/>
+      <c r="BM23" s="171"/>
+      <c r="BN23" s="171"/>
+      <c r="BO23" s="171"/>
+      <c r="BP23" s="171"/>
+      <c r="BQ23" s="171"/>
+      <c r="BR23" s="172"/>
     </row>
     <row r="24" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="222" t="s">
+      <c r="A24" s="200" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="45"/>
@@ -6462,16 +6468,16 @@
       <c r="BI24" s="120"/>
       <c r="BJ24" s="120"/>
       <c r="BK24" s="121"/>
-      <c r="BL24" s="239"/>
+      <c r="BL24" s="165"/>
       <c r="BM24" s="120"/>
       <c r="BN24" s="120"/>
-      <c r="BO24" s="168"/>
-      <c r="BP24" s="239"/>
+      <c r="BO24" s="179"/>
+      <c r="BP24" s="165"/>
       <c r="BQ24" s="120"/>
-      <c r="BR24" s="241"/>
+      <c r="BR24" s="177"/>
     </row>
     <row r="25" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="223"/>
+      <c r="A25" s="201"/>
       <c r="B25" s="113"/>
       <c r="C25" s="110"/>
       <c r="D25" s="110"/>
@@ -6534,88 +6540,88 @@
       <c r="BI25" s="127"/>
       <c r="BJ25" s="127"/>
       <c r="BK25" s="128"/>
-      <c r="BL25" s="240"/>
+      <c r="BL25" s="166"/>
       <c r="BM25" s="127"/>
       <c r="BN25" s="127"/>
-      <c r="BO25" s="169"/>
-      <c r="BP25" s="240"/>
+      <c r="BO25" s="180"/>
+      <c r="BP25" s="166"/>
       <c r="BQ25" s="127"/>
-      <c r="BR25" s="242"/>
+      <c r="BR25" s="178"/>
     </row>
     <row r="26" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="223"/>
+      <c r="A26" s="201"/>
       <c r="B26" s="81"/>
-      <c r="C26" s="258"/>
-      <c r="D26" s="258"/>
-      <c r="E26" s="258"/>
-      <c r="F26" s="258"/>
-      <c r="G26" s="258"/>
-      <c r="H26" s="259"/>
+      <c r="C26" s="149"/>
+      <c r="D26" s="149"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="150"/>
       <c r="I26" s="81"/>
-      <c r="J26" s="258"/>
-      <c r="K26" s="258"/>
-      <c r="L26" s="258"/>
-      <c r="M26" s="258"/>
-      <c r="N26" s="258"/>
-      <c r="O26" s="259"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
+      <c r="N26" s="149"/>
+      <c r="O26" s="150"/>
       <c r="P26" s="81"/>
-      <c r="Q26" s="258"/>
-      <c r="R26" s="258"/>
-      <c r="S26" s="258"/>
-      <c r="T26" s="258"/>
-      <c r="U26" s="258"/>
-      <c r="V26" s="259"/>
+      <c r="Q26" s="149"/>
+      <c r="R26" s="149"/>
+      <c r="S26" s="149"/>
+      <c r="T26" s="149"/>
+      <c r="U26" s="149"/>
+      <c r="V26" s="150"/>
       <c r="W26" s="81"/>
-      <c r="X26" s="258"/>
-      <c r="Y26" s="258"/>
-      <c r="Z26" s="258"/>
-      <c r="AA26" s="258"/>
-      <c r="AB26" s="258"/>
-      <c r="AC26" s="259"/>
+      <c r="X26" s="149"/>
+      <c r="Y26" s="149"/>
+      <c r="Z26" s="149"/>
+      <c r="AA26" s="149"/>
+      <c r="AB26" s="149"/>
+      <c r="AC26" s="150"/>
       <c r="AD26" s="81"/>
-      <c r="AE26" s="258"/>
-      <c r="AF26" s="258"/>
-      <c r="AG26" s="258"/>
-      <c r="AH26" s="258"/>
-      <c r="AI26" s="258"/>
-      <c r="AJ26" s="259"/>
-      <c r="AK26" s="260"/>
-      <c r="AL26" s="261"/>
-      <c r="AM26" s="152"/>
-      <c r="AN26" s="153"/>
-      <c r="AO26" s="153"/>
-      <c r="AP26" s="153"/>
-      <c r="AQ26" s="153"/>
-      <c r="AR26" s="153"/>
-      <c r="AS26" s="153"/>
-      <c r="AT26" s="153"/>
-      <c r="AU26" s="153"/>
-      <c r="AV26" s="153"/>
-      <c r="AW26" s="153"/>
-      <c r="AX26" s="153"/>
-      <c r="AY26" s="153"/>
-      <c r="AZ26" s="153"/>
-      <c r="BA26" s="153"/>
-      <c r="BB26" s="153"/>
-      <c r="BC26" s="153"/>
-      <c r="BD26" s="153"/>
-      <c r="BE26" s="153"/>
-      <c r="BF26" s="153"/>
-      <c r="BG26" s="153"/>
-      <c r="BH26" s="153"/>
-      <c r="BI26" s="153"/>
-      <c r="BJ26" s="153"/>
-      <c r="BK26" s="153"/>
-      <c r="BL26" s="153"/>
-      <c r="BM26" s="153"/>
-      <c r="BN26" s="153"/>
-      <c r="BO26" s="153"/>
-      <c r="BP26" s="153"/>
-      <c r="BQ26" s="153"/>
-      <c r="BR26" s="154"/>
+      <c r="AE26" s="149"/>
+      <c r="AF26" s="149"/>
+      <c r="AG26" s="149"/>
+      <c r="AH26" s="149"/>
+      <c r="AI26" s="149"/>
+      <c r="AJ26" s="150"/>
+      <c r="AK26" s="151"/>
+      <c r="AL26" s="152"/>
+      <c r="AM26" s="167"/>
+      <c r="AN26" s="168"/>
+      <c r="AO26" s="168"/>
+      <c r="AP26" s="168"/>
+      <c r="AQ26" s="168"/>
+      <c r="AR26" s="168"/>
+      <c r="AS26" s="168"/>
+      <c r="AT26" s="168"/>
+      <c r="AU26" s="168"/>
+      <c r="AV26" s="168"/>
+      <c r="AW26" s="168"/>
+      <c r="AX26" s="168"/>
+      <c r="AY26" s="168"/>
+      <c r="AZ26" s="168"/>
+      <c r="BA26" s="168"/>
+      <c r="BB26" s="168"/>
+      <c r="BC26" s="168"/>
+      <c r="BD26" s="168"/>
+      <c r="BE26" s="168"/>
+      <c r="BF26" s="168"/>
+      <c r="BG26" s="168"/>
+      <c r="BH26" s="168"/>
+      <c r="BI26" s="168"/>
+      <c r="BJ26" s="168"/>
+      <c r="BK26" s="168"/>
+      <c r="BL26" s="168"/>
+      <c r="BM26" s="168"/>
+      <c r="BN26" s="168"/>
+      <c r="BO26" s="168"/>
+      <c r="BP26" s="168"/>
+      <c r="BQ26" s="168"/>
+      <c r="BR26" s="169"/>
     </row>
     <row r="27" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="224"/>
+      <c r="A27" s="202"/>
       <c r="B27" s="66"/>
       <c r="C27" s="63"/>
       <c r="D27" s="63"/>
@@ -6653,41 +6659,41 @@
       <c r="AJ27" s="64"/>
       <c r="AK27" s="66"/>
       <c r="AL27" s="67"/>
-      <c r="AM27" s="155"/>
-      <c r="AN27" s="156"/>
-      <c r="AO27" s="156"/>
-      <c r="AP27" s="156"/>
-      <c r="AQ27" s="156"/>
-      <c r="AR27" s="156"/>
-      <c r="AS27" s="156"/>
-      <c r="AT27" s="156"/>
-      <c r="AU27" s="156"/>
-      <c r="AV27" s="156"/>
-      <c r="AW27" s="156"/>
-      <c r="AX27" s="156"/>
-      <c r="AY27" s="156"/>
-      <c r="AZ27" s="156"/>
-      <c r="BA27" s="156"/>
-      <c r="BB27" s="156"/>
-      <c r="BC27" s="156"/>
-      <c r="BD27" s="156"/>
-      <c r="BE27" s="156"/>
-      <c r="BF27" s="156"/>
-      <c r="BG27" s="156"/>
-      <c r="BH27" s="156"/>
-      <c r="BI27" s="156"/>
-      <c r="BJ27" s="156"/>
-      <c r="BK27" s="156"/>
-      <c r="BL27" s="156"/>
-      <c r="BM27" s="156"/>
-      <c r="BN27" s="156"/>
-      <c r="BO27" s="156"/>
-      <c r="BP27" s="156"/>
-      <c r="BQ27" s="156"/>
-      <c r="BR27" s="157"/>
+      <c r="AM27" s="170"/>
+      <c r="AN27" s="171"/>
+      <c r="AO27" s="171"/>
+      <c r="AP27" s="171"/>
+      <c r="AQ27" s="171"/>
+      <c r="AR27" s="171"/>
+      <c r="AS27" s="171"/>
+      <c r="AT27" s="171"/>
+      <c r="AU27" s="171"/>
+      <c r="AV27" s="171"/>
+      <c r="AW27" s="171"/>
+      <c r="AX27" s="171"/>
+      <c r="AY27" s="171"/>
+      <c r="AZ27" s="171"/>
+      <c r="BA27" s="171"/>
+      <c r="BB27" s="171"/>
+      <c r="BC27" s="171"/>
+      <c r="BD27" s="171"/>
+      <c r="BE27" s="171"/>
+      <c r="BF27" s="171"/>
+      <c r="BG27" s="171"/>
+      <c r="BH27" s="171"/>
+      <c r="BI27" s="171"/>
+      <c r="BJ27" s="171"/>
+      <c r="BK27" s="171"/>
+      <c r="BL27" s="171"/>
+      <c r="BM27" s="171"/>
+      <c r="BN27" s="171"/>
+      <c r="BO27" s="171"/>
+      <c r="BP27" s="171"/>
+      <c r="BQ27" s="171"/>
+      <c r="BR27" s="172"/>
     </row>
     <row r="28" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="222" t="s">
+      <c r="A28" s="200" t="s">
         <v>54</v>
       </c>
       <c r="B28" s="45"/>
@@ -6752,16 +6758,16 @@
       <c r="BI28" s="120"/>
       <c r="BJ28" s="120"/>
       <c r="BK28" s="121"/>
-      <c r="BL28" s="239"/>
+      <c r="BL28" s="165"/>
       <c r="BM28" s="120"/>
       <c r="BN28" s="120"/>
-      <c r="BO28" s="168"/>
-      <c r="BP28" s="239"/>
+      <c r="BO28" s="179"/>
+      <c r="BP28" s="165"/>
       <c r="BQ28" s="120"/>
-      <c r="BR28" s="241"/>
+      <c r="BR28" s="177"/>
     </row>
     <row r="29" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="223"/>
+      <c r="A29" s="201"/>
       <c r="B29" s="113"/>
       <c r="C29" s="110"/>
       <c r="D29" s="110"/>
@@ -6824,88 +6830,88 @@
       <c r="BI29" s="127"/>
       <c r="BJ29" s="127"/>
       <c r="BK29" s="128"/>
-      <c r="BL29" s="240"/>
+      <c r="BL29" s="166"/>
       <c r="BM29" s="127"/>
       <c r="BN29" s="127"/>
-      <c r="BO29" s="169"/>
-      <c r="BP29" s="240"/>
+      <c r="BO29" s="180"/>
+      <c r="BP29" s="166"/>
       <c r="BQ29" s="127"/>
-      <c r="BR29" s="242"/>
+      <c r="BR29" s="178"/>
     </row>
     <row r="30" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="223"/>
+      <c r="A30" s="201"/>
       <c r="B30" s="81"/>
-      <c r="C30" s="258"/>
-      <c r="D30" s="258"/>
-      <c r="E30" s="258"/>
-      <c r="F30" s="258"/>
-      <c r="G30" s="258"/>
-      <c r="H30" s="259"/>
+      <c r="C30" s="149"/>
+      <c r="D30" s="149"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="150"/>
       <c r="I30" s="81"/>
-      <c r="J30" s="258"/>
-      <c r="K30" s="258"/>
-      <c r="L30" s="258"/>
-      <c r="M30" s="258"/>
-      <c r="N30" s="258"/>
-      <c r="O30" s="259"/>
-      <c r="P30" s="262"/>
-      <c r="Q30" s="263"/>
-      <c r="R30" s="258"/>
-      <c r="S30" s="258"/>
-      <c r="T30" s="258"/>
-      <c r="U30" s="258"/>
-      <c r="V30" s="259"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
+      <c r="N30" s="149"/>
+      <c r="O30" s="150"/>
+      <c r="P30" s="153"/>
+      <c r="Q30" s="154"/>
+      <c r="R30" s="149"/>
+      <c r="S30" s="149"/>
+      <c r="T30" s="149"/>
+      <c r="U30" s="149"/>
+      <c r="V30" s="150"/>
       <c r="W30" s="81"/>
-      <c r="X30" s="258"/>
-      <c r="Y30" s="258"/>
-      <c r="Z30" s="258"/>
-      <c r="AA30" s="258"/>
-      <c r="AB30" s="258"/>
-      <c r="AC30" s="259"/>
+      <c r="X30" s="149"/>
+      <c r="Y30" s="149"/>
+      <c r="Z30" s="149"/>
+      <c r="AA30" s="149"/>
+      <c r="AB30" s="149"/>
+      <c r="AC30" s="150"/>
       <c r="AD30" s="81"/>
-      <c r="AE30" s="258"/>
-      <c r="AF30" s="258"/>
-      <c r="AG30" s="258"/>
-      <c r="AH30" s="258"/>
-      <c r="AI30" s="258"/>
-      <c r="AJ30" s="259"/>
-      <c r="AK30" s="260"/>
-      <c r="AL30" s="261"/>
-      <c r="AM30" s="152"/>
-      <c r="AN30" s="153"/>
-      <c r="AO30" s="153"/>
-      <c r="AP30" s="153"/>
-      <c r="AQ30" s="153"/>
-      <c r="AR30" s="153"/>
-      <c r="AS30" s="153"/>
-      <c r="AT30" s="153"/>
-      <c r="AU30" s="153"/>
-      <c r="AV30" s="153"/>
-      <c r="AW30" s="153"/>
-      <c r="AX30" s="153"/>
-      <c r="AY30" s="153"/>
-      <c r="AZ30" s="153"/>
-      <c r="BA30" s="153"/>
-      <c r="BB30" s="153"/>
-      <c r="BC30" s="153"/>
-      <c r="BD30" s="153"/>
-      <c r="BE30" s="153"/>
-      <c r="BF30" s="153"/>
-      <c r="BG30" s="153"/>
-      <c r="BH30" s="153"/>
-      <c r="BI30" s="153"/>
-      <c r="BJ30" s="153"/>
-      <c r="BK30" s="153"/>
-      <c r="BL30" s="153"/>
-      <c r="BM30" s="153"/>
-      <c r="BN30" s="153"/>
-      <c r="BO30" s="153"/>
-      <c r="BP30" s="153"/>
-      <c r="BQ30" s="153"/>
-      <c r="BR30" s="154"/>
+      <c r="AE30" s="149"/>
+      <c r="AF30" s="149"/>
+      <c r="AG30" s="149"/>
+      <c r="AH30" s="149"/>
+      <c r="AI30" s="149"/>
+      <c r="AJ30" s="150"/>
+      <c r="AK30" s="151"/>
+      <c r="AL30" s="152"/>
+      <c r="AM30" s="167"/>
+      <c r="AN30" s="168"/>
+      <c r="AO30" s="168"/>
+      <c r="AP30" s="168"/>
+      <c r="AQ30" s="168"/>
+      <c r="AR30" s="168"/>
+      <c r="AS30" s="168"/>
+      <c r="AT30" s="168"/>
+      <c r="AU30" s="168"/>
+      <c r="AV30" s="168"/>
+      <c r="AW30" s="168"/>
+      <c r="AX30" s="168"/>
+      <c r="AY30" s="168"/>
+      <c r="AZ30" s="168"/>
+      <c r="BA30" s="168"/>
+      <c r="BB30" s="168"/>
+      <c r="BC30" s="168"/>
+      <c r="BD30" s="168"/>
+      <c r="BE30" s="168"/>
+      <c r="BF30" s="168"/>
+      <c r="BG30" s="168"/>
+      <c r="BH30" s="168"/>
+      <c r="BI30" s="168"/>
+      <c r="BJ30" s="168"/>
+      <c r="BK30" s="168"/>
+      <c r="BL30" s="168"/>
+      <c r="BM30" s="168"/>
+      <c r="BN30" s="168"/>
+      <c r="BO30" s="168"/>
+      <c r="BP30" s="168"/>
+      <c r="BQ30" s="168"/>
+      <c r="BR30" s="169"/>
     </row>
     <row r="31" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="224"/>
+      <c r="A31" s="202"/>
       <c r="B31" s="71"/>
       <c r="C31" s="69"/>
       <c r="D31" s="69"/>
@@ -6943,41 +6949,41 @@
       <c r="AJ31" s="70"/>
       <c r="AK31" s="71"/>
       <c r="AL31" s="72"/>
-      <c r="AM31" s="155"/>
-      <c r="AN31" s="156"/>
-      <c r="AO31" s="156"/>
-      <c r="AP31" s="156"/>
-      <c r="AQ31" s="156"/>
-      <c r="AR31" s="156"/>
-      <c r="AS31" s="156"/>
-      <c r="AT31" s="156"/>
-      <c r="AU31" s="156"/>
-      <c r="AV31" s="156"/>
-      <c r="AW31" s="156"/>
-      <c r="AX31" s="156"/>
-      <c r="AY31" s="156"/>
-      <c r="AZ31" s="156"/>
-      <c r="BA31" s="156"/>
-      <c r="BB31" s="156"/>
-      <c r="BC31" s="156"/>
-      <c r="BD31" s="156"/>
-      <c r="BE31" s="156"/>
-      <c r="BF31" s="156"/>
-      <c r="BG31" s="156"/>
-      <c r="BH31" s="156"/>
-      <c r="BI31" s="156"/>
-      <c r="BJ31" s="156"/>
-      <c r="BK31" s="156"/>
-      <c r="BL31" s="156"/>
-      <c r="BM31" s="156"/>
-      <c r="BN31" s="156"/>
-      <c r="BO31" s="156"/>
-      <c r="BP31" s="156"/>
-      <c r="BQ31" s="156"/>
-      <c r="BR31" s="157"/>
+      <c r="AM31" s="170"/>
+      <c r="AN31" s="171"/>
+      <c r="AO31" s="171"/>
+      <c r="AP31" s="171"/>
+      <c r="AQ31" s="171"/>
+      <c r="AR31" s="171"/>
+      <c r="AS31" s="171"/>
+      <c r="AT31" s="171"/>
+      <c r="AU31" s="171"/>
+      <c r="AV31" s="171"/>
+      <c r="AW31" s="171"/>
+      <c r="AX31" s="171"/>
+      <c r="AY31" s="171"/>
+      <c r="AZ31" s="171"/>
+      <c r="BA31" s="171"/>
+      <c r="BB31" s="171"/>
+      <c r="BC31" s="171"/>
+      <c r="BD31" s="171"/>
+      <c r="BE31" s="171"/>
+      <c r="BF31" s="171"/>
+      <c r="BG31" s="171"/>
+      <c r="BH31" s="171"/>
+      <c r="BI31" s="171"/>
+      <c r="BJ31" s="171"/>
+      <c r="BK31" s="171"/>
+      <c r="BL31" s="171"/>
+      <c r="BM31" s="171"/>
+      <c r="BN31" s="171"/>
+      <c r="BO31" s="171"/>
+      <c r="BP31" s="171"/>
+      <c r="BQ31" s="171"/>
+      <c r="BR31" s="172"/>
     </row>
     <row r="32" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="222" t="s">
+      <c r="A32" s="200" t="s">
         <v>55</v>
       </c>
       <c r="B32" s="40"/>
@@ -7042,16 +7048,16 @@
       <c r="BI32" s="120"/>
       <c r="BJ32" s="120"/>
       <c r="BK32" s="121"/>
-      <c r="BL32" s="239"/>
+      <c r="BL32" s="165"/>
       <c r="BM32" s="120"/>
       <c r="BN32" s="120"/>
-      <c r="BO32" s="168"/>
-      <c r="BP32" s="239"/>
+      <c r="BO32" s="179"/>
+      <c r="BP32" s="165"/>
       <c r="BQ32" s="120"/>
-      <c r="BR32" s="241"/>
+      <c r="BR32" s="177"/>
     </row>
     <row r="33" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="223"/>
+      <c r="A33" s="201"/>
       <c r="B33" s="113"/>
       <c r="C33" s="110"/>
       <c r="D33" s="110"/>
@@ -7114,88 +7120,88 @@
       <c r="BI33" s="127"/>
       <c r="BJ33" s="127"/>
       <c r="BK33" s="128"/>
-      <c r="BL33" s="240"/>
+      <c r="BL33" s="166"/>
       <c r="BM33" s="127"/>
       <c r="BN33" s="127"/>
-      <c r="BO33" s="169"/>
-      <c r="BP33" s="240"/>
+      <c r="BO33" s="180"/>
+      <c r="BP33" s="166"/>
       <c r="BQ33" s="127"/>
-      <c r="BR33" s="242"/>
+      <c r="BR33" s="178"/>
     </row>
     <row r="34" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="223"/>
+      <c r="A34" s="201"/>
       <c r="B34" s="81"/>
-      <c r="C34" s="258"/>
-      <c r="D34" s="258"/>
-      <c r="E34" s="258"/>
-      <c r="F34" s="258"/>
-      <c r="G34" s="258"/>
-      <c r="H34" s="259"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="150"/>
       <c r="I34" s="81"/>
-      <c r="J34" s="258"/>
-      <c r="K34" s="258"/>
-      <c r="L34" s="258"/>
-      <c r="M34" s="258"/>
-      <c r="N34" s="258"/>
-      <c r="O34" s="259"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
+      <c r="N34" s="149"/>
+      <c r="O34" s="150"/>
       <c r="P34" s="81"/>
-      <c r="Q34" s="258"/>
-      <c r="R34" s="258"/>
-      <c r="S34" s="258"/>
-      <c r="T34" s="258"/>
-      <c r="U34" s="258"/>
-      <c r="V34" s="259"/>
+      <c r="Q34" s="149"/>
+      <c r="R34" s="149"/>
+      <c r="S34" s="149"/>
+      <c r="T34" s="149"/>
+      <c r="U34" s="149"/>
+      <c r="V34" s="150"/>
       <c r="W34" s="81"/>
-      <c r="X34" s="258"/>
-      <c r="Y34" s="258"/>
-      <c r="Z34" s="258"/>
-      <c r="AA34" s="258"/>
-      <c r="AB34" s="258"/>
-      <c r="AC34" s="259"/>
+      <c r="X34" s="149"/>
+      <c r="Y34" s="149"/>
+      <c r="Z34" s="149"/>
+      <c r="AA34" s="149"/>
+      <c r="AB34" s="149"/>
+      <c r="AC34" s="150"/>
       <c r="AD34" s="81"/>
-      <c r="AE34" s="258"/>
-      <c r="AF34" s="258"/>
-      <c r="AG34" s="258"/>
-      <c r="AH34" s="258"/>
-      <c r="AI34" s="258"/>
-      <c r="AJ34" s="259"/>
-      <c r="AK34" s="260"/>
-      <c r="AL34" s="261"/>
-      <c r="AM34" s="152"/>
-      <c r="AN34" s="153"/>
-      <c r="AO34" s="153"/>
-      <c r="AP34" s="153"/>
-      <c r="AQ34" s="153"/>
-      <c r="AR34" s="153"/>
-      <c r="AS34" s="153"/>
-      <c r="AT34" s="153"/>
-      <c r="AU34" s="153"/>
-      <c r="AV34" s="153"/>
-      <c r="AW34" s="153"/>
-      <c r="AX34" s="153"/>
-      <c r="AY34" s="153"/>
-      <c r="AZ34" s="153"/>
-      <c r="BA34" s="153"/>
-      <c r="BB34" s="153"/>
-      <c r="BC34" s="153"/>
-      <c r="BD34" s="153"/>
-      <c r="BE34" s="153"/>
-      <c r="BF34" s="153"/>
-      <c r="BG34" s="153"/>
-      <c r="BH34" s="153"/>
-      <c r="BI34" s="153"/>
-      <c r="BJ34" s="153"/>
-      <c r="BK34" s="153"/>
-      <c r="BL34" s="153"/>
-      <c r="BM34" s="153"/>
-      <c r="BN34" s="153"/>
-      <c r="BO34" s="153"/>
-      <c r="BP34" s="153"/>
-      <c r="BQ34" s="153"/>
-      <c r="BR34" s="154"/>
+      <c r="AE34" s="149"/>
+      <c r="AF34" s="149"/>
+      <c r="AG34" s="149"/>
+      <c r="AH34" s="149"/>
+      <c r="AI34" s="149"/>
+      <c r="AJ34" s="150"/>
+      <c r="AK34" s="151"/>
+      <c r="AL34" s="152"/>
+      <c r="AM34" s="167"/>
+      <c r="AN34" s="168"/>
+      <c r="AO34" s="168"/>
+      <c r="AP34" s="168"/>
+      <c r="AQ34" s="168"/>
+      <c r="AR34" s="168"/>
+      <c r="AS34" s="168"/>
+      <c r="AT34" s="168"/>
+      <c r="AU34" s="168"/>
+      <c r="AV34" s="168"/>
+      <c r="AW34" s="168"/>
+      <c r="AX34" s="168"/>
+      <c r="AY34" s="168"/>
+      <c r="AZ34" s="168"/>
+      <c r="BA34" s="168"/>
+      <c r="BB34" s="168"/>
+      <c r="BC34" s="168"/>
+      <c r="BD34" s="168"/>
+      <c r="BE34" s="168"/>
+      <c r="BF34" s="168"/>
+      <c r="BG34" s="168"/>
+      <c r="BH34" s="168"/>
+      <c r="BI34" s="168"/>
+      <c r="BJ34" s="168"/>
+      <c r="BK34" s="168"/>
+      <c r="BL34" s="168"/>
+      <c r="BM34" s="168"/>
+      <c r="BN34" s="168"/>
+      <c r="BO34" s="168"/>
+      <c r="BP34" s="168"/>
+      <c r="BQ34" s="168"/>
+      <c r="BR34" s="169"/>
     </row>
     <row r="35" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="224"/>
+      <c r="A35" s="202"/>
       <c r="B35" s="66"/>
       <c r="C35" s="63"/>
       <c r="D35" s="63"/>
@@ -7233,41 +7239,41 @@
       <c r="AJ35" s="64"/>
       <c r="AK35" s="66"/>
       <c r="AL35" s="67"/>
-      <c r="AM35" s="155"/>
-      <c r="AN35" s="156"/>
-      <c r="AO35" s="156"/>
-      <c r="AP35" s="156"/>
-      <c r="AQ35" s="156"/>
-      <c r="AR35" s="156"/>
-      <c r="AS35" s="156"/>
-      <c r="AT35" s="156"/>
-      <c r="AU35" s="156"/>
-      <c r="AV35" s="156"/>
-      <c r="AW35" s="156"/>
-      <c r="AX35" s="156"/>
-      <c r="AY35" s="156"/>
-      <c r="AZ35" s="156"/>
-      <c r="BA35" s="156"/>
-      <c r="BB35" s="156"/>
-      <c r="BC35" s="156"/>
-      <c r="BD35" s="156"/>
-      <c r="BE35" s="156"/>
-      <c r="BF35" s="156"/>
-      <c r="BG35" s="156"/>
-      <c r="BH35" s="156"/>
-      <c r="BI35" s="156"/>
-      <c r="BJ35" s="156"/>
-      <c r="BK35" s="156"/>
-      <c r="BL35" s="156"/>
-      <c r="BM35" s="156"/>
-      <c r="BN35" s="156"/>
-      <c r="BO35" s="156"/>
-      <c r="BP35" s="156"/>
-      <c r="BQ35" s="156"/>
-      <c r="BR35" s="157"/>
+      <c r="AM35" s="170"/>
+      <c r="AN35" s="171"/>
+      <c r="AO35" s="171"/>
+      <c r="AP35" s="171"/>
+      <c r="AQ35" s="171"/>
+      <c r="AR35" s="171"/>
+      <c r="AS35" s="171"/>
+      <c r="AT35" s="171"/>
+      <c r="AU35" s="171"/>
+      <c r="AV35" s="171"/>
+      <c r="AW35" s="171"/>
+      <c r="AX35" s="171"/>
+      <c r="AY35" s="171"/>
+      <c r="AZ35" s="171"/>
+      <c r="BA35" s="171"/>
+      <c r="BB35" s="171"/>
+      <c r="BC35" s="171"/>
+      <c r="BD35" s="171"/>
+      <c r="BE35" s="171"/>
+      <c r="BF35" s="171"/>
+      <c r="BG35" s="171"/>
+      <c r="BH35" s="171"/>
+      <c r="BI35" s="171"/>
+      <c r="BJ35" s="171"/>
+      <c r="BK35" s="171"/>
+      <c r="BL35" s="171"/>
+      <c r="BM35" s="171"/>
+      <c r="BN35" s="171"/>
+      <c r="BO35" s="171"/>
+      <c r="BP35" s="171"/>
+      <c r="BQ35" s="171"/>
+      <c r="BR35" s="172"/>
     </row>
     <row r="36" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="226" t="s">
+      <c r="A36" s="204" t="s">
         <v>56</v>
       </c>
       <c r="B36" s="42"/>
@@ -7332,16 +7338,16 @@
       <c r="BI36" s="120"/>
       <c r="BJ36" s="120"/>
       <c r="BK36" s="121"/>
-      <c r="BL36" s="239"/>
+      <c r="BL36" s="165"/>
       <c r="BM36" s="120"/>
       <c r="BN36" s="120"/>
-      <c r="BO36" s="168"/>
-      <c r="BP36" s="239"/>
+      <c r="BO36" s="179"/>
+      <c r="BP36" s="165"/>
       <c r="BQ36" s="120"/>
-      <c r="BR36" s="241"/>
+      <c r="BR36" s="177"/>
     </row>
     <row r="37" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="227"/>
+      <c r="A37" s="205"/>
       <c r="B37" s="109"/>
       <c r="C37" s="110"/>
       <c r="D37" s="110"/>
@@ -7404,88 +7410,88 @@
       <c r="BI37" s="127"/>
       <c r="BJ37" s="127"/>
       <c r="BK37" s="128"/>
-      <c r="BL37" s="240"/>
+      <c r="BL37" s="166"/>
       <c r="BM37" s="127"/>
       <c r="BN37" s="127"/>
-      <c r="BO37" s="169"/>
-      <c r="BP37" s="240"/>
+      <c r="BO37" s="180"/>
+      <c r="BP37" s="166"/>
       <c r="BQ37" s="127"/>
-      <c r="BR37" s="242"/>
+      <c r="BR37" s="178"/>
     </row>
     <row r="38" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="227"/>
+      <c r="A38" s="205"/>
       <c r="B38" s="81"/>
-      <c r="C38" s="258"/>
-      <c r="D38" s="258"/>
-      <c r="E38" s="258"/>
-      <c r="F38" s="258"/>
-      <c r="G38" s="258"/>
-      <c r="H38" s="259"/>
+      <c r="C38" s="149"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="150"/>
       <c r="I38" s="81"/>
-      <c r="J38" s="258"/>
-      <c r="K38" s="258"/>
-      <c r="L38" s="258"/>
-      <c r="M38" s="258"/>
-      <c r="N38" s="258"/>
-      <c r="O38" s="259"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
+      <c r="N38" s="149"/>
+      <c r="O38" s="150"/>
       <c r="P38" s="81"/>
-      <c r="Q38" s="258"/>
-      <c r="R38" s="258"/>
-      <c r="S38" s="258"/>
-      <c r="T38" s="258"/>
-      <c r="U38" s="258"/>
-      <c r="V38" s="259"/>
+      <c r="Q38" s="149"/>
+      <c r="R38" s="149"/>
+      <c r="S38" s="149"/>
+      <c r="T38" s="149"/>
+      <c r="U38" s="149"/>
+      <c r="V38" s="150"/>
       <c r="W38" s="81"/>
-      <c r="X38" s="258"/>
-      <c r="Y38" s="258"/>
-      <c r="Z38" s="258"/>
-      <c r="AA38" s="258"/>
-      <c r="AB38" s="258"/>
-      <c r="AC38" s="259"/>
+      <c r="X38" s="149"/>
+      <c r="Y38" s="149"/>
+      <c r="Z38" s="149"/>
+      <c r="AA38" s="149"/>
+      <c r="AB38" s="149"/>
+      <c r="AC38" s="150"/>
       <c r="AD38" s="81"/>
-      <c r="AE38" s="258"/>
-      <c r="AF38" s="258"/>
-      <c r="AG38" s="258"/>
-      <c r="AH38" s="258"/>
-      <c r="AI38" s="258"/>
-      <c r="AJ38" s="259"/>
-      <c r="AK38" s="260"/>
-      <c r="AL38" s="261"/>
-      <c r="AM38" s="152"/>
-      <c r="AN38" s="153"/>
-      <c r="AO38" s="153"/>
-      <c r="AP38" s="153"/>
-      <c r="AQ38" s="153"/>
-      <c r="AR38" s="153"/>
-      <c r="AS38" s="153"/>
-      <c r="AT38" s="153"/>
-      <c r="AU38" s="153"/>
-      <c r="AV38" s="153"/>
-      <c r="AW38" s="153"/>
-      <c r="AX38" s="153"/>
-      <c r="AY38" s="153"/>
-      <c r="AZ38" s="153"/>
-      <c r="BA38" s="153"/>
-      <c r="BB38" s="153"/>
-      <c r="BC38" s="153"/>
-      <c r="BD38" s="153"/>
-      <c r="BE38" s="153"/>
-      <c r="BF38" s="153"/>
-      <c r="BG38" s="153"/>
-      <c r="BH38" s="153"/>
-      <c r="BI38" s="153"/>
-      <c r="BJ38" s="153"/>
-      <c r="BK38" s="153"/>
-      <c r="BL38" s="153"/>
-      <c r="BM38" s="153"/>
-      <c r="BN38" s="153"/>
-      <c r="BO38" s="153"/>
-      <c r="BP38" s="153"/>
-      <c r="BQ38" s="153"/>
-      <c r="BR38" s="154"/>
+      <c r="AE38" s="149"/>
+      <c r="AF38" s="149"/>
+      <c r="AG38" s="149"/>
+      <c r="AH38" s="149"/>
+      <c r="AI38" s="149"/>
+      <c r="AJ38" s="150"/>
+      <c r="AK38" s="151"/>
+      <c r="AL38" s="152"/>
+      <c r="AM38" s="167"/>
+      <c r="AN38" s="168"/>
+      <c r="AO38" s="168"/>
+      <c r="AP38" s="168"/>
+      <c r="AQ38" s="168"/>
+      <c r="AR38" s="168"/>
+      <c r="AS38" s="168"/>
+      <c r="AT38" s="168"/>
+      <c r="AU38" s="168"/>
+      <c r="AV38" s="168"/>
+      <c r="AW38" s="168"/>
+      <c r="AX38" s="168"/>
+      <c r="AY38" s="168"/>
+      <c r="AZ38" s="168"/>
+      <c r="BA38" s="168"/>
+      <c r="BB38" s="168"/>
+      <c r="BC38" s="168"/>
+      <c r="BD38" s="168"/>
+      <c r="BE38" s="168"/>
+      <c r="BF38" s="168"/>
+      <c r="BG38" s="168"/>
+      <c r="BH38" s="168"/>
+      <c r="BI38" s="168"/>
+      <c r="BJ38" s="168"/>
+      <c r="BK38" s="168"/>
+      <c r="BL38" s="168"/>
+      <c r="BM38" s="168"/>
+      <c r="BN38" s="168"/>
+      <c r="BO38" s="168"/>
+      <c r="BP38" s="168"/>
+      <c r="BQ38" s="168"/>
+      <c r="BR38" s="169"/>
     </row>
     <row r="39" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="228"/>
+      <c r="A39" s="206"/>
       <c r="B39" s="68"/>
       <c r="C39" s="69"/>
       <c r="D39" s="69"/>
@@ -7523,41 +7529,41 @@
       <c r="AJ39" s="70"/>
       <c r="AK39" s="71"/>
       <c r="AL39" s="72"/>
-      <c r="AM39" s="155"/>
-      <c r="AN39" s="156"/>
-      <c r="AO39" s="156"/>
-      <c r="AP39" s="156"/>
-      <c r="AQ39" s="156"/>
-      <c r="AR39" s="156"/>
-      <c r="AS39" s="156"/>
-      <c r="AT39" s="156"/>
-      <c r="AU39" s="156"/>
-      <c r="AV39" s="156"/>
-      <c r="AW39" s="156"/>
-      <c r="AX39" s="156"/>
-      <c r="AY39" s="156"/>
-      <c r="AZ39" s="156"/>
-      <c r="BA39" s="156"/>
-      <c r="BB39" s="156"/>
-      <c r="BC39" s="156"/>
-      <c r="BD39" s="156"/>
-      <c r="BE39" s="156"/>
-      <c r="BF39" s="156"/>
-      <c r="BG39" s="156"/>
-      <c r="BH39" s="156"/>
-      <c r="BI39" s="156"/>
-      <c r="BJ39" s="156"/>
-      <c r="BK39" s="156"/>
-      <c r="BL39" s="156"/>
-      <c r="BM39" s="156"/>
-      <c r="BN39" s="156"/>
-      <c r="BO39" s="156"/>
-      <c r="BP39" s="156"/>
-      <c r="BQ39" s="156"/>
-      <c r="BR39" s="157"/>
+      <c r="AM39" s="170"/>
+      <c r="AN39" s="171"/>
+      <c r="AO39" s="171"/>
+      <c r="AP39" s="171"/>
+      <c r="AQ39" s="171"/>
+      <c r="AR39" s="171"/>
+      <c r="AS39" s="171"/>
+      <c r="AT39" s="171"/>
+      <c r="AU39" s="171"/>
+      <c r="AV39" s="171"/>
+      <c r="AW39" s="171"/>
+      <c r="AX39" s="171"/>
+      <c r="AY39" s="171"/>
+      <c r="AZ39" s="171"/>
+      <c r="BA39" s="171"/>
+      <c r="BB39" s="171"/>
+      <c r="BC39" s="171"/>
+      <c r="BD39" s="171"/>
+      <c r="BE39" s="171"/>
+      <c r="BF39" s="171"/>
+      <c r="BG39" s="171"/>
+      <c r="BH39" s="171"/>
+      <c r="BI39" s="171"/>
+      <c r="BJ39" s="171"/>
+      <c r="BK39" s="171"/>
+      <c r="BL39" s="171"/>
+      <c r="BM39" s="171"/>
+      <c r="BN39" s="171"/>
+      <c r="BO39" s="171"/>
+      <c r="BP39" s="171"/>
+      <c r="BQ39" s="171"/>
+      <c r="BR39" s="172"/>
     </row>
     <row r="40" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="226" t="s">
+      <c r="A40" s="204" t="s">
         <v>57</v>
       </c>
       <c r="B40" s="40"/>
@@ -7622,16 +7628,16 @@
       <c r="BI40" s="120"/>
       <c r="BJ40" s="120"/>
       <c r="BK40" s="121"/>
-      <c r="BL40" s="239"/>
+      <c r="BL40" s="165"/>
       <c r="BM40" s="120"/>
       <c r="BN40" s="120"/>
-      <c r="BO40" s="168"/>
-      <c r="BP40" s="239"/>
+      <c r="BO40" s="179"/>
+      <c r="BP40" s="165"/>
       <c r="BQ40" s="120"/>
-      <c r="BR40" s="241"/>
+      <c r="BR40" s="177"/>
     </row>
     <row r="41" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="227"/>
+      <c r="A41" s="205"/>
       <c r="B41" s="113"/>
       <c r="C41" s="110"/>
       <c r="D41" s="110"/>
@@ -7694,88 +7700,88 @@
       <c r="BI41" s="127"/>
       <c r="BJ41" s="127"/>
       <c r="BK41" s="128"/>
-      <c r="BL41" s="240"/>
+      <c r="BL41" s="166"/>
       <c r="BM41" s="127"/>
       <c r="BN41" s="127"/>
-      <c r="BO41" s="169"/>
-      <c r="BP41" s="240"/>
+      <c r="BO41" s="180"/>
+      <c r="BP41" s="166"/>
       <c r="BQ41" s="127"/>
-      <c r="BR41" s="242"/>
+      <c r="BR41" s="178"/>
     </row>
     <row r="42" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="227"/>
+      <c r="A42" s="205"/>
       <c r="B42" s="81"/>
-      <c r="C42" s="258"/>
-      <c r="D42" s="258"/>
-      <c r="E42" s="258"/>
-      <c r="F42" s="258"/>
-      <c r="G42" s="258"/>
-      <c r="H42" s="259"/>
+      <c r="C42" s="149"/>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="150"/>
       <c r="I42" s="81"/>
-      <c r="J42" s="258"/>
-      <c r="K42" s="258"/>
-      <c r="L42" s="258"/>
-      <c r="M42" s="258"/>
-      <c r="N42" s="258"/>
-      <c r="O42" s="259"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
+      <c r="N42" s="149"/>
+      <c r="O42" s="150"/>
       <c r="P42" s="81"/>
-      <c r="Q42" s="258"/>
-      <c r="R42" s="258"/>
-      <c r="S42" s="258"/>
-      <c r="T42" s="258"/>
-      <c r="U42" s="258"/>
-      <c r="V42" s="259"/>
+      <c r="Q42" s="149"/>
+      <c r="R42" s="149"/>
+      <c r="S42" s="149"/>
+      <c r="T42" s="149"/>
+      <c r="U42" s="149"/>
+      <c r="V42" s="150"/>
       <c r="W42" s="81"/>
-      <c r="X42" s="258"/>
-      <c r="Y42" s="258"/>
-      <c r="Z42" s="258"/>
-      <c r="AA42" s="258"/>
-      <c r="AB42" s="258"/>
-      <c r="AC42" s="259"/>
+      <c r="X42" s="149"/>
+      <c r="Y42" s="149"/>
+      <c r="Z42" s="149"/>
+      <c r="AA42" s="149"/>
+      <c r="AB42" s="149"/>
+      <c r="AC42" s="150"/>
       <c r="AD42" s="81"/>
-      <c r="AE42" s="258"/>
-      <c r="AF42" s="258"/>
-      <c r="AG42" s="258"/>
-      <c r="AH42" s="258"/>
-      <c r="AI42" s="258"/>
-      <c r="AJ42" s="259"/>
-      <c r="AK42" s="260"/>
-      <c r="AL42" s="261"/>
-      <c r="AM42" s="152"/>
-      <c r="AN42" s="153"/>
-      <c r="AO42" s="153"/>
-      <c r="AP42" s="153"/>
-      <c r="AQ42" s="153"/>
-      <c r="AR42" s="153"/>
-      <c r="AS42" s="153"/>
-      <c r="AT42" s="153"/>
-      <c r="AU42" s="153"/>
-      <c r="AV42" s="153"/>
-      <c r="AW42" s="153"/>
-      <c r="AX42" s="153"/>
-      <c r="AY42" s="153"/>
-      <c r="AZ42" s="153"/>
-      <c r="BA42" s="153"/>
-      <c r="BB42" s="153"/>
-      <c r="BC42" s="153"/>
-      <c r="BD42" s="153"/>
-      <c r="BE42" s="153"/>
-      <c r="BF42" s="153"/>
-      <c r="BG42" s="153"/>
-      <c r="BH42" s="153"/>
-      <c r="BI42" s="153"/>
-      <c r="BJ42" s="153"/>
-      <c r="BK42" s="153"/>
-      <c r="BL42" s="153"/>
-      <c r="BM42" s="153"/>
-      <c r="BN42" s="153"/>
-      <c r="BO42" s="153"/>
-      <c r="BP42" s="153"/>
-      <c r="BQ42" s="153"/>
-      <c r="BR42" s="154"/>
+      <c r="AE42" s="149"/>
+      <c r="AF42" s="149"/>
+      <c r="AG42" s="149"/>
+      <c r="AH42" s="149"/>
+      <c r="AI42" s="149"/>
+      <c r="AJ42" s="150"/>
+      <c r="AK42" s="151"/>
+      <c r="AL42" s="152"/>
+      <c r="AM42" s="167"/>
+      <c r="AN42" s="168"/>
+      <c r="AO42" s="168"/>
+      <c r="AP42" s="168"/>
+      <c r="AQ42" s="168"/>
+      <c r="AR42" s="168"/>
+      <c r="AS42" s="168"/>
+      <c r="AT42" s="168"/>
+      <c r="AU42" s="168"/>
+      <c r="AV42" s="168"/>
+      <c r="AW42" s="168"/>
+      <c r="AX42" s="168"/>
+      <c r="AY42" s="168"/>
+      <c r="AZ42" s="168"/>
+      <c r="BA42" s="168"/>
+      <c r="BB42" s="168"/>
+      <c r="BC42" s="168"/>
+      <c r="BD42" s="168"/>
+      <c r="BE42" s="168"/>
+      <c r="BF42" s="168"/>
+      <c r="BG42" s="168"/>
+      <c r="BH42" s="168"/>
+      <c r="BI42" s="168"/>
+      <c r="BJ42" s="168"/>
+      <c r="BK42" s="168"/>
+      <c r="BL42" s="168"/>
+      <c r="BM42" s="168"/>
+      <c r="BN42" s="168"/>
+      <c r="BO42" s="168"/>
+      <c r="BP42" s="168"/>
+      <c r="BQ42" s="168"/>
+      <c r="BR42" s="169"/>
     </row>
     <row r="43" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="228"/>
+      <c r="A43" s="206"/>
       <c r="B43" s="66"/>
       <c r="C43" s="63"/>
       <c r="D43" s="63"/>
@@ -7813,41 +7819,41 @@
       <c r="AJ43" s="64"/>
       <c r="AK43" s="66"/>
       <c r="AL43" s="67"/>
-      <c r="AM43" s="155"/>
-      <c r="AN43" s="156"/>
-      <c r="AO43" s="156"/>
-      <c r="AP43" s="156"/>
-      <c r="AQ43" s="156"/>
-      <c r="AR43" s="156"/>
-      <c r="AS43" s="156"/>
-      <c r="AT43" s="156"/>
-      <c r="AU43" s="156"/>
-      <c r="AV43" s="156"/>
-      <c r="AW43" s="156"/>
-      <c r="AX43" s="156"/>
-      <c r="AY43" s="156"/>
-      <c r="AZ43" s="156"/>
-      <c r="BA43" s="156"/>
-      <c r="BB43" s="156"/>
-      <c r="BC43" s="156"/>
-      <c r="BD43" s="156"/>
-      <c r="BE43" s="156"/>
-      <c r="BF43" s="156"/>
-      <c r="BG43" s="156"/>
-      <c r="BH43" s="156"/>
-      <c r="BI43" s="156"/>
-      <c r="BJ43" s="156"/>
-      <c r="BK43" s="156"/>
-      <c r="BL43" s="156"/>
-      <c r="BM43" s="156"/>
-      <c r="BN43" s="156"/>
-      <c r="BO43" s="156"/>
-      <c r="BP43" s="156"/>
-      <c r="BQ43" s="156"/>
-      <c r="BR43" s="157"/>
+      <c r="AM43" s="170"/>
+      <c r="AN43" s="171"/>
+      <c r="AO43" s="171"/>
+      <c r="AP43" s="171"/>
+      <c r="AQ43" s="171"/>
+      <c r="AR43" s="171"/>
+      <c r="AS43" s="171"/>
+      <c r="AT43" s="171"/>
+      <c r="AU43" s="171"/>
+      <c r="AV43" s="171"/>
+      <c r="AW43" s="171"/>
+      <c r="AX43" s="171"/>
+      <c r="AY43" s="171"/>
+      <c r="AZ43" s="171"/>
+      <c r="BA43" s="171"/>
+      <c r="BB43" s="171"/>
+      <c r="BC43" s="171"/>
+      <c r="BD43" s="171"/>
+      <c r="BE43" s="171"/>
+      <c r="BF43" s="171"/>
+      <c r="BG43" s="171"/>
+      <c r="BH43" s="171"/>
+      <c r="BI43" s="171"/>
+      <c r="BJ43" s="171"/>
+      <c r="BK43" s="171"/>
+      <c r="BL43" s="171"/>
+      <c r="BM43" s="171"/>
+      <c r="BN43" s="171"/>
+      <c r="BO43" s="171"/>
+      <c r="BP43" s="171"/>
+      <c r="BQ43" s="171"/>
+      <c r="BR43" s="172"/>
     </row>
     <row r="44" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="222" t="s">
+      <c r="A44" s="200" t="s">
         <v>58</v>
       </c>
       <c r="B44" s="47"/>
@@ -7912,16 +7918,16 @@
       <c r="BI44" s="120"/>
       <c r="BJ44" s="120"/>
       <c r="BK44" s="121"/>
-      <c r="BL44" s="239"/>
+      <c r="BL44" s="165"/>
       <c r="BM44" s="120"/>
       <c r="BN44" s="120"/>
-      <c r="BO44" s="168"/>
-      <c r="BP44" s="239"/>
+      <c r="BO44" s="179"/>
+      <c r="BP44" s="165"/>
       <c r="BQ44" s="120"/>
-      <c r="BR44" s="241"/>
+      <c r="BR44" s="177"/>
     </row>
     <row r="45" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="223"/>
+      <c r="A45" s="201"/>
       <c r="B45" s="113"/>
       <c r="C45" s="110"/>
       <c r="D45" s="110"/>
@@ -7984,88 +7990,88 @@
       <c r="BI45" s="127"/>
       <c r="BJ45" s="127"/>
       <c r="BK45" s="128"/>
-      <c r="BL45" s="240"/>
+      <c r="BL45" s="166"/>
       <c r="BM45" s="127"/>
       <c r="BN45" s="127"/>
-      <c r="BO45" s="169"/>
-      <c r="BP45" s="240"/>
+      <c r="BO45" s="180"/>
+      <c r="BP45" s="166"/>
       <c r="BQ45" s="127"/>
-      <c r="BR45" s="242"/>
+      <c r="BR45" s="178"/>
     </row>
     <row r="46" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="223"/>
+      <c r="A46" s="201"/>
       <c r="B46" s="81"/>
-      <c r="C46" s="258"/>
-      <c r="D46" s="258"/>
-      <c r="E46" s="258"/>
-      <c r="F46" s="258"/>
-      <c r="G46" s="258"/>
-      <c r="H46" s="259"/>
+      <c r="C46" s="149"/>
+      <c r="D46" s="149"/>
+      <c r="E46" s="149"/>
+      <c r="F46" s="149"/>
+      <c r="G46" s="149"/>
+      <c r="H46" s="150"/>
       <c r="I46" s="81"/>
-      <c r="J46" s="258"/>
-      <c r="K46" s="258"/>
-      <c r="L46" s="258"/>
-      <c r="M46" s="258"/>
-      <c r="N46" s="258"/>
-      <c r="O46" s="259"/>
+      <c r="J46" s="149"/>
+      <c r="K46" s="149"/>
+      <c r="L46" s="149"/>
+      <c r="M46" s="149"/>
+      <c r="N46" s="149"/>
+      <c r="O46" s="150"/>
       <c r="P46" s="81"/>
-      <c r="Q46" s="258"/>
-      <c r="R46" s="258"/>
-      <c r="S46" s="258"/>
-      <c r="T46" s="258"/>
-      <c r="U46" s="258"/>
-      <c r="V46" s="259"/>
+      <c r="Q46" s="149"/>
+      <c r="R46" s="149"/>
+      <c r="S46" s="149"/>
+      <c r="T46" s="149"/>
+      <c r="U46" s="149"/>
+      <c r="V46" s="150"/>
       <c r="W46" s="81"/>
-      <c r="X46" s="258"/>
-      <c r="Y46" s="258"/>
-      <c r="Z46" s="258"/>
-      <c r="AA46" s="258"/>
-      <c r="AB46" s="258"/>
-      <c r="AC46" s="259"/>
+      <c r="X46" s="149"/>
+      <c r="Y46" s="149"/>
+      <c r="Z46" s="149"/>
+      <c r="AA46" s="149"/>
+      <c r="AB46" s="149"/>
+      <c r="AC46" s="150"/>
       <c r="AD46" s="81"/>
-      <c r="AE46" s="258"/>
-      <c r="AF46" s="258"/>
-      <c r="AG46" s="258"/>
-      <c r="AH46" s="258"/>
-      <c r="AI46" s="258"/>
-      <c r="AJ46" s="259"/>
-      <c r="AK46" s="260"/>
-      <c r="AL46" s="261"/>
-      <c r="AM46" s="152"/>
-      <c r="AN46" s="153"/>
-      <c r="AO46" s="153"/>
-      <c r="AP46" s="153"/>
-      <c r="AQ46" s="153"/>
-      <c r="AR46" s="153"/>
-      <c r="AS46" s="153"/>
-      <c r="AT46" s="153"/>
-      <c r="AU46" s="153"/>
-      <c r="AV46" s="153"/>
-      <c r="AW46" s="153"/>
-      <c r="AX46" s="153"/>
-      <c r="AY46" s="153"/>
-      <c r="AZ46" s="153"/>
-      <c r="BA46" s="153"/>
-      <c r="BB46" s="153"/>
-      <c r="BC46" s="153"/>
-      <c r="BD46" s="153"/>
-      <c r="BE46" s="153"/>
-      <c r="BF46" s="153"/>
-      <c r="BG46" s="153"/>
-      <c r="BH46" s="153"/>
-      <c r="BI46" s="153"/>
-      <c r="BJ46" s="153"/>
-      <c r="BK46" s="153"/>
-      <c r="BL46" s="153"/>
-      <c r="BM46" s="153"/>
-      <c r="BN46" s="153"/>
-      <c r="BO46" s="153"/>
-      <c r="BP46" s="153"/>
-      <c r="BQ46" s="153"/>
-      <c r="BR46" s="154"/>
+      <c r="AE46" s="149"/>
+      <c r="AF46" s="149"/>
+      <c r="AG46" s="149"/>
+      <c r="AH46" s="149"/>
+      <c r="AI46" s="149"/>
+      <c r="AJ46" s="150"/>
+      <c r="AK46" s="151"/>
+      <c r="AL46" s="152"/>
+      <c r="AM46" s="167"/>
+      <c r="AN46" s="168"/>
+      <c r="AO46" s="168"/>
+      <c r="AP46" s="168"/>
+      <c r="AQ46" s="168"/>
+      <c r="AR46" s="168"/>
+      <c r="AS46" s="168"/>
+      <c r="AT46" s="168"/>
+      <c r="AU46" s="168"/>
+      <c r="AV46" s="168"/>
+      <c r="AW46" s="168"/>
+      <c r="AX46" s="168"/>
+      <c r="AY46" s="168"/>
+      <c r="AZ46" s="168"/>
+      <c r="BA46" s="168"/>
+      <c r="BB46" s="168"/>
+      <c r="BC46" s="168"/>
+      <c r="BD46" s="168"/>
+      <c r="BE46" s="168"/>
+      <c r="BF46" s="168"/>
+      <c r="BG46" s="168"/>
+      <c r="BH46" s="168"/>
+      <c r="BI46" s="168"/>
+      <c r="BJ46" s="168"/>
+      <c r="BK46" s="168"/>
+      <c r="BL46" s="168"/>
+      <c r="BM46" s="168"/>
+      <c r="BN46" s="168"/>
+      <c r="BO46" s="168"/>
+      <c r="BP46" s="168"/>
+      <c r="BQ46" s="168"/>
+      <c r="BR46" s="169"/>
     </row>
     <row r="47" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="224"/>
+      <c r="A47" s="202"/>
       <c r="B47" s="71"/>
       <c r="C47" s="69"/>
       <c r="D47" s="69"/>
@@ -8103,41 +8109,41 @@
       <c r="AJ47" s="70"/>
       <c r="AK47" s="71"/>
       <c r="AL47" s="72"/>
-      <c r="AM47" s="155"/>
-      <c r="AN47" s="156"/>
-      <c r="AO47" s="156"/>
-      <c r="AP47" s="156"/>
-      <c r="AQ47" s="156"/>
-      <c r="AR47" s="156"/>
-      <c r="AS47" s="156"/>
-      <c r="AT47" s="156"/>
-      <c r="AU47" s="156"/>
-      <c r="AV47" s="156"/>
-      <c r="AW47" s="156"/>
-      <c r="AX47" s="156"/>
-      <c r="AY47" s="156"/>
-      <c r="AZ47" s="156"/>
-      <c r="BA47" s="156"/>
-      <c r="BB47" s="156"/>
-      <c r="BC47" s="156"/>
-      <c r="BD47" s="156"/>
-      <c r="BE47" s="156"/>
-      <c r="BF47" s="156"/>
-      <c r="BG47" s="156"/>
-      <c r="BH47" s="156"/>
-      <c r="BI47" s="156"/>
-      <c r="BJ47" s="156"/>
-      <c r="BK47" s="156"/>
-      <c r="BL47" s="156"/>
-      <c r="BM47" s="156"/>
-      <c r="BN47" s="156"/>
-      <c r="BO47" s="156"/>
-      <c r="BP47" s="156"/>
-      <c r="BQ47" s="156"/>
-      <c r="BR47" s="157"/>
+      <c r="AM47" s="170"/>
+      <c r="AN47" s="171"/>
+      <c r="AO47" s="171"/>
+      <c r="AP47" s="171"/>
+      <c r="AQ47" s="171"/>
+      <c r="AR47" s="171"/>
+      <c r="AS47" s="171"/>
+      <c r="AT47" s="171"/>
+      <c r="AU47" s="171"/>
+      <c r="AV47" s="171"/>
+      <c r="AW47" s="171"/>
+      <c r="AX47" s="171"/>
+      <c r="AY47" s="171"/>
+      <c r="AZ47" s="171"/>
+      <c r="BA47" s="171"/>
+      <c r="BB47" s="171"/>
+      <c r="BC47" s="171"/>
+      <c r="BD47" s="171"/>
+      <c r="BE47" s="171"/>
+      <c r="BF47" s="171"/>
+      <c r="BG47" s="171"/>
+      <c r="BH47" s="171"/>
+      <c r="BI47" s="171"/>
+      <c r="BJ47" s="171"/>
+      <c r="BK47" s="171"/>
+      <c r="BL47" s="171"/>
+      <c r="BM47" s="171"/>
+      <c r="BN47" s="171"/>
+      <c r="BO47" s="171"/>
+      <c r="BP47" s="171"/>
+      <c r="BQ47" s="171"/>
+      <c r="BR47" s="172"/>
     </row>
     <row r="48" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="222" t="s">
+      <c r="A48" s="200" t="s">
         <v>59</v>
       </c>
       <c r="B48" s="52"/>
@@ -8202,16 +8208,16 @@
       <c r="BI48" s="120"/>
       <c r="BJ48" s="120"/>
       <c r="BK48" s="121"/>
-      <c r="BL48" s="239"/>
+      <c r="BL48" s="165"/>
       <c r="BM48" s="120"/>
       <c r="BN48" s="120"/>
-      <c r="BO48" s="168"/>
-      <c r="BP48" s="239"/>
+      <c r="BO48" s="179"/>
+      <c r="BP48" s="165"/>
       <c r="BQ48" s="120"/>
-      <c r="BR48" s="241"/>
+      <c r="BR48" s="177"/>
     </row>
     <row r="49" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="223"/>
+      <c r="A49" s="201"/>
       <c r="B49" s="113"/>
       <c r="C49" s="110"/>
       <c r="D49" s="110"/>
@@ -8274,88 +8280,88 @@
       <c r="BI49" s="127"/>
       <c r="BJ49" s="127"/>
       <c r="BK49" s="128"/>
-      <c r="BL49" s="240"/>
+      <c r="BL49" s="166"/>
       <c r="BM49" s="127"/>
       <c r="BN49" s="127"/>
-      <c r="BO49" s="169"/>
-      <c r="BP49" s="240"/>
+      <c r="BO49" s="180"/>
+      <c r="BP49" s="166"/>
       <c r="BQ49" s="127"/>
-      <c r="BR49" s="242"/>
+      <c r="BR49" s="178"/>
     </row>
     <row r="50" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="223"/>
+      <c r="A50" s="201"/>
       <c r="B50" s="81"/>
-      <c r="C50" s="258"/>
-      <c r="D50" s="258"/>
-      <c r="E50" s="258"/>
-      <c r="F50" s="258"/>
-      <c r="G50" s="258"/>
-      <c r="H50" s="259"/>
+      <c r="C50" s="149"/>
+      <c r="D50" s="149"/>
+      <c r="E50" s="149"/>
+      <c r="F50" s="149"/>
+      <c r="G50" s="149"/>
+      <c r="H50" s="150"/>
       <c r="I50" s="81"/>
-      <c r="J50" s="258"/>
-      <c r="K50" s="258"/>
-      <c r="L50" s="258"/>
-      <c r="M50" s="258"/>
-      <c r="N50" s="258"/>
-      <c r="O50" s="259"/>
+      <c r="J50" s="149"/>
+      <c r="K50" s="149"/>
+      <c r="L50" s="149"/>
+      <c r="M50" s="149"/>
+      <c r="N50" s="149"/>
+      <c r="O50" s="150"/>
       <c r="P50" s="81"/>
-      <c r="Q50" s="258"/>
-      <c r="R50" s="258"/>
-      <c r="S50" s="258"/>
-      <c r="T50" s="258"/>
-      <c r="U50" s="258"/>
-      <c r="V50" s="259"/>
+      <c r="Q50" s="149"/>
+      <c r="R50" s="149"/>
+      <c r="S50" s="149"/>
+      <c r="T50" s="149"/>
+      <c r="U50" s="149"/>
+      <c r="V50" s="150"/>
       <c r="W50" s="81"/>
-      <c r="X50" s="258"/>
-      <c r="Y50" s="258"/>
-      <c r="Z50" s="258"/>
-      <c r="AA50" s="258"/>
-      <c r="AB50" s="258"/>
-      <c r="AC50" s="259"/>
+      <c r="X50" s="149"/>
+      <c r="Y50" s="149"/>
+      <c r="Z50" s="149"/>
+      <c r="AA50" s="149"/>
+      <c r="AB50" s="149"/>
+      <c r="AC50" s="150"/>
       <c r="AD50" s="81"/>
-      <c r="AE50" s="258"/>
-      <c r="AF50" s="258"/>
-      <c r="AG50" s="258"/>
-      <c r="AH50" s="258"/>
-      <c r="AI50" s="258"/>
-      <c r="AJ50" s="259"/>
-      <c r="AK50" s="260"/>
-      <c r="AL50" s="261"/>
-      <c r="AM50" s="152"/>
-      <c r="AN50" s="153"/>
-      <c r="AO50" s="153"/>
-      <c r="AP50" s="153"/>
-      <c r="AQ50" s="153"/>
-      <c r="AR50" s="153"/>
-      <c r="AS50" s="153"/>
-      <c r="AT50" s="153"/>
-      <c r="AU50" s="153"/>
-      <c r="AV50" s="153"/>
-      <c r="AW50" s="153"/>
-      <c r="AX50" s="153"/>
-      <c r="AY50" s="153"/>
-      <c r="AZ50" s="153"/>
-      <c r="BA50" s="153"/>
-      <c r="BB50" s="153"/>
-      <c r="BC50" s="153"/>
-      <c r="BD50" s="153"/>
-      <c r="BE50" s="153"/>
-      <c r="BF50" s="153"/>
-      <c r="BG50" s="153"/>
-      <c r="BH50" s="153"/>
-      <c r="BI50" s="153"/>
-      <c r="BJ50" s="153"/>
-      <c r="BK50" s="153"/>
-      <c r="BL50" s="153"/>
-      <c r="BM50" s="153"/>
-      <c r="BN50" s="153"/>
-      <c r="BO50" s="153"/>
-      <c r="BP50" s="153"/>
-      <c r="BQ50" s="153"/>
-      <c r="BR50" s="154"/>
+      <c r="AE50" s="149"/>
+      <c r="AF50" s="149"/>
+      <c r="AG50" s="149"/>
+      <c r="AH50" s="149"/>
+      <c r="AI50" s="149"/>
+      <c r="AJ50" s="150"/>
+      <c r="AK50" s="151"/>
+      <c r="AL50" s="152"/>
+      <c r="AM50" s="167"/>
+      <c r="AN50" s="168"/>
+      <c r="AO50" s="168"/>
+      <c r="AP50" s="168"/>
+      <c r="AQ50" s="168"/>
+      <c r="AR50" s="168"/>
+      <c r="AS50" s="168"/>
+      <c r="AT50" s="168"/>
+      <c r="AU50" s="168"/>
+      <c r="AV50" s="168"/>
+      <c r="AW50" s="168"/>
+      <c r="AX50" s="168"/>
+      <c r="AY50" s="168"/>
+      <c r="AZ50" s="168"/>
+      <c r="BA50" s="168"/>
+      <c r="BB50" s="168"/>
+      <c r="BC50" s="168"/>
+      <c r="BD50" s="168"/>
+      <c r="BE50" s="168"/>
+      <c r="BF50" s="168"/>
+      <c r="BG50" s="168"/>
+      <c r="BH50" s="168"/>
+      <c r="BI50" s="168"/>
+      <c r="BJ50" s="168"/>
+      <c r="BK50" s="168"/>
+      <c r="BL50" s="168"/>
+      <c r="BM50" s="168"/>
+      <c r="BN50" s="168"/>
+      <c r="BO50" s="168"/>
+      <c r="BP50" s="168"/>
+      <c r="BQ50" s="168"/>
+      <c r="BR50" s="169"/>
     </row>
     <row r="51" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="224"/>
+      <c r="A51" s="202"/>
       <c r="B51" s="66"/>
       <c r="C51" s="63"/>
       <c r="D51" s="63"/>
@@ -8393,41 +8399,41 @@
       <c r="AJ51" s="64"/>
       <c r="AK51" s="66"/>
       <c r="AL51" s="67"/>
-      <c r="AM51" s="155"/>
-      <c r="AN51" s="156"/>
-      <c r="AO51" s="156"/>
-      <c r="AP51" s="156"/>
-      <c r="AQ51" s="156"/>
-      <c r="AR51" s="156"/>
-      <c r="AS51" s="156"/>
-      <c r="AT51" s="156"/>
-      <c r="AU51" s="156"/>
-      <c r="AV51" s="156"/>
-      <c r="AW51" s="156"/>
-      <c r="AX51" s="156"/>
-      <c r="AY51" s="156"/>
-      <c r="AZ51" s="156"/>
-      <c r="BA51" s="156"/>
-      <c r="BB51" s="156"/>
-      <c r="BC51" s="156"/>
-      <c r="BD51" s="156"/>
-      <c r="BE51" s="156"/>
-      <c r="BF51" s="156"/>
-      <c r="BG51" s="156"/>
-      <c r="BH51" s="156"/>
-      <c r="BI51" s="156"/>
-      <c r="BJ51" s="156"/>
-      <c r="BK51" s="156"/>
-      <c r="BL51" s="156"/>
-      <c r="BM51" s="156"/>
-      <c r="BN51" s="156"/>
-      <c r="BO51" s="156"/>
-      <c r="BP51" s="156"/>
-      <c r="BQ51" s="156"/>
-      <c r="BR51" s="157"/>
+      <c r="AM51" s="170"/>
+      <c r="AN51" s="171"/>
+      <c r="AO51" s="171"/>
+      <c r="AP51" s="171"/>
+      <c r="AQ51" s="171"/>
+      <c r="AR51" s="171"/>
+      <c r="AS51" s="171"/>
+      <c r="AT51" s="171"/>
+      <c r="AU51" s="171"/>
+      <c r="AV51" s="171"/>
+      <c r="AW51" s="171"/>
+      <c r="AX51" s="171"/>
+      <c r="AY51" s="171"/>
+      <c r="AZ51" s="171"/>
+      <c r="BA51" s="171"/>
+      <c r="BB51" s="171"/>
+      <c r="BC51" s="171"/>
+      <c r="BD51" s="171"/>
+      <c r="BE51" s="171"/>
+      <c r="BF51" s="171"/>
+      <c r="BG51" s="171"/>
+      <c r="BH51" s="171"/>
+      <c r="BI51" s="171"/>
+      <c r="BJ51" s="171"/>
+      <c r="BK51" s="171"/>
+      <c r="BL51" s="171"/>
+      <c r="BM51" s="171"/>
+      <c r="BN51" s="171"/>
+      <c r="BO51" s="171"/>
+      <c r="BP51" s="171"/>
+      <c r="BQ51" s="171"/>
+      <c r="BR51" s="172"/>
     </row>
     <row r="52" spans="1:70" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="222" t="s">
+      <c r="A52" s="200" t="s">
         <v>60</v>
       </c>
       <c r="B52" s="45"/>
@@ -8492,16 +8498,16 @@
       <c r="BI52" s="120"/>
       <c r="BJ52" s="120"/>
       <c r="BK52" s="121"/>
-      <c r="BL52" s="239"/>
+      <c r="BL52" s="165"/>
       <c r="BM52" s="120"/>
       <c r="BN52" s="120"/>
-      <c r="BO52" s="168"/>
-      <c r="BP52" s="239"/>
+      <c r="BO52" s="179"/>
+      <c r="BP52" s="165"/>
       <c r="BQ52" s="120"/>
-      <c r="BR52" s="241"/>
+      <c r="BR52" s="177"/>
     </row>
     <row r="53" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="223"/>
+      <c r="A53" s="201"/>
       <c r="B53" s="113"/>
       <c r="C53" s="110"/>
       <c r="D53" s="110"/>
@@ -8564,88 +8570,88 @@
       <c r="BI53" s="127"/>
       <c r="BJ53" s="127"/>
       <c r="BK53" s="128"/>
-      <c r="BL53" s="240"/>
+      <c r="BL53" s="166"/>
       <c r="BM53" s="127"/>
       <c r="BN53" s="127"/>
-      <c r="BO53" s="169"/>
-      <c r="BP53" s="240"/>
+      <c r="BO53" s="180"/>
+      <c r="BP53" s="166"/>
       <c r="BQ53" s="127"/>
-      <c r="BR53" s="242"/>
+      <c r="BR53" s="178"/>
     </row>
     <row r="54" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="223"/>
-      <c r="B54" s="264"/>
-      <c r="C54" s="265"/>
-      <c r="D54" s="265"/>
-      <c r="E54" s="265"/>
-      <c r="F54" s="265"/>
-      <c r="G54" s="265"/>
-      <c r="H54" s="266"/>
-      <c r="I54" s="267"/>
-      <c r="J54" s="265"/>
-      <c r="K54" s="265"/>
-      <c r="L54" s="265"/>
-      <c r="M54" s="265"/>
-      <c r="N54" s="265"/>
-      <c r="O54" s="266"/>
-      <c r="P54" s="267"/>
-      <c r="Q54" s="265"/>
-      <c r="R54" s="265"/>
-      <c r="S54" s="265"/>
-      <c r="T54" s="265"/>
-      <c r="U54" s="265"/>
-      <c r="V54" s="266"/>
-      <c r="W54" s="267"/>
-      <c r="X54" s="265"/>
-      <c r="Y54" s="265"/>
-      <c r="Z54" s="265"/>
-      <c r="AA54" s="265"/>
-      <c r="AB54" s="265"/>
-      <c r="AC54" s="266"/>
-      <c r="AD54" s="267"/>
-      <c r="AE54" s="265"/>
-      <c r="AF54" s="265"/>
-      <c r="AG54" s="265"/>
-      <c r="AH54" s="265"/>
-      <c r="AI54" s="265"/>
-      <c r="AJ54" s="259"/>
-      <c r="AK54" s="260"/>
-      <c r="AL54" s="268"/>
-      <c r="AM54" s="152"/>
-      <c r="AN54" s="153"/>
-      <c r="AO54" s="153"/>
-      <c r="AP54" s="153"/>
-      <c r="AQ54" s="153"/>
-      <c r="AR54" s="153"/>
-      <c r="AS54" s="153"/>
-      <c r="AT54" s="153"/>
-      <c r="AU54" s="153"/>
-      <c r="AV54" s="153"/>
-      <c r="AW54" s="153"/>
-      <c r="AX54" s="153"/>
-      <c r="AY54" s="153"/>
-      <c r="AZ54" s="153"/>
-      <c r="BA54" s="153"/>
-      <c r="BB54" s="153"/>
-      <c r="BC54" s="153"/>
-      <c r="BD54" s="153"/>
-      <c r="BE54" s="153"/>
-      <c r="BF54" s="153"/>
-      <c r="BG54" s="153"/>
-      <c r="BH54" s="153"/>
-      <c r="BI54" s="153"/>
-      <c r="BJ54" s="153"/>
-      <c r="BK54" s="153"/>
-      <c r="BL54" s="153"/>
-      <c r="BM54" s="153"/>
-      <c r="BN54" s="153"/>
-      <c r="BO54" s="153"/>
-      <c r="BP54" s="153"/>
-      <c r="BQ54" s="153"/>
-      <c r="BR54" s="154"/>
+      <c r="A54" s="201"/>
+      <c r="B54" s="155"/>
+      <c r="C54" s="156"/>
+      <c r="D54" s="156"/>
+      <c r="E54" s="156"/>
+      <c r="F54" s="156"/>
+      <c r="G54" s="156"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="158"/>
+      <c r="J54" s="156"/>
+      <c r="K54" s="156"/>
+      <c r="L54" s="156"/>
+      <c r="M54" s="156"/>
+      <c r="N54" s="156"/>
+      <c r="O54" s="157"/>
+      <c r="P54" s="158"/>
+      <c r="Q54" s="156"/>
+      <c r="R54" s="156"/>
+      <c r="S54" s="156"/>
+      <c r="T54" s="156"/>
+      <c r="U54" s="156"/>
+      <c r="V54" s="157"/>
+      <c r="W54" s="158"/>
+      <c r="X54" s="156"/>
+      <c r="Y54" s="156"/>
+      <c r="Z54" s="156"/>
+      <c r="AA54" s="156"/>
+      <c r="AB54" s="156"/>
+      <c r="AC54" s="157"/>
+      <c r="AD54" s="158"/>
+      <c r="AE54" s="156"/>
+      <c r="AF54" s="156"/>
+      <c r="AG54" s="156"/>
+      <c r="AH54" s="156"/>
+      <c r="AI54" s="156"/>
+      <c r="AJ54" s="150"/>
+      <c r="AK54" s="151"/>
+      <c r="AL54" s="159"/>
+      <c r="AM54" s="167"/>
+      <c r="AN54" s="168"/>
+      <c r="AO54" s="168"/>
+      <c r="AP54" s="168"/>
+      <c r="AQ54" s="168"/>
+      <c r="AR54" s="168"/>
+      <c r="AS54" s="168"/>
+      <c r="AT54" s="168"/>
+      <c r="AU54" s="168"/>
+      <c r="AV54" s="168"/>
+      <c r="AW54" s="168"/>
+      <c r="AX54" s="168"/>
+      <c r="AY54" s="168"/>
+      <c r="AZ54" s="168"/>
+      <c r="BA54" s="168"/>
+      <c r="BB54" s="168"/>
+      <c r="BC54" s="168"/>
+      <c r="BD54" s="168"/>
+      <c r="BE54" s="168"/>
+      <c r="BF54" s="168"/>
+      <c r="BG54" s="168"/>
+      <c r="BH54" s="168"/>
+      <c r="BI54" s="168"/>
+      <c r="BJ54" s="168"/>
+      <c r="BK54" s="168"/>
+      <c r="BL54" s="168"/>
+      <c r="BM54" s="168"/>
+      <c r="BN54" s="168"/>
+      <c r="BO54" s="168"/>
+      <c r="BP54" s="168"/>
+      <c r="BQ54" s="168"/>
+      <c r="BR54" s="169"/>
     </row>
     <row r="55" spans="1:70" s="8" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="225"/>
+      <c r="A55" s="203"/>
       <c r="B55" s="75"/>
       <c r="C55" s="76"/>
       <c r="D55" s="76"/>
@@ -8683,44 +8689,44 @@
       <c r="AJ55" s="78"/>
       <c r="AK55" s="98"/>
       <c r="AL55" s="79"/>
-      <c r="AM55" s="155"/>
-      <c r="AN55" s="156"/>
-      <c r="AO55" s="156"/>
-      <c r="AP55" s="156"/>
-      <c r="AQ55" s="156"/>
-      <c r="AR55" s="156"/>
-      <c r="AS55" s="156"/>
-      <c r="AT55" s="156"/>
-      <c r="AU55" s="156"/>
-      <c r="AV55" s="156"/>
-      <c r="AW55" s="156"/>
-      <c r="AX55" s="156"/>
-      <c r="AY55" s="156"/>
-      <c r="AZ55" s="156"/>
-      <c r="BA55" s="156"/>
-      <c r="BB55" s="156"/>
-      <c r="BC55" s="156"/>
-      <c r="BD55" s="156"/>
-      <c r="BE55" s="156"/>
-      <c r="BF55" s="156"/>
-      <c r="BG55" s="156"/>
-      <c r="BH55" s="156"/>
-      <c r="BI55" s="156"/>
-      <c r="BJ55" s="156"/>
-      <c r="BK55" s="156"/>
-      <c r="BL55" s="156"/>
-      <c r="BM55" s="156"/>
-      <c r="BN55" s="156"/>
-      <c r="BO55" s="156"/>
-      <c r="BP55" s="156"/>
-      <c r="BQ55" s="156"/>
-      <c r="BR55" s="157"/>
+      <c r="AM55" s="170"/>
+      <c r="AN55" s="171"/>
+      <c r="AO55" s="171"/>
+      <c r="AP55" s="171"/>
+      <c r="AQ55" s="171"/>
+      <c r="AR55" s="171"/>
+      <c r="AS55" s="171"/>
+      <c r="AT55" s="171"/>
+      <c r="AU55" s="171"/>
+      <c r="AV55" s="171"/>
+      <c r="AW55" s="171"/>
+      <c r="AX55" s="171"/>
+      <c r="AY55" s="171"/>
+      <c r="AZ55" s="171"/>
+      <c r="BA55" s="171"/>
+      <c r="BB55" s="171"/>
+      <c r="BC55" s="171"/>
+      <c r="BD55" s="171"/>
+      <c r="BE55" s="171"/>
+      <c r="BF55" s="171"/>
+      <c r="BG55" s="171"/>
+      <c r="BH55" s="171"/>
+      <c r="BI55" s="171"/>
+      <c r="BJ55" s="171"/>
+      <c r="BK55" s="171"/>
+      <c r="BL55" s="171"/>
+      <c r="BM55" s="171"/>
+      <c r="BN55" s="171"/>
+      <c r="BO55" s="171"/>
+      <c r="BP55" s="171"/>
+      <c r="BQ55" s="171"/>
+      <c r="BR55" s="172"/>
     </row>
     <row r="56" spans="1:70" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="188" t="s">
+      <c r="A56" s="229" t="s">
         <v>61</v>
       </c>
-      <c r="B56" s="189"/>
+      <c r="B56" s="230"/>
       <c r="C56" s="3"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
@@ -8754,11 +8760,11 @@
       <c r="AG56" s="10"/>
       <c r="AH56" s="10"/>
       <c r="AI56" s="74"/>
-      <c r="AJ56" s="190" t="s">
+      <c r="AJ56" s="231" t="s">
         <v>62</v>
       </c>
-      <c r="AK56" s="191"/>
-      <c r="AL56" s="192"/>
+      <c r="AK56" s="232"/>
+      <c r="AL56" s="233"/>
       <c r="AM56" s="28"/>
       <c r="AN56" s="29"/>
       <c r="AO56" s="30"/>
@@ -8865,34 +8871,34 @@
       <c r="BR57" s="135"/>
     </row>
     <row r="58" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="193" t="s">
+      <c r="A58" s="234" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="193"/>
-      <c r="C58" s="193"/>
-      <c r="D58" s="194" t="s">
+      <c r="B58" s="234"/>
+      <c r="C58" s="234"/>
+      <c r="D58" s="226" t="s">
         <v>138</v>
       </c>
-      <c r="E58" s="195"/>
-      <c r="F58" s="195"/>
+      <c r="E58" s="227"/>
+      <c r="F58" s="227"/>
       <c r="G58" s="136"/>
-      <c r="H58" s="194" t="s">
+      <c r="H58" s="226" t="s">
         <v>139</v>
       </c>
-      <c r="I58" s="195"/>
-      <c r="J58" s="195"/>
+      <c r="I58" s="227"/>
+      <c r="J58" s="227"/>
       <c r="K58" s="136"/>
-      <c r="L58" s="194" t="s">
+      <c r="L58" s="226" t="s">
         <v>140</v>
       </c>
-      <c r="M58" s="195"/>
-      <c r="N58" s="195"/>
+      <c r="M58" s="227"/>
+      <c r="N58" s="227"/>
       <c r="O58" s="136"/>
-      <c r="P58" s="194" t="s">
+      <c r="P58" s="226" t="s">
         <v>164</v>
       </c>
-      <c r="Q58" s="195"/>
-      <c r="R58" s="195"/>
+      <c r="Q58" s="227"/>
+      <c r="R58" s="227"/>
       <c r="S58" s="136"/>
       <c r="T58" s="137"/>
       <c r="U58" s="137"/>
@@ -8902,35 +8908,35 @@
       <c r="AB58" s="21"/>
       <c r="AC58" s="21"/>
       <c r="AD58" s="21"/>
-      <c r="AM58" s="187" t="s">
+      <c r="AM58" s="164" t="s">
         <v>133</v>
       </c>
-      <c r="AN58" s="187"/>
-      <c r="AO58" s="187"/>
-      <c r="AP58" s="196"/>
-      <c r="AQ58" s="196"/>
-      <c r="AR58" s="196"/>
-      <c r="AS58" s="196"/>
+      <c r="AN58" s="164"/>
+      <c r="AO58" s="164"/>
+      <c r="AP58" s="160"/>
+      <c r="AQ58" s="160"/>
+      <c r="AR58" s="160"/>
+      <c r="AS58" s="160"/>
       <c r="AT58" s="11"/>
-      <c r="AU58" s="187" t="s">
+      <c r="AU58" s="164" t="s">
         <v>134</v>
       </c>
-      <c r="AV58" s="187"/>
-      <c r="AW58" s="187"/>
-      <c r="AX58" s="250"/>
-      <c r="AY58" s="251"/>
-      <c r="AZ58" s="251"/>
-      <c r="BA58" s="252"/>
-      <c r="BC58" s="197" t="s">
+      <c r="AV58" s="164"/>
+      <c r="AW58" s="164"/>
+      <c r="AX58" s="266"/>
+      <c r="AY58" s="267"/>
+      <c r="AZ58" s="267"/>
+      <c r="BA58" s="268"/>
+      <c r="BC58" s="161" t="s">
         <v>64</v>
       </c>
-      <c r="BD58" s="198"/>
-      <c r="BE58" s="198"/>
-      <c r="BF58" s="199"/>
-      <c r="BG58" s="187"/>
-      <c r="BH58" s="187"/>
-      <c r="BI58" s="187"/>
-      <c r="BJ58" s="187"/>
+      <c r="BD58" s="162"/>
+      <c r="BE58" s="162"/>
+      <c r="BF58" s="163"/>
+      <c r="BG58" s="164"/>
+      <c r="BH58" s="164"/>
+      <c r="BI58" s="164"/>
+      <c r="BJ58" s="164"/>
       <c r="BK58" s="13"/>
       <c r="BL58" s="13"/>
       <c r="BM58" s="13"/>
@@ -8941,79 +8947,80 @@
       <c r="BR58" s="101"/>
     </row>
     <row r="59" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="193" t="s">
+      <c r="A59" s="234" t="s">
         <v>66</v>
       </c>
-      <c r="B59" s="193"/>
-      <c r="C59" s="193"/>
-      <c r="D59" s="194" t="s">
+      <c r="B59" s="234"/>
+      <c r="C59" s="234"/>
+      <c r="D59" s="226" t="s">
         <v>141</v>
       </c>
-      <c r="E59" s="195"/>
-      <c r="F59" s="195"/>
+      <c r="E59" s="227"/>
+      <c r="F59" s="227"/>
       <c r="G59" s="136"/>
-      <c r="H59" s="194" t="s">
+      <c r="H59" s="226" t="s">
         <v>142</v>
       </c>
-      <c r="I59" s="195"/>
-      <c r="J59" s="195"/>
+      <c r="I59" s="227"/>
+      <c r="J59" s="227"/>
       <c r="K59" s="136"/>
-      <c r="L59" s="194" t="s">
+      <c r="L59" s="226" t="s">
         <v>143</v>
       </c>
-      <c r="M59" s="195"/>
-      <c r="N59" s="195"/>
+      <c r="M59" s="227"/>
+      <c r="N59" s="227"/>
       <c r="O59" s="136"/>
-      <c r="P59" s="194" t="s">
+      <c r="P59" s="226" t="s">
         <v>144</v>
       </c>
-      <c r="Q59" s="195"/>
-      <c r="R59" s="195"/>
+      <c r="Q59" s="227"/>
+      <c r="R59" s="227"/>
       <c r="S59" s="136"/>
-      <c r="T59" s="194" t="s">
+      <c r="T59" s="226" t="s">
         <v>145</v>
       </c>
-      <c r="U59" s="195"/>
-      <c r="V59" s="195"/>
+      <c r="U59" s="227"/>
+      <c r="V59" s="227"/>
       <c r="W59" s="136"/>
-      <c r="X59" s="194" t="s">
+      <c r="X59" s="226" t="s">
         <v>146</v>
       </c>
-      <c r="Y59" s="195"/>
-      <c r="Z59" s="195"/>
+      <c r="Y59" s="227"/>
+      <c r="Z59" s="227"/>
       <c r="AA59" s="136"/>
-      <c r="AB59" s="194" t="s">
+      <c r="AB59" s="226" t="s">
         <v>147</v>
       </c>
-      <c r="AC59" s="195"/>
-      <c r="AD59" s="200"/>
+      <c r="AC59" s="227"/>
+      <c r="AD59" s="228"/>
       <c r="AE59" s="139"/>
-      <c r="AM59" s="187" t="s">
+      <c r="AM59" s="164" t="s">
         <v>135</v>
       </c>
-      <c r="AN59" s="187"/>
-      <c r="AO59" s="187"/>
-      <c r="AP59" s="196"/>
-      <c r="AQ59" s="196"/>
-      <c r="AR59" s="196"/>
-      <c r="AS59" s="196"/>
+      <c r="AN59" s="164"/>
+      <c r="AO59" s="164"/>
+      <c r="AP59" s="160"/>
+      <c r="AQ59" s="160"/>
+      <c r="AR59" s="160"/>
+      <c r="AS59" s="160"/>
       <c r="AT59" s="11"/>
       <c r="AU59" s="11"/>
       <c r="AV59" s="11"/>
       <c r="AW59" s="11"/>
-      <c r="AX59" s="11"/>
-      <c r="AY59" s="11"/>
-      <c r="AZ59" s="11"/>
-      <c r="BC59" s="197" t="s">
+      <c r="AX59" s="269"/>
+      <c r="AY59" s="269"/>
+      <c r="AZ59" s="269"/>
+      <c r="BA59" s="270"/>
+      <c r="BC59" s="161" t="s">
         <v>65</v>
       </c>
-      <c r="BD59" s="198"/>
-      <c r="BE59" s="198"/>
-      <c r="BF59" s="199"/>
-      <c r="BG59" s="187"/>
-      <c r="BH59" s="187"/>
-      <c r="BI59" s="187"/>
-      <c r="BJ59" s="187"/>
+      <c r="BD59" s="162"/>
+      <c r="BE59" s="162"/>
+      <c r="BF59" s="163"/>
+      <c r="BG59" s="164"/>
+      <c r="BH59" s="164"/>
+      <c r="BI59" s="164"/>
+      <c r="BJ59" s="164"/>
       <c r="BK59" s="13"/>
       <c r="BL59" s="13"/>
       <c r="BM59" s="13"/>
@@ -9024,78 +9031,79 @@
       <c r="BR59" s="101"/>
     </row>
     <row r="60" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="193"/>
-      <c r="B60" s="193"/>
-      <c r="C60" s="193"/>
-      <c r="D60" s="194" t="s">
+      <c r="A60" s="234"/>
+      <c r="B60" s="234"/>
+      <c r="C60" s="234"/>
+      <c r="D60" s="226" t="s">
         <v>148</v>
       </c>
-      <c r="E60" s="195"/>
-      <c r="F60" s="195"/>
+      <c r="E60" s="227"/>
+      <c r="F60" s="227"/>
       <c r="G60" s="136"/>
-      <c r="H60" s="194" t="s">
+      <c r="H60" s="226" t="s">
         <v>149</v>
       </c>
-      <c r="I60" s="195"/>
-      <c r="J60" s="195"/>
+      <c r="I60" s="227"/>
+      <c r="J60" s="227"/>
       <c r="K60" s="136"/>
-      <c r="L60" s="194" t="s">
+      <c r="L60" s="226" t="s">
         <v>150</v>
       </c>
-      <c r="M60" s="195"/>
-      <c r="N60" s="195"/>
+      <c r="M60" s="227"/>
+      <c r="N60" s="227"/>
       <c r="O60" s="136"/>
-      <c r="P60" s="194" t="s">
+      <c r="P60" s="226" t="s">
         <v>151</v>
       </c>
-      <c r="Q60" s="195"/>
-      <c r="R60" s="195"/>
+      <c r="Q60" s="227"/>
+      <c r="R60" s="227"/>
       <c r="S60" s="136"/>
-      <c r="T60" s="194" t="s">
+      <c r="T60" s="226" t="s">
         <v>152</v>
       </c>
-      <c r="U60" s="195"/>
-      <c r="V60" s="195"/>
+      <c r="U60" s="227"/>
+      <c r="V60" s="227"/>
       <c r="W60" s="136"/>
-      <c r="X60" s="194" t="s">
+      <c r="X60" s="226" t="s">
         <v>153</v>
       </c>
-      <c r="Y60" s="195"/>
-      <c r="Z60" s="195"/>
+      <c r="Y60" s="227"/>
+      <c r="Z60" s="227"/>
       <c r="AA60" s="136"/>
-      <c r="AB60" s="194" t="s">
+      <c r="AB60" s="226" t="s">
         <v>154</v>
       </c>
-      <c r="AC60" s="195"/>
-      <c r="AD60" s="200"/>
+      <c r="AC60" s="227"/>
+      <c r="AD60" s="228"/>
       <c r="AE60" s="139"/>
       <c r="AJ60" s="4"/>
-      <c r="AM60" s="187" t="s">
+      <c r="AM60" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="AN60" s="187"/>
-      <c r="AO60" s="187"/>
-      <c r="AP60" s="196"/>
-      <c r="AQ60" s="196"/>
-      <c r="AR60" s="196"/>
-      <c r="AS60" s="196"/>
+      <c r="AN60" s="164"/>
+      <c r="AO60" s="164"/>
+      <c r="AP60" s="160"/>
+      <c r="AQ60" s="160"/>
+      <c r="AR60" s="160"/>
+      <c r="AS60" s="160"/>
       <c r="AT60" s="11"/>
       <c r="AU60" s="11"/>
       <c r="AV60" s="11"/>
       <c r="AW60" s="11"/>
-      <c r="AX60" s="11"/>
-      <c r="AY60" s="11"/>
-      <c r="AZ60" s="11"/>
-      <c r="BC60" s="197" t="s">
+      <c r="AX60" s="269"/>
+      <c r="AY60" s="269"/>
+      <c r="AZ60" s="269"/>
+      <c r="BA60" s="270"/>
+      <c r="BC60" s="161" t="s">
         <v>67</v>
       </c>
-      <c r="BD60" s="198"/>
-      <c r="BE60" s="198"/>
-      <c r="BF60" s="199"/>
-      <c r="BG60" s="187"/>
-      <c r="BH60" s="187"/>
-      <c r="BI60" s="187"/>
-      <c r="BJ60" s="187"/>
+      <c r="BD60" s="162"/>
+      <c r="BE60" s="162"/>
+      <c r="BF60" s="163"/>
+      <c r="BG60" s="164"/>
+      <c r="BH60" s="164"/>
+      <c r="BI60" s="164"/>
+      <c r="BJ60" s="164"/>
       <c r="BK60" s="13"/>
       <c r="BL60" s="13"/>
       <c r="BM60" s="13"/>
@@ -9106,28 +9114,28 @@
       <c r="BR60" s="101"/>
     </row>
     <row r="61" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="201" t="s">
+      <c r="A61" s="212" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="202"/>
-      <c r="C61" s="203"/>
-      <c r="D61" s="194" t="s">
+      <c r="B61" s="213"/>
+      <c r="C61" s="214"/>
+      <c r="D61" s="226" t="s">
         <v>155</v>
       </c>
-      <c r="E61" s="195"/>
-      <c r="F61" s="195"/>
+      <c r="E61" s="227"/>
+      <c r="F61" s="227"/>
       <c r="G61" s="136"/>
-      <c r="H61" s="194" t="s">
+      <c r="H61" s="226" t="s">
         <v>156</v>
       </c>
-      <c r="I61" s="195"/>
-      <c r="J61" s="195"/>
+      <c r="I61" s="227"/>
+      <c r="J61" s="227"/>
       <c r="K61" s="136"/>
-      <c r="L61" s="194" t="s">
+      <c r="L61" s="226" t="s">
         <v>147</v>
       </c>
-      <c r="M61" s="195"/>
-      <c r="N61" s="195"/>
+      <c r="M61" s="227"/>
+      <c r="N61" s="227"/>
       <c r="O61" s="136"/>
       <c r="P61" s="137"/>
       <c r="Q61" s="137"/>
@@ -9141,32 +9149,33 @@
       <c r="Y61" s="137"/>
       <c r="Z61" s="137"/>
       <c r="AA61" s="138"/>
-      <c r="AM61" s="187" t="s">
+      <c r="AM61" s="164" t="s">
         <v>137</v>
       </c>
-      <c r="AN61" s="187"/>
-      <c r="AO61" s="187"/>
-      <c r="AP61" s="196"/>
-      <c r="AQ61" s="196"/>
-      <c r="AR61" s="196"/>
-      <c r="AS61" s="196"/>
+      <c r="AN61" s="164"/>
+      <c r="AO61" s="164"/>
+      <c r="AP61" s="160"/>
+      <c r="AQ61" s="160"/>
+      <c r="AR61" s="160"/>
+      <c r="AS61" s="160"/>
       <c r="AT61" s="11"/>
       <c r="AU61" s="11"/>
       <c r="AV61" s="11"/>
       <c r="AW61" s="11"/>
-      <c r="AX61" s="11"/>
-      <c r="AY61" s="11"/>
-      <c r="AZ61" s="11"/>
-      <c r="BC61" s="197" t="s">
+      <c r="AX61" s="269"/>
+      <c r="AY61" s="269"/>
+      <c r="AZ61" s="269"/>
+      <c r="BA61" s="270"/>
+      <c r="BC61" s="161" t="s">
         <v>68</v>
       </c>
-      <c r="BD61" s="198"/>
-      <c r="BE61" s="198"/>
-      <c r="BF61" s="199"/>
-      <c r="BG61" s="187"/>
-      <c r="BH61" s="187"/>
-      <c r="BI61" s="187"/>
-      <c r="BJ61" s="187"/>
+      <c r="BD61" s="162"/>
+      <c r="BE61" s="162"/>
+      <c r="BF61" s="163"/>
+      <c r="BG61" s="164"/>
+      <c r="BH61" s="164"/>
+      <c r="BI61" s="164"/>
+      <c r="BJ61" s="164"/>
       <c r="BK61" s="13"/>
       <c r="BL61" s="13"/>
       <c r="BM61" s="13"/>
@@ -9177,26 +9186,26 @@
       <c r="BR61" s="101"/>
     </row>
     <row r="62" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="204"/>
-      <c r="B62" s="205"/>
-      <c r="C62" s="206"/>
-      <c r="D62" s="194" t="s">
+      <c r="A62" s="215"/>
+      <c r="B62" s="216"/>
+      <c r="C62" s="217"/>
+      <c r="D62" s="226" t="s">
         <v>157</v>
       </c>
-      <c r="E62" s="195"/>
-      <c r="F62" s="195"/>
+      <c r="E62" s="227"/>
+      <c r="F62" s="227"/>
       <c r="G62" s="136"/>
-      <c r="H62" s="194" t="s">
+      <c r="H62" s="226" t="s">
         <v>158</v>
       </c>
-      <c r="I62" s="195"/>
-      <c r="J62" s="195"/>
+      <c r="I62" s="227"/>
+      <c r="J62" s="227"/>
       <c r="K62" s="136"/>
-      <c r="L62" s="194" t="s">
+      <c r="L62" s="226" t="s">
         <v>147</v>
       </c>
-      <c r="M62" s="195"/>
-      <c r="N62" s="195"/>
+      <c r="M62" s="227"/>
+      <c r="N62" s="227"/>
       <c r="O62" s="136"/>
       <c r="P62" s="137"/>
       <c r="Q62" s="137"/>
@@ -9224,19 +9233,20 @@
       <c r="AU62" s="11"/>
       <c r="AV62" s="11"/>
       <c r="AW62" s="11"/>
-      <c r="AX62" s="11"/>
-      <c r="AY62" s="11"/>
-      <c r="AZ62" s="11"/>
-      <c r="BC62" s="197" t="s">
+      <c r="AX62" s="269"/>
+      <c r="AY62" s="269"/>
+      <c r="AZ62" s="269"/>
+      <c r="BA62" s="270"/>
+      <c r="BC62" s="161" t="s">
         <v>70</v>
       </c>
-      <c r="BD62" s="198"/>
-      <c r="BE62" s="198"/>
-      <c r="BF62" s="199"/>
-      <c r="BG62" s="187"/>
-      <c r="BH62" s="187"/>
-      <c r="BI62" s="187"/>
-      <c r="BJ62" s="187"/>
+      <c r="BD62" s="162"/>
+      <c r="BE62" s="162"/>
+      <c r="BF62" s="163"/>
+      <c r="BG62" s="164"/>
+      <c r="BH62" s="164"/>
+      <c r="BI62" s="164"/>
+      <c r="BJ62" s="164"/>
       <c r="BK62" s="13"/>
       <c r="BL62" s="13"/>
       <c r="BM62" s="13"/>
@@ -9247,40 +9257,40 @@
       <c r="BR62" s="101"/>
     </row>
     <row r="63" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="217" t="s">
+      <c r="A63" s="223" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="218"/>
-      <c r="C63" s="219"/>
-      <c r="D63" s="194" t="s">
+      <c r="B63" s="224"/>
+      <c r="C63" s="225"/>
+      <c r="D63" s="226" t="s">
         <v>159</v>
       </c>
-      <c r="E63" s="195"/>
-      <c r="F63" s="195"/>
+      <c r="E63" s="227"/>
+      <c r="F63" s="227"/>
       <c r="G63" s="136"/>
-      <c r="H63" s="194" t="s">
+      <c r="H63" s="226" t="s">
         <v>160</v>
       </c>
-      <c r="I63" s="195"/>
-      <c r="J63" s="195"/>
+      <c r="I63" s="227"/>
+      <c r="J63" s="227"/>
       <c r="K63" s="136"/>
-      <c r="L63" s="194" t="s">
+      <c r="L63" s="226" t="s">
         <v>161</v>
       </c>
-      <c r="M63" s="195"/>
-      <c r="N63" s="195"/>
+      <c r="M63" s="227"/>
+      <c r="N63" s="227"/>
       <c r="O63" s="136"/>
-      <c r="P63" s="209" t="s">
+      <c r="P63" s="218" t="s">
         <v>162</v>
       </c>
-      <c r="Q63" s="209"/>
-      <c r="R63" s="209"/>
+      <c r="Q63" s="218"/>
+      <c r="R63" s="218"/>
       <c r="S63" s="141"/>
-      <c r="T63" s="209" t="s">
+      <c r="T63" s="218" t="s">
         <v>163</v>
       </c>
-      <c r="U63" s="209"/>
-      <c r="V63" s="209"/>
+      <c r="U63" s="218"/>
+      <c r="V63" s="218"/>
       <c r="W63" s="142"/>
       <c r="X63" s="143"/>
       <c r="Y63" s="137"/>
@@ -9289,9 +9299,13 @@
       <c r="AB63" s="140"/>
       <c r="AC63" s="21"/>
       <c r="AD63" s="21"/>
-      <c r="AI63" s="210"/>
-      <c r="AJ63" s="210"/>
+      <c r="AI63" s="219"/>
+      <c r="AJ63" s="219"/>
       <c r="AK63" s="4"/>
+      <c r="AX63" s="270"/>
+      <c r="AY63" s="270"/>
+      <c r="AZ63" s="270"/>
+      <c r="BA63" s="270"/>
       <c r="BR63" s="99"/>
     </row>
     <row r="64" spans="1:70" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -9344,10 +9358,10 @@
       <c r="AU64" s="18"/>
       <c r="AV64" s="18"/>
       <c r="AW64" s="18"/>
-      <c r="AX64" s="18"/>
-      <c r="AY64" s="18"/>
-      <c r="AZ64" s="18"/>
-      <c r="BA64" s="18"/>
+      <c r="AX64" s="17"/>
+      <c r="AY64" s="17"/>
+      <c r="AZ64" s="17"/>
+      <c r="BA64" s="17"/>
       <c r="BB64" s="18"/>
       <c r="BC64" s="18"/>
       <c r="BD64" s="18"/>
@@ -9423,11 +9437,11 @@
       <c r="N67" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="O67" s="211" t="s">
+      <c r="O67" s="209" t="s">
         <v>76</v>
       </c>
-      <c r="P67" s="212"/>
-      <c r="Q67" s="213"/>
+      <c r="P67" s="210"/>
+      <c r="Q67" s="211"/>
       <c r="R67" s="208" t="s">
         <v>77</v>
       </c>
@@ -9440,20 +9454,20 @@
       <c r="AA67" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="AB67" s="214" t="s">
+      <c r="AB67" s="220" t="s">
         <v>79</v>
       </c>
-      <c r="AC67" s="215"/>
-      <c r="AD67" s="215"/>
-      <c r="AE67" s="215"/>
-      <c r="AF67" s="215"/>
-      <c r="AG67" s="215"/>
-      <c r="AH67" s="215"/>
-      <c r="AI67" s="215"/>
-      <c r="AJ67" s="215"/>
-      <c r="AK67" s="215"/>
-      <c r="AL67" s="215"/>
-      <c r="AM67" s="216"/>
+      <c r="AC67" s="221"/>
+      <c r="AD67" s="221"/>
+      <c r="AE67" s="221"/>
+      <c r="AF67" s="221"/>
+      <c r="AG67" s="221"/>
+      <c r="AH67" s="221"/>
+      <c r="AI67" s="221"/>
+      <c r="AJ67" s="221"/>
+      <c r="AK67" s="221"/>
+      <c r="AL67" s="221"/>
+      <c r="AM67" s="222"/>
     </row>
     <row r="68" spans="1:40" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="24">
@@ -9476,11 +9490,11 @@
       <c r="N68" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="O68" s="211" t="s">
+      <c r="O68" s="209" t="s">
         <v>83</v>
       </c>
-      <c r="P68" s="212"/>
-      <c r="Q68" s="213"/>
+      <c r="P68" s="210"/>
+      <c r="Q68" s="211"/>
       <c r="R68" s="208" t="s">
         <v>84</v>
       </c>
@@ -9531,11 +9545,11 @@
       <c r="N69" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="O69" s="211" t="s">
+      <c r="O69" s="209" t="s">
         <v>90</v>
       </c>
-      <c r="P69" s="212"/>
-      <c r="Q69" s="213"/>
+      <c r="P69" s="210"/>
+      <c r="Q69" s="211"/>
       <c r="R69" s="208" t="s">
         <v>91</v>
       </c>
@@ -9587,11 +9601,11 @@
       <c r="N70" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="O70" s="211" t="s">
+      <c r="O70" s="209" t="s">
         <v>97</v>
       </c>
-      <c r="P70" s="212"/>
-      <c r="Q70" s="213"/>
+      <c r="P70" s="210"/>
+      <c r="Q70" s="211"/>
       <c r="R70" s="208" t="s">
         <v>98</v>
       </c>
@@ -9643,11 +9657,11 @@
       <c r="N71" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="O71" s="211" t="s">
+      <c r="O71" s="209" t="s">
         <v>104</v>
       </c>
-      <c r="P71" s="212"/>
-      <c r="Q71" s="213"/>
+      <c r="P71" s="210"/>
+      <c r="Q71" s="211"/>
       <c r="R71" s="208" t="s">
         <v>105</v>
       </c>
@@ -9699,11 +9713,11 @@
       <c r="N72" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="O72" s="211" t="s">
+      <c r="O72" s="209" t="s">
         <v>111</v>
       </c>
-      <c r="P72" s="212"/>
-      <c r="Q72" s="213"/>
+      <c r="P72" s="210"/>
+      <c r="Q72" s="211"/>
       <c r="R72" s="208" t="s">
         <v>112</v>
       </c>
@@ -9755,106 +9769,153 @@
     </row>
   </sheetData>
   <mergeCells count="273">
-    <mergeCell ref="AP61:AS61"/>
-    <mergeCell ref="BC61:BF61"/>
-    <mergeCell ref="BG61:BJ61"/>
-    <mergeCell ref="BC62:BF62"/>
-    <mergeCell ref="BG62:BJ62"/>
-    <mergeCell ref="BP28:BP29"/>
-    <mergeCell ref="BP32:BP33"/>
-    <mergeCell ref="BP36:BP37"/>
-    <mergeCell ref="BP40:BP41"/>
-    <mergeCell ref="BP44:BP45"/>
-    <mergeCell ref="BP48:BP49"/>
-    <mergeCell ref="BP52:BP53"/>
-    <mergeCell ref="AP58:AS58"/>
-    <mergeCell ref="AU58:AW58"/>
-    <mergeCell ref="AX58:BA58"/>
-    <mergeCell ref="BC58:BF58"/>
-    <mergeCell ref="BG58:BJ58"/>
-    <mergeCell ref="AM54:BR55"/>
-    <mergeCell ref="BL48:BL49"/>
-    <mergeCell ref="BL52:BL53"/>
-    <mergeCell ref="AL6:AL7"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="BR40:BR41"/>
-    <mergeCell ref="BR44:BR45"/>
-    <mergeCell ref="BL32:BL33"/>
-    <mergeCell ref="BL36:BL37"/>
-    <mergeCell ref="BL40:BL41"/>
-    <mergeCell ref="BL44:BL45"/>
-    <mergeCell ref="BO16:BO17"/>
-    <mergeCell ref="BO20:BO21"/>
-    <mergeCell ref="BO24:BO25"/>
-    <mergeCell ref="BO28:BO29"/>
-    <mergeCell ref="BO32:BO33"/>
-    <mergeCell ref="BO36:BO37"/>
-    <mergeCell ref="BO40:BO41"/>
-    <mergeCell ref="BO44:BO45"/>
-    <mergeCell ref="AX6:AY6"/>
-    <mergeCell ref="AZ5:BA5"/>
-    <mergeCell ref="AZ6:BA6"/>
-    <mergeCell ref="AT5:AU5"/>
-    <mergeCell ref="AV5:AW5"/>
-    <mergeCell ref="AV6:AW6"/>
-    <mergeCell ref="BP24:BP25"/>
-    <mergeCell ref="BR48:BR49"/>
-    <mergeCell ref="BR52:BR53"/>
-    <mergeCell ref="BP12:BP13"/>
-    <mergeCell ref="BP16:BP17"/>
-    <mergeCell ref="BR12:BR13"/>
-    <mergeCell ref="BR16:BR17"/>
-    <mergeCell ref="BR20:BR21"/>
-    <mergeCell ref="BR24:BR25"/>
-    <mergeCell ref="BR28:BR29"/>
-    <mergeCell ref="BR32:BR33"/>
-    <mergeCell ref="BR36:BR37"/>
-    <mergeCell ref="AM26:BR27"/>
-    <mergeCell ref="AM30:BR31"/>
-    <mergeCell ref="AM34:BR35"/>
-    <mergeCell ref="AM38:BR39"/>
-    <mergeCell ref="AM42:BR43"/>
-    <mergeCell ref="AM46:BR47"/>
-    <mergeCell ref="AM50:BR51"/>
-    <mergeCell ref="BO52:BO53"/>
-    <mergeCell ref="BL12:BL13"/>
-    <mergeCell ref="BL16:BL17"/>
-    <mergeCell ref="BL20:BL21"/>
-    <mergeCell ref="BO48:BO49"/>
-    <mergeCell ref="BL24:BL25"/>
-    <mergeCell ref="BL28:BL29"/>
-    <mergeCell ref="AM2:AO2"/>
-    <mergeCell ref="AM3:AO3"/>
-    <mergeCell ref="AP2:AZ2"/>
-    <mergeCell ref="AP3:AZ3"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="BD3:BI3"/>
-    <mergeCell ref="BM2:BR2"/>
-    <mergeCell ref="BM3:BR3"/>
-    <mergeCell ref="BL8:BL9"/>
-    <mergeCell ref="BP8:BP9"/>
-    <mergeCell ref="BR8:BR9"/>
-    <mergeCell ref="BB5:BC5"/>
-    <mergeCell ref="BB6:BC6"/>
-    <mergeCell ref="BE5:BF5"/>
-    <mergeCell ref="BG5:BH5"/>
-    <mergeCell ref="BI5:BJ5"/>
-    <mergeCell ref="BI6:BJ6"/>
-    <mergeCell ref="BA3:BC3"/>
-    <mergeCell ref="BJ2:BL2"/>
-    <mergeCell ref="BJ3:BL3"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="BM6:BM7"/>
-    <mergeCell ref="AK6:AK7"/>
-    <mergeCell ref="AE6:AE7"/>
-    <mergeCell ref="AC6:AC7"/>
-    <mergeCell ref="AB6:AB7"/>
-    <mergeCell ref="AD6:AD7"/>
-    <mergeCell ref="AF6:AF7"/>
-    <mergeCell ref="AG6:AG7"/>
-    <mergeCell ref="AH6:AH7"/>
-    <mergeCell ref="AI6:AI7"/>
-    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="BR6:BR7"/>
+    <mergeCell ref="BL6:BL7"/>
+    <mergeCell ref="AM10:BR11"/>
+    <mergeCell ref="AM14:BR15"/>
+    <mergeCell ref="AM18:BR19"/>
+    <mergeCell ref="AM22:BR23"/>
+    <mergeCell ref="BQ6:BQ7"/>
+    <mergeCell ref="BD6:BD7"/>
+    <mergeCell ref="BE6:BF6"/>
+    <mergeCell ref="BG6:BH6"/>
+    <mergeCell ref="BK6:BK7"/>
+    <mergeCell ref="BO8:BO9"/>
+    <mergeCell ref="BO12:BO13"/>
+    <mergeCell ref="BN6:BN7"/>
+    <mergeCell ref="AQ6:AQ7"/>
+    <mergeCell ref="AM6:AM7"/>
+    <mergeCell ref="AN6:AN7"/>
+    <mergeCell ref="AO6:AO7"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AT6:AU6"/>
+    <mergeCell ref="BP20:BP21"/>
+    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="A1:AL1"/>
+    <mergeCell ref="AM1:BR1"/>
+    <mergeCell ref="AN4:AP4"/>
+    <mergeCell ref="AQ4:BD4"/>
+    <mergeCell ref="BE4:BK4"/>
+    <mergeCell ref="BL4:BO4"/>
+    <mergeCell ref="BP4:BR4"/>
+    <mergeCell ref="AF2:AL2"/>
+    <mergeCell ref="AF3:AL3"/>
+    <mergeCell ref="V2:AB2"/>
+    <mergeCell ref="V3:AB3"/>
+    <mergeCell ref="D2:R2"/>
+    <mergeCell ref="D3:R3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="S2:U2"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AC3:AE3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="AX5:AY5"/>
+    <mergeCell ref="B4:AL4"/>
+    <mergeCell ref="AD5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM58:AO58"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="AJ56:AL56"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="L58:N58"/>
+    <mergeCell ref="P58:R58"/>
+    <mergeCell ref="X59:Z59"/>
+    <mergeCell ref="AM59:AO59"/>
+    <mergeCell ref="A59:C60"/>
+    <mergeCell ref="AP59:AS59"/>
+    <mergeCell ref="BC59:BF59"/>
+    <mergeCell ref="BG59:BJ59"/>
+    <mergeCell ref="AP60:AS60"/>
+    <mergeCell ref="BC60:BF60"/>
+    <mergeCell ref="BG60:BJ60"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="H59:J59"/>
+    <mergeCell ref="L59:N59"/>
+    <mergeCell ref="P59:R59"/>
+    <mergeCell ref="T59:V59"/>
+    <mergeCell ref="AB59:AD59"/>
+    <mergeCell ref="AB60:AD60"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="L61:N61"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="T60:V60"/>
+    <mergeCell ref="X60:Z60"/>
+    <mergeCell ref="AM60:AO60"/>
+    <mergeCell ref="A61:C62"/>
+    <mergeCell ref="AB68:AD68"/>
+    <mergeCell ref="AE68:AM68"/>
+    <mergeCell ref="T63:V63"/>
+    <mergeCell ref="AI63:AJ63"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="E67:K67"/>
+    <mergeCell ref="O67:Q67"/>
+    <mergeCell ref="R67:X67"/>
+    <mergeCell ref="AB67:AM67"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="L63:N63"/>
+    <mergeCell ref="P63:R63"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:K68"/>
+    <mergeCell ref="O68:Q68"/>
+    <mergeCell ref="R68:X68"/>
+    <mergeCell ref="AM61:AO61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="L62:N62"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="B70:D70"/>
+    <mergeCell ref="E70:K70"/>
+    <mergeCell ref="O70:Q70"/>
+    <mergeCell ref="R70:X70"/>
+    <mergeCell ref="AB70:AD70"/>
+    <mergeCell ref="AE70:AM70"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:K69"/>
+    <mergeCell ref="O69:Q69"/>
+    <mergeCell ref="R69:X69"/>
+    <mergeCell ref="AB69:AD69"/>
+    <mergeCell ref="AE69:AM69"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="E73:K73"/>
+    <mergeCell ref="B72:D72"/>
+    <mergeCell ref="E72:K72"/>
+    <mergeCell ref="O72:Q72"/>
+    <mergeCell ref="R72:X72"/>
+    <mergeCell ref="AB72:AD72"/>
+    <mergeCell ref="AE72:AM72"/>
+    <mergeCell ref="B71:D71"/>
+    <mergeCell ref="E71:K71"/>
+    <mergeCell ref="O71:Q71"/>
+    <mergeCell ref="R71:X71"/>
+    <mergeCell ref="AB71:AD71"/>
+    <mergeCell ref="AE71:AM71"/>
+    <mergeCell ref="Y6:Y7"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A16:A19"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="B5:H5"/>
     <mergeCell ref="I5:O5"/>
     <mergeCell ref="P5:V5"/>
@@ -9879,155 +9940,108 @@
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="W6:W7"/>
     <mergeCell ref="X6:X7"/>
-    <mergeCell ref="Y6:Y7"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="E73:K73"/>
-    <mergeCell ref="B72:D72"/>
-    <mergeCell ref="E72:K72"/>
-    <mergeCell ref="O72:Q72"/>
-    <mergeCell ref="R72:X72"/>
-    <mergeCell ref="AB72:AD72"/>
-    <mergeCell ref="AE72:AM72"/>
-    <mergeCell ref="B71:D71"/>
-    <mergeCell ref="E71:K71"/>
-    <mergeCell ref="O71:Q71"/>
-    <mergeCell ref="R71:X71"/>
-    <mergeCell ref="AB71:AD71"/>
-    <mergeCell ref="AE71:AM71"/>
-    <mergeCell ref="B70:D70"/>
-    <mergeCell ref="E70:K70"/>
-    <mergeCell ref="O70:Q70"/>
-    <mergeCell ref="R70:X70"/>
-    <mergeCell ref="AB70:AD70"/>
-    <mergeCell ref="AE70:AM70"/>
-    <mergeCell ref="B69:D69"/>
-    <mergeCell ref="E69:K69"/>
-    <mergeCell ref="O69:Q69"/>
-    <mergeCell ref="R69:X69"/>
-    <mergeCell ref="AB69:AD69"/>
-    <mergeCell ref="AE69:AM69"/>
-    <mergeCell ref="A61:C62"/>
-    <mergeCell ref="AB68:AD68"/>
-    <mergeCell ref="AE68:AM68"/>
-    <mergeCell ref="T63:V63"/>
-    <mergeCell ref="AI63:AJ63"/>
-    <mergeCell ref="B67:D67"/>
-    <mergeCell ref="E67:K67"/>
-    <mergeCell ref="O67:Q67"/>
-    <mergeCell ref="R67:X67"/>
-    <mergeCell ref="AB67:AM67"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="L63:N63"/>
-    <mergeCell ref="P63:R63"/>
-    <mergeCell ref="B68:D68"/>
-    <mergeCell ref="E68:K68"/>
-    <mergeCell ref="O68:Q68"/>
-    <mergeCell ref="R68:X68"/>
-    <mergeCell ref="AM61:AO61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="L62:N62"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="L61:N61"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="T60:V60"/>
-    <mergeCell ref="X60:Z60"/>
-    <mergeCell ref="AM60:AO60"/>
-    <mergeCell ref="AP59:AS59"/>
-    <mergeCell ref="BC59:BF59"/>
-    <mergeCell ref="BG59:BJ59"/>
-    <mergeCell ref="AP60:AS60"/>
-    <mergeCell ref="BC60:BF60"/>
-    <mergeCell ref="BG60:BJ60"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="L59:N59"/>
-    <mergeCell ref="P59:R59"/>
-    <mergeCell ref="T59:V59"/>
-    <mergeCell ref="AB59:AD59"/>
-    <mergeCell ref="AB60:AD60"/>
-    <mergeCell ref="AM58:AO58"/>
-    <mergeCell ref="A56:B56"/>
-    <mergeCell ref="AJ56:AL56"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="H58:J58"/>
-    <mergeCell ref="L58:N58"/>
-    <mergeCell ref="P58:R58"/>
-    <mergeCell ref="X59:Z59"/>
-    <mergeCell ref="AM59:AO59"/>
-    <mergeCell ref="A59:C60"/>
-    <mergeCell ref="A1:AL1"/>
-    <mergeCell ref="AM1:BR1"/>
-    <mergeCell ref="AN4:AP4"/>
-    <mergeCell ref="AQ4:BD4"/>
-    <mergeCell ref="BE4:BK4"/>
-    <mergeCell ref="BL4:BO4"/>
-    <mergeCell ref="BP4:BR4"/>
-    <mergeCell ref="AF2:AL2"/>
-    <mergeCell ref="AF3:AL3"/>
-    <mergeCell ref="V2:AB2"/>
-    <mergeCell ref="V3:AB3"/>
-    <mergeCell ref="D2:R2"/>
-    <mergeCell ref="D3:R3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="S2:U2"/>
-    <mergeCell ref="S3:U3"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AC3:AE3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="AX5:AY5"/>
-    <mergeCell ref="B4:AL4"/>
-    <mergeCell ref="AD5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AK6:AK7"/>
+    <mergeCell ref="AE6:AE7"/>
+    <mergeCell ref="AC6:AC7"/>
+    <mergeCell ref="AB6:AB7"/>
+    <mergeCell ref="AD6:AD7"/>
+    <mergeCell ref="AF6:AF7"/>
+    <mergeCell ref="AG6:AG7"/>
+    <mergeCell ref="AH6:AH7"/>
+    <mergeCell ref="AI6:AI7"/>
+    <mergeCell ref="AJ6:AJ7"/>
+    <mergeCell ref="AM2:AO2"/>
+    <mergeCell ref="AM3:AO3"/>
+    <mergeCell ref="AP2:AZ2"/>
+    <mergeCell ref="AP3:AZ3"/>
+    <mergeCell ref="BD2:BI2"/>
+    <mergeCell ref="BD3:BI3"/>
+    <mergeCell ref="BM2:BR2"/>
+    <mergeCell ref="BM3:BR3"/>
+    <mergeCell ref="BL8:BL9"/>
+    <mergeCell ref="BP8:BP9"/>
+    <mergeCell ref="BR8:BR9"/>
+    <mergeCell ref="BB5:BC5"/>
+    <mergeCell ref="BB6:BC6"/>
+    <mergeCell ref="BE5:BF5"/>
+    <mergeCell ref="BG5:BH5"/>
+    <mergeCell ref="BI5:BJ5"/>
+    <mergeCell ref="BI6:BJ6"/>
+    <mergeCell ref="BA3:BC3"/>
+    <mergeCell ref="BJ2:BL2"/>
+    <mergeCell ref="BJ3:BL3"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="BM6:BM7"/>
     <mergeCell ref="BP6:BP7"/>
     <mergeCell ref="AP6:AP7"/>
-    <mergeCell ref="BR6:BR7"/>
-    <mergeCell ref="BL6:BL7"/>
-    <mergeCell ref="AM10:BR11"/>
-    <mergeCell ref="AM14:BR15"/>
-    <mergeCell ref="AM18:BR19"/>
-    <mergeCell ref="AM22:BR23"/>
-    <mergeCell ref="BQ6:BQ7"/>
-    <mergeCell ref="BD6:BD7"/>
-    <mergeCell ref="BE6:BF6"/>
-    <mergeCell ref="BG6:BH6"/>
-    <mergeCell ref="BK6:BK7"/>
-    <mergeCell ref="BO8:BO9"/>
-    <mergeCell ref="BO12:BO13"/>
-    <mergeCell ref="BN6:BN7"/>
-    <mergeCell ref="AQ6:AQ7"/>
-    <mergeCell ref="AM6:AM7"/>
-    <mergeCell ref="AN6:AN7"/>
-    <mergeCell ref="AO6:AO7"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AT6:AU6"/>
-    <mergeCell ref="BP20:BP21"/>
-    <mergeCell ref="BO6:BO7"/>
+    <mergeCell ref="AM46:BR47"/>
+    <mergeCell ref="AM50:BR51"/>
+    <mergeCell ref="BO52:BO53"/>
+    <mergeCell ref="BL12:BL13"/>
+    <mergeCell ref="BL16:BL17"/>
+    <mergeCell ref="BL20:BL21"/>
+    <mergeCell ref="BO48:BO49"/>
+    <mergeCell ref="BL24:BL25"/>
+    <mergeCell ref="BL28:BL29"/>
+    <mergeCell ref="BP16:BP17"/>
+    <mergeCell ref="BR12:BR13"/>
+    <mergeCell ref="BR16:BR17"/>
+    <mergeCell ref="BR20:BR21"/>
+    <mergeCell ref="BR24:BR25"/>
+    <mergeCell ref="BR28:BR29"/>
+    <mergeCell ref="BR32:BR33"/>
+    <mergeCell ref="BR36:BR37"/>
+    <mergeCell ref="AM26:BR27"/>
+    <mergeCell ref="AM30:BR31"/>
+    <mergeCell ref="AM34:BR35"/>
+    <mergeCell ref="AL6:AL7"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="BR40:BR41"/>
+    <mergeCell ref="BR44:BR45"/>
+    <mergeCell ref="BL32:BL33"/>
+    <mergeCell ref="BL36:BL37"/>
+    <mergeCell ref="BL40:BL41"/>
+    <mergeCell ref="BL44:BL45"/>
+    <mergeCell ref="BO16:BO17"/>
+    <mergeCell ref="BO20:BO21"/>
+    <mergeCell ref="BO24:BO25"/>
+    <mergeCell ref="BO28:BO29"/>
+    <mergeCell ref="BO32:BO33"/>
+    <mergeCell ref="BO36:BO37"/>
+    <mergeCell ref="BO40:BO41"/>
+    <mergeCell ref="BO44:BO45"/>
+    <mergeCell ref="AX6:AY6"/>
+    <mergeCell ref="AZ5:BA5"/>
+    <mergeCell ref="AZ6:BA6"/>
+    <mergeCell ref="AT5:AU5"/>
+    <mergeCell ref="AV5:AW5"/>
+    <mergeCell ref="AV6:AW6"/>
+    <mergeCell ref="BP24:BP25"/>
+    <mergeCell ref="BP12:BP13"/>
+    <mergeCell ref="AP61:AS61"/>
+    <mergeCell ref="BC61:BF61"/>
+    <mergeCell ref="BG61:BJ61"/>
+    <mergeCell ref="BC62:BF62"/>
+    <mergeCell ref="BG62:BJ62"/>
+    <mergeCell ref="BP28:BP29"/>
+    <mergeCell ref="BP32:BP33"/>
+    <mergeCell ref="BP36:BP37"/>
+    <mergeCell ref="BP40:BP41"/>
+    <mergeCell ref="BP44:BP45"/>
+    <mergeCell ref="BP48:BP49"/>
+    <mergeCell ref="BP52:BP53"/>
+    <mergeCell ref="AP58:AS58"/>
+    <mergeCell ref="AU58:AW58"/>
+    <mergeCell ref="AX58:BA58"/>
+    <mergeCell ref="BC58:BF58"/>
+    <mergeCell ref="BG58:BJ58"/>
+    <mergeCell ref="AM54:BR55"/>
+    <mergeCell ref="BL48:BL49"/>
+    <mergeCell ref="BL52:BL53"/>
+    <mergeCell ref="BR48:BR49"/>
+    <mergeCell ref="BR52:BR53"/>
+    <mergeCell ref="AM38:BR39"/>
+    <mergeCell ref="AM42:BR43"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
